--- a/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ASOFT_ERP9\10_DOCUMENT\13_DETAIL_DESIGN\1.STANDARD\ASOFT_CRM\03_DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tài liệu phân tích_Yêu cầu\03_DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -44,12 +44,12 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$O$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$156</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1377,7 +1377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="354">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2235,16 +2235,7 @@
     <t>RequestDescription</t>
   </si>
   <si>
-    <t>Thời gian ghi nhận</t>
-  </si>
-  <si>
-    <t>Thời hạn xử lý</t>
-  </si>
-  <si>
     <t>TimeRequest</t>
-  </si>
-  <si>
-    <t>DeadlineRequets</t>
   </si>
   <si>
     <t>Chọn người phụ trách</t>
@@ -2291,9 +2282,6 @@
   </si>
   <si>
     <t>ArrayBox</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>Truyền tham số DivisionID truyền tới màn hình CRMF9001 - Chọn khách hàng</t>
@@ -2367,6 +2355,222 @@
   </si>
   <si>
     <t>Update bảng chính</t>
+  </si>
+  <si>
+    <t>Lấy mã yêu cầu sinh tự động</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Select RequestID
+From CRMT20801 With (NOLOCK)
+Where APK = @APK</t>
+  </si>
+  <si>
+    <t>@APK</t>
+  </si>
+  <si>
+    <t>biến @APK lấy từ câu insert @SQL005</t>
+  </si>
+  <si>
+    <t>@SQL012</t>
+  </si>
+  <si>
+    <t>"CRMT20801"
+@APK</t>
+  </si>
+  <si>
+    <t>@APK, @DivisionID, @AttachID,  @RequestID,
+20</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL001 load combo [Tình trạng yêu cầu]</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL002 load from dữ liệu</t>
+  </si>
+  <si>
+    <t>Luồng 6 : Chọn [Khách hàng]
+               - Truyền tham số @@DivisionID đến màn CRMF9001 - Chọn khách hàng
+               - Màn hình CRMF9001 cho phép chọn 1 giá trị</t>
+  </si>
+  <si>
+    <t>Luồng 7 : Chọn [Người phụ trách]
+               - Truyền tham số @@DivisionID đến màn CMNF9003 - Chọn nhân viên
+               - Màn hình CMNF9003 cho phép chọn 1 giá trị</t>
+  </si>
+  <si>
+    <t>Luồng 10: Xử lý mã yêu cầu tăng tự động theo thiết lập, tham khảo tài liệu theo đường dẫn sau:
+               - SVN_ERP90\10_DOCUMENT\13_DETAIL_DESIGN\4.CLOUD\ASOFT_00\03_DetailDesign\ASOFT_Ma tang tu dong.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luồng 9: Màn hình gọi từ những màn hình khác như: 
+        a. Cho thêm/Sửa
+               - Gọi từ màn hình [Danh sách CRMF2081] -&gt; Button [Thêm]
+               - Gọi từ màn hình [Xem chi tiết yêu cầu] -&gt; Button [Sửa]
+        b. Cho xem
+               - Gọi từ màn hình [Xem chi tiết khách hàng] -&gt; Link [yêu cầu] trong lưới
+</t>
+  </si>
+  <si>
+    <t>Luồng 8 : Chọn [File đính kèm]
+               - Truyền tham số @@DivisionID đến màn CMNF9006 - Chọn file đính kèm
+               - Màn hình CMNF9006 cho phép chọn 1 giá trị</t>
+  </si>
+  <si>
+    <t>Luồng 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sau khi Insert thành công ở luồng 1, 2 và 3  thì chạy ngầm ghi nhận lịch sử theo file template thứ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sau khi Sửa thành công ở luồng 4 và 5  thì chạy ngầm ghi nhận lịch sử theo file template thứ 4</t>
+  </si>
+  <si>
+    <t>Luồng 11</t>
+  </si>
+  <si>
+    <t>Insert into CRMT20801_CRMT10101_REL
+(APK, AccountID , RequestID)
+Values 
+ @APK, @APKAccountID, @RequestID)</t>
+  </si>
+  <si>
+    <t>@APK, @APKAccountID, @RequestID</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa câu load màn hình cập nhật khi sửa</t>
+  </si>
+  <si>
+    <t>Luồng 13</t>
+  </si>
+  <si>
+    <t>Ver 3.0</t>
+  </si>
+  <si>
+    <t>Lưu thành công tiến hành ghi nhận lịch sử edit vào lịch sử của hệ thống theo template thứ 5</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa trường hợp edit từ màn hình Xem chi tiết Khách hàng</t>
+  </si>
+  <si>
+    <t>Trường hợp mở edit từ màn hình CRMF1012 thì tiến hành xử lý theo luồng edit ở EditSave ở trên</t>
+  </si>
+  <si>
+    <t>Tấn Đạt</t>
+  </si>
+  <si>
+    <t>24/01/2018</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Loại yêu cầu</t>
+  </si>
+  <si>
+    <t>RequestTypeID</t>
+  </si>
+  <si>
+    <t>Phân loại bug</t>
+  </si>
+  <si>
+    <t>BugTypeID</t>
+  </si>
+  <si>
+    <t>Ver 4.0</t>
+  </si>
+  <si>
+    <t>Dự án</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>Ngày ghi nhận</t>
+  </si>
+  <si>
+    <t>Deadline mong muốn</t>
+  </si>
+  <si>
+    <t>DeadlineExpect</t>
+  </si>
+  <si>
+    <t>Deadline xử lý</t>
+  </si>
+  <si>
+    <t>DeadlineRequest</t>
+  </si>
+  <si>
+    <t>Deadline thực tế hoàn thành</t>
+  </si>
+  <si>
+    <t>CompleteDate</t>
+  </si>
+  <si>
+    <t>Số giờ cho phép</t>
+  </si>
+  <si>
+    <t>DurationTime</t>
+  </si>
+  <si>
+    <t>Số giờ thực tế</t>
+  </si>
+  <si>
+    <t>@SQL013</t>
+  </si>
+  <si>
+    <t>@SQL014</t>
+  </si>
+  <si>
+    <t>Load combo [Phân loại yêu cầu]
+(Tool BA\SQL List\CRM-CLOUD)</t>
+  </si>
+  <si>
+    <t>Load combo Dự án</t>
+  </si>
+  <si>
+    <t>CRMT00000025</t>
+  </si>
+  <si>
+    <t>Load combo Phân loại yêu cầu</t>
+  </si>
+  <si>
+    <t>RealTime</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>DropdowChecklist</t>
+  </si>
+  <si>
+    <t>CRMT00000026</t>
+  </si>
+  <si>
+    <t>Insert Into CRMT20801 
+(APK, DivisionID, RequestSubject
+, PriorityID, RequestStatus, DeleteFlg
+, TimeRequest, DeadlineRequest, AssignedToUserID
+, RequestDescription, FeedbackDescription, RelatedToTypeID
+, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID, RequestTypeID, BugTypeID, DeadlineExpect, CompleteDate, DurationTime, RealTime, ProjectID)
+Values 
+(@APK, @DivisionID, @RequestSubject
+, @PriorityID, @RequestStatus, @DeleteFlg
+, @TimeRequest, @DeadlineRequest, @AssignedToUserID
+, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
+, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime, @ProjectID)</t>
+  </si>
+  <si>
+    <t>@APK,
+ @DivisionID, @RequestSubject
+, @PriorityID, @RequestStatus, @DeleteFlg
+, @TimeRequest, @DeadlineRequest, @AssignedToUserID
+, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
+, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
+@ProjectID</t>
   </si>
   <si>
     <t>Update CRMT20801 
@@ -2383,7 +2587,32 @@
 , RelatedToTypeID = @RelatedToTypeID
 , LastModifyUserID = @LastModifyUserID
 , LastModifyDate = @LastModifyDate
+, RequestTypeID = @RequestTypeID
+, BugTypeID = @BugTypeID
+, DeadlineExpect = @DeadlineExpect
+, CompleteDate = @CompleteDate
+, DurationTime = @DurationTime
+, RealTime = @RealTime
+, ProjectID = @ProjectID
 Where RequestID =@RequestID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DivisionID
+@RequestSubject
+@PriorityID
+@RequestStatus
+@TimeRequest
+@DeadlineRequest
+@AssignedToUserID
+@RequestDescription
+@FeedbackDescription
+@RelatedToTypeID
+@LastModifyUserID
+@LastModifyDate
+@RequestID
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
+@ProjectID
+</t>
   </si>
   <si>
     <t>@DivisionID
@@ -2398,121 +2627,41 @@
 @RelatedToTypeID
 @LastModifyUserID
 @LastModifyDate
-@RequestID</t>
-  </si>
-  <si>
-    <t>Insert Into CRMT20801 
-(APK, DivisionID, RequestSubject
-, PriorityID, RequestStatus, DeleteFlg
-, TimeRequest, DeadlineRequest, AssignedToUserID
-, RequestDescription, FeedbackDescription, RelatedToTypeID
-, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID)
-Values 
-(@APK, @DivisionID, @RequestSubject
-, @PriorityID, @RequestStatus, @DeleteFlg
-, @TimeRequest, @DeadlineRequest, @AssignedToUserID
-, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
-, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID)</t>
-  </si>
-  <si>
-    <t>@APK,
- @DivisionID, @RequestSubject
-, @PriorityID, @RequestStatus, @DeleteFlg
-, @TimeRequest, @DeadlineRequest, @AssignedToUserID
-, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
-, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID</t>
+@RequestID
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
+@ProjectID</t>
+  </si>
+  <si>
+    <t>Load combo Phân loại bug</t>
+  </si>
+  <si>
+    <t>Load combo [Phân loại bug]
+(Tool BA\SQL List\CRM-CLOUD)</t>
+  </si>
+  <si>
+    <t>@SQL015</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL013 load combo [Phân loại yêu cầu]</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL014 load combo [Phân loại bug]</t>
+  </si>
+  <si>
+    <t>25/01/2018</t>
   </si>
   <si>
     <t>NewID(),
  Biến môi trường @RequestSubject
-, @PriorityID, @RequestStatus, @DeleteFlg
+, @PriorityID, @RequestStatus,
+ @DeleteFlg
 , @TimeRequest, @DeadlineRequest, @AssignedToUserID
 , @RequestDescription, @FeedbackDescription, 
 20
-, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID</t>
-  </si>
-  <si>
-    <t>Lấy mã yêu cầu sinh tự động</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Select RequestID
-From CRMT20801 With (NOLOCK)
-Where APK = @APK</t>
-  </si>
-  <si>
-    <t>@APK</t>
-  </si>
-  <si>
-    <t>biến @APK lấy từ câu insert @SQL005</t>
-  </si>
-  <si>
-    <t>@SQL012</t>
-  </si>
-  <si>
-    <t>"CRMT20801"
-@APK</t>
-  </si>
-  <si>
-    <t>@APK, @DivisionID, @AttachID,  @RequestID,
-20</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL001 load combo [Tình trạng yêu cầu]</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL002 load from dữ liệu</t>
-  </si>
-  <si>
-    <t>Luồng 6 : Chọn [Khách hàng]
-               - Truyền tham số @@DivisionID đến màn CRMF9001 - Chọn khách hàng
-               - Màn hình CRMF9001 cho phép chọn 1 giá trị</t>
-  </si>
-  <si>
-    <t>Luồng 7 : Chọn [Người phụ trách]
-               - Truyền tham số @@DivisionID đến màn CMNF9003 - Chọn nhân viên
-               - Màn hình CMNF9003 cho phép chọn 1 giá trị</t>
-  </si>
-  <si>
-    <t>Luồng 10: Xử lý mã yêu cầu tăng tự động theo thiết lập, tham khảo tài liệu theo đường dẫn sau:
-               - SVN_ERP90\10_DOCUMENT\13_DETAIL_DESIGN\4.CLOUD\ASOFT_00\03_DetailDesign\ASOFT_Ma tang tu dong.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luồng 9: Màn hình gọi từ những màn hình khác như: 
-        a. Cho thêm/Sửa
-               - Gọi từ màn hình [Danh sách CRMF2081] -&gt; Button [Thêm]
-               - Gọi từ màn hình [Xem chi tiết yêu cầu] -&gt; Button [Sửa]
-        b. Cho xem
-               - Gọi từ màn hình [Xem chi tiết khách hàng] -&gt; Link [yêu cầu] trong lưới
-</t>
-  </si>
-  <si>
-    <t>Luồng 8 : Chọn [File đính kèm]
-               - Truyền tham số @@DivisionID đến màn CMNF9006 - Chọn file đính kèm
-               - Màn hình CMNF9006 cho phép chọn 1 giá trị</t>
-  </si>
-  <si>
-    <t>Luồng 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sau khi Insert thành công ở luồng 1, 2 và 3  thì chạy ngầm ghi nhận lịch sử theo file template thứ 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sau khi Sửa thành công ở luồng 4 và 5  thì chạy ngầm ghi nhận lịch sử theo file template thứ 4</t>
-  </si>
-  <si>
-    <t>Luồng 11</t>
-  </si>
-  <si>
-    <t>Insert into CRMT20801_CRMT10101_REL
-(APK, AccountID , RequestID)
-Values 
- @APK, @APKAccountID, @RequestID)</t>
-  </si>
-  <si>
-    <t>@APK, @APKAccountID, @RequestID</t>
+, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime,
+@RealTime, 
+@ProjectID</t>
   </si>
   <si>
     <t>Select 
@@ -2535,29 +2684,20 @@
  where D.RequestID = M.RequestID
  Group by B.AccountID, B.AccountName
  FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as AccountName
-, M.CreateDate, M.LastModifyDate
+, M.CreateDate, M.LastModifyDate, M.DeadlineExpect, M.CompleteDate, M.DurationTime, M.RealTime, M.ProjectID
+,  M.RequestTypeID,C02.Description as RequestTypeName
+, M.BugTypeID, stuff(isnull((Select ', ' + B.Description From CRMT0099 B WITH (NOLOCK) 
+ where B.CodeMaster ='CRMT00000026'and B.ID in (Replace(M.BugTypeID,',',''','''))
+ Group by B.Description
+ FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as BugTypeName
 From CRMT20801 M With (Nolock)
 Left join AT1103 A With (Nolock) On A.EmployeeID = M.AssignedToUserID
-Left join CRMT0099 C01 With (Nolock) On C01.ID = M.RequestStatus and C01.CodeMaster ='CRMT00000003'
+Left join CRMT0099 C01 With (Nolock) On C01.ID = M.RequestStatus  and C01.CodeMaster ='CRMT00000003' 
+Left join CRMT0099 C02 With (Nolock) On C02.ID = M.RequestTypeID  and C02.CodeMaster ='CRMT00000025' 
 Where M.APK = @APK</t>
   </si>
   <si>
-    <t>Chỉnh sửa câu load màn hình cập nhật khi sửa</t>
-  </si>
-  <si>
-    <t>Luồng 13</t>
-  </si>
-  <si>
-    <t>Ver 3.0</t>
-  </si>
-  <si>
-    <t>Lưu thành công tiến hành ghi nhận lịch sử edit vào lịch sử của hệ thống theo template thứ 5</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa trường hợp edit từ màn hình Xem chi tiết Khách hàng</t>
-  </si>
-  <si>
-    <t>Trường hợp mở edit từ màn hình CRMF1012 thì tiến hành xử lý theo luồng edit ở EditSave ở trên</t>
+    <t>Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Dự án, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
   </si>
 </sst>
 </file>
@@ -3081,7 +3221,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3322,9 +3462,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3340,9 +3477,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3446,302 +3580,14 @@
     <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3755,6 +3601,177 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3763,6 +3780,234 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3845,15 +4090,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>684863</xdr:colOff>
+      <xdr:colOff>665813</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>75340</xdr:rowOff>
+      <xdr:rowOff>27715</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3870,12 +4115,67 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="666750"/>
+          <a:off x="47625" y="619125"/>
           <a:ext cx="7495238" cy="6876190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="619125"/>
+          <a:ext cx="7639050" cy="9715500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13394,65 +13694,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="151"/>
-      <c r="B1" s="151"/>
-      <c r="C1" s="153" t="s">
+      <c r="A1" s="197"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="199" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="152" t="s">
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="198" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152" t="s">
+      <c r="H1" s="198"/>
+      <c r="I1" s="198" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="152"/>
+      <c r="J1" s="198"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="152" t="s">
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="198" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="148" t="s">
+      <c r="A3" s="197"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="194" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="149"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="149"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="195"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="93"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="150"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
       <c r="M13" s="94"/>
@@ -13463,56 +13763,56 @@
       <c r="R13" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="190"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="190"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="146"/>
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="190"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="190"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
+      <c r="B16" s="193"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
       <c r="M16" s="95"/>
@@ -13523,384 +13823,384 @@
       <c r="R16" s="95"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="146"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="190"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="190"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="190"/>
+      <c r="Q17" s="190"/>
+      <c r="R17" s="190"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="190"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="190"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="190"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="192"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="192"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="190"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="190"/>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="190"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="190"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="190"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="190"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="162"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="191"/>
+      <c r="R22" s="191"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="162"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="191"/>
+      <c r="R23" s="191"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="164"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
+      <c r="B26" s="188"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="188"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="166"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
-      <c r="U28" s="165"/>
-      <c r="V28" s="165"/>
-      <c r="W28" s="165"/>
-      <c r="X28" s="165"/>
-      <c r="Y28" s="165"/>
-      <c r="Z28" s="165"/>
-      <c r="AA28" s="165"/>
-      <c r="AB28" s="165"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="165"/>
-      <c r="AE28" s="165"/>
-      <c r="AF28" s="165"/>
-      <c r="AG28" s="165"/>
-      <c r="AH28" s="165"/>
-      <c r="AI28" s="165"/>
-      <c r="AJ28" s="165"/>
-      <c r="AK28" s="165"/>
-      <c r="AL28" s="165"/>
-      <c r="AM28" s="165"/>
-      <c r="AN28" s="165"/>
-      <c r="AO28" s="165"/>
-      <c r="AP28" s="165"/>
-      <c r="AQ28" s="165"/>
-      <c r="AR28" s="165"/>
-      <c r="AS28" s="165"/>
-      <c r="AT28" s="165"/>
-      <c r="AU28" s="165"/>
-      <c r="AV28" s="165"/>
-      <c r="AW28" s="165"/>
-      <c r="AX28" s="165"/>
-      <c r="AY28" s="165"/>
-      <c r="AZ28" s="165"/>
-      <c r="BA28" s="165"/>
-      <c r="BB28" s="165"/>
-      <c r="BC28" s="165"/>
-      <c r="BD28" s="165"/>
-      <c r="BE28" s="165"/>
-      <c r="BF28" s="165"/>
-      <c r="BG28" s="165"/>
-      <c r="BH28" s="165"/>
-      <c r="BI28" s="165"/>
-      <c r="BJ28" s="165"/>
-      <c r="BK28" s="165"/>
-      <c r="BL28" s="165"/>
-      <c r="BM28" s="165"/>
-      <c r="BN28" s="165"/>
-      <c r="BO28" s="165"/>
-      <c r="BP28" s="165"/>
-      <c r="BQ28" s="165"/>
-      <c r="BR28" s="165"/>
-      <c r="BS28" s="165"/>
-      <c r="BT28" s="165"/>
-      <c r="BU28" s="165"/>
-      <c r="BV28" s="165"/>
-      <c r="BW28" s="165"/>
-      <c r="BX28" s="165"/>
-      <c r="BY28" s="165"/>
-      <c r="BZ28" s="165"/>
-      <c r="CA28" s="165"/>
-      <c r="CB28" s="165"/>
-      <c r="CC28" s="165"/>
-      <c r="CD28" s="165"/>
-      <c r="CE28" s="165"/>
-      <c r="CF28" s="165"/>
-      <c r="CG28" s="165"/>
-      <c r="CH28" s="165"/>
-      <c r="CI28" s="165"/>
-      <c r="CJ28" s="165"/>
-      <c r="CK28" s="165"/>
-      <c r="CL28" s="165"/>
-      <c r="CM28" s="165"/>
-      <c r="CN28" s="165"/>
-      <c r="CO28" s="165"/>
-      <c r="CP28" s="165"/>
-      <c r="CQ28" s="165"/>
-      <c r="CR28" s="165"/>
-      <c r="CS28" s="165"/>
-      <c r="CT28" s="165"/>
-      <c r="CU28" s="165"/>
-      <c r="CV28" s="165"/>
-      <c r="CW28" s="165"/>
-      <c r="CX28" s="165"/>
-      <c r="CY28" s="165"/>
-      <c r="CZ28" s="165"/>
-      <c r="DA28" s="165"/>
-      <c r="DB28" s="165"/>
-      <c r="DC28" s="165"/>
-      <c r="DD28" s="165"/>
-      <c r="DE28" s="165"/>
-      <c r="DF28" s="165"/>
-      <c r="DG28" s="165"/>
-      <c r="DH28" s="165"/>
-      <c r="DI28" s="165"/>
-      <c r="DJ28" s="165"/>
-      <c r="DK28" s="165"/>
-      <c r="DL28" s="165"/>
-      <c r="DM28" s="165"/>
-      <c r="DN28" s="165"/>
-      <c r="DO28" s="165"/>
-      <c r="DP28" s="165"/>
-      <c r="DQ28" s="165"/>
-      <c r="DR28" s="165"/>
-      <c r="DS28" s="165"/>
-      <c r="DT28" s="165"/>
-      <c r="DU28" s="165"/>
-      <c r="DV28" s="165"/>
-      <c r="DW28" s="165"/>
-      <c r="DX28" s="165"/>
-      <c r="DY28" s="165"/>
-      <c r="DZ28" s="165"/>
-      <c r="EA28" s="165"/>
-      <c r="EB28" s="165"/>
-      <c r="EC28" s="165"/>
-      <c r="ED28" s="165"/>
-      <c r="EE28" s="165"/>
-      <c r="EF28" s="165"/>
-      <c r="EG28" s="165"/>
-      <c r="EH28" s="165"/>
-      <c r="EI28" s="165"/>
-      <c r="EJ28" s="165"/>
-      <c r="EK28" s="165"/>
-      <c r="EL28" s="165"/>
-      <c r="EM28" s="165"/>
-      <c r="EN28" s="165"/>
-      <c r="EO28" s="165"/>
-      <c r="EP28" s="165"/>
-      <c r="EQ28" s="165"/>
-      <c r="ER28" s="165"/>
-      <c r="ES28" s="165"/>
-      <c r="ET28" s="165"/>
-      <c r="EU28" s="165"/>
-      <c r="EV28" s="165"/>
-      <c r="EW28" s="165"/>
-      <c r="EX28" s="165"/>
-      <c r="EY28" s="165"/>
-      <c r="EZ28" s="165"/>
-      <c r="FA28" s="165"/>
-      <c r="FB28" s="165"/>
-      <c r="FC28" s="165"/>
-      <c r="FD28" s="165"/>
-      <c r="FE28" s="165"/>
-      <c r="FF28" s="165"/>
-      <c r="FG28" s="165"/>
-      <c r="FH28" s="165"/>
-      <c r="FI28" s="165"/>
-      <c r="FJ28" s="165"/>
-      <c r="FK28" s="165"/>
-      <c r="FL28" s="165"/>
-      <c r="FM28" s="165"/>
-      <c r="FN28" s="165"/>
-      <c r="FO28" s="165"/>
-      <c r="FP28" s="165"/>
-      <c r="FQ28" s="165"/>
-      <c r="FR28" s="165"/>
-      <c r="FS28" s="165"/>
-      <c r="FT28" s="165"/>
-      <c r="FU28" s="165"/>
-      <c r="FV28" s="165"/>
-      <c r="FW28" s="165"/>
-      <c r="FX28" s="165"/>
-      <c r="FY28" s="165"/>
-      <c r="FZ28" s="165"/>
-      <c r="GA28" s="165"/>
-      <c r="GB28" s="165"/>
-      <c r="GC28" s="165"/>
-      <c r="GD28" s="165"/>
-      <c r="GE28" s="165"/>
-      <c r="GF28" s="165"/>
-      <c r="GG28" s="165"/>
-      <c r="GH28" s="165"/>
-      <c r="GI28" s="165"/>
-      <c r="GJ28" s="165"/>
-      <c r="GK28" s="165"/>
-      <c r="GL28" s="165"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="189"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="189"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="189"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="187"/>
+      <c r="W28" s="187"/>
+      <c r="X28" s="187"/>
+      <c r="Y28" s="187"/>
+      <c r="Z28" s="187"/>
+      <c r="AA28" s="187"/>
+      <c r="AB28" s="187"/>
+      <c r="AC28" s="187"/>
+      <c r="AD28" s="187"/>
+      <c r="AE28" s="187"/>
+      <c r="AF28" s="187"/>
+      <c r="AG28" s="187"/>
+      <c r="AH28" s="187"/>
+      <c r="AI28" s="187"/>
+      <c r="AJ28" s="187"/>
+      <c r="AK28" s="187"/>
+      <c r="AL28" s="187"/>
+      <c r="AM28" s="187"/>
+      <c r="AN28" s="187"/>
+      <c r="AO28" s="187"/>
+      <c r="AP28" s="187"/>
+      <c r="AQ28" s="187"/>
+      <c r="AR28" s="187"/>
+      <c r="AS28" s="187"/>
+      <c r="AT28" s="187"/>
+      <c r="AU28" s="187"/>
+      <c r="AV28" s="187"/>
+      <c r="AW28" s="187"/>
+      <c r="AX28" s="187"/>
+      <c r="AY28" s="187"/>
+      <c r="AZ28" s="187"/>
+      <c r="BA28" s="187"/>
+      <c r="BB28" s="187"/>
+      <c r="BC28" s="187"/>
+      <c r="BD28" s="187"/>
+      <c r="BE28" s="187"/>
+      <c r="BF28" s="187"/>
+      <c r="BG28" s="187"/>
+      <c r="BH28" s="187"/>
+      <c r="BI28" s="187"/>
+      <c r="BJ28" s="187"/>
+      <c r="BK28" s="187"/>
+      <c r="BL28" s="187"/>
+      <c r="BM28" s="187"/>
+      <c r="BN28" s="187"/>
+      <c r="BO28" s="187"/>
+      <c r="BP28" s="187"/>
+      <c r="BQ28" s="187"/>
+      <c r="BR28" s="187"/>
+      <c r="BS28" s="187"/>
+      <c r="BT28" s="187"/>
+      <c r="BU28" s="187"/>
+      <c r="BV28" s="187"/>
+      <c r="BW28" s="187"/>
+      <c r="BX28" s="187"/>
+      <c r="BY28" s="187"/>
+      <c r="BZ28" s="187"/>
+      <c r="CA28" s="187"/>
+      <c r="CB28" s="187"/>
+      <c r="CC28" s="187"/>
+      <c r="CD28" s="187"/>
+      <c r="CE28" s="187"/>
+      <c r="CF28" s="187"/>
+      <c r="CG28" s="187"/>
+      <c r="CH28" s="187"/>
+      <c r="CI28" s="187"/>
+      <c r="CJ28" s="187"/>
+      <c r="CK28" s="187"/>
+      <c r="CL28" s="187"/>
+      <c r="CM28" s="187"/>
+      <c r="CN28" s="187"/>
+      <c r="CO28" s="187"/>
+      <c r="CP28" s="187"/>
+      <c r="CQ28" s="187"/>
+      <c r="CR28" s="187"/>
+      <c r="CS28" s="187"/>
+      <c r="CT28" s="187"/>
+      <c r="CU28" s="187"/>
+      <c r="CV28" s="187"/>
+      <c r="CW28" s="187"/>
+      <c r="CX28" s="187"/>
+      <c r="CY28" s="187"/>
+      <c r="CZ28" s="187"/>
+      <c r="DA28" s="187"/>
+      <c r="DB28" s="187"/>
+      <c r="DC28" s="187"/>
+      <c r="DD28" s="187"/>
+      <c r="DE28" s="187"/>
+      <c r="DF28" s="187"/>
+      <c r="DG28" s="187"/>
+      <c r="DH28" s="187"/>
+      <c r="DI28" s="187"/>
+      <c r="DJ28" s="187"/>
+      <c r="DK28" s="187"/>
+      <c r="DL28" s="187"/>
+      <c r="DM28" s="187"/>
+      <c r="DN28" s="187"/>
+      <c r="DO28" s="187"/>
+      <c r="DP28" s="187"/>
+      <c r="DQ28" s="187"/>
+      <c r="DR28" s="187"/>
+      <c r="DS28" s="187"/>
+      <c r="DT28" s="187"/>
+      <c r="DU28" s="187"/>
+      <c r="DV28" s="187"/>
+      <c r="DW28" s="187"/>
+      <c r="DX28" s="187"/>
+      <c r="DY28" s="187"/>
+      <c r="DZ28" s="187"/>
+      <c r="EA28" s="187"/>
+      <c r="EB28" s="187"/>
+      <c r="EC28" s="187"/>
+      <c r="ED28" s="187"/>
+      <c r="EE28" s="187"/>
+      <c r="EF28" s="187"/>
+      <c r="EG28" s="187"/>
+      <c r="EH28" s="187"/>
+      <c r="EI28" s="187"/>
+      <c r="EJ28" s="187"/>
+      <c r="EK28" s="187"/>
+      <c r="EL28" s="187"/>
+      <c r="EM28" s="187"/>
+      <c r="EN28" s="187"/>
+      <c r="EO28" s="187"/>
+      <c r="EP28" s="187"/>
+      <c r="EQ28" s="187"/>
+      <c r="ER28" s="187"/>
+      <c r="ES28" s="187"/>
+      <c r="ET28" s="187"/>
+      <c r="EU28" s="187"/>
+      <c r="EV28" s="187"/>
+      <c r="EW28" s="187"/>
+      <c r="EX28" s="187"/>
+      <c r="EY28" s="187"/>
+      <c r="EZ28" s="187"/>
+      <c r="FA28" s="187"/>
+      <c r="FB28" s="187"/>
+      <c r="FC28" s="187"/>
+      <c r="FD28" s="187"/>
+      <c r="FE28" s="187"/>
+      <c r="FF28" s="187"/>
+      <c r="FG28" s="187"/>
+      <c r="FH28" s="187"/>
+      <c r="FI28" s="187"/>
+      <c r="FJ28" s="187"/>
+      <c r="FK28" s="187"/>
+      <c r="FL28" s="187"/>
+      <c r="FM28" s="187"/>
+      <c r="FN28" s="187"/>
+      <c r="FO28" s="187"/>
+      <c r="FP28" s="187"/>
+      <c r="FQ28" s="187"/>
+      <c r="FR28" s="187"/>
+      <c r="FS28" s="187"/>
+      <c r="FT28" s="187"/>
+      <c r="FU28" s="187"/>
+      <c r="FV28" s="187"/>
+      <c r="FW28" s="187"/>
+      <c r="FX28" s="187"/>
+      <c r="FY28" s="187"/>
+      <c r="FZ28" s="187"/>
+      <c r="GA28" s="187"/>
+      <c r="GB28" s="187"/>
+      <c r="GC28" s="187"/>
+      <c r="GD28" s="187"/>
+      <c r="GE28" s="187"/>
+      <c r="GF28" s="187"/>
+      <c r="GG28" s="187"/>
+      <c r="GH28" s="187"/>
+      <c r="GI28" s="187"/>
+      <c r="GJ28" s="187"/>
+      <c r="GK28" s="187"/>
+      <c r="GL28" s="187"/>
       <c r="GM28" s="96"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="164"/>
-      <c r="R29" s="164"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="188"/>
+      <c r="R29" s="188"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="167"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
+      <c r="A30" s="186"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
       <c r="K30" s="97"/>
       <c r="L30" s="97"/>
       <c r="M30" s="97"/>
@@ -13911,16 +14211,16 @@
       <c r="R30" s="97"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="167"/>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
       <c r="K31" s="97"/>
       <c r="L31" s="97"/>
       <c r="M31" s="97"/>
@@ -13932,28 +14232,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -13967,6 +14245,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -13993,14 +14293,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="238" t="s">
+      <c r="B1" s="285" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -14193,11 +14493,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="239" t="s">
+      <c r="E27" s="286" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="240"/>
-      <c r="G27" s="241"/>
+      <c r="F27" s="287"/>
+      <c r="G27" s="288"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -14505,7 +14805,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:J14"/>
+      <selection activeCell="E8" sqref="E8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14521,10 +14821,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
+      <c r="B1" s="215"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14547,12 +14847,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14568,14 +14868,14 @@
       <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="108" t="s">
         <v>227</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="109" t="s">
-        <v>227</v>
+      <c r="J2" s="108" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
@@ -14591,96 +14891,102 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A5" s="104">
+      <c r="A5" s="103">
         <v>1</v>
       </c>
-      <c r="B5" s="108">
+      <c r="B5" s="107">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="170" t="s">
+      <c r="E5" s="217" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="71">
         <v>2</v>
       </c>
-      <c r="B6" s="144">
+      <c r="B6" s="142">
         <v>2</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="145">
+      <c r="D6" s="143">
         <v>42877</v>
       </c>
-      <c r="E6" s="171" t="s">
-        <v>314</v>
-      </c>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
+      <c r="E6" s="218" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="220"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="72">
         <v>3</v>
       </c>
-      <c r="B7" s="249">
+      <c r="B7" s="151">
         <v>3</v>
       </c>
-      <c r="C7" s="250" t="s">
+      <c r="C7" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="250">
+      <c r="D7" s="152">
         <v>42881</v>
       </c>
-      <c r="E7" s="251" t="s">
-        <v>318</v>
-      </c>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="253"/>
-    </row>
-    <row r="8" spans="1:10" ht="12" customHeight="1">
+      <c r="E7" s="212" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="214"/>
+    </row>
+    <row r="8" spans="1:10" ht="30.75" customHeight="1">
       <c r="A8" s="73">
         <v>4</v>
       </c>
-      <c r="B8" s="38">
-        <v>4</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="B8" s="153" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="289" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="290"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="74">
@@ -14691,12 +14997,12 @@
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="177"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="211"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="75">
@@ -14707,12 +15013,12 @@
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="177"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="211"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="76">
@@ -14723,12 +15029,12 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="177"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="211"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="77">
@@ -14739,12 +15045,12 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="177"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="211"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="78">
@@ -14755,12 +15061,12 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="211"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="79">
@@ -14771,12 +15077,12 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="177"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="211"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -14787,12 +15093,12 @@
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="208"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="71">
@@ -14803,12 +15109,12 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="72">
@@ -14819,12 +15125,12 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="73">
@@ -14835,12 +15141,12 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="74">
@@ -14851,12 +15157,12 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="208"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="75">
@@ -14867,12 +15173,12 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="208"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="76">
@@ -14883,12 +15189,12 @@
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="208"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="77">
@@ -14899,12 +15205,12 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="78">
@@ -14915,12 +15221,12 @@
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="79">
@@ -14931,12 +15237,12 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -14947,12 +15253,12 @@
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="208"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="71">
@@ -14963,12 +15269,12 @@
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="208"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="72">
@@ -14979,12 +15285,12 @@
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="208"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="73">
@@ -14995,12 +15301,12 @@
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="208"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="74">
@@ -15011,12 +15317,12 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="208"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="208"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="75">
@@ -15027,12 +15333,12 @@
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="208"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="76">
@@ -15043,12 +15349,12 @@
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="208"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="77">
@@ -15059,12 +15365,12 @@
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="208"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="78">
@@ -15075,12 +15381,12 @@
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="79">
@@ -15091,20 +15397,26 @@
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -15121,17 +15433,11 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -15176,10 +15482,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
+      <c r="B1" s="215"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15206,12 +15512,12 @@
       </c>
       <c r="J1" s="59" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15238,24 +15544,24 @@
       </c>
       <c r="J2" s="59" t="str">
         <f>'Update History'!J2</f>
-        <v>25/03/2017</v>
+        <v>25/01/2018</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="181" t="s">
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="182"/>
+      <c r="J4" s="222"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -15266,10 +15572,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="188" t="s">
+      <c r="I5" s="228" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="189"/>
+      <c r="J5" s="229"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -15280,8 +15586,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="191"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="231"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -15292,8 +15598,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="231"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -15304,8 +15610,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="231"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -15316,8 +15622,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="191"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="231"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -15328,8 +15634,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="193"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="233"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -15340,10 +15646,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="181" t="s">
+      <c r="I11" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="182"/>
+      <c r="J11" s="222"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -15354,10 +15660,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="184" t="s">
+      <c r="I12" s="224" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="185"/>
+      <c r="J12" s="225"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -15368,8 +15674,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="187"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="227"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -15380,8 +15686,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="187"/>
+      <c r="I14" s="226"/>
+      <c r="J14" s="227"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -15392,8 +15698,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="187"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="227"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -15404,8 +15710,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="187"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="227"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -15416,8 +15722,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="187"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="227"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -15428,8 +15734,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="187"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="227"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -15440,8 +15746,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="187"/>
+      <c r="I19" s="226"/>
+      <c r="J19" s="227"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -15452,8 +15758,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="187"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="227"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -15464,8 +15770,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="187"/>
+      <c r="I21" s="226"/>
+      <c r="J21" s="227"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -15476,8 +15782,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="187"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="227"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -15488,8 +15794,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="187"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="227"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -15500,8 +15806,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="187"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="227"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -15512,8 +15818,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="187"/>
+      <c r="I25" s="226"/>
+      <c r="J25" s="227"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -15524,8 +15830,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="187"/>
+      <c r="I26" s="226"/>
+      <c r="J26" s="227"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -15536,8 +15842,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="187"/>
+      <c r="I27" s="226"/>
+      <c r="J27" s="227"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -15548,8 +15854,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="187"/>
+      <c r="I28" s="226"/>
+      <c r="J28" s="227"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -15560,8 +15866,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="187"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="227"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -15572,8 +15878,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="187"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="227"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -15584,8 +15890,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="187"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="227"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -15596,8 +15902,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="187"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="227"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -15608,8 +15914,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="187"/>
+      <c r="I33" s="226"/>
+      <c r="J33" s="227"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -15620,8 +15926,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="187"/>
+      <c r="I34" s="226"/>
+      <c r="J34" s="227"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -15632,8 +15938,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="187"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="227"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -15644,8 +15950,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="187"/>
+      <c r="I36" s="226"/>
+      <c r="J36" s="227"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -15656,8 +15962,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="187"/>
+      <c r="I37" s="226"/>
+      <c r="J37" s="227"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -15668,8 +15974,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="187"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="227"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -15680,8 +15986,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="187"/>
+      <c r="I39" s="226"/>
+      <c r="J39" s="227"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -15692,8 +15998,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="187"/>
+      <c r="I40" s="226"/>
+      <c r="J40" s="227"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -15704,8 +16010,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="187"/>
+      <c r="I41" s="226"/>
+      <c r="J41" s="227"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -15716,8 +16022,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="187"/>
+      <c r="I42" s="226"/>
+      <c r="J42" s="227"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -15728,8 +16034,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="186"/>
-      <c r="J43" s="187"/>
+      <c r="I43" s="226"/>
+      <c r="J43" s="227"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -15740,8 +16046,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="186"/>
-      <c r="J44" s="187"/>
+      <c r="I44" s="226"/>
+      <c r="J44" s="227"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -15752,8 +16058,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="186"/>
-      <c r="J45" s="187"/>
+      <c r="I45" s="226"/>
+      <c r="J45" s="227"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -15764,8 +16070,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="186"/>
-      <c r="J46" s="187"/>
+      <c r="I46" s="226"/>
+      <c r="J46" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15790,25 +16096,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="111" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="109" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="111" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="111" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="109" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" style="23" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" style="23" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" style="23" customWidth="1"/>
@@ -15820,12 +16126,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -15833,16 +16139,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="197" t="s">
+      <c r="G1" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="198"/>
-      <c r="I1" s="199" t="str">
+      <c r="H1" s="239"/>
+      <c r="I1" s="240" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="J1" s="200"/>
-      <c r="K1" s="201"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="242"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -15855,14 +16161,14 @@
       </c>
       <c r="O1" s="59" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -15870,16 +16176,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="199" t="str">
+      <c r="H2" s="239"/>
+      <c r="I2" s="240" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="J2" s="200"/>
-      <c r="K2" s="201"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="242"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -15892,7 +16198,7 @@
       </c>
       <c r="O2" s="59" t="str">
         <f>'Update History'!J2</f>
-        <v>25/03/2017</v>
+        <v>25/01/2018</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
@@ -15902,7 +16208,7 @@
       <c r="B4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="119" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -15914,10 +16220,10 @@
       <c r="F4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="119" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="24" t="s">
@@ -15949,731 +16255,978 @@
       <c r="B5" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="129">
         <v>1</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="130"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="124"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="122"/>
     </row>
     <row r="6" spans="1:15" s="25" customFormat="1" ht="11.25">
       <c r="A6" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="138">
-        <v>2</v>
-      </c>
-      <c r="D6" s="119" t="s">
+      <c r="C6" s="165">
+        <v>4</v>
+      </c>
+      <c r="D6" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="141" t="s">
+      <c r="F6" s="139" t="s">
         <v>239</v>
       </c>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="105">
+      <c r="I6" s="104">
         <v>50</v>
       </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="104" t="s">
+      <c r="J6" s="104"/>
+      <c r="K6" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="124"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="122"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" ht="22.5">
       <c r="A7" s="102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="202">
-        <v>3</v>
-      </c>
-      <c r="D7" s="137" t="s">
+      <c r="C7" s="243">
+        <v>5</v>
+      </c>
+      <c r="D7" s="135" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="129" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="140" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="129" t="s">
+      <c r="E7" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="138" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="129" t="s">
+      <c r="H7" s="127" t="s">
         <v>166</v>
       </c>
       <c r="I7" s="55">
         <v>250</v>
       </c>
       <c r="J7" s="55"/>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="141" t="s">
-        <v>264</v>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="139" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="25" customFormat="1" ht="11.25">
       <c r="A8" s="102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="131" t="s">
+      <c r="C8" s="244"/>
+      <c r="D8" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="E8" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130" t="s">
+      <c r="F8" s="128"/>
+      <c r="G8" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="124"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="122"/>
     </row>
     <row r="9" spans="1:15" s="25" customFormat="1" ht="11.25">
       <c r="A9" s="102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="138" t="s">
+      <c r="C9" s="245"/>
+      <c r="D9" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="134" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136" t="s">
+      <c r="F9" s="134"/>
+      <c r="G9" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="136"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="124"/>
-    </row>
-    <row r="10" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="H9" s="134"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="122"/>
+    </row>
+    <row r="10" spans="1:15" s="25" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="102">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="137">
-        <v>4</v>
-      </c>
-      <c r="D10" s="142" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="135" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="104"/>
+      <c r="C10" s="246">
+        <v>7</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="55">
+        <v>50</v>
+      </c>
+      <c r="J10" s="104"/>
+      <c r="K10" s="103" t="s">
+        <v>147</v>
+      </c>
       <c r="L10" s="116"/>
       <c r="M10" s="116"/>
       <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
+      <c r="O10" s="139" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="11" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A11" s="102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="133">
-        <v>5</v>
-      </c>
-      <c r="D11" s="142" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="136" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="G11" s="136" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="129" t="s">
-        <v>166</v>
-      </c>
+      <c r="C11" s="247"/>
+      <c r="D11" s="118" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="133"/>
+      <c r="G11" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="134"/>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
-      <c r="K11" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="136"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
     </row>
     <row r="12" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A12" s="102">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="137">
-        <v>6</v>
-      </c>
-      <c r="D12" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" s="135" t="s">
-        <v>246</v>
-      </c>
-      <c r="F12" s="140" t="s">
-        <v>246</v>
-      </c>
-      <c r="G12" s="135" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" s="140" t="s">
+      <c r="C12" s="248"/>
+      <c r="D12" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="133"/>
+      <c r="G12" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="134"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+    </row>
+    <row r="13" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="A13" s="102">
+        <v>12</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="135">
+        <v>8</v>
+      </c>
+      <c r="D13" s="140" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="138" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="I12" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-    </row>
-    <row r="13" spans="1:15" s="33" customFormat="1" ht="11.25">
-      <c r="A13" s="102">
+      <c r="I13" s="55"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+    </row>
+    <row r="14" spans="1:15" s="33" customFormat="1" ht="11.25">
+      <c r="A14" s="102">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="131">
+        <v>9</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="139" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="134" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="134"/>
+    </row>
+    <row r="15" spans="1:15" s="168" customFormat="1" ht="11.25">
+      <c r="A15" s="154">
+        <v>14</v>
+      </c>
+      <c r="B15" s="166" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="180">
         <v>10</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="133">
-        <v>7</v>
-      </c>
-      <c r="D13" s="120" t="s">
+      <c r="D15" s="161" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="163" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="135" t="s">
-        <v>249</v>
-      </c>
-      <c r="F13" s="140" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" s="140" t="s">
+      <c r="F15" s="163" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="129"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-    </row>
-    <row r="14" spans="1:15" s="25" customFormat="1" ht="11.25">
-      <c r="A14" s="102">
-        <v>11</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="137">
-        <v>8</v>
-      </c>
-      <c r="D14" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" s="135" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" s="140" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-    </row>
-    <row r="15" spans="1:15" s="25" customFormat="1" ht="22.5">
-      <c r="A15" s="102">
-        <v>12</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="205">
-        <v>9</v>
-      </c>
-      <c r="D15" s="120" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="118" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="141" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="55">
-        <v>50</v>
-      </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="141" t="s">
-        <v>190</v>
-      </c>
+      <c r="H15" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
     </row>
     <row r="16" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A16" s="102">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="206"/>
-      <c r="D16" s="120" t="s">
-        <v>251</v>
-      </c>
-      <c r="E16" s="117" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="135"/>
-      <c r="G16" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="136" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="55"/>
+      <c r="C16" s="135">
+        <v>16</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>211</v>
+      </c>
       <c r="J16" s="55"/>
-      <c r="K16" s="104" t="s">
+      <c r="K16" s="103"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+    </row>
+    <row r="17" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="A17" s="102">
+        <v>21</v>
+      </c>
+      <c r="B17" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="131">
+        <v>17</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="138" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="138" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" s="133" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="104"/>
+      <c r="K17" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="L16" s="132"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-    </row>
-    <row r="17" spans="1:15" s="33" customFormat="1" ht="11.25">
-      <c r="A17" s="102">
-        <v>14</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="207"/>
-      <c r="D17" s="120" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="135"/>
-      <c r="G17" s="140" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="136" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="135"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116">
+        <v>1</v>
+      </c>
+      <c r="O17" s="134"/>
     </row>
     <row r="18" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A18" s="102">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="205">
-        <v>10</v>
-      </c>
-      <c r="D18" s="120" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="117" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="117"/>
+      <c r="C18" s="246">
+        <v>18</v>
+      </c>
+      <c r="D18" s="118" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="115" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="127"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="55"/>
       <c r="J18" s="55"/>
-      <c r="K18" s="104" t="s">
-        <v>266</v>
-      </c>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="208" t="s">
-        <v>263</v>
+      <c r="K18" s="103"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="249" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A19" s="102">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="206"/>
-      <c r="D19" s="120" t="s">
-        <v>254</v>
-      </c>
-      <c r="E19" s="135" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="140" t="s">
+      <c r="C19" s="247"/>
+      <c r="D19" s="118" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="133"/>
+      <c r="G19" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="H19" s="135"/>
+      <c r="H19" s="133"/>
       <c r="I19" s="55"/>
       <c r="J19" s="55"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="209"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="250"/>
     </row>
     <row r="20" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A20" s="102">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="207"/>
-      <c r="D20" s="139" t="s">
+      <c r="C20" s="248"/>
+      <c r="D20" s="137" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="E20" s="106" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="129"/>
-      <c r="G20" s="140" t="s">
+      <c r="F20" s="127"/>
+      <c r="G20" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="H20" s="117"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106">
+      <c r="K20" s="103"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105">
         <v>0</v>
       </c>
-      <c r="O20" s="210"/>
-    </row>
-    <row r="21" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="O20" s="251"/>
+    </row>
+    <row r="21" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A21" s="102">
-        <v>18</v>
-      </c>
-      <c r="B21" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="133">
-        <v>11</v>
-      </c>
-      <c r="D21" s="133" t="s">
-        <v>256</v>
-      </c>
-      <c r="E21" s="135" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" s="140" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="H21" s="135" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" s="105"/>
-      <c r="K21" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118">
-        <v>1</v>
-      </c>
-      <c r="O21" s="136"/>
+      <c r="C21" s="131">
+        <v>19</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="115"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" s="234" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="22" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A22" s="102">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="133">
-        <v>12</v>
+      <c r="C22" s="131">
+        <v>30</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="117" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="117"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
       <c r="K22" s="37"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117" t="s">
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O22" s="194" t="s">
-        <v>194</v>
-      </c>
+      <c r="O22" s="236"/>
     </row>
     <row r="23" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A23" s="102">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="133">
-        <v>13</v>
+      <c r="C23" s="131">
+        <v>21</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="117" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="H23" s="117"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="55"/>
       <c r="J23" s="55"/>
       <c r="K23" s="37"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="122" t="s">
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O23" s="195"/>
-    </row>
-    <row r="24" spans="1:15" s="33" customFormat="1" ht="11.25">
+      <c r="O23" s="237"/>
+    </row>
+    <row r="24" spans="1:15" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="102">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="133">
-        <v>14</v>
+      <c r="C24" s="131">
+        <v>22</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="117" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="117"/>
+      <c r="H24" s="144"/>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
       <c r="K24" s="37"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="122" t="s">
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O24" s="196"/>
+      <c r="O24" s="234" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="25" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A25" s="102">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="133">
-        <v>15</v>
+      <c r="C25" s="131">
+        <v>23</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="117" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="117"/>
+      <c r="H25" s="144"/>
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="122" t="s">
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O25" s="194" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="33" customFormat="1" ht="11.25">
-      <c r="A26" s="102">
-        <v>38</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="133">
+      <c r="O25" s="235"/>
+    </row>
+    <row r="26" spans="1:15" s="154" customFormat="1" ht="11.25">
+      <c r="A26" s="154">
+        <v>2</v>
+      </c>
+      <c r="B26" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="155">
+        <v>2</v>
+      </c>
+      <c r="D26" s="161" t="s">
+        <v>313</v>
+      </c>
+      <c r="E26" s="161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="161" t="s">
+        <v>314</v>
+      </c>
+      <c r="G26" s="161" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="161">
+        <v>50</v>
+      </c>
+      <c r="J26" s="161"/>
+      <c r="K26" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="161"/>
+    </row>
+    <row r="27" spans="1:15" s="154" customFormat="1" ht="11.25">
+      <c r="A27" s="154">
+        <v>3</v>
+      </c>
+      <c r="B27" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="155">
+        <v>3</v>
+      </c>
+      <c r="D27" s="161" t="s">
+        <v>315</v>
+      </c>
+      <c r="E27" s="161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="161" t="s">
+        <v>316</v>
+      </c>
+      <c r="G27" s="161" t="s">
+        <v>338</v>
+      </c>
+      <c r="H27" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="161">
+        <v>50</v>
+      </c>
+      <c r="J27" s="161"/>
+      <c r="K27" s="158" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="160" customFormat="1" ht="11.25">
+      <c r="A28" s="154">
+        <v>8</v>
+      </c>
+      <c r="B28" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="162">
+        <v>6</v>
+      </c>
+      <c r="D28" s="155" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="156" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="156" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="161" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="163" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="164">
+        <v>250</v>
+      </c>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="159"/>
+    </row>
+    <row r="29" spans="1:15" s="168" customFormat="1" ht="11.25">
+      <c r="A29" s="154">
+        <v>15</v>
+      </c>
+      <c r="B29" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="167">
+        <v>11</v>
+      </c>
+      <c r="D29" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" s="163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" s="163" t="s">
+        <v>322</v>
+      </c>
+      <c r="G29" s="163" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
+    </row>
+    <row r="30" spans="1:15" s="168" customFormat="1" ht="11.25">
+      <c r="A30" s="154">
         <v>16</v>
       </c>
-      <c r="D26" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="117"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="122" t="s">
-        <v>193</v>
-      </c>
-      <c r="O26" s="196"/>
-    </row>
-    <row r="27" spans="1:15" ht="11.25"/>
-    <row r="28" spans="1:15" ht="11.25"/>
+      <c r="B30" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="167">
+        <v>12</v>
+      </c>
+      <c r="D30" s="161" t="s">
+        <v>323</v>
+      </c>
+      <c r="E30" s="163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F30" s="163" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="163" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+    </row>
+    <row r="31" spans="1:15" s="168" customFormat="1" ht="11.25">
+      <c r="A31" s="154">
+        <v>17</v>
+      </c>
+      <c r="B31" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="167">
+        <v>13</v>
+      </c>
+      <c r="D31" s="161" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" s="163" t="s">
+        <v>326</v>
+      </c>
+      <c r="F31" s="163" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="163" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+    </row>
+    <row r="32" spans="1:15" s="168" customFormat="1" ht="11.25">
+      <c r="A32" s="154">
+        <v>18</v>
+      </c>
+      <c r="B32" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C32" s="167">
+        <v>14</v>
+      </c>
+      <c r="D32" s="161" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="163" t="s">
+        <v>328</v>
+      </c>
+      <c r="F32" s="163" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" s="163" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="163" t="s">
+        <v>337</v>
+      </c>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+    </row>
+    <row r="33" spans="1:15" s="168" customFormat="1" ht="11.25">
+      <c r="A33" s="154">
+        <v>19</v>
+      </c>
+      <c r="B33" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="167">
+        <v>15</v>
+      </c>
+      <c r="D33" s="161" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" s="163" t="s">
+        <v>336</v>
+      </c>
+      <c r="F33" s="163" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33" s="163" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="163" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+    </row>
+    <row r="34" spans="1:15" ht="11.25"/>
+    <row r="35" spans="1:15" ht="11.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O21:O23"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="O18:O20"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G11 G22:G26">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G5:G9 G21:G26 G28">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H33 H5:H9 H10:H13">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K33 K5:K9 K10">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G12 G15 G29:G33 G16:G20">
       <formula1>"ArrayBox, Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
+      <formula1>"Caption,Textbox,DropdowChecklist,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16684,10 +17237,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -16739,7 +17292,7 @@
       </c>
       <c r="I1" s="59" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
       <c r="J1" s="58"/>
     </row>
@@ -16771,7 +17324,7 @@
       </c>
       <c r="I2" s="59" t="str">
         <f>'Update History'!J2</f>
-        <v>25/03/2017</v>
+        <v>25/01/2018</v>
       </c>
       <c r="J2" s="59"/>
     </row>
@@ -16812,70 +17365,70 @@
       <c r="O4" s="33"/>
       <c r="P4" s="33"/>
     </row>
-    <row r="5" spans="1:16" s="47" customFormat="1" ht="11.25">
+    <row r="5" spans="1:16" s="47" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="102">
         <v>1</v>
       </c>
       <c r="B5" s="32"/>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="133" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="134" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="211" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="252" t="s">
         <v>214</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="J5" s="104"/>
-    </row>
-    <row r="6" spans="1:16" s="25" customFormat="1" ht="11.25">
-      <c r="A6" s="102">
+      <c r="J5" s="103"/>
+    </row>
+    <row r="6" spans="1:16" s="179" customFormat="1" ht="11.25">
+      <c r="A6" s="169">
         <v>2</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="136" t="s">
+      <c r="B6" s="169"/>
+      <c r="C6" s="177" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="136" t="s">
+      <c r="E6" s="170"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="177" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="J6" s="103"/>
+      <c r="J6" s="177"/>
     </row>
     <row r="7" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="102">
         <v>3</v>
       </c>
       <c r="B7" s="32"/>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="133" t="s">
         <v>213</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="136" t="s">
+      <c r="G7" s="253"/>
+      <c r="H7" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="I7" s="120" t="s">
+      <c r="I7" s="118" t="s">
         <v>216</v>
       </c>
       <c r="J7" s="70"/>
@@ -16885,153 +17438,197 @@
         <v>4</v>
       </c>
       <c r="B8" s="32"/>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="138" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="138" t="s">
         <v>213</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="141" t="s">
+      <c r="G8" s="253"/>
+      <c r="H8" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="I8" s="120" t="s">
+      <c r="I8" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="J8" s="140"/>
+      <c r="J8" s="138"/>
     </row>
     <row r="9" spans="1:16" s="33" customFormat="1" ht="22.5">
       <c r="A9" s="102">
         <v>5</v>
       </c>
       <c r="B9" s="32"/>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="133" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="133" t="s">
         <v>213</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="136" t="s">
+      <c r="G9" s="253"/>
+      <c r="H9" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="I9" s="120" t="s">
+      <c r="I9" s="118" t="s">
         <v>216</v>
       </c>
       <c r="J9" s="68"/>
     </row>
-    <row r="10" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="102">
+    <row r="10" spans="1:16" s="168" customFormat="1" ht="11.25">
+      <c r="A10" s="154">
         <v>6</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="135" t="s">
+      <c r="B10" s="166"/>
+      <c r="C10" s="163" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="163" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="136" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="136" t="s">
+      <c r="E10" s="171"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="156" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="61"/>
-    </row>
-    <row r="11" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="102">
+      <c r="I10" s="161" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="163"/>
+    </row>
+    <row r="11" spans="1:16" s="168" customFormat="1" ht="11.25">
+      <c r="A11" s="154">
         <v>7</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="135" t="s">
+      <c r="B11" s="166"/>
+      <c r="C11" s="163" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="163" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="136" t="s">
-        <v>219</v>
-      </c>
-      <c r="H11" s="136" t="s">
+      <c r="E11" s="171"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="156" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="89"/>
+      <c r="I11" s="161" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" s="163"/>
     </row>
     <row r="12" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="102">
         <v>8</v>
       </c>
       <c r="B12" s="32"/>
-      <c r="C12" s="136" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="135" t="s">
+      <c r="C12" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="136" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="136" t="s">
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="134" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="134" t="s">
         <v>215</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J12" s="61"/>
-      <c r="K12" s="89"/>
     </row>
     <row r="13" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="102">
         <v>9</v>
       </c>
       <c r="B13" s="32"/>
-      <c r="C13" s="135" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="135" t="s">
+      <c r="C13" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="135" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="134" t="s">
         <v>215</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="89"/>
     </row>
+    <row r="14" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="A14" s="102">
+        <v>10</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="134" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="61"/>
+      <c r="K14" s="89"/>
+    </row>
+    <row r="15" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="A15" s="102">
+        <v>11</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="133" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="J15" s="61"/>
+      <c r="K15" s="89"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G5:G11"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:K13 H5:H13">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:K15 H5:H15">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D15">
       <formula1>"Format,Require,Max Length,Range,Not In List"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17075,7 +17672,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="257" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="100"/>
@@ -17105,13 +17702,13 @@
       </c>
       <c r="J1" s="35" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="218"/>
+      <c r="A2" s="258"/>
       <c r="B2" s="101"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -17139,7 +17736,7 @@
       </c>
       <c r="J2" s="35" t="str">
         <f>'Update History'!J2</f>
-        <v>25/03/2017</v>
+        <v>25/01/2018</v>
       </c>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
@@ -17160,87 +17757,87 @@
       <c r="E4" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="215" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168" t="s">
+      <c r="G4" s="215"/>
+      <c r="H4" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A5" s="32">
         <v>1</v>
       </c>
       <c r="B5" s="32"/>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="132" t="s">
         <v>131</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="212" t="s">
+      <c r="F5" s="255" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="213"/>
-      <c r="H5" s="214" t="s">
+      <c r="G5" s="256"/>
+      <c r="H5" s="259" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="215"/>
-      <c r="J5" s="216"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="261"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="32">
         <v>2</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="132" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="132" t="s">
         <v>131</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="212" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="215"/>
-      <c r="J6" s="216"/>
+      <c r="F6" s="255" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="256"/>
+      <c r="H6" s="259" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="260"/>
+      <c r="J6" s="261"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="32">
         <v>2</v>
       </c>
       <c r="B7" s="32"/>
-      <c r="C7" s="134" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="134" t="s">
+      <c r="C7" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="132" t="s">
         <v>131</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="212" t="s">
-        <v>269</v>
-      </c>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214" t="s">
-        <v>270</v>
-      </c>
-      <c r="I7" s="215"/>
-      <c r="J7" s="216"/>
+      <c r="F7" s="255" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="256"/>
+      <c r="H7" s="259" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="260"/>
+      <c r="J7" s="261"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="32">
@@ -17250,11 +17847,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="216"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="261"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -17264,11 +17861,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="216"/>
+      <c r="F9" s="255"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="261"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -17278,11 +17875,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="216"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="261"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -17292,11 +17889,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="214"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="216"/>
+      <c r="F11" s="255"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="261"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -17306,11 +17903,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="214"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="216"/>
+      <c r="F12" s="255"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="260"/>
+      <c r="J12" s="261"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -17320,11 +17917,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="216"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="261"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -17334,11 +17931,11 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="216"/>
+      <c r="F14" s="255"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="261"/>
     </row>
     <row r="15" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="32">
@@ -17348,15 +17945,31 @@
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="216"/>
+      <c r="F15" s="255"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="261"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
@@ -17366,22 +17979,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E15">
@@ -17397,9 +17994,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1048241"/>
+  <dimension ref="A1:Q1048244"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C10" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:J6"/>
     </sheetView>
   </sheetViews>
@@ -17407,7 +18004,7 @@
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="127" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="125" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
@@ -17426,20 +18023,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="219" t="str">
+      <c r="F1" s="268" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="219"/>
+      <c r="G1" s="268"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -17457,28 +18054,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="232" t="str">
+      <c r="M1" s="262" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
-      </c>
-      <c r="N1" s="233"/>
-      <c r="O1" s="234"/>
+        <v>Tấn Đạt</v>
+      </c>
+      <c r="N1" s="263"/>
+      <c r="O1" s="264"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="219" t="str">
+      <c r="F2" s="268" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="219"/>
+      <c r="G2" s="268"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -17496,12 +18093,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="232" t="str">
+      <c r="M2" s="262" t="str">
         <f>'Update History'!J2</f>
-        <v>25/03/2017</v>
-      </c>
-      <c r="N2" s="233"/>
-      <c r="O2" s="234"/>
+        <v>25/01/2018</v>
+      </c>
+      <c r="N2" s="263"/>
+      <c r="O2" s="264"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
@@ -17524,12 +18121,12 @@
       <c r="F4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="181" t="s">
+      <c r="G4" s="221" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="182"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="222"/>
       <c r="K4" s="36" t="s">
         <v>56</v>
       </c>
@@ -17553,75 +18150,77 @@
       <c r="B5" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="134" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="226" t="s">
+      <c r="G5" s="275" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="124" t="s">
+      <c r="H5" s="276"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="L5" s="124" t="s">
-        <v>271</v>
+      <c r="L5" s="122" t="s">
+        <v>267</v>
       </c>
       <c r="M5" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="N5" s="114" t="s">
+      <c r="N5" s="112" t="s">
         <v>196</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P5" s="47"/>
       <c r="Q5" s="47"/>
     </row>
-    <row r="6" spans="1:17" s="33" customFormat="1" ht="32.25" customHeight="1">
+    <row r="6" spans="1:17" s="33" customFormat="1" ht="234.75" customHeight="1">
       <c r="A6" s="32">
         <v>2</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="229" t="s">
-        <v>313</v>
-      </c>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="L6" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="114" t="s">
+      <c r="G6" s="272" t="s">
+        <v>352</v>
+      </c>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="274"/>
+      <c r="K6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" s="112" t="s">
         <v>196</v>
       </c>
       <c r="O6" s="56"/>
@@ -17635,32 +18234,32 @@
       <c r="B7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="220" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="L7" s="126" t="s">
-        <v>274</v>
+      <c r="G7" s="265" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="266"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="L7" s="124" t="s">
+        <v>270</v>
       </c>
       <c r="M7" s="67"/>
-      <c r="N7" s="114" t="s">
+      <c r="N7" s="112" t="s">
         <v>196</v>
       </c>
       <c r="O7" s="56"/>
@@ -17674,71 +18273,71 @@
       <c r="B8" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="220" t="s">
-        <v>275</v>
-      </c>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="L8" s="126" t="s">
-        <v>274</v>
+      <c r="G8" s="265" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="266"/>
+      <c r="I8" s="266"/>
+      <c r="J8" s="267"/>
+      <c r="K8" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="L8" s="124" t="s">
+        <v>270</v>
       </c>
       <c r="M8" s="67"/>
-      <c r="N8" s="114" t="s">
+      <c r="N8" s="112" t="s">
         <v>196</v>
       </c>
       <c r="O8" s="56"/>
       <c r="P8" s="57"/>
       <c r="Q8" s="57"/>
     </row>
-    <row r="9" spans="1:17" s="33" customFormat="1" ht="180">
+    <row r="9" spans="1:17" s="33" customFormat="1" ht="267" customHeight="1">
       <c r="A9" s="102">
         <v>5</v>
       </c>
       <c r="B9" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="220" t="s">
-        <v>289</v>
-      </c>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="222"/>
-      <c r="K9" s="115" t="s">
-        <v>290</v>
-      </c>
-      <c r="L9" s="115" t="s">
-        <v>291</v>
+      <c r="G9" s="272" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" s="273"/>
+      <c r="I9" s="273"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="182" t="s">
+        <v>341</v>
+      </c>
+      <c r="L9" s="182" t="s">
+        <v>351</v>
       </c>
       <c r="M9" s="67"/>
-      <c r="N9" s="114"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="56"/>
       <c r="P9" s="57"/>
       <c r="Q9" s="57"/>
@@ -17750,36 +18349,36 @@
       <c r="B10" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="141" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="113" t="s">
+      <c r="C10" s="139" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="220" t="s">
-        <v>294</v>
-      </c>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="222"/>
-      <c r="K10" s="126" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="126" t="s">
-        <v>295</v>
+      <c r="G10" s="265" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="266"/>
+      <c r="I10" s="266"/>
+      <c r="J10" s="267"/>
+      <c r="K10" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>286</v>
       </c>
       <c r="M10" s="67"/>
-      <c r="N10" s="114" t="s">
+      <c r="N10" s="112" t="s">
         <v>196</v>
       </c>
       <c r="O10" s="56" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="P10" s="57"/>
       <c r="Q10" s="57"/>
@@ -17791,32 +18390,32 @@
       <c r="B11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="141" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="113" t="s">
+      <c r="C11" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="112" t="s">
+      <c r="F11" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="220" t="s">
-        <v>276</v>
-      </c>
-      <c r="H11" s="221"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" s="126" t="s">
-        <v>274</v>
+      <c r="G11" s="265" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="267"/>
+      <c r="K11" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" s="124" t="s">
+        <v>270</v>
       </c>
       <c r="M11" s="67"/>
-      <c r="N11" s="114" t="s">
+      <c r="N11" s="112" t="s">
         <v>196</v>
       </c>
       <c r="O11" s="56"/>
@@ -17830,32 +18429,32 @@
       <c r="B12" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="136" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="113" t="s">
+      <c r="C12" s="134" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="220" t="s">
-        <v>311</v>
-      </c>
-      <c r="H12" s="221"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="115" t="s">
-        <v>312</v>
-      </c>
-      <c r="L12" s="115" t="s">
-        <v>312</v>
+      <c r="G12" s="265" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="266"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="267"/>
+      <c r="K12" s="113" t="s">
+        <v>303</v>
+      </c>
+      <c r="L12" s="113" t="s">
+        <v>303</v>
       </c>
       <c r="M12" s="67"/>
-      <c r="N12" s="114"/>
+      <c r="N12" s="112"/>
       <c r="O12" s="56"/>
       <c r="P12" s="57"/>
       <c r="Q12" s="57"/>
@@ -17867,32 +18466,32 @@
       <c r="B13" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="139" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="111" t="s">
         <v>284</v>
       </c>
-      <c r="D13" s="113" t="s">
-        <v>293</v>
-      </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="220" t="s">
-        <v>278</v>
-      </c>
-      <c r="H13" s="221"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="222"/>
-      <c r="K13" s="126" t="s">
-        <v>277</v>
-      </c>
-      <c r="L13" s="126" t="s">
-        <v>277</v>
+      <c r="G13" s="265" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="266"/>
+      <c r="I13" s="266"/>
+      <c r="J13" s="267"/>
+      <c r="K13" s="124" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13" s="124" t="s">
+        <v>273</v>
       </c>
       <c r="M13" s="67"/>
-      <c r="N13" s="114" t="s">
+      <c r="N13" s="112" t="s">
         <v>196</v>
       </c>
       <c r="O13" s="56"/>
@@ -17906,69 +18505,69 @@
       <c r="B14" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="141" t="s">
-        <v>285</v>
-      </c>
-      <c r="D14" s="113" t="s">
+      <c r="C14" s="139" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="220" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="222"/>
-      <c r="K14" s="115" t="s">
-        <v>279</v>
-      </c>
-      <c r="L14" s="115" t="s">
-        <v>299</v>
+      <c r="G14" s="265" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="266"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="113" t="s">
+        <v>275</v>
+      </c>
+      <c r="L14" s="113" t="s">
+        <v>290</v>
       </c>
       <c r="M14" s="67"/>
-      <c r="N14" s="114"/>
+      <c r="N14" s="112"/>
       <c r="O14" s="56"/>
       <c r="P14" s="57"/>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" s="33" customFormat="1" ht="146.25">
+    <row r="15" spans="1:17" s="33" customFormat="1" ht="236.25">
       <c r="A15" s="102">
         <v>11</v>
       </c>
       <c r="B15" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="125" t="s">
-        <v>286</v>
-      </c>
-      <c r="D15" s="113" t="s">
+      <c r="C15" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="223" t="s">
-        <v>287</v>
-      </c>
-      <c r="H15" s="224"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="225"/>
-      <c r="K15" s="115" t="s">
-        <v>288</v>
-      </c>
-      <c r="L15" s="115" t="s">
-        <v>288</v>
+      <c r="G15" s="269" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="270"/>
+      <c r="I15" s="270"/>
+      <c r="J15" s="271"/>
+      <c r="K15" s="182" t="s">
+        <v>343</v>
+      </c>
+      <c r="L15" s="182" t="s">
+        <v>344</v>
       </c>
       <c r="M15" s="56"/>
-      <c r="N15" s="128"/>
+      <c r="N15" s="126"/>
       <c r="O15" s="56"/>
       <c r="P15" s="57"/>
       <c r="Q15" s="57"/>
@@ -17980,73 +18579,178 @@
       <c r="B16" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="112" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" s="220" t="s">
+      <c r="F16" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="265" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="126" t="s">
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="267"/>
+      <c r="K16" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="126" t="s">
-        <v>298</v>
+      <c r="L16" s="124" t="s">
+        <v>289</v>
       </c>
       <c r="M16" s="67"/>
-      <c r="N16" s="114" t="s">
+      <c r="N16" s="112" t="s">
         <v>196</v>
       </c>
       <c r="O16" s="67"/>
       <c r="P16" s="47"/>
       <c r="Q16" s="47"/>
     </row>
-    <row r="17" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-    </row>
-    <row r="1048241" spans="13:13" ht="12" customHeight="1">
-      <c r="M1048241" s="63"/>
+    <row r="17" spans="1:17" s="160" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A17" s="166"/>
+      <c r="B17" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="156" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="172" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="172" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="173" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="278" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="279"/>
+      <c r="I17" s="279"/>
+      <c r="J17" s="280"/>
+      <c r="K17" s="159" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="159" t="s">
+        <v>334</v>
+      </c>
+      <c r="M17" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="N17" s="175" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="174" t="s">
+        <v>332</v>
+      </c>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+    </row>
+    <row r="18" spans="1:17" s="160" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A18" s="166"/>
+      <c r="B18" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="156" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="172" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="172" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="173" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" s="278" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="279"/>
+      <c r="I18" s="279"/>
+      <c r="J18" s="280"/>
+      <c r="K18" s="159" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" s="159" t="s">
+        <v>339</v>
+      </c>
+      <c r="M18" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="N18" s="175" t="s">
+        <v>196</v>
+      </c>
+      <c r="O18" s="174" t="s">
+        <v>346</v>
+      </c>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+    </row>
+    <row r="19" spans="1:17" s="160" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A19" s="166"/>
+      <c r="B19" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="156" t="s">
+        <v>333</v>
+      </c>
+      <c r="D19" s="172" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="172" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="173" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="278"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="279"/>
+      <c r="J19" s="280"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="176"/>
+    </row>
+    <row r="20" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="265"/>
+      <c r="H20" s="266"/>
+      <c r="I20" s="266"/>
+      <c r="J20" s="267"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+    </row>
+    <row r="1048244" spans="13:13" ht="12" customHeight="1">
+      <c r="M1048244" s="63"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="19">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
+  <mergeCells count="22">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G9:J9"/>
@@ -18056,16 +18760,25 @@
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048241:M1048576 M5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N17">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048244:M1048576 M5 M17:M19"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N20">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D20">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E20">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18084,8 +18797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P191"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A109" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -18101,10 +18814,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
+      <c r="B1" s="215"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -18131,12 +18844,12 @@
       </c>
       <c r="J1" s="35" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -18163,12 +18876,12 @@
       </c>
       <c r="J2" s="35" t="str">
         <f>'Update History'!J2</f>
-        <v>25/03/2017</v>
+        <v>25/01/2018</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1">
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1">
       <c r="A4" s="49"/>
@@ -18318,7 +19031,7 @@
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1">
       <c r="B13" s="66"/>
-      <c r="C13" s="107"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -18331,7 +19044,7 @@
       <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1">
-      <c r="C14" s="107"/>
+      <c r="C14" s="106"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
@@ -18356,7 +19069,7 @@
     <row r="16" spans="1:13" ht="12" customHeight="1">
       <c r="B16" s="66"/>
       <c r="C16" s="40" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -18369,33 +19082,37 @@
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="1:13" ht="12" customHeight="1">
-      <c r="B17" s="66"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-    </row>
-    <row r="18" spans="1:13" ht="12" customHeight="1">
-      <c r="B18" s="66"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+    <row r="17" spans="1:13" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="B17" s="185"/>
+      <c r="C17" s="183" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+    </row>
+    <row r="18" spans="1:13" s="184" customFormat="1" ht="12" customHeight="1">
+      <c r="B18" s="185"/>
+      <c r="C18" s="183" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
     </row>
     <row r="19" spans="1:13" ht="12" customHeight="1">
       <c r="B19" s="66" t="s">
@@ -18416,7 +19133,7 @@
     <row r="20" spans="1:13" ht="12" customHeight="1">
       <c r="B20" s="40"/>
       <c r="C20" s="40" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19617,171 +20334,171 @@
     </row>
     <row r="100" spans="1:16" ht="12" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="236" t="s">
-        <v>302</v>
-      </c>
-      <c r="C100" s="237"/>
-      <c r="D100" s="237"/>
-      <c r="E100" s="237"/>
-      <c r="F100" s="237"/>
-      <c r="G100" s="237"/>
-      <c r="H100" s="237"/>
-      <c r="I100" s="237"/>
-      <c r="J100" s="237"/>
-      <c r="K100" s="237"/>
-      <c r="L100" s="237"/>
-      <c r="M100" s="237"/>
-      <c r="N100" s="237"/>
-      <c r="O100" s="237"/>
-      <c r="P100" s="237"/>
+      <c r="B100" s="281" t="s">
+        <v>293</v>
+      </c>
+      <c r="C100" s="282"/>
+      <c r="D100" s="282"/>
+      <c r="E100" s="282"/>
+      <c r="F100" s="282"/>
+      <c r="G100" s="282"/>
+      <c r="H100" s="282"/>
+      <c r="I100" s="282"/>
+      <c r="J100" s="282"/>
+      <c r="K100" s="282"/>
+      <c r="L100" s="282"/>
+      <c r="M100" s="282"/>
+      <c r="N100" s="282"/>
+      <c r="O100" s="282"/>
+      <c r="P100" s="282"/>
     </row>
     <row r="101" spans="1:16" ht="12" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="237"/>
-      <c r="C101" s="237"/>
-      <c r="D101" s="237"/>
-      <c r="E101" s="237"/>
-      <c r="F101" s="237"/>
-      <c r="G101" s="237"/>
-      <c r="H101" s="237"/>
-      <c r="I101" s="237"/>
-      <c r="J101" s="237"/>
-      <c r="K101" s="237"/>
-      <c r="L101" s="237"/>
-      <c r="M101" s="237"/>
-      <c r="N101" s="237"/>
-      <c r="O101" s="237"/>
-      <c r="P101" s="237"/>
+      <c r="B101" s="282"/>
+      <c r="C101" s="282"/>
+      <c r="D101" s="282"/>
+      <c r="E101" s="282"/>
+      <c r="F101" s="282"/>
+      <c r="G101" s="282"/>
+      <c r="H101" s="282"/>
+      <c r="I101" s="282"/>
+      <c r="J101" s="282"/>
+      <c r="K101" s="282"/>
+      <c r="L101" s="282"/>
+      <c r="M101" s="282"/>
+      <c r="N101" s="282"/>
+      <c r="O101" s="282"/>
+      <c r="P101" s="282"/>
     </row>
     <row r="102" spans="1:16" ht="12" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="237"/>
-      <c r="C102" s="237"/>
-      <c r="D102" s="237"/>
-      <c r="E102" s="237"/>
-      <c r="F102" s="237"/>
-      <c r="G102" s="237"/>
-      <c r="H102" s="237"/>
-      <c r="I102" s="237"/>
-      <c r="J102" s="237"/>
-      <c r="K102" s="237"/>
-      <c r="L102" s="237"/>
-      <c r="M102" s="237"/>
-      <c r="N102" s="237"/>
-      <c r="O102" s="237"/>
-      <c r="P102" s="237"/>
+      <c r="B102" s="282"/>
+      <c r="C102" s="282"/>
+      <c r="D102" s="282"/>
+      <c r="E102" s="282"/>
+      <c r="F102" s="282"/>
+      <c r="G102" s="282"/>
+      <c r="H102" s="282"/>
+      <c r="I102" s="282"/>
+      <c r="J102" s="282"/>
+      <c r="K102" s="282"/>
+      <c r="L102" s="282"/>
+      <c r="M102" s="282"/>
+      <c r="N102" s="282"/>
+      <c r="O102" s="282"/>
+      <c r="P102" s="282"/>
     </row>
     <row r="103" spans="1:16" ht="12" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="236" t="s">
-        <v>303</v>
-      </c>
-      <c r="C103" s="237"/>
-      <c r="D103" s="237"/>
-      <c r="E103" s="237"/>
-      <c r="F103" s="237"/>
-      <c r="G103" s="237"/>
-      <c r="H103" s="237"/>
-      <c r="I103" s="237"/>
-      <c r="J103" s="237"/>
-      <c r="K103" s="237"/>
-      <c r="L103" s="237"/>
-      <c r="M103" s="237"/>
-      <c r="N103" s="237"/>
-      <c r="O103" s="237"/>
-      <c r="P103" s="237"/>
+      <c r="B103" s="281" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="282"/>
+      <c r="D103" s="282"/>
+      <c r="E103" s="282"/>
+      <c r="F103" s="282"/>
+      <c r="G103" s="282"/>
+      <c r="H103" s="282"/>
+      <c r="I103" s="282"/>
+      <c r="J103" s="282"/>
+      <c r="K103" s="282"/>
+      <c r="L103" s="282"/>
+      <c r="M103" s="282"/>
+      <c r="N103" s="282"/>
+      <c r="O103" s="282"/>
+      <c r="P103" s="282"/>
     </row>
     <row r="104" spans="1:16" ht="12" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="237"/>
-      <c r="C104" s="237"/>
-      <c r="D104" s="237"/>
-      <c r="E104" s="237"/>
-      <c r="F104" s="237"/>
-      <c r="G104" s="237"/>
-      <c r="H104" s="237"/>
-      <c r="I104" s="237"/>
-      <c r="J104" s="237"/>
-      <c r="K104" s="237"/>
-      <c r="L104" s="237"/>
-      <c r="M104" s="237"/>
-      <c r="N104" s="237"/>
-      <c r="O104" s="237"/>
-      <c r="P104" s="237"/>
+      <c r="B104" s="282"/>
+      <c r="C104" s="282"/>
+      <c r="D104" s="282"/>
+      <c r="E104" s="282"/>
+      <c r="F104" s="282"/>
+      <c r="G104" s="282"/>
+      <c r="H104" s="282"/>
+      <c r="I104" s="282"/>
+      <c r="J104" s="282"/>
+      <c r="K104" s="282"/>
+      <c r="L104" s="282"/>
+      <c r="M104" s="282"/>
+      <c r="N104" s="282"/>
+      <c r="O104" s="282"/>
+      <c r="P104" s="282"/>
     </row>
     <row r="105" spans="1:16" ht="12" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="237"/>
-      <c r="C105" s="237"/>
-      <c r="D105" s="237"/>
-      <c r="E105" s="237"/>
-      <c r="F105" s="237"/>
-      <c r="G105" s="237"/>
-      <c r="H105" s="237"/>
-      <c r="I105" s="237"/>
-      <c r="J105" s="237"/>
-      <c r="K105" s="237"/>
-      <c r="L105" s="237"/>
-      <c r="M105" s="237"/>
-      <c r="N105" s="237"/>
-      <c r="O105" s="237"/>
-      <c r="P105" s="237"/>
+      <c r="B105" s="282"/>
+      <c r="C105" s="282"/>
+      <c r="D105" s="282"/>
+      <c r="E105" s="282"/>
+      <c r="F105" s="282"/>
+      <c r="G105" s="282"/>
+      <c r="H105" s="282"/>
+      <c r="I105" s="282"/>
+      <c r="J105" s="282"/>
+      <c r="K105" s="282"/>
+      <c r="L105" s="282"/>
+      <c r="M105" s="282"/>
+      <c r="N105" s="282"/>
+      <c r="O105" s="282"/>
+      <c r="P105" s="282"/>
     </row>
     <row r="106" spans="1:16" ht="12" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="236" t="s">
-        <v>306</v>
-      </c>
-      <c r="C106" s="237"/>
-      <c r="D106" s="237"/>
-      <c r="E106" s="237"/>
-      <c r="F106" s="237"/>
-      <c r="G106" s="237"/>
-      <c r="H106" s="237"/>
-      <c r="I106" s="237"/>
-      <c r="J106" s="237"/>
-      <c r="K106" s="237"/>
-      <c r="L106" s="237"/>
-      <c r="M106" s="237"/>
-      <c r="N106" s="237"/>
-      <c r="O106" s="237"/>
-      <c r="P106" s="237"/>
+      <c r="B106" s="281" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" s="282"/>
+      <c r="D106" s="282"/>
+      <c r="E106" s="282"/>
+      <c r="F106" s="282"/>
+      <c r="G106" s="282"/>
+      <c r="H106" s="282"/>
+      <c r="I106" s="282"/>
+      <c r="J106" s="282"/>
+      <c r="K106" s="282"/>
+      <c r="L106" s="282"/>
+      <c r="M106" s="282"/>
+      <c r="N106" s="282"/>
+      <c r="O106" s="282"/>
+      <c r="P106" s="282"/>
     </row>
     <row r="107" spans="1:16" ht="12" customHeight="1">
       <c r="A107" s="62"/>
-      <c r="B107" s="237"/>
-      <c r="C107" s="237"/>
-      <c r="D107" s="237"/>
-      <c r="E107" s="237"/>
-      <c r="F107" s="237"/>
-      <c r="G107" s="237"/>
-      <c r="H107" s="237"/>
-      <c r="I107" s="237"/>
-      <c r="J107" s="237"/>
-      <c r="K107" s="237"/>
-      <c r="L107" s="237"/>
-      <c r="M107" s="237"/>
-      <c r="N107" s="237"/>
-      <c r="O107" s="237"/>
-      <c r="P107" s="237"/>
+      <c r="B107" s="282"/>
+      <c r="C107" s="282"/>
+      <c r="D107" s="282"/>
+      <c r="E107" s="282"/>
+      <c r="F107" s="282"/>
+      <c r="G107" s="282"/>
+      <c r="H107" s="282"/>
+      <c r="I107" s="282"/>
+      <c r="J107" s="282"/>
+      <c r="K107" s="282"/>
+      <c r="L107" s="282"/>
+      <c r="M107" s="282"/>
+      <c r="N107" s="282"/>
+      <c r="O107" s="282"/>
+      <c r="P107" s="282"/>
     </row>
     <row r="108" spans="1:16" ht="12" customHeight="1">
       <c r="A108" s="62"/>
-      <c r="B108" s="237"/>
-      <c r="C108" s="237"/>
-      <c r="D108" s="237"/>
-      <c r="E108" s="237"/>
-      <c r="F108" s="237"/>
-      <c r="G108" s="237"/>
-      <c r="H108" s="237"/>
-      <c r="I108" s="237"/>
-      <c r="J108" s="237"/>
-      <c r="K108" s="237"/>
-      <c r="L108" s="237"/>
-      <c r="M108" s="237"/>
-      <c r="N108" s="237"/>
-      <c r="O108" s="237"/>
-      <c r="P108" s="237"/>
+      <c r="B108" s="282"/>
+      <c r="C108" s="282"/>
+      <c r="D108" s="282"/>
+      <c r="E108" s="282"/>
+      <c r="F108" s="282"/>
+      <c r="G108" s="282"/>
+      <c r="H108" s="282"/>
+      <c r="I108" s="282"/>
+      <c r="J108" s="282"/>
+      <c r="K108" s="282"/>
+      <c r="L108" s="282"/>
+      <c r="M108" s="282"/>
+      <c r="N108" s="282"/>
+      <c r="O108" s="282"/>
+      <c r="P108" s="282"/>
     </row>
     <row r="109" spans="1:16" ht="12" customHeight="1">
       <c r="A109" s="62"/>
@@ -19800,113 +20517,113 @@
     </row>
     <row r="110" spans="1:16" ht="12" customHeight="1">
       <c r="A110" s="62"/>
-      <c r="B110" s="236" t="s">
-        <v>305</v>
-      </c>
-      <c r="C110" s="237"/>
-      <c r="D110" s="237"/>
-      <c r="E110" s="237"/>
-      <c r="F110" s="237"/>
-      <c r="G110" s="237"/>
-      <c r="H110" s="237"/>
-      <c r="I110" s="237"/>
-      <c r="J110" s="237"/>
-      <c r="K110" s="237"/>
-      <c r="L110" s="237"/>
-      <c r="M110" s="237"/>
-      <c r="N110" s="237"/>
-      <c r="O110" s="237"/>
-      <c r="P110" s="237"/>
+      <c r="B110" s="281" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="282"/>
+      <c r="D110" s="282"/>
+      <c r="E110" s="282"/>
+      <c r="F110" s="282"/>
+      <c r="G110" s="282"/>
+      <c r="H110" s="282"/>
+      <c r="I110" s="282"/>
+      <c r="J110" s="282"/>
+      <c r="K110" s="282"/>
+      <c r="L110" s="282"/>
+      <c r="M110" s="282"/>
+      <c r="N110" s="282"/>
+      <c r="O110" s="282"/>
+      <c r="P110" s="282"/>
     </row>
     <row r="111" spans="1:16" ht="12" customHeight="1">
       <c r="A111" s="62"/>
-      <c r="B111" s="236"/>
-      <c r="C111" s="237"/>
-      <c r="D111" s="237"/>
-      <c r="E111" s="237"/>
-      <c r="F111" s="237"/>
-      <c r="G111" s="237"/>
-      <c r="H111" s="237"/>
-      <c r="I111" s="237"/>
-      <c r="J111" s="237"/>
-      <c r="K111" s="237"/>
-      <c r="L111" s="237"/>
-      <c r="M111" s="237"/>
-      <c r="N111" s="237"/>
-      <c r="O111" s="237"/>
-      <c r="P111" s="237"/>
+      <c r="B111" s="281"/>
+      <c r="C111" s="282"/>
+      <c r="D111" s="282"/>
+      <c r="E111" s="282"/>
+      <c r="F111" s="282"/>
+      <c r="G111" s="282"/>
+      <c r="H111" s="282"/>
+      <c r="I111" s="282"/>
+      <c r="J111" s="282"/>
+      <c r="K111" s="282"/>
+      <c r="L111" s="282"/>
+      <c r="M111" s="282"/>
+      <c r="N111" s="282"/>
+      <c r="O111" s="282"/>
+      <c r="P111" s="282"/>
     </row>
     <row r="112" spans="1:16" ht="12" customHeight="1">
       <c r="A112" s="62"/>
-      <c r="B112" s="236"/>
-      <c r="C112" s="237"/>
-      <c r="D112" s="237"/>
-      <c r="E112" s="237"/>
-      <c r="F112" s="237"/>
-      <c r="G112" s="237"/>
-      <c r="H112" s="237"/>
-      <c r="I112" s="237"/>
-      <c r="J112" s="237"/>
-      <c r="K112" s="237"/>
-      <c r="L112" s="237"/>
-      <c r="M112" s="237"/>
-      <c r="N112" s="237"/>
-      <c r="O112" s="237"/>
-      <c r="P112" s="237"/>
+      <c r="B112" s="281"/>
+      <c r="C112" s="282"/>
+      <c r="D112" s="282"/>
+      <c r="E112" s="282"/>
+      <c r="F112" s="282"/>
+      <c r="G112" s="282"/>
+      <c r="H112" s="282"/>
+      <c r="I112" s="282"/>
+      <c r="J112" s="282"/>
+      <c r="K112" s="282"/>
+      <c r="L112" s="282"/>
+      <c r="M112" s="282"/>
+      <c r="N112" s="282"/>
+      <c r="O112" s="282"/>
+      <c r="P112" s="282"/>
     </row>
     <row r="113" spans="1:16" ht="12" customHeight="1">
       <c r="A113" s="62"/>
-      <c r="B113" s="236"/>
-      <c r="C113" s="237"/>
-      <c r="D113" s="237"/>
-      <c r="E113" s="237"/>
-      <c r="F113" s="237"/>
-      <c r="G113" s="237"/>
-      <c r="H113" s="237"/>
-      <c r="I113" s="237"/>
-      <c r="J113" s="237"/>
-      <c r="K113" s="237"/>
-      <c r="L113" s="237"/>
-      <c r="M113" s="237"/>
-      <c r="N113" s="237"/>
-      <c r="O113" s="237"/>
-      <c r="P113" s="237"/>
+      <c r="B113" s="281"/>
+      <c r="C113" s="282"/>
+      <c r="D113" s="282"/>
+      <c r="E113" s="282"/>
+      <c r="F113" s="282"/>
+      <c r="G113" s="282"/>
+      <c r="H113" s="282"/>
+      <c r="I113" s="282"/>
+      <c r="J113" s="282"/>
+      <c r="K113" s="282"/>
+      <c r="L113" s="282"/>
+      <c r="M113" s="282"/>
+      <c r="N113" s="282"/>
+      <c r="O113" s="282"/>
+      <c r="P113" s="282"/>
     </row>
     <row r="114" spans="1:16" ht="12" customHeight="1">
       <c r="A114" s="62"/>
-      <c r="B114" s="236"/>
-      <c r="C114" s="237"/>
-      <c r="D114" s="237"/>
-      <c r="E114" s="237"/>
-      <c r="F114" s="237"/>
-      <c r="G114" s="237"/>
-      <c r="H114" s="237"/>
-      <c r="I114" s="237"/>
-      <c r="J114" s="237"/>
-      <c r="K114" s="237"/>
-      <c r="L114" s="237"/>
-      <c r="M114" s="237"/>
-      <c r="N114" s="237"/>
-      <c r="O114" s="237"/>
-      <c r="P114" s="237"/>
+      <c r="B114" s="281"/>
+      <c r="C114" s="282"/>
+      <c r="D114" s="282"/>
+      <c r="E114" s="282"/>
+      <c r="F114" s="282"/>
+      <c r="G114" s="282"/>
+      <c r="H114" s="282"/>
+      <c r="I114" s="282"/>
+      <c r="J114" s="282"/>
+      <c r="K114" s="282"/>
+      <c r="L114" s="282"/>
+      <c r="M114" s="282"/>
+      <c r="N114" s="282"/>
+      <c r="O114" s="282"/>
+      <c r="P114" s="282"/>
     </row>
     <row r="115" spans="1:16" ht="12" customHeight="1">
       <c r="A115" s="62"/>
-      <c r="B115" s="236"/>
-      <c r="C115" s="237"/>
-      <c r="D115" s="237"/>
-      <c r="E115" s="237"/>
-      <c r="F115" s="237"/>
-      <c r="G115" s="237"/>
-      <c r="H115" s="237"/>
-      <c r="I115" s="237"/>
-      <c r="J115" s="237"/>
-      <c r="K115" s="237"/>
-      <c r="L115" s="237"/>
-      <c r="M115" s="237"/>
-      <c r="N115" s="237"/>
-      <c r="O115" s="237"/>
-      <c r="P115" s="237"/>
+      <c r="B115" s="281"/>
+      <c r="C115" s="282"/>
+      <c r="D115" s="282"/>
+      <c r="E115" s="282"/>
+      <c r="F115" s="282"/>
+      <c r="G115" s="282"/>
+      <c r="H115" s="282"/>
+      <c r="I115" s="282"/>
+      <c r="J115" s="282"/>
+      <c r="K115" s="282"/>
+      <c r="L115" s="282"/>
+      <c r="M115" s="282"/>
+      <c r="N115" s="282"/>
+      <c r="O115" s="282"/>
+      <c r="P115" s="282"/>
     </row>
     <row r="116" spans="1:16" ht="12" customHeight="1">
       <c r="A116" s="62"/>
@@ -19925,69 +20642,69 @@
     </row>
     <row r="117" spans="1:16" ht="12" customHeight="1">
       <c r="A117" s="62"/>
-      <c r="B117" s="236" t="s">
-        <v>304</v>
-      </c>
-      <c r="C117" s="237"/>
-      <c r="D117" s="237"/>
-      <c r="E117" s="237"/>
-      <c r="F117" s="237"/>
-      <c r="G117" s="237"/>
-      <c r="H117" s="237"/>
-      <c r="I117" s="237"/>
-      <c r="J117" s="237"/>
-      <c r="K117" s="237"/>
-      <c r="L117" s="237"/>
-      <c r="M117" s="237"/>
-      <c r="N117" s="237"/>
-      <c r="O117" s="237"/>
-      <c r="P117" s="237"/>
+      <c r="B117" s="281" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117" s="282"/>
+      <c r="D117" s="282"/>
+      <c r="E117" s="282"/>
+      <c r="F117" s="282"/>
+      <c r="G117" s="282"/>
+      <c r="H117" s="282"/>
+      <c r="I117" s="282"/>
+      <c r="J117" s="282"/>
+      <c r="K117" s="282"/>
+      <c r="L117" s="282"/>
+      <c r="M117" s="282"/>
+      <c r="N117" s="282"/>
+      <c r="O117" s="282"/>
+      <c r="P117" s="282"/>
     </row>
     <row r="118" spans="1:16" ht="12" customHeight="1">
       <c r="A118" s="62"/>
-      <c r="B118" s="237"/>
-      <c r="C118" s="237"/>
-      <c r="D118" s="237"/>
-      <c r="E118" s="237"/>
-      <c r="F118" s="237"/>
-      <c r="G118" s="237"/>
-      <c r="H118" s="237"/>
-      <c r="I118" s="237"/>
-      <c r="J118" s="237"/>
-      <c r="K118" s="237"/>
-      <c r="L118" s="237"/>
-      <c r="M118" s="237"/>
-      <c r="N118" s="237"/>
-      <c r="O118" s="237"/>
-      <c r="P118" s="237"/>
+      <c r="B118" s="282"/>
+      <c r="C118" s="282"/>
+      <c r="D118" s="282"/>
+      <c r="E118" s="282"/>
+      <c r="F118" s="282"/>
+      <c r="G118" s="282"/>
+      <c r="H118" s="282"/>
+      <c r="I118" s="282"/>
+      <c r="J118" s="282"/>
+      <c r="K118" s="282"/>
+      <c r="L118" s="282"/>
+      <c r="M118" s="282"/>
+      <c r="N118" s="282"/>
+      <c r="O118" s="282"/>
+      <c r="P118" s="282"/>
     </row>
     <row r="119" spans="1:16" ht="12" customHeight="1">
       <c r="A119" s="62"/>
-      <c r="B119" s="237"/>
-      <c r="C119" s="237"/>
-      <c r="D119" s="237"/>
-      <c r="E119" s="237"/>
-      <c r="F119" s="237"/>
-      <c r="G119" s="237"/>
-      <c r="H119" s="237"/>
-      <c r="I119" s="237"/>
-      <c r="J119" s="237"/>
-      <c r="K119" s="237"/>
-      <c r="L119" s="237"/>
-      <c r="M119" s="237"/>
-      <c r="N119" s="237"/>
-      <c r="O119" s="237"/>
-      <c r="P119" s="237"/>
+      <c r="B119" s="282"/>
+      <c r="C119" s="282"/>
+      <c r="D119" s="282"/>
+      <c r="E119" s="282"/>
+      <c r="F119" s="282"/>
+      <c r="G119" s="282"/>
+      <c r="H119" s="282"/>
+      <c r="I119" s="282"/>
+      <c r="J119" s="282"/>
+      <c r="K119" s="282"/>
+      <c r="L119" s="282"/>
+      <c r="M119" s="282"/>
+      <c r="N119" s="282"/>
+      <c r="O119" s="282"/>
+      <c r="P119" s="282"/>
     </row>
     <row r="120" spans="1:16" ht="12" customHeight="1">
       <c r="A120" s="62"/>
-      <c r="B120" s="235" t="s">
-        <v>310</v>
-      </c>
-      <c r="C120" s="235"/>
-      <c r="D120" s="235"/>
-      <c r="E120" s="235"/>
-      <c r="F120" s="235"/>
+      <c r="B120" s="284" t="s">
+        <v>301</v>
+      </c>
+      <c r="C120" s="284"/>
+      <c r="D120" s="284"/>
+      <c r="E120" s="284"/>
+      <c r="F120" s="284"/>
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="40"/>
@@ -19998,8 +20715,8 @@
     </row>
     <row r="121" spans="1:16" ht="12" customHeight="1">
       <c r="A121" s="62"/>
-      <c r="B121" s="143" t="s">
-        <v>308</v>
+      <c r="B121" s="141" t="s">
+        <v>299</v>
       </c>
       <c r="C121" s="40"/>
       <c r="D121" s="40"/>
@@ -20030,13 +20747,13 @@
     </row>
     <row r="123" spans="1:16" ht="12" customHeight="1">
       <c r="A123" s="62"/>
-      <c r="B123" s="235" t="s">
-        <v>307</v>
-      </c>
-      <c r="C123" s="235"/>
-      <c r="D123" s="235"/>
-      <c r="E123" s="235"/>
-      <c r="F123" s="235"/>
+      <c r="B123" s="284" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" s="284"/>
+      <c r="D123" s="284"/>
+      <c r="E123" s="284"/>
+      <c r="F123" s="284"/>
       <c r="G123" s="40"/>
       <c r="H123" s="40"/>
       <c r="I123" s="40"/>
@@ -20047,8 +20764,8 @@
     </row>
     <row r="124" spans="1:16" ht="12" customHeight="1">
       <c r="A124" s="62"/>
-      <c r="B124" s="143" t="s">
-        <v>309</v>
+      <c r="B124" s="141" t="s">
+        <v>300</v>
       </c>
       <c r="C124" s="40"/>
       <c r="D124" s="40"/>
@@ -20062,69 +20779,69 @@
       <c r="L124" s="40"/>
       <c r="M124" s="40"/>
     </row>
-    <row r="125" spans="1:16" s="246" customFormat="1" ht="12" customHeight="1">
-      <c r="A125" s="242"/>
-      <c r="B125" s="243"/>
-      <c r="C125" s="244" t="s">
-        <v>315</v>
-      </c>
-      <c r="D125" s="244"/>
-      <c r="E125" s="244"/>
-      <c r="F125" s="244"/>
-      <c r="G125" s="244"/>
-      <c r="H125" s="245"/>
-      <c r="I125" s="245"/>
-      <c r="J125" s="245"/>
-      <c r="K125" s="245"/>
-      <c r="L125" s="245"/>
-    </row>
-    <row r="126" spans="1:16" s="246" customFormat="1" ht="12" customHeight="1">
-      <c r="A126" s="242"/>
-      <c r="B126" s="243"/>
-      <c r="C126" s="247" t="s">
-        <v>319</v>
-      </c>
-      <c r="D126" s="245"/>
-      <c r="E126" s="245"/>
-      <c r="F126" s="245"/>
-      <c r="G126" s="245"/>
-      <c r="H126" s="245"/>
-      <c r="I126" s="245"/>
-      <c r="J126" s="245"/>
-      <c r="K126" s="245"/>
-      <c r="L126" s="245"/>
-    </row>
-    <row r="127" spans="1:16" s="246" customFormat="1" ht="12" customHeight="1">
-      <c r="A127" s="242" t="s">
-        <v>316</v>
-      </c>
-      <c r="B127" s="243"/>
-      <c r="C127" s="247" t="s">
-        <v>317</v>
-      </c>
-      <c r="D127" s="245"/>
-      <c r="E127" s="245"/>
-      <c r="F127" s="245"/>
-      <c r="G127" s="245"/>
-      <c r="H127" s="245"/>
-      <c r="I127" s="245"/>
-      <c r="J127" s="245"/>
-      <c r="K127" s="245"/>
-      <c r="L127" s="245"/>
-    </row>
-    <row r="128" spans="1:16" s="246" customFormat="1" ht="12" customHeight="1">
-      <c r="A128" s="242"/>
-      <c r="B128" s="243"/>
-      <c r="C128" s="248"/>
-      <c r="D128" s="248"/>
-      <c r="E128" s="245"/>
-      <c r="F128" s="245"/>
-      <c r="G128" s="245"/>
-      <c r="H128" s="245"/>
-      <c r="I128" s="245"/>
-      <c r="J128" s="245"/>
-      <c r="K128" s="245"/>
-      <c r="L128" s="245"/>
+    <row r="125" spans="1:16" s="148" customFormat="1" ht="12" customHeight="1">
+      <c r="A125" s="145"/>
+      <c r="B125" s="146"/>
+      <c r="C125" s="283" t="s">
+        <v>305</v>
+      </c>
+      <c r="D125" s="283"/>
+      <c r="E125" s="283"/>
+      <c r="F125" s="283"/>
+      <c r="G125" s="283"/>
+      <c r="H125" s="147"/>
+      <c r="I125" s="147"/>
+      <c r="J125" s="147"/>
+      <c r="K125" s="147"/>
+      <c r="L125" s="147"/>
+    </row>
+    <row r="126" spans="1:16" s="148" customFormat="1" ht="12" customHeight="1">
+      <c r="A126" s="145"/>
+      <c r="B126" s="146"/>
+      <c r="C126" s="149" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" s="147"/>
+      <c r="E126" s="147"/>
+      <c r="F126" s="147"/>
+      <c r="G126" s="147"/>
+      <c r="H126" s="147"/>
+      <c r="I126" s="147"/>
+      <c r="J126" s="147"/>
+      <c r="K126" s="147"/>
+      <c r="L126" s="147"/>
+    </row>
+    <row r="127" spans="1:16" s="148" customFormat="1" ht="12" customHeight="1">
+      <c r="A127" s="145" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" s="146"/>
+      <c r="C127" s="149" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127" s="147"/>
+      <c r="E127" s="147"/>
+      <c r="F127" s="147"/>
+      <c r="G127" s="147"/>
+      <c r="H127" s="147"/>
+      <c r="I127" s="147"/>
+      <c r="J127" s="147"/>
+      <c r="K127" s="147"/>
+      <c r="L127" s="147"/>
+    </row>
+    <row r="128" spans="1:16" s="148" customFormat="1" ht="12" customHeight="1">
+      <c r="A128" s="145"/>
+      <c r="B128" s="146"/>
+      <c r="C128" s="150"/>
+      <c r="D128" s="150"/>
+      <c r="E128" s="147"/>
+      <c r="F128" s="147"/>
+      <c r="G128" s="147"/>
+      <c r="H128" s="147"/>
+      <c r="I128" s="147"/>
+      <c r="J128" s="147"/>
+      <c r="K128" s="147"/>
+      <c r="L128" s="147"/>
     </row>
     <row r="129" spans="1:13" ht="12" customHeight="1">
       <c r="A129" s="62"/>
@@ -21076,15 +21793,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B103:P105"/>
+    <mergeCell ref="B100:P102"/>
+    <mergeCell ref="B106:P108"/>
     <mergeCell ref="C125:G125"/>
     <mergeCell ref="B120:F120"/>
     <mergeCell ref="B123:F123"/>
     <mergeCell ref="B117:P119"/>
     <mergeCell ref="B110:P115"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B103:P105"/>
-    <mergeCell ref="B100:P102"/>
-    <mergeCell ref="B106:P108"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>
@@ -21122,10 +21839,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
+      <c r="B1" s="215"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -21152,12 +21869,12 @@
       </c>
       <c r="J1" s="35" t="str">
         <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
+        <v>Tấn Đạt</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -21184,7 +21901,7 @@
       </c>
       <c r="J2" s="35" t="str">
         <f>'Update History'!J2</f>
-        <v>25/03/2017</v>
+        <v>25/01/2018</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">

--- a/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tài liệu phân tích_Yêu cầu\03_DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tai lieu phan tich_Yeu cau\03_DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -45,11 +45,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$O$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$156</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$157</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1377,7 +1377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="366">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2549,28 +2549,51 @@
     <t>CRMT00000026</t>
   </si>
   <si>
-    <t>Insert Into CRMT20801 
-(APK, DivisionID, RequestSubject
-, PriorityID, RequestStatus, DeleteFlg
-, TimeRequest, DeadlineRequest, AssignedToUserID
-, RequestDescription, FeedbackDescription, RelatedToTypeID
-, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID, RequestTypeID, BugTypeID, DeadlineExpect, CompleteDate, DurationTime, RealTime, ProjectID)
-Values 
-(@APK, @DivisionID, @RequestSubject
-, @PriorityID, @RequestStatus, @DeleteFlg
-, @TimeRequest, @DeadlineRequest, @AssignedToUserID
-, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
-, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime, @ProjectID)</t>
-  </si>
-  <si>
-    <t>@APK,
- @DivisionID, @RequestSubject
-, @PriorityID, @RequestStatus, @DeleteFlg
-, @TimeRequest, @DeadlineRequest, @AssignedToUserID
-, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
-, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
-@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
-@ProjectID</t>
+    <t>Load combo Phân loại bug</t>
+  </si>
+  <si>
+    <t>Load combo [Phân loại bug]
+(Tool BA\SQL List\CRM-CLOUD)</t>
+  </si>
+  <si>
+    <t>@SQL015</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL013 load combo [Phân loại yêu cầu]</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL014 load combo [Phân loại bug]</t>
+  </si>
+  <si>
+    <t>25/01/2018</t>
+  </si>
+  <si>
+    <t>Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Dự án, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
+  </si>
+  <si>
+    <t>Liên hệ</t>
+  </si>
+  <si>
+    <t>ContactID</t>
+  </si>
+  <si>
+    <t>Chọn liên hệ</t>
+  </si>
+  <si>
+    <t>Xóa liên hệ đã chọn</t>
+  </si>
+  <si>
+    <t>BtnChooseContact</t>
+  </si>
+  <si>
+    <t>BtnClearContact</t>
+  </si>
+  <si>
+    <t>Hiển thị  ContactName
+Lưu database là ContactID</t>
+  </si>
+  <si>
+    <t>Click btn Chọn liên hệ</t>
   </si>
   <si>
     <t>Update CRMT20801 
@@ -2594,6 +2617,7 @@
 , DurationTime = @DurationTime
 , RealTime = @RealTime
 , ProjectID = @ProjectID
+, ContactID = @ContactID
 Where RequestID =@RequestID</t>
   </si>
   <si>
@@ -2611,7 +2635,8 @@
 @LastModifyDate
 @RequestID
 @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
-@ProjectID
+@ProjectID,
+@ContactID
 </t>
   </si>
   <si>
@@ -2629,42 +2654,57 @@
 @LastModifyDate
 @RequestID
 @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
-@ProjectID</t>
-  </si>
-  <si>
-    <t>Load combo Phân loại bug</t>
-  </si>
-  <si>
-    <t>Load combo [Phân loại bug]
-(Tool BA\SQL List\CRM-CLOUD)</t>
-  </si>
-  <si>
-    <t>@SQL015</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL013 load combo [Phân loại yêu cầu]</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL014 load combo [Phân loại bug]</t>
-  </si>
-  <si>
-    <t>25/01/2018</t>
+@ProjectID,
+@ContactID</t>
+  </si>
+  <si>
+    <t>Insert Into CRMT20801 
+(APK, DivisionID, RequestSubject
+, PriorityID, RequestStatus, DeleteFlg
+, TimeRequest, DeadlineRequest, AssignedToUserID
+, RequestDescription, FeedbackDescription, RelatedToTypeID
+, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID, RequestTypeID, BugTypeID, DeadlineExpect, CompleteDate, DurationTime, RealTime, ProjectID,ContactID)
+Values 
+(@APK, @DivisionID, @RequestSubject
+, @PriorityID, @RequestStatus, @DeleteFlg
+, @TimeRequest, @DeadlineRequest, @AssignedToUserID
+, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
+, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime, @ProjectID, @ContactID)</t>
+  </si>
+  <si>
+    <t>@APK,
+ @DivisionID, @RequestSubject, @PriorityID, @RequestStatus, @DeleteFlg, @TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, @RelatedToTypeID, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
+@ProjectID,
+@ContactID</t>
   </si>
   <si>
     <t>NewID(),
- Biến môi trường @RequestSubject
-, @PriorityID, @RequestStatus,
- @DeleteFlg
-, @TimeRequest, @DeadlineRequest, @AssignedToUserID
-, @RequestDescription, @FeedbackDescription, 
-20
-, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
+ Biến môi trường @RequestSubject, @PriorityID, 
+@RequestStatus,
+@DeleteFlg,
+@TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, 
+20, 
+@CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
 @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime,
 @RealTime, 
-@ProjectID</t>
-  </si>
-  <si>
-    <t>Select 
+@ProjectID,
+@ContactID</t>
+  </si>
+  <si>
+    <t>Luồng 14: Chọn Liên hệ</t>
+  </si>
+  <si>
+    <t>Truyền tham số DivisionID truyền tới màn hình CRMF9010 - Chọn liên hệ</t>
+  </si>
+  <si>
+    <t>Truyền tham số @@DivisionID đến màn hình CRMF9010 -Chọn liên hệ</t>
+  </si>
+  <si>
+    <t>Màn hình CRMF9010 cho phép chọn 1 hoặc nhiều giá trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select 
 M.APK, M.DivisionID, M.RequestID, M.RequestSubject, M.RelatedToTypeID
 , M.PriorityID,  M.RequestStatus, C01.Description as RequestStatusName
 , M.TimeRequest, M.DeadlineRequest, M.AssignedToUserID, A.FullName as AssignedToUserName
@@ -2685,19 +2725,23 @@
  Group by B.AccountID, B.AccountName
  FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as AccountName
 , M.CreateDate, M.LastModifyDate, M.DeadlineExpect, M.CompleteDate, M.DurationTime, M.RealTime, M.ProjectID
-,  M.RequestTypeID,C02.Description as RequestTypeName
-, M.BugTypeID, stuff(isnull((Select ', ' + B.Description From CRMT0099 B WITH (NOLOCK) 
+, M.RequestTypeID,C02.Description as RequestTypeName
+, M.BugTypeID
+, stuff(isnull((Select ', ' + B.Description From CRMT0099 B WITH (NOLOCK) 
  where B.CodeMaster ='CRMT00000026'and B.ID in (Replace(M.BugTypeID,',',''','''))
  Group by B.Description
  FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as BugTypeName
+,M.ContactID
+, stuff(isnull((Select ', ' + E.ContactName From CRMT10001 E WITH (NOLOCK) 
+ where E.ContactID in (Replace(M.ContactID,',',''','''))
+ Group by E.ContactName
+ FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as ContactName
 From CRMT20801 M With (Nolock)
 Left join AT1103 A With (Nolock) On A.EmployeeID = M.AssignedToUserID
 Left join CRMT0099 C01 With (Nolock) On C01.ID = M.RequestStatus  and C01.CodeMaster ='CRMT00000003' 
 Left join CRMT0099 C02 With (Nolock) On C02.ID = M.RequestTypeID  and C02.CodeMaster ='CRMT00000025' 
-Where M.APK = @APK</t>
-  </si>
-  <si>
-    <t>Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Dự án, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
+Where M.APK = @APK 
+</t>
   </si>
 </sst>
 </file>
@@ -3221,7 +3265,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3594,7 +3638,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3694,75 +3737,121 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3772,33 +3861,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3838,6 +3900,15 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3907,20 +3978,83 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3931,54 +4065,6 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4002,12 +4088,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4023,6 +4103,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4134,13 +4219,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>895970</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4161,7 +4246,62 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="619125"/>
-          <a:ext cx="7639050" cy="9715500"/>
+          <a:ext cx="7773020" cy="4752975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5344988"/>
+          <a:ext cx="7867650" cy="4827712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13763,42 +13903,42 @@
       <c r="R13" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="190"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="190"/>
-      <c r="Q14" s="190"/>
-      <c r="R14" s="190"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="192"/>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="192"/>
+      <c r="R14" s="192"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="190"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="190"/>
-      <c r="O15" s="190"/>
-      <c r="P15" s="190"/>
-      <c r="Q15" s="190"/>
-      <c r="R15" s="190"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="192"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="192"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
       <c r="A16" s="193" t="s">
@@ -13823,384 +13963,384 @@
       <c r="R16" s="95"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="190"/>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="190"/>
-      <c r="O17" s="190"/>
-      <c r="P17" s="190"/>
-      <c r="Q17" s="190"/>
-      <c r="R17" s="190"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="192"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="190"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
-      <c r="N18" s="190"/>
-      <c r="O18" s="190"/>
-      <c r="P18" s="190"/>
-      <c r="Q18" s="190"/>
-      <c r="R18" s="190"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="192"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="192"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="192"/>
-      <c r="O19" s="192"/>
-      <c r="P19" s="192"/>
-      <c r="Q19" s="192"/>
-      <c r="R19" s="192"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="209"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="209"/>
+      <c r="P19" s="209"/>
+      <c r="Q19" s="209"/>
+      <c r="R19" s="209"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
-      <c r="O20" s="190"/>
-      <c r="P20" s="190"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="190"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="192"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="192"/>
+      <c r="M20" s="192"/>
+      <c r="N20" s="192"/>
+      <c r="O20" s="192"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="192"/>
+      <c r="R20" s="192"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="190"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="190"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="192"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="192"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="192"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="191"/>
-      <c r="G22" s="191"/>
-      <c r="H22" s="191"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="191"/>
-      <c r="N22" s="191"/>
-      <c r="O22" s="191"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="191"/>
-      <c r="R22" s="191"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="208"/>
+      <c r="M22" s="208"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="208"/>
+      <c r="P22" s="208"/>
+      <c r="Q22" s="208"/>
+      <c r="R22" s="208"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="191"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="191"/>
-      <c r="R23" s="191"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="208"/>
+      <c r="M23" s="208"/>
+      <c r="N23" s="208"/>
+      <c r="O23" s="208"/>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="208"/>
+      <c r="R23" s="208"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="188"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="188"/>
-      <c r="O26" s="188"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="188"/>
-      <c r="R26" s="188"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="210"/>
+      <c r="L26" s="210"/>
+      <c r="M26" s="210"/>
+      <c r="N26" s="210"/>
+      <c r="O26" s="210"/>
+      <c r="P26" s="210"/>
+      <c r="Q26" s="210"/>
+      <c r="R26" s="210"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="189"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="189"/>
-      <c r="M28" s="189"/>
-      <c r="N28" s="189"/>
-      <c r="O28" s="189"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="189"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
-      <c r="AD28" s="187"/>
-      <c r="AE28" s="187"/>
-      <c r="AF28" s="187"/>
-      <c r="AG28" s="187"/>
-      <c r="AH28" s="187"/>
-      <c r="AI28" s="187"/>
-      <c r="AJ28" s="187"/>
-      <c r="AK28" s="187"/>
-      <c r="AL28" s="187"/>
-      <c r="AM28" s="187"/>
-      <c r="AN28" s="187"/>
-      <c r="AO28" s="187"/>
-      <c r="AP28" s="187"/>
-      <c r="AQ28" s="187"/>
-      <c r="AR28" s="187"/>
-      <c r="AS28" s="187"/>
-      <c r="AT28" s="187"/>
-      <c r="AU28" s="187"/>
-      <c r="AV28" s="187"/>
-      <c r="AW28" s="187"/>
-      <c r="AX28" s="187"/>
-      <c r="AY28" s="187"/>
-      <c r="AZ28" s="187"/>
-      <c r="BA28" s="187"/>
-      <c r="BB28" s="187"/>
-      <c r="BC28" s="187"/>
-      <c r="BD28" s="187"/>
-      <c r="BE28" s="187"/>
-      <c r="BF28" s="187"/>
-      <c r="BG28" s="187"/>
-      <c r="BH28" s="187"/>
-      <c r="BI28" s="187"/>
-      <c r="BJ28" s="187"/>
-      <c r="BK28" s="187"/>
-      <c r="BL28" s="187"/>
-      <c r="BM28" s="187"/>
-      <c r="BN28" s="187"/>
-      <c r="BO28" s="187"/>
-      <c r="BP28" s="187"/>
-      <c r="BQ28" s="187"/>
-      <c r="BR28" s="187"/>
-      <c r="BS28" s="187"/>
-      <c r="BT28" s="187"/>
-      <c r="BU28" s="187"/>
-      <c r="BV28" s="187"/>
-      <c r="BW28" s="187"/>
-      <c r="BX28" s="187"/>
-      <c r="BY28" s="187"/>
-      <c r="BZ28" s="187"/>
-      <c r="CA28" s="187"/>
-      <c r="CB28" s="187"/>
-      <c r="CC28" s="187"/>
-      <c r="CD28" s="187"/>
-      <c r="CE28" s="187"/>
-      <c r="CF28" s="187"/>
-      <c r="CG28" s="187"/>
-      <c r="CH28" s="187"/>
-      <c r="CI28" s="187"/>
-      <c r="CJ28" s="187"/>
-      <c r="CK28" s="187"/>
-      <c r="CL28" s="187"/>
-      <c r="CM28" s="187"/>
-      <c r="CN28" s="187"/>
-      <c r="CO28" s="187"/>
-      <c r="CP28" s="187"/>
-      <c r="CQ28" s="187"/>
-      <c r="CR28" s="187"/>
-      <c r="CS28" s="187"/>
-      <c r="CT28" s="187"/>
-      <c r="CU28" s="187"/>
-      <c r="CV28" s="187"/>
-      <c r="CW28" s="187"/>
-      <c r="CX28" s="187"/>
-      <c r="CY28" s="187"/>
-      <c r="CZ28" s="187"/>
-      <c r="DA28" s="187"/>
-      <c r="DB28" s="187"/>
-      <c r="DC28" s="187"/>
-      <c r="DD28" s="187"/>
-      <c r="DE28" s="187"/>
-      <c r="DF28" s="187"/>
-      <c r="DG28" s="187"/>
-      <c r="DH28" s="187"/>
-      <c r="DI28" s="187"/>
-      <c r="DJ28" s="187"/>
-      <c r="DK28" s="187"/>
-      <c r="DL28" s="187"/>
-      <c r="DM28" s="187"/>
-      <c r="DN28" s="187"/>
-      <c r="DO28" s="187"/>
-      <c r="DP28" s="187"/>
-      <c r="DQ28" s="187"/>
-      <c r="DR28" s="187"/>
-      <c r="DS28" s="187"/>
-      <c r="DT28" s="187"/>
-      <c r="DU28" s="187"/>
-      <c r="DV28" s="187"/>
-      <c r="DW28" s="187"/>
-      <c r="DX28" s="187"/>
-      <c r="DY28" s="187"/>
-      <c r="DZ28" s="187"/>
-      <c r="EA28" s="187"/>
-      <c r="EB28" s="187"/>
-      <c r="EC28" s="187"/>
-      <c r="ED28" s="187"/>
-      <c r="EE28" s="187"/>
-      <c r="EF28" s="187"/>
-      <c r="EG28" s="187"/>
-      <c r="EH28" s="187"/>
-      <c r="EI28" s="187"/>
-      <c r="EJ28" s="187"/>
-      <c r="EK28" s="187"/>
-      <c r="EL28" s="187"/>
-      <c r="EM28" s="187"/>
-      <c r="EN28" s="187"/>
-      <c r="EO28" s="187"/>
-      <c r="EP28" s="187"/>
-      <c r="EQ28" s="187"/>
-      <c r="ER28" s="187"/>
-      <c r="ES28" s="187"/>
-      <c r="ET28" s="187"/>
-      <c r="EU28" s="187"/>
-      <c r="EV28" s="187"/>
-      <c r="EW28" s="187"/>
-      <c r="EX28" s="187"/>
-      <c r="EY28" s="187"/>
-      <c r="EZ28" s="187"/>
-      <c r="FA28" s="187"/>
-      <c r="FB28" s="187"/>
-      <c r="FC28" s="187"/>
-      <c r="FD28" s="187"/>
-      <c r="FE28" s="187"/>
-      <c r="FF28" s="187"/>
-      <c r="FG28" s="187"/>
-      <c r="FH28" s="187"/>
-      <c r="FI28" s="187"/>
-      <c r="FJ28" s="187"/>
-      <c r="FK28" s="187"/>
-      <c r="FL28" s="187"/>
-      <c r="FM28" s="187"/>
-      <c r="FN28" s="187"/>
-      <c r="FO28" s="187"/>
-      <c r="FP28" s="187"/>
-      <c r="FQ28" s="187"/>
-      <c r="FR28" s="187"/>
-      <c r="FS28" s="187"/>
-      <c r="FT28" s="187"/>
-      <c r="FU28" s="187"/>
-      <c r="FV28" s="187"/>
-      <c r="FW28" s="187"/>
-      <c r="FX28" s="187"/>
-      <c r="FY28" s="187"/>
-      <c r="FZ28" s="187"/>
-      <c r="GA28" s="187"/>
-      <c r="GB28" s="187"/>
-      <c r="GC28" s="187"/>
-      <c r="GD28" s="187"/>
-      <c r="GE28" s="187"/>
-      <c r="GF28" s="187"/>
-      <c r="GG28" s="187"/>
-      <c r="GH28" s="187"/>
-      <c r="GI28" s="187"/>
-      <c r="GJ28" s="187"/>
-      <c r="GK28" s="187"/>
-      <c r="GL28" s="187"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="212"/>
+      <c r="K28" s="212"/>
+      <c r="L28" s="212"/>
+      <c r="M28" s="212"/>
+      <c r="N28" s="212"/>
+      <c r="O28" s="212"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="212"/>
+      <c r="R28" s="212"/>
+      <c r="S28" s="211"/>
+      <c r="T28" s="211"/>
+      <c r="U28" s="211"/>
+      <c r="V28" s="211"/>
+      <c r="W28" s="211"/>
+      <c r="X28" s="211"/>
+      <c r="Y28" s="211"/>
+      <c r="Z28" s="211"/>
+      <c r="AA28" s="211"/>
+      <c r="AB28" s="211"/>
+      <c r="AC28" s="211"/>
+      <c r="AD28" s="211"/>
+      <c r="AE28" s="211"/>
+      <c r="AF28" s="211"/>
+      <c r="AG28" s="211"/>
+      <c r="AH28" s="211"/>
+      <c r="AI28" s="211"/>
+      <c r="AJ28" s="211"/>
+      <c r="AK28" s="211"/>
+      <c r="AL28" s="211"/>
+      <c r="AM28" s="211"/>
+      <c r="AN28" s="211"/>
+      <c r="AO28" s="211"/>
+      <c r="AP28" s="211"/>
+      <c r="AQ28" s="211"/>
+      <c r="AR28" s="211"/>
+      <c r="AS28" s="211"/>
+      <c r="AT28" s="211"/>
+      <c r="AU28" s="211"/>
+      <c r="AV28" s="211"/>
+      <c r="AW28" s="211"/>
+      <c r="AX28" s="211"/>
+      <c r="AY28" s="211"/>
+      <c r="AZ28" s="211"/>
+      <c r="BA28" s="211"/>
+      <c r="BB28" s="211"/>
+      <c r="BC28" s="211"/>
+      <c r="BD28" s="211"/>
+      <c r="BE28" s="211"/>
+      <c r="BF28" s="211"/>
+      <c r="BG28" s="211"/>
+      <c r="BH28" s="211"/>
+      <c r="BI28" s="211"/>
+      <c r="BJ28" s="211"/>
+      <c r="BK28" s="211"/>
+      <c r="BL28" s="211"/>
+      <c r="BM28" s="211"/>
+      <c r="BN28" s="211"/>
+      <c r="BO28" s="211"/>
+      <c r="BP28" s="211"/>
+      <c r="BQ28" s="211"/>
+      <c r="BR28" s="211"/>
+      <c r="BS28" s="211"/>
+      <c r="BT28" s="211"/>
+      <c r="BU28" s="211"/>
+      <c r="BV28" s="211"/>
+      <c r="BW28" s="211"/>
+      <c r="BX28" s="211"/>
+      <c r="BY28" s="211"/>
+      <c r="BZ28" s="211"/>
+      <c r="CA28" s="211"/>
+      <c r="CB28" s="211"/>
+      <c r="CC28" s="211"/>
+      <c r="CD28" s="211"/>
+      <c r="CE28" s="211"/>
+      <c r="CF28" s="211"/>
+      <c r="CG28" s="211"/>
+      <c r="CH28" s="211"/>
+      <c r="CI28" s="211"/>
+      <c r="CJ28" s="211"/>
+      <c r="CK28" s="211"/>
+      <c r="CL28" s="211"/>
+      <c r="CM28" s="211"/>
+      <c r="CN28" s="211"/>
+      <c r="CO28" s="211"/>
+      <c r="CP28" s="211"/>
+      <c r="CQ28" s="211"/>
+      <c r="CR28" s="211"/>
+      <c r="CS28" s="211"/>
+      <c r="CT28" s="211"/>
+      <c r="CU28" s="211"/>
+      <c r="CV28" s="211"/>
+      <c r="CW28" s="211"/>
+      <c r="CX28" s="211"/>
+      <c r="CY28" s="211"/>
+      <c r="CZ28" s="211"/>
+      <c r="DA28" s="211"/>
+      <c r="DB28" s="211"/>
+      <c r="DC28" s="211"/>
+      <c r="DD28" s="211"/>
+      <c r="DE28" s="211"/>
+      <c r="DF28" s="211"/>
+      <c r="DG28" s="211"/>
+      <c r="DH28" s="211"/>
+      <c r="DI28" s="211"/>
+      <c r="DJ28" s="211"/>
+      <c r="DK28" s="211"/>
+      <c r="DL28" s="211"/>
+      <c r="DM28" s="211"/>
+      <c r="DN28" s="211"/>
+      <c r="DO28" s="211"/>
+      <c r="DP28" s="211"/>
+      <c r="DQ28" s="211"/>
+      <c r="DR28" s="211"/>
+      <c r="DS28" s="211"/>
+      <c r="DT28" s="211"/>
+      <c r="DU28" s="211"/>
+      <c r="DV28" s="211"/>
+      <c r="DW28" s="211"/>
+      <c r="DX28" s="211"/>
+      <c r="DY28" s="211"/>
+      <c r="DZ28" s="211"/>
+      <c r="EA28" s="211"/>
+      <c r="EB28" s="211"/>
+      <c r="EC28" s="211"/>
+      <c r="ED28" s="211"/>
+      <c r="EE28" s="211"/>
+      <c r="EF28" s="211"/>
+      <c r="EG28" s="211"/>
+      <c r="EH28" s="211"/>
+      <c r="EI28" s="211"/>
+      <c r="EJ28" s="211"/>
+      <c r="EK28" s="211"/>
+      <c r="EL28" s="211"/>
+      <c r="EM28" s="211"/>
+      <c r="EN28" s="211"/>
+      <c r="EO28" s="211"/>
+      <c r="EP28" s="211"/>
+      <c r="EQ28" s="211"/>
+      <c r="ER28" s="211"/>
+      <c r="ES28" s="211"/>
+      <c r="ET28" s="211"/>
+      <c r="EU28" s="211"/>
+      <c r="EV28" s="211"/>
+      <c r="EW28" s="211"/>
+      <c r="EX28" s="211"/>
+      <c r="EY28" s="211"/>
+      <c r="EZ28" s="211"/>
+      <c r="FA28" s="211"/>
+      <c r="FB28" s="211"/>
+      <c r="FC28" s="211"/>
+      <c r="FD28" s="211"/>
+      <c r="FE28" s="211"/>
+      <c r="FF28" s="211"/>
+      <c r="FG28" s="211"/>
+      <c r="FH28" s="211"/>
+      <c r="FI28" s="211"/>
+      <c r="FJ28" s="211"/>
+      <c r="FK28" s="211"/>
+      <c r="FL28" s="211"/>
+      <c r="FM28" s="211"/>
+      <c r="FN28" s="211"/>
+      <c r="FO28" s="211"/>
+      <c r="FP28" s="211"/>
+      <c r="FQ28" s="211"/>
+      <c r="FR28" s="211"/>
+      <c r="FS28" s="211"/>
+      <c r="FT28" s="211"/>
+      <c r="FU28" s="211"/>
+      <c r="FV28" s="211"/>
+      <c r="FW28" s="211"/>
+      <c r="FX28" s="211"/>
+      <c r="FY28" s="211"/>
+      <c r="FZ28" s="211"/>
+      <c r="GA28" s="211"/>
+      <c r="GB28" s="211"/>
+      <c r="GC28" s="211"/>
+      <c r="GD28" s="211"/>
+      <c r="GE28" s="211"/>
+      <c r="GF28" s="211"/>
+      <c r="GG28" s="211"/>
+      <c r="GH28" s="211"/>
+      <c r="GI28" s="211"/>
+      <c r="GJ28" s="211"/>
+      <c r="GK28" s="211"/>
+      <c r="GL28" s="211"/>
       <c r="GM28" s="96"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="188"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="188"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
-      <c r="N29" s="188"/>
-      <c r="O29" s="188"/>
-      <c r="P29" s="188"/>
-      <c r="Q29" s="188"/>
-      <c r="R29" s="188"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="210"/>
+      <c r="K29" s="210"/>
+      <c r="L29" s="210"/>
+      <c r="M29" s="210"/>
+      <c r="N29" s="210"/>
+      <c r="O29" s="210"/>
+      <c r="P29" s="210"/>
+      <c r="Q29" s="210"/>
+      <c r="R29" s="210"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="186"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="213"/>
       <c r="K30" s="97"/>
       <c r="L30" s="97"/>
       <c r="M30" s="97"/>
@@ -14211,16 +14351,16 @@
       <c r="R30" s="97"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
+      <c r="A31" s="213"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="213"/>
       <c r="K31" s="97"/>
       <c r="L31" s="97"/>
       <c r="M31" s="97"/>
@@ -14232,6 +14372,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -14245,28 +14407,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -14293,14 +14433,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="285" t="s">
+      <c r="B1" s="301" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -14493,11 +14633,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="286" t="s">
+      <c r="E27" s="302" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="287"/>
-      <c r="G27" s="288"/>
+      <c r="F27" s="303"/>
+      <c r="G27" s="304"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -14805,7 +14945,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:J8"/>
+      <selection activeCell="E23" sqref="E23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14821,10 +14961,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="214"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14851,8 +14991,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14875,7 +15015,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="108" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
@@ -14891,14 +15031,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="216" t="s">
+      <c r="E4" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="103">
@@ -14913,14 +15053,14 @@
       <c r="D5" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="217" t="s">
+      <c r="E5" s="216" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="71">
@@ -14935,42 +15075,42 @@
       <c r="D6" s="143">
         <v>42877</v>
       </c>
-      <c r="E6" s="218" t="s">
+      <c r="E6" s="217" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="220"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="219"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="72">
         <v>3</v>
       </c>
-      <c r="B7" s="151">
+      <c r="B7" s="150">
         <v>3</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="152">
+      <c r="D7" s="151">
         <v>42881</v>
       </c>
-      <c r="E7" s="212" t="s">
+      <c r="E7" s="221" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="214"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="223"/>
     </row>
     <row r="8" spans="1:10" ht="30.75" customHeight="1">
       <c r="A8" s="73">
         <v>4</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="152" t="s">
         <v>312</v>
       </c>
       <c r="C8" s="73" t="s">
@@ -14979,14 +15119,14 @@
       <c r="D8" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="289" t="s">
-        <v>353</v>
-      </c>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="290"/>
-      <c r="J8" s="290"/>
+      <c r="E8" s="224" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="225"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="74">
@@ -14997,12 +15137,12 @@
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="211"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="227"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="228"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="75">
@@ -15013,12 +15153,12 @@
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="211"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="228"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="76">
@@ -15029,12 +15169,12 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="211"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="227"/>
+      <c r="J11" s="228"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="77">
@@ -15045,12 +15185,12 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="211"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="228"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="78">
@@ -15061,12 +15201,12 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="211"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="227"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="228"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="79">
@@ -15077,12 +15217,12 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="211"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="227"/>
+      <c r="I14" s="227"/>
+      <c r="J14" s="228"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -15093,12 +15233,12 @@
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="220"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="71">
@@ -15109,12 +15249,12 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="220"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="72">
@@ -15125,12 +15265,12 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="220"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="220"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="73">
@@ -15141,12 +15281,12 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="74">
@@ -15157,12 +15297,12 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="208"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="220"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="75">
@@ -15173,12 +15313,12 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="208"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="208"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="220"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="76">
@@ -15189,12 +15329,12 @@
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="208"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="220"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="77">
@@ -15205,12 +15345,12 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="78">
@@ -15221,12 +15361,12 @@
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="220"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="79">
@@ -15237,12 +15377,12 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -15253,12 +15393,12 @@
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="208"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="220"/>
+      <c r="J25" s="220"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="71">
@@ -15269,12 +15409,12 @@
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="208"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="220"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="72">
@@ -15285,12 +15425,12 @@
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="208"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="220"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="73">
@@ -15301,12 +15441,12 @@
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="208"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="74">
@@ -15317,12 +15457,12 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="208"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="208"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="220"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="75">
@@ -15333,12 +15473,12 @@
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="208"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="76">
@@ -15349,12 +15489,12 @@
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="208"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="77">
@@ -15365,12 +15505,12 @@
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="208"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="220"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="78">
@@ -15381,12 +15521,12 @@
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="208"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="220"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="79">
@@ -15397,26 +15537,20 @@
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="208"/>
-      <c r="G34" s="208"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="208"/>
+      <c r="E34" s="220"/>
+      <c r="F34" s="220"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="220"/>
+      <c r="J34" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -15433,11 +15567,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -15463,7 +15603,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J46"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -15482,10 +15622,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="214"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15516,8 +15656,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15548,20 +15688,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="229" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="221" t="s">
+      <c r="B4" s="231"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="222"/>
+      <c r="J4" s="230"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -15572,10 +15712,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="228" t="s">
+      <c r="I5" s="236" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="229"/>
+      <c r="J5" s="237"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -15586,8 +15726,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="231"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="239"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -15598,8 +15738,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="231"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -15610,8 +15750,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -15622,8 +15762,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="231"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -15634,8 +15774,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="233"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="241"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -15646,10 +15786,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="221" t="s">
+      <c r="I11" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="222"/>
+      <c r="J11" s="230"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -15660,10 +15800,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="224" t="s">
+      <c r="I12" s="232" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="225"/>
+      <c r="J12" s="233"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -15674,8 +15814,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="226"/>
-      <c r="J13" s="227"/>
+      <c r="I13" s="234"/>
+      <c r="J13" s="235"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -15686,8 +15826,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="226"/>
-      <c r="J14" s="227"/>
+      <c r="I14" s="234"/>
+      <c r="J14" s="235"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -15698,8 +15838,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="227"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="235"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -15710,8 +15850,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="227"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="235"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -15722,8 +15862,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="226"/>
-      <c r="J17" s="227"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="235"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -15734,8 +15874,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="227"/>
+      <c r="I18" s="234"/>
+      <c r="J18" s="235"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -15746,8 +15886,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="226"/>
-      <c r="J19" s="227"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="235"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -15758,8 +15898,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="226"/>
-      <c r="J20" s="227"/>
+      <c r="I20" s="234"/>
+      <c r="J20" s="235"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -15770,8 +15910,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="226"/>
-      <c r="J21" s="227"/>
+      <c r="I21" s="234"/>
+      <c r="J21" s="235"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -15782,8 +15922,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="226"/>
-      <c r="J22" s="227"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="235"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -15794,8 +15934,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="226"/>
-      <c r="J23" s="227"/>
+      <c r="I23" s="234"/>
+      <c r="J23" s="235"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -15806,8 +15946,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="226"/>
-      <c r="J24" s="227"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="235"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -15818,8 +15958,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="226"/>
-      <c r="J25" s="227"/>
+      <c r="I25" s="234"/>
+      <c r="J25" s="235"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -15830,8 +15970,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="226"/>
-      <c r="J26" s="227"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="235"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -15842,8 +15982,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="226"/>
-      <c r="J27" s="227"/>
+      <c r="I27" s="234"/>
+      <c r="J27" s="235"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -15854,8 +15994,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="226"/>
-      <c r="J28" s="227"/>
+      <c r="I28" s="234"/>
+      <c r="J28" s="235"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -15866,8 +16006,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="226"/>
-      <c r="J29" s="227"/>
+      <c r="I29" s="234"/>
+      <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -15878,8 +16018,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="226"/>
-      <c r="J30" s="227"/>
+      <c r="I30" s="234"/>
+      <c r="J30" s="235"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -15890,8 +16030,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="226"/>
-      <c r="J31" s="227"/>
+      <c r="I31" s="234"/>
+      <c r="J31" s="235"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -15902,8 +16042,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="226"/>
-      <c r="J32" s="227"/>
+      <c r="I32" s="234"/>
+      <c r="J32" s="235"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -15914,8 +16054,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="226"/>
-      <c r="J33" s="227"/>
+      <c r="I33" s="234"/>
+      <c r="J33" s="235"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -15926,8 +16066,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="226"/>
-      <c r="J34" s="227"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="235"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -15938,8 +16078,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="226"/>
-      <c r="J35" s="227"/>
+      <c r="I35" s="234"/>
+      <c r="J35" s="235"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -15950,8 +16090,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="226"/>
-      <c r="J36" s="227"/>
+      <c r="I36" s="234"/>
+      <c r="J36" s="235"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -15962,8 +16102,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="226"/>
-      <c r="J37" s="227"/>
+      <c r="I37" s="234"/>
+      <c r="J37" s="235"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -15974,8 +16114,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="226"/>
-      <c r="J38" s="227"/>
+      <c r="I38" s="234"/>
+      <c r="J38" s="235"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -15986,8 +16126,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="226"/>
-      <c r="J39" s="227"/>
+      <c r="I39" s="234"/>
+      <c r="J39" s="235"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -15998,8 +16138,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="226"/>
-      <c r="J40" s="227"/>
+      <c r="I40" s="234"/>
+      <c r="J40" s="235"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -16010,8 +16150,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="226"/>
-      <c r="J41" s="227"/>
+      <c r="I41" s="234"/>
+      <c r="J41" s="235"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -16022,8 +16162,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="226"/>
-      <c r="J42" s="227"/>
+      <c r="I42" s="234"/>
+      <c r="J42" s="235"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -16034,8 +16174,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="226"/>
-      <c r="J43" s="227"/>
+      <c r="I43" s="234"/>
+      <c r="J43" s="235"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -16046,8 +16186,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="226"/>
-      <c r="J44" s="227"/>
+      <c r="I44" s="234"/>
+      <c r="J44" s="235"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -16058,8 +16198,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="226"/>
-      <c r="J45" s="227"/>
+      <c r="I45" s="234"/>
+      <c r="J45" s="235"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -16070,8 +16210,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="226"/>
-      <c r="J46" s="227"/>
+      <c r="I46" s="234"/>
+      <c r="J46" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16096,13 +16236,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26:E33"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -16126,12 +16266,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -16139,16 +16279,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="238" t="s">
+      <c r="G1" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="239"/>
-      <c r="I1" s="240" t="str">
+      <c r="H1" s="250"/>
+      <c r="I1" s="251" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="J1" s="241"/>
-      <c r="K1" s="242"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="253"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -16165,10 +16305,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -16176,16 +16316,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="238" t="s">
+      <c r="G2" s="249" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="239"/>
-      <c r="I2" s="240" t="str">
+      <c r="H2" s="250"/>
+      <c r="I2" s="251" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="J2" s="241"/>
-      <c r="K2" s="242"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="253"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -16282,7 +16422,7 @@
       <c r="B6" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="165">
+      <c r="C6" s="164">
         <v>4</v>
       </c>
       <c r="D6" s="117" t="s">
@@ -16319,7 +16459,7 @@
       <c r="B7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="243">
+      <c r="C7" s="254">
         <v>5</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -16358,7 +16498,7 @@
       <c r="B8" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="244"/>
+      <c r="C8" s="255"/>
       <c r="D8" s="129" t="s">
         <v>237</v>
       </c>
@@ -16385,7 +16525,7 @@
       <c r="B9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="245"/>
+      <c r="C9" s="256"/>
       <c r="D9" s="136" t="s">
         <v>238</v>
       </c>
@@ -16405,15 +16545,15 @@
       <c r="N9" s="134"/>
       <c r="O9" s="122"/>
     </row>
-    <row r="10" spans="1:15" s="25" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:15" s="25" customFormat="1" ht="22.5">
       <c r="A10" s="102">
         <v>9</v>
       </c>
       <c r="B10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="246">
-        <v>7</v>
+      <c r="C10" s="257">
+        <v>8</v>
       </c>
       <c r="D10" s="118" t="s">
         <v>157</v>
@@ -16451,7 +16591,7 @@
       <c r="B11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="247"/>
+      <c r="C11" s="258"/>
       <c r="D11" s="118" t="s">
         <v>248</v>
       </c>
@@ -16477,7 +16617,7 @@
       <c r="B12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="248"/>
+      <c r="C12" s="259"/>
       <c r="D12" s="118" t="s">
         <v>249</v>
       </c>
@@ -16505,7 +16645,7 @@
         <v>155</v>
       </c>
       <c r="C13" s="135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="140" t="s">
         <v>235</v>
@@ -16540,7 +16680,7 @@
         <v>155</v>
       </c>
       <c r="C14" s="131">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="140" t="s">
         <v>236</v>
@@ -16564,40 +16704,40 @@
       <c r="N14" s="105"/>
       <c r="O14" s="134"/>
     </row>
-    <row r="15" spans="1:15" s="168" customFormat="1" ht="11.25">
-      <c r="A15" s="154">
+    <row r="15" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="A15" s="153">
         <v>14</v>
       </c>
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="165" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="180">
-        <v>10</v>
-      </c>
-      <c r="D15" s="161" t="s">
+      <c r="C15" s="179">
+        <v>11</v>
+      </c>
+      <c r="D15" s="160" t="s">
         <v>320</v>
       </c>
-      <c r="E15" s="163" t="s">
+      <c r="E15" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="163" t="s">
+      <c r="F15" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="163" t="s">
+      <c r="G15" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="163" t="s">
+      <c r="H15" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="158" t="s">
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
     </row>
     <row r="16" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A16" s="102">
@@ -16607,7 +16747,7 @@
         <v>155</v>
       </c>
       <c r="C16" s="135">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="118" t="s">
         <v>245</v>
@@ -16642,7 +16782,7 @@
         <v>155</v>
       </c>
       <c r="C17" s="131">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="131" t="s">
         <v>253</v>
@@ -16680,8 +16820,8 @@
       <c r="B18" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="246">
-        <v>18</v>
+      <c r="C18" s="257">
+        <v>19</v>
       </c>
       <c r="D18" s="118" t="s">
         <v>250</v>
@@ -16698,7 +16838,7 @@
       <c r="L18" s="115"/>
       <c r="M18" s="115"/>
       <c r="N18" s="115"/>
-      <c r="O18" s="249" t="s">
+      <c r="O18" s="260" t="s">
         <v>260</v>
       </c>
     </row>
@@ -16709,7 +16849,7 @@
       <c r="B19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="247"/>
+      <c r="C19" s="258"/>
       <c r="D19" s="118" t="s">
         <v>251</v>
       </c>
@@ -16727,7 +16867,7 @@
       <c r="L19" s="133"/>
       <c r="M19" s="133"/>
       <c r="N19" s="133"/>
-      <c r="O19" s="250"/>
+      <c r="O19" s="261"/>
     </row>
     <row r="20" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A20" s="102">
@@ -16736,7 +16876,7 @@
       <c r="B20" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="248"/>
+      <c r="C20" s="259"/>
       <c r="D20" s="137" t="s">
         <v>252</v>
       </c>
@@ -16756,7 +16896,7 @@
       <c r="N20" s="105">
         <v>0</v>
       </c>
-      <c r="O20" s="251"/>
+      <c r="O20" s="262"/>
     </row>
     <row r="21" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A21" s="102">
@@ -16766,7 +16906,7 @@
         <v>155</v>
       </c>
       <c r="C21" s="131">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>158</v>
@@ -16787,7 +16927,7 @@
       <c r="N21" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="O21" s="234" t="s">
+      <c r="O21" s="245" t="s">
         <v>194</v>
       </c>
     </row>
@@ -16799,7 +16939,7 @@
         <v>155</v>
       </c>
       <c r="C22" s="131">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D22" s="54" t="s">
         <v>159</v>
@@ -16820,7 +16960,7 @@
       <c r="N22" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O22" s="236"/>
+      <c r="O22" s="247"/>
     </row>
     <row r="23" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A23" s="102">
@@ -16830,7 +16970,7 @@
         <v>155</v>
       </c>
       <c r="C23" s="131">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>160</v>
@@ -16851,7 +16991,7 @@
       <c r="N23" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O23" s="237"/>
+      <c r="O23" s="248"/>
     </row>
     <row r="24" spans="1:15" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="102">
@@ -16861,7 +17001,7 @@
         <v>155</v>
       </c>
       <c r="C24" s="131">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="54" t="s">
         <v>161</v>
@@ -16882,7 +17022,7 @@
       <c r="N24" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O24" s="234" t="s">
+      <c r="O24" s="245" t="s">
         <v>195</v>
       </c>
     </row>
@@ -16894,7 +17034,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="131">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>160</v>
@@ -16915,291 +17055,383 @@
       <c r="N25" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O25" s="235"/>
-    </row>
-    <row r="26" spans="1:15" s="154" customFormat="1" ht="11.25">
-      <c r="A26" s="154">
+      <c r="O25" s="246"/>
+    </row>
+    <row r="26" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="A26" s="153">
         <v>2</v>
       </c>
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C26" s="155">
+      <c r="C26" s="154">
         <v>2</v>
       </c>
-      <c r="D26" s="161" t="s">
+      <c r="D26" s="160" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="161" t="s">
+      <c r="E26" s="160" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="161" t="s">
+      <c r="F26" s="160" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="161" t="s">
+      <c r="G26" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="161" t="s">
+      <c r="H26" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="161">
+      <c r="I26" s="160">
         <v>50</v>
       </c>
-      <c r="J26" s="161"/>
-      <c r="K26" s="158" t="s">
+      <c r="J26" s="160"/>
+      <c r="K26" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="L26" s="161"/>
-    </row>
-    <row r="27" spans="1:15" s="154" customFormat="1" ht="11.25">
-      <c r="A27" s="154">
+      <c r="L26" s="160"/>
+    </row>
+    <row r="27" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="A27" s="153">
         <v>3</v>
       </c>
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="155">
+      <c r="C27" s="154">
         <v>3</v>
       </c>
-      <c r="D27" s="161" t="s">
+      <c r="D27" s="160" t="s">
         <v>315</v>
       </c>
-      <c r="E27" s="161" t="s">
+      <c r="E27" s="160" t="s">
         <v>316</v>
       </c>
-      <c r="F27" s="161" t="s">
+      <c r="F27" s="160" t="s">
         <v>316</v>
       </c>
-      <c r="G27" s="161" t="s">
+      <c r="G27" s="160" t="s">
         <v>338</v>
       </c>
-      <c r="H27" s="161" t="s">
+      <c r="H27" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="I27" s="161">
+      <c r="I27" s="160">
         <v>50</v>
       </c>
-      <c r="J27" s="161"/>
-      <c r="K27" s="158" t="s">
+      <c r="J27" s="160"/>
+      <c r="K27" s="157" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="160" customFormat="1" ht="11.25">
-      <c r="A28" s="154">
+    <row r="28" spans="1:15" s="159" customFormat="1" ht="11.25">
+      <c r="A28" s="153">
         <v>8</v>
       </c>
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="161">
+        <v>7</v>
+      </c>
+      <c r="D28" s="154" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="155" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="155" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="160" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="162" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="163">
+        <v>250</v>
+      </c>
+      <c r="J28" s="156"/>
+      <c r="K28" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="158"/>
+    </row>
+    <row r="29" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="A29" s="153">
+        <v>15</v>
+      </c>
+      <c r="B29" s="153" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="166">
+        <v>12</v>
+      </c>
+      <c r="D29" s="160" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="G29" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="162" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+    </row>
+    <row r="30" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="A30" s="153">
+        <v>16</v>
+      </c>
+      <c r="B30" s="153" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="166">
+        <v>13</v>
+      </c>
+      <c r="D30" s="160" t="s">
+        <v>323</v>
+      </c>
+      <c r="E30" s="162" t="s">
+        <v>324</v>
+      </c>
+      <c r="F30" s="162" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="162" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="162"/>
+    </row>
+    <row r="31" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="A31" s="153">
+        <v>17</v>
+      </c>
+      <c r="B31" s="153" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="166">
+        <v>14</v>
+      </c>
+      <c r="D31" s="160" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" s="162" t="s">
+        <v>326</v>
+      </c>
+      <c r="F31" s="162" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="162" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+    </row>
+    <row r="32" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="A32" s="153">
+        <v>18</v>
+      </c>
+      <c r="B32" s="153" t="s">
+        <v>317</v>
+      </c>
+      <c r="C32" s="166">
+        <v>15</v>
+      </c>
+      <c r="D32" s="160" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="162" t="s">
+        <v>328</v>
+      </c>
+      <c r="F32" s="162" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" s="162" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="162" t="s">
+        <v>337</v>
+      </c>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+    </row>
+    <row r="33" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="A33" s="153">
+        <v>19</v>
+      </c>
+      <c r="B33" s="153" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="166">
+        <v>16</v>
+      </c>
+      <c r="D33" s="160" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="F33" s="162" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33" s="162" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="162" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="157" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+    </row>
+    <row r="34" spans="1:15" s="183" customFormat="1" ht="22.5">
+      <c r="A34" s="153">
+        <v>5</v>
+      </c>
+      <c r="B34" s="153" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="242">
         <v>6</v>
       </c>
-      <c r="D28" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="E28" s="156" t="s">
-        <v>319</v>
-      </c>
-      <c r="F28" s="156" t="s">
-        <v>319</v>
-      </c>
-      <c r="G28" s="161" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="163" t="s">
+      <c r="D34" s="185" t="s">
+        <v>347</v>
+      </c>
+      <c r="E34" s="162" t="s">
+        <v>348</v>
+      </c>
+      <c r="F34" s="162" t="s">
+        <v>348</v>
+      </c>
+      <c r="G34" s="162" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="I28" s="164">
+      <c r="I34" s="163">
         <v>250</v>
       </c>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158" t="s">
+      <c r="J34" s="163"/>
+      <c r="K34" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="159"/>
-    </row>
-    <row r="29" spans="1:15" s="168" customFormat="1" ht="11.25">
-      <c r="A29" s="154">
-        <v>15</v>
-      </c>
-      <c r="B29" s="154" t="s">
+      <c r="L34" s="162"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="155" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="183" customFormat="1" ht="11.25">
+      <c r="A35" s="153">
+        <v>6</v>
+      </c>
+      <c r="B35" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C29" s="167">
-        <v>11</v>
-      </c>
-      <c r="D29" s="161" t="s">
-        <v>321</v>
-      </c>
-      <c r="E29" s="163" t="s">
-        <v>322</v>
-      </c>
-      <c r="F29" s="163" t="s">
-        <v>322</v>
-      </c>
-      <c r="G29" s="163" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="158" t="s">
-        <v>147</v>
-      </c>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-    </row>
-    <row r="30" spans="1:15" s="168" customFormat="1" ht="11.25">
-      <c r="A30" s="154">
-        <v>16</v>
-      </c>
-      <c r="B30" s="154" t="s">
+      <c r="C35" s="243"/>
+      <c r="D35" s="154" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" s="155" t="s">
+        <v>351</v>
+      </c>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="155"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="158"/>
+    </row>
+    <row r="36" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A36" s="153">
+        <v>7</v>
+      </c>
+      <c r="B36" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="167">
-        <v>12</v>
-      </c>
-      <c r="D30" s="161" t="s">
-        <v>323</v>
-      </c>
-      <c r="E30" s="163" t="s">
-        <v>324</v>
-      </c>
-      <c r="F30" s="163" t="s">
-        <v>324</v>
-      </c>
-      <c r="G30" s="163" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="158" t="s">
-        <v>147</v>
-      </c>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-    </row>
-    <row r="31" spans="1:15" s="168" customFormat="1" ht="11.25">
-      <c r="A31" s="154">
-        <v>17</v>
-      </c>
-      <c r="B31" s="154" t="s">
-        <v>317</v>
-      </c>
-      <c r="C31" s="167">
-        <v>13</v>
-      </c>
-      <c r="D31" s="161" t="s">
-        <v>325</v>
-      </c>
-      <c r="E31" s="163" t="s">
-        <v>326</v>
-      </c>
-      <c r="F31" s="163" t="s">
-        <v>326</v>
-      </c>
-      <c r="G31" s="163" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="158" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-    </row>
-    <row r="32" spans="1:15" s="168" customFormat="1" ht="11.25">
-      <c r="A32" s="154">
-        <v>18</v>
-      </c>
-      <c r="B32" s="154" t="s">
-        <v>317</v>
-      </c>
-      <c r="C32" s="167">
-        <v>14</v>
-      </c>
-      <c r="D32" s="161" t="s">
-        <v>327</v>
-      </c>
-      <c r="E32" s="163" t="s">
-        <v>328</v>
-      </c>
-      <c r="F32" s="163" t="s">
-        <v>328</v>
-      </c>
-      <c r="G32" s="163" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="163" t="s">
-        <v>337</v>
-      </c>
-      <c r="I32" s="164"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="158" t="s">
-        <v>147</v>
-      </c>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-    </row>
-    <row r="33" spans="1:15" s="168" customFormat="1" ht="11.25">
-      <c r="A33" s="154">
-        <v>19</v>
-      </c>
-      <c r="B33" s="154" t="s">
-        <v>317</v>
-      </c>
-      <c r="C33" s="167">
-        <v>15</v>
-      </c>
-      <c r="D33" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="E33" s="163" t="s">
-        <v>336</v>
-      </c>
-      <c r="F33" s="163" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="163" t="s">
-        <v>162</v>
-      </c>
-      <c r="H33" s="163" t="s">
-        <v>337</v>
-      </c>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="158" t="s">
-        <v>147</v>
-      </c>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-    </row>
-    <row r="34" spans="1:15" ht="11.25"/>
-    <row r="35" spans="1:15" ht="11.25"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="154" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="155" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="155"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="158"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O21:O23"/>
     <mergeCell ref="A1:D2"/>
@@ -17213,16 +17445,16 @@
     <mergeCell ref="O18:O20"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G5:G9 G21:G26 G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G5:G9 G21:G26 G28 G34:G36">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H33 H5:H9 H10:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H36 H5:H13">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K33 K5:K9 K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K36 K5:K10">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G12 G15 G29:G33 G16:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G12 G15:G20 G29:G33">
       <formula1>"ArrayBox, Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
@@ -17378,7 +17610,7 @@
       </c>
       <c r="E5" s="103"/>
       <c r="F5" s="104"/>
-      <c r="G5" s="252" t="s">
+      <c r="G5" s="263" t="s">
         <v>214</v>
       </c>
       <c r="H5" s="134" t="s">
@@ -17389,27 +17621,27 @@
       </c>
       <c r="J5" s="103"/>
     </row>
-    <row r="6" spans="1:16" s="179" customFormat="1" ht="11.25">
-      <c r="A6" s="169">
+    <row r="6" spans="1:16" s="178" customFormat="1" ht="11.25">
+      <c r="A6" s="168">
         <v>2</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="177" t="s">
+      <c r="B6" s="168"/>
+      <c r="C6" s="176" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="170"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="177" t="s">
+      <c r="E6" s="169"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="264"/>
+      <c r="H6" s="176" t="s">
         <v>215</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="J6" s="177"/>
+      <c r="J6" s="176"/>
     </row>
     <row r="7" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="102">
@@ -17424,7 +17656,7 @@
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="253"/>
+      <c r="G7" s="264"/>
       <c r="H7" s="134" t="s">
         <v>215</v>
       </c>
@@ -17446,7 +17678,7 @@
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="253"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="139" t="s">
         <v>215</v>
       </c>
@@ -17468,7 +17700,7 @@
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="253"/>
+      <c r="G9" s="264"/>
       <c r="H9" s="134" t="s">
         <v>215</v>
       </c>
@@ -17477,49 +17709,49 @@
       </c>
       <c r="J9" s="68"/>
     </row>
-    <row r="10" spans="1:16" s="168" customFormat="1" ht="11.25">
-      <c r="A10" s="154">
+    <row r="10" spans="1:16" s="167" customFormat="1" ht="11.25">
+      <c r="A10" s="153">
         <v>6</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="163" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="162" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="163" t="s">
+      <c r="D10" s="162" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="171"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="156" t="s">
+      <c r="E10" s="170"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="264"/>
+      <c r="H10" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="161" t="s">
+      <c r="I10" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="163"/>
-    </row>
-    <row r="11" spans="1:16" s="168" customFormat="1" ht="11.25">
-      <c r="A11" s="154">
+      <c r="J10" s="162"/>
+    </row>
+    <row r="11" spans="1:16" s="167" customFormat="1" ht="11.25">
+      <c r="A11" s="153">
         <v>7</v>
       </c>
-      <c r="B11" s="166"/>
-      <c r="C11" s="163" t="s">
+      <c r="B11" s="165"/>
+      <c r="C11" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="163" t="s">
+      <c r="D11" s="162" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="156" t="s">
+      <c r="E11" s="170"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="265"/>
+      <c r="H11" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="161" t="s">
+      <c r="I11" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="163"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="102">
@@ -17648,7 +17880,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -17672,7 +17904,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="276" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="100"/>
@@ -17708,7 +17940,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="258"/>
+      <c r="A2" s="277"/>
       <c r="B2" s="101"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -17757,15 +17989,15 @@
       <c r="E4" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="215" t="s">
+      <c r="F4" s="214" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215" t="s">
+      <c r="G4" s="214"/>
+      <c r="H4" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A5" s="32">
@@ -17781,15 +18013,15 @@
       <c r="E5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="255" t="s">
+      <c r="F5" s="266" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="256"/>
-      <c r="H5" s="259" t="s">
+      <c r="G5" s="267"/>
+      <c r="H5" s="268" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="260"/>
-      <c r="J5" s="261"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="270"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="32">
@@ -17805,19 +18037,19 @@
       <c r="E6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="255" t="s">
+      <c r="F6" s="266" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="256"/>
-      <c r="H6" s="259" t="s">
+      <c r="G6" s="267"/>
+      <c r="H6" s="268" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="260"/>
-      <c r="J6" s="261"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="270"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="132" t="s">
@@ -17829,29 +18061,41 @@
       <c r="E7" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="255" t="s">
+      <c r="F7" s="266" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="256"/>
-      <c r="H7" s="259" t="s">
+      <c r="G7" s="267"/>
+      <c r="H7" s="268" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="260"/>
-      <c r="J7" s="261"/>
-    </row>
-    <row r="8" spans="1:12" s="33" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A8" s="32">
-        <v>3</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="260"/>
-      <c r="J8" s="261"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="270"/>
+    </row>
+    <row r="8" spans="1:12" s="167" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A8" s="165">
+        <v>4</v>
+      </c>
+      <c r="B8" s="165" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="190" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="191" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="271" t="s">
+        <v>362</v>
+      </c>
+      <c r="G8" s="272"/>
+      <c r="H8" s="273" t="s">
+        <v>354</v>
+      </c>
+      <c r="I8" s="274"/>
+      <c r="J8" s="275"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -17861,11 +18105,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="255"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="261"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="268"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="270"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -17875,11 +18119,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="260"/>
-      <c r="J10" s="261"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="270"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -17889,11 +18133,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="260"/>
-      <c r="J11" s="261"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="270"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -17903,11 +18147,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="261"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="269"/>
+      <c r="J12" s="270"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -17917,11 +18161,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="261"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="270"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -17931,11 +18175,11 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="255"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="260"/>
-      <c r="J14" s="261"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="269"/>
+      <c r="J14" s="270"/>
     </row>
     <row r="15" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="32">
@@ -17945,31 +18189,15 @@
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="259"/>
-      <c r="I15" s="260"/>
-      <c r="J15" s="261"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="270"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
@@ -17979,6 +18207,22 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E15">
@@ -17996,8 +18240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048244"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:J6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -18023,20 +18267,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="268" t="str">
+      <c r="F1" s="278" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="268"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -18054,28 +18298,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="262" t="str">
+      <c r="M1" s="294" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="263"/>
-      <c r="O1" s="264"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="296"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="268" t="str">
+      <c r="F2" s="278" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="268"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -18093,12 +18337,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="262" t="str">
+      <c r="M2" s="294" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
-      <c r="N2" s="263"/>
-      <c r="O2" s="264"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="296"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
@@ -18121,12 +18365,12 @@
       <c r="F4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="221" t="s">
+      <c r="G4" s="229" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="222"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="230"/>
       <c r="K4" s="36" t="s">
         <v>56</v>
       </c>
@@ -18162,12 +18406,12 @@
       <c r="F5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="275" t="s">
+      <c r="G5" s="288" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="276"/>
-      <c r="I5" s="276"/>
-      <c r="J5" s="277"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="289"/>
+      <c r="J5" s="290"/>
       <c r="K5" s="122" t="s">
         <v>205</v>
       </c>
@@ -18205,16 +18449,16 @@
       <c r="F6" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="272" t="s">
-        <v>352</v>
-      </c>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="181" t="s">
+      <c r="G6" s="285" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="L6" s="181" t="s">
+      <c r="L6" s="180" t="s">
         <v>286</v>
       </c>
       <c r="M6" s="67" t="s">
@@ -18246,12 +18490,12 @@
       <c r="F7" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="265" t="s">
+      <c r="G7" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="267"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="281"/>
       <c r="K7" s="124" t="s">
         <v>270</v>
       </c>
@@ -18285,12 +18529,12 @@
       <c r="F8" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="265" t="s">
+      <c r="G8" s="279" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="267"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="281"/>
       <c r="K8" s="124" t="s">
         <v>270</v>
       </c>
@@ -18324,17 +18568,17 @@
       <c r="F9" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="272" t="s">
-        <v>340</v>
-      </c>
-      <c r="H9" s="273"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="274"/>
-      <c r="K9" s="182" t="s">
-        <v>341</v>
-      </c>
-      <c r="L9" s="182" t="s">
-        <v>351</v>
+      <c r="G9" s="285" t="s">
+        <v>358</v>
+      </c>
+      <c r="H9" s="286"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="287"/>
+      <c r="K9" s="181" t="s">
+        <v>359</v>
+      </c>
+      <c r="L9" s="181" t="s">
+        <v>360</v>
       </c>
       <c r="M9" s="67"/>
       <c r="N9" s="112"/>
@@ -18361,12 +18605,12 @@
       <c r="F10" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="265" t="s">
+      <c r="G10" s="279" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="266"/>
-      <c r="I10" s="266"/>
-      <c r="J10" s="267"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="281"/>
       <c r="K10" s="124" t="s">
         <v>286</v>
       </c>
@@ -18402,12 +18646,12 @@
       <c r="F11" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="265" t="s">
+      <c r="G11" s="279" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="266"/>
-      <c r="I11" s="266"/>
-      <c r="J11" s="267"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="280"/>
+      <c r="J11" s="281"/>
       <c r="K11" s="124" t="s">
         <v>270</v>
       </c>
@@ -18441,12 +18685,12 @@
       <c r="F12" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="265" t="s">
+      <c r="G12" s="279" t="s">
         <v>302</v>
       </c>
-      <c r="H12" s="266"/>
-      <c r="I12" s="266"/>
-      <c r="J12" s="267"/>
+      <c r="H12" s="280"/>
+      <c r="I12" s="280"/>
+      <c r="J12" s="281"/>
       <c r="K12" s="113" t="s">
         <v>303</v>
       </c>
@@ -18478,12 +18722,12 @@
       <c r="F13" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="265" t="s">
+      <c r="G13" s="279" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="266"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="267"/>
+      <c r="H13" s="280"/>
+      <c r="I13" s="280"/>
+      <c r="J13" s="281"/>
       <c r="K13" s="124" t="s">
         <v>273</v>
       </c>
@@ -18517,12 +18761,12 @@
       <c r="F14" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="265" t="s">
+      <c r="G14" s="279" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="266"/>
-      <c r="I14" s="266"/>
-      <c r="J14" s="267"/>
+      <c r="H14" s="280"/>
+      <c r="I14" s="280"/>
+      <c r="J14" s="281"/>
       <c r="K14" s="113" t="s">
         <v>275</v>
       </c>
@@ -18535,7 +18779,7 @@
       <c r="P14" s="57"/>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" s="33" customFormat="1" ht="236.25">
+    <row r="15" spans="1:17" s="33" customFormat="1" ht="247.5">
       <c r="A15" s="102">
         <v>11</v>
       </c>
@@ -18554,17 +18798,17 @@
       <c r="F15" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="269" t="s">
-        <v>342</v>
-      </c>
-      <c r="H15" s="270"/>
-      <c r="I15" s="270"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="182" t="s">
-        <v>343</v>
-      </c>
-      <c r="L15" s="182" t="s">
-        <v>344</v>
+      <c r="G15" s="282" t="s">
+        <v>355</v>
+      </c>
+      <c r="H15" s="283"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="284"/>
+      <c r="K15" s="181" t="s">
+        <v>356</v>
+      </c>
+      <c r="L15" s="181" t="s">
+        <v>357</v>
       </c>
       <c r="M15" s="56"/>
       <c r="N15" s="126"/>
@@ -18591,12 +18835,12 @@
       <c r="F16" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="265" t="s">
+      <c r="G16" s="279" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="267"/>
+      <c r="H16" s="280"/>
+      <c r="I16" s="280"/>
+      <c r="J16" s="281"/>
       <c r="K16" s="124" t="s">
         <v>199</v>
       </c>
@@ -18611,116 +18855,116 @@
       <c r="P16" s="47"/>
       <c r="Q16" s="47"/>
     </row>
-    <row r="17" spans="1:17" s="160" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A17" s="166"/>
-      <c r="B17" s="154" t="s">
+    <row r="17" spans="1:17" s="159" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A17" s="165"/>
+      <c r="B17" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="D17" s="172" t="s">
+      <c r="D17" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="172" t="s">
+      <c r="E17" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="173" t="s">
+      <c r="F17" s="172" t="s">
         <v>330</v>
       </c>
-      <c r="G17" s="278" t="s">
+      <c r="G17" s="291" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="279"/>
-      <c r="I17" s="279"/>
-      <c r="J17" s="280"/>
-      <c r="K17" s="159" t="s">
+      <c r="H17" s="292"/>
+      <c r="I17" s="292"/>
+      <c r="J17" s="293"/>
+      <c r="K17" s="158" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="159" t="s">
+      <c r="L17" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="M17" s="174" t="s">
+      <c r="M17" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="175" t="s">
+      <c r="N17" s="174" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="174" t="s">
+      <c r="O17" s="173" t="s">
         <v>332</v>
       </c>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="176"/>
-    </row>
-    <row r="18" spans="1:17" s="160" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A18" s="166"/>
-      <c r="B18" s="154" t="s">
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175"/>
+    </row>
+    <row r="18" spans="1:17" s="159" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A18" s="165"/>
+      <c r="B18" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C18" s="156" t="s">
-        <v>345</v>
-      </c>
-      <c r="D18" s="172" t="s">
+      <c r="C18" s="155" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="173" t="s">
+      <c r="F18" s="172" t="s">
         <v>331</v>
       </c>
-      <c r="G18" s="278" t="s">
+      <c r="G18" s="291" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="279"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="280"/>
-      <c r="K18" s="159" t="s">
+      <c r="H18" s="292"/>
+      <c r="I18" s="292"/>
+      <c r="J18" s="293"/>
+      <c r="K18" s="158" t="s">
         <v>205</v>
       </c>
-      <c r="L18" s="159" t="s">
+      <c r="L18" s="158" t="s">
         <v>339</v>
       </c>
-      <c r="M18" s="174" t="s">
+      <c r="M18" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="N18" s="175" t="s">
+      <c r="N18" s="174" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="174" t="s">
-        <v>346</v>
-      </c>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-    </row>
-    <row r="19" spans="1:17" s="160" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A19" s="166"/>
-      <c r="B19" s="154" t="s">
+      <c r="O18" s="173" t="s">
+        <v>341</v>
+      </c>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
+    </row>
+    <row r="19" spans="1:17" s="159" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A19" s="165"/>
+      <c r="B19" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="155" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="172" t="s">
+      <c r="D19" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="172" t="s">
+      <c r="E19" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="173" t="s">
-        <v>347</v>
-      </c>
-      <c r="G19" s="278"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="279"/>
-      <c r="J19" s="280"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="174"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="174"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="176"/>
+      <c r="F19" s="172" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="291"/>
+      <c r="H19" s="292"/>
+      <c r="I19" s="292"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="175"/>
     </row>
     <row r="20" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="32"/>
@@ -18729,10 +18973,10 @@
       <c r="D20" s="111"/>
       <c r="E20" s="111"/>
       <c r="F20" s="110"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="266"/>
-      <c r="I20" s="266"/>
-      <c r="J20" s="267"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="280"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="281"/>
       <c r="K20" s="113"/>
       <c r="L20" s="113"/>
       <c r="M20" s="67"/>
@@ -18747,6 +18991,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
@@ -18763,12 +19013,6 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G18:J18"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048244:M1048576 M5 M17:M19"/>
@@ -18795,10 +19039,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P191"/>
+  <dimension ref="A1:T192"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A109" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -18814,10 +19058,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="214"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -18848,8 +19092,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -19082,37 +19326,37 @@
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="1:13" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="B17" s="185"/>
-      <c r="C17" s="183" t="s">
-        <v>348</v>
-      </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-    </row>
-    <row r="18" spans="1:13" s="184" customFormat="1" ht="12" customHeight="1">
-      <c r="B18" s="185"/>
-      <c r="C18" s="183" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
+    <row r="17" spans="1:13" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="B17" s="184"/>
+      <c r="C17" s="182" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+    </row>
+    <row r="18" spans="1:13" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="B18" s="184"/>
+      <c r="C18" s="182" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
     </row>
     <row r="19" spans="1:13" ht="12" customHeight="1">
       <c r="B19" s="66" t="s">
@@ -20334,171 +20578,171 @@
     </row>
     <row r="100" spans="1:16" ht="12" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="281" t="s">
+      <c r="B100" s="297" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="282"/>
-      <c r="D100" s="282"/>
-      <c r="E100" s="282"/>
-      <c r="F100" s="282"/>
-      <c r="G100" s="282"/>
-      <c r="H100" s="282"/>
-      <c r="I100" s="282"/>
-      <c r="J100" s="282"/>
-      <c r="K100" s="282"/>
-      <c r="L100" s="282"/>
-      <c r="M100" s="282"/>
-      <c r="N100" s="282"/>
-      <c r="O100" s="282"/>
-      <c r="P100" s="282"/>
+      <c r="C100" s="298"/>
+      <c r="D100" s="298"/>
+      <c r="E100" s="298"/>
+      <c r="F100" s="298"/>
+      <c r="G100" s="298"/>
+      <c r="H100" s="298"/>
+      <c r="I100" s="298"/>
+      <c r="J100" s="298"/>
+      <c r="K100" s="298"/>
+      <c r="L100" s="298"/>
+      <c r="M100" s="298"/>
+      <c r="N100" s="298"/>
+      <c r="O100" s="298"/>
+      <c r="P100" s="298"/>
     </row>
     <row r="101" spans="1:16" ht="12" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="282"/>
-      <c r="C101" s="282"/>
-      <c r="D101" s="282"/>
-      <c r="E101" s="282"/>
-      <c r="F101" s="282"/>
-      <c r="G101" s="282"/>
-      <c r="H101" s="282"/>
-      <c r="I101" s="282"/>
-      <c r="J101" s="282"/>
-      <c r="K101" s="282"/>
-      <c r="L101" s="282"/>
-      <c r="M101" s="282"/>
-      <c r="N101" s="282"/>
-      <c r="O101" s="282"/>
-      <c r="P101" s="282"/>
+      <c r="B101" s="298"/>
+      <c r="C101" s="298"/>
+      <c r="D101" s="298"/>
+      <c r="E101" s="298"/>
+      <c r="F101" s="298"/>
+      <c r="G101" s="298"/>
+      <c r="H101" s="298"/>
+      <c r="I101" s="298"/>
+      <c r="J101" s="298"/>
+      <c r="K101" s="298"/>
+      <c r="L101" s="298"/>
+      <c r="M101" s="298"/>
+      <c r="N101" s="298"/>
+      <c r="O101" s="298"/>
+      <c r="P101" s="298"/>
     </row>
     <row r="102" spans="1:16" ht="12" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="282"/>
-      <c r="C102" s="282"/>
-      <c r="D102" s="282"/>
-      <c r="E102" s="282"/>
-      <c r="F102" s="282"/>
-      <c r="G102" s="282"/>
-      <c r="H102" s="282"/>
-      <c r="I102" s="282"/>
-      <c r="J102" s="282"/>
-      <c r="K102" s="282"/>
-      <c r="L102" s="282"/>
-      <c r="M102" s="282"/>
-      <c r="N102" s="282"/>
-      <c r="O102" s="282"/>
-      <c r="P102" s="282"/>
+      <c r="B102" s="298"/>
+      <c r="C102" s="298"/>
+      <c r="D102" s="298"/>
+      <c r="E102" s="298"/>
+      <c r="F102" s="298"/>
+      <c r="G102" s="298"/>
+      <c r="H102" s="298"/>
+      <c r="I102" s="298"/>
+      <c r="J102" s="298"/>
+      <c r="K102" s="298"/>
+      <c r="L102" s="298"/>
+      <c r="M102" s="298"/>
+      <c r="N102" s="298"/>
+      <c r="O102" s="298"/>
+      <c r="P102" s="298"/>
     </row>
     <row r="103" spans="1:16" ht="12" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="281" t="s">
+      <c r="B103" s="297" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="282"/>
-      <c r="D103" s="282"/>
-      <c r="E103" s="282"/>
-      <c r="F103" s="282"/>
-      <c r="G103" s="282"/>
-      <c r="H103" s="282"/>
-      <c r="I103" s="282"/>
-      <c r="J103" s="282"/>
-      <c r="K103" s="282"/>
-      <c r="L103" s="282"/>
-      <c r="M103" s="282"/>
-      <c r="N103" s="282"/>
-      <c r="O103" s="282"/>
-      <c r="P103" s="282"/>
+      <c r="C103" s="298"/>
+      <c r="D103" s="298"/>
+      <c r="E103" s="298"/>
+      <c r="F103" s="298"/>
+      <c r="G103" s="298"/>
+      <c r="H103" s="298"/>
+      <c r="I103" s="298"/>
+      <c r="J103" s="298"/>
+      <c r="K103" s="298"/>
+      <c r="L103" s="298"/>
+      <c r="M103" s="298"/>
+      <c r="N103" s="298"/>
+      <c r="O103" s="298"/>
+      <c r="P103" s="298"/>
     </row>
     <row r="104" spans="1:16" ht="12" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="282"/>
-      <c r="C104" s="282"/>
-      <c r="D104" s="282"/>
-      <c r="E104" s="282"/>
-      <c r="F104" s="282"/>
-      <c r="G104" s="282"/>
-      <c r="H104" s="282"/>
-      <c r="I104" s="282"/>
-      <c r="J104" s="282"/>
-      <c r="K104" s="282"/>
-      <c r="L104" s="282"/>
-      <c r="M104" s="282"/>
-      <c r="N104" s="282"/>
-      <c r="O104" s="282"/>
-      <c r="P104" s="282"/>
+      <c r="B104" s="298"/>
+      <c r="C104" s="298"/>
+      <c r="D104" s="298"/>
+      <c r="E104" s="298"/>
+      <c r="F104" s="298"/>
+      <c r="G104" s="298"/>
+      <c r="H104" s="298"/>
+      <c r="I104" s="298"/>
+      <c r="J104" s="298"/>
+      <c r="K104" s="298"/>
+      <c r="L104" s="298"/>
+      <c r="M104" s="298"/>
+      <c r="N104" s="298"/>
+      <c r="O104" s="298"/>
+      <c r="P104" s="298"/>
     </row>
     <row r="105" spans="1:16" ht="12" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="282"/>
-      <c r="C105" s="282"/>
-      <c r="D105" s="282"/>
-      <c r="E105" s="282"/>
-      <c r="F105" s="282"/>
-      <c r="G105" s="282"/>
-      <c r="H105" s="282"/>
-      <c r="I105" s="282"/>
-      <c r="J105" s="282"/>
-      <c r="K105" s="282"/>
-      <c r="L105" s="282"/>
-      <c r="M105" s="282"/>
-      <c r="N105" s="282"/>
-      <c r="O105" s="282"/>
-      <c r="P105" s="282"/>
+      <c r="B105" s="298"/>
+      <c r="C105" s="298"/>
+      <c r="D105" s="298"/>
+      <c r="E105" s="298"/>
+      <c r="F105" s="298"/>
+      <c r="G105" s="298"/>
+      <c r="H105" s="298"/>
+      <c r="I105" s="298"/>
+      <c r="J105" s="298"/>
+      <c r="K105" s="298"/>
+      <c r="L105" s="298"/>
+      <c r="M105" s="298"/>
+      <c r="N105" s="298"/>
+      <c r="O105" s="298"/>
+      <c r="P105" s="298"/>
     </row>
     <row r="106" spans="1:16" ht="12" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="281" t="s">
+      <c r="B106" s="297" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="282"/>
-      <c r="D106" s="282"/>
-      <c r="E106" s="282"/>
-      <c r="F106" s="282"/>
-      <c r="G106" s="282"/>
-      <c r="H106" s="282"/>
-      <c r="I106" s="282"/>
-      <c r="J106" s="282"/>
-      <c r="K106" s="282"/>
-      <c r="L106" s="282"/>
-      <c r="M106" s="282"/>
-      <c r="N106" s="282"/>
-      <c r="O106" s="282"/>
-      <c r="P106" s="282"/>
+      <c r="C106" s="298"/>
+      <c r="D106" s="298"/>
+      <c r="E106" s="298"/>
+      <c r="F106" s="298"/>
+      <c r="G106" s="298"/>
+      <c r="H106" s="298"/>
+      <c r="I106" s="298"/>
+      <c r="J106" s="298"/>
+      <c r="K106" s="298"/>
+      <c r="L106" s="298"/>
+      <c r="M106" s="298"/>
+      <c r="N106" s="298"/>
+      <c r="O106" s="298"/>
+      <c r="P106" s="298"/>
     </row>
     <row r="107" spans="1:16" ht="12" customHeight="1">
       <c r="A107" s="62"/>
-      <c r="B107" s="282"/>
-      <c r="C107" s="282"/>
-      <c r="D107" s="282"/>
-      <c r="E107" s="282"/>
-      <c r="F107" s="282"/>
-      <c r="G107" s="282"/>
-      <c r="H107" s="282"/>
-      <c r="I107" s="282"/>
-      <c r="J107" s="282"/>
-      <c r="K107" s="282"/>
-      <c r="L107" s="282"/>
-      <c r="M107" s="282"/>
-      <c r="N107" s="282"/>
-      <c r="O107" s="282"/>
-      <c r="P107" s="282"/>
+      <c r="B107" s="298"/>
+      <c r="C107" s="298"/>
+      <c r="D107" s="298"/>
+      <c r="E107" s="298"/>
+      <c r="F107" s="298"/>
+      <c r="G107" s="298"/>
+      <c r="H107" s="298"/>
+      <c r="I107" s="298"/>
+      <c r="J107" s="298"/>
+      <c r="K107" s="298"/>
+      <c r="L107" s="298"/>
+      <c r="M107" s="298"/>
+      <c r="N107" s="298"/>
+      <c r="O107" s="298"/>
+      <c r="P107" s="298"/>
     </row>
     <row r="108" spans="1:16" ht="12" customHeight="1">
       <c r="A108" s="62"/>
-      <c r="B108" s="282"/>
-      <c r="C108" s="282"/>
-      <c r="D108" s="282"/>
-      <c r="E108" s="282"/>
-      <c r="F108" s="282"/>
-      <c r="G108" s="282"/>
-      <c r="H108" s="282"/>
-      <c r="I108" s="282"/>
-      <c r="J108" s="282"/>
-      <c r="K108" s="282"/>
-      <c r="L108" s="282"/>
-      <c r="M108" s="282"/>
-      <c r="N108" s="282"/>
-      <c r="O108" s="282"/>
-      <c r="P108" s="282"/>
+      <c r="B108" s="298"/>
+      <c r="C108" s="298"/>
+      <c r="D108" s="298"/>
+      <c r="E108" s="298"/>
+      <c r="F108" s="298"/>
+      <c r="G108" s="298"/>
+      <c r="H108" s="298"/>
+      <c r="I108" s="298"/>
+      <c r="J108" s="298"/>
+      <c r="K108" s="298"/>
+      <c r="L108" s="298"/>
+      <c r="M108" s="298"/>
+      <c r="N108" s="298"/>
+      <c r="O108" s="298"/>
+      <c r="P108" s="298"/>
     </row>
     <row r="109" spans="1:16" ht="12" customHeight="1">
       <c r="A109" s="62"/>
@@ -20517,115 +20761,115 @@
     </row>
     <row r="110" spans="1:16" ht="12" customHeight="1">
       <c r="A110" s="62"/>
-      <c r="B110" s="281" t="s">
+      <c r="B110" s="297" t="s">
         <v>296</v>
       </c>
-      <c r="C110" s="282"/>
-      <c r="D110" s="282"/>
-      <c r="E110" s="282"/>
-      <c r="F110" s="282"/>
-      <c r="G110" s="282"/>
-      <c r="H110" s="282"/>
-      <c r="I110" s="282"/>
-      <c r="J110" s="282"/>
-      <c r="K110" s="282"/>
-      <c r="L110" s="282"/>
-      <c r="M110" s="282"/>
-      <c r="N110" s="282"/>
-      <c r="O110" s="282"/>
-      <c r="P110" s="282"/>
+      <c r="C110" s="298"/>
+      <c r="D110" s="298"/>
+      <c r="E110" s="298"/>
+      <c r="F110" s="298"/>
+      <c r="G110" s="298"/>
+      <c r="H110" s="298"/>
+      <c r="I110" s="298"/>
+      <c r="J110" s="298"/>
+      <c r="K110" s="298"/>
+      <c r="L110" s="298"/>
+      <c r="M110" s="298"/>
+      <c r="N110" s="298"/>
+      <c r="O110" s="298"/>
+      <c r="P110" s="298"/>
     </row>
     <row r="111" spans="1:16" ht="12" customHeight="1">
       <c r="A111" s="62"/>
-      <c r="B111" s="281"/>
-      <c r="C111" s="282"/>
-      <c r="D111" s="282"/>
-      <c r="E111" s="282"/>
-      <c r="F111" s="282"/>
-      <c r="G111" s="282"/>
-      <c r="H111" s="282"/>
-      <c r="I111" s="282"/>
-      <c r="J111" s="282"/>
-      <c r="K111" s="282"/>
-      <c r="L111" s="282"/>
-      <c r="M111" s="282"/>
-      <c r="N111" s="282"/>
-      <c r="O111" s="282"/>
-      <c r="P111" s="282"/>
+      <c r="B111" s="297"/>
+      <c r="C111" s="298"/>
+      <c r="D111" s="298"/>
+      <c r="E111" s="298"/>
+      <c r="F111" s="298"/>
+      <c r="G111" s="298"/>
+      <c r="H111" s="298"/>
+      <c r="I111" s="298"/>
+      <c r="J111" s="298"/>
+      <c r="K111" s="298"/>
+      <c r="L111" s="298"/>
+      <c r="M111" s="298"/>
+      <c r="N111" s="298"/>
+      <c r="O111" s="298"/>
+      <c r="P111" s="298"/>
     </row>
     <row r="112" spans="1:16" ht="12" customHeight="1">
       <c r="A112" s="62"/>
-      <c r="B112" s="281"/>
-      <c r="C112" s="282"/>
-      <c r="D112" s="282"/>
-      <c r="E112" s="282"/>
-      <c r="F112" s="282"/>
-      <c r="G112" s="282"/>
-      <c r="H112" s="282"/>
-      <c r="I112" s="282"/>
-      <c r="J112" s="282"/>
-      <c r="K112" s="282"/>
-      <c r="L112" s="282"/>
-      <c r="M112" s="282"/>
-      <c r="N112" s="282"/>
-      <c r="O112" s="282"/>
-      <c r="P112" s="282"/>
-    </row>
-    <row r="113" spans="1:16" ht="12" customHeight="1">
+      <c r="B112" s="297"/>
+      <c r="C112" s="298"/>
+      <c r="D112" s="298"/>
+      <c r="E112" s="298"/>
+      <c r="F112" s="298"/>
+      <c r="G112" s="298"/>
+      <c r="H112" s="298"/>
+      <c r="I112" s="298"/>
+      <c r="J112" s="298"/>
+      <c r="K112" s="298"/>
+      <c r="L112" s="298"/>
+      <c r="M112" s="298"/>
+      <c r="N112" s="298"/>
+      <c r="O112" s="298"/>
+      <c r="P112" s="298"/>
+    </row>
+    <row r="113" spans="1:20" ht="12" customHeight="1">
       <c r="A113" s="62"/>
-      <c r="B113" s="281"/>
-      <c r="C113" s="282"/>
-      <c r="D113" s="282"/>
-      <c r="E113" s="282"/>
-      <c r="F113" s="282"/>
-      <c r="G113" s="282"/>
-      <c r="H113" s="282"/>
-      <c r="I113" s="282"/>
-      <c r="J113" s="282"/>
-      <c r="K113" s="282"/>
-      <c r="L113" s="282"/>
-      <c r="M113" s="282"/>
-      <c r="N113" s="282"/>
-      <c r="O113" s="282"/>
-      <c r="P113" s="282"/>
-    </row>
-    <row r="114" spans="1:16" ht="12" customHeight="1">
+      <c r="B113" s="297"/>
+      <c r="C113" s="298"/>
+      <c r="D113" s="298"/>
+      <c r="E113" s="298"/>
+      <c r="F113" s="298"/>
+      <c r="G113" s="298"/>
+      <c r="H113" s="298"/>
+      <c r="I113" s="298"/>
+      <c r="J113" s="298"/>
+      <c r="K113" s="298"/>
+      <c r="L113" s="298"/>
+      <c r="M113" s="298"/>
+      <c r="N113" s="298"/>
+      <c r="O113" s="298"/>
+      <c r="P113" s="298"/>
+    </row>
+    <row r="114" spans="1:20" ht="12" customHeight="1">
       <c r="A114" s="62"/>
-      <c r="B114" s="281"/>
-      <c r="C114" s="282"/>
-      <c r="D114" s="282"/>
-      <c r="E114" s="282"/>
-      <c r="F114" s="282"/>
-      <c r="G114" s="282"/>
-      <c r="H114" s="282"/>
-      <c r="I114" s="282"/>
-      <c r="J114" s="282"/>
-      <c r="K114" s="282"/>
-      <c r="L114" s="282"/>
-      <c r="M114" s="282"/>
-      <c r="N114" s="282"/>
-      <c r="O114" s="282"/>
-      <c r="P114" s="282"/>
-    </row>
-    <row r="115" spans="1:16" ht="12" customHeight="1">
+      <c r="B114" s="297"/>
+      <c r="C114" s="298"/>
+      <c r="D114" s="298"/>
+      <c r="E114" s="298"/>
+      <c r="F114" s="298"/>
+      <c r="G114" s="298"/>
+      <c r="H114" s="298"/>
+      <c r="I114" s="298"/>
+      <c r="J114" s="298"/>
+      <c r="K114" s="298"/>
+      <c r="L114" s="298"/>
+      <c r="M114" s="298"/>
+      <c r="N114" s="298"/>
+      <c r="O114" s="298"/>
+      <c r="P114" s="298"/>
+    </row>
+    <row r="115" spans="1:20" ht="12" customHeight="1">
       <c r="A115" s="62"/>
-      <c r="B115" s="281"/>
-      <c r="C115" s="282"/>
-      <c r="D115" s="282"/>
-      <c r="E115" s="282"/>
-      <c r="F115" s="282"/>
-      <c r="G115" s="282"/>
-      <c r="H115" s="282"/>
-      <c r="I115" s="282"/>
-      <c r="J115" s="282"/>
-      <c r="K115" s="282"/>
-      <c r="L115" s="282"/>
-      <c r="M115" s="282"/>
-      <c r="N115" s="282"/>
-      <c r="O115" s="282"/>
-      <c r="P115" s="282"/>
-    </row>
-    <row r="116" spans="1:16" ht="12" customHeight="1">
+      <c r="B115" s="297"/>
+      <c r="C115" s="298"/>
+      <c r="D115" s="298"/>
+      <c r="E115" s="298"/>
+      <c r="F115" s="298"/>
+      <c r="G115" s="298"/>
+      <c r="H115" s="298"/>
+      <c r="I115" s="298"/>
+      <c r="J115" s="298"/>
+      <c r="K115" s="298"/>
+      <c r="L115" s="298"/>
+      <c r="M115" s="298"/>
+      <c r="N115" s="298"/>
+      <c r="O115" s="298"/>
+      <c r="P115" s="298"/>
+    </row>
+    <row r="116" spans="1:20" ht="12" customHeight="1">
       <c r="A116" s="62"/>
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
@@ -20640,71 +20884,71 @@
       <c r="L116" s="40"/>
       <c r="M116" s="40"/>
     </row>
-    <row r="117" spans="1:16" ht="12" customHeight="1">
+    <row r="117" spans="1:20" ht="12" customHeight="1">
       <c r="A117" s="62"/>
-      <c r="B117" s="281" t="s">
+      <c r="B117" s="297" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="282"/>
-      <c r="D117" s="282"/>
-      <c r="E117" s="282"/>
-      <c r="F117" s="282"/>
-      <c r="G117" s="282"/>
-      <c r="H117" s="282"/>
-      <c r="I117" s="282"/>
-      <c r="J117" s="282"/>
-      <c r="K117" s="282"/>
-      <c r="L117" s="282"/>
-      <c r="M117" s="282"/>
-      <c r="N117" s="282"/>
-      <c r="O117" s="282"/>
-      <c r="P117" s="282"/>
-    </row>
-    <row r="118" spans="1:16" ht="12" customHeight="1">
+      <c r="C117" s="298"/>
+      <c r="D117" s="298"/>
+      <c r="E117" s="298"/>
+      <c r="F117" s="298"/>
+      <c r="G117" s="298"/>
+      <c r="H117" s="298"/>
+      <c r="I117" s="298"/>
+      <c r="J117" s="298"/>
+      <c r="K117" s="298"/>
+      <c r="L117" s="298"/>
+      <c r="M117" s="298"/>
+      <c r="N117" s="298"/>
+      <c r="O117" s="298"/>
+      <c r="P117" s="298"/>
+    </row>
+    <row r="118" spans="1:20" ht="12" customHeight="1">
       <c r="A118" s="62"/>
-      <c r="B118" s="282"/>
-      <c r="C118" s="282"/>
-      <c r="D118" s="282"/>
-      <c r="E118" s="282"/>
-      <c r="F118" s="282"/>
-      <c r="G118" s="282"/>
-      <c r="H118" s="282"/>
-      <c r="I118" s="282"/>
-      <c r="J118" s="282"/>
-      <c r="K118" s="282"/>
-      <c r="L118" s="282"/>
-      <c r="M118" s="282"/>
-      <c r="N118" s="282"/>
-      <c r="O118" s="282"/>
-      <c r="P118" s="282"/>
-    </row>
-    <row r="119" spans="1:16" ht="12" customHeight="1">
+      <c r="B118" s="298"/>
+      <c r="C118" s="298"/>
+      <c r="D118" s="298"/>
+      <c r="E118" s="298"/>
+      <c r="F118" s="298"/>
+      <c r="G118" s="298"/>
+      <c r="H118" s="298"/>
+      <c r="I118" s="298"/>
+      <c r="J118" s="298"/>
+      <c r="K118" s="298"/>
+      <c r="L118" s="298"/>
+      <c r="M118" s="298"/>
+      <c r="N118" s="298"/>
+      <c r="O118" s="298"/>
+      <c r="P118" s="298"/>
+    </row>
+    <row r="119" spans="1:20" ht="12" customHeight="1">
       <c r="A119" s="62"/>
-      <c r="B119" s="282"/>
-      <c r="C119" s="282"/>
-      <c r="D119" s="282"/>
-      <c r="E119" s="282"/>
-      <c r="F119" s="282"/>
-      <c r="G119" s="282"/>
-      <c r="H119" s="282"/>
-      <c r="I119" s="282"/>
-      <c r="J119" s="282"/>
-      <c r="K119" s="282"/>
-      <c r="L119" s="282"/>
-      <c r="M119" s="282"/>
-      <c r="N119" s="282"/>
-      <c r="O119" s="282"/>
-      <c r="P119" s="282"/>
-    </row>
-    <row r="120" spans="1:16" ht="12" customHeight="1">
+      <c r="B119" s="298"/>
+      <c r="C119" s="298"/>
+      <c r="D119" s="298"/>
+      <c r="E119" s="298"/>
+      <c r="F119" s="298"/>
+      <c r="G119" s="298"/>
+      <c r="H119" s="298"/>
+      <c r="I119" s="298"/>
+      <c r="J119" s="298"/>
+      <c r="K119" s="298"/>
+      <c r="L119" s="298"/>
+      <c r="M119" s="298"/>
+      <c r="N119" s="298"/>
+      <c r="O119" s="298"/>
+      <c r="P119" s="298"/>
+    </row>
+    <row r="120" spans="1:20" ht="12" customHeight="1">
       <c r="A120" s="62"/>
-      <c r="B120" s="284" t="s">
+      <c r="B120" s="300" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="284"/>
-      <c r="D120" s="284"/>
-      <c r="E120" s="284"/>
-      <c r="F120" s="284"/>
+      <c r="C120" s="300"/>
+      <c r="D120" s="300"/>
+      <c r="E120" s="300"/>
+      <c r="F120" s="300"/>
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="40"/>
@@ -20713,7 +20957,7 @@
       <c r="L120" s="40"/>
       <c r="M120" s="40"/>
     </row>
-    <row r="121" spans="1:16" ht="12" customHeight="1">
+    <row r="121" spans="1:20" ht="12" customHeight="1">
       <c r="A121" s="62"/>
       <c r="B121" s="141" t="s">
         <v>299</v>
@@ -20730,7 +20974,7 @@
       <c r="L121" s="40"/>
       <c r="M121" s="40"/>
     </row>
-    <row r="122" spans="1:16" ht="12" customHeight="1">
+    <row r="122" spans="1:20" ht="12" customHeight="1">
       <c r="A122" s="62"/>
       <c r="B122" s="40"/>
       <c r="C122" s="40"/>
@@ -20745,15 +20989,15 @@
       <c r="L122" s="40"/>
       <c r="M122" s="40"/>
     </row>
-    <row r="123" spans="1:16" ht="12" customHeight="1">
+    <row r="123" spans="1:20" ht="12" customHeight="1">
       <c r="A123" s="62"/>
-      <c r="B123" s="284" t="s">
+      <c r="B123" s="300" t="s">
         <v>298</v>
       </c>
-      <c r="C123" s="284"/>
-      <c r="D123" s="284"/>
-      <c r="E123" s="284"/>
-      <c r="F123" s="284"/>
+      <c r="C123" s="300"/>
+      <c r="D123" s="300"/>
+      <c r="E123" s="300"/>
+      <c r="F123" s="300"/>
       <c r="G123" s="40"/>
       <c r="H123" s="40"/>
       <c r="I123" s="40"/>
@@ -20762,7 +21006,7 @@
       <c r="L123" s="40"/>
       <c r="M123" s="40"/>
     </row>
-    <row r="124" spans="1:16" ht="12" customHeight="1">
+    <row r="124" spans="1:20" ht="12" customHeight="1">
       <c r="A124" s="62"/>
       <c r="B124" s="141" t="s">
         <v>300</v>
@@ -20779,23 +21023,23 @@
       <c r="L124" s="40"/>
       <c r="M124" s="40"/>
     </row>
-    <row r="125" spans="1:16" s="148" customFormat="1" ht="12" customHeight="1">
+    <row r="125" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
       <c r="A125" s="145"/>
       <c r="B125" s="146"/>
-      <c r="C125" s="283" t="s">
+      <c r="C125" s="299" t="s">
         <v>305</v>
       </c>
-      <c r="D125" s="283"/>
-      <c r="E125" s="283"/>
-      <c r="F125" s="283"/>
-      <c r="G125" s="283"/>
+      <c r="D125" s="299"/>
+      <c r="E125" s="299"/>
+      <c r="F125" s="299"/>
+      <c r="G125" s="299"/>
       <c r="H125" s="147"/>
       <c r="I125" s="147"/>
       <c r="J125" s="147"/>
       <c r="K125" s="147"/>
       <c r="L125" s="147"/>
     </row>
-    <row r="126" spans="1:16" s="148" customFormat="1" ht="12" customHeight="1">
+    <row r="126" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
       <c r="A126" s="145"/>
       <c r="B126" s="146"/>
       <c r="C126" s="149" t="s">
@@ -20811,7 +21055,7 @@
       <c r="K126" s="147"/>
       <c r="L126" s="147"/>
     </row>
-    <row r="127" spans="1:16" s="148" customFormat="1" ht="12" customHeight="1">
+    <row r="127" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
       <c r="A127" s="145" t="s">
         <v>306</v>
       </c>
@@ -20829,86 +21073,105 @@
       <c r="K127" s="147"/>
       <c r="L127" s="147"/>
     </row>
-    <row r="128" spans="1:16" s="148" customFormat="1" ht="12" customHeight="1">
-      <c r="A128" s="145"/>
-      <c r="B128" s="146"/>
-      <c r="C128" s="150"/>
-      <c r="D128" s="150"/>
-      <c r="E128" s="147"/>
-      <c r="F128" s="147"/>
-      <c r="G128" s="147"/>
-      <c r="H128" s="147"/>
-      <c r="I128" s="147"/>
-      <c r="J128" s="147"/>
-      <c r="K128" s="147"/>
-      <c r="L128" s="147"/>
-    </row>
-    <row r="129" spans="1:13" ht="12" customHeight="1">
-      <c r="A129" s="62"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="40"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="40"/>
-      <c r="H129" s="40"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="40"/>
-      <c r="K129" s="40"/>
-      <c r="L129" s="40"/>
-      <c r="M129" s="40"/>
-    </row>
-    <row r="130" spans="1:13" ht="12" customHeight="1">
-      <c r="A130" s="62"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="40"/>
-      <c r="K130" s="40"/>
-      <c r="L130" s="40"/>
-      <c r="M130" s="40"/>
-    </row>
-    <row r="131" spans="1:13" ht="12" customHeight="1">
-      <c r="A131" s="62"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="40"/>
-      <c r="E131" s="40"/>
-      <c r="F131" s="40"/>
-      <c r="G131" s="40"/>
-      <c r="H131" s="40"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="40"/>
-      <c r="K131" s="40"/>
-      <c r="L131" s="40"/>
-      <c r="M131" s="40"/>
-    </row>
-    <row r="132" spans="1:13" ht="12" customHeight="1">
-      <c r="A132" s="62" t="s">
+    <row r="128" spans="1:20" s="186" customFormat="1" ht="12" customHeight="1">
+      <c r="A128" s="189"/>
+      <c r="B128" s="189"/>
+      <c r="C128" s="189"/>
+      <c r="D128" s="189"/>
+      <c r="E128" s="189"/>
+      <c r="F128" s="189"/>
+      <c r="G128" s="189"/>
+      <c r="H128" s="189"/>
+      <c r="I128" s="189"/>
+      <c r="J128" s="189"/>
+      <c r="K128" s="189"/>
+      <c r="L128" s="189"/>
+      <c r="M128" s="189"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="22"/>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="22"/>
+      <c r="S128" s="22"/>
+      <c r="T128" s="22"/>
+    </row>
+    <row r="129" spans="1:20" s="186" customFormat="1" ht="12" customHeight="1">
+      <c r="A129" s="189"/>
+      <c r="B129" s="189"/>
+      <c r="C129" s="189"/>
+      <c r="D129" s="189"/>
+      <c r="E129" s="189"/>
+      <c r="F129" s="189"/>
+      <c r="G129" s="189"/>
+      <c r="H129" s="189"/>
+      <c r="I129" s="189"/>
+      <c r="J129" s="189"/>
+      <c r="K129" s="189"/>
+      <c r="L129" s="189"/>
+      <c r="M129" s="189"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="22"/>
+      <c r="P129" s="22"/>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="22"/>
+      <c r="S129" s="22"/>
+      <c r="T129" s="22"/>
+    </row>
+    <row r="130" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A130" s="187"/>
+      <c r="B130" s="184" t="s">
+        <v>361</v>
+      </c>
+      <c r="C130" s="182"/>
+      <c r="D130" s="188"/>
+      <c r="E130" s="182"/>
+      <c r="F130" s="182"/>
+      <c r="G130" s="182"/>
+      <c r="H130" s="182"/>
+      <c r="I130" s="182"/>
+      <c r="J130" s="182"/>
+      <c r="K130" s="182"/>
+      <c r="L130" s="182"/>
+      <c r="M130" s="182"/>
+    </row>
+    <row r="131" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A131" s="187"/>
+      <c r="C131" s="182" t="s">
+        <v>363</v>
+      </c>
+      <c r="D131" s="188"/>
+      <c r="E131" s="182"/>
+      <c r="F131" s="182"/>
+      <c r="G131" s="182"/>
+      <c r="H131" s="182"/>
+      <c r="I131" s="182"/>
+      <c r="J131" s="182"/>
+      <c r="K131" s="182"/>
+      <c r="L131" s="182"/>
+      <c r="M131" s="182"/>
+    </row>
+    <row r="132" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A132" s="187"/>
+      <c r="B132" s="182"/>
+      <c r="C132" s="182" t="s">
+        <v>364</v>
+      </c>
+      <c r="D132" s="182"/>
+      <c r="E132" s="182"/>
+      <c r="F132" s="182"/>
+      <c r="G132" s="182"/>
+      <c r="H132" s="182"/>
+      <c r="I132" s="182"/>
+      <c r="J132" s="182"/>
+      <c r="K132" s="182"/>
+      <c r="L132" s="182"/>
+      <c r="M132" s="182"/>
+    </row>
+    <row r="133" spans="1:20" ht="12" customHeight="1">
+      <c r="A133" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B132" s="40"/>
-      <c r="C132" s="69"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="40"/>
-      <c r="F132" s="40"/>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="40"/>
-      <c r="K132" s="40"/>
-      <c r="L132" s="40"/>
-      <c r="M132" s="40"/>
-    </row>
-    <row r="133" spans="1:13" ht="12" customHeight="1">
-      <c r="B133" s="66" t="s">
-        <v>118</v>
-      </c>
+      <c r="B133" s="40"/>
       <c r="C133" s="69"/>
       <c r="D133" s="40"/>
       <c r="E133" s="40"/>
@@ -20921,11 +21184,11 @@
       <c r="L133" s="40"/>
       <c r="M133" s="40"/>
     </row>
-    <row r="134" spans="1:13" ht="12" customHeight="1">
-      <c r="B134" s="40"/>
-      <c r="C134" s="69" t="s">
-        <v>191</v>
-      </c>
+    <row r="134" spans="1:20" ht="12" customHeight="1">
+      <c r="B134" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" s="69"/>
       <c r="D134" s="40"/>
       <c r="E134" s="40"/>
       <c r="F134" s="40"/>
@@ -20937,9 +21200,11 @@
       <c r="L134" s="40"/>
       <c r="M134" s="40"/>
     </row>
-    <row r="135" spans="1:13" ht="12" customHeight="1">
+    <row r="135" spans="1:20" ht="12" customHeight="1">
       <c r="B135" s="40"/>
-      <c r="C135" s="69"/>
+      <c r="C135" s="69" t="s">
+        <v>191</v>
+      </c>
       <c r="D135" s="40"/>
       <c r="E135" s="40"/>
       <c r="F135" s="40"/>
@@ -20951,11 +21216,9 @@
       <c r="L135" s="40"/>
       <c r="M135" s="40"/>
     </row>
-    <row r="136" spans="1:13" ht="12" customHeight="1">
-      <c r="B136" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C136" s="40"/>
+    <row r="136" spans="1:20" ht="12" customHeight="1">
+      <c r="B136" s="40"/>
+      <c r="C136" s="69"/>
       <c r="D136" s="40"/>
       <c r="E136" s="40"/>
       <c r="F136" s="40"/>
@@ -20967,11 +21230,11 @@
       <c r="L136" s="40"/>
       <c r="M136" s="40"/>
     </row>
-    <row r="137" spans="1:13" ht="12" customHeight="1">
-      <c r="B137" s="66"/>
-      <c r="C137" s="69" t="s">
-        <v>191</v>
-      </c>
+    <row r="137" spans="1:20" ht="12" customHeight="1">
+      <c r="B137" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C137" s="40"/>
       <c r="D137" s="40"/>
       <c r="E137" s="40"/>
       <c r="F137" s="40"/>
@@ -20983,10 +21246,11 @@
       <c r="L137" s="40"/>
       <c r="M137" s="40"/>
     </row>
-    <row r="138" spans="1:13" ht="12" customHeight="1">
-      <c r="A138" s="39"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="40"/>
+    <row r="138" spans="1:20" ht="12" customHeight="1">
+      <c r="B138" s="66"/>
+      <c r="C138" s="69" t="s">
+        <v>191</v>
+      </c>
       <c r="D138" s="40"/>
       <c r="E138" s="40"/>
       <c r="F138" s="40"/>
@@ -20998,12 +21262,10 @@
       <c r="L138" s="40"/>
       <c r="M138" s="40"/>
     </row>
-    <row r="139" spans="1:13" ht="12" customHeight="1">
-      <c r="A139" s="62" t="s">
-        <v>121</v>
-      </c>
+    <row r="139" spans="1:20" ht="12" customHeight="1">
+      <c r="A139" s="39"/>
       <c r="B139" s="40"/>
-      <c r="C139" s="69"/>
+      <c r="C139" s="40"/>
       <c r="D139" s="40"/>
       <c r="E139" s="40"/>
       <c r="F139" s="40"/>
@@ -21015,10 +21277,11 @@
       <c r="L139" s="40"/>
       <c r="M139" s="40"/>
     </row>
-    <row r="140" spans="1:13" ht="12" customHeight="1">
-      <c r="B140" s="66" t="s">
-        <v>118</v>
-      </c>
+    <row r="140" spans="1:20" ht="12" customHeight="1">
+      <c r="A140" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" s="40"/>
       <c r="C140" s="69"/>
       <c r="D140" s="40"/>
       <c r="E140" s="40"/>
@@ -21031,11 +21294,11 @@
       <c r="L140" s="40"/>
       <c r="M140" s="40"/>
     </row>
-    <row r="141" spans="1:13" ht="12" customHeight="1">
-      <c r="B141" s="40"/>
-      <c r="C141" s="69" t="s">
-        <v>192</v>
-      </c>
+    <row r="141" spans="1:20" ht="12" customHeight="1">
+      <c r="B141" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" s="69"/>
       <c r="D141" s="40"/>
       <c r="E141" s="40"/>
       <c r="F141" s="40"/>
@@ -21047,9 +21310,11 @@
       <c r="L141" s="40"/>
       <c r="M141" s="40"/>
     </row>
-    <row r="142" spans="1:13" ht="12" customHeight="1">
+    <row r="142" spans="1:20" ht="12" customHeight="1">
       <c r="B142" s="40"/>
-      <c r="C142" s="69"/>
+      <c r="C142" s="69" t="s">
+        <v>192</v>
+      </c>
       <c r="D142" s="40"/>
       <c r="E142" s="40"/>
       <c r="F142" s="40"/>
@@ -21061,11 +21326,9 @@
       <c r="L142" s="40"/>
       <c r="M142" s="40"/>
     </row>
-    <row r="143" spans="1:13" ht="12" customHeight="1">
-      <c r="B143" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C143" s="40"/>
+    <row r="143" spans="1:20" ht="12" customHeight="1">
+      <c r="B143" s="40"/>
+      <c r="C143" s="69"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="40"/>
@@ -21077,11 +21340,11 @@
       <c r="L143" s="40"/>
       <c r="M143" s="40"/>
     </row>
-    <row r="144" spans="1:13" ht="12" customHeight="1">
-      <c r="B144" s="66"/>
-      <c r="C144" s="69" t="s">
-        <v>192</v>
-      </c>
+    <row r="144" spans="1:20" ht="12" customHeight="1">
+      <c r="B144" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="40"/>
       <c r="D144" s="40"/>
       <c r="E144" s="40"/>
       <c r="F144" s="40"/>
@@ -21094,9 +21357,10 @@
       <c r="M144" s="40"/>
     </row>
     <row r="145" spans="1:13" ht="12" customHeight="1">
-      <c r="A145" s="39"/>
-      <c r="B145" s="69"/>
-      <c r="C145" s="40"/>
+      <c r="B145" s="66"/>
+      <c r="C145" s="69" t="s">
+        <v>192</v>
+      </c>
       <c r="D145" s="40"/>
       <c r="E145" s="40"/>
       <c r="F145" s="40"/>
@@ -21109,11 +21373,9 @@
       <c r="M145" s="40"/>
     </row>
     <row r="146" spans="1:13" ht="12" customHeight="1">
-      <c r="A146" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B146" s="40"/>
-      <c r="C146" s="69"/>
+      <c r="A146" s="39"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="40"/>
       <c r="D146" s="40"/>
       <c r="E146" s="40"/>
       <c r="F146" s="40"/>
@@ -21126,9 +21388,10 @@
       <c r="M146" s="40"/>
     </row>
     <row r="147" spans="1:13" ht="12" customHeight="1">
-      <c r="B147" s="66" t="s">
-        <v>123</v>
-      </c>
+      <c r="A147" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B147" s="40"/>
       <c r="C147" s="69"/>
       <c r="D147" s="40"/>
       <c r="E147" s="40"/>
@@ -21142,7 +21405,9 @@
       <c r="M147" s="40"/>
     </row>
     <row r="148" spans="1:13" ht="12" customHeight="1">
-      <c r="B148" s="66"/>
+      <c r="B148" s="66" t="s">
+        <v>123</v>
+      </c>
       <c r="C148" s="69"/>
       <c r="D148" s="40"/>
       <c r="E148" s="40"/>
@@ -21156,7 +21421,7 @@
       <c r="M148" s="40"/>
     </row>
     <row r="149" spans="1:13" ht="12" customHeight="1">
-      <c r="B149" s="40"/>
+      <c r="B149" s="66"/>
       <c r="C149" s="69"/>
       <c r="D149" s="40"/>
       <c r="E149" s="40"/>
@@ -21170,10 +21435,8 @@
       <c r="M149" s="40"/>
     </row>
     <row r="150" spans="1:13" ht="12" customHeight="1">
-      <c r="B150" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C150" s="40"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="69"/>
       <c r="D150" s="40"/>
       <c r="E150" s="40"/>
       <c r="F150" s="40"/>
@@ -21186,7 +21449,9 @@
       <c r="M150" s="40"/>
     </row>
     <row r="151" spans="1:13" ht="12" customHeight="1">
-      <c r="B151" s="66"/>
+      <c r="B151" s="66" t="s">
+        <v>124</v>
+      </c>
       <c r="C151" s="40"/>
       <c r="D151" s="40"/>
       <c r="E151" s="40"/>
@@ -21200,11 +21465,8 @@
       <c r="M151" s="40"/>
     </row>
     <row r="152" spans="1:13" ht="12" customHeight="1">
-      <c r="A152" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B152" s="40"/>
-      <c r="C152" s="69"/>
+      <c r="B152" s="66"/>
+      <c r="C152" s="40"/>
       <c r="D152" s="40"/>
       <c r="E152" s="40"/>
       <c r="F152" s="40"/>
@@ -21217,7 +21479,10 @@
       <c r="M152" s="40"/>
     </row>
     <row r="153" spans="1:13" ht="12" customHeight="1">
-      <c r="B153" s="66"/>
+      <c r="A153" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" s="40"/>
       <c r="C153" s="69"/>
       <c r="D153" s="40"/>
       <c r="E153" s="40"/>
@@ -21231,7 +21496,7 @@
       <c r="M153" s="40"/>
     </row>
     <row r="154" spans="1:13" ht="12" customHeight="1">
-      <c r="B154" s="40"/>
+      <c r="B154" s="66"/>
       <c r="C154" s="69"/>
       <c r="D154" s="40"/>
       <c r="E154" s="40"/>
@@ -21245,8 +21510,8 @@
       <c r="M154" s="40"/>
     </row>
     <row r="155" spans="1:13" ht="12" customHeight="1">
-      <c r="B155" s="66"/>
-      <c r="C155" s="40"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="69"/>
       <c r="D155" s="40"/>
       <c r="E155" s="40"/>
       <c r="F155" s="40"/>
@@ -21273,7 +21538,7 @@
       <c r="M156" s="40"/>
     </row>
     <row r="157" spans="1:13" ht="12" customHeight="1">
-      <c r="B157" s="40"/>
+      <c r="B157" s="66"/>
       <c r="C157" s="40"/>
       <c r="D157" s="40"/>
       <c r="E157" s="40"/>
@@ -21301,7 +21566,7 @@
       <c r="M158" s="40"/>
     </row>
     <row r="159" spans="1:13" ht="12" customHeight="1">
-      <c r="B159" s="66"/>
+      <c r="B159" s="40"/>
       <c r="C159" s="40"/>
       <c r="D159" s="40"/>
       <c r="E159" s="40"/>
@@ -21315,9 +21580,8 @@
       <c r="M159" s="40"/>
     </row>
     <row r="160" spans="1:13" ht="12" customHeight="1">
-      <c r="A160" s="39"/>
-      <c r="B160" s="40"/>
-      <c r="C160" s="69"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="40"/>
       <c r="D160" s="40"/>
       <c r="E160" s="40"/>
       <c r="F160" s="40"/>
@@ -21360,9 +21624,9 @@
       <c r="M162" s="40"/>
     </row>
     <row r="163" spans="1:13" ht="12" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="39"/>
       <c r="B163" s="40"/>
-      <c r="C163" s="40"/>
+      <c r="C163" s="69"/>
       <c r="D163" s="40"/>
       <c r="E163" s="40"/>
       <c r="F163" s="40"/>
@@ -21375,7 +21639,8 @@
       <c r="M163" s="40"/>
     </row>
     <row r="164" spans="1:13" ht="12" customHeight="1">
-      <c r="B164" s="66"/>
+      <c r="A164" s="62"/>
+      <c r="B164" s="40"/>
       <c r="C164" s="40"/>
       <c r="D164" s="40"/>
       <c r="E164" s="40"/>
@@ -21389,7 +21654,7 @@
       <c r="M164" s="40"/>
     </row>
     <row r="165" spans="1:13" ht="12" customHeight="1">
-      <c r="B165" s="40"/>
+      <c r="B165" s="66"/>
       <c r="C165" s="40"/>
       <c r="D165" s="40"/>
       <c r="E165" s="40"/>
@@ -21403,7 +21668,7 @@
       <c r="M165" s="40"/>
     </row>
     <row r="166" spans="1:13" ht="12" customHeight="1">
-      <c r="B166" s="66"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="40"/>
       <c r="D166" s="40"/>
       <c r="E166" s="40"/>
@@ -21417,8 +21682,7 @@
       <c r="M166" s="40"/>
     </row>
     <row r="167" spans="1:13" ht="12" customHeight="1">
-      <c r="A167" s="39"/>
-      <c r="B167" s="40"/>
+      <c r="B167" s="66"/>
       <c r="C167" s="40"/>
       <c r="D167" s="40"/>
       <c r="E167" s="40"/>
@@ -21432,7 +21696,7 @@
       <c r="M167" s="40"/>
     </row>
     <row r="168" spans="1:13" ht="12" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="39"/>
       <c r="B168" s="40"/>
       <c r="C168" s="40"/>
       <c r="D168" s="40"/>
@@ -21447,7 +21711,7 @@
       <c r="M168" s="40"/>
     </row>
     <row r="169" spans="1:13" ht="12" customHeight="1">
-      <c r="A169" s="39"/>
+      <c r="A169" s="62"/>
       <c r="B169" s="40"/>
       <c r="C169" s="40"/>
       <c r="D169" s="40"/>
@@ -21777,19 +22041,34 @@
       <c r="M190" s="40"/>
     </row>
     <row r="191" spans="1:13" ht="12" customHeight="1">
-      <c r="A191" s="44"/>
-      <c r="B191" s="45"/>
-      <c r="C191" s="45"/>
-      <c r="D191" s="45"/>
-      <c r="E191" s="45"/>
-      <c r="F191" s="45"/>
-      <c r="G191" s="45"/>
-      <c r="H191" s="45"/>
-      <c r="I191" s="45"/>
+      <c r="A191" s="39"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="40"/>
+      <c r="G191" s="40"/>
+      <c r="H191" s="40"/>
+      <c r="I191" s="40"/>
       <c r="J191" s="40"/>
       <c r="K191" s="40"/>
       <c r="L191" s="40"/>
       <c r="M191" s="40"/>
+    </row>
+    <row r="192" spans="1:13" ht="12" customHeight="1">
+      <c r="A192" s="44"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="45"/>
+      <c r="E192" s="45"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="45"/>
+      <c r="H192" s="45"/>
+      <c r="I192" s="45"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="40"/>
+      <c r="L192" s="40"/>
+      <c r="M192" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -21810,7 +22089,7 @@
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="169" max="9" man="1"/>
+    <brk id="170" max="9" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -21822,7 +22101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
@@ -21839,10 +22118,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="215"/>
+      <c r="B1" s="214"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -21873,8 +22152,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -43,13 +43,13 @@
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$O$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$157</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1377,7 +1377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="357">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2571,131 +2571,7 @@
     <t>Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Dự án, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
   </si>
   <si>
-    <t>Liên hệ</t>
-  </si>
-  <si>
-    <t>ContactID</t>
-  </si>
-  <si>
-    <t>Chọn liên hệ</t>
-  </si>
-  <si>
-    <t>Xóa liên hệ đã chọn</t>
-  </si>
-  <si>
-    <t>BtnChooseContact</t>
-  </si>
-  <si>
-    <t>BtnClearContact</t>
-  </si>
-  <si>
-    <t>Hiển thị  ContactName
-Lưu database là ContactID</t>
-  </si>
-  <si>
-    <t>Click btn Chọn liên hệ</t>
-  </si>
-  <si>
-    <t>Update CRMT20801 
-Set 
- DivisionID = @DivisionID
-, RequestSubject = @RequestSubject
-, PriorityID = @PriorityID
-, RequestStatus = @RequestStatus
-, TimeRequest = @TimeRequest
-, DeadlineRequest = @DeadlineRequest
-, AssignedToUserID = @AssignedToUserID
-, RequestDescription = @RequestDescription
-, FeedbackDescription = @FeedbackDescription
-, RelatedToTypeID = @RelatedToTypeID
-, LastModifyUserID = @LastModifyUserID
-, LastModifyDate = @LastModifyDate
-, RequestTypeID = @RequestTypeID
-, BugTypeID = @BugTypeID
-, DeadlineExpect = @DeadlineExpect
-, CompleteDate = @CompleteDate
-, DurationTime = @DurationTime
-, RealTime = @RealTime
-, ProjectID = @ProjectID
-, ContactID = @ContactID
-Where RequestID =@RequestID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@DivisionID
-@RequestSubject
-@PriorityID
-@RequestStatus
-@TimeRequest
-@DeadlineRequest
-@AssignedToUserID
-@RequestDescription
-@FeedbackDescription
-@RelatedToTypeID
-@LastModifyUserID
-@LastModifyDate
-@RequestID
-@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
-@ProjectID,
-@ContactID
-</t>
-  </si>
-  <si>
-    <t>@DivisionID
-@RequestSubject
-@PriorityID
-@RequestStatus
-@TimeRequest
-@DeadlineRequest
-@AssignedToUserID
-@RequestDescription
-@FeedbackDescription
-@RelatedToTypeID
-@LastModifyUserID
-@LastModifyDate
-@RequestID
-@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
-@ProjectID,
-@ContactID</t>
-  </si>
-  <si>
-    <t>Insert Into CRMT20801 
-(APK, DivisionID, RequestSubject
-, PriorityID, RequestStatus, DeleteFlg
-, TimeRequest, DeadlineRequest, AssignedToUserID
-, RequestDescription, FeedbackDescription, RelatedToTypeID
-, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID, RequestTypeID, BugTypeID, DeadlineExpect, CompleteDate, DurationTime, RealTime, ProjectID,ContactID)
-Values 
-(@APK, @DivisionID, @RequestSubject
-, @PriorityID, @RequestStatus, @DeleteFlg
-, @TimeRequest, @DeadlineRequest, @AssignedToUserID
-, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
-, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime, @ProjectID, @ContactID)</t>
-  </si>
-  <si>
-    <t>@APK,
- @DivisionID, @RequestSubject, @PriorityID, @RequestStatus, @DeleteFlg, @TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, @RelatedToTypeID, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
-@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
-@ProjectID,
-@ContactID</t>
-  </si>
-  <si>
-    <t>NewID(),
- Biến môi trường @RequestSubject, @PriorityID, 
-@RequestStatus,
-@DeleteFlg,
-@TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, 
-20, 
-@CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
-@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime,
-@RealTime, 
-@ProjectID,
-@ContactID</t>
-  </si>
-  <si>
     <t>Luồng 14: Chọn Liên hệ</t>
-  </si>
-  <si>
-    <t>Truyền tham số DivisionID truyền tới màn hình CRMF9010 - Chọn liên hệ</t>
   </si>
   <si>
     <t>Truyền tham số @@DivisionID đến màn hình CRMF9010 -Chọn liên hệ</t>
@@ -2731,16 +2607,104 @@
  where B.CodeMaster ='CRMT00000026'and B.ID in (Replace(M.BugTypeID,',',''','''))
  Group by B.Description
  FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as BugTypeName
-,M.ContactID
-, stuff(isnull((Select ', ' + E.ContactName From CRMT10001 E WITH (NOLOCK) 
- where E.ContactID in (Replace(M.ContactID,',',''','''))
- Group by E.ContactName
- FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as ContactName
 From CRMT20801 M With (Nolock)
 Left join AT1103 A With (Nolock) On A.EmployeeID = M.AssignedToUserID
 Left join CRMT0099 C01 With (Nolock) On C01.ID = M.RequestStatus  and C01.CodeMaster ='CRMT00000003' 
 Left join CRMT0099 C02 With (Nolock) On C02.ID = M.RequestTypeID  and C02.CodeMaster ='CRMT00000025' 
 Where M.APK = @APK 
+</t>
+  </si>
+  <si>
+    <t>Insert Into CRMT20801 
+(APK, DivisionID, RequestSubject
+, PriorityID, RequestStatus, DeleteFlg
+, TimeRequest, DeadlineRequest, AssignedToUserID
+, RequestDescription, FeedbackDescription, RelatedToTypeID
+, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID, RequestTypeID, BugTypeID, DeadlineExpect, CompleteDate, DurationTime, RealTime, ProjectID)
+Values 
+(@APK, @DivisionID, @RequestSubject
+, @PriorityID, @RequestStatus, @DeleteFlg
+, @TimeRequest, @DeadlineRequest, @AssignedToUserID
+, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
+, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime, @ProjectID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@APK,
+ @DivisionID, @RequestSubject, @PriorityID, @RequestStatus, @DeleteFlg, @TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, @RelatedToTypeID, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
+@ProjectID
+</t>
+  </si>
+  <si>
+    <t>NewID(),
+ Biến môi trường @RequestSubject, @PriorityID, 
+@RequestStatus,
+@DeleteFlg,
+@TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, 
+20, 
+@CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime,
+@RealTime, 
+@ProjectID</t>
+  </si>
+  <si>
+    <t>Update CRMT20801 
+Set 
+ DivisionID = @DivisionID
+, RequestSubject = @RequestSubject
+, PriorityID = @PriorityID
+, RequestStatus = @RequestStatus
+, TimeRequest = @TimeRequest
+, DeadlineRequest = @DeadlineRequest
+, AssignedToUserID = @AssignedToUserID
+, RequestDescription = @RequestDescription
+, FeedbackDescription = @FeedbackDescription
+, RelatedToTypeID = @RelatedToTypeID
+, LastModifyUserID = @LastModifyUserID
+, LastModifyDate = @LastModifyDate
+, RequestTypeID = @RequestTypeID
+, BugTypeID = @BugTypeID
+, DeadlineExpect = @DeadlineExpect
+, CompleteDate = @CompleteDate
+, DurationTime = @DurationTime
+, RealTime = @RealTime
+, ProjectID = @ProjectID
+Where RequestID =@RequestID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DivisionID
+@RequestSubject
+@PriorityID
+@RequestStatus
+@TimeRequest
+@DeadlineRequest
+@AssignedToUserID
+@RequestDescription
+@FeedbackDescription
+@RelatedToTypeID
+@LastModifyUserID
+@LastModifyDate
+@RequestID
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
+@ProjectID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DivisionID
+@RequestSubject
+@PriorityID
+@RequestStatus
+@TimeRequest
+@DeadlineRequest
+@AssignedToUserID
+@RequestDescription
+@FeedbackDescription
+@RelatedToTypeID
+@LastModifyUserID
+@LastModifyDate
+@RequestID
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
+@ProjectID
 </t>
   </si>
 </sst>
@@ -3265,7 +3229,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3737,22 +3701,31 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3798,23 +3771,32 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3834,33 +3816,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3900,15 +3855,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3978,6 +3924,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3987,39 +3939,27 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4055,15 +3995,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4214,18 +4145,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>895970</xdr:colOff>
+      <xdr:colOff>926690</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4245,8 +4176,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="619125"/>
-          <a:ext cx="7773020" cy="4752975"/>
+          <a:off x="0" y="600076"/>
+          <a:ext cx="7803740" cy="4743450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4269,18 +4200,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>10988</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>124625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4300,8 +4231,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="5344988"/>
-          <a:ext cx="7867650" cy="4827712"/>
+          <a:off x="0" y="5306225"/>
+          <a:ext cx="7753350" cy="4780750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13834,65 +13765,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="197"/>
-      <c r="B1" s="197"/>
-      <c r="C1" s="199" t="s">
+      <c r="A1" s="200"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="202" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="198" t="s">
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="201" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198" t="s">
+      <c r="H1" s="201"/>
+      <c r="I1" s="201" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="198"/>
+      <c r="J1" s="201"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="197"/>
-      <c r="B2" s="197"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="198" t="s">
+      <c r="A2" s="200"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="201" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="197"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="194" t="s">
+      <c r="A3" s="200"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="197" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="195"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="195"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="198"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="93"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="196"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
       <c r="M13" s="94"/>
@@ -13903,56 +13834,56 @@
       <c r="R13" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="192"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="192"/>
-      <c r="P14" s="192"/>
-      <c r="Q14" s="192"/>
-      <c r="R14" s="192"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="192"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="192"/>
-      <c r="P15" s="192"/>
-      <c r="Q15" s="192"/>
-      <c r="R15" s="192"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="193"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="193" t="s">
+      <c r="A16" s="196" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="193"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
       <c r="M16" s="95"/>
@@ -13963,384 +13894,384 @@
       <c r="R16" s="95"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="192"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="192"/>
-      <c r="R17" s="192"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="193"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="192"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="192"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="193"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="209"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="209"/>
-      <c r="P19" s="209"/>
-      <c r="Q19" s="209"/>
-      <c r="R19" s="209"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="195"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="192"/>
-      <c r="P20" s="192"/>
-      <c r="Q20" s="192"/>
-      <c r="R20" s="192"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="193"/>
+      <c r="L20" s="193"/>
+      <c r="M20" s="193"/>
+      <c r="N20" s="193"/>
+      <c r="O20" s="193"/>
+      <c r="P20" s="193"/>
+      <c r="Q20" s="193"/>
+      <c r="R20" s="193"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="192"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
-      <c r="P21" s="192"/>
-      <c r="Q21" s="192"/>
-      <c r="R21" s="192"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="193"/>
+      <c r="N21" s="193"/>
+      <c r="O21" s="193"/>
+      <c r="P21" s="193"/>
+      <c r="Q21" s="193"/>
+      <c r="R21" s="193"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="208"/>
-      <c r="M22" s="208"/>
-      <c r="N22" s="208"/>
-      <c r="O22" s="208"/>
-      <c r="P22" s="208"/>
-      <c r="Q22" s="208"/>
-      <c r="R22" s="208"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="194"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="208"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
-      <c r="M23" s="208"/>
-      <c r="N23" s="208"/>
-      <c r="O23" s="208"/>
-      <c r="P23" s="208"/>
-      <c r="Q23" s="208"/>
-      <c r="R23" s="208"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="194"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="210"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="210"/>
-      <c r="L26" s="210"/>
-      <c r="M26" s="210"/>
-      <c r="N26" s="210"/>
-      <c r="O26" s="210"/>
-      <c r="P26" s="210"/>
-      <c r="Q26" s="210"/>
-      <c r="R26" s="210"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="191"/>
+      <c r="R26" s="191"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="212"/>
-      <c r="J28" s="212"/>
-      <c r="K28" s="212"/>
-      <c r="L28" s="212"/>
-      <c r="M28" s="212"/>
-      <c r="N28" s="212"/>
-      <c r="O28" s="212"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="212"/>
-      <c r="R28" s="212"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="211"/>
-      <c r="X28" s="211"/>
-      <c r="Y28" s="211"/>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="211"/>
-      <c r="AB28" s="211"/>
-      <c r="AC28" s="211"/>
-      <c r="AD28" s="211"/>
-      <c r="AE28" s="211"/>
-      <c r="AF28" s="211"/>
-      <c r="AG28" s="211"/>
-      <c r="AH28" s="211"/>
-      <c r="AI28" s="211"/>
-      <c r="AJ28" s="211"/>
-      <c r="AK28" s="211"/>
-      <c r="AL28" s="211"/>
-      <c r="AM28" s="211"/>
-      <c r="AN28" s="211"/>
-      <c r="AO28" s="211"/>
-      <c r="AP28" s="211"/>
-      <c r="AQ28" s="211"/>
-      <c r="AR28" s="211"/>
-      <c r="AS28" s="211"/>
-      <c r="AT28" s="211"/>
-      <c r="AU28" s="211"/>
-      <c r="AV28" s="211"/>
-      <c r="AW28" s="211"/>
-      <c r="AX28" s="211"/>
-      <c r="AY28" s="211"/>
-      <c r="AZ28" s="211"/>
-      <c r="BA28" s="211"/>
-      <c r="BB28" s="211"/>
-      <c r="BC28" s="211"/>
-      <c r="BD28" s="211"/>
-      <c r="BE28" s="211"/>
-      <c r="BF28" s="211"/>
-      <c r="BG28" s="211"/>
-      <c r="BH28" s="211"/>
-      <c r="BI28" s="211"/>
-      <c r="BJ28" s="211"/>
-      <c r="BK28" s="211"/>
-      <c r="BL28" s="211"/>
-      <c r="BM28" s="211"/>
-      <c r="BN28" s="211"/>
-      <c r="BO28" s="211"/>
-      <c r="BP28" s="211"/>
-      <c r="BQ28" s="211"/>
-      <c r="BR28" s="211"/>
-      <c r="BS28" s="211"/>
-      <c r="BT28" s="211"/>
-      <c r="BU28" s="211"/>
-      <c r="BV28" s="211"/>
-      <c r="BW28" s="211"/>
-      <c r="BX28" s="211"/>
-      <c r="BY28" s="211"/>
-      <c r="BZ28" s="211"/>
-      <c r="CA28" s="211"/>
-      <c r="CB28" s="211"/>
-      <c r="CC28" s="211"/>
-      <c r="CD28" s="211"/>
-      <c r="CE28" s="211"/>
-      <c r="CF28" s="211"/>
-      <c r="CG28" s="211"/>
-      <c r="CH28" s="211"/>
-      <c r="CI28" s="211"/>
-      <c r="CJ28" s="211"/>
-      <c r="CK28" s="211"/>
-      <c r="CL28" s="211"/>
-      <c r="CM28" s="211"/>
-      <c r="CN28" s="211"/>
-      <c r="CO28" s="211"/>
-      <c r="CP28" s="211"/>
-      <c r="CQ28" s="211"/>
-      <c r="CR28" s="211"/>
-      <c r="CS28" s="211"/>
-      <c r="CT28" s="211"/>
-      <c r="CU28" s="211"/>
-      <c r="CV28" s="211"/>
-      <c r="CW28" s="211"/>
-      <c r="CX28" s="211"/>
-      <c r="CY28" s="211"/>
-      <c r="CZ28" s="211"/>
-      <c r="DA28" s="211"/>
-      <c r="DB28" s="211"/>
-      <c r="DC28" s="211"/>
-      <c r="DD28" s="211"/>
-      <c r="DE28" s="211"/>
-      <c r="DF28" s="211"/>
-      <c r="DG28" s="211"/>
-      <c r="DH28" s="211"/>
-      <c r="DI28" s="211"/>
-      <c r="DJ28" s="211"/>
-      <c r="DK28" s="211"/>
-      <c r="DL28" s="211"/>
-      <c r="DM28" s="211"/>
-      <c r="DN28" s="211"/>
-      <c r="DO28" s="211"/>
-      <c r="DP28" s="211"/>
-      <c r="DQ28" s="211"/>
-      <c r="DR28" s="211"/>
-      <c r="DS28" s="211"/>
-      <c r="DT28" s="211"/>
-      <c r="DU28" s="211"/>
-      <c r="DV28" s="211"/>
-      <c r="DW28" s="211"/>
-      <c r="DX28" s="211"/>
-      <c r="DY28" s="211"/>
-      <c r="DZ28" s="211"/>
-      <c r="EA28" s="211"/>
-      <c r="EB28" s="211"/>
-      <c r="EC28" s="211"/>
-      <c r="ED28" s="211"/>
-      <c r="EE28" s="211"/>
-      <c r="EF28" s="211"/>
-      <c r="EG28" s="211"/>
-      <c r="EH28" s="211"/>
-      <c r="EI28" s="211"/>
-      <c r="EJ28" s="211"/>
-      <c r="EK28" s="211"/>
-      <c r="EL28" s="211"/>
-      <c r="EM28" s="211"/>
-      <c r="EN28" s="211"/>
-      <c r="EO28" s="211"/>
-      <c r="EP28" s="211"/>
-      <c r="EQ28" s="211"/>
-      <c r="ER28" s="211"/>
-      <c r="ES28" s="211"/>
-      <c r="ET28" s="211"/>
-      <c r="EU28" s="211"/>
-      <c r="EV28" s="211"/>
-      <c r="EW28" s="211"/>
-      <c r="EX28" s="211"/>
-      <c r="EY28" s="211"/>
-      <c r="EZ28" s="211"/>
-      <c r="FA28" s="211"/>
-      <c r="FB28" s="211"/>
-      <c r="FC28" s="211"/>
-      <c r="FD28" s="211"/>
-      <c r="FE28" s="211"/>
-      <c r="FF28" s="211"/>
-      <c r="FG28" s="211"/>
-      <c r="FH28" s="211"/>
-      <c r="FI28" s="211"/>
-      <c r="FJ28" s="211"/>
-      <c r="FK28" s="211"/>
-      <c r="FL28" s="211"/>
-      <c r="FM28" s="211"/>
-      <c r="FN28" s="211"/>
-      <c r="FO28" s="211"/>
-      <c r="FP28" s="211"/>
-      <c r="FQ28" s="211"/>
-      <c r="FR28" s="211"/>
-      <c r="FS28" s="211"/>
-      <c r="FT28" s="211"/>
-      <c r="FU28" s="211"/>
-      <c r="FV28" s="211"/>
-      <c r="FW28" s="211"/>
-      <c r="FX28" s="211"/>
-      <c r="FY28" s="211"/>
-      <c r="FZ28" s="211"/>
-      <c r="GA28" s="211"/>
-      <c r="GB28" s="211"/>
-      <c r="GC28" s="211"/>
-      <c r="GD28" s="211"/>
-      <c r="GE28" s="211"/>
-      <c r="GF28" s="211"/>
-      <c r="GG28" s="211"/>
-      <c r="GH28" s="211"/>
-      <c r="GI28" s="211"/>
-      <c r="GJ28" s="211"/>
-      <c r="GK28" s="211"/>
-      <c r="GL28" s="211"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="192"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="192"/>
+      <c r="M28" s="192"/>
+      <c r="N28" s="192"/>
+      <c r="O28" s="192"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="192"/>
+      <c r="R28" s="192"/>
+      <c r="S28" s="190"/>
+      <c r="T28" s="190"/>
+      <c r="U28" s="190"/>
+      <c r="V28" s="190"/>
+      <c r="W28" s="190"/>
+      <c r="X28" s="190"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="190"/>
+      <c r="AB28" s="190"/>
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="190"/>
+      <c r="AE28" s="190"/>
+      <c r="AF28" s="190"/>
+      <c r="AG28" s="190"/>
+      <c r="AH28" s="190"/>
+      <c r="AI28" s="190"/>
+      <c r="AJ28" s="190"/>
+      <c r="AK28" s="190"/>
+      <c r="AL28" s="190"/>
+      <c r="AM28" s="190"/>
+      <c r="AN28" s="190"/>
+      <c r="AO28" s="190"/>
+      <c r="AP28" s="190"/>
+      <c r="AQ28" s="190"/>
+      <c r="AR28" s="190"/>
+      <c r="AS28" s="190"/>
+      <c r="AT28" s="190"/>
+      <c r="AU28" s="190"/>
+      <c r="AV28" s="190"/>
+      <c r="AW28" s="190"/>
+      <c r="AX28" s="190"/>
+      <c r="AY28" s="190"/>
+      <c r="AZ28" s="190"/>
+      <c r="BA28" s="190"/>
+      <c r="BB28" s="190"/>
+      <c r="BC28" s="190"/>
+      <c r="BD28" s="190"/>
+      <c r="BE28" s="190"/>
+      <c r="BF28" s="190"/>
+      <c r="BG28" s="190"/>
+      <c r="BH28" s="190"/>
+      <c r="BI28" s="190"/>
+      <c r="BJ28" s="190"/>
+      <c r="BK28" s="190"/>
+      <c r="BL28" s="190"/>
+      <c r="BM28" s="190"/>
+      <c r="BN28" s="190"/>
+      <c r="BO28" s="190"/>
+      <c r="BP28" s="190"/>
+      <c r="BQ28" s="190"/>
+      <c r="BR28" s="190"/>
+      <c r="BS28" s="190"/>
+      <c r="BT28" s="190"/>
+      <c r="BU28" s="190"/>
+      <c r="BV28" s="190"/>
+      <c r="BW28" s="190"/>
+      <c r="BX28" s="190"/>
+      <c r="BY28" s="190"/>
+      <c r="BZ28" s="190"/>
+      <c r="CA28" s="190"/>
+      <c r="CB28" s="190"/>
+      <c r="CC28" s="190"/>
+      <c r="CD28" s="190"/>
+      <c r="CE28" s="190"/>
+      <c r="CF28" s="190"/>
+      <c r="CG28" s="190"/>
+      <c r="CH28" s="190"/>
+      <c r="CI28" s="190"/>
+      <c r="CJ28" s="190"/>
+      <c r="CK28" s="190"/>
+      <c r="CL28" s="190"/>
+      <c r="CM28" s="190"/>
+      <c r="CN28" s="190"/>
+      <c r="CO28" s="190"/>
+      <c r="CP28" s="190"/>
+      <c r="CQ28" s="190"/>
+      <c r="CR28" s="190"/>
+      <c r="CS28" s="190"/>
+      <c r="CT28" s="190"/>
+      <c r="CU28" s="190"/>
+      <c r="CV28" s="190"/>
+      <c r="CW28" s="190"/>
+      <c r="CX28" s="190"/>
+      <c r="CY28" s="190"/>
+      <c r="CZ28" s="190"/>
+      <c r="DA28" s="190"/>
+      <c r="DB28" s="190"/>
+      <c r="DC28" s="190"/>
+      <c r="DD28" s="190"/>
+      <c r="DE28" s="190"/>
+      <c r="DF28" s="190"/>
+      <c r="DG28" s="190"/>
+      <c r="DH28" s="190"/>
+      <c r="DI28" s="190"/>
+      <c r="DJ28" s="190"/>
+      <c r="DK28" s="190"/>
+      <c r="DL28" s="190"/>
+      <c r="DM28" s="190"/>
+      <c r="DN28" s="190"/>
+      <c r="DO28" s="190"/>
+      <c r="DP28" s="190"/>
+      <c r="DQ28" s="190"/>
+      <c r="DR28" s="190"/>
+      <c r="DS28" s="190"/>
+      <c r="DT28" s="190"/>
+      <c r="DU28" s="190"/>
+      <c r="DV28" s="190"/>
+      <c r="DW28" s="190"/>
+      <c r="DX28" s="190"/>
+      <c r="DY28" s="190"/>
+      <c r="DZ28" s="190"/>
+      <c r="EA28" s="190"/>
+      <c r="EB28" s="190"/>
+      <c r="EC28" s="190"/>
+      <c r="ED28" s="190"/>
+      <c r="EE28" s="190"/>
+      <c r="EF28" s="190"/>
+      <c r="EG28" s="190"/>
+      <c r="EH28" s="190"/>
+      <c r="EI28" s="190"/>
+      <c r="EJ28" s="190"/>
+      <c r="EK28" s="190"/>
+      <c r="EL28" s="190"/>
+      <c r="EM28" s="190"/>
+      <c r="EN28" s="190"/>
+      <c r="EO28" s="190"/>
+      <c r="EP28" s="190"/>
+      <c r="EQ28" s="190"/>
+      <c r="ER28" s="190"/>
+      <c r="ES28" s="190"/>
+      <c r="ET28" s="190"/>
+      <c r="EU28" s="190"/>
+      <c r="EV28" s="190"/>
+      <c r="EW28" s="190"/>
+      <c r="EX28" s="190"/>
+      <c r="EY28" s="190"/>
+      <c r="EZ28" s="190"/>
+      <c r="FA28" s="190"/>
+      <c r="FB28" s="190"/>
+      <c r="FC28" s="190"/>
+      <c r="FD28" s="190"/>
+      <c r="FE28" s="190"/>
+      <c r="FF28" s="190"/>
+      <c r="FG28" s="190"/>
+      <c r="FH28" s="190"/>
+      <c r="FI28" s="190"/>
+      <c r="FJ28" s="190"/>
+      <c r="FK28" s="190"/>
+      <c r="FL28" s="190"/>
+      <c r="FM28" s="190"/>
+      <c r="FN28" s="190"/>
+      <c r="FO28" s="190"/>
+      <c r="FP28" s="190"/>
+      <c r="FQ28" s="190"/>
+      <c r="FR28" s="190"/>
+      <c r="FS28" s="190"/>
+      <c r="FT28" s="190"/>
+      <c r="FU28" s="190"/>
+      <c r="FV28" s="190"/>
+      <c r="FW28" s="190"/>
+      <c r="FX28" s="190"/>
+      <c r="FY28" s="190"/>
+      <c r="FZ28" s="190"/>
+      <c r="GA28" s="190"/>
+      <c r="GB28" s="190"/>
+      <c r="GC28" s="190"/>
+      <c r="GD28" s="190"/>
+      <c r="GE28" s="190"/>
+      <c r="GF28" s="190"/>
+      <c r="GG28" s="190"/>
+      <c r="GH28" s="190"/>
+      <c r="GI28" s="190"/>
+      <c r="GJ28" s="190"/>
+      <c r="GK28" s="190"/>
+      <c r="GL28" s="190"/>
       <c r="GM28" s="96"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="210"/>
-      <c r="L29" s="210"/>
-      <c r="M29" s="210"/>
-      <c r="N29" s="210"/>
-      <c r="O29" s="210"/>
-      <c r="P29" s="210"/>
-      <c r="Q29" s="210"/>
-      <c r="R29" s="210"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="191"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="213"/>
-      <c r="B30" s="213"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="189"/>
       <c r="K30" s="97"/>
       <c r="L30" s="97"/>
       <c r="M30" s="97"/>
@@ -14351,16 +14282,16 @@
       <c r="R30" s="97"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="213"/>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="189"/>
       <c r="K31" s="97"/>
       <c r="L31" s="97"/>
       <c r="M31" s="97"/>
@@ -14372,28 +14303,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -14407,6 +14316,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -14433,14 +14364,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="301" t="s">
+      <c r="B1" s="290" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -14633,11 +14564,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="302" t="s">
+      <c r="E27" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="303"/>
-      <c r="G27" s="304"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="293"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -14961,10 +14892,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
+      <c r="B1" s="220"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14991,8 +14922,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="214"/>
-      <c r="B2" s="214"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="220"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15031,14 +14962,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="215" t="s">
+      <c r="E4" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="103">
@@ -15053,14 +14984,14 @@
       <c r="D5" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="216" t="s">
+      <c r="E5" s="222" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="71">
@@ -15075,14 +15006,14 @@
       <c r="D6" s="143">
         <v>42877</v>
       </c>
-      <c r="E6" s="217" t="s">
+      <c r="E6" s="223" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="219"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="225"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="72">
@@ -15097,14 +15028,14 @@
       <c r="D7" s="151">
         <v>42881</v>
       </c>
-      <c r="E7" s="221" t="s">
+      <c r="E7" s="215" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="223"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="217"/>
     </row>
     <row r="8" spans="1:10" ht="30.75" customHeight="1">
       <c r="A8" s="73">
@@ -15119,14 +15050,14 @@
       <c r="D8" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="224" t="s">
+      <c r="E8" s="218" t="s">
         <v>346</v>
       </c>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="225"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="74">
@@ -15137,12 +15068,12 @@
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="228"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="214"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="75">
@@ -15153,12 +15084,12 @@
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="228"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="214"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="76">
@@ -15169,12 +15100,12 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="228"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="214"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="77">
@@ -15185,12 +15116,12 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="228"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="214"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="78">
@@ -15201,12 +15132,12 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="227"/>
-      <c r="J13" s="228"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="214"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="79">
@@ -15217,12 +15148,12 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="228"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="214"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -15233,12 +15164,12 @@
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="71">
@@ -15249,12 +15180,12 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="220"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="72">
@@ -15265,12 +15196,12 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="220"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="211"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="73">
@@ -15281,12 +15212,12 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="211"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="74">
@@ -15297,12 +15228,12 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="220"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="211"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="75">
@@ -15313,12 +15244,12 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="220"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="220"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="211"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="76">
@@ -15329,12 +15260,12 @@
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="220"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="211"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="77">
@@ -15345,12 +15276,12 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="211"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="78">
@@ -15361,12 +15292,12 @@
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="220"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="220"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="79">
@@ -15377,12 +15308,12 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="220"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -15393,12 +15324,12 @@
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="220"/>
-      <c r="I25" s="220"/>
-      <c r="J25" s="220"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="71">
@@ -15409,12 +15340,12 @@
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="220"/>
-      <c r="J26" s="220"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="72">
@@ -15425,12 +15356,12 @@
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="220"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="211"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="73">
@@ -15441,12 +15372,12 @@
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="220"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="211"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="211"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="74">
@@ -15457,12 +15388,12 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="220"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="211"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="75">
@@ -15473,12 +15404,12 @@
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="211"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="76">
@@ -15489,12 +15420,12 @@
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="211"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="77">
@@ -15505,12 +15436,12 @@
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="211"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="78">
@@ -15521,12 +15452,12 @@
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="211"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="79">
@@ -15537,20 +15468,26 @@
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="220"/>
-      <c r="F34" s="220"/>
-      <c r="G34" s="220"/>
-      <c r="H34" s="220"/>
-      <c r="I34" s="220"/>
-      <c r="J34" s="220"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="211"/>
+      <c r="J34" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -15567,17 +15504,11 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -15602,8 +15533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -15622,10 +15553,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
+      <c r="B1" s="220"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15656,8 +15587,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="214"/>
-      <c r="B2" s="214"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="220"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15688,20 +15619,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="231"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
-      <c r="G4" s="231"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="229" t="s">
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="230"/>
+      <c r="J4" s="227"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -15712,10 +15643,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="236" t="s">
+      <c r="I5" s="233" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="237"/>
+      <c r="J5" s="234"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -15726,8 +15657,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="239"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="236"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -15738,8 +15669,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="236"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -15750,8 +15681,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="236"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -15762,8 +15693,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="236"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -15774,8 +15705,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="241"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="238"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -15786,10 +15717,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="229" t="s">
+      <c r="I11" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="230"/>
+      <c r="J11" s="227"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -15800,10 +15731,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="232" t="s">
+      <c r="I12" s="229" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="233"/>
+      <c r="J12" s="230"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -15814,8 +15745,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="234"/>
-      <c r="J13" s="235"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="232"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -15826,8 +15757,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="235"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="232"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -15838,8 +15769,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="235"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="232"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -15850,8 +15781,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="235"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="232"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -15862,8 +15793,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="234"/>
-      <c r="J17" s="235"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="232"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -15874,8 +15805,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="235"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="232"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -15886,8 +15817,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="235"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="232"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -15898,8 +15829,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="235"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="232"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -15910,8 +15841,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="235"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="232"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -15922,8 +15853,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="235"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="232"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -15934,8 +15865,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="235"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="232"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -15946,8 +15877,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="234"/>
-      <c r="J24" s="235"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="232"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -15958,8 +15889,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="234"/>
-      <c r="J25" s="235"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="232"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -15970,8 +15901,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="235"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="232"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -15982,8 +15913,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="234"/>
-      <c r="J27" s="235"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="232"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -15994,8 +15925,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="234"/>
-      <c r="J28" s="235"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="232"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -16006,8 +15937,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="235"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="232"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -16018,8 +15949,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="234"/>
-      <c r="J30" s="235"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="232"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -16030,8 +15961,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="234"/>
-      <c r="J31" s="235"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="232"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -16042,8 +15973,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="234"/>
-      <c r="J32" s="235"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="232"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -16054,8 +15985,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="234"/>
-      <c r="J33" s="235"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="232"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -16066,8 +15997,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="235"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="232"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -16078,8 +16009,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="234"/>
-      <c r="J35" s="235"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="232"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -16090,8 +16021,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="234"/>
-      <c r="J36" s="235"/>
+      <c r="I36" s="231"/>
+      <c r="J36" s="232"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -16102,8 +16033,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="234"/>
-      <c r="J37" s="235"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="232"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -16114,8 +16045,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="234"/>
-      <c r="J38" s="235"/>
+      <c r="I38" s="231"/>
+      <c r="J38" s="232"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -16126,8 +16057,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="234"/>
-      <c r="J39" s="235"/>
+      <c r="I39" s="231"/>
+      <c r="J39" s="232"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -16138,8 +16069,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="234"/>
-      <c r="J40" s="235"/>
+      <c r="I40" s="231"/>
+      <c r="J40" s="232"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -16150,8 +16081,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="234"/>
-      <c r="J41" s="235"/>
+      <c r="I41" s="231"/>
+      <c r="J41" s="232"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -16162,8 +16093,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="234"/>
-      <c r="J42" s="235"/>
+      <c r="I42" s="231"/>
+      <c r="J42" s="232"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -16174,8 +16105,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="234"/>
-      <c r="J43" s="235"/>
+      <c r="I43" s="231"/>
+      <c r="J43" s="232"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -16186,8 +16117,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="234"/>
-      <c r="J44" s="235"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="232"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -16198,8 +16129,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="234"/>
-      <c r="J45" s="235"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="232"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -16210,8 +16141,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="234"/>
-      <c r="J46" s="235"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="232"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16236,13 +16167,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28:L28"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -16266,12 +16197,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -16279,16 +16210,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="249" t="s">
+      <c r="G1" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="251" t="str">
+      <c r="H1" s="244"/>
+      <c r="I1" s="245" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="J1" s="252"/>
-      <c r="K1" s="253"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="247"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -16305,10 +16236,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="214"/>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -16316,16 +16247,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="250"/>
-      <c r="I2" s="251" t="str">
+      <c r="H2" s="244"/>
+      <c r="I2" s="245" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="J2" s="252"/>
-      <c r="K2" s="253"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="247"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -16459,7 +16390,7 @@
       <c r="B7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="254">
+      <c r="C7" s="248">
         <v>5</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -16498,7 +16429,7 @@
       <c r="B8" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="255"/>
+      <c r="C8" s="249"/>
       <c r="D8" s="129" t="s">
         <v>237</v>
       </c>
@@ -16525,7 +16456,7 @@
       <c r="B9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="256"/>
+      <c r="C9" s="250"/>
       <c r="D9" s="136" t="s">
         <v>238</v>
       </c>
@@ -16552,8 +16483,8 @@
       <c r="B10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="257">
-        <v>8</v>
+      <c r="C10" s="251">
+        <v>7</v>
       </c>
       <c r="D10" s="118" t="s">
         <v>157</v>
@@ -16591,7 +16522,7 @@
       <c r="B11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="258"/>
+      <c r="C11" s="252"/>
       <c r="D11" s="118" t="s">
         <v>248</v>
       </c>
@@ -16617,7 +16548,7 @@
       <c r="B12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="259"/>
+      <c r="C12" s="253"/>
       <c r="D12" s="118" t="s">
         <v>249</v>
       </c>
@@ -16645,7 +16576,7 @@
         <v>155</v>
       </c>
       <c r="C13" s="135">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="140" t="s">
         <v>235</v>
@@ -16680,7 +16611,7 @@
         <v>155</v>
       </c>
       <c r="C14" s="131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="140" t="s">
         <v>236</v>
@@ -16712,7 +16643,7 @@
         <v>317</v>
       </c>
       <c r="C15" s="179">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="160" t="s">
         <v>320</v>
@@ -16747,7 +16678,7 @@
         <v>155</v>
       </c>
       <c r="C16" s="135">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="118" t="s">
         <v>245</v>
@@ -16782,7 +16713,7 @@
         <v>155</v>
       </c>
       <c r="C17" s="131">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="131" t="s">
         <v>253</v>
@@ -16820,8 +16751,8 @@
       <c r="B18" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="257">
-        <v>19</v>
+      <c r="C18" s="251">
+        <v>18</v>
       </c>
       <c r="D18" s="118" t="s">
         <v>250</v>
@@ -16838,7 +16769,7 @@
       <c r="L18" s="115"/>
       <c r="M18" s="115"/>
       <c r="N18" s="115"/>
-      <c r="O18" s="260" t="s">
+      <c r="O18" s="254" t="s">
         <v>260</v>
       </c>
     </row>
@@ -16849,7 +16780,7 @@
       <c r="B19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="258"/>
+      <c r="C19" s="252"/>
       <c r="D19" s="118" t="s">
         <v>251</v>
       </c>
@@ -16867,7 +16798,7 @@
       <c r="L19" s="133"/>
       <c r="M19" s="133"/>
       <c r="N19" s="133"/>
-      <c r="O19" s="261"/>
+      <c r="O19" s="255"/>
     </row>
     <row r="20" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A20" s="102">
@@ -16876,7 +16807,7 @@
       <c r="B20" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="259"/>
+      <c r="C20" s="253"/>
       <c r="D20" s="137" t="s">
         <v>252</v>
       </c>
@@ -16896,7 +16827,7 @@
       <c r="N20" s="105">
         <v>0</v>
       </c>
-      <c r="O20" s="262"/>
+      <c r="O20" s="256"/>
     </row>
     <row r="21" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A21" s="102">
@@ -16906,7 +16837,7 @@
         <v>155</v>
       </c>
       <c r="C21" s="131">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>158</v>
@@ -16927,7 +16858,7 @@
       <c r="N21" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="O21" s="245" t="s">
+      <c r="O21" s="239" t="s">
         <v>194</v>
       </c>
     </row>
@@ -16939,7 +16870,7 @@
         <v>155</v>
       </c>
       <c r="C22" s="131">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="54" t="s">
         <v>159</v>
@@ -16960,7 +16891,7 @@
       <c r="N22" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O22" s="247"/>
+      <c r="O22" s="241"/>
     </row>
     <row r="23" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A23" s="102">
@@ -16970,7 +16901,7 @@
         <v>155</v>
       </c>
       <c r="C23" s="131">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>160</v>
@@ -16991,7 +16922,7 @@
       <c r="N23" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O23" s="248"/>
+      <c r="O23" s="242"/>
     </row>
     <row r="24" spans="1:15" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="102">
@@ -17001,7 +16932,7 @@
         <v>155</v>
       </c>
       <c r="C24" s="131">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="54" t="s">
         <v>161</v>
@@ -17022,7 +16953,7 @@
       <c r="N24" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O24" s="245" t="s">
+      <c r="O24" s="239" t="s">
         <v>195</v>
       </c>
     </row>
@@ -17034,7 +16965,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="131">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>160</v>
@@ -17055,7 +16986,7 @@
       <c r="N25" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O25" s="246"/>
+      <c r="O25" s="240"/>
     </row>
     <row r="26" spans="1:15" s="153" customFormat="1" ht="11.25">
       <c r="A26" s="153">
@@ -17132,7 +17063,7 @@
         <v>317</v>
       </c>
       <c r="C28" s="161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="154" t="s">
         <v>318</v>
@@ -17169,7 +17100,7 @@
         <v>317</v>
       </c>
       <c r="C29" s="166">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="160" t="s">
         <v>321</v>
@@ -17204,7 +17135,7 @@
         <v>317</v>
       </c>
       <c r="C30" s="166">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="160" t="s">
         <v>323</v>
@@ -17239,7 +17170,7 @@
         <v>317</v>
       </c>
       <c r="C31" s="166">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="160" t="s">
         <v>325</v>
@@ -17274,7 +17205,7 @@
         <v>317</v>
       </c>
       <c r="C32" s="166">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="160" t="s">
         <v>327</v>
@@ -17309,7 +17240,7 @@
         <v>317</v>
       </c>
       <c r="C33" s="166">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="160" t="s">
         <v>329</v>
@@ -17336,102 +17267,8 @@
       <c r="N33" s="162"/>
       <c r="O33" s="162"/>
     </row>
-    <row r="34" spans="1:15" s="183" customFormat="1" ht="22.5">
-      <c r="A34" s="153">
-        <v>5</v>
-      </c>
-      <c r="B34" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C34" s="242">
-        <v>6</v>
-      </c>
-      <c r="D34" s="185" t="s">
-        <v>347</v>
-      </c>
-      <c r="E34" s="162" t="s">
-        <v>348</v>
-      </c>
-      <c r="F34" s="162" t="s">
-        <v>348</v>
-      </c>
-      <c r="G34" s="162" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="162" t="s">
-        <v>166</v>
-      </c>
-      <c r="I34" s="163">
-        <v>250</v>
-      </c>
-      <c r="J34" s="163"/>
-      <c r="K34" s="157" t="s">
-        <v>147</v>
-      </c>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="155" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="183" customFormat="1" ht="11.25">
-      <c r="A35" s="153">
-        <v>6</v>
-      </c>
-      <c r="B35" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C35" s="243"/>
-      <c r="D35" s="154" t="s">
-        <v>349</v>
-      </c>
-      <c r="E35" s="155" t="s">
-        <v>351</v>
-      </c>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155" t="s">
-        <v>164</v>
-      </c>
-      <c r="H35" s="155"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="157"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="158"/>
-    </row>
-    <row r="36" spans="1:15" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="153">
-        <v>7</v>
-      </c>
-      <c r="B36" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C36" s="244"/>
-      <c r="D36" s="154" t="s">
-        <v>350</v>
-      </c>
-      <c r="E36" s="155" t="s">
-        <v>352</v>
-      </c>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="155"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="158"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C34:C36"/>
+  <mergeCells count="11">
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O21:O23"/>
     <mergeCell ref="A1:D2"/>
@@ -17445,13 +17282,13 @@
     <mergeCell ref="O18:O20"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G5:G9 G21:G26 G28 G34:G36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G5:G9 G21:G26 G28">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H36 H5:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H33 H5:H13">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K36 K5:K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K33 K5:K10">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G12 G15:G20 G29:G33">
@@ -17610,7 +17447,7 @@
       </c>
       <c r="E5" s="103"/>
       <c r="F5" s="104"/>
-      <c r="G5" s="263" t="s">
+      <c r="G5" s="257" t="s">
         <v>214</v>
       </c>
       <c r="H5" s="134" t="s">
@@ -17634,7 +17471,7 @@
       </c>
       <c r="E6" s="169"/>
       <c r="F6" s="177"/>
-      <c r="G6" s="264"/>
+      <c r="G6" s="258"/>
       <c r="H6" s="176" t="s">
         <v>215</v>
       </c>
@@ -17656,7 +17493,7 @@
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="264"/>
+      <c r="G7" s="258"/>
       <c r="H7" s="134" t="s">
         <v>215</v>
       </c>
@@ -17678,7 +17515,7 @@
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="264"/>
+      <c r="G8" s="258"/>
       <c r="H8" s="139" t="s">
         <v>215</v>
       </c>
@@ -17700,7 +17537,7 @@
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="264"/>
+      <c r="G9" s="258"/>
       <c r="H9" s="134" t="s">
         <v>215</v>
       </c>
@@ -17722,7 +17559,7 @@
       </c>
       <c r="E10" s="170"/>
       <c r="F10" s="163"/>
-      <c r="G10" s="264"/>
+      <c r="G10" s="258"/>
       <c r="H10" s="155" t="s">
         <v>215</v>
       </c>
@@ -17744,7 +17581,7 @@
       </c>
       <c r="E11" s="170"/>
       <c r="F11" s="163"/>
-      <c r="G11" s="265"/>
+      <c r="G11" s="259"/>
       <c r="H11" s="155" t="s">
         <v>215</v>
       </c>
@@ -17877,10 +17714,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -17904,7 +17741,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="262" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="100"/>
@@ -17940,7 +17777,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="277"/>
+      <c r="A2" s="263"/>
       <c r="B2" s="101"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -17989,15 +17826,15 @@
       <c r="E4" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="214" t="s">
+      <c r="F4" s="220" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214" t="s">
+      <c r="G4" s="220"/>
+      <c r="H4" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A5" s="32">
@@ -18013,15 +17850,15 @@
       <c r="E5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="266" t="s">
+      <c r="F5" s="260" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="267"/>
-      <c r="H5" s="268" t="s">
+      <c r="G5" s="261"/>
+      <c r="H5" s="264" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="269"/>
-      <c r="J5" s="270"/>
+      <c r="I5" s="265"/>
+      <c r="J5" s="266"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="32">
@@ -18037,15 +17874,15 @@
       <c r="E6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="266" t="s">
+      <c r="F6" s="260" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="267"/>
-      <c r="H6" s="268" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="264" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="269"/>
-      <c r="J6" s="270"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="266"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="32">
@@ -18061,143 +17898,131 @@
       <c r="E7" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="266" t="s">
+      <c r="F7" s="260" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="267"/>
-      <c r="H7" s="268" t="s">
+      <c r="G7" s="261"/>
+      <c r="H7" s="264" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="269"/>
-      <c r="J7" s="270"/>
-    </row>
-    <row r="8" spans="1:12" s="167" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A8" s="165">
+      <c r="I7" s="265"/>
+      <c r="J7" s="266"/>
+    </row>
+    <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="A8" s="32">
         <v>4</v>
       </c>
-      <c r="B8" s="165" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="165" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" s="190" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="191" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="271" t="s">
-        <v>362</v>
-      </c>
-      <c r="G8" s="272"/>
-      <c r="H8" s="273" t="s">
-        <v>354</v>
-      </c>
-      <c r="I8" s="274"/>
-      <c r="J8" s="275"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="266"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="268"/>
-      <c r="I9" s="269"/>
-      <c r="J9" s="270"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="266"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="266"/>
-      <c r="G10" s="267"/>
-      <c r="H10" s="268"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="270"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="261"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="265"/>
+      <c r="J10" s="266"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="267"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="269"/>
-      <c r="J11" s="270"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="265"/>
+      <c r="J11" s="266"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="269"/>
-      <c r="J12" s="270"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="261"/>
+      <c r="H12" s="264"/>
+      <c r="I12" s="265"/>
+      <c r="J12" s="266"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="267"/>
-      <c r="H13" s="268"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="270"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="261"/>
+      <c r="H13" s="264"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="266"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="267"/>
-      <c r="H14" s="268"/>
-      <c r="I14" s="269"/>
-      <c r="J14" s="270"/>
-    </row>
-    <row r="15" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="32">
-        <v>10</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="270"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="261"/>
+      <c r="H14" s="264"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="266"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="25">
+  <mergeCells count="23">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
@@ -18207,25 +18032,9 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
       <formula1>"Text,Number,Boolean,Datatime,Object,Structure"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18240,8 +18049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048244"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -18267,20 +18076,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="278" t="str">
+      <c r="F1" s="273" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="278"/>
+      <c r="G1" s="273"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -18298,28 +18107,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="294" t="str">
+      <c r="M1" s="267" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="295"/>
-      <c r="O1" s="296"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="269"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="214"/>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="278" t="str">
+      <c r="F2" s="273" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="278"/>
+      <c r="G2" s="273"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -18337,12 +18146,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="294" t="str">
+      <c r="M2" s="267" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
-      <c r="N2" s="295"/>
-      <c r="O2" s="296"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="269"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
@@ -18365,12 +18174,12 @@
       <c r="F4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="229" t="s">
+      <c r="G4" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="230"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="227"/>
       <c r="K4" s="36" t="s">
         <v>56</v>
       </c>
@@ -18406,12 +18215,12 @@
       <c r="F5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="288" t="s">
+      <c r="G5" s="280" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="289"/>
-      <c r="I5" s="289"/>
-      <c r="J5" s="290"/>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="282"/>
       <c r="K5" s="122" t="s">
         <v>205</v>
       </c>
@@ -18449,12 +18258,12 @@
       <c r="F6" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="285" t="s">
-        <v>365</v>
-      </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="287"/>
+      <c r="G6" s="277" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="279"/>
       <c r="K6" s="180" t="s">
         <v>286</v>
       </c>
@@ -18490,12 +18299,12 @@
       <c r="F7" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="279" t="s">
+      <c r="G7" s="270" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="280"/>
-      <c r="I7" s="280"/>
-      <c r="J7" s="281"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
       <c r="K7" s="124" t="s">
         <v>270</v>
       </c>
@@ -18529,12 +18338,12 @@
       <c r="F8" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="279" t="s">
+      <c r="G8" s="270" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="280"/>
-      <c r="I8" s="280"/>
-      <c r="J8" s="281"/>
+      <c r="H8" s="271"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="272"/>
       <c r="K8" s="124" t="s">
         <v>270</v>
       </c>
@@ -18568,17 +18377,17 @@
       <c r="F9" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="285" t="s">
-        <v>358</v>
-      </c>
-      <c r="H9" s="286"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="287"/>
+      <c r="G9" s="277" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" s="278"/>
+      <c r="I9" s="278"/>
+      <c r="J9" s="279"/>
       <c r="K9" s="181" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L9" s="181" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M9" s="67"/>
       <c r="N9" s="112"/>
@@ -18605,12 +18414,12 @@
       <c r="F10" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="279" t="s">
+      <c r="G10" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="280"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="281"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="272"/>
       <c r="K10" s="124" t="s">
         <v>286</v>
       </c>
@@ -18646,12 +18455,12 @@
       <c r="F11" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="279" t="s">
+      <c r="G11" s="270" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="280"/>
-      <c r="I11" s="280"/>
-      <c r="J11" s="281"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="272"/>
       <c r="K11" s="124" t="s">
         <v>270</v>
       </c>
@@ -18685,12 +18494,12 @@
       <c r="F12" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="279" t="s">
+      <c r="G12" s="270" t="s">
         <v>302</v>
       </c>
-      <c r="H12" s="280"/>
-      <c r="I12" s="280"/>
-      <c r="J12" s="281"/>
+      <c r="H12" s="271"/>
+      <c r="I12" s="271"/>
+      <c r="J12" s="272"/>
       <c r="K12" s="113" t="s">
         <v>303</v>
       </c>
@@ -18722,12 +18531,12 @@
       <c r="F13" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="279" t="s">
+      <c r="G13" s="270" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="280"/>
-      <c r="I13" s="280"/>
-      <c r="J13" s="281"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="272"/>
       <c r="K13" s="124" t="s">
         <v>273</v>
       </c>
@@ -18761,12 +18570,12 @@
       <c r="F14" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="279" t="s">
+      <c r="G14" s="270" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="280"/>
-      <c r="I14" s="280"/>
-      <c r="J14" s="281"/>
+      <c r="H14" s="271"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="272"/>
       <c r="K14" s="113" t="s">
         <v>275</v>
       </c>
@@ -18798,17 +18607,17 @@
       <c r="F15" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="282" t="s">
+      <c r="G15" s="274" t="s">
+        <v>354</v>
+      </c>
+      <c r="H15" s="275"/>
+      <c r="I15" s="275"/>
+      <c r="J15" s="276"/>
+      <c r="K15" s="181" t="s">
         <v>355</v>
       </c>
-      <c r="H15" s="283"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="181" t="s">
+      <c r="L15" s="181" t="s">
         <v>356</v>
-      </c>
-      <c r="L15" s="181" t="s">
-        <v>357</v>
       </c>
       <c r="M15" s="56"/>
       <c r="N15" s="126"/>
@@ -18835,12 +18644,12 @@
       <c r="F16" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="279" t="s">
+      <c r="G16" s="270" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="280"/>
-      <c r="I16" s="280"/>
-      <c r="J16" s="281"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="272"/>
       <c r="K16" s="124" t="s">
         <v>199</v>
       </c>
@@ -18872,12 +18681,12 @@
       <c r="F17" s="172" t="s">
         <v>330</v>
       </c>
-      <c r="G17" s="291" t="s">
+      <c r="G17" s="283" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="292"/>
-      <c r="I17" s="292"/>
-      <c r="J17" s="293"/>
+      <c r="H17" s="284"/>
+      <c r="I17" s="284"/>
+      <c r="J17" s="285"/>
       <c r="K17" s="158" t="s">
         <v>205</v>
       </c>
@@ -18913,12 +18722,12 @@
       <c r="F18" s="172" t="s">
         <v>331</v>
       </c>
-      <c r="G18" s="291" t="s">
+      <c r="G18" s="283" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292"/>
-      <c r="J18" s="293"/>
+      <c r="H18" s="284"/>
+      <c r="I18" s="284"/>
+      <c r="J18" s="285"/>
       <c r="K18" s="158" t="s">
         <v>205</v>
       </c>
@@ -18954,10 +18763,10 @@
       <c r="F19" s="172" t="s">
         <v>342</v>
       </c>
-      <c r="G19" s="291"/>
-      <c r="H19" s="292"/>
-      <c r="I19" s="292"/>
-      <c r="J19" s="293"/>
+      <c r="G19" s="283"/>
+      <c r="H19" s="284"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="285"/>
       <c r="K19" s="158"/>
       <c r="L19" s="158"/>
       <c r="M19" s="173"/>
@@ -18973,10 +18782,10 @@
       <c r="D20" s="111"/>
       <c r="E20" s="111"/>
       <c r="F20" s="110"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="280"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="281"/>
+      <c r="G20" s="270"/>
+      <c r="H20" s="271"/>
+      <c r="I20" s="271"/>
+      <c r="J20" s="272"/>
       <c r="K20" s="113"/>
       <c r="L20" s="113"/>
       <c r="M20" s="67"/>
@@ -18991,12 +18800,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
@@ -19013,6 +18816,12 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G18:J18"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048244:M1048576 M5 M17:M19"/>
@@ -19058,10 +18867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
+      <c r="B1" s="220"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -19092,8 +18901,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="214"/>
-      <c r="B2" s="214"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="220"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -20578,171 +20387,171 @@
     </row>
     <row r="100" spans="1:16" ht="12" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="297" t="s">
+      <c r="B100" s="286" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="298"/>
-      <c r="D100" s="298"/>
-      <c r="E100" s="298"/>
-      <c r="F100" s="298"/>
-      <c r="G100" s="298"/>
-      <c r="H100" s="298"/>
-      <c r="I100" s="298"/>
-      <c r="J100" s="298"/>
-      <c r="K100" s="298"/>
-      <c r="L100" s="298"/>
-      <c r="M100" s="298"/>
-      <c r="N100" s="298"/>
-      <c r="O100" s="298"/>
-      <c r="P100" s="298"/>
+      <c r="C100" s="287"/>
+      <c r="D100" s="287"/>
+      <c r="E100" s="287"/>
+      <c r="F100" s="287"/>
+      <c r="G100" s="287"/>
+      <c r="H100" s="287"/>
+      <c r="I100" s="287"/>
+      <c r="J100" s="287"/>
+      <c r="K100" s="287"/>
+      <c r="L100" s="287"/>
+      <c r="M100" s="287"/>
+      <c r="N100" s="287"/>
+      <c r="O100" s="287"/>
+      <c r="P100" s="287"/>
     </row>
     <row r="101" spans="1:16" ht="12" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="298"/>
-      <c r="C101" s="298"/>
-      <c r="D101" s="298"/>
-      <c r="E101" s="298"/>
-      <c r="F101" s="298"/>
-      <c r="G101" s="298"/>
-      <c r="H101" s="298"/>
-      <c r="I101" s="298"/>
-      <c r="J101" s="298"/>
-      <c r="K101" s="298"/>
-      <c r="L101" s="298"/>
-      <c r="M101" s="298"/>
-      <c r="N101" s="298"/>
-      <c r="O101" s="298"/>
-      <c r="P101" s="298"/>
+      <c r="B101" s="287"/>
+      <c r="C101" s="287"/>
+      <c r="D101" s="287"/>
+      <c r="E101" s="287"/>
+      <c r="F101" s="287"/>
+      <c r="G101" s="287"/>
+      <c r="H101" s="287"/>
+      <c r="I101" s="287"/>
+      <c r="J101" s="287"/>
+      <c r="K101" s="287"/>
+      <c r="L101" s="287"/>
+      <c r="M101" s="287"/>
+      <c r="N101" s="287"/>
+      <c r="O101" s="287"/>
+      <c r="P101" s="287"/>
     </row>
     <row r="102" spans="1:16" ht="12" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="298"/>
-      <c r="C102" s="298"/>
-      <c r="D102" s="298"/>
-      <c r="E102" s="298"/>
-      <c r="F102" s="298"/>
-      <c r="G102" s="298"/>
-      <c r="H102" s="298"/>
-      <c r="I102" s="298"/>
-      <c r="J102" s="298"/>
-      <c r="K102" s="298"/>
-      <c r="L102" s="298"/>
-      <c r="M102" s="298"/>
-      <c r="N102" s="298"/>
-      <c r="O102" s="298"/>
-      <c r="P102" s="298"/>
+      <c r="B102" s="287"/>
+      <c r="C102" s="287"/>
+      <c r="D102" s="287"/>
+      <c r="E102" s="287"/>
+      <c r="F102" s="287"/>
+      <c r="G102" s="287"/>
+      <c r="H102" s="287"/>
+      <c r="I102" s="287"/>
+      <c r="J102" s="287"/>
+      <c r="K102" s="287"/>
+      <c r="L102" s="287"/>
+      <c r="M102" s="287"/>
+      <c r="N102" s="287"/>
+      <c r="O102" s="287"/>
+      <c r="P102" s="287"/>
     </row>
     <row r="103" spans="1:16" ht="12" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="297" t="s">
+      <c r="B103" s="286" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="298"/>
-      <c r="D103" s="298"/>
-      <c r="E103" s="298"/>
-      <c r="F103" s="298"/>
-      <c r="G103" s="298"/>
-      <c r="H103" s="298"/>
-      <c r="I103" s="298"/>
-      <c r="J103" s="298"/>
-      <c r="K103" s="298"/>
-      <c r="L103" s="298"/>
-      <c r="M103" s="298"/>
-      <c r="N103" s="298"/>
-      <c r="O103" s="298"/>
-      <c r="P103" s="298"/>
+      <c r="C103" s="287"/>
+      <c r="D103" s="287"/>
+      <c r="E103" s="287"/>
+      <c r="F103" s="287"/>
+      <c r="G103" s="287"/>
+      <c r="H103" s="287"/>
+      <c r="I103" s="287"/>
+      <c r="J103" s="287"/>
+      <c r="K103" s="287"/>
+      <c r="L103" s="287"/>
+      <c r="M103" s="287"/>
+      <c r="N103" s="287"/>
+      <c r="O103" s="287"/>
+      <c r="P103" s="287"/>
     </row>
     <row r="104" spans="1:16" ht="12" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="298"/>
-      <c r="C104" s="298"/>
-      <c r="D104" s="298"/>
-      <c r="E104" s="298"/>
-      <c r="F104" s="298"/>
-      <c r="G104" s="298"/>
-      <c r="H104" s="298"/>
-      <c r="I104" s="298"/>
-      <c r="J104" s="298"/>
-      <c r="K104" s="298"/>
-      <c r="L104" s="298"/>
-      <c r="M104" s="298"/>
-      <c r="N104" s="298"/>
-      <c r="O104" s="298"/>
-      <c r="P104" s="298"/>
+      <c r="B104" s="287"/>
+      <c r="C104" s="287"/>
+      <c r="D104" s="287"/>
+      <c r="E104" s="287"/>
+      <c r="F104" s="287"/>
+      <c r="G104" s="287"/>
+      <c r="H104" s="287"/>
+      <c r="I104" s="287"/>
+      <c r="J104" s="287"/>
+      <c r="K104" s="287"/>
+      <c r="L104" s="287"/>
+      <c r="M104" s="287"/>
+      <c r="N104" s="287"/>
+      <c r="O104" s="287"/>
+      <c r="P104" s="287"/>
     </row>
     <row r="105" spans="1:16" ht="12" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="298"/>
-      <c r="C105" s="298"/>
-      <c r="D105" s="298"/>
-      <c r="E105" s="298"/>
-      <c r="F105" s="298"/>
-      <c r="G105" s="298"/>
-      <c r="H105" s="298"/>
-      <c r="I105" s="298"/>
-      <c r="J105" s="298"/>
-      <c r="K105" s="298"/>
-      <c r="L105" s="298"/>
-      <c r="M105" s="298"/>
-      <c r="N105" s="298"/>
-      <c r="O105" s="298"/>
-      <c r="P105" s="298"/>
+      <c r="B105" s="287"/>
+      <c r="C105" s="287"/>
+      <c r="D105" s="287"/>
+      <c r="E105" s="287"/>
+      <c r="F105" s="287"/>
+      <c r="G105" s="287"/>
+      <c r="H105" s="287"/>
+      <c r="I105" s="287"/>
+      <c r="J105" s="287"/>
+      <c r="K105" s="287"/>
+      <c r="L105" s="287"/>
+      <c r="M105" s="287"/>
+      <c r="N105" s="287"/>
+      <c r="O105" s="287"/>
+      <c r="P105" s="287"/>
     </row>
     <row r="106" spans="1:16" ht="12" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="297" t="s">
+      <c r="B106" s="286" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="298"/>
-      <c r="D106" s="298"/>
-      <c r="E106" s="298"/>
-      <c r="F106" s="298"/>
-      <c r="G106" s="298"/>
-      <c r="H106" s="298"/>
-      <c r="I106" s="298"/>
-      <c r="J106" s="298"/>
-      <c r="K106" s="298"/>
-      <c r="L106" s="298"/>
-      <c r="M106" s="298"/>
-      <c r="N106" s="298"/>
-      <c r="O106" s="298"/>
-      <c r="P106" s="298"/>
+      <c r="C106" s="287"/>
+      <c r="D106" s="287"/>
+      <c r="E106" s="287"/>
+      <c r="F106" s="287"/>
+      <c r="G106" s="287"/>
+      <c r="H106" s="287"/>
+      <c r="I106" s="287"/>
+      <c r="J106" s="287"/>
+      <c r="K106" s="287"/>
+      <c r="L106" s="287"/>
+      <c r="M106" s="287"/>
+      <c r="N106" s="287"/>
+      <c r="O106" s="287"/>
+      <c r="P106" s="287"/>
     </row>
     <row r="107" spans="1:16" ht="12" customHeight="1">
       <c r="A107" s="62"/>
-      <c r="B107" s="298"/>
-      <c r="C107" s="298"/>
-      <c r="D107" s="298"/>
-      <c r="E107" s="298"/>
-      <c r="F107" s="298"/>
-      <c r="G107" s="298"/>
-      <c r="H107" s="298"/>
-      <c r="I107" s="298"/>
-      <c r="J107" s="298"/>
-      <c r="K107" s="298"/>
-      <c r="L107" s="298"/>
-      <c r="M107" s="298"/>
-      <c r="N107" s="298"/>
-      <c r="O107" s="298"/>
-      <c r="P107" s="298"/>
+      <c r="B107" s="287"/>
+      <c r="C107" s="287"/>
+      <c r="D107" s="287"/>
+      <c r="E107" s="287"/>
+      <c r="F107" s="287"/>
+      <c r="G107" s="287"/>
+      <c r="H107" s="287"/>
+      <c r="I107" s="287"/>
+      <c r="J107" s="287"/>
+      <c r="K107" s="287"/>
+      <c r="L107" s="287"/>
+      <c r="M107" s="287"/>
+      <c r="N107" s="287"/>
+      <c r="O107" s="287"/>
+      <c r="P107" s="287"/>
     </row>
     <row r="108" spans="1:16" ht="12" customHeight="1">
       <c r="A108" s="62"/>
-      <c r="B108" s="298"/>
-      <c r="C108" s="298"/>
-      <c r="D108" s="298"/>
-      <c r="E108" s="298"/>
-      <c r="F108" s="298"/>
-      <c r="G108" s="298"/>
-      <c r="H108" s="298"/>
-      <c r="I108" s="298"/>
-      <c r="J108" s="298"/>
-      <c r="K108" s="298"/>
-      <c r="L108" s="298"/>
-      <c r="M108" s="298"/>
-      <c r="N108" s="298"/>
-      <c r="O108" s="298"/>
-      <c r="P108" s="298"/>
+      <c r="B108" s="287"/>
+      <c r="C108" s="287"/>
+      <c r="D108" s="287"/>
+      <c r="E108" s="287"/>
+      <c r="F108" s="287"/>
+      <c r="G108" s="287"/>
+      <c r="H108" s="287"/>
+      <c r="I108" s="287"/>
+      <c r="J108" s="287"/>
+      <c r="K108" s="287"/>
+      <c r="L108" s="287"/>
+      <c r="M108" s="287"/>
+      <c r="N108" s="287"/>
+      <c r="O108" s="287"/>
+      <c r="P108" s="287"/>
     </row>
     <row r="109" spans="1:16" ht="12" customHeight="1">
       <c r="A109" s="62"/>
@@ -20761,113 +20570,113 @@
     </row>
     <row r="110" spans="1:16" ht="12" customHeight="1">
       <c r="A110" s="62"/>
-      <c r="B110" s="297" t="s">
+      <c r="B110" s="286" t="s">
         <v>296</v>
       </c>
-      <c r="C110" s="298"/>
-      <c r="D110" s="298"/>
-      <c r="E110" s="298"/>
-      <c r="F110" s="298"/>
-      <c r="G110" s="298"/>
-      <c r="H110" s="298"/>
-      <c r="I110" s="298"/>
-      <c r="J110" s="298"/>
-      <c r="K110" s="298"/>
-      <c r="L110" s="298"/>
-      <c r="M110" s="298"/>
-      <c r="N110" s="298"/>
-      <c r="O110" s="298"/>
-      <c r="P110" s="298"/>
+      <c r="C110" s="287"/>
+      <c r="D110" s="287"/>
+      <c r="E110" s="287"/>
+      <c r="F110" s="287"/>
+      <c r="G110" s="287"/>
+      <c r="H110" s="287"/>
+      <c r="I110" s="287"/>
+      <c r="J110" s="287"/>
+      <c r="K110" s="287"/>
+      <c r="L110" s="287"/>
+      <c r="M110" s="287"/>
+      <c r="N110" s="287"/>
+      <c r="O110" s="287"/>
+      <c r="P110" s="287"/>
     </row>
     <row r="111" spans="1:16" ht="12" customHeight="1">
       <c r="A111" s="62"/>
-      <c r="B111" s="297"/>
-      <c r="C111" s="298"/>
-      <c r="D111" s="298"/>
-      <c r="E111" s="298"/>
-      <c r="F111" s="298"/>
-      <c r="G111" s="298"/>
-      <c r="H111" s="298"/>
-      <c r="I111" s="298"/>
-      <c r="J111" s="298"/>
-      <c r="K111" s="298"/>
-      <c r="L111" s="298"/>
-      <c r="M111" s="298"/>
-      <c r="N111" s="298"/>
-      <c r="O111" s="298"/>
-      <c r="P111" s="298"/>
+      <c r="B111" s="286"/>
+      <c r="C111" s="287"/>
+      <c r="D111" s="287"/>
+      <c r="E111" s="287"/>
+      <c r="F111" s="287"/>
+      <c r="G111" s="287"/>
+      <c r="H111" s="287"/>
+      <c r="I111" s="287"/>
+      <c r="J111" s="287"/>
+      <c r="K111" s="287"/>
+      <c r="L111" s="287"/>
+      <c r="M111" s="287"/>
+      <c r="N111" s="287"/>
+      <c r="O111" s="287"/>
+      <c r="P111" s="287"/>
     </row>
     <row r="112" spans="1:16" ht="12" customHeight="1">
       <c r="A112" s="62"/>
-      <c r="B112" s="297"/>
-      <c r="C112" s="298"/>
-      <c r="D112" s="298"/>
-      <c r="E112" s="298"/>
-      <c r="F112" s="298"/>
-      <c r="G112" s="298"/>
-      <c r="H112" s="298"/>
-      <c r="I112" s="298"/>
-      <c r="J112" s="298"/>
-      <c r="K112" s="298"/>
-      <c r="L112" s="298"/>
-      <c r="M112" s="298"/>
-      <c r="N112" s="298"/>
-      <c r="O112" s="298"/>
-      <c r="P112" s="298"/>
+      <c r="B112" s="286"/>
+      <c r="C112" s="287"/>
+      <c r="D112" s="287"/>
+      <c r="E112" s="287"/>
+      <c r="F112" s="287"/>
+      <c r="G112" s="287"/>
+      <c r="H112" s="287"/>
+      <c r="I112" s="287"/>
+      <c r="J112" s="287"/>
+      <c r="K112" s="287"/>
+      <c r="L112" s="287"/>
+      <c r="M112" s="287"/>
+      <c r="N112" s="287"/>
+      <c r="O112" s="287"/>
+      <c r="P112" s="287"/>
     </row>
     <row r="113" spans="1:20" ht="12" customHeight="1">
       <c r="A113" s="62"/>
-      <c r="B113" s="297"/>
-      <c r="C113" s="298"/>
-      <c r="D113" s="298"/>
-      <c r="E113" s="298"/>
-      <c r="F113" s="298"/>
-      <c r="G113" s="298"/>
-      <c r="H113" s="298"/>
-      <c r="I113" s="298"/>
-      <c r="J113" s="298"/>
-      <c r="K113" s="298"/>
-      <c r="L113" s="298"/>
-      <c r="M113" s="298"/>
-      <c r="N113" s="298"/>
-      <c r="O113" s="298"/>
-      <c r="P113" s="298"/>
+      <c r="B113" s="286"/>
+      <c r="C113" s="287"/>
+      <c r="D113" s="287"/>
+      <c r="E113" s="287"/>
+      <c r="F113" s="287"/>
+      <c r="G113" s="287"/>
+      <c r="H113" s="287"/>
+      <c r="I113" s="287"/>
+      <c r="J113" s="287"/>
+      <c r="K113" s="287"/>
+      <c r="L113" s="287"/>
+      <c r="M113" s="287"/>
+      <c r="N113" s="287"/>
+      <c r="O113" s="287"/>
+      <c r="P113" s="287"/>
     </row>
     <row r="114" spans="1:20" ht="12" customHeight="1">
       <c r="A114" s="62"/>
-      <c r="B114" s="297"/>
-      <c r="C114" s="298"/>
-      <c r="D114" s="298"/>
-      <c r="E114" s="298"/>
-      <c r="F114" s="298"/>
-      <c r="G114" s="298"/>
-      <c r="H114" s="298"/>
-      <c r="I114" s="298"/>
-      <c r="J114" s="298"/>
-      <c r="K114" s="298"/>
-      <c r="L114" s="298"/>
-      <c r="M114" s="298"/>
-      <c r="N114" s="298"/>
-      <c r="O114" s="298"/>
-      <c r="P114" s="298"/>
+      <c r="B114" s="286"/>
+      <c r="C114" s="287"/>
+      <c r="D114" s="287"/>
+      <c r="E114" s="287"/>
+      <c r="F114" s="287"/>
+      <c r="G114" s="287"/>
+      <c r="H114" s="287"/>
+      <c r="I114" s="287"/>
+      <c r="J114" s="287"/>
+      <c r="K114" s="287"/>
+      <c r="L114" s="287"/>
+      <c r="M114" s="287"/>
+      <c r="N114" s="287"/>
+      <c r="O114" s="287"/>
+      <c r="P114" s="287"/>
     </row>
     <row r="115" spans="1:20" ht="12" customHeight="1">
       <c r="A115" s="62"/>
-      <c r="B115" s="297"/>
-      <c r="C115" s="298"/>
-      <c r="D115" s="298"/>
-      <c r="E115" s="298"/>
-      <c r="F115" s="298"/>
-      <c r="G115" s="298"/>
-      <c r="H115" s="298"/>
-      <c r="I115" s="298"/>
-      <c r="J115" s="298"/>
-      <c r="K115" s="298"/>
-      <c r="L115" s="298"/>
-      <c r="M115" s="298"/>
-      <c r="N115" s="298"/>
-      <c r="O115" s="298"/>
-      <c r="P115" s="298"/>
+      <c r="B115" s="286"/>
+      <c r="C115" s="287"/>
+      <c r="D115" s="287"/>
+      <c r="E115" s="287"/>
+      <c r="F115" s="287"/>
+      <c r="G115" s="287"/>
+      <c r="H115" s="287"/>
+      <c r="I115" s="287"/>
+      <c r="J115" s="287"/>
+      <c r="K115" s="287"/>
+      <c r="L115" s="287"/>
+      <c r="M115" s="287"/>
+      <c r="N115" s="287"/>
+      <c r="O115" s="287"/>
+      <c r="P115" s="287"/>
     </row>
     <row r="116" spans="1:20" ht="12" customHeight="1">
       <c r="A116" s="62"/>
@@ -20886,69 +20695,69 @@
     </row>
     <row r="117" spans="1:20" ht="12" customHeight="1">
       <c r="A117" s="62"/>
-      <c r="B117" s="297" t="s">
+      <c r="B117" s="286" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="298"/>
-      <c r="D117" s="298"/>
-      <c r="E117" s="298"/>
-      <c r="F117" s="298"/>
-      <c r="G117" s="298"/>
-      <c r="H117" s="298"/>
-      <c r="I117" s="298"/>
-      <c r="J117" s="298"/>
-      <c r="K117" s="298"/>
-      <c r="L117" s="298"/>
-      <c r="M117" s="298"/>
-      <c r="N117" s="298"/>
-      <c r="O117" s="298"/>
-      <c r="P117" s="298"/>
+      <c r="C117" s="287"/>
+      <c r="D117" s="287"/>
+      <c r="E117" s="287"/>
+      <c r="F117" s="287"/>
+      <c r="G117" s="287"/>
+      <c r="H117" s="287"/>
+      <c r="I117" s="287"/>
+      <c r="J117" s="287"/>
+      <c r="K117" s="287"/>
+      <c r="L117" s="287"/>
+      <c r="M117" s="287"/>
+      <c r="N117" s="287"/>
+      <c r="O117" s="287"/>
+      <c r="P117" s="287"/>
     </row>
     <row r="118" spans="1:20" ht="12" customHeight="1">
       <c r="A118" s="62"/>
-      <c r="B118" s="298"/>
-      <c r="C118" s="298"/>
-      <c r="D118" s="298"/>
-      <c r="E118" s="298"/>
-      <c r="F118" s="298"/>
-      <c r="G118" s="298"/>
-      <c r="H118" s="298"/>
-      <c r="I118" s="298"/>
-      <c r="J118" s="298"/>
-      <c r="K118" s="298"/>
-      <c r="L118" s="298"/>
-      <c r="M118" s="298"/>
-      <c r="N118" s="298"/>
-      <c r="O118" s="298"/>
-      <c r="P118" s="298"/>
+      <c r="B118" s="287"/>
+      <c r="C118" s="287"/>
+      <c r="D118" s="287"/>
+      <c r="E118" s="287"/>
+      <c r="F118" s="287"/>
+      <c r="G118" s="287"/>
+      <c r="H118" s="287"/>
+      <c r="I118" s="287"/>
+      <c r="J118" s="287"/>
+      <c r="K118" s="287"/>
+      <c r="L118" s="287"/>
+      <c r="M118" s="287"/>
+      <c r="N118" s="287"/>
+      <c r="O118" s="287"/>
+      <c r="P118" s="287"/>
     </row>
     <row r="119" spans="1:20" ht="12" customHeight="1">
       <c r="A119" s="62"/>
-      <c r="B119" s="298"/>
-      <c r="C119" s="298"/>
-      <c r="D119" s="298"/>
-      <c r="E119" s="298"/>
-      <c r="F119" s="298"/>
-      <c r="G119" s="298"/>
-      <c r="H119" s="298"/>
-      <c r="I119" s="298"/>
-      <c r="J119" s="298"/>
-      <c r="K119" s="298"/>
-      <c r="L119" s="298"/>
-      <c r="M119" s="298"/>
-      <c r="N119" s="298"/>
-      <c r="O119" s="298"/>
-      <c r="P119" s="298"/>
+      <c r="B119" s="287"/>
+      <c r="C119" s="287"/>
+      <c r="D119" s="287"/>
+      <c r="E119" s="287"/>
+      <c r="F119" s="287"/>
+      <c r="G119" s="287"/>
+      <c r="H119" s="287"/>
+      <c r="I119" s="287"/>
+      <c r="J119" s="287"/>
+      <c r="K119" s="287"/>
+      <c r="L119" s="287"/>
+      <c r="M119" s="287"/>
+      <c r="N119" s="287"/>
+      <c r="O119" s="287"/>
+      <c r="P119" s="287"/>
     </row>
     <row r="120" spans="1:20" ht="12" customHeight="1">
       <c r="A120" s="62"/>
-      <c r="B120" s="300" t="s">
+      <c r="B120" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="300"/>
-      <c r="D120" s="300"/>
-      <c r="E120" s="300"/>
-      <c r="F120" s="300"/>
+      <c r="C120" s="289"/>
+      <c r="D120" s="289"/>
+      <c r="E120" s="289"/>
+      <c r="F120" s="289"/>
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="40"/>
@@ -20991,13 +20800,13 @@
     </row>
     <row r="123" spans="1:20" ht="12" customHeight="1">
       <c r="A123" s="62"/>
-      <c r="B123" s="300" t="s">
+      <c r="B123" s="289" t="s">
         <v>298</v>
       </c>
-      <c r="C123" s="300"/>
-      <c r="D123" s="300"/>
-      <c r="E123" s="300"/>
-      <c r="F123" s="300"/>
+      <c r="C123" s="289"/>
+      <c r="D123" s="289"/>
+      <c r="E123" s="289"/>
+      <c r="F123" s="289"/>
       <c r="G123" s="40"/>
       <c r="H123" s="40"/>
       <c r="I123" s="40"/>
@@ -21026,13 +20835,13 @@
     <row r="125" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
       <c r="A125" s="145"/>
       <c r="B125" s="146"/>
-      <c r="C125" s="299" t="s">
+      <c r="C125" s="288" t="s">
         <v>305</v>
       </c>
-      <c r="D125" s="299"/>
-      <c r="E125" s="299"/>
-      <c r="F125" s="299"/>
-      <c r="G125" s="299"/>
+      <c r="D125" s="288"/>
+      <c r="E125" s="288"/>
+      <c r="F125" s="288"/>
+      <c r="G125" s="288"/>
       <c r="H125" s="147"/>
       <c r="I125" s="147"/>
       <c r="J125" s="147"/>
@@ -21073,20 +20882,20 @@
       <c r="K127" s="147"/>
       <c r="L127" s="147"/>
     </row>
-    <row r="128" spans="1:20" s="186" customFormat="1" ht="12" customHeight="1">
-      <c r="A128" s="189"/>
-      <c r="B128" s="189"/>
-      <c r="C128" s="189"/>
-      <c r="D128" s="189"/>
-      <c r="E128" s="189"/>
-      <c r="F128" s="189"/>
-      <c r="G128" s="189"/>
-      <c r="H128" s="189"/>
-      <c r="I128" s="189"/>
-      <c r="J128" s="189"/>
-      <c r="K128" s="189"/>
-      <c r="L128" s="189"/>
-      <c r="M128" s="189"/>
+    <row r="128" spans="1:20" s="185" customFormat="1" ht="12" customHeight="1">
+      <c r="A128" s="188"/>
+      <c r="B128" s="188"/>
+      <c r="C128" s="188"/>
+      <c r="D128" s="188"/>
+      <c r="E128" s="188"/>
+      <c r="F128" s="188"/>
+      <c r="G128" s="188"/>
+      <c r="H128" s="188"/>
+      <c r="I128" s="188"/>
+      <c r="J128" s="188"/>
+      <c r="K128" s="188"/>
+      <c r="L128" s="188"/>
+      <c r="M128" s="188"/>
       <c r="N128" s="22"/>
       <c r="O128" s="22"/>
       <c r="P128" s="22"/>
@@ -21095,20 +20904,20 @@
       <c r="S128" s="22"/>
       <c r="T128" s="22"/>
     </row>
-    <row r="129" spans="1:20" s="186" customFormat="1" ht="12" customHeight="1">
-      <c r="A129" s="189"/>
-      <c r="B129" s="189"/>
-      <c r="C129" s="189"/>
-      <c r="D129" s="189"/>
-      <c r="E129" s="189"/>
-      <c r="F129" s="189"/>
-      <c r="G129" s="189"/>
-      <c r="H129" s="189"/>
-      <c r="I129" s="189"/>
-      <c r="J129" s="189"/>
-      <c r="K129" s="189"/>
-      <c r="L129" s="189"/>
-      <c r="M129" s="189"/>
+    <row r="129" spans="1:20" s="185" customFormat="1" ht="12" customHeight="1">
+      <c r="A129" s="188"/>
+      <c r="B129" s="188"/>
+      <c r="C129" s="188"/>
+      <c r="D129" s="188"/>
+      <c r="E129" s="188"/>
+      <c r="F129" s="188"/>
+      <c r="G129" s="188"/>
+      <c r="H129" s="188"/>
+      <c r="I129" s="188"/>
+      <c r="J129" s="188"/>
+      <c r="K129" s="188"/>
+      <c r="L129" s="188"/>
+      <c r="M129" s="188"/>
       <c r="N129" s="22"/>
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
@@ -21118,12 +20927,12 @@
       <c r="T129" s="22"/>
     </row>
     <row r="130" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A130" s="187"/>
+      <c r="A130" s="186"/>
       <c r="B130" s="184" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C130" s="182"/>
-      <c r="D130" s="188"/>
+      <c r="D130" s="187"/>
       <c r="E130" s="182"/>
       <c r="F130" s="182"/>
       <c r="G130" s="182"/>
@@ -21135,11 +20944,11 @@
       <c r="M130" s="182"/>
     </row>
     <row r="131" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A131" s="187"/>
+      <c r="A131" s="186"/>
       <c r="C131" s="182" t="s">
-        <v>363</v>
-      </c>
-      <c r="D131" s="188"/>
+        <v>348</v>
+      </c>
+      <c r="D131" s="187"/>
       <c r="E131" s="182"/>
       <c r="F131" s="182"/>
       <c r="G131" s="182"/>
@@ -21151,10 +20960,10 @@
       <c r="M131" s="182"/>
     </row>
     <row r="132" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A132" s="187"/>
+      <c r="A132" s="186"/>
       <c r="B132" s="182"/>
       <c r="C132" s="182" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D132" s="182"/>
       <c r="E132" s="182"/>
@@ -22118,10 +21927,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214"/>
+      <c r="B1" s="220"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -22152,8 +21961,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="214"/>
-      <c r="B2" s="214"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="220"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2568,9 +2568,6 @@
     <t>25/01/2018</t>
   </si>
   <si>
-    <t>Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Dự án, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
-  </si>
-  <si>
     <t>Luồng 14: Chọn Liên hệ</t>
   </si>
   <si>
@@ -2706,6 +2703,10 @@
 @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
 @ProjectID
 </t>
+  </si>
+  <si>
+    <t>- STT yêu cầu là: 2;5 (bên file Tasklist)
+ -Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
   </si>
 </sst>
 </file>
@@ -3705,75 +3706,105 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3783,39 +3814,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3924,20 +3922,68 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3948,54 +3994,6 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4019,6 +4017,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -13765,65 +13766,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="200"/>
-      <c r="B1" s="200"/>
-      <c r="C1" s="202" t="s">
+      <c r="A1" s="194"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="196" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="201" t="s">
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="195" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201" t="s">
+      <c r="H1" s="195"/>
+      <c r="I1" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="201"/>
+      <c r="J1" s="195"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="201" t="s">
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="195" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="200"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="197" t="s">
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="191" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="198"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="198"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="192"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="93"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="199"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="199"/>
+      <c r="A13" s="193"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
       <c r="M13" s="94"/>
@@ -13834,56 +13835,56 @@
       <c r="R13" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="193"/>
-      <c r="R14" s="193"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="193"/>
-      <c r="M15" s="193"/>
-      <c r="N15" s="193"/>
-      <c r="O15" s="193"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="193"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="196"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
       <c r="M16" s="95"/>
@@ -13894,384 +13895,384 @@
       <c r="R16" s="95"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="193"/>
-      <c r="Q17" s="193"/>
-      <c r="R17" s="193"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="189"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="193"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="193"/>
-      <c r="O18" s="193"/>
-      <c r="P18" s="193"/>
-      <c r="Q18" s="193"/>
-      <c r="R18" s="193"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="189"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="195"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="195"/>
-      <c r="K19" s="195"/>
-      <c r="L19" s="195"/>
-      <c r="M19" s="195"/>
-      <c r="N19" s="195"/>
-      <c r="O19" s="195"/>
-      <c r="P19" s="195"/>
-      <c r="Q19" s="195"/>
-      <c r="R19" s="195"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="206"/>
+      <c r="O19" s="206"/>
+      <c r="P19" s="206"/>
+      <c r="Q19" s="206"/>
+      <c r="R19" s="206"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="193"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="193"/>
-      <c r="L20" s="193"/>
-      <c r="M20" s="193"/>
-      <c r="N20" s="193"/>
-      <c r="O20" s="193"/>
-      <c r="P20" s="193"/>
-      <c r="Q20" s="193"/>
-      <c r="R20" s="193"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="189"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="189"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="189"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="193"/>
-      <c r="N21" s="193"/>
-      <c r="O21" s="193"/>
-      <c r="P21" s="193"/>
-      <c r="Q21" s="193"/>
-      <c r="R21" s="193"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="189"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="194"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="194"/>
-      <c r="M22" s="194"/>
-      <c r="N22" s="194"/>
-      <c r="O22" s="194"/>
-      <c r="P22" s="194"/>
-      <c r="Q22" s="194"/>
-      <c r="R22" s="194"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="205"/>
+      <c r="M22" s="205"/>
+      <c r="N22" s="205"/>
+      <c r="O22" s="205"/>
+      <c r="P22" s="205"/>
+      <c r="Q22" s="205"/>
+      <c r="R22" s="205"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="194"/>
-      <c r="M23" s="194"/>
-      <c r="N23" s="194"/>
-      <c r="O23" s="194"/>
-      <c r="P23" s="194"/>
-      <c r="Q23" s="194"/>
-      <c r="R23" s="194"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="205"/>
+      <c r="L23" s="205"/>
+      <c r="M23" s="205"/>
+      <c r="N23" s="205"/>
+      <c r="O23" s="205"/>
+      <c r="P23" s="205"/>
+      <c r="Q23" s="205"/>
+      <c r="R23" s="205"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="191"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="191"/>
-      <c r="O26" s="191"/>
-      <c r="P26" s="191"/>
-      <c r="Q26" s="191"/>
-      <c r="R26" s="191"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="207"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="207"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="192"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="192"/>
-      <c r="O28" s="192"/>
-      <c r="P28" s="192"/>
-      <c r="Q28" s="192"/>
-      <c r="R28" s="192"/>
-      <c r="S28" s="190"/>
-      <c r="T28" s="190"/>
-      <c r="U28" s="190"/>
-      <c r="V28" s="190"/>
-      <c r="W28" s="190"/>
-      <c r="X28" s="190"/>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="190"/>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="190"/>
-      <c r="AE28" s="190"/>
-      <c r="AF28" s="190"/>
-      <c r="AG28" s="190"/>
-      <c r="AH28" s="190"/>
-      <c r="AI28" s="190"/>
-      <c r="AJ28" s="190"/>
-      <c r="AK28" s="190"/>
-      <c r="AL28" s="190"/>
-      <c r="AM28" s="190"/>
-      <c r="AN28" s="190"/>
-      <c r="AO28" s="190"/>
-      <c r="AP28" s="190"/>
-      <c r="AQ28" s="190"/>
-      <c r="AR28" s="190"/>
-      <c r="AS28" s="190"/>
-      <c r="AT28" s="190"/>
-      <c r="AU28" s="190"/>
-      <c r="AV28" s="190"/>
-      <c r="AW28" s="190"/>
-      <c r="AX28" s="190"/>
-      <c r="AY28" s="190"/>
-      <c r="AZ28" s="190"/>
-      <c r="BA28" s="190"/>
-      <c r="BB28" s="190"/>
-      <c r="BC28" s="190"/>
-      <c r="BD28" s="190"/>
-      <c r="BE28" s="190"/>
-      <c r="BF28" s="190"/>
-      <c r="BG28" s="190"/>
-      <c r="BH28" s="190"/>
-      <c r="BI28" s="190"/>
-      <c r="BJ28" s="190"/>
-      <c r="BK28" s="190"/>
-      <c r="BL28" s="190"/>
-      <c r="BM28" s="190"/>
-      <c r="BN28" s="190"/>
-      <c r="BO28" s="190"/>
-      <c r="BP28" s="190"/>
-      <c r="BQ28" s="190"/>
-      <c r="BR28" s="190"/>
-      <c r="BS28" s="190"/>
-      <c r="BT28" s="190"/>
-      <c r="BU28" s="190"/>
-      <c r="BV28" s="190"/>
-      <c r="BW28" s="190"/>
-      <c r="BX28" s="190"/>
-      <c r="BY28" s="190"/>
-      <c r="BZ28" s="190"/>
-      <c r="CA28" s="190"/>
-      <c r="CB28" s="190"/>
-      <c r="CC28" s="190"/>
-      <c r="CD28" s="190"/>
-      <c r="CE28" s="190"/>
-      <c r="CF28" s="190"/>
-      <c r="CG28" s="190"/>
-      <c r="CH28" s="190"/>
-      <c r="CI28" s="190"/>
-      <c r="CJ28" s="190"/>
-      <c r="CK28" s="190"/>
-      <c r="CL28" s="190"/>
-      <c r="CM28" s="190"/>
-      <c r="CN28" s="190"/>
-      <c r="CO28" s="190"/>
-      <c r="CP28" s="190"/>
-      <c r="CQ28" s="190"/>
-      <c r="CR28" s="190"/>
-      <c r="CS28" s="190"/>
-      <c r="CT28" s="190"/>
-      <c r="CU28" s="190"/>
-      <c r="CV28" s="190"/>
-      <c r="CW28" s="190"/>
-      <c r="CX28" s="190"/>
-      <c r="CY28" s="190"/>
-      <c r="CZ28" s="190"/>
-      <c r="DA28" s="190"/>
-      <c r="DB28" s="190"/>
-      <c r="DC28" s="190"/>
-      <c r="DD28" s="190"/>
-      <c r="DE28" s="190"/>
-      <c r="DF28" s="190"/>
-      <c r="DG28" s="190"/>
-      <c r="DH28" s="190"/>
-      <c r="DI28" s="190"/>
-      <c r="DJ28" s="190"/>
-      <c r="DK28" s="190"/>
-      <c r="DL28" s="190"/>
-      <c r="DM28" s="190"/>
-      <c r="DN28" s="190"/>
-      <c r="DO28" s="190"/>
-      <c r="DP28" s="190"/>
-      <c r="DQ28" s="190"/>
-      <c r="DR28" s="190"/>
-      <c r="DS28" s="190"/>
-      <c r="DT28" s="190"/>
-      <c r="DU28" s="190"/>
-      <c r="DV28" s="190"/>
-      <c r="DW28" s="190"/>
-      <c r="DX28" s="190"/>
-      <c r="DY28" s="190"/>
-      <c r="DZ28" s="190"/>
-      <c r="EA28" s="190"/>
-      <c r="EB28" s="190"/>
-      <c r="EC28" s="190"/>
-      <c r="ED28" s="190"/>
-      <c r="EE28" s="190"/>
-      <c r="EF28" s="190"/>
-      <c r="EG28" s="190"/>
-      <c r="EH28" s="190"/>
-      <c r="EI28" s="190"/>
-      <c r="EJ28" s="190"/>
-      <c r="EK28" s="190"/>
-      <c r="EL28" s="190"/>
-      <c r="EM28" s="190"/>
-      <c r="EN28" s="190"/>
-      <c r="EO28" s="190"/>
-      <c r="EP28" s="190"/>
-      <c r="EQ28" s="190"/>
-      <c r="ER28" s="190"/>
-      <c r="ES28" s="190"/>
-      <c r="ET28" s="190"/>
-      <c r="EU28" s="190"/>
-      <c r="EV28" s="190"/>
-      <c r="EW28" s="190"/>
-      <c r="EX28" s="190"/>
-      <c r="EY28" s="190"/>
-      <c r="EZ28" s="190"/>
-      <c r="FA28" s="190"/>
-      <c r="FB28" s="190"/>
-      <c r="FC28" s="190"/>
-      <c r="FD28" s="190"/>
-      <c r="FE28" s="190"/>
-      <c r="FF28" s="190"/>
-      <c r="FG28" s="190"/>
-      <c r="FH28" s="190"/>
-      <c r="FI28" s="190"/>
-      <c r="FJ28" s="190"/>
-      <c r="FK28" s="190"/>
-      <c r="FL28" s="190"/>
-      <c r="FM28" s="190"/>
-      <c r="FN28" s="190"/>
-      <c r="FO28" s="190"/>
-      <c r="FP28" s="190"/>
-      <c r="FQ28" s="190"/>
-      <c r="FR28" s="190"/>
-      <c r="FS28" s="190"/>
-      <c r="FT28" s="190"/>
-      <c r="FU28" s="190"/>
-      <c r="FV28" s="190"/>
-      <c r="FW28" s="190"/>
-      <c r="FX28" s="190"/>
-      <c r="FY28" s="190"/>
-      <c r="FZ28" s="190"/>
-      <c r="GA28" s="190"/>
-      <c r="GB28" s="190"/>
-      <c r="GC28" s="190"/>
-      <c r="GD28" s="190"/>
-      <c r="GE28" s="190"/>
-      <c r="GF28" s="190"/>
-      <c r="GG28" s="190"/>
-      <c r="GH28" s="190"/>
-      <c r="GI28" s="190"/>
-      <c r="GJ28" s="190"/>
-      <c r="GK28" s="190"/>
-      <c r="GL28" s="190"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="209"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="209"/>
+      <c r="M28" s="209"/>
+      <c r="N28" s="209"/>
+      <c r="O28" s="209"/>
+      <c r="P28" s="209"/>
+      <c r="Q28" s="209"/>
+      <c r="R28" s="209"/>
+      <c r="S28" s="208"/>
+      <c r="T28" s="208"/>
+      <c r="U28" s="208"/>
+      <c r="V28" s="208"/>
+      <c r="W28" s="208"/>
+      <c r="X28" s="208"/>
+      <c r="Y28" s="208"/>
+      <c r="Z28" s="208"/>
+      <c r="AA28" s="208"/>
+      <c r="AB28" s="208"/>
+      <c r="AC28" s="208"/>
+      <c r="AD28" s="208"/>
+      <c r="AE28" s="208"/>
+      <c r="AF28" s="208"/>
+      <c r="AG28" s="208"/>
+      <c r="AH28" s="208"/>
+      <c r="AI28" s="208"/>
+      <c r="AJ28" s="208"/>
+      <c r="AK28" s="208"/>
+      <c r="AL28" s="208"/>
+      <c r="AM28" s="208"/>
+      <c r="AN28" s="208"/>
+      <c r="AO28" s="208"/>
+      <c r="AP28" s="208"/>
+      <c r="AQ28" s="208"/>
+      <c r="AR28" s="208"/>
+      <c r="AS28" s="208"/>
+      <c r="AT28" s="208"/>
+      <c r="AU28" s="208"/>
+      <c r="AV28" s="208"/>
+      <c r="AW28" s="208"/>
+      <c r="AX28" s="208"/>
+      <c r="AY28" s="208"/>
+      <c r="AZ28" s="208"/>
+      <c r="BA28" s="208"/>
+      <c r="BB28" s="208"/>
+      <c r="BC28" s="208"/>
+      <c r="BD28" s="208"/>
+      <c r="BE28" s="208"/>
+      <c r="BF28" s="208"/>
+      <c r="BG28" s="208"/>
+      <c r="BH28" s="208"/>
+      <c r="BI28" s="208"/>
+      <c r="BJ28" s="208"/>
+      <c r="BK28" s="208"/>
+      <c r="BL28" s="208"/>
+      <c r="BM28" s="208"/>
+      <c r="BN28" s="208"/>
+      <c r="BO28" s="208"/>
+      <c r="BP28" s="208"/>
+      <c r="BQ28" s="208"/>
+      <c r="BR28" s="208"/>
+      <c r="BS28" s="208"/>
+      <c r="BT28" s="208"/>
+      <c r="BU28" s="208"/>
+      <c r="BV28" s="208"/>
+      <c r="BW28" s="208"/>
+      <c r="BX28" s="208"/>
+      <c r="BY28" s="208"/>
+      <c r="BZ28" s="208"/>
+      <c r="CA28" s="208"/>
+      <c r="CB28" s="208"/>
+      <c r="CC28" s="208"/>
+      <c r="CD28" s="208"/>
+      <c r="CE28" s="208"/>
+      <c r="CF28" s="208"/>
+      <c r="CG28" s="208"/>
+      <c r="CH28" s="208"/>
+      <c r="CI28" s="208"/>
+      <c r="CJ28" s="208"/>
+      <c r="CK28" s="208"/>
+      <c r="CL28" s="208"/>
+      <c r="CM28" s="208"/>
+      <c r="CN28" s="208"/>
+      <c r="CO28" s="208"/>
+      <c r="CP28" s="208"/>
+      <c r="CQ28" s="208"/>
+      <c r="CR28" s="208"/>
+      <c r="CS28" s="208"/>
+      <c r="CT28" s="208"/>
+      <c r="CU28" s="208"/>
+      <c r="CV28" s="208"/>
+      <c r="CW28" s="208"/>
+      <c r="CX28" s="208"/>
+      <c r="CY28" s="208"/>
+      <c r="CZ28" s="208"/>
+      <c r="DA28" s="208"/>
+      <c r="DB28" s="208"/>
+      <c r="DC28" s="208"/>
+      <c r="DD28" s="208"/>
+      <c r="DE28" s="208"/>
+      <c r="DF28" s="208"/>
+      <c r="DG28" s="208"/>
+      <c r="DH28" s="208"/>
+      <c r="DI28" s="208"/>
+      <c r="DJ28" s="208"/>
+      <c r="DK28" s="208"/>
+      <c r="DL28" s="208"/>
+      <c r="DM28" s="208"/>
+      <c r="DN28" s="208"/>
+      <c r="DO28" s="208"/>
+      <c r="DP28" s="208"/>
+      <c r="DQ28" s="208"/>
+      <c r="DR28" s="208"/>
+      <c r="DS28" s="208"/>
+      <c r="DT28" s="208"/>
+      <c r="DU28" s="208"/>
+      <c r="DV28" s="208"/>
+      <c r="DW28" s="208"/>
+      <c r="DX28" s="208"/>
+      <c r="DY28" s="208"/>
+      <c r="DZ28" s="208"/>
+      <c r="EA28" s="208"/>
+      <c r="EB28" s="208"/>
+      <c r="EC28" s="208"/>
+      <c r="ED28" s="208"/>
+      <c r="EE28" s="208"/>
+      <c r="EF28" s="208"/>
+      <c r="EG28" s="208"/>
+      <c r="EH28" s="208"/>
+      <c r="EI28" s="208"/>
+      <c r="EJ28" s="208"/>
+      <c r="EK28" s="208"/>
+      <c r="EL28" s="208"/>
+      <c r="EM28" s="208"/>
+      <c r="EN28" s="208"/>
+      <c r="EO28" s="208"/>
+      <c r="EP28" s="208"/>
+      <c r="EQ28" s="208"/>
+      <c r="ER28" s="208"/>
+      <c r="ES28" s="208"/>
+      <c r="ET28" s="208"/>
+      <c r="EU28" s="208"/>
+      <c r="EV28" s="208"/>
+      <c r="EW28" s="208"/>
+      <c r="EX28" s="208"/>
+      <c r="EY28" s="208"/>
+      <c r="EZ28" s="208"/>
+      <c r="FA28" s="208"/>
+      <c r="FB28" s="208"/>
+      <c r="FC28" s="208"/>
+      <c r="FD28" s="208"/>
+      <c r="FE28" s="208"/>
+      <c r="FF28" s="208"/>
+      <c r="FG28" s="208"/>
+      <c r="FH28" s="208"/>
+      <c r="FI28" s="208"/>
+      <c r="FJ28" s="208"/>
+      <c r="FK28" s="208"/>
+      <c r="FL28" s="208"/>
+      <c r="FM28" s="208"/>
+      <c r="FN28" s="208"/>
+      <c r="FO28" s="208"/>
+      <c r="FP28" s="208"/>
+      <c r="FQ28" s="208"/>
+      <c r="FR28" s="208"/>
+      <c r="FS28" s="208"/>
+      <c r="FT28" s="208"/>
+      <c r="FU28" s="208"/>
+      <c r="FV28" s="208"/>
+      <c r="FW28" s="208"/>
+      <c r="FX28" s="208"/>
+      <c r="FY28" s="208"/>
+      <c r="FZ28" s="208"/>
+      <c r="GA28" s="208"/>
+      <c r="GB28" s="208"/>
+      <c r="GC28" s="208"/>
+      <c r="GD28" s="208"/>
+      <c r="GE28" s="208"/>
+      <c r="GF28" s="208"/>
+      <c r="GG28" s="208"/>
+      <c r="GH28" s="208"/>
+      <c r="GI28" s="208"/>
+      <c r="GJ28" s="208"/>
+      <c r="GK28" s="208"/>
+      <c r="GL28" s="208"/>
       <c r="GM28" s="96"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="207"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="207"/>
+      <c r="N29" s="207"/>
+      <c r="O29" s="207"/>
+      <c r="P29" s="207"/>
+      <c r="Q29" s="207"/>
+      <c r="R29" s="207"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="189"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="189"/>
+      <c r="A30" s="210"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="210"/>
       <c r="K30" s="97"/>
       <c r="L30" s="97"/>
       <c r="M30" s="97"/>
@@ -14282,16 +14283,16 @@
       <c r="R30" s="97"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="189"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="189"/>
+      <c r="A31" s="210"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="210"/>
       <c r="K31" s="97"/>
       <c r="L31" s="97"/>
       <c r="M31" s="97"/>
@@ -14303,6 +14304,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -14316,28 +14339,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -14364,14 +14365,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="289" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -14564,11 +14565,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="291" t="s">
+      <c r="E27" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="292"/>
-      <c r="G27" s="293"/>
+      <c r="F27" s="291"/>
+      <c r="G27" s="292"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -14875,8 +14876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:J23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14892,10 +14893,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
+      <c r="B1" s="211"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14922,8 +14923,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="220"/>
-      <c r="B2" s="220"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14962,14 +14963,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="221" t="s">
+      <c r="E4" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="103">
@@ -14984,14 +14985,14 @@
       <c r="D5" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="222" t="s">
+      <c r="E5" s="213" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="71">
@@ -15006,14 +15007,14 @@
       <c r="D6" s="143">
         <v>42877</v>
       </c>
-      <c r="E6" s="223" t="s">
+      <c r="E6" s="214" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="225"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="216"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="72">
@@ -15028,16 +15029,16 @@
       <c r="D7" s="151">
         <v>42881</v>
       </c>
-      <c r="E7" s="215" t="s">
+      <c r="E7" s="218" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="217"/>
-    </row>
-    <row r="8" spans="1:10" ht="30.75" customHeight="1">
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="220"/>
+    </row>
+    <row r="8" spans="1:10" ht="46.5" customHeight="1">
       <c r="A8" s="73">
         <v>4</v>
       </c>
@@ -15050,14 +15051,14 @@
       <c r="D8" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="218" t="s">
-        <v>346</v>
-      </c>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
+      <c r="E8" s="293" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="74">
@@ -15068,12 +15069,12 @@
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="214"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="224"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="75">
@@ -15084,12 +15085,12 @@
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="214"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="224"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="76">
@@ -15100,12 +15101,12 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="214"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="224"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="77">
@@ -15116,12 +15117,12 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="224"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="78">
@@ -15132,12 +15133,12 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="214"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="224"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="79">
@@ -15148,12 +15149,12 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="214"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="224"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -15164,12 +15165,12 @@
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="217"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="71">
@@ -15180,12 +15181,12 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="217"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="217"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="72">
@@ -15196,12 +15197,12 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="211"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="217"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="73">
@@ -15212,12 +15213,12 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="217"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="74">
@@ -15228,12 +15229,12 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="211"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="217"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="75">
@@ -15244,12 +15245,12 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="211"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="217"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="76">
@@ -15260,12 +15261,12 @@
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="211"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="217"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="77">
@@ -15276,12 +15277,12 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="211"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="217"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="217"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="78">
@@ -15292,12 +15293,12 @@
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="217"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="79">
@@ -15308,12 +15309,12 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="217"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -15324,12 +15325,12 @@
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
+      <c r="E25" s="217"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="217"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="71">
@@ -15340,12 +15341,12 @@
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="211"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="217"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="72">
@@ -15356,12 +15357,12 @@
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="211"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="217"/>
+      <c r="J27" s="217"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="73">
@@ -15372,12 +15373,12 @@
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="211"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="217"/>
+      <c r="J28" s="217"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="74">
@@ -15388,12 +15389,12 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="211"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="75">
@@ -15404,12 +15405,12 @@
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="211"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="217"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="76">
@@ -15420,12 +15421,12 @@
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="211"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="77">
@@ -15436,12 +15437,12 @@
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="211"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="78">
@@ -15452,12 +15453,12 @@
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="211"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="79">
@@ -15468,26 +15469,20 @@
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="211"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="211"/>
-      <c r="J34" s="211"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -15504,11 +15499,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -15533,7 +15534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J46"/>
     </sheetView>
   </sheetViews>
@@ -15553,10 +15554,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
+      <c r="B1" s="211"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15587,8 +15588,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="220"/>
-      <c r="B2" s="220"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15619,20 +15620,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="225" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="226" t="s">
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="227"/>
+      <c r="J4" s="226"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -15643,10 +15644,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="233" t="s">
+      <c r="I5" s="232" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="234"/>
+      <c r="J5" s="233"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -15657,8 +15658,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="236"/>
+      <c r="I6" s="234"/>
+      <c r="J6" s="235"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -15669,8 +15670,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="236"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="235"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -15681,8 +15682,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="236"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="235"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -15693,8 +15694,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="236"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -15705,8 +15706,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="238"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -15717,10 +15718,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="226" t="s">
+      <c r="I11" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="227"/>
+      <c r="J11" s="226"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -15731,10 +15732,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="229" t="s">
+      <c r="I12" s="228" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="230"/>
+      <c r="J12" s="229"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -15745,8 +15746,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="232"/>
+      <c r="I13" s="230"/>
+      <c r="J13" s="231"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -15757,8 +15758,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="232"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="231"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -15769,8 +15770,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="232"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="231"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -15781,8 +15782,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="232"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="231"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -15793,8 +15794,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
+      <c r="I17" s="230"/>
+      <c r="J17" s="231"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -15805,8 +15806,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="232"/>
+      <c r="I18" s="230"/>
+      <c r="J18" s="231"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -15817,8 +15818,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="232"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="231"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -15829,8 +15830,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="232"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="231"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -15841,8 +15842,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="232"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="231"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -15853,8 +15854,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="232"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="231"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -15865,8 +15866,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="232"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="231"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -15877,8 +15878,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="232"/>
+      <c r="I24" s="230"/>
+      <c r="J24" s="231"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -15889,8 +15890,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="232"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="231"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -15901,8 +15902,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="232"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="231"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -15913,8 +15914,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="232"/>
+      <c r="I27" s="230"/>
+      <c r="J27" s="231"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -15925,8 +15926,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="232"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="231"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -15937,8 +15938,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="232"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="231"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -15949,8 +15950,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="232"/>
+      <c r="I30" s="230"/>
+      <c r="J30" s="231"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -15961,8 +15962,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="232"/>
+      <c r="I31" s="230"/>
+      <c r="J31" s="231"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -15973,8 +15974,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="232"/>
+      <c r="I32" s="230"/>
+      <c r="J32" s="231"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -15985,8 +15986,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="232"/>
+      <c r="I33" s="230"/>
+      <c r="J33" s="231"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -15997,8 +15998,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="232"/>
+      <c r="I34" s="230"/>
+      <c r="J34" s="231"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -16009,8 +16010,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="232"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="231"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -16021,8 +16022,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="231"/>
-      <c r="J36" s="232"/>
+      <c r="I36" s="230"/>
+      <c r="J36" s="231"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -16033,8 +16034,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="232"/>
+      <c r="I37" s="230"/>
+      <c r="J37" s="231"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -16045,8 +16046,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
+      <c r="I38" s="230"/>
+      <c r="J38" s="231"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -16057,8 +16058,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="231"/>
-      <c r="J39" s="232"/>
+      <c r="I39" s="230"/>
+      <c r="J39" s="231"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -16069,8 +16070,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="231"/>
-      <c r="J40" s="232"/>
+      <c r="I40" s="230"/>
+      <c r="J40" s="231"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -16081,8 +16082,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="231"/>
-      <c r="J41" s="232"/>
+      <c r="I41" s="230"/>
+      <c r="J41" s="231"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -16093,8 +16094,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="231"/>
-      <c r="J42" s="232"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="231"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -16105,8 +16106,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="231"/>
-      <c r="J43" s="232"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="231"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -16117,8 +16118,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="232"/>
+      <c r="I44" s="230"/>
+      <c r="J44" s="231"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -16129,8 +16130,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="231"/>
-      <c r="J45" s="232"/>
+      <c r="I45" s="230"/>
+      <c r="J45" s="231"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -16141,8 +16142,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="232"/>
+      <c r="I46" s="230"/>
+      <c r="J46" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16173,7 +16174,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7:C9"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -16197,12 +16198,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -16210,16 +16211,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="243" t="s">
+      <c r="G1" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="244"/>
-      <c r="I1" s="245" t="str">
+      <c r="H1" s="243"/>
+      <c r="I1" s="244" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="J1" s="246"/>
-      <c r="K1" s="247"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="246"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -16236,10 +16237,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="220"/>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -16247,16 +16248,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="243" t="s">
+      <c r="G2" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="244"/>
-      <c r="I2" s="245" t="str">
+      <c r="H2" s="243"/>
+      <c r="I2" s="244" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="J2" s="246"/>
-      <c r="K2" s="247"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="246"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -16390,7 +16391,7 @@
       <c r="B7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="248">
+      <c r="C7" s="247">
         <v>5</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -16429,7 +16430,7 @@
       <c r="B8" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="249"/>
+      <c r="C8" s="248"/>
       <c r="D8" s="129" t="s">
         <v>237</v>
       </c>
@@ -16456,7 +16457,7 @@
       <c r="B9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="250"/>
+      <c r="C9" s="249"/>
       <c r="D9" s="136" t="s">
         <v>238</v>
       </c>
@@ -16483,7 +16484,7 @@
       <c r="B10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="251">
+      <c r="C10" s="250">
         <v>7</v>
       </c>
       <c r="D10" s="118" t="s">
@@ -16522,7 +16523,7 @@
       <c r="B11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="252"/>
+      <c r="C11" s="251"/>
       <c r="D11" s="118" t="s">
         <v>248</v>
       </c>
@@ -16548,7 +16549,7 @@
       <c r="B12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="253"/>
+      <c r="C12" s="252"/>
       <c r="D12" s="118" t="s">
         <v>249</v>
       </c>
@@ -16751,7 +16752,7 @@
       <c r="B18" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="251">
+      <c r="C18" s="250">
         <v>18</v>
       </c>
       <c r="D18" s="118" t="s">
@@ -16769,7 +16770,7 @@
       <c r="L18" s="115"/>
       <c r="M18" s="115"/>
       <c r="N18" s="115"/>
-      <c r="O18" s="254" t="s">
+      <c r="O18" s="253" t="s">
         <v>260</v>
       </c>
     </row>
@@ -16780,7 +16781,7 @@
       <c r="B19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="252"/>
+      <c r="C19" s="251"/>
       <c r="D19" s="118" t="s">
         <v>251</v>
       </c>
@@ -16798,7 +16799,7 @@
       <c r="L19" s="133"/>
       <c r="M19" s="133"/>
       <c r="N19" s="133"/>
-      <c r="O19" s="255"/>
+      <c r="O19" s="254"/>
     </row>
     <row r="20" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A20" s="102">
@@ -16807,7 +16808,7 @@
       <c r="B20" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="253"/>
+      <c r="C20" s="252"/>
       <c r="D20" s="137" t="s">
         <v>252</v>
       </c>
@@ -16827,7 +16828,7 @@
       <c r="N20" s="105">
         <v>0</v>
       </c>
-      <c r="O20" s="256"/>
+      <c r="O20" s="255"/>
     </row>
     <row r="21" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A21" s="102">
@@ -16858,7 +16859,7 @@
       <c r="N21" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="O21" s="239" t="s">
+      <c r="O21" s="238" t="s">
         <v>194</v>
       </c>
     </row>
@@ -16891,7 +16892,7 @@
       <c r="N22" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O22" s="241"/>
+      <c r="O22" s="240"/>
     </row>
     <row r="23" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A23" s="102">
@@ -16922,7 +16923,7 @@
       <c r="N23" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O23" s="242"/>
+      <c r="O23" s="241"/>
     </row>
     <row r="24" spans="1:15" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="102">
@@ -16953,7 +16954,7 @@
       <c r="N24" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O24" s="239" t="s">
+      <c r="O24" s="238" t="s">
         <v>195</v>
       </c>
     </row>
@@ -16986,7 +16987,7 @@
       <c r="N25" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O25" s="240"/>
+      <c r="O25" s="239"/>
     </row>
     <row r="26" spans="1:15" s="153" customFormat="1" ht="11.25">
       <c r="A26" s="153">
@@ -17447,7 +17448,7 @@
       </c>
       <c r="E5" s="103"/>
       <c r="F5" s="104"/>
-      <c r="G5" s="257" t="s">
+      <c r="G5" s="256" t="s">
         <v>214</v>
       </c>
       <c r="H5" s="134" t="s">
@@ -17471,7 +17472,7 @@
       </c>
       <c r="E6" s="169"/>
       <c r="F6" s="177"/>
-      <c r="G6" s="258"/>
+      <c r="G6" s="257"/>
       <c r="H6" s="176" t="s">
         <v>215</v>
       </c>
@@ -17493,7 +17494,7 @@
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="258"/>
+      <c r="G7" s="257"/>
       <c r="H7" s="134" t="s">
         <v>215</v>
       </c>
@@ -17515,7 +17516,7 @@
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="258"/>
+      <c r="G8" s="257"/>
       <c r="H8" s="139" t="s">
         <v>215</v>
       </c>
@@ -17537,7 +17538,7 @@
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="258"/>
+      <c r="G9" s="257"/>
       <c r="H9" s="134" t="s">
         <v>215</v>
       </c>
@@ -17559,7 +17560,7 @@
       </c>
       <c r="E10" s="170"/>
       <c r="F10" s="163"/>
-      <c r="G10" s="258"/>
+      <c r="G10" s="257"/>
       <c r="H10" s="155" t="s">
         <v>215</v>
       </c>
@@ -17581,7 +17582,7 @@
       </c>
       <c r="E11" s="170"/>
       <c r="F11" s="163"/>
-      <c r="G11" s="259"/>
+      <c r="G11" s="258"/>
       <c r="H11" s="155" t="s">
         <v>215</v>
       </c>
@@ -17741,7 +17742,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="264" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="100"/>
@@ -17777,7 +17778,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="263"/>
+      <c r="A2" s="265"/>
       <c r="B2" s="101"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -17826,15 +17827,15 @@
       <c r="E4" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="211" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220" t="s">
+      <c r="G4" s="211"/>
+      <c r="H4" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A5" s="32">
@@ -17850,15 +17851,15 @@
       <c r="E5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="260" t="s">
+      <c r="F5" s="259" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="261"/>
-      <c r="H5" s="264" t="s">
+      <c r="G5" s="260"/>
+      <c r="H5" s="261" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="265"/>
-      <c r="J5" s="266"/>
+      <c r="I5" s="262"/>
+      <c r="J5" s="263"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="32">
@@ -17874,15 +17875,15 @@
       <c r="E6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="260" t="s">
+      <c r="F6" s="259" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="261"/>
-      <c r="H6" s="264" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="261" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="265"/>
-      <c r="J6" s="266"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="263"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="32">
@@ -17898,15 +17899,15 @@
       <c r="E7" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="260" t="s">
+      <c r="F7" s="259" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="261"/>
-      <c r="H7" s="264" t="s">
+      <c r="G7" s="260"/>
+      <c r="H7" s="261" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="265"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="263"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -17916,11 +17917,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="261"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="266"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="263"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -17930,11 +17931,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="266"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="263"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -17944,11 +17945,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="265"/>
-      <c r="J10" s="266"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="262"/>
+      <c r="J10" s="263"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -17958,11 +17959,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="265"/>
-      <c r="J11" s="266"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="262"/>
+      <c r="J11" s="263"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -17972,11 +17973,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="261"/>
-      <c r="H12" s="264"/>
-      <c r="I12" s="265"/>
-      <c r="J12" s="266"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="261"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="263"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -17986,11 +17987,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="264"/>
-      <c r="I13" s="265"/>
-      <c r="J13" s="266"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="262"/>
+      <c r="J13" s="263"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -18000,25 +18001,21 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="261"/>
-      <c r="H14" s="264"/>
-      <c r="I14" s="265"/>
-      <c r="J14" s="266"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="262"/>
+      <c r="J14" s="263"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F10:G10"/>
@@ -18026,12 +18023,16 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
@@ -18076,20 +18077,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="273" t="str">
+      <c r="F1" s="266" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="273"/>
+      <c r="G1" s="266"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -18107,28 +18108,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="267" t="str">
+      <c r="M1" s="282" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="268"/>
-      <c r="O1" s="269"/>
+      <c r="N1" s="283"/>
+      <c r="O1" s="284"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="220"/>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="273" t="str">
+      <c r="F2" s="266" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="273"/>
+      <c r="G2" s="266"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -18146,12 +18147,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="267" t="str">
+      <c r="M2" s="282" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
-      <c r="N2" s="268"/>
-      <c r="O2" s="269"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="284"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
@@ -18174,12 +18175,12 @@
       <c r="F4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="226" t="s">
+      <c r="G4" s="225" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="226"/>
       <c r="K4" s="36" t="s">
         <v>56</v>
       </c>
@@ -18215,12 +18216,12 @@
       <c r="F5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="280" t="s">
+      <c r="G5" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="282"/>
+      <c r="H5" s="277"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="278"/>
       <c r="K5" s="122" t="s">
         <v>205</v>
       </c>
@@ -18258,12 +18259,12 @@
       <c r="F6" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="277" t="s">
-        <v>350</v>
-      </c>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="279"/>
+      <c r="G6" s="273" t="s">
+        <v>349</v>
+      </c>
+      <c r="H6" s="274"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="275"/>
       <c r="K6" s="180" t="s">
         <v>286</v>
       </c>
@@ -18299,12 +18300,12 @@
       <c r="F7" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="270" t="s">
+      <c r="G7" s="267" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="271"/>
-      <c r="I7" s="271"/>
-      <c r="J7" s="272"/>
+      <c r="H7" s="268"/>
+      <c r="I7" s="268"/>
+      <c r="J7" s="269"/>
       <c r="K7" s="124" t="s">
         <v>270</v>
       </c>
@@ -18338,12 +18339,12 @@
       <c r="F8" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="270" t="s">
+      <c r="G8" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="271"/>
-      <c r="I8" s="271"/>
-      <c r="J8" s="272"/>
+      <c r="H8" s="268"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
       <c r="K8" s="124" t="s">
         <v>270</v>
       </c>
@@ -18377,17 +18378,17 @@
       <c r="F9" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="277" t="s">
+      <c r="G9" s="273" t="s">
+        <v>350</v>
+      </c>
+      <c r="H9" s="274"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="275"/>
+      <c r="K9" s="181" t="s">
         <v>351</v>
       </c>
-      <c r="H9" s="278"/>
-      <c r="I9" s="278"/>
-      <c r="J9" s="279"/>
-      <c r="K9" s="181" t="s">
+      <c r="L9" s="181" t="s">
         <v>352</v>
-      </c>
-      <c r="L9" s="181" t="s">
-        <v>353</v>
       </c>
       <c r="M9" s="67"/>
       <c r="N9" s="112"/>
@@ -18414,12 +18415,12 @@
       <c r="F10" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="270" t="s">
+      <c r="G10" s="267" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="271"/>
-      <c r="I10" s="271"/>
-      <c r="J10" s="272"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="269"/>
       <c r="K10" s="124" t="s">
         <v>286</v>
       </c>
@@ -18455,12 +18456,12 @@
       <c r="F11" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="270" t="s">
+      <c r="G11" s="267" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="271"/>
-      <c r="I11" s="271"/>
-      <c r="J11" s="272"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="269"/>
       <c r="K11" s="124" t="s">
         <v>270</v>
       </c>
@@ -18494,12 +18495,12 @@
       <c r="F12" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="270" t="s">
+      <c r="G12" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="H12" s="271"/>
-      <c r="I12" s="271"/>
-      <c r="J12" s="272"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269"/>
       <c r="K12" s="113" t="s">
         <v>303</v>
       </c>
@@ -18531,12 +18532,12 @@
       <c r="F13" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="270" t="s">
+      <c r="G13" s="267" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="271"/>
-      <c r="I13" s="271"/>
-      <c r="J13" s="272"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="268"/>
+      <c r="J13" s="269"/>
       <c r="K13" s="124" t="s">
         <v>273</v>
       </c>
@@ -18570,12 +18571,12 @@
       <c r="F14" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="270" t="s">
+      <c r="G14" s="267" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="271"/>
-      <c r="I14" s="271"/>
-      <c r="J14" s="272"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="269"/>
       <c r="K14" s="113" t="s">
         <v>275</v>
       </c>
@@ -18607,17 +18608,17 @@
       <c r="F15" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="274" t="s">
+      <c r="G15" s="270" t="s">
+        <v>353</v>
+      </c>
+      <c r="H15" s="271"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="272"/>
+      <c r="K15" s="181" t="s">
         <v>354</v>
       </c>
-      <c r="H15" s="275"/>
-      <c r="I15" s="275"/>
-      <c r="J15" s="276"/>
-      <c r="K15" s="181" t="s">
+      <c r="L15" s="181" t="s">
         <v>355</v>
-      </c>
-      <c r="L15" s="181" t="s">
-        <v>356</v>
       </c>
       <c r="M15" s="56"/>
       <c r="N15" s="126"/>
@@ -18644,12 +18645,12 @@
       <c r="F16" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="270" t="s">
+      <c r="G16" s="267" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="272"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="268"/>
+      <c r="J16" s="269"/>
       <c r="K16" s="124" t="s">
         <v>199</v>
       </c>
@@ -18681,12 +18682,12 @@
       <c r="F17" s="172" t="s">
         <v>330</v>
       </c>
-      <c r="G17" s="283" t="s">
+      <c r="G17" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="284"/>
-      <c r="I17" s="284"/>
-      <c r="J17" s="285"/>
+      <c r="H17" s="280"/>
+      <c r="I17" s="280"/>
+      <c r="J17" s="281"/>
       <c r="K17" s="158" t="s">
         <v>205</v>
       </c>
@@ -18722,12 +18723,12 @@
       <c r="F18" s="172" t="s">
         <v>331</v>
       </c>
-      <c r="G18" s="283" t="s">
+      <c r="G18" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="284"/>
-      <c r="I18" s="284"/>
-      <c r="J18" s="285"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="280"/>
+      <c r="J18" s="281"/>
       <c r="K18" s="158" t="s">
         <v>205</v>
       </c>
@@ -18763,10 +18764,10 @@
       <c r="F19" s="172" t="s">
         <v>342</v>
       </c>
-      <c r="G19" s="283"/>
-      <c r="H19" s="284"/>
-      <c r="I19" s="284"/>
-      <c r="J19" s="285"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="281"/>
       <c r="K19" s="158"/>
       <c r="L19" s="158"/>
       <c r="M19" s="173"/>
@@ -18782,10 +18783,10 @@
       <c r="D20" s="111"/>
       <c r="E20" s="111"/>
       <c r="F20" s="110"/>
-      <c r="G20" s="270"/>
-      <c r="H20" s="271"/>
-      <c r="I20" s="271"/>
-      <c r="J20" s="272"/>
+      <c r="G20" s="267"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="268"/>
+      <c r="J20" s="269"/>
       <c r="K20" s="113"/>
       <c r="L20" s="113"/>
       <c r="M20" s="67"/>
@@ -18800,6 +18801,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
@@ -18816,12 +18823,6 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G18:J18"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048244:M1048576 M5 M17:M19"/>
@@ -18867,10 +18868,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
+      <c r="B1" s="211"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -18901,8 +18902,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="220"/>
-      <c r="B2" s="220"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -20387,171 +20388,171 @@
     </row>
     <row r="100" spans="1:16" ht="12" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="286" t="s">
+      <c r="B100" s="285" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="287"/>
-      <c r="D100" s="287"/>
-      <c r="E100" s="287"/>
-      <c r="F100" s="287"/>
-      <c r="G100" s="287"/>
-      <c r="H100" s="287"/>
-      <c r="I100" s="287"/>
-      <c r="J100" s="287"/>
-      <c r="K100" s="287"/>
-      <c r="L100" s="287"/>
-      <c r="M100" s="287"/>
-      <c r="N100" s="287"/>
-      <c r="O100" s="287"/>
-      <c r="P100" s="287"/>
+      <c r="C100" s="286"/>
+      <c r="D100" s="286"/>
+      <c r="E100" s="286"/>
+      <c r="F100" s="286"/>
+      <c r="G100" s="286"/>
+      <c r="H100" s="286"/>
+      <c r="I100" s="286"/>
+      <c r="J100" s="286"/>
+      <c r="K100" s="286"/>
+      <c r="L100" s="286"/>
+      <c r="M100" s="286"/>
+      <c r="N100" s="286"/>
+      <c r="O100" s="286"/>
+      <c r="P100" s="286"/>
     </row>
     <row r="101" spans="1:16" ht="12" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="287"/>
-      <c r="C101" s="287"/>
-      <c r="D101" s="287"/>
-      <c r="E101" s="287"/>
-      <c r="F101" s="287"/>
-      <c r="G101" s="287"/>
-      <c r="H101" s="287"/>
-      <c r="I101" s="287"/>
-      <c r="J101" s="287"/>
-      <c r="K101" s="287"/>
-      <c r="L101" s="287"/>
-      <c r="M101" s="287"/>
-      <c r="N101" s="287"/>
-      <c r="O101" s="287"/>
-      <c r="P101" s="287"/>
+      <c r="B101" s="286"/>
+      <c r="C101" s="286"/>
+      <c r="D101" s="286"/>
+      <c r="E101" s="286"/>
+      <c r="F101" s="286"/>
+      <c r="G101" s="286"/>
+      <c r="H101" s="286"/>
+      <c r="I101" s="286"/>
+      <c r="J101" s="286"/>
+      <c r="K101" s="286"/>
+      <c r="L101" s="286"/>
+      <c r="M101" s="286"/>
+      <c r="N101" s="286"/>
+      <c r="O101" s="286"/>
+      <c r="P101" s="286"/>
     </row>
     <row r="102" spans="1:16" ht="12" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="287"/>
-      <c r="C102" s="287"/>
-      <c r="D102" s="287"/>
-      <c r="E102" s="287"/>
-      <c r="F102" s="287"/>
-      <c r="G102" s="287"/>
-      <c r="H102" s="287"/>
-      <c r="I102" s="287"/>
-      <c r="J102" s="287"/>
-      <c r="K102" s="287"/>
-      <c r="L102" s="287"/>
-      <c r="M102" s="287"/>
-      <c r="N102" s="287"/>
-      <c r="O102" s="287"/>
-      <c r="P102" s="287"/>
+      <c r="B102" s="286"/>
+      <c r="C102" s="286"/>
+      <c r="D102" s="286"/>
+      <c r="E102" s="286"/>
+      <c r="F102" s="286"/>
+      <c r="G102" s="286"/>
+      <c r="H102" s="286"/>
+      <c r="I102" s="286"/>
+      <c r="J102" s="286"/>
+      <c r="K102" s="286"/>
+      <c r="L102" s="286"/>
+      <c r="M102" s="286"/>
+      <c r="N102" s="286"/>
+      <c r="O102" s="286"/>
+      <c r="P102" s="286"/>
     </row>
     <row r="103" spans="1:16" ht="12" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="286" t="s">
+      <c r="B103" s="285" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="287"/>
-      <c r="D103" s="287"/>
-      <c r="E103" s="287"/>
-      <c r="F103" s="287"/>
-      <c r="G103" s="287"/>
-      <c r="H103" s="287"/>
-      <c r="I103" s="287"/>
-      <c r="J103" s="287"/>
-      <c r="K103" s="287"/>
-      <c r="L103" s="287"/>
-      <c r="M103" s="287"/>
-      <c r="N103" s="287"/>
-      <c r="O103" s="287"/>
-      <c r="P103" s="287"/>
+      <c r="C103" s="286"/>
+      <c r="D103" s="286"/>
+      <c r="E103" s="286"/>
+      <c r="F103" s="286"/>
+      <c r="G103" s="286"/>
+      <c r="H103" s="286"/>
+      <c r="I103" s="286"/>
+      <c r="J103" s="286"/>
+      <c r="K103" s="286"/>
+      <c r="L103" s="286"/>
+      <c r="M103" s="286"/>
+      <c r="N103" s="286"/>
+      <c r="O103" s="286"/>
+      <c r="P103" s="286"/>
     </row>
     <row r="104" spans="1:16" ht="12" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="287"/>
-      <c r="C104" s="287"/>
-      <c r="D104" s="287"/>
-      <c r="E104" s="287"/>
-      <c r="F104" s="287"/>
-      <c r="G104" s="287"/>
-      <c r="H104" s="287"/>
-      <c r="I104" s="287"/>
-      <c r="J104" s="287"/>
-      <c r="K104" s="287"/>
-      <c r="L104" s="287"/>
-      <c r="M104" s="287"/>
-      <c r="N104" s="287"/>
-      <c r="O104" s="287"/>
-      <c r="P104" s="287"/>
+      <c r="B104" s="286"/>
+      <c r="C104" s="286"/>
+      <c r="D104" s="286"/>
+      <c r="E104" s="286"/>
+      <c r="F104" s="286"/>
+      <c r="G104" s="286"/>
+      <c r="H104" s="286"/>
+      <c r="I104" s="286"/>
+      <c r="J104" s="286"/>
+      <c r="K104" s="286"/>
+      <c r="L104" s="286"/>
+      <c r="M104" s="286"/>
+      <c r="N104" s="286"/>
+      <c r="O104" s="286"/>
+      <c r="P104" s="286"/>
     </row>
     <row r="105" spans="1:16" ht="12" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="287"/>
-      <c r="C105" s="287"/>
-      <c r="D105" s="287"/>
-      <c r="E105" s="287"/>
-      <c r="F105" s="287"/>
-      <c r="G105" s="287"/>
-      <c r="H105" s="287"/>
-      <c r="I105" s="287"/>
-      <c r="J105" s="287"/>
-      <c r="K105" s="287"/>
-      <c r="L105" s="287"/>
-      <c r="M105" s="287"/>
-      <c r="N105" s="287"/>
-      <c r="O105" s="287"/>
-      <c r="P105" s="287"/>
+      <c r="B105" s="286"/>
+      <c r="C105" s="286"/>
+      <c r="D105" s="286"/>
+      <c r="E105" s="286"/>
+      <c r="F105" s="286"/>
+      <c r="G105" s="286"/>
+      <c r="H105" s="286"/>
+      <c r="I105" s="286"/>
+      <c r="J105" s="286"/>
+      <c r="K105" s="286"/>
+      <c r="L105" s="286"/>
+      <c r="M105" s="286"/>
+      <c r="N105" s="286"/>
+      <c r="O105" s="286"/>
+      <c r="P105" s="286"/>
     </row>
     <row r="106" spans="1:16" ht="12" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="286" t="s">
+      <c r="B106" s="285" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="287"/>
-      <c r="D106" s="287"/>
-      <c r="E106" s="287"/>
-      <c r="F106" s="287"/>
-      <c r="G106" s="287"/>
-      <c r="H106" s="287"/>
-      <c r="I106" s="287"/>
-      <c r="J106" s="287"/>
-      <c r="K106" s="287"/>
-      <c r="L106" s="287"/>
-      <c r="M106" s="287"/>
-      <c r="N106" s="287"/>
-      <c r="O106" s="287"/>
-      <c r="P106" s="287"/>
+      <c r="C106" s="286"/>
+      <c r="D106" s="286"/>
+      <c r="E106" s="286"/>
+      <c r="F106" s="286"/>
+      <c r="G106" s="286"/>
+      <c r="H106" s="286"/>
+      <c r="I106" s="286"/>
+      <c r="J106" s="286"/>
+      <c r="K106" s="286"/>
+      <c r="L106" s="286"/>
+      <c r="M106" s="286"/>
+      <c r="N106" s="286"/>
+      <c r="O106" s="286"/>
+      <c r="P106" s="286"/>
     </row>
     <row r="107" spans="1:16" ht="12" customHeight="1">
       <c r="A107" s="62"/>
-      <c r="B107" s="287"/>
-      <c r="C107" s="287"/>
-      <c r="D107" s="287"/>
-      <c r="E107" s="287"/>
-      <c r="F107" s="287"/>
-      <c r="G107" s="287"/>
-      <c r="H107" s="287"/>
-      <c r="I107" s="287"/>
-      <c r="J107" s="287"/>
-      <c r="K107" s="287"/>
-      <c r="L107" s="287"/>
-      <c r="M107" s="287"/>
-      <c r="N107" s="287"/>
-      <c r="O107" s="287"/>
-      <c r="P107" s="287"/>
+      <c r="B107" s="286"/>
+      <c r="C107" s="286"/>
+      <c r="D107" s="286"/>
+      <c r="E107" s="286"/>
+      <c r="F107" s="286"/>
+      <c r="G107" s="286"/>
+      <c r="H107" s="286"/>
+      <c r="I107" s="286"/>
+      <c r="J107" s="286"/>
+      <c r="K107" s="286"/>
+      <c r="L107" s="286"/>
+      <c r="M107" s="286"/>
+      <c r="N107" s="286"/>
+      <c r="O107" s="286"/>
+      <c r="P107" s="286"/>
     </row>
     <row r="108" spans="1:16" ht="12" customHeight="1">
       <c r="A108" s="62"/>
-      <c r="B108" s="287"/>
-      <c r="C108" s="287"/>
-      <c r="D108" s="287"/>
-      <c r="E108" s="287"/>
-      <c r="F108" s="287"/>
-      <c r="G108" s="287"/>
-      <c r="H108" s="287"/>
-      <c r="I108" s="287"/>
-      <c r="J108" s="287"/>
-      <c r="K108" s="287"/>
-      <c r="L108" s="287"/>
-      <c r="M108" s="287"/>
-      <c r="N108" s="287"/>
-      <c r="O108" s="287"/>
-      <c r="P108" s="287"/>
+      <c r="B108" s="286"/>
+      <c r="C108" s="286"/>
+      <c r="D108" s="286"/>
+      <c r="E108" s="286"/>
+      <c r="F108" s="286"/>
+      <c r="G108" s="286"/>
+      <c r="H108" s="286"/>
+      <c r="I108" s="286"/>
+      <c r="J108" s="286"/>
+      <c r="K108" s="286"/>
+      <c r="L108" s="286"/>
+      <c r="M108" s="286"/>
+      <c r="N108" s="286"/>
+      <c r="O108" s="286"/>
+      <c r="P108" s="286"/>
     </row>
     <row r="109" spans="1:16" ht="12" customHeight="1">
       <c r="A109" s="62"/>
@@ -20570,113 +20571,113 @@
     </row>
     <row r="110" spans="1:16" ht="12" customHeight="1">
       <c r="A110" s="62"/>
-      <c r="B110" s="286" t="s">
+      <c r="B110" s="285" t="s">
         <v>296</v>
       </c>
-      <c r="C110" s="287"/>
-      <c r="D110" s="287"/>
-      <c r="E110" s="287"/>
-      <c r="F110" s="287"/>
-      <c r="G110" s="287"/>
-      <c r="H110" s="287"/>
-      <c r="I110" s="287"/>
-      <c r="J110" s="287"/>
-      <c r="K110" s="287"/>
-      <c r="L110" s="287"/>
-      <c r="M110" s="287"/>
-      <c r="N110" s="287"/>
-      <c r="O110" s="287"/>
-      <c r="P110" s="287"/>
+      <c r="C110" s="286"/>
+      <c r="D110" s="286"/>
+      <c r="E110" s="286"/>
+      <c r="F110" s="286"/>
+      <c r="G110" s="286"/>
+      <c r="H110" s="286"/>
+      <c r="I110" s="286"/>
+      <c r="J110" s="286"/>
+      <c r="K110" s="286"/>
+      <c r="L110" s="286"/>
+      <c r="M110" s="286"/>
+      <c r="N110" s="286"/>
+      <c r="O110" s="286"/>
+      <c r="P110" s="286"/>
     </row>
     <row r="111" spans="1:16" ht="12" customHeight="1">
       <c r="A111" s="62"/>
-      <c r="B111" s="286"/>
-      <c r="C111" s="287"/>
-      <c r="D111" s="287"/>
-      <c r="E111" s="287"/>
-      <c r="F111" s="287"/>
-      <c r="G111" s="287"/>
-      <c r="H111" s="287"/>
-      <c r="I111" s="287"/>
-      <c r="J111" s="287"/>
-      <c r="K111" s="287"/>
-      <c r="L111" s="287"/>
-      <c r="M111" s="287"/>
-      <c r="N111" s="287"/>
-      <c r="O111" s="287"/>
-      <c r="P111" s="287"/>
+      <c r="B111" s="285"/>
+      <c r="C111" s="286"/>
+      <c r="D111" s="286"/>
+      <c r="E111" s="286"/>
+      <c r="F111" s="286"/>
+      <c r="G111" s="286"/>
+      <c r="H111" s="286"/>
+      <c r="I111" s="286"/>
+      <c r="J111" s="286"/>
+      <c r="K111" s="286"/>
+      <c r="L111" s="286"/>
+      <c r="M111" s="286"/>
+      <c r="N111" s="286"/>
+      <c r="O111" s="286"/>
+      <c r="P111" s="286"/>
     </row>
     <row r="112" spans="1:16" ht="12" customHeight="1">
       <c r="A112" s="62"/>
-      <c r="B112" s="286"/>
-      <c r="C112" s="287"/>
-      <c r="D112" s="287"/>
-      <c r="E112" s="287"/>
-      <c r="F112" s="287"/>
-      <c r="G112" s="287"/>
-      <c r="H112" s="287"/>
-      <c r="I112" s="287"/>
-      <c r="J112" s="287"/>
-      <c r="K112" s="287"/>
-      <c r="L112" s="287"/>
-      <c r="M112" s="287"/>
-      <c r="N112" s="287"/>
-      <c r="O112" s="287"/>
-      <c r="P112" s="287"/>
+      <c r="B112" s="285"/>
+      <c r="C112" s="286"/>
+      <c r="D112" s="286"/>
+      <c r="E112" s="286"/>
+      <c r="F112" s="286"/>
+      <c r="G112" s="286"/>
+      <c r="H112" s="286"/>
+      <c r="I112" s="286"/>
+      <c r="J112" s="286"/>
+      <c r="K112" s="286"/>
+      <c r="L112" s="286"/>
+      <c r="M112" s="286"/>
+      <c r="N112" s="286"/>
+      <c r="O112" s="286"/>
+      <c r="P112" s="286"/>
     </row>
     <row r="113" spans="1:20" ht="12" customHeight="1">
       <c r="A113" s="62"/>
-      <c r="B113" s="286"/>
-      <c r="C113" s="287"/>
-      <c r="D113" s="287"/>
-      <c r="E113" s="287"/>
-      <c r="F113" s="287"/>
-      <c r="G113" s="287"/>
-      <c r="H113" s="287"/>
-      <c r="I113" s="287"/>
-      <c r="J113" s="287"/>
-      <c r="K113" s="287"/>
-      <c r="L113" s="287"/>
-      <c r="M113" s="287"/>
-      <c r="N113" s="287"/>
-      <c r="O113" s="287"/>
-      <c r="P113" s="287"/>
+      <c r="B113" s="285"/>
+      <c r="C113" s="286"/>
+      <c r="D113" s="286"/>
+      <c r="E113" s="286"/>
+      <c r="F113" s="286"/>
+      <c r="G113" s="286"/>
+      <c r="H113" s="286"/>
+      <c r="I113" s="286"/>
+      <c r="J113" s="286"/>
+      <c r="K113" s="286"/>
+      <c r="L113" s="286"/>
+      <c r="M113" s="286"/>
+      <c r="N113" s="286"/>
+      <c r="O113" s="286"/>
+      <c r="P113" s="286"/>
     </row>
     <row r="114" spans="1:20" ht="12" customHeight="1">
       <c r="A114" s="62"/>
-      <c r="B114" s="286"/>
-      <c r="C114" s="287"/>
-      <c r="D114" s="287"/>
-      <c r="E114" s="287"/>
-      <c r="F114" s="287"/>
-      <c r="G114" s="287"/>
-      <c r="H114" s="287"/>
-      <c r="I114" s="287"/>
-      <c r="J114" s="287"/>
-      <c r="K114" s="287"/>
-      <c r="L114" s="287"/>
-      <c r="M114" s="287"/>
-      <c r="N114" s="287"/>
-      <c r="O114" s="287"/>
-      <c r="P114" s="287"/>
+      <c r="B114" s="285"/>
+      <c r="C114" s="286"/>
+      <c r="D114" s="286"/>
+      <c r="E114" s="286"/>
+      <c r="F114" s="286"/>
+      <c r="G114" s="286"/>
+      <c r="H114" s="286"/>
+      <c r="I114" s="286"/>
+      <c r="J114" s="286"/>
+      <c r="K114" s="286"/>
+      <c r="L114" s="286"/>
+      <c r="M114" s="286"/>
+      <c r="N114" s="286"/>
+      <c r="O114" s="286"/>
+      <c r="P114" s="286"/>
     </row>
     <row r="115" spans="1:20" ht="12" customHeight="1">
       <c r="A115" s="62"/>
-      <c r="B115" s="286"/>
-      <c r="C115" s="287"/>
-      <c r="D115" s="287"/>
-      <c r="E115" s="287"/>
-      <c r="F115" s="287"/>
-      <c r="G115" s="287"/>
-      <c r="H115" s="287"/>
-      <c r="I115" s="287"/>
-      <c r="J115" s="287"/>
-      <c r="K115" s="287"/>
-      <c r="L115" s="287"/>
-      <c r="M115" s="287"/>
-      <c r="N115" s="287"/>
-      <c r="O115" s="287"/>
-      <c r="P115" s="287"/>
+      <c r="B115" s="285"/>
+      <c r="C115" s="286"/>
+      <c r="D115" s="286"/>
+      <c r="E115" s="286"/>
+      <c r="F115" s="286"/>
+      <c r="G115" s="286"/>
+      <c r="H115" s="286"/>
+      <c r="I115" s="286"/>
+      <c r="J115" s="286"/>
+      <c r="K115" s="286"/>
+      <c r="L115" s="286"/>
+      <c r="M115" s="286"/>
+      <c r="N115" s="286"/>
+      <c r="O115" s="286"/>
+      <c r="P115" s="286"/>
     </row>
     <row r="116" spans="1:20" ht="12" customHeight="1">
       <c r="A116" s="62"/>
@@ -20695,69 +20696,69 @@
     </row>
     <row r="117" spans="1:20" ht="12" customHeight="1">
       <c r="A117" s="62"/>
-      <c r="B117" s="286" t="s">
+      <c r="B117" s="285" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="287"/>
-      <c r="D117" s="287"/>
-      <c r="E117" s="287"/>
-      <c r="F117" s="287"/>
-      <c r="G117" s="287"/>
-      <c r="H117" s="287"/>
-      <c r="I117" s="287"/>
-      <c r="J117" s="287"/>
-      <c r="K117" s="287"/>
-      <c r="L117" s="287"/>
-      <c r="M117" s="287"/>
-      <c r="N117" s="287"/>
-      <c r="O117" s="287"/>
-      <c r="P117" s="287"/>
+      <c r="C117" s="286"/>
+      <c r="D117" s="286"/>
+      <c r="E117" s="286"/>
+      <c r="F117" s="286"/>
+      <c r="G117" s="286"/>
+      <c r="H117" s="286"/>
+      <c r="I117" s="286"/>
+      <c r="J117" s="286"/>
+      <c r="K117" s="286"/>
+      <c r="L117" s="286"/>
+      <c r="M117" s="286"/>
+      <c r="N117" s="286"/>
+      <c r="O117" s="286"/>
+      <c r="P117" s="286"/>
     </row>
     <row r="118" spans="1:20" ht="12" customHeight="1">
       <c r="A118" s="62"/>
-      <c r="B118" s="287"/>
-      <c r="C118" s="287"/>
-      <c r="D118" s="287"/>
-      <c r="E118" s="287"/>
-      <c r="F118" s="287"/>
-      <c r="G118" s="287"/>
-      <c r="H118" s="287"/>
-      <c r="I118" s="287"/>
-      <c r="J118" s="287"/>
-      <c r="K118" s="287"/>
-      <c r="L118" s="287"/>
-      <c r="M118" s="287"/>
-      <c r="N118" s="287"/>
-      <c r="O118" s="287"/>
-      <c r="P118" s="287"/>
+      <c r="B118" s="286"/>
+      <c r="C118" s="286"/>
+      <c r="D118" s="286"/>
+      <c r="E118" s="286"/>
+      <c r="F118" s="286"/>
+      <c r="G118" s="286"/>
+      <c r="H118" s="286"/>
+      <c r="I118" s="286"/>
+      <c r="J118" s="286"/>
+      <c r="K118" s="286"/>
+      <c r="L118" s="286"/>
+      <c r="M118" s="286"/>
+      <c r="N118" s="286"/>
+      <c r="O118" s="286"/>
+      <c r="P118" s="286"/>
     </row>
     <row r="119" spans="1:20" ht="12" customHeight="1">
       <c r="A119" s="62"/>
-      <c r="B119" s="287"/>
-      <c r="C119" s="287"/>
-      <c r="D119" s="287"/>
-      <c r="E119" s="287"/>
-      <c r="F119" s="287"/>
-      <c r="G119" s="287"/>
-      <c r="H119" s="287"/>
-      <c r="I119" s="287"/>
-      <c r="J119" s="287"/>
-      <c r="K119" s="287"/>
-      <c r="L119" s="287"/>
-      <c r="M119" s="287"/>
-      <c r="N119" s="287"/>
-      <c r="O119" s="287"/>
-      <c r="P119" s="287"/>
+      <c r="B119" s="286"/>
+      <c r="C119" s="286"/>
+      <c r="D119" s="286"/>
+      <c r="E119" s="286"/>
+      <c r="F119" s="286"/>
+      <c r="G119" s="286"/>
+      <c r="H119" s="286"/>
+      <c r="I119" s="286"/>
+      <c r="J119" s="286"/>
+      <c r="K119" s="286"/>
+      <c r="L119" s="286"/>
+      <c r="M119" s="286"/>
+      <c r="N119" s="286"/>
+      <c r="O119" s="286"/>
+      <c r="P119" s="286"/>
     </row>
     <row r="120" spans="1:20" ht="12" customHeight="1">
       <c r="A120" s="62"/>
-      <c r="B120" s="289" t="s">
+      <c r="B120" s="288" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="289"/>
-      <c r="D120" s="289"/>
-      <c r="E120" s="289"/>
-      <c r="F120" s="289"/>
+      <c r="C120" s="288"/>
+      <c r="D120" s="288"/>
+      <c r="E120" s="288"/>
+      <c r="F120" s="288"/>
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="40"/>
@@ -20800,13 +20801,13 @@
     </row>
     <row r="123" spans="1:20" ht="12" customHeight="1">
       <c r="A123" s="62"/>
-      <c r="B123" s="289" t="s">
+      <c r="B123" s="288" t="s">
         <v>298</v>
       </c>
-      <c r="C123" s="289"/>
-      <c r="D123" s="289"/>
-      <c r="E123" s="289"/>
-      <c r="F123" s="289"/>
+      <c r="C123" s="288"/>
+      <c r="D123" s="288"/>
+      <c r="E123" s="288"/>
+      <c r="F123" s="288"/>
       <c r="G123" s="40"/>
       <c r="H123" s="40"/>
       <c r="I123" s="40"/>
@@ -20835,13 +20836,13 @@
     <row r="125" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
       <c r="A125" s="145"/>
       <c r="B125" s="146"/>
-      <c r="C125" s="288" t="s">
+      <c r="C125" s="287" t="s">
         <v>305</v>
       </c>
-      <c r="D125" s="288"/>
-      <c r="E125" s="288"/>
-      <c r="F125" s="288"/>
-      <c r="G125" s="288"/>
+      <c r="D125" s="287"/>
+      <c r="E125" s="287"/>
+      <c r="F125" s="287"/>
+      <c r="G125" s="287"/>
       <c r="H125" s="147"/>
       <c r="I125" s="147"/>
       <c r="J125" s="147"/>
@@ -20929,7 +20930,7 @@
     <row r="130" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
       <c r="A130" s="186"/>
       <c r="B130" s="184" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C130" s="182"/>
       <c r="D130" s="187"/>
@@ -20946,7 +20947,7 @@
     <row r="131" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
       <c r="A131" s="186"/>
       <c r="C131" s="182" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D131" s="187"/>
       <c r="E131" s="182"/>
@@ -20963,7 +20964,7 @@
       <c r="A132" s="186"/>
       <c r="B132" s="182"/>
       <c r="C132" s="182" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D132" s="182"/>
       <c r="E132" s="182"/>
@@ -21927,10 +21928,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
+      <c r="B1" s="211"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -21961,8 +21962,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="220"/>
-      <c r="B2" s="220"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
@@ -2705,7 +2705,7 @@
 </t>
   </si>
   <si>
-    <t>- STT yêu cầu là: 2;5 (bên file Tasklist)
+    <t>- STT yêu cầu là: 4 (bên file Tasklist)
  -Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
   </si>
 </sst>
@@ -3802,6 +3802,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4017,9 +4020,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -14365,14 +14365,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="289" t="s">
+      <c r="B1" s="290" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -14565,11 +14565,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="290" t="s">
+      <c r="E27" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="291"/>
-      <c r="G27" s="292"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="293"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -14877,7 +14877,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:J8"/>
+      <selection activeCell="E29" sqref="E29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -15051,14 +15051,14 @@
       <c r="D8" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="293" t="s">
+      <c r="E8" s="221" t="s">
         <v>356</v>
       </c>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="74">
@@ -15069,12 +15069,12 @@
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="224"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="225"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="75">
@@ -15085,12 +15085,12 @@
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="225"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="76">
@@ -15101,12 +15101,12 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="225"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="77">
@@ -15117,12 +15117,12 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="224"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="225"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="78">
@@ -15133,12 +15133,12 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="224"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="225"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="79">
@@ -15149,12 +15149,12 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="224"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="225"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -15620,20 +15620,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="225" t="s">
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="226"/>
+      <c r="J4" s="227"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -15644,10 +15644,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="232" t="s">
+      <c r="I5" s="233" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="233"/>
+      <c r="J5" s="234"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -15658,8 +15658,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="236"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -15670,8 +15670,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="234"/>
-      <c r="J7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="236"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -15682,8 +15682,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="236"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -15694,8 +15694,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="236"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -15706,8 +15706,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="238"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -15718,10 +15718,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="225" t="s">
+      <c r="I11" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="226"/>
+      <c r="J11" s="227"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -15732,10 +15732,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="228" t="s">
+      <c r="I12" s="229" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="229"/>
+      <c r="J12" s="230"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -15746,8 +15746,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="230"/>
-      <c r="J13" s="231"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="232"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -15758,8 +15758,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="231"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="232"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -15770,8 +15770,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="230"/>
-      <c r="J15" s="231"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="232"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -15782,8 +15782,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="231"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="232"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -15794,8 +15794,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="230"/>
-      <c r="J17" s="231"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="232"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -15806,8 +15806,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="230"/>
-      <c r="J18" s="231"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="232"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -15818,8 +15818,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="231"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="232"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -15830,8 +15830,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="231"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="232"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -15842,8 +15842,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="230"/>
-      <c r="J21" s="231"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="232"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -15854,8 +15854,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="231"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="232"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -15866,8 +15866,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="231"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="232"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -15878,8 +15878,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="230"/>
-      <c r="J24" s="231"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="232"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -15890,8 +15890,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="230"/>
-      <c r="J25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="232"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -15902,8 +15902,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="231"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="232"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -15914,8 +15914,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="231"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="232"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -15926,8 +15926,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="231"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="232"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -15938,8 +15938,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="231"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="232"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -15950,8 +15950,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="230"/>
-      <c r="J30" s="231"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="232"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -15962,8 +15962,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="230"/>
-      <c r="J31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="232"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -15974,8 +15974,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="231"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="232"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -15986,8 +15986,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="230"/>
-      <c r="J33" s="231"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="232"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -15998,8 +15998,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="230"/>
-      <c r="J34" s="231"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="232"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -16010,8 +16010,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="231"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="232"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -16022,8 +16022,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="230"/>
-      <c r="J36" s="231"/>
+      <c r="I36" s="231"/>
+      <c r="J36" s="232"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -16034,8 +16034,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="230"/>
-      <c r="J37" s="231"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="232"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -16046,8 +16046,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="230"/>
-      <c r="J38" s="231"/>
+      <c r="I38" s="231"/>
+      <c r="J38" s="232"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -16058,8 +16058,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="230"/>
-      <c r="J39" s="231"/>
+      <c r="I39" s="231"/>
+      <c r="J39" s="232"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -16070,8 +16070,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="230"/>
-      <c r="J40" s="231"/>
+      <c r="I40" s="231"/>
+      <c r="J40" s="232"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -16082,8 +16082,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="230"/>
-      <c r="J41" s="231"/>
+      <c r="I41" s="231"/>
+      <c r="J41" s="232"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -16094,8 +16094,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="230"/>
-      <c r="J42" s="231"/>
+      <c r="I42" s="231"/>
+      <c r="J42" s="232"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -16106,8 +16106,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="230"/>
-      <c r="J43" s="231"/>
+      <c r="I43" s="231"/>
+      <c r="J43" s="232"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -16118,8 +16118,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="230"/>
-      <c r="J44" s="231"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="232"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -16130,8 +16130,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="230"/>
-      <c r="J45" s="231"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="232"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -16142,8 +16142,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="230"/>
-      <c r="J46" s="231"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="232"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16211,16 +16211,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="242" t="s">
+      <c r="G1" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="243"/>
-      <c r="I1" s="244" t="str">
+      <c r="H1" s="244"/>
+      <c r="I1" s="245" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="J1" s="245"/>
-      <c r="K1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="247"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -16248,16 +16248,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="242" t="s">
+      <c r="G2" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="243"/>
-      <c r="I2" s="244" t="str">
+      <c r="H2" s="244"/>
+      <c r="I2" s="245" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="J2" s="245"/>
-      <c r="K2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="247"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -16391,7 +16391,7 @@
       <c r="B7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="247">
+      <c r="C7" s="248">
         <v>5</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -16430,7 +16430,7 @@
       <c r="B8" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="248"/>
+      <c r="C8" s="249"/>
       <c r="D8" s="129" t="s">
         <v>237</v>
       </c>
@@ -16457,7 +16457,7 @@
       <c r="B9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="249"/>
+      <c r="C9" s="250"/>
       <c r="D9" s="136" t="s">
         <v>238</v>
       </c>
@@ -16484,7 +16484,7 @@
       <c r="B10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="250">
+      <c r="C10" s="251">
         <v>7</v>
       </c>
       <c r="D10" s="118" t="s">
@@ -16523,7 +16523,7 @@
       <c r="B11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="251"/>
+      <c r="C11" s="252"/>
       <c r="D11" s="118" t="s">
         <v>248</v>
       </c>
@@ -16549,7 +16549,7 @@
       <c r="B12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="252"/>
+      <c r="C12" s="253"/>
       <c r="D12" s="118" t="s">
         <v>249</v>
       </c>
@@ -16752,7 +16752,7 @@
       <c r="B18" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="250">
+      <c r="C18" s="251">
         <v>18</v>
       </c>
       <c r="D18" s="118" t="s">
@@ -16770,7 +16770,7 @@
       <c r="L18" s="115"/>
       <c r="M18" s="115"/>
       <c r="N18" s="115"/>
-      <c r="O18" s="253" t="s">
+      <c r="O18" s="254" t="s">
         <v>260</v>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       <c r="B19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="251"/>
+      <c r="C19" s="252"/>
       <c r="D19" s="118" t="s">
         <v>251</v>
       </c>
@@ -16799,7 +16799,7 @@
       <c r="L19" s="133"/>
       <c r="M19" s="133"/>
       <c r="N19" s="133"/>
-      <c r="O19" s="254"/>
+      <c r="O19" s="255"/>
     </row>
     <row r="20" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A20" s="102">
@@ -16808,7 +16808,7 @@
       <c r="B20" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="252"/>
+      <c r="C20" s="253"/>
       <c r="D20" s="137" t="s">
         <v>252</v>
       </c>
@@ -16828,7 +16828,7 @@
       <c r="N20" s="105">
         <v>0</v>
       </c>
-      <c r="O20" s="255"/>
+      <c r="O20" s="256"/>
     </row>
     <row r="21" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A21" s="102">
@@ -16859,7 +16859,7 @@
       <c r="N21" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="O21" s="238" t="s">
+      <c r="O21" s="239" t="s">
         <v>194</v>
       </c>
     </row>
@@ -16892,7 +16892,7 @@
       <c r="N22" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O22" s="240"/>
+      <c r="O22" s="241"/>
     </row>
     <row r="23" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A23" s="102">
@@ -16923,7 +16923,7 @@
       <c r="N23" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O23" s="241"/>
+      <c r="O23" s="242"/>
     </row>
     <row r="24" spans="1:15" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="102">
@@ -16954,7 +16954,7 @@
       <c r="N24" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O24" s="238" t="s">
+      <c r="O24" s="239" t="s">
         <v>195</v>
       </c>
     </row>
@@ -16987,7 +16987,7 @@
       <c r="N25" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O25" s="239"/>
+      <c r="O25" s="240"/>
     </row>
     <row r="26" spans="1:15" s="153" customFormat="1" ht="11.25">
       <c r="A26" s="153">
@@ -17448,7 +17448,7 @@
       </c>
       <c r="E5" s="103"/>
       <c r="F5" s="104"/>
-      <c r="G5" s="256" t="s">
+      <c r="G5" s="257" t="s">
         <v>214</v>
       </c>
       <c r="H5" s="134" t="s">
@@ -17472,7 +17472,7 @@
       </c>
       <c r="E6" s="169"/>
       <c r="F6" s="177"/>
-      <c r="G6" s="257"/>
+      <c r="G6" s="258"/>
       <c r="H6" s="176" t="s">
         <v>215</v>
       </c>
@@ -17494,7 +17494,7 @@
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="257"/>
+      <c r="G7" s="258"/>
       <c r="H7" s="134" t="s">
         <v>215</v>
       </c>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="257"/>
+      <c r="G8" s="258"/>
       <c r="H8" s="139" t="s">
         <v>215</v>
       </c>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="257"/>
+      <c r="G9" s="258"/>
       <c r="H9" s="134" t="s">
         <v>215</v>
       </c>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="E10" s="170"/>
       <c r="F10" s="163"/>
-      <c r="G10" s="257"/>
+      <c r="G10" s="258"/>
       <c r="H10" s="155" t="s">
         <v>215</v>
       </c>
@@ -17582,7 +17582,7 @@
       </c>
       <c r="E11" s="170"/>
       <c r="F11" s="163"/>
-      <c r="G11" s="258"/>
+      <c r="G11" s="259"/>
       <c r="H11" s="155" t="s">
         <v>215</v>
       </c>
@@ -17742,7 +17742,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="265" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="100"/>
@@ -17778,7 +17778,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="265"/>
+      <c r="A2" s="266"/>
       <c r="B2" s="101"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -17851,15 +17851,15 @@
       <c r="E5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="259" t="s">
+      <c r="F5" s="260" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="260"/>
-      <c r="H5" s="261" t="s">
+      <c r="G5" s="261"/>
+      <c r="H5" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="262"/>
-      <c r="J5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="264"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="32">
@@ -17875,15 +17875,15 @@
       <c r="E6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="259" t="s">
+      <c r="F6" s="260" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="260"/>
-      <c r="H6" s="261" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="262" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="262"/>
-      <c r="J6" s="263"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="264"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="32">
@@ -17899,15 +17899,15 @@
       <c r="E7" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="259" t="s">
+      <c r="F7" s="260" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261" t="s">
+      <c r="G7" s="261"/>
+      <c r="H7" s="262" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="262"/>
-      <c r="J7" s="263"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="264"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -17917,11 +17917,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="259"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="263"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="263"/>
+      <c r="J8" s="264"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -17931,11 +17931,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="261"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="263"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="262"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="264"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -17945,11 +17945,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="259"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="261"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="263"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="261"/>
+      <c r="H10" s="262"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="264"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -17959,11 +17959,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="262"/>
-      <c r="J11" s="263"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="262"/>
+      <c r="I11" s="263"/>
+      <c r="J11" s="264"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -17973,11 +17973,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="259"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="261"/>
-      <c r="I12" s="262"/>
-      <c r="J12" s="263"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="261"/>
+      <c r="H12" s="262"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="264"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -17987,11 +17987,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="262"/>
-      <c r="J13" s="263"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="261"/>
+      <c r="H13" s="262"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="264"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -18001,11 +18001,11 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="261"/>
-      <c r="I14" s="262"/>
-      <c r="J14" s="263"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="261"/>
+      <c r="H14" s="262"/>
+      <c r="I14" s="263"/>
+      <c r="J14" s="264"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -18086,11 +18086,11 @@
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="266" t="str">
+      <c r="F1" s="267" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="266"/>
+      <c r="G1" s="267"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -18108,12 +18108,12 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="282" t="str">
+      <c r="M1" s="283" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="283"/>
-      <c r="O1" s="284"/>
+      <c r="N1" s="284"/>
+      <c r="O1" s="285"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
@@ -18125,11 +18125,11 @@
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="266" t="str">
+      <c r="F2" s="267" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="266"/>
+      <c r="G2" s="267"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -18147,12 +18147,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="282" t="str">
+      <c r="M2" s="283" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
-      <c r="N2" s="283"/>
-      <c r="O2" s="284"/>
+      <c r="N2" s="284"/>
+      <c r="O2" s="285"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
@@ -18175,12 +18175,12 @@
       <c r="F4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="225" t="s">
+      <c r="G4" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="226"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="227"/>
       <c r="K4" s="36" t="s">
         <v>56</v>
       </c>
@@ -18216,12 +18216,12 @@
       <c r="F5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="276" t="s">
+      <c r="G5" s="277" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="277"/>
-      <c r="I5" s="277"/>
-      <c r="J5" s="278"/>
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="279"/>
       <c r="K5" s="122" t="s">
         <v>205</v>
       </c>
@@ -18259,12 +18259,12 @@
       <c r="F6" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="273" t="s">
+      <c r="G6" s="274" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="274"/>
-      <c r="I6" s="274"/>
-      <c r="J6" s="275"/>
+      <c r="H6" s="275"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="276"/>
       <c r="K6" s="180" t="s">
         <v>286</v>
       </c>
@@ -18300,12 +18300,12 @@
       <c r="F7" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="267" t="s">
+      <c r="G7" s="268" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="270"/>
       <c r="K7" s="124" t="s">
         <v>270</v>
       </c>
@@ -18339,12 +18339,12 @@
       <c r="F8" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="267" t="s">
+      <c r="G8" s="268" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="268"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="269"/>
+      <c r="H8" s="269"/>
+      <c r="I8" s="269"/>
+      <c r="J8" s="270"/>
       <c r="K8" s="124" t="s">
         <v>270</v>
       </c>
@@ -18378,12 +18378,12 @@
       <c r="F9" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="273" t="s">
+      <c r="G9" s="274" t="s">
         <v>350</v>
       </c>
-      <c r="H9" s="274"/>
-      <c r="I9" s="274"/>
-      <c r="J9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="276"/>
       <c r="K9" s="181" t="s">
         <v>351</v>
       </c>
@@ -18415,12 +18415,12 @@
       <c r="F10" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="267" t="s">
+      <c r="G10" s="268" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="268"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="269"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="270"/>
       <c r="K10" s="124" t="s">
         <v>286</v>
       </c>
@@ -18456,12 +18456,12 @@
       <c r="F11" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="267" t="s">
+      <c r="G11" s="268" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="268"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="269"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="270"/>
       <c r="K11" s="124" t="s">
         <v>270</v>
       </c>
@@ -18495,12 +18495,12 @@
       <c r="F12" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="267" t="s">
+      <c r="G12" s="268" t="s">
         <v>302</v>
       </c>
-      <c r="H12" s="268"/>
-      <c r="I12" s="268"/>
-      <c r="J12" s="269"/>
+      <c r="H12" s="269"/>
+      <c r="I12" s="269"/>
+      <c r="J12" s="270"/>
       <c r="K12" s="113" t="s">
         <v>303</v>
       </c>
@@ -18532,12 +18532,12 @@
       <c r="F13" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="267" t="s">
+      <c r="G13" s="268" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="268"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="269"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="270"/>
       <c r="K13" s="124" t="s">
         <v>273</v>
       </c>
@@ -18571,12 +18571,12 @@
       <c r="F14" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="267" t="s">
+      <c r="G14" s="268" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="269"/>
+      <c r="H14" s="269"/>
+      <c r="I14" s="269"/>
+      <c r="J14" s="270"/>
       <c r="K14" s="113" t="s">
         <v>275</v>
       </c>
@@ -18608,12 +18608,12 @@
       <c r="F15" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="270" t="s">
+      <c r="G15" s="271" t="s">
         <v>353</v>
       </c>
-      <c r="H15" s="271"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="272"/>
+      <c r="H15" s="272"/>
+      <c r="I15" s="272"/>
+      <c r="J15" s="273"/>
       <c r="K15" s="181" t="s">
         <v>354</v>
       </c>
@@ -18645,12 +18645,12 @@
       <c r="F16" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="267" t="s">
+      <c r="G16" s="268" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="268"/>
-      <c r="I16" s="268"/>
-      <c r="J16" s="269"/>
+      <c r="H16" s="269"/>
+      <c r="I16" s="269"/>
+      <c r="J16" s="270"/>
       <c r="K16" s="124" t="s">
         <v>199</v>
       </c>
@@ -18682,12 +18682,12 @@
       <c r="F17" s="172" t="s">
         <v>330</v>
       </c>
-      <c r="G17" s="279" t="s">
+      <c r="G17" s="280" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="280"/>
-      <c r="I17" s="280"/>
-      <c r="J17" s="281"/>
+      <c r="H17" s="281"/>
+      <c r="I17" s="281"/>
+      <c r="J17" s="282"/>
       <c r="K17" s="158" t="s">
         <v>205</v>
       </c>
@@ -18723,12 +18723,12 @@
       <c r="F18" s="172" t="s">
         <v>331</v>
       </c>
-      <c r="G18" s="279" t="s">
+      <c r="G18" s="280" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="280"/>
-      <c r="I18" s="280"/>
-      <c r="J18" s="281"/>
+      <c r="H18" s="281"/>
+      <c r="I18" s="281"/>
+      <c r="J18" s="282"/>
       <c r="K18" s="158" t="s">
         <v>205</v>
       </c>
@@ -18764,10 +18764,10 @@
       <c r="F19" s="172" t="s">
         <v>342</v>
       </c>
-      <c r="G19" s="279"/>
-      <c r="H19" s="280"/>
-      <c r="I19" s="280"/>
-      <c r="J19" s="281"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="281"/>
+      <c r="I19" s="281"/>
+      <c r="J19" s="282"/>
       <c r="K19" s="158"/>
       <c r="L19" s="158"/>
       <c r="M19" s="173"/>
@@ -18783,10 +18783,10 @@
       <c r="D20" s="111"/>
       <c r="E20" s="111"/>
       <c r="F20" s="110"/>
-      <c r="G20" s="267"/>
-      <c r="H20" s="268"/>
-      <c r="I20" s="268"/>
-      <c r="J20" s="269"/>
+      <c r="G20" s="268"/>
+      <c r="H20" s="269"/>
+      <c r="I20" s="269"/>
+      <c r="J20" s="270"/>
       <c r="K20" s="113"/>
       <c r="L20" s="113"/>
       <c r="M20" s="67"/>
@@ -20388,171 +20388,171 @@
     </row>
     <row r="100" spans="1:16" ht="12" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="285" t="s">
+      <c r="B100" s="286" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="286"/>
-      <c r="D100" s="286"/>
-      <c r="E100" s="286"/>
-      <c r="F100" s="286"/>
-      <c r="G100" s="286"/>
-      <c r="H100" s="286"/>
-      <c r="I100" s="286"/>
-      <c r="J100" s="286"/>
-      <c r="K100" s="286"/>
-      <c r="L100" s="286"/>
-      <c r="M100" s="286"/>
-      <c r="N100" s="286"/>
-      <c r="O100" s="286"/>
-      <c r="P100" s="286"/>
+      <c r="C100" s="287"/>
+      <c r="D100" s="287"/>
+      <c r="E100" s="287"/>
+      <c r="F100" s="287"/>
+      <c r="G100" s="287"/>
+      <c r="H100" s="287"/>
+      <c r="I100" s="287"/>
+      <c r="J100" s="287"/>
+      <c r="K100" s="287"/>
+      <c r="L100" s="287"/>
+      <c r="M100" s="287"/>
+      <c r="N100" s="287"/>
+      <c r="O100" s="287"/>
+      <c r="P100" s="287"/>
     </row>
     <row r="101" spans="1:16" ht="12" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="286"/>
-      <c r="C101" s="286"/>
-      <c r="D101" s="286"/>
-      <c r="E101" s="286"/>
-      <c r="F101" s="286"/>
-      <c r="G101" s="286"/>
-      <c r="H101" s="286"/>
-      <c r="I101" s="286"/>
-      <c r="J101" s="286"/>
-      <c r="K101" s="286"/>
-      <c r="L101" s="286"/>
-      <c r="M101" s="286"/>
-      <c r="N101" s="286"/>
-      <c r="O101" s="286"/>
-      <c r="P101" s="286"/>
+      <c r="B101" s="287"/>
+      <c r="C101" s="287"/>
+      <c r="D101" s="287"/>
+      <c r="E101" s="287"/>
+      <c r="F101" s="287"/>
+      <c r="G101" s="287"/>
+      <c r="H101" s="287"/>
+      <c r="I101" s="287"/>
+      <c r="J101" s="287"/>
+      <c r="K101" s="287"/>
+      <c r="L101" s="287"/>
+      <c r="M101" s="287"/>
+      <c r="N101" s="287"/>
+      <c r="O101" s="287"/>
+      <c r="P101" s="287"/>
     </row>
     <row r="102" spans="1:16" ht="12" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="286"/>
-      <c r="C102" s="286"/>
-      <c r="D102" s="286"/>
-      <c r="E102" s="286"/>
-      <c r="F102" s="286"/>
-      <c r="G102" s="286"/>
-      <c r="H102" s="286"/>
-      <c r="I102" s="286"/>
-      <c r="J102" s="286"/>
-      <c r="K102" s="286"/>
-      <c r="L102" s="286"/>
-      <c r="M102" s="286"/>
-      <c r="N102" s="286"/>
-      <c r="O102" s="286"/>
-      <c r="P102" s="286"/>
+      <c r="B102" s="287"/>
+      <c r="C102" s="287"/>
+      <c r="D102" s="287"/>
+      <c r="E102" s="287"/>
+      <c r="F102" s="287"/>
+      <c r="G102" s="287"/>
+      <c r="H102" s="287"/>
+      <c r="I102" s="287"/>
+      <c r="J102" s="287"/>
+      <c r="K102" s="287"/>
+      <c r="L102" s="287"/>
+      <c r="M102" s="287"/>
+      <c r="N102" s="287"/>
+      <c r="O102" s="287"/>
+      <c r="P102" s="287"/>
     </row>
     <row r="103" spans="1:16" ht="12" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="285" t="s">
+      <c r="B103" s="286" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="286"/>
-      <c r="D103" s="286"/>
-      <c r="E103" s="286"/>
-      <c r="F103" s="286"/>
-      <c r="G103" s="286"/>
-      <c r="H103" s="286"/>
-      <c r="I103" s="286"/>
-      <c r="J103" s="286"/>
-      <c r="K103" s="286"/>
-      <c r="L103" s="286"/>
-      <c r="M103" s="286"/>
-      <c r="N103" s="286"/>
-      <c r="O103" s="286"/>
-      <c r="P103" s="286"/>
+      <c r="C103" s="287"/>
+      <c r="D103" s="287"/>
+      <c r="E103" s="287"/>
+      <c r="F103" s="287"/>
+      <c r="G103" s="287"/>
+      <c r="H103" s="287"/>
+      <c r="I103" s="287"/>
+      <c r="J103" s="287"/>
+      <c r="K103" s="287"/>
+      <c r="L103" s="287"/>
+      <c r="M103" s="287"/>
+      <c r="N103" s="287"/>
+      <c r="O103" s="287"/>
+      <c r="P103" s="287"/>
     </row>
     <row r="104" spans="1:16" ht="12" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="286"/>
-      <c r="C104" s="286"/>
-      <c r="D104" s="286"/>
-      <c r="E104" s="286"/>
-      <c r="F104" s="286"/>
-      <c r="G104" s="286"/>
-      <c r="H104" s="286"/>
-      <c r="I104" s="286"/>
-      <c r="J104" s="286"/>
-      <c r="K104" s="286"/>
-      <c r="L104" s="286"/>
-      <c r="M104" s="286"/>
-      <c r="N104" s="286"/>
-      <c r="O104" s="286"/>
-      <c r="P104" s="286"/>
+      <c r="B104" s="287"/>
+      <c r="C104" s="287"/>
+      <c r="D104" s="287"/>
+      <c r="E104" s="287"/>
+      <c r="F104" s="287"/>
+      <c r="G104" s="287"/>
+      <c r="H104" s="287"/>
+      <c r="I104" s="287"/>
+      <c r="J104" s="287"/>
+      <c r="K104" s="287"/>
+      <c r="L104" s="287"/>
+      <c r="M104" s="287"/>
+      <c r="N104" s="287"/>
+      <c r="O104" s="287"/>
+      <c r="P104" s="287"/>
     </row>
     <row r="105" spans="1:16" ht="12" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="286"/>
-      <c r="C105" s="286"/>
-      <c r="D105" s="286"/>
-      <c r="E105" s="286"/>
-      <c r="F105" s="286"/>
-      <c r="G105" s="286"/>
-      <c r="H105" s="286"/>
-      <c r="I105" s="286"/>
-      <c r="J105" s="286"/>
-      <c r="K105" s="286"/>
-      <c r="L105" s="286"/>
-      <c r="M105" s="286"/>
-      <c r="N105" s="286"/>
-      <c r="O105" s="286"/>
-      <c r="P105" s="286"/>
+      <c r="B105" s="287"/>
+      <c r="C105" s="287"/>
+      <c r="D105" s="287"/>
+      <c r="E105" s="287"/>
+      <c r="F105" s="287"/>
+      <c r="G105" s="287"/>
+      <c r="H105" s="287"/>
+      <c r="I105" s="287"/>
+      <c r="J105" s="287"/>
+      <c r="K105" s="287"/>
+      <c r="L105" s="287"/>
+      <c r="M105" s="287"/>
+      <c r="N105" s="287"/>
+      <c r="O105" s="287"/>
+      <c r="P105" s="287"/>
     </row>
     <row r="106" spans="1:16" ht="12" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="285" t="s">
+      <c r="B106" s="286" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="286"/>
-      <c r="D106" s="286"/>
-      <c r="E106" s="286"/>
-      <c r="F106" s="286"/>
-      <c r="G106" s="286"/>
-      <c r="H106" s="286"/>
-      <c r="I106" s="286"/>
-      <c r="J106" s="286"/>
-      <c r="K106" s="286"/>
-      <c r="L106" s="286"/>
-      <c r="M106" s="286"/>
-      <c r="N106" s="286"/>
-      <c r="O106" s="286"/>
-      <c r="P106" s="286"/>
+      <c r="C106" s="287"/>
+      <c r="D106" s="287"/>
+      <c r="E106" s="287"/>
+      <c r="F106" s="287"/>
+      <c r="G106" s="287"/>
+      <c r="H106" s="287"/>
+      <c r="I106" s="287"/>
+      <c r="J106" s="287"/>
+      <c r="K106" s="287"/>
+      <c r="L106" s="287"/>
+      <c r="M106" s="287"/>
+      <c r="N106" s="287"/>
+      <c r="O106" s="287"/>
+      <c r="P106" s="287"/>
     </row>
     <row r="107" spans="1:16" ht="12" customHeight="1">
       <c r="A107" s="62"/>
-      <c r="B107" s="286"/>
-      <c r="C107" s="286"/>
-      <c r="D107" s="286"/>
-      <c r="E107" s="286"/>
-      <c r="F107" s="286"/>
-      <c r="G107" s="286"/>
-      <c r="H107" s="286"/>
-      <c r="I107" s="286"/>
-      <c r="J107" s="286"/>
-      <c r="K107" s="286"/>
-      <c r="L107" s="286"/>
-      <c r="M107" s="286"/>
-      <c r="N107" s="286"/>
-      <c r="O107" s="286"/>
-      <c r="P107" s="286"/>
+      <c r="B107" s="287"/>
+      <c r="C107" s="287"/>
+      <c r="D107" s="287"/>
+      <c r="E107" s="287"/>
+      <c r="F107" s="287"/>
+      <c r="G107" s="287"/>
+      <c r="H107" s="287"/>
+      <c r="I107" s="287"/>
+      <c r="J107" s="287"/>
+      <c r="K107" s="287"/>
+      <c r="L107" s="287"/>
+      <c r="M107" s="287"/>
+      <c r="N107" s="287"/>
+      <c r="O107" s="287"/>
+      <c r="P107" s="287"/>
     </row>
     <row r="108" spans="1:16" ht="12" customHeight="1">
       <c r="A108" s="62"/>
-      <c r="B108" s="286"/>
-      <c r="C108" s="286"/>
-      <c r="D108" s="286"/>
-      <c r="E108" s="286"/>
-      <c r="F108" s="286"/>
-      <c r="G108" s="286"/>
-      <c r="H108" s="286"/>
-      <c r="I108" s="286"/>
-      <c r="J108" s="286"/>
-      <c r="K108" s="286"/>
-      <c r="L108" s="286"/>
-      <c r="M108" s="286"/>
-      <c r="N108" s="286"/>
-      <c r="O108" s="286"/>
-      <c r="P108" s="286"/>
+      <c r="B108" s="287"/>
+      <c r="C108" s="287"/>
+      <c r="D108" s="287"/>
+      <c r="E108" s="287"/>
+      <c r="F108" s="287"/>
+      <c r="G108" s="287"/>
+      <c r="H108" s="287"/>
+      <c r="I108" s="287"/>
+      <c r="J108" s="287"/>
+      <c r="K108" s="287"/>
+      <c r="L108" s="287"/>
+      <c r="M108" s="287"/>
+      <c r="N108" s="287"/>
+      <c r="O108" s="287"/>
+      <c r="P108" s="287"/>
     </row>
     <row r="109" spans="1:16" ht="12" customHeight="1">
       <c r="A109" s="62"/>
@@ -20571,113 +20571,113 @@
     </row>
     <row r="110" spans="1:16" ht="12" customHeight="1">
       <c r="A110" s="62"/>
-      <c r="B110" s="285" t="s">
+      <c r="B110" s="286" t="s">
         <v>296</v>
       </c>
-      <c r="C110" s="286"/>
-      <c r="D110" s="286"/>
-      <c r="E110" s="286"/>
-      <c r="F110" s="286"/>
-      <c r="G110" s="286"/>
-      <c r="H110" s="286"/>
-      <c r="I110" s="286"/>
-      <c r="J110" s="286"/>
-      <c r="K110" s="286"/>
-      <c r="L110" s="286"/>
-      <c r="M110" s="286"/>
-      <c r="N110" s="286"/>
-      <c r="O110" s="286"/>
-      <c r="P110" s="286"/>
+      <c r="C110" s="287"/>
+      <c r="D110" s="287"/>
+      <c r="E110" s="287"/>
+      <c r="F110" s="287"/>
+      <c r="G110" s="287"/>
+      <c r="H110" s="287"/>
+      <c r="I110" s="287"/>
+      <c r="J110" s="287"/>
+      <c r="K110" s="287"/>
+      <c r="L110" s="287"/>
+      <c r="M110" s="287"/>
+      <c r="N110" s="287"/>
+      <c r="O110" s="287"/>
+      <c r="P110" s="287"/>
     </row>
     <row r="111" spans="1:16" ht="12" customHeight="1">
       <c r="A111" s="62"/>
-      <c r="B111" s="285"/>
-      <c r="C111" s="286"/>
-      <c r="D111" s="286"/>
-      <c r="E111" s="286"/>
-      <c r="F111" s="286"/>
-      <c r="G111" s="286"/>
-      <c r="H111" s="286"/>
-      <c r="I111" s="286"/>
-      <c r="J111" s="286"/>
-      <c r="K111" s="286"/>
-      <c r="L111" s="286"/>
-      <c r="M111" s="286"/>
-      <c r="N111" s="286"/>
-      <c r="O111" s="286"/>
-      <c r="P111" s="286"/>
+      <c r="B111" s="286"/>
+      <c r="C111" s="287"/>
+      <c r="D111" s="287"/>
+      <c r="E111" s="287"/>
+      <c r="F111" s="287"/>
+      <c r="G111" s="287"/>
+      <c r="H111" s="287"/>
+      <c r="I111" s="287"/>
+      <c r="J111" s="287"/>
+      <c r="K111" s="287"/>
+      <c r="L111" s="287"/>
+      <c r="M111" s="287"/>
+      <c r="N111" s="287"/>
+      <c r="O111" s="287"/>
+      <c r="P111" s="287"/>
     </row>
     <row r="112" spans="1:16" ht="12" customHeight="1">
       <c r="A112" s="62"/>
-      <c r="B112" s="285"/>
-      <c r="C112" s="286"/>
-      <c r="D112" s="286"/>
-      <c r="E112" s="286"/>
-      <c r="F112" s="286"/>
-      <c r="G112" s="286"/>
-      <c r="H112" s="286"/>
-      <c r="I112" s="286"/>
-      <c r="J112" s="286"/>
-      <c r="K112" s="286"/>
-      <c r="L112" s="286"/>
-      <c r="M112" s="286"/>
-      <c r="N112" s="286"/>
-      <c r="O112" s="286"/>
-      <c r="P112" s="286"/>
+      <c r="B112" s="286"/>
+      <c r="C112" s="287"/>
+      <c r="D112" s="287"/>
+      <c r="E112" s="287"/>
+      <c r="F112" s="287"/>
+      <c r="G112" s="287"/>
+      <c r="H112" s="287"/>
+      <c r="I112" s="287"/>
+      <c r="J112" s="287"/>
+      <c r="K112" s="287"/>
+      <c r="L112" s="287"/>
+      <c r="M112" s="287"/>
+      <c r="N112" s="287"/>
+      <c r="O112" s="287"/>
+      <c r="P112" s="287"/>
     </row>
     <row r="113" spans="1:20" ht="12" customHeight="1">
       <c r="A113" s="62"/>
-      <c r="B113" s="285"/>
-      <c r="C113" s="286"/>
-      <c r="D113" s="286"/>
-      <c r="E113" s="286"/>
-      <c r="F113" s="286"/>
-      <c r="G113" s="286"/>
-      <c r="H113" s="286"/>
-      <c r="I113" s="286"/>
-      <c r="J113" s="286"/>
-      <c r="K113" s="286"/>
-      <c r="L113" s="286"/>
-      <c r="M113" s="286"/>
-      <c r="N113" s="286"/>
-      <c r="O113" s="286"/>
-      <c r="P113" s="286"/>
+      <c r="B113" s="286"/>
+      <c r="C113" s="287"/>
+      <c r="D113" s="287"/>
+      <c r="E113" s="287"/>
+      <c r="F113" s="287"/>
+      <c r="G113" s="287"/>
+      <c r="H113" s="287"/>
+      <c r="I113" s="287"/>
+      <c r="J113" s="287"/>
+      <c r="K113" s="287"/>
+      <c r="L113" s="287"/>
+      <c r="M113" s="287"/>
+      <c r="N113" s="287"/>
+      <c r="O113" s="287"/>
+      <c r="P113" s="287"/>
     </row>
     <row r="114" spans="1:20" ht="12" customHeight="1">
       <c r="A114" s="62"/>
-      <c r="B114" s="285"/>
-      <c r="C114" s="286"/>
-      <c r="D114" s="286"/>
-      <c r="E114" s="286"/>
-      <c r="F114" s="286"/>
-      <c r="G114" s="286"/>
-      <c r="H114" s="286"/>
-      <c r="I114" s="286"/>
-      <c r="J114" s="286"/>
-      <c r="K114" s="286"/>
-      <c r="L114" s="286"/>
-      <c r="M114" s="286"/>
-      <c r="N114" s="286"/>
-      <c r="O114" s="286"/>
-      <c r="P114" s="286"/>
+      <c r="B114" s="286"/>
+      <c r="C114" s="287"/>
+      <c r="D114" s="287"/>
+      <c r="E114" s="287"/>
+      <c r="F114" s="287"/>
+      <c r="G114" s="287"/>
+      <c r="H114" s="287"/>
+      <c r="I114" s="287"/>
+      <c r="J114" s="287"/>
+      <c r="K114" s="287"/>
+      <c r="L114" s="287"/>
+      <c r="M114" s="287"/>
+      <c r="N114" s="287"/>
+      <c r="O114" s="287"/>
+      <c r="P114" s="287"/>
     </row>
     <row r="115" spans="1:20" ht="12" customHeight="1">
       <c r="A115" s="62"/>
-      <c r="B115" s="285"/>
-      <c r="C115" s="286"/>
-      <c r="D115" s="286"/>
-      <c r="E115" s="286"/>
-      <c r="F115" s="286"/>
-      <c r="G115" s="286"/>
-      <c r="H115" s="286"/>
-      <c r="I115" s="286"/>
-      <c r="J115" s="286"/>
-      <c r="K115" s="286"/>
-      <c r="L115" s="286"/>
-      <c r="M115" s="286"/>
-      <c r="N115" s="286"/>
-      <c r="O115" s="286"/>
-      <c r="P115" s="286"/>
+      <c r="B115" s="286"/>
+      <c r="C115" s="287"/>
+      <c r="D115" s="287"/>
+      <c r="E115" s="287"/>
+      <c r="F115" s="287"/>
+      <c r="G115" s="287"/>
+      <c r="H115" s="287"/>
+      <c r="I115" s="287"/>
+      <c r="J115" s="287"/>
+      <c r="K115" s="287"/>
+      <c r="L115" s="287"/>
+      <c r="M115" s="287"/>
+      <c r="N115" s="287"/>
+      <c r="O115" s="287"/>
+      <c r="P115" s="287"/>
     </row>
     <row r="116" spans="1:20" ht="12" customHeight="1">
       <c r="A116" s="62"/>
@@ -20696,69 +20696,69 @@
     </row>
     <row r="117" spans="1:20" ht="12" customHeight="1">
       <c r="A117" s="62"/>
-      <c r="B117" s="285" t="s">
+      <c r="B117" s="286" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="286"/>
-      <c r="D117" s="286"/>
-      <c r="E117" s="286"/>
-      <c r="F117" s="286"/>
-      <c r="G117" s="286"/>
-      <c r="H117" s="286"/>
-      <c r="I117" s="286"/>
-      <c r="J117" s="286"/>
-      <c r="K117" s="286"/>
-      <c r="L117" s="286"/>
-      <c r="M117" s="286"/>
-      <c r="N117" s="286"/>
-      <c r="O117" s="286"/>
-      <c r="P117" s="286"/>
+      <c r="C117" s="287"/>
+      <c r="D117" s="287"/>
+      <c r="E117" s="287"/>
+      <c r="F117" s="287"/>
+      <c r="G117" s="287"/>
+      <c r="H117" s="287"/>
+      <c r="I117" s="287"/>
+      <c r="J117" s="287"/>
+      <c r="K117" s="287"/>
+      <c r="L117" s="287"/>
+      <c r="M117" s="287"/>
+      <c r="N117" s="287"/>
+      <c r="O117" s="287"/>
+      <c r="P117" s="287"/>
     </row>
     <row r="118" spans="1:20" ht="12" customHeight="1">
       <c r="A118" s="62"/>
-      <c r="B118" s="286"/>
-      <c r="C118" s="286"/>
-      <c r="D118" s="286"/>
-      <c r="E118" s="286"/>
-      <c r="F118" s="286"/>
-      <c r="G118" s="286"/>
-      <c r="H118" s="286"/>
-      <c r="I118" s="286"/>
-      <c r="J118" s="286"/>
-      <c r="K118" s="286"/>
-      <c r="L118" s="286"/>
-      <c r="M118" s="286"/>
-      <c r="N118" s="286"/>
-      <c r="O118" s="286"/>
-      <c r="P118" s="286"/>
+      <c r="B118" s="287"/>
+      <c r="C118" s="287"/>
+      <c r="D118" s="287"/>
+      <c r="E118" s="287"/>
+      <c r="F118" s="287"/>
+      <c r="G118" s="287"/>
+      <c r="H118" s="287"/>
+      <c r="I118" s="287"/>
+      <c r="J118" s="287"/>
+      <c r="K118" s="287"/>
+      <c r="L118" s="287"/>
+      <c r="M118" s="287"/>
+      <c r="N118" s="287"/>
+      <c r="O118" s="287"/>
+      <c r="P118" s="287"/>
     </row>
     <row r="119" spans="1:20" ht="12" customHeight="1">
       <c r="A119" s="62"/>
-      <c r="B119" s="286"/>
-      <c r="C119" s="286"/>
-      <c r="D119" s="286"/>
-      <c r="E119" s="286"/>
-      <c r="F119" s="286"/>
-      <c r="G119" s="286"/>
-      <c r="H119" s="286"/>
-      <c r="I119" s="286"/>
-      <c r="J119" s="286"/>
-      <c r="K119" s="286"/>
-      <c r="L119" s="286"/>
-      <c r="M119" s="286"/>
-      <c r="N119" s="286"/>
-      <c r="O119" s="286"/>
-      <c r="P119" s="286"/>
+      <c r="B119" s="287"/>
+      <c r="C119" s="287"/>
+      <c r="D119" s="287"/>
+      <c r="E119" s="287"/>
+      <c r="F119" s="287"/>
+      <c r="G119" s="287"/>
+      <c r="H119" s="287"/>
+      <c r="I119" s="287"/>
+      <c r="J119" s="287"/>
+      <c r="K119" s="287"/>
+      <c r="L119" s="287"/>
+      <c r="M119" s="287"/>
+      <c r="N119" s="287"/>
+      <c r="O119" s="287"/>
+      <c r="P119" s="287"/>
     </row>
     <row r="120" spans="1:20" ht="12" customHeight="1">
       <c r="A120" s="62"/>
-      <c r="B120" s="288" t="s">
+      <c r="B120" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="288"/>
-      <c r="D120" s="288"/>
-      <c r="E120" s="288"/>
-      <c r="F120" s="288"/>
+      <c r="C120" s="289"/>
+      <c r="D120" s="289"/>
+      <c r="E120" s="289"/>
+      <c r="F120" s="289"/>
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="40"/>
@@ -20801,13 +20801,13 @@
     </row>
     <row r="123" spans="1:20" ht="12" customHeight="1">
       <c r="A123" s="62"/>
-      <c r="B123" s="288" t="s">
+      <c r="B123" s="289" t="s">
         <v>298</v>
       </c>
-      <c r="C123" s="288"/>
-      <c r="D123" s="288"/>
-      <c r="E123" s="288"/>
-      <c r="F123" s="288"/>
+      <c r="C123" s="289"/>
+      <c r="D123" s="289"/>
+      <c r="E123" s="289"/>
+      <c r="F123" s="289"/>
       <c r="G123" s="40"/>
       <c r="H123" s="40"/>
       <c r="I123" s="40"/>
@@ -20836,13 +20836,13 @@
     <row r="125" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
       <c r="A125" s="145"/>
       <c r="B125" s="146"/>
-      <c r="C125" s="287" t="s">
+      <c r="C125" s="288" t="s">
         <v>305</v>
       </c>
-      <c r="D125" s="287"/>
-      <c r="E125" s="287"/>
-      <c r="F125" s="287"/>
-      <c r="G125" s="287"/>
+      <c r="D125" s="288"/>
+      <c r="E125" s="288"/>
+      <c r="F125" s="288"/>
+      <c r="G125" s="288"/>
       <c r="H125" s="147"/>
       <c r="I125" s="147"/>
       <c r="J125" s="147"/>

--- a/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
@@ -1377,7 +1377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="359">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2707,6 +2707,13 @@
   <si>
     <t>- STT yêu cầu là: 4 (bên file Tasklist)
  -Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
+  </si>
+  <si>
+    <t>Ver 5.0</t>
+  </si>
+  <si>
+    <t>-STT yêu cầu là: 1 (bên file Tasklist)
+- Thêm trường Dự án</t>
   </si>
 </sst>
 </file>
@@ -3230,7 +3237,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3622,9 +3629,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3635,9 +3639,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3706,9 +3707,27 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3754,23 +3773,32 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3790,33 +3818,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3919,39 +3920,48 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3988,15 +3998,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4019,6 +4020,55 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13766,65 +13816,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="194"/>
-      <c r="B1" s="194"/>
-      <c r="C1" s="196" t="s">
+      <c r="A1" s="198"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="200" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="195" t="s">
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="199" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195" t="s">
+      <c r="H1" s="199"/>
+      <c r="I1" s="199" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="195"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="195" t="s">
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="191" t="s">
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="195" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="192"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="192"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="196"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="93"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="193"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
+      <c r="A13" s="197"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
       <c r="M13" s="94"/>
@@ -13835,56 +13885,56 @@
       <c r="R13" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="189"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="189"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="189"/>
-      <c r="R14" s="189"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="191"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="189"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="189"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="191"/>
+      <c r="R15" s="191"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="190" t="s">
+      <c r="A16" s="194" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="190"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
       <c r="M16" s="95"/>
@@ -13895,384 +13945,384 @@
       <c r="R16" s="95"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="189"/>
-      <c r="M17" s="189"/>
-      <c r="N17" s="189"/>
-      <c r="O17" s="189"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="189"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="191"/>
+      <c r="R17" s="191"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="189"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="189"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="191"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="191"/>
+      <c r="R18" s="191"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="206"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="206"/>
-      <c r="O19" s="206"/>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="206"/>
-      <c r="R19" s="206"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="193"/>
+      <c r="L19" s="193"/>
+      <c r="M19" s="193"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="193"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="189"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="189"/>
-      <c r="J20" s="189"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="189"/>
-      <c r="M20" s="189"/>
-      <c r="N20" s="189"/>
-      <c r="O20" s="189"/>
-      <c r="P20" s="189"/>
-      <c r="Q20" s="189"/>
-      <c r="R20" s="189"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="191"/>
+      <c r="R20" s="191"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="189"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="189"/>
-      <c r="M21" s="189"/>
-      <c r="N21" s="189"/>
-      <c r="O21" s="189"/>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="189"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="191"/>
+      <c r="Q21" s="191"/>
+      <c r="R21" s="191"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="205"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
-      <c r="P22" s="205"/>
-      <c r="Q22" s="205"/>
-      <c r="R22" s="205"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
+      <c r="M22" s="192"/>
+      <c r="N22" s="192"/>
+      <c r="O22" s="192"/>
+      <c r="P22" s="192"/>
+      <c r="Q22" s="192"/>
+      <c r="R22" s="192"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="205"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="205"/>
-      <c r="O23" s="205"/>
-      <c r="P23" s="205"/>
-      <c r="Q23" s="205"/>
-      <c r="R23" s="205"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="192"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="192"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="207"/>
-      <c r="C26" s="207"/>
-      <c r="D26" s="207"/>
-      <c r="E26" s="207"/>
-      <c r="F26" s="207"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="207"/>
-      <c r="K26" s="207"/>
-      <c r="L26" s="207"/>
-      <c r="M26" s="207"/>
-      <c r="N26" s="207"/>
-      <c r="O26" s="207"/>
-      <c r="P26" s="207"/>
-      <c r="Q26" s="207"/>
-      <c r="R26" s="207"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="189"/>
+      <c r="M26" s="189"/>
+      <c r="N26" s="189"/>
+      <c r="O26" s="189"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="189"/>
+      <c r="R26" s="189"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="209"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="209"/>
-      <c r="N28" s="209"/>
-      <c r="O28" s="209"/>
-      <c r="P28" s="209"/>
-      <c r="Q28" s="209"/>
-      <c r="R28" s="209"/>
-      <c r="S28" s="208"/>
-      <c r="T28" s="208"/>
-      <c r="U28" s="208"/>
-      <c r="V28" s="208"/>
-      <c r="W28" s="208"/>
-      <c r="X28" s="208"/>
-      <c r="Y28" s="208"/>
-      <c r="Z28" s="208"/>
-      <c r="AA28" s="208"/>
-      <c r="AB28" s="208"/>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="208"/>
-      <c r="AE28" s="208"/>
-      <c r="AF28" s="208"/>
-      <c r="AG28" s="208"/>
-      <c r="AH28" s="208"/>
-      <c r="AI28" s="208"/>
-      <c r="AJ28" s="208"/>
-      <c r="AK28" s="208"/>
-      <c r="AL28" s="208"/>
-      <c r="AM28" s="208"/>
-      <c r="AN28" s="208"/>
-      <c r="AO28" s="208"/>
-      <c r="AP28" s="208"/>
-      <c r="AQ28" s="208"/>
-      <c r="AR28" s="208"/>
-      <c r="AS28" s="208"/>
-      <c r="AT28" s="208"/>
-      <c r="AU28" s="208"/>
-      <c r="AV28" s="208"/>
-      <c r="AW28" s="208"/>
-      <c r="AX28" s="208"/>
-      <c r="AY28" s="208"/>
-      <c r="AZ28" s="208"/>
-      <c r="BA28" s="208"/>
-      <c r="BB28" s="208"/>
-      <c r="BC28" s="208"/>
-      <c r="BD28" s="208"/>
-      <c r="BE28" s="208"/>
-      <c r="BF28" s="208"/>
-      <c r="BG28" s="208"/>
-      <c r="BH28" s="208"/>
-      <c r="BI28" s="208"/>
-      <c r="BJ28" s="208"/>
-      <c r="BK28" s="208"/>
-      <c r="BL28" s="208"/>
-      <c r="BM28" s="208"/>
-      <c r="BN28" s="208"/>
-      <c r="BO28" s="208"/>
-      <c r="BP28" s="208"/>
-      <c r="BQ28" s="208"/>
-      <c r="BR28" s="208"/>
-      <c r="BS28" s="208"/>
-      <c r="BT28" s="208"/>
-      <c r="BU28" s="208"/>
-      <c r="BV28" s="208"/>
-      <c r="BW28" s="208"/>
-      <c r="BX28" s="208"/>
-      <c r="BY28" s="208"/>
-      <c r="BZ28" s="208"/>
-      <c r="CA28" s="208"/>
-      <c r="CB28" s="208"/>
-      <c r="CC28" s="208"/>
-      <c r="CD28" s="208"/>
-      <c r="CE28" s="208"/>
-      <c r="CF28" s="208"/>
-      <c r="CG28" s="208"/>
-      <c r="CH28" s="208"/>
-      <c r="CI28" s="208"/>
-      <c r="CJ28" s="208"/>
-      <c r="CK28" s="208"/>
-      <c r="CL28" s="208"/>
-      <c r="CM28" s="208"/>
-      <c r="CN28" s="208"/>
-      <c r="CO28" s="208"/>
-      <c r="CP28" s="208"/>
-      <c r="CQ28" s="208"/>
-      <c r="CR28" s="208"/>
-      <c r="CS28" s="208"/>
-      <c r="CT28" s="208"/>
-      <c r="CU28" s="208"/>
-      <c r="CV28" s="208"/>
-      <c r="CW28" s="208"/>
-      <c r="CX28" s="208"/>
-      <c r="CY28" s="208"/>
-      <c r="CZ28" s="208"/>
-      <c r="DA28" s="208"/>
-      <c r="DB28" s="208"/>
-      <c r="DC28" s="208"/>
-      <c r="DD28" s="208"/>
-      <c r="DE28" s="208"/>
-      <c r="DF28" s="208"/>
-      <c r="DG28" s="208"/>
-      <c r="DH28" s="208"/>
-      <c r="DI28" s="208"/>
-      <c r="DJ28" s="208"/>
-      <c r="DK28" s="208"/>
-      <c r="DL28" s="208"/>
-      <c r="DM28" s="208"/>
-      <c r="DN28" s="208"/>
-      <c r="DO28" s="208"/>
-      <c r="DP28" s="208"/>
-      <c r="DQ28" s="208"/>
-      <c r="DR28" s="208"/>
-      <c r="DS28" s="208"/>
-      <c r="DT28" s="208"/>
-      <c r="DU28" s="208"/>
-      <c r="DV28" s="208"/>
-      <c r="DW28" s="208"/>
-      <c r="DX28" s="208"/>
-      <c r="DY28" s="208"/>
-      <c r="DZ28" s="208"/>
-      <c r="EA28" s="208"/>
-      <c r="EB28" s="208"/>
-      <c r="EC28" s="208"/>
-      <c r="ED28" s="208"/>
-      <c r="EE28" s="208"/>
-      <c r="EF28" s="208"/>
-      <c r="EG28" s="208"/>
-      <c r="EH28" s="208"/>
-      <c r="EI28" s="208"/>
-      <c r="EJ28" s="208"/>
-      <c r="EK28" s="208"/>
-      <c r="EL28" s="208"/>
-      <c r="EM28" s="208"/>
-      <c r="EN28" s="208"/>
-      <c r="EO28" s="208"/>
-      <c r="EP28" s="208"/>
-      <c r="EQ28" s="208"/>
-      <c r="ER28" s="208"/>
-      <c r="ES28" s="208"/>
-      <c r="ET28" s="208"/>
-      <c r="EU28" s="208"/>
-      <c r="EV28" s="208"/>
-      <c r="EW28" s="208"/>
-      <c r="EX28" s="208"/>
-      <c r="EY28" s="208"/>
-      <c r="EZ28" s="208"/>
-      <c r="FA28" s="208"/>
-      <c r="FB28" s="208"/>
-      <c r="FC28" s="208"/>
-      <c r="FD28" s="208"/>
-      <c r="FE28" s="208"/>
-      <c r="FF28" s="208"/>
-      <c r="FG28" s="208"/>
-      <c r="FH28" s="208"/>
-      <c r="FI28" s="208"/>
-      <c r="FJ28" s="208"/>
-      <c r="FK28" s="208"/>
-      <c r="FL28" s="208"/>
-      <c r="FM28" s="208"/>
-      <c r="FN28" s="208"/>
-      <c r="FO28" s="208"/>
-      <c r="FP28" s="208"/>
-      <c r="FQ28" s="208"/>
-      <c r="FR28" s="208"/>
-      <c r="FS28" s="208"/>
-      <c r="FT28" s="208"/>
-      <c r="FU28" s="208"/>
-      <c r="FV28" s="208"/>
-      <c r="FW28" s="208"/>
-      <c r="FX28" s="208"/>
-      <c r="FY28" s="208"/>
-      <c r="FZ28" s="208"/>
-      <c r="GA28" s="208"/>
-      <c r="GB28" s="208"/>
-      <c r="GC28" s="208"/>
-      <c r="GD28" s="208"/>
-      <c r="GE28" s="208"/>
-      <c r="GF28" s="208"/>
-      <c r="GG28" s="208"/>
-      <c r="GH28" s="208"/>
-      <c r="GI28" s="208"/>
-      <c r="GJ28" s="208"/>
-      <c r="GK28" s="208"/>
-      <c r="GL28" s="208"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="190"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="190"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="188"/>
+      <c r="T28" s="188"/>
+      <c r="U28" s="188"/>
+      <c r="V28" s="188"/>
+      <c r="W28" s="188"/>
+      <c r="X28" s="188"/>
+      <c r="Y28" s="188"/>
+      <c r="Z28" s="188"/>
+      <c r="AA28" s="188"/>
+      <c r="AB28" s="188"/>
+      <c r="AC28" s="188"/>
+      <c r="AD28" s="188"/>
+      <c r="AE28" s="188"/>
+      <c r="AF28" s="188"/>
+      <c r="AG28" s="188"/>
+      <c r="AH28" s="188"/>
+      <c r="AI28" s="188"/>
+      <c r="AJ28" s="188"/>
+      <c r="AK28" s="188"/>
+      <c r="AL28" s="188"/>
+      <c r="AM28" s="188"/>
+      <c r="AN28" s="188"/>
+      <c r="AO28" s="188"/>
+      <c r="AP28" s="188"/>
+      <c r="AQ28" s="188"/>
+      <c r="AR28" s="188"/>
+      <c r="AS28" s="188"/>
+      <c r="AT28" s="188"/>
+      <c r="AU28" s="188"/>
+      <c r="AV28" s="188"/>
+      <c r="AW28" s="188"/>
+      <c r="AX28" s="188"/>
+      <c r="AY28" s="188"/>
+      <c r="AZ28" s="188"/>
+      <c r="BA28" s="188"/>
+      <c r="BB28" s="188"/>
+      <c r="BC28" s="188"/>
+      <c r="BD28" s="188"/>
+      <c r="BE28" s="188"/>
+      <c r="BF28" s="188"/>
+      <c r="BG28" s="188"/>
+      <c r="BH28" s="188"/>
+      <c r="BI28" s="188"/>
+      <c r="BJ28" s="188"/>
+      <c r="BK28" s="188"/>
+      <c r="BL28" s="188"/>
+      <c r="BM28" s="188"/>
+      <c r="BN28" s="188"/>
+      <c r="BO28" s="188"/>
+      <c r="BP28" s="188"/>
+      <c r="BQ28" s="188"/>
+      <c r="BR28" s="188"/>
+      <c r="BS28" s="188"/>
+      <c r="BT28" s="188"/>
+      <c r="BU28" s="188"/>
+      <c r="BV28" s="188"/>
+      <c r="BW28" s="188"/>
+      <c r="BX28" s="188"/>
+      <c r="BY28" s="188"/>
+      <c r="BZ28" s="188"/>
+      <c r="CA28" s="188"/>
+      <c r="CB28" s="188"/>
+      <c r="CC28" s="188"/>
+      <c r="CD28" s="188"/>
+      <c r="CE28" s="188"/>
+      <c r="CF28" s="188"/>
+      <c r="CG28" s="188"/>
+      <c r="CH28" s="188"/>
+      <c r="CI28" s="188"/>
+      <c r="CJ28" s="188"/>
+      <c r="CK28" s="188"/>
+      <c r="CL28" s="188"/>
+      <c r="CM28" s="188"/>
+      <c r="CN28" s="188"/>
+      <c r="CO28" s="188"/>
+      <c r="CP28" s="188"/>
+      <c r="CQ28" s="188"/>
+      <c r="CR28" s="188"/>
+      <c r="CS28" s="188"/>
+      <c r="CT28" s="188"/>
+      <c r="CU28" s="188"/>
+      <c r="CV28" s="188"/>
+      <c r="CW28" s="188"/>
+      <c r="CX28" s="188"/>
+      <c r="CY28" s="188"/>
+      <c r="CZ28" s="188"/>
+      <c r="DA28" s="188"/>
+      <c r="DB28" s="188"/>
+      <c r="DC28" s="188"/>
+      <c r="DD28" s="188"/>
+      <c r="DE28" s="188"/>
+      <c r="DF28" s="188"/>
+      <c r="DG28" s="188"/>
+      <c r="DH28" s="188"/>
+      <c r="DI28" s="188"/>
+      <c r="DJ28" s="188"/>
+      <c r="DK28" s="188"/>
+      <c r="DL28" s="188"/>
+      <c r="DM28" s="188"/>
+      <c r="DN28" s="188"/>
+      <c r="DO28" s="188"/>
+      <c r="DP28" s="188"/>
+      <c r="DQ28" s="188"/>
+      <c r="DR28" s="188"/>
+      <c r="DS28" s="188"/>
+      <c r="DT28" s="188"/>
+      <c r="DU28" s="188"/>
+      <c r="DV28" s="188"/>
+      <c r="DW28" s="188"/>
+      <c r="DX28" s="188"/>
+      <c r="DY28" s="188"/>
+      <c r="DZ28" s="188"/>
+      <c r="EA28" s="188"/>
+      <c r="EB28" s="188"/>
+      <c r="EC28" s="188"/>
+      <c r="ED28" s="188"/>
+      <c r="EE28" s="188"/>
+      <c r="EF28" s="188"/>
+      <c r="EG28" s="188"/>
+      <c r="EH28" s="188"/>
+      <c r="EI28" s="188"/>
+      <c r="EJ28" s="188"/>
+      <c r="EK28" s="188"/>
+      <c r="EL28" s="188"/>
+      <c r="EM28" s="188"/>
+      <c r="EN28" s="188"/>
+      <c r="EO28" s="188"/>
+      <c r="EP28" s="188"/>
+      <c r="EQ28" s="188"/>
+      <c r="ER28" s="188"/>
+      <c r="ES28" s="188"/>
+      <c r="ET28" s="188"/>
+      <c r="EU28" s="188"/>
+      <c r="EV28" s="188"/>
+      <c r="EW28" s="188"/>
+      <c r="EX28" s="188"/>
+      <c r="EY28" s="188"/>
+      <c r="EZ28" s="188"/>
+      <c r="FA28" s="188"/>
+      <c r="FB28" s="188"/>
+      <c r="FC28" s="188"/>
+      <c r="FD28" s="188"/>
+      <c r="FE28" s="188"/>
+      <c r="FF28" s="188"/>
+      <c r="FG28" s="188"/>
+      <c r="FH28" s="188"/>
+      <c r="FI28" s="188"/>
+      <c r="FJ28" s="188"/>
+      <c r="FK28" s="188"/>
+      <c r="FL28" s="188"/>
+      <c r="FM28" s="188"/>
+      <c r="FN28" s="188"/>
+      <c r="FO28" s="188"/>
+      <c r="FP28" s="188"/>
+      <c r="FQ28" s="188"/>
+      <c r="FR28" s="188"/>
+      <c r="FS28" s="188"/>
+      <c r="FT28" s="188"/>
+      <c r="FU28" s="188"/>
+      <c r="FV28" s="188"/>
+      <c r="FW28" s="188"/>
+      <c r="FX28" s="188"/>
+      <c r="FY28" s="188"/>
+      <c r="FZ28" s="188"/>
+      <c r="GA28" s="188"/>
+      <c r="GB28" s="188"/>
+      <c r="GC28" s="188"/>
+      <c r="GD28" s="188"/>
+      <c r="GE28" s="188"/>
+      <c r="GF28" s="188"/>
+      <c r="GG28" s="188"/>
+      <c r="GH28" s="188"/>
+      <c r="GI28" s="188"/>
+      <c r="GJ28" s="188"/>
+      <c r="GK28" s="188"/>
+      <c r="GL28" s="188"/>
       <c r="GM28" s="96"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="207"/>
-      <c r="K29" s="207"/>
-      <c r="L29" s="207"/>
-      <c r="M29" s="207"/>
-      <c r="N29" s="207"/>
-      <c r="O29" s="207"/>
-      <c r="P29" s="207"/>
-      <c r="Q29" s="207"/>
-      <c r="R29" s="207"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="189"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="210"/>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="210"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="210"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
       <c r="K30" s="97"/>
       <c r="L30" s="97"/>
       <c r="M30" s="97"/>
@@ -14283,16 +14333,16 @@
       <c r="R30" s="97"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="210"/>
-      <c r="B31" s="210"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="210"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
       <c r="K31" s="97"/>
       <c r="L31" s="97"/>
       <c r="M31" s="97"/>
@@ -14304,28 +14354,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -14339,6 +14367,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -14365,14 +14415,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="288" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -14565,11 +14615,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="291" t="s">
+      <c r="E27" s="289" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="292"/>
-      <c r="G27" s="293"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="291"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -14877,7 +14927,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:J29"/>
+      <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14893,10 +14943,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
+      <c r="B1" s="218"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14923,8 +14973,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="211"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14963,14 +15013,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="212" t="s">
+      <c r="E4" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="212"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="103">
@@ -14985,14 +15035,14 @@
       <c r="D5" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="213" t="s">
+      <c r="E5" s="220" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="71">
@@ -15007,14 +15057,14 @@
       <c r="D6" s="143">
         <v>42877</v>
       </c>
-      <c r="E6" s="214" t="s">
+      <c r="E6" s="221" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="215"/>
-      <c r="I6" s="215"/>
-      <c r="J6" s="216"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="223"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="72">
@@ -15029,14 +15079,14 @@
       <c r="D7" s="151">
         <v>42881</v>
       </c>
-      <c r="E7" s="218" t="s">
+      <c r="E7" s="213" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="220"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="215"/>
     </row>
     <row r="8" spans="1:10" ht="46.5" customHeight="1">
       <c r="A8" s="73">
@@ -15051,30 +15101,34 @@
       <c r="D8" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="221" t="s">
+      <c r="E8" s="216" t="s">
         <v>356</v>
       </c>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="222"/>
-    </row>
-    <row r="9" spans="1:10" ht="12" customHeight="1">
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="217"/>
+    </row>
+    <row r="9" spans="1:10" s="307" customFormat="1" ht="30.75" customHeight="1">
       <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="303">
         <v>5</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="225"/>
+      <c r="C9" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="304"/>
+      <c r="E9" s="308" t="s">
+        <v>358</v>
+      </c>
+      <c r="F9" s="305"/>
+      <c r="G9" s="305"/>
+      <c r="H9" s="305"/>
+      <c r="I9" s="305"/>
+      <c r="J9" s="306"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="75">
@@ -15085,12 +15139,12 @@
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="224"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="225"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="212"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="76">
@@ -15101,12 +15155,12 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="225"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="212"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="77">
@@ -15117,12 +15171,12 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="224"/>
-      <c r="I12" s="224"/>
-      <c r="J12" s="225"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="212"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="78">
@@ -15133,12 +15187,12 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="225"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="212"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="79">
@@ -15149,12 +15203,12 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="225"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="212"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -15165,12 +15219,12 @@
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="217"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="71">
@@ -15181,12 +15235,12 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="72">
@@ -15197,12 +15251,12 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="217"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="73">
@@ -15213,12 +15267,12 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="74">
@@ -15229,12 +15283,12 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="75">
@@ -15245,12 +15299,12 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="217"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="209"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="76">
@@ -15261,12 +15315,12 @@
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="217"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="209"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="77">
@@ -15277,12 +15331,12 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="217"/>
-      <c r="G22" s="217"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="217"/>
-      <c r="J22" s="217"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="209"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="78">
@@ -15293,12 +15347,12 @@
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="217"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="209"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="79">
@@ -15309,12 +15363,12 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="217"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="209"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -15325,12 +15379,12 @@
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="217"/>
-      <c r="G25" s="217"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="217"/>
-      <c r="J25" s="217"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="209"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="71">
@@ -15341,12 +15395,12 @@
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="217"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="209"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="72">
@@ -15357,12 +15411,12 @@
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="217"/>
-      <c r="J27" s="217"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="209"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="73">
@@ -15373,12 +15427,12 @@
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="217"/>
-      <c r="J28" s="217"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="209"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="74">
@@ -15389,12 +15443,12 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="209"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="75">
@@ -15405,12 +15459,12 @@
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="217"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="209"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="76">
@@ -15421,12 +15475,12 @@
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="217"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="209"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="77">
@@ -15437,12 +15491,12 @@
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="217"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="209"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="78">
@@ -15453,12 +15507,12 @@
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="217"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="209"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="79">
@@ -15469,20 +15523,26 @@
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
-      <c r="I34" s="217"/>
-      <c r="J34" s="217"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -15499,17 +15559,11 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -15554,10 +15608,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
+      <c r="B1" s="218"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15588,8 +15642,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="211"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15620,20 +15674,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="226" t="s">
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="227"/>
+      <c r="J4" s="225"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -15644,10 +15698,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="233" t="s">
+      <c r="I5" s="231" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="234"/>
+      <c r="J5" s="232"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -15658,8 +15712,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="236"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="234"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -15670,8 +15724,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="236"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="234"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -15682,8 +15736,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="236"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -15694,8 +15748,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="236"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -15706,8 +15760,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="238"/>
+      <c r="I10" s="235"/>
+      <c r="J10" s="236"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -15718,10 +15772,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="226" t="s">
+      <c r="I11" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="227"/>
+      <c r="J11" s="225"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -15732,10 +15786,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="229" t="s">
+      <c r="I12" s="227" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="230"/>
+      <c r="J12" s="228"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -15746,8 +15800,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="232"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="230"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -15758,8 +15812,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="232"/>
+      <c r="I14" s="229"/>
+      <c r="J14" s="230"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -15770,8 +15824,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="232"/>
+      <c r="I15" s="229"/>
+      <c r="J15" s="230"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -15782,8 +15836,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="232"/>
+      <c r="I16" s="229"/>
+      <c r="J16" s="230"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -15794,8 +15848,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
+      <c r="I17" s="229"/>
+      <c r="J17" s="230"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -15806,8 +15860,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="232"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="230"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -15818,8 +15872,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="232"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="230"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -15830,8 +15884,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="232"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="230"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -15842,8 +15896,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="232"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="230"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -15854,8 +15908,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="232"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="230"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -15866,8 +15920,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="232"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="230"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -15878,8 +15932,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="232"/>
+      <c r="I24" s="229"/>
+      <c r="J24" s="230"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -15890,8 +15944,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="232"/>
+      <c r="I25" s="229"/>
+      <c r="J25" s="230"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -15902,8 +15956,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="232"/>
+      <c r="I26" s="229"/>
+      <c r="J26" s="230"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -15914,8 +15968,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="232"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="230"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -15926,8 +15980,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="232"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="230"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -15938,8 +15992,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="232"/>
+      <c r="I29" s="229"/>
+      <c r="J29" s="230"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -15950,8 +16004,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="232"/>
+      <c r="I30" s="229"/>
+      <c r="J30" s="230"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -15962,8 +16016,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="232"/>
+      <c r="I31" s="229"/>
+      <c r="J31" s="230"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -15974,8 +16028,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="232"/>
+      <c r="I32" s="229"/>
+      <c r="J32" s="230"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -15986,8 +16040,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="232"/>
+      <c r="I33" s="229"/>
+      <c r="J33" s="230"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -15998,8 +16052,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="232"/>
+      <c r="I34" s="229"/>
+      <c r="J34" s="230"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -16010,8 +16064,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="232"/>
+      <c r="I35" s="229"/>
+      <c r="J35" s="230"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -16022,8 +16076,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="231"/>
-      <c r="J36" s="232"/>
+      <c r="I36" s="229"/>
+      <c r="J36" s="230"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -16034,8 +16088,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="232"/>
+      <c r="I37" s="229"/>
+      <c r="J37" s="230"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -16046,8 +16100,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
+      <c r="I38" s="229"/>
+      <c r="J38" s="230"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -16058,8 +16112,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="231"/>
-      <c r="J39" s="232"/>
+      <c r="I39" s="229"/>
+      <c r="J39" s="230"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -16070,8 +16124,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="231"/>
-      <c r="J40" s="232"/>
+      <c r="I40" s="229"/>
+      <c r="J40" s="230"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -16082,8 +16136,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="231"/>
-      <c r="J41" s="232"/>
+      <c r="I41" s="229"/>
+      <c r="J41" s="230"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -16094,8 +16148,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="231"/>
-      <c r="J42" s="232"/>
+      <c r="I42" s="229"/>
+      <c r="J42" s="230"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -16106,8 +16160,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="231"/>
-      <c r="J43" s="232"/>
+      <c r="I43" s="229"/>
+      <c r="J43" s="230"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -16118,8 +16172,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="232"/>
+      <c r="I44" s="229"/>
+      <c r="J44" s="230"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -16130,8 +16184,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="231"/>
-      <c r="J45" s="232"/>
+      <c r="I45" s="229"/>
+      <c r="J45" s="230"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -16142,8 +16196,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="232"/>
+      <c r="I46" s="229"/>
+      <c r="J46" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16174,7 +16228,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -16198,12 +16252,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -16211,16 +16265,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="243" t="s">
+      <c r="G1" s="241" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="244"/>
-      <c r="I1" s="245" t="str">
+      <c r="H1" s="242"/>
+      <c r="I1" s="243" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="J1" s="246"/>
-      <c r="K1" s="247"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="245"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -16237,10 +16291,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -16248,16 +16302,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="243" t="s">
+      <c r="G2" s="241" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="244"/>
-      <c r="I2" s="245" t="str">
+      <c r="H2" s="242"/>
+      <c r="I2" s="243" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="J2" s="246"/>
-      <c r="K2" s="247"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="245"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -16354,7 +16408,7 @@
       <c r="B6" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="164">
+      <c r="C6" s="162">
         <v>4</v>
       </c>
       <c r="D6" s="117" t="s">
@@ -16391,7 +16445,7 @@
       <c r="B7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="248">
+      <c r="C7" s="246">
         <v>5</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -16430,7 +16484,7 @@
       <c r="B8" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="249"/>
+      <c r="C8" s="247"/>
       <c r="D8" s="129" t="s">
         <v>237</v>
       </c>
@@ -16457,7 +16511,7 @@
       <c r="B9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="250"/>
+      <c r="C9" s="248"/>
       <c r="D9" s="136" t="s">
         <v>238</v>
       </c>
@@ -16484,7 +16538,7 @@
       <c r="B10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="251">
+      <c r="C10" s="249">
         <v>7</v>
       </c>
       <c r="D10" s="118" t="s">
@@ -16523,7 +16577,7 @@
       <c r="B11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="252"/>
+      <c r="C11" s="250"/>
       <c r="D11" s="118" t="s">
         <v>248</v>
       </c>
@@ -16549,7 +16603,7 @@
       <c r="B12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="253"/>
+      <c r="C12" s="251"/>
       <c r="D12" s="118" t="s">
         <v>249</v>
       </c>
@@ -16636,40 +16690,40 @@
       <c r="N14" s="105"/>
       <c r="O14" s="134"/>
     </row>
-    <row r="15" spans="1:15" s="167" customFormat="1" ht="11.25">
+    <row r="15" spans="1:15" s="165" customFormat="1" ht="11.25">
       <c r="A15" s="153">
         <v>14</v>
       </c>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="163" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="179">
+      <c r="C15" s="177">
         <v>10</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="159" t="s">
         <v>320</v>
       </c>
-      <c r="E15" s="162" t="s">
+      <c r="E15" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="162" t="s">
+      <c r="F15" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="162" t="s">
+      <c r="G15" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="162" t="s">
+      <c r="H15" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="157" t="s">
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
     </row>
     <row r="16" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A16" s="102">
@@ -16752,7 +16806,7 @@
       <c r="B18" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="251">
+      <c r="C18" s="249">
         <v>18</v>
       </c>
       <c r="D18" s="118" t="s">
@@ -16770,7 +16824,7 @@
       <c r="L18" s="115"/>
       <c r="M18" s="115"/>
       <c r="N18" s="115"/>
-      <c r="O18" s="254" t="s">
+      <c r="O18" s="252" t="s">
         <v>260</v>
       </c>
     </row>
@@ -16781,7 +16835,7 @@
       <c r="B19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="252"/>
+      <c r="C19" s="250"/>
       <c r="D19" s="118" t="s">
         <v>251</v>
       </c>
@@ -16799,7 +16853,7 @@
       <c r="L19" s="133"/>
       <c r="M19" s="133"/>
       <c r="N19" s="133"/>
-      <c r="O19" s="255"/>
+      <c r="O19" s="253"/>
     </row>
     <row r="20" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A20" s="102">
@@ -16808,7 +16862,7 @@
       <c r="B20" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="253"/>
+      <c r="C20" s="251"/>
       <c r="D20" s="137" t="s">
         <v>252</v>
       </c>
@@ -16828,7 +16882,7 @@
       <c r="N20" s="105">
         <v>0</v>
       </c>
-      <c r="O20" s="256"/>
+      <c r="O20" s="254"/>
     </row>
     <row r="21" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A21" s="102">
@@ -16859,7 +16913,7 @@
       <c r="N21" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="O21" s="239" t="s">
+      <c r="O21" s="237" t="s">
         <v>194</v>
       </c>
     </row>
@@ -16892,7 +16946,7 @@
       <c r="N22" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O22" s="241"/>
+      <c r="O22" s="239"/>
     </row>
     <row r="23" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A23" s="102">
@@ -16923,7 +16977,7 @@
       <c r="N23" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O23" s="242"/>
+      <c r="O23" s="240"/>
     </row>
     <row r="24" spans="1:15" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="102">
@@ -16954,7 +17008,7 @@
       <c r="N24" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O24" s="239" t="s">
+      <c r="O24" s="237" t="s">
         <v>195</v>
       </c>
     </row>
@@ -16987,7 +17041,7 @@
       <c r="N25" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="O25" s="240"/>
+      <c r="O25" s="238"/>
     </row>
     <row r="26" spans="1:15" s="153" customFormat="1" ht="11.25">
       <c r="A26" s="153">
@@ -16999,29 +17053,29 @@
       <c r="C26" s="154">
         <v>2</v>
       </c>
-      <c r="D26" s="160" t="s">
+      <c r="D26" s="159" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="160" t="s">
+      <c r="E26" s="159" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="160" t="s">
+      <c r="F26" s="159" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="160" t="s">
+      <c r="G26" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="160" t="s">
+      <c r="H26" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="160">
+      <c r="I26" s="159">
         <v>50</v>
       </c>
-      <c r="J26" s="160"/>
-      <c r="K26" s="157" t="s">
+      <c r="J26" s="159"/>
+      <c r="K26" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="L26" s="160"/>
+      <c r="L26" s="159"/>
     </row>
     <row r="27" spans="1:15" s="153" customFormat="1" ht="11.25">
       <c r="A27" s="153">
@@ -17033,240 +17087,240 @@
       <c r="C27" s="154">
         <v>3</v>
       </c>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="159" t="s">
         <v>315</v>
       </c>
-      <c r="E27" s="160" t="s">
+      <c r="E27" s="159" t="s">
         <v>316</v>
       </c>
-      <c r="F27" s="160" t="s">
+      <c r="F27" s="159" t="s">
         <v>316</v>
       </c>
-      <c r="G27" s="160" t="s">
+      <c r="G27" s="159" t="s">
         <v>338</v>
       </c>
-      <c r="H27" s="160" t="s">
+      <c r="H27" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="I27" s="160">
+      <c r="I27" s="159">
         <v>50</v>
       </c>
-      <c r="J27" s="160"/>
-      <c r="K27" s="157" t="s">
+      <c r="J27" s="159"/>
+      <c r="K27" s="156" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="159" customFormat="1" ht="11.25">
+    <row r="28" spans="1:15" s="165" customFormat="1" ht="11.25">
       <c r="A28" s="153">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B28" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="161">
-        <v>6</v>
-      </c>
-      <c r="D28" s="154" t="s">
-        <v>318</v>
-      </c>
-      <c r="E28" s="155" t="s">
-        <v>319</v>
-      </c>
-      <c r="F28" s="155" t="s">
-        <v>319</v>
+      <c r="C28" s="164">
+        <v>11</v>
+      </c>
+      <c r="D28" s="159" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" s="160" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" s="160" t="s">
+        <v>322</v>
       </c>
       <c r="G28" s="160" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="162" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="163">
-        <v>250</v>
-      </c>
-      <c r="J28" s="156"/>
-      <c r="K28" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="160" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="158"/>
-    </row>
-    <row r="29" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
+    </row>
+    <row r="29" spans="1:15" s="165" customFormat="1" ht="11.25">
       <c r="A29" s="153">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C29" s="166">
-        <v>11</v>
-      </c>
-      <c r="D29" s="160" t="s">
-        <v>321</v>
-      </c>
-      <c r="E29" s="162" t="s">
-        <v>322</v>
-      </c>
-      <c r="F29" s="162" t="s">
-        <v>322</v>
-      </c>
-      <c r="G29" s="162" t="s">
+      <c r="C29" s="164">
+        <v>12</v>
+      </c>
+      <c r="D29" s="159" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="160" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" s="160" t="s">
+        <v>324</v>
+      </c>
+      <c r="G29" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="H29" s="162" t="s">
+      <c r="H29" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="163"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="157" t="s">
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="L29" s="162"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
-    </row>
-    <row r="30" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
+    </row>
+    <row r="30" spans="1:15" s="165" customFormat="1" ht="11.25">
       <c r="A30" s="153">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="166">
-        <v>12</v>
-      </c>
-      <c r="D30" s="160" t="s">
-        <v>323</v>
-      </c>
-      <c r="E30" s="162" t="s">
-        <v>324</v>
-      </c>
-      <c r="F30" s="162" t="s">
-        <v>324</v>
-      </c>
-      <c r="G30" s="162" t="s">
+      <c r="C30" s="164">
+        <v>13</v>
+      </c>
+      <c r="D30" s="159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E30" s="160" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" s="160" t="s">
+        <v>326</v>
+      </c>
+      <c r="G30" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="H30" s="162" t="s">
+      <c r="H30" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="157" t="s">
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="L30" s="162"/>
-      <c r="M30" s="162"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-    </row>
-    <row r="31" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
+    </row>
+    <row r="31" spans="1:15" s="165" customFormat="1" ht="11.25">
       <c r="A31" s="153">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C31" s="166">
-        <v>13</v>
-      </c>
-      <c r="D31" s="160" t="s">
-        <v>325</v>
-      </c>
-      <c r="E31" s="162" t="s">
-        <v>326</v>
-      </c>
-      <c r="F31" s="162" t="s">
-        <v>326</v>
-      </c>
-      <c r="G31" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="162" t="s">
-        <v>167</v>
-      </c>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="157" t="s">
+      <c r="C31" s="164">
+        <v>14</v>
+      </c>
+      <c r="D31" s="159" t="s">
+        <v>327</v>
+      </c>
+      <c r="E31" s="160" t="s">
+        <v>328</v>
+      </c>
+      <c r="F31" s="160" t="s">
+        <v>328</v>
+      </c>
+      <c r="G31" s="160" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="160" t="s">
+        <v>337</v>
+      </c>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-    </row>
-    <row r="32" spans="1:15" s="167" customFormat="1" ht="11.25">
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
+    </row>
+    <row r="32" spans="1:15" s="165" customFormat="1" ht="11.25">
       <c r="A32" s="153">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="C32" s="166">
-        <v>14</v>
-      </c>
-      <c r="D32" s="160" t="s">
-        <v>327</v>
-      </c>
-      <c r="E32" s="162" t="s">
+      <c r="C32" s="164">
+        <v>15</v>
+      </c>
+      <c r="D32" s="159" t="s">
+        <v>329</v>
+      </c>
+      <c r="E32" s="160" t="s">
+        <v>336</v>
+      </c>
+      <c r="F32" s="160" t="s">
         <v>328</v>
       </c>
-      <c r="F32" s="162" t="s">
-        <v>328</v>
-      </c>
-      <c r="G32" s="162" t="s">
+      <c r="G32" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="162" t="s">
+      <c r="H32" s="160" t="s">
         <v>337</v>
       </c>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="157" t="s">
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-    </row>
-    <row r="33" spans="1:15" s="167" customFormat="1" ht="11.25">
-      <c r="A33" s="153">
-        <v>19</v>
-      </c>
-      <c r="B33" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C33" s="166">
-        <v>15</v>
-      </c>
-      <c r="D33" s="160" t="s">
-        <v>329</v>
-      </c>
-      <c r="E33" s="162" t="s">
-        <v>336</v>
-      </c>
-      <c r="F33" s="162" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="162" t="s">
-        <v>162</v>
-      </c>
-      <c r="H33" s="162" t="s">
-        <v>337</v>
-      </c>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="157" t="s">
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
+    </row>
+    <row r="33" spans="1:15" s="302" customFormat="1" ht="11.25">
+      <c r="A33" s="292">
+        <v>8</v>
+      </c>
+      <c r="B33" s="292" t="s">
+        <v>357</v>
+      </c>
+      <c r="C33" s="293">
+        <v>6</v>
+      </c>
+      <c r="D33" s="294" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="295" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" s="295" t="s">
+        <v>319</v>
+      </c>
+      <c r="G33" s="296" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="297" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="298">
+        <v>250</v>
+      </c>
+      <c r="J33" s="299"/>
+      <c r="K33" s="300" t="s">
         <v>147</v>
       </c>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
+      <c r="L33" s="295"/>
+      <c r="M33" s="295"/>
+      <c r="N33" s="295"/>
+      <c r="O33" s="301"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17283,16 +17337,16 @@
     <mergeCell ref="O18:O20"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G5:G9 G21:G26 G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G5:G9 G21:G26 G33">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H33 H5:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H13 H15:H27 H28:H33">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:K33 K5:K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K10 K12:K27 K28:K33">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G12 G15:G20 G29:G33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G12 G15:G20 G28:G32">
       <formula1>"ArrayBox, Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
@@ -17448,7 +17502,7 @@
       </c>
       <c r="E5" s="103"/>
       <c r="F5" s="104"/>
-      <c r="G5" s="257" t="s">
+      <c r="G5" s="255" t="s">
         <v>214</v>
       </c>
       <c r="H5" s="134" t="s">
@@ -17459,27 +17513,27 @@
       </c>
       <c r="J5" s="103"/>
     </row>
-    <row r="6" spans="1:16" s="178" customFormat="1" ht="11.25">
-      <c r="A6" s="168">
+    <row r="6" spans="1:16" s="176" customFormat="1" ht="11.25">
+      <c r="A6" s="166">
         <v>2</v>
       </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="176" t="s">
+      <c r="B6" s="166"/>
+      <c r="C6" s="174" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="176" t="s">
+      <c r="D6" s="174" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="169"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="176" t="s">
+      <c r="E6" s="167"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="174" t="s">
         <v>215</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="J6" s="176"/>
+      <c r="J6" s="174"/>
     </row>
     <row r="7" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="102">
@@ -17494,7 +17548,7 @@
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="258"/>
+      <c r="G7" s="256"/>
       <c r="H7" s="134" t="s">
         <v>215</v>
       </c>
@@ -17516,7 +17570,7 @@
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="258"/>
+      <c r="G8" s="256"/>
       <c r="H8" s="139" t="s">
         <v>215</v>
       </c>
@@ -17538,7 +17592,7 @@
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="258"/>
+      <c r="G9" s="256"/>
       <c r="H9" s="134" t="s">
         <v>215</v>
       </c>
@@ -17547,49 +17601,49 @@
       </c>
       <c r="J9" s="68"/>
     </row>
-    <row r="10" spans="1:16" s="167" customFormat="1" ht="11.25">
+    <row r="10" spans="1:16" s="165" customFormat="1" ht="11.25">
       <c r="A10" s="153">
         <v>6</v>
       </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="162" t="s">
+      <c r="B10" s="163"/>
+      <c r="C10" s="160" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="160" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="170"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="258"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="256"/>
       <c r="H10" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="160" t="s">
+      <c r="I10" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="162"/>
-    </row>
-    <row r="11" spans="1:16" s="167" customFormat="1" ht="11.25">
+      <c r="J10" s="160"/>
+    </row>
+    <row r="11" spans="1:16" s="165" customFormat="1" ht="11.25">
       <c r="A11" s="153">
         <v>7</v>
       </c>
-      <c r="B11" s="165"/>
-      <c r="C11" s="162" t="s">
+      <c r="B11" s="163"/>
+      <c r="C11" s="160" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="160" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="259"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="257"/>
       <c r="H11" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="160" t="s">
+      <c r="I11" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="162"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="102">
@@ -17742,7 +17796,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="258" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="100"/>
@@ -17778,7 +17832,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="266"/>
+      <c r="A2" s="259"/>
       <c r="B2" s="101"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -17827,15 +17881,15 @@
       <c r="E4" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="211" t="s">
+      <c r="F4" s="218" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211" t="s">
+      <c r="G4" s="218"/>
+      <c r="H4" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A5" s="32">
@@ -17851,15 +17905,15 @@
       <c r="E5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="260" t="s">
+      <c r="F5" s="263" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="261"/>
-      <c r="H5" s="262" t="s">
+      <c r="G5" s="264"/>
+      <c r="H5" s="260" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="263"/>
-      <c r="J5" s="264"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="262"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="32">
@@ -17875,15 +17929,15 @@
       <c r="E6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="260" t="s">
+      <c r="F6" s="263" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="261"/>
-      <c r="H6" s="262" t="s">
+      <c r="G6" s="264"/>
+      <c r="H6" s="260" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="263"/>
-      <c r="J6" s="264"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="262"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="32">
@@ -17899,15 +17953,15 @@
       <c r="E7" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="260" t="s">
+      <c r="F7" s="263" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="261"/>
-      <c r="H7" s="262" t="s">
+      <c r="G7" s="264"/>
+      <c r="H7" s="260" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="263"/>
-      <c r="J7" s="264"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="262"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -17917,11 +17971,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="261"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="263"/>
-      <c r="J8" s="264"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="262"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -17931,11 +17985,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="262"/>
-      <c r="I9" s="263"/>
-      <c r="J9" s="264"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="264"/>
+      <c r="H9" s="260"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="262"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -17945,11 +17999,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="263"/>
-      <c r="J10" s="264"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
+      <c r="H10" s="260"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -17959,11 +18013,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="262"/>
-      <c r="I11" s="263"/>
-      <c r="J11" s="264"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="264"/>
+      <c r="H11" s="260"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="262"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -17973,11 +18027,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="261"/>
-      <c r="H12" s="262"/>
-      <c r="I12" s="263"/>
-      <c r="J12" s="264"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="260"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="262"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -17987,11 +18041,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="262"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="264"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="264"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="262"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -18001,21 +18055,20 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="261"/>
-      <c r="H14" s="262"/>
-      <c r="I14" s="263"/>
-      <c r="J14" s="264"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="264"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="261"/>
+      <c r="J14" s="262"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F10:G10"/>
@@ -18028,11 +18081,12 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
@@ -18077,20 +18131,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="267" t="str">
+      <c r="F1" s="271" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="267"/>
+      <c r="G1" s="271"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -18108,28 +18162,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="283" t="str">
+      <c r="M1" s="265" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="284"/>
-      <c r="O1" s="285"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="267"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="267" t="str">
+      <c r="F2" s="271" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="267"/>
+      <c r="G2" s="271"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -18147,12 +18201,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="283" t="str">
+      <c r="M2" s="265" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
-      <c r="N2" s="284"/>
-      <c r="O2" s="285"/>
+      <c r="N2" s="266"/>
+      <c r="O2" s="267"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
@@ -18175,12 +18229,12 @@
       <c r="F4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="226" t="s">
+      <c r="G4" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="227"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="225"/>
       <c r="K4" s="36" t="s">
         <v>56</v>
       </c>
@@ -18216,12 +18270,12 @@
       <c r="F5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="277" t="s">
+      <c r="G5" s="278" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="279"/>
+      <c r="H5" s="279"/>
+      <c r="I5" s="279"/>
+      <c r="J5" s="280"/>
       <c r="K5" s="122" t="s">
         <v>205</v>
       </c>
@@ -18259,16 +18313,16 @@
       <c r="F6" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="274" t="s">
+      <c r="G6" s="275" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="275"/>
-      <c r="I6" s="275"/>
-      <c r="J6" s="276"/>
-      <c r="K6" s="180" t="s">
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="277"/>
+      <c r="K6" s="178" t="s">
         <v>286</v>
       </c>
-      <c r="L6" s="180" t="s">
+      <c r="L6" s="178" t="s">
         <v>286</v>
       </c>
       <c r="M6" s="67" t="s">
@@ -18378,16 +18432,16 @@
       <c r="F9" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="274" t="s">
+      <c r="G9" s="275" t="s">
         <v>350</v>
       </c>
-      <c r="H9" s="275"/>
-      <c r="I9" s="275"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="181" t="s">
+      <c r="H9" s="276"/>
+      <c r="I9" s="276"/>
+      <c r="J9" s="277"/>
+      <c r="K9" s="179" t="s">
         <v>351</v>
       </c>
-      <c r="L9" s="181" t="s">
+      <c r="L9" s="179" t="s">
         <v>352</v>
       </c>
       <c r="M9" s="67"/>
@@ -18608,16 +18662,16 @@
       <c r="F15" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="271" t="s">
+      <c r="G15" s="272" t="s">
         <v>353</v>
       </c>
-      <c r="H15" s="272"/>
-      <c r="I15" s="272"/>
-      <c r="J15" s="273"/>
-      <c r="K15" s="181" t="s">
+      <c r="H15" s="273"/>
+      <c r="I15" s="273"/>
+      <c r="J15" s="274"/>
+      <c r="K15" s="179" t="s">
         <v>354</v>
       </c>
-      <c r="L15" s="181" t="s">
+      <c r="L15" s="179" t="s">
         <v>355</v>
       </c>
       <c r="M15" s="56"/>
@@ -18665,116 +18719,116 @@
       <c r="P16" s="47"/>
       <c r="Q16" s="47"/>
     </row>
-    <row r="17" spans="1:17" s="159" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A17" s="165"/>
+    <row r="17" spans="1:17" s="158" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A17" s="163"/>
       <c r="B17" s="153" t="s">
         <v>317</v>
       </c>
       <c r="C17" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="D17" s="171" t="s">
+      <c r="D17" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="172" t="s">
+      <c r="F17" s="170" t="s">
         <v>330</v>
       </c>
-      <c r="G17" s="280" t="s">
+      <c r="G17" s="281" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="281"/>
-      <c r="I17" s="281"/>
-      <c r="J17" s="282"/>
-      <c r="K17" s="158" t="s">
+      <c r="H17" s="282"/>
+      <c r="I17" s="282"/>
+      <c r="J17" s="283"/>
+      <c r="K17" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="158" t="s">
+      <c r="L17" s="157" t="s">
         <v>334</v>
       </c>
-      <c r="M17" s="173" t="s">
+      <c r="M17" s="171" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="174" t="s">
+      <c r="N17" s="172" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="173" t="s">
+      <c r="O17" s="171" t="s">
         <v>332</v>
       </c>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="175"/>
-    </row>
-    <row r="18" spans="1:17" s="159" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A18" s="165"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="173"/>
+    </row>
+    <row r="18" spans="1:17" s="158" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A18" s="163"/>
       <c r="B18" s="153" t="s">
         <v>317</v>
       </c>
       <c r="C18" s="155" t="s">
         <v>340</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="171" t="s">
+      <c r="E18" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="172" t="s">
+      <c r="F18" s="170" t="s">
         <v>331</v>
       </c>
-      <c r="G18" s="280" t="s">
+      <c r="G18" s="281" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="281"/>
-      <c r="I18" s="281"/>
-      <c r="J18" s="282"/>
-      <c r="K18" s="158" t="s">
+      <c r="H18" s="282"/>
+      <c r="I18" s="282"/>
+      <c r="J18" s="283"/>
+      <c r="K18" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="L18" s="158" t="s">
+      <c r="L18" s="157" t="s">
         <v>339</v>
       </c>
-      <c r="M18" s="173" t="s">
+      <c r="M18" s="171" t="s">
         <v>197</v>
       </c>
-      <c r="N18" s="174" t="s">
+      <c r="N18" s="172" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="173" t="s">
+      <c r="O18" s="171" t="s">
         <v>341</v>
       </c>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="175"/>
-    </row>
-    <row r="19" spans="1:17" s="159" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A19" s="165"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="173"/>
+    </row>
+    <row r="19" spans="1:17" s="158" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A19" s="163"/>
       <c r="B19" s="153" t="s">
         <v>317</v>
       </c>
       <c r="C19" s="155" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="171" t="s">
+      <c r="D19" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="171" t="s">
+      <c r="E19" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="172" t="s">
+      <c r="F19" s="170" t="s">
         <v>342</v>
       </c>
-      <c r="G19" s="280"/>
-      <c r="H19" s="281"/>
-      <c r="I19" s="281"/>
-      <c r="J19" s="282"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="174"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="175"/>
-      <c r="Q19" s="175"/>
+      <c r="G19" s="281"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="282"/>
+      <c r="J19" s="283"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
     </row>
     <row r="20" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="32"/>
@@ -18801,12 +18855,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
@@ -18823,6 +18871,12 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G18:J18"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048244:M1048576 M5 M17:M19"/>
@@ -18868,10 +18922,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
+      <c r="B1" s="218"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -18902,8 +18956,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="211"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -19136,37 +19190,37 @@
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="1:13" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="B17" s="184"/>
-      <c r="C17" s="182" t="s">
+    <row r="17" spans="1:13" s="181" customFormat="1" ht="12" customHeight="1">
+      <c r="B17" s="182"/>
+      <c r="C17" s="180" t="s">
         <v>343</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-    </row>
-    <row r="18" spans="1:13" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="B18" s="184"/>
-      <c r="C18" s="182" t="s">
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+    </row>
+    <row r="18" spans="1:13" s="181" customFormat="1" ht="12" customHeight="1">
+      <c r="B18" s="182"/>
+      <c r="C18" s="180" t="s">
         <v>344</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
     </row>
     <row r="19" spans="1:13" ht="12" customHeight="1">
       <c r="B19" s="66" t="s">
@@ -20388,171 +20442,171 @@
     </row>
     <row r="100" spans="1:16" ht="12" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="286" t="s">
+      <c r="B100" s="284" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="287"/>
-      <c r="D100" s="287"/>
-      <c r="E100" s="287"/>
-      <c r="F100" s="287"/>
-      <c r="G100" s="287"/>
-      <c r="H100" s="287"/>
-      <c r="I100" s="287"/>
-      <c r="J100" s="287"/>
-      <c r="K100" s="287"/>
-      <c r="L100" s="287"/>
-      <c r="M100" s="287"/>
-      <c r="N100" s="287"/>
-      <c r="O100" s="287"/>
-      <c r="P100" s="287"/>
+      <c r="C100" s="285"/>
+      <c r="D100" s="285"/>
+      <c r="E100" s="285"/>
+      <c r="F100" s="285"/>
+      <c r="G100" s="285"/>
+      <c r="H100" s="285"/>
+      <c r="I100" s="285"/>
+      <c r="J100" s="285"/>
+      <c r="K100" s="285"/>
+      <c r="L100" s="285"/>
+      <c r="M100" s="285"/>
+      <c r="N100" s="285"/>
+      <c r="O100" s="285"/>
+      <c r="P100" s="285"/>
     </row>
     <row r="101" spans="1:16" ht="12" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="287"/>
-      <c r="C101" s="287"/>
-      <c r="D101" s="287"/>
-      <c r="E101" s="287"/>
-      <c r="F101" s="287"/>
-      <c r="G101" s="287"/>
-      <c r="H101" s="287"/>
-      <c r="I101" s="287"/>
-      <c r="J101" s="287"/>
-      <c r="K101" s="287"/>
-      <c r="L101" s="287"/>
-      <c r="M101" s="287"/>
-      <c r="N101" s="287"/>
-      <c r="O101" s="287"/>
-      <c r="P101" s="287"/>
+      <c r="B101" s="285"/>
+      <c r="C101" s="285"/>
+      <c r="D101" s="285"/>
+      <c r="E101" s="285"/>
+      <c r="F101" s="285"/>
+      <c r="G101" s="285"/>
+      <c r="H101" s="285"/>
+      <c r="I101" s="285"/>
+      <c r="J101" s="285"/>
+      <c r="K101" s="285"/>
+      <c r="L101" s="285"/>
+      <c r="M101" s="285"/>
+      <c r="N101" s="285"/>
+      <c r="O101" s="285"/>
+      <c r="P101" s="285"/>
     </row>
     <row r="102" spans="1:16" ht="12" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="287"/>
-      <c r="C102" s="287"/>
-      <c r="D102" s="287"/>
-      <c r="E102" s="287"/>
-      <c r="F102" s="287"/>
-      <c r="G102" s="287"/>
-      <c r="H102" s="287"/>
-      <c r="I102" s="287"/>
-      <c r="J102" s="287"/>
-      <c r="K102" s="287"/>
-      <c r="L102" s="287"/>
-      <c r="M102" s="287"/>
-      <c r="N102" s="287"/>
-      <c r="O102" s="287"/>
-      <c r="P102" s="287"/>
+      <c r="B102" s="285"/>
+      <c r="C102" s="285"/>
+      <c r="D102" s="285"/>
+      <c r="E102" s="285"/>
+      <c r="F102" s="285"/>
+      <c r="G102" s="285"/>
+      <c r="H102" s="285"/>
+      <c r="I102" s="285"/>
+      <c r="J102" s="285"/>
+      <c r="K102" s="285"/>
+      <c r="L102" s="285"/>
+      <c r="M102" s="285"/>
+      <c r="N102" s="285"/>
+      <c r="O102" s="285"/>
+      <c r="P102" s="285"/>
     </row>
     <row r="103" spans="1:16" ht="12" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="286" t="s">
+      <c r="B103" s="284" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="287"/>
-      <c r="D103" s="287"/>
-      <c r="E103" s="287"/>
-      <c r="F103" s="287"/>
-      <c r="G103" s="287"/>
-      <c r="H103" s="287"/>
-      <c r="I103" s="287"/>
-      <c r="J103" s="287"/>
-      <c r="K103" s="287"/>
-      <c r="L103" s="287"/>
-      <c r="M103" s="287"/>
-      <c r="N103" s="287"/>
-      <c r="O103" s="287"/>
-      <c r="P103" s="287"/>
+      <c r="C103" s="285"/>
+      <c r="D103" s="285"/>
+      <c r="E103" s="285"/>
+      <c r="F103" s="285"/>
+      <c r="G103" s="285"/>
+      <c r="H103" s="285"/>
+      <c r="I103" s="285"/>
+      <c r="J103" s="285"/>
+      <c r="K103" s="285"/>
+      <c r="L103" s="285"/>
+      <c r="M103" s="285"/>
+      <c r="N103" s="285"/>
+      <c r="O103" s="285"/>
+      <c r="P103" s="285"/>
     </row>
     <row r="104" spans="1:16" ht="12" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="287"/>
-      <c r="C104" s="287"/>
-      <c r="D104" s="287"/>
-      <c r="E104" s="287"/>
-      <c r="F104" s="287"/>
-      <c r="G104" s="287"/>
-      <c r="H104" s="287"/>
-      <c r="I104" s="287"/>
-      <c r="J104" s="287"/>
-      <c r="K104" s="287"/>
-      <c r="L104" s="287"/>
-      <c r="M104" s="287"/>
-      <c r="N104" s="287"/>
-      <c r="O104" s="287"/>
-      <c r="P104" s="287"/>
+      <c r="B104" s="285"/>
+      <c r="C104" s="285"/>
+      <c r="D104" s="285"/>
+      <c r="E104" s="285"/>
+      <c r="F104" s="285"/>
+      <c r="G104" s="285"/>
+      <c r="H104" s="285"/>
+      <c r="I104" s="285"/>
+      <c r="J104" s="285"/>
+      <c r="K104" s="285"/>
+      <c r="L104" s="285"/>
+      <c r="M104" s="285"/>
+      <c r="N104" s="285"/>
+      <c r="O104" s="285"/>
+      <c r="P104" s="285"/>
     </row>
     <row r="105" spans="1:16" ht="12" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="287"/>
-      <c r="C105" s="287"/>
-      <c r="D105" s="287"/>
-      <c r="E105" s="287"/>
-      <c r="F105" s="287"/>
-      <c r="G105" s="287"/>
-      <c r="H105" s="287"/>
-      <c r="I105" s="287"/>
-      <c r="J105" s="287"/>
-      <c r="K105" s="287"/>
-      <c r="L105" s="287"/>
-      <c r="M105" s="287"/>
-      <c r="N105" s="287"/>
-      <c r="O105" s="287"/>
-      <c r="P105" s="287"/>
+      <c r="B105" s="285"/>
+      <c r="C105" s="285"/>
+      <c r="D105" s="285"/>
+      <c r="E105" s="285"/>
+      <c r="F105" s="285"/>
+      <c r="G105" s="285"/>
+      <c r="H105" s="285"/>
+      <c r="I105" s="285"/>
+      <c r="J105" s="285"/>
+      <c r="K105" s="285"/>
+      <c r="L105" s="285"/>
+      <c r="M105" s="285"/>
+      <c r="N105" s="285"/>
+      <c r="O105" s="285"/>
+      <c r="P105" s="285"/>
     </row>
     <row r="106" spans="1:16" ht="12" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="286" t="s">
+      <c r="B106" s="284" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="287"/>
-      <c r="D106" s="287"/>
-      <c r="E106" s="287"/>
-      <c r="F106" s="287"/>
-      <c r="G106" s="287"/>
-      <c r="H106" s="287"/>
-      <c r="I106" s="287"/>
-      <c r="J106" s="287"/>
-      <c r="K106" s="287"/>
-      <c r="L106" s="287"/>
-      <c r="M106" s="287"/>
-      <c r="N106" s="287"/>
-      <c r="O106" s="287"/>
-      <c r="P106" s="287"/>
+      <c r="C106" s="285"/>
+      <c r="D106" s="285"/>
+      <c r="E106" s="285"/>
+      <c r="F106" s="285"/>
+      <c r="G106" s="285"/>
+      <c r="H106" s="285"/>
+      <c r="I106" s="285"/>
+      <c r="J106" s="285"/>
+      <c r="K106" s="285"/>
+      <c r="L106" s="285"/>
+      <c r="M106" s="285"/>
+      <c r="N106" s="285"/>
+      <c r="O106" s="285"/>
+      <c r="P106" s="285"/>
     </row>
     <row r="107" spans="1:16" ht="12" customHeight="1">
       <c r="A107" s="62"/>
-      <c r="B107" s="287"/>
-      <c r="C107" s="287"/>
-      <c r="D107" s="287"/>
-      <c r="E107" s="287"/>
-      <c r="F107" s="287"/>
-      <c r="G107" s="287"/>
-      <c r="H107" s="287"/>
-      <c r="I107" s="287"/>
-      <c r="J107" s="287"/>
-      <c r="K107" s="287"/>
-      <c r="L107" s="287"/>
-      <c r="M107" s="287"/>
-      <c r="N107" s="287"/>
-      <c r="O107" s="287"/>
-      <c r="P107" s="287"/>
+      <c r="B107" s="285"/>
+      <c r="C107" s="285"/>
+      <c r="D107" s="285"/>
+      <c r="E107" s="285"/>
+      <c r="F107" s="285"/>
+      <c r="G107" s="285"/>
+      <c r="H107" s="285"/>
+      <c r="I107" s="285"/>
+      <c r="J107" s="285"/>
+      <c r="K107" s="285"/>
+      <c r="L107" s="285"/>
+      <c r="M107" s="285"/>
+      <c r="N107" s="285"/>
+      <c r="O107" s="285"/>
+      <c r="P107" s="285"/>
     </row>
     <row r="108" spans="1:16" ht="12" customHeight="1">
       <c r="A108" s="62"/>
-      <c r="B108" s="287"/>
-      <c r="C108" s="287"/>
-      <c r="D108" s="287"/>
-      <c r="E108" s="287"/>
-      <c r="F108" s="287"/>
-      <c r="G108" s="287"/>
-      <c r="H108" s="287"/>
-      <c r="I108" s="287"/>
-      <c r="J108" s="287"/>
-      <c r="K108" s="287"/>
-      <c r="L108" s="287"/>
-      <c r="M108" s="287"/>
-      <c r="N108" s="287"/>
-      <c r="O108" s="287"/>
-      <c r="P108" s="287"/>
+      <c r="B108" s="285"/>
+      <c r="C108" s="285"/>
+      <c r="D108" s="285"/>
+      <c r="E108" s="285"/>
+      <c r="F108" s="285"/>
+      <c r="G108" s="285"/>
+      <c r="H108" s="285"/>
+      <c r="I108" s="285"/>
+      <c r="J108" s="285"/>
+      <c r="K108" s="285"/>
+      <c r="L108" s="285"/>
+      <c r="M108" s="285"/>
+      <c r="N108" s="285"/>
+      <c r="O108" s="285"/>
+      <c r="P108" s="285"/>
     </row>
     <row r="109" spans="1:16" ht="12" customHeight="1">
       <c r="A109" s="62"/>
@@ -20571,113 +20625,113 @@
     </row>
     <row r="110" spans="1:16" ht="12" customHeight="1">
       <c r="A110" s="62"/>
-      <c r="B110" s="286" t="s">
+      <c r="B110" s="284" t="s">
         <v>296</v>
       </c>
-      <c r="C110" s="287"/>
-      <c r="D110" s="287"/>
-      <c r="E110" s="287"/>
-      <c r="F110" s="287"/>
-      <c r="G110" s="287"/>
-      <c r="H110" s="287"/>
-      <c r="I110" s="287"/>
-      <c r="J110" s="287"/>
-      <c r="K110" s="287"/>
-      <c r="L110" s="287"/>
-      <c r="M110" s="287"/>
-      <c r="N110" s="287"/>
-      <c r="O110" s="287"/>
-      <c r="P110" s="287"/>
+      <c r="C110" s="285"/>
+      <c r="D110" s="285"/>
+      <c r="E110" s="285"/>
+      <c r="F110" s="285"/>
+      <c r="G110" s="285"/>
+      <c r="H110" s="285"/>
+      <c r="I110" s="285"/>
+      <c r="J110" s="285"/>
+      <c r="K110" s="285"/>
+      <c r="L110" s="285"/>
+      <c r="M110" s="285"/>
+      <c r="N110" s="285"/>
+      <c r="O110" s="285"/>
+      <c r="P110" s="285"/>
     </row>
     <row r="111" spans="1:16" ht="12" customHeight="1">
       <c r="A111" s="62"/>
-      <c r="B111" s="286"/>
-      <c r="C111" s="287"/>
-      <c r="D111" s="287"/>
-      <c r="E111" s="287"/>
-      <c r="F111" s="287"/>
-      <c r="G111" s="287"/>
-      <c r="H111" s="287"/>
-      <c r="I111" s="287"/>
-      <c r="J111" s="287"/>
-      <c r="K111" s="287"/>
-      <c r="L111" s="287"/>
-      <c r="M111" s="287"/>
-      <c r="N111" s="287"/>
-      <c r="O111" s="287"/>
-      <c r="P111" s="287"/>
+      <c r="B111" s="284"/>
+      <c r="C111" s="285"/>
+      <c r="D111" s="285"/>
+      <c r="E111" s="285"/>
+      <c r="F111" s="285"/>
+      <c r="G111" s="285"/>
+      <c r="H111" s="285"/>
+      <c r="I111" s="285"/>
+      <c r="J111" s="285"/>
+      <c r="K111" s="285"/>
+      <c r="L111" s="285"/>
+      <c r="M111" s="285"/>
+      <c r="N111" s="285"/>
+      <c r="O111" s="285"/>
+      <c r="P111" s="285"/>
     </row>
     <row r="112" spans="1:16" ht="12" customHeight="1">
       <c r="A112" s="62"/>
-      <c r="B112" s="286"/>
-      <c r="C112" s="287"/>
-      <c r="D112" s="287"/>
-      <c r="E112" s="287"/>
-      <c r="F112" s="287"/>
-      <c r="G112" s="287"/>
-      <c r="H112" s="287"/>
-      <c r="I112" s="287"/>
-      <c r="J112" s="287"/>
-      <c r="K112" s="287"/>
-      <c r="L112" s="287"/>
-      <c r="M112" s="287"/>
-      <c r="N112" s="287"/>
-      <c r="O112" s="287"/>
-      <c r="P112" s="287"/>
+      <c r="B112" s="284"/>
+      <c r="C112" s="285"/>
+      <c r="D112" s="285"/>
+      <c r="E112" s="285"/>
+      <c r="F112" s="285"/>
+      <c r="G112" s="285"/>
+      <c r="H112" s="285"/>
+      <c r="I112" s="285"/>
+      <c r="J112" s="285"/>
+      <c r="K112" s="285"/>
+      <c r="L112" s="285"/>
+      <c r="M112" s="285"/>
+      <c r="N112" s="285"/>
+      <c r="O112" s="285"/>
+      <c r="P112" s="285"/>
     </row>
     <row r="113" spans="1:20" ht="12" customHeight="1">
       <c r="A113" s="62"/>
-      <c r="B113" s="286"/>
-      <c r="C113" s="287"/>
-      <c r="D113" s="287"/>
-      <c r="E113" s="287"/>
-      <c r="F113" s="287"/>
-      <c r="G113" s="287"/>
-      <c r="H113" s="287"/>
-      <c r="I113" s="287"/>
-      <c r="J113" s="287"/>
-      <c r="K113" s="287"/>
-      <c r="L113" s="287"/>
-      <c r="M113" s="287"/>
-      <c r="N113" s="287"/>
-      <c r="O113" s="287"/>
-      <c r="P113" s="287"/>
+      <c r="B113" s="284"/>
+      <c r="C113" s="285"/>
+      <c r="D113" s="285"/>
+      <c r="E113" s="285"/>
+      <c r="F113" s="285"/>
+      <c r="G113" s="285"/>
+      <c r="H113" s="285"/>
+      <c r="I113" s="285"/>
+      <c r="J113" s="285"/>
+      <c r="K113" s="285"/>
+      <c r="L113" s="285"/>
+      <c r="M113" s="285"/>
+      <c r="N113" s="285"/>
+      <c r="O113" s="285"/>
+      <c r="P113" s="285"/>
     </row>
     <row r="114" spans="1:20" ht="12" customHeight="1">
       <c r="A114" s="62"/>
-      <c r="B114" s="286"/>
-      <c r="C114" s="287"/>
-      <c r="D114" s="287"/>
-      <c r="E114" s="287"/>
-      <c r="F114" s="287"/>
-      <c r="G114" s="287"/>
-      <c r="H114" s="287"/>
-      <c r="I114" s="287"/>
-      <c r="J114" s="287"/>
-      <c r="K114" s="287"/>
-      <c r="L114" s="287"/>
-      <c r="M114" s="287"/>
-      <c r="N114" s="287"/>
-      <c r="O114" s="287"/>
-      <c r="P114" s="287"/>
+      <c r="B114" s="284"/>
+      <c r="C114" s="285"/>
+      <c r="D114" s="285"/>
+      <c r="E114" s="285"/>
+      <c r="F114" s="285"/>
+      <c r="G114" s="285"/>
+      <c r="H114" s="285"/>
+      <c r="I114" s="285"/>
+      <c r="J114" s="285"/>
+      <c r="K114" s="285"/>
+      <c r="L114" s="285"/>
+      <c r="M114" s="285"/>
+      <c r="N114" s="285"/>
+      <c r="O114" s="285"/>
+      <c r="P114" s="285"/>
     </row>
     <row r="115" spans="1:20" ht="12" customHeight="1">
       <c r="A115" s="62"/>
-      <c r="B115" s="286"/>
-      <c r="C115" s="287"/>
-      <c r="D115" s="287"/>
-      <c r="E115" s="287"/>
-      <c r="F115" s="287"/>
-      <c r="G115" s="287"/>
-      <c r="H115" s="287"/>
-      <c r="I115" s="287"/>
-      <c r="J115" s="287"/>
-      <c r="K115" s="287"/>
-      <c r="L115" s="287"/>
-      <c r="M115" s="287"/>
-      <c r="N115" s="287"/>
-      <c r="O115" s="287"/>
-      <c r="P115" s="287"/>
+      <c r="B115" s="284"/>
+      <c r="C115" s="285"/>
+      <c r="D115" s="285"/>
+      <c r="E115" s="285"/>
+      <c r="F115" s="285"/>
+      <c r="G115" s="285"/>
+      <c r="H115" s="285"/>
+      <c r="I115" s="285"/>
+      <c r="J115" s="285"/>
+      <c r="K115" s="285"/>
+      <c r="L115" s="285"/>
+      <c r="M115" s="285"/>
+      <c r="N115" s="285"/>
+      <c r="O115" s="285"/>
+      <c r="P115" s="285"/>
     </row>
     <row r="116" spans="1:20" ht="12" customHeight="1">
       <c r="A116" s="62"/>
@@ -20696,69 +20750,69 @@
     </row>
     <row r="117" spans="1:20" ht="12" customHeight="1">
       <c r="A117" s="62"/>
-      <c r="B117" s="286" t="s">
+      <c r="B117" s="284" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="287"/>
-      <c r="D117" s="287"/>
-      <c r="E117" s="287"/>
-      <c r="F117" s="287"/>
-      <c r="G117" s="287"/>
-      <c r="H117" s="287"/>
-      <c r="I117" s="287"/>
-      <c r="J117" s="287"/>
-      <c r="K117" s="287"/>
-      <c r="L117" s="287"/>
-      <c r="M117" s="287"/>
-      <c r="N117" s="287"/>
-      <c r="O117" s="287"/>
-      <c r="P117" s="287"/>
+      <c r="C117" s="285"/>
+      <c r="D117" s="285"/>
+      <c r="E117" s="285"/>
+      <c r="F117" s="285"/>
+      <c r="G117" s="285"/>
+      <c r="H117" s="285"/>
+      <c r="I117" s="285"/>
+      <c r="J117" s="285"/>
+      <c r="K117" s="285"/>
+      <c r="L117" s="285"/>
+      <c r="M117" s="285"/>
+      <c r="N117" s="285"/>
+      <c r="O117" s="285"/>
+      <c r="P117" s="285"/>
     </row>
     <row r="118" spans="1:20" ht="12" customHeight="1">
       <c r="A118" s="62"/>
-      <c r="B118" s="287"/>
-      <c r="C118" s="287"/>
-      <c r="D118" s="287"/>
-      <c r="E118" s="287"/>
-      <c r="F118" s="287"/>
-      <c r="G118" s="287"/>
-      <c r="H118" s="287"/>
-      <c r="I118" s="287"/>
-      <c r="J118" s="287"/>
-      <c r="K118" s="287"/>
-      <c r="L118" s="287"/>
-      <c r="M118" s="287"/>
-      <c r="N118" s="287"/>
-      <c r="O118" s="287"/>
-      <c r="P118" s="287"/>
+      <c r="B118" s="285"/>
+      <c r="C118" s="285"/>
+      <c r="D118" s="285"/>
+      <c r="E118" s="285"/>
+      <c r="F118" s="285"/>
+      <c r="G118" s="285"/>
+      <c r="H118" s="285"/>
+      <c r="I118" s="285"/>
+      <c r="J118" s="285"/>
+      <c r="K118" s="285"/>
+      <c r="L118" s="285"/>
+      <c r="M118" s="285"/>
+      <c r="N118" s="285"/>
+      <c r="O118" s="285"/>
+      <c r="P118" s="285"/>
     </row>
     <row r="119" spans="1:20" ht="12" customHeight="1">
       <c r="A119" s="62"/>
-      <c r="B119" s="287"/>
-      <c r="C119" s="287"/>
-      <c r="D119" s="287"/>
-      <c r="E119" s="287"/>
-      <c r="F119" s="287"/>
-      <c r="G119" s="287"/>
-      <c r="H119" s="287"/>
-      <c r="I119" s="287"/>
-      <c r="J119" s="287"/>
-      <c r="K119" s="287"/>
-      <c r="L119" s="287"/>
-      <c r="M119" s="287"/>
-      <c r="N119" s="287"/>
-      <c r="O119" s="287"/>
-      <c r="P119" s="287"/>
+      <c r="B119" s="285"/>
+      <c r="C119" s="285"/>
+      <c r="D119" s="285"/>
+      <c r="E119" s="285"/>
+      <c r="F119" s="285"/>
+      <c r="G119" s="285"/>
+      <c r="H119" s="285"/>
+      <c r="I119" s="285"/>
+      <c r="J119" s="285"/>
+      <c r="K119" s="285"/>
+      <c r="L119" s="285"/>
+      <c r="M119" s="285"/>
+      <c r="N119" s="285"/>
+      <c r="O119" s="285"/>
+      <c r="P119" s="285"/>
     </row>
     <row r="120" spans="1:20" ht="12" customHeight="1">
       <c r="A120" s="62"/>
-      <c r="B120" s="289" t="s">
+      <c r="B120" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="289"/>
-      <c r="D120" s="289"/>
-      <c r="E120" s="289"/>
-      <c r="F120" s="289"/>
+      <c r="C120" s="287"/>
+      <c r="D120" s="287"/>
+      <c r="E120" s="287"/>
+      <c r="F120" s="287"/>
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="40"/>
@@ -20801,13 +20855,13 @@
     </row>
     <row r="123" spans="1:20" ht="12" customHeight="1">
       <c r="A123" s="62"/>
-      <c r="B123" s="289" t="s">
+      <c r="B123" s="287" t="s">
         <v>298</v>
       </c>
-      <c r="C123" s="289"/>
-      <c r="D123" s="289"/>
-      <c r="E123" s="289"/>
-      <c r="F123" s="289"/>
+      <c r="C123" s="287"/>
+      <c r="D123" s="287"/>
+      <c r="E123" s="287"/>
+      <c r="F123" s="287"/>
       <c r="G123" s="40"/>
       <c r="H123" s="40"/>
       <c r="I123" s="40"/>
@@ -20836,13 +20890,13 @@
     <row r="125" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
       <c r="A125" s="145"/>
       <c r="B125" s="146"/>
-      <c r="C125" s="288" t="s">
+      <c r="C125" s="286" t="s">
         <v>305</v>
       </c>
-      <c r="D125" s="288"/>
-      <c r="E125" s="288"/>
-      <c r="F125" s="288"/>
-      <c r="G125" s="288"/>
+      <c r="D125" s="286"/>
+      <c r="E125" s="286"/>
+      <c r="F125" s="286"/>
+      <c r="G125" s="286"/>
       <c r="H125" s="147"/>
       <c r="I125" s="147"/>
       <c r="J125" s="147"/>
@@ -20883,20 +20937,20 @@
       <c r="K127" s="147"/>
       <c r="L127" s="147"/>
     </row>
-    <row r="128" spans="1:20" s="185" customFormat="1" ht="12" customHeight="1">
-      <c r="A128" s="188"/>
-      <c r="B128" s="188"/>
-      <c r="C128" s="188"/>
-      <c r="D128" s="188"/>
-      <c r="E128" s="188"/>
-      <c r="F128" s="188"/>
-      <c r="G128" s="188"/>
-      <c r="H128" s="188"/>
-      <c r="I128" s="188"/>
-      <c r="J128" s="188"/>
-      <c r="K128" s="188"/>
-      <c r="L128" s="188"/>
-      <c r="M128" s="188"/>
+    <row r="128" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A128" s="186"/>
+      <c r="B128" s="186"/>
+      <c r="C128" s="186"/>
+      <c r="D128" s="186"/>
+      <c r="E128" s="186"/>
+      <c r="F128" s="186"/>
+      <c r="G128" s="186"/>
+      <c r="H128" s="186"/>
+      <c r="I128" s="186"/>
+      <c r="J128" s="186"/>
+      <c r="K128" s="186"/>
+      <c r="L128" s="186"/>
+      <c r="M128" s="186"/>
       <c r="N128" s="22"/>
       <c r="O128" s="22"/>
       <c r="P128" s="22"/>
@@ -20905,20 +20959,20 @@
       <c r="S128" s="22"/>
       <c r="T128" s="22"/>
     </row>
-    <row r="129" spans="1:20" s="185" customFormat="1" ht="12" customHeight="1">
-      <c r="A129" s="188"/>
-      <c r="B129" s="188"/>
-      <c r="C129" s="188"/>
-      <c r="D129" s="188"/>
-      <c r="E129" s="188"/>
-      <c r="F129" s="188"/>
-      <c r="G129" s="188"/>
-      <c r="H129" s="188"/>
-      <c r="I129" s="188"/>
-      <c r="J129" s="188"/>
-      <c r="K129" s="188"/>
-      <c r="L129" s="188"/>
-      <c r="M129" s="188"/>
+    <row r="129" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
+      <c r="A129" s="186"/>
+      <c r="B129" s="186"/>
+      <c r="C129" s="186"/>
+      <c r="D129" s="186"/>
+      <c r="E129" s="186"/>
+      <c r="F129" s="186"/>
+      <c r="G129" s="186"/>
+      <c r="H129" s="186"/>
+      <c r="I129" s="186"/>
+      <c r="J129" s="186"/>
+      <c r="K129" s="186"/>
+      <c r="L129" s="186"/>
+      <c r="M129" s="186"/>
       <c r="N129" s="22"/>
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
@@ -20927,55 +20981,55 @@
       <c r="S129" s="22"/>
       <c r="T129" s="22"/>
     </row>
-    <row r="130" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A130" s="186"/>
-      <c r="B130" s="184" t="s">
+    <row r="130" spans="1:20" s="181" customFormat="1" ht="12" customHeight="1">
+      <c r="A130" s="184"/>
+      <c r="B130" s="182" t="s">
         <v>346</v>
       </c>
-      <c r="C130" s="182"/>
-      <c r="D130" s="187"/>
-      <c r="E130" s="182"/>
-      <c r="F130" s="182"/>
-      <c r="G130" s="182"/>
-      <c r="H130" s="182"/>
-      <c r="I130" s="182"/>
-      <c r="J130" s="182"/>
-      <c r="K130" s="182"/>
-      <c r="L130" s="182"/>
-      <c r="M130" s="182"/>
-    </row>
-    <row r="131" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A131" s="186"/>
-      <c r="C131" s="182" t="s">
+      <c r="C130" s="180"/>
+      <c r="D130" s="185"/>
+      <c r="E130" s="180"/>
+      <c r="F130" s="180"/>
+      <c r="G130" s="180"/>
+      <c r="H130" s="180"/>
+      <c r="I130" s="180"/>
+      <c r="J130" s="180"/>
+      <c r="K130" s="180"/>
+      <c r="L130" s="180"/>
+      <c r="M130" s="180"/>
+    </row>
+    <row r="131" spans="1:20" s="181" customFormat="1" ht="12" customHeight="1">
+      <c r="A131" s="184"/>
+      <c r="C131" s="180" t="s">
         <v>347</v>
       </c>
-      <c r="D131" s="187"/>
-      <c r="E131" s="182"/>
-      <c r="F131" s="182"/>
-      <c r="G131" s="182"/>
-      <c r="H131" s="182"/>
-      <c r="I131" s="182"/>
-      <c r="J131" s="182"/>
-      <c r="K131" s="182"/>
-      <c r="L131" s="182"/>
-      <c r="M131" s="182"/>
-    </row>
-    <row r="132" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A132" s="186"/>
-      <c r="B132" s="182"/>
-      <c r="C132" s="182" t="s">
+      <c r="D131" s="185"/>
+      <c r="E131" s="180"/>
+      <c r="F131" s="180"/>
+      <c r="G131" s="180"/>
+      <c r="H131" s="180"/>
+      <c r="I131" s="180"/>
+      <c r="J131" s="180"/>
+      <c r="K131" s="180"/>
+      <c r="L131" s="180"/>
+      <c r="M131" s="180"/>
+    </row>
+    <row r="132" spans="1:20" s="181" customFormat="1" ht="12" customHeight="1">
+      <c r="A132" s="184"/>
+      <c r="B132" s="180"/>
+      <c r="C132" s="180" t="s">
         <v>348</v>
       </c>
-      <c r="D132" s="182"/>
-      <c r="E132" s="182"/>
-      <c r="F132" s="182"/>
-      <c r="G132" s="182"/>
-      <c r="H132" s="182"/>
-      <c r="I132" s="182"/>
-      <c r="J132" s="182"/>
-      <c r="K132" s="182"/>
-      <c r="L132" s="182"/>
-      <c r="M132" s="182"/>
+      <c r="D132" s="180"/>
+      <c r="E132" s="180"/>
+      <c r="F132" s="180"/>
+      <c r="G132" s="180"/>
+      <c r="H132" s="180"/>
+      <c r="I132" s="180"/>
+      <c r="J132" s="180"/>
+      <c r="K132" s="180"/>
+      <c r="L132" s="180"/>
+      <c r="M132" s="180"/>
     </row>
     <row r="133" spans="1:20" ht="12" customHeight="1">
       <c r="A133" s="62" t="s">
@@ -21928,10 +21982,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211"/>
+      <c r="B1" s="218"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -21962,8 +22016,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="211"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$O$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$157</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$154</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
@@ -1377,7 +1377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="364">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2488,9 +2488,6 @@
     <t>ProjectID</t>
   </si>
   <si>
-    <t>Ngày ghi nhận</t>
-  </si>
-  <si>
     <t>Deadline mong muốn</t>
   </si>
   <si>
@@ -2568,13 +2565,39 @@
     <t>25/01/2018</t>
   </si>
   <si>
-    <t>Luồng 14: Chọn Liên hệ</t>
-  </si>
-  <si>
-    <t>Truyền tham số @@DivisionID đến màn hình CRMF9010 -Chọn liên hệ</t>
-  </si>
-  <si>
-    <t>Màn hình CRMF9010 cho phép chọn 1 hoặc nhiều giá trị</t>
+    <t>- STT yêu cầu là: 4 (bên file Tasklist)
+ -Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
+  </si>
+  <si>
+    <t>Ver 5.0</t>
+  </si>
+  <si>
+    <t>-STT yêu cầu là: 1 (bên file Tasklist)
+- Thêm trường Dự án</t>
+  </si>
+  <si>
+    <t>Giá trị đầu tiên trong db</t>
+  </si>
+  <si>
+    <t>Mặc đinh load lên giá trị đầu tiên trong DB là Support</t>
+  </si>
+  <si>
+    <t>[Loại yêu cầu] != [Bug/issue] thì hide combo [Phân loại bug] ngược lại thì unhide và bắt buộc nhập [Phân loại bug]</t>
+  </si>
+  <si>
+    <t>dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>Not In List</t>
+  </si>
+  <si>
+    <t>00ML000130</t>
+  </si>
+  <si>
+    <t>Ver 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver 5 </t>
   </si>
   <si>
     <t xml:space="preserve">Select 
@@ -2597,7 +2620,7 @@
  where D.RequestID = M.RequestID
  Group by B.AccountID, B.AccountName
  FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as AccountName
-, M.CreateDate, M.LastModifyDate, M.DeadlineExpect, M.CompleteDate, M.DurationTime, M.RealTime, M.ProjectID
+, M.CreateDate, M.LastModifyDate, M.DeadlineExpect,M.DeadlineRequest,  M.CompleteDate, M.DurationTime, M.RealTime, M.ProjectID
 , M.RequestTypeID,C02.Description as RequestTypeName
 , M.BugTypeID
 , stuff(isnull((Select ', ' + B.Description From CRMT0099 B WITH (NOLOCK) 
@@ -2617,32 +2640,13 @@
 , PriorityID, RequestStatus, DeleteFlg
 , TimeRequest, DeadlineRequest, AssignedToUserID
 , RequestDescription, FeedbackDescription, RelatedToTypeID
-, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID, RequestTypeID, BugTypeID, DeadlineExpect, CompleteDate, DurationTime, RealTime, ProjectID)
+, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID, RequestTypeID, BugTypeID, DeadlineExpect, CompleteDate, DurationTime, RealTime, ProjectID, DeadlineRequest)
 Values 
 (@APK, @DivisionID, @RequestSubject
 , @PriorityID, @RequestStatus, @DeleteFlg
 , @TimeRequest, @DeadlineRequest, @AssignedToUserID
 , @RequestDescription, @FeedbackDescription, @RelatedToTypeID
-, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime, @ProjectID)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@APK,
- @DivisionID, @RequestSubject, @PriorityID, @RequestStatus, @DeleteFlg, @TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, @RelatedToTypeID, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
-@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
-@ProjectID
-</t>
-  </si>
-  <si>
-    <t>NewID(),
- Biến môi trường @RequestSubject, @PriorityID, 
-@RequestStatus,
-@DeleteFlg,
-@TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, 
-20, 
-@CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
-@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime,
-@RealTime, 
-@ProjectID</t>
+, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @DeadlineRequest, @RealTime, @ProjectID)</t>
   </si>
   <si>
     <t>Update CRMT20801 
@@ -2662,11 +2666,35 @@
 , RequestTypeID = @RequestTypeID
 , BugTypeID = @BugTypeID
 , DeadlineExpect = @DeadlineExpect
+, DeadlineRequest = @DeadlineRequest
 , CompleteDate = @CompleteDate
 , DurationTime = @DurationTime
 , RealTime = @RealTime
 , ProjectID = @ProjectID
 Where RequestID =@RequestID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@APK,
+ @DivisionID, @RequestSubject, @PriorityID, @RequestStatus, @DeleteFlg, @TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, @RelatedToTypeID, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
+@RequestTypeID, @BugTypeID, @DeadlineExpect, 
+@DeadlineRequest,
+@CompleteDate, @DurationTime, @RealTime,
+@ProjectID
+</t>
+  </si>
+  <si>
+    <t>NewID(),
+ Biến môi trường @RequestSubject, @PriorityID, 
+@RequestStatus,
+@DeleteFlg,
+@TimeRequest, @DeadlineRequest, @AssignedToUserID, @RequestDescription, @FeedbackDescription, 
+20, 
+@CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID,
+@RequestTypeID, @BugTypeID, @DeadlineExpect, 
+@DeadlineRequest,
+@CompleteDate, @DurationTime,
+@RealTime, 
+@ProjectID</t>
   </si>
   <si>
     <t xml:space="preserve">@DivisionID
@@ -2682,7 +2710,8 @@
 @LastModifyUserID
 @LastModifyDate
 @RequestID
-@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
+@RequestTypeID, @BugTypeID, @DeadlineExpect, @DeadlineRequest,
+@CompleteDate, @DurationTime, @RealTime,
 @ProjectID
 </t>
   </si>
@@ -2700,20 +2729,14 @@
 @LastModifyUserID
 @LastModifyDate
 @RequestID
-@RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @RealTime,
+@RequestTypeID, @BugTypeID, @DeadlineExpect, 
+@DeadlineRequest,
+@CompleteDate, @DurationTime, @RealTime,
 @ProjectID
 </t>
   </si>
   <si>
-    <t>- STT yêu cầu là: 4 (bên file Tasklist)
- -Thêm các trường: Loại yêu cầu, Phân loại bug, Chủ đề yêu cầu, Deadline mong muốn, Deadline xử lý, Deadline thực tế, Số giờ cho phép, Số giờ thực tế</t>
-  </si>
-  <si>
-    <t>Ver 5.0</t>
-  </si>
-  <si>
-    <t>-STT yêu cầu là: 1 (bên file Tasklist)
-- Thêm trường Dự án</t>
+    <t>Thời gian ghi nhận</t>
   </si>
 </sst>
 </file>
@@ -3237,7 +3260,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3590,12 +3613,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3610,15 +3627,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3704,9 +3712,64 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3785,21 +3848,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3809,15 +3857,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3998,6 +4037,15 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4022,54 +4070,68 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4196,18 +4258,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>926690</xdr:colOff>
+      <xdr:colOff>1044096</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4227,8 +4289,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="600076"/>
-          <a:ext cx="7803740" cy="4743450"/>
+          <a:off x="0" y="619125"/>
+          <a:ext cx="7921146" cy="4791075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4251,18 +4313,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>124625</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1024694</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4282,8 +4344,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="5306225"/>
-          <a:ext cx="7753350" cy="4780750"/>
+          <a:off x="0" y="5400676"/>
+          <a:ext cx="7901744" cy="4876800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13816,65 +13878,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="198"/>
-      <c r="B1" s="198"/>
-      <c r="C1" s="200" t="s">
+      <c r="A1" s="210"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="199" t="s">
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="211" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199" t="s">
+      <c r="H1" s="211"/>
+      <c r="I1" s="211" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="199"/>
+      <c r="J1" s="211"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="199" t="s">
+      <c r="A2" s="210"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="211" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="198"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="195" t="s">
+      <c r="A3" s="210"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="196"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="196"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="208"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="93"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="197"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
+      <c r="A13" s="209"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
       <c r="M13" s="94"/>
@@ -13885,56 +13947,56 @@
       <c r="R13" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="191"/>
-      <c r="R15" s="191"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
       <c r="M16" s="95"/>
@@ -13945,384 +14007,384 @@
       <c r="R16" s="95"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="191"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="191"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="191"/>
-      <c r="L17" s="191"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="191"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="191"/>
-      <c r="R17" s="191"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="203"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="203"/>
+      <c r="O17" s="203"/>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="203"/>
+      <c r="R17" s="203"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="191"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="191"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="191"/>
-      <c r="K18" s="191"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="191"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="191"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="203"/>
+      <c r="L18" s="203"/>
+      <c r="M18" s="203"/>
+      <c r="N18" s="203"/>
+      <c r="O18" s="203"/>
+      <c r="P18" s="203"/>
+      <c r="Q18" s="203"/>
+      <c r="R18" s="203"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="193"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="193"/>
-      <c r="L19" s="193"/>
-      <c r="M19" s="193"/>
-      <c r="N19" s="193"/>
-      <c r="O19" s="193"/>
-      <c r="P19" s="193"/>
-      <c r="Q19" s="193"/>
-      <c r="R19" s="193"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="205"/>
+      <c r="N19" s="205"/>
+      <c r="O19" s="205"/>
+      <c r="P19" s="205"/>
+      <c r="Q19" s="205"/>
+      <c r="R19" s="205"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="191"/>
-      <c r="K20" s="191"/>
-      <c r="L20" s="191"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="191"/>
-      <c r="O20" s="191"/>
-      <c r="P20" s="191"/>
-      <c r="Q20" s="191"/>
-      <c r="R20" s="191"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="203"/>
+      <c r="O20" s="203"/>
+      <c r="P20" s="203"/>
+      <c r="Q20" s="203"/>
+      <c r="R20" s="203"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="191"/>
-      <c r="I21" s="191"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
-      <c r="N21" s="191"/>
-      <c r="O21" s="191"/>
-      <c r="P21" s="191"/>
-      <c r="Q21" s="191"/>
-      <c r="R21" s="191"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="203"/>
+      <c r="M21" s="203"/>
+      <c r="N21" s="203"/>
+      <c r="O21" s="203"/>
+      <c r="P21" s="203"/>
+      <c r="Q21" s="203"/>
+      <c r="R21" s="203"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="192"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="192"/>
-      <c r="P22" s="192"/>
-      <c r="Q22" s="192"/>
-      <c r="R22" s="192"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="204"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="204"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="204"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="192"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="192"/>
-      <c r="P23" s="192"/>
-      <c r="Q23" s="192"/>
-      <c r="R23" s="192"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="204"/>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="204"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="189"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="189"/>
-      <c r="L26" s="189"/>
-      <c r="M26" s="189"/>
-      <c r="N26" s="189"/>
-      <c r="O26" s="189"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="189"/>
-      <c r="R26" s="189"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="201"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="201"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="190"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="190"/>
-      <c r="R28" s="190"/>
-      <c r="S28" s="188"/>
-      <c r="T28" s="188"/>
-      <c r="U28" s="188"/>
-      <c r="V28" s="188"/>
-      <c r="W28" s="188"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="188"/>
-      <c r="Z28" s="188"/>
-      <c r="AA28" s="188"/>
-      <c r="AB28" s="188"/>
-      <c r="AC28" s="188"/>
-      <c r="AD28" s="188"/>
-      <c r="AE28" s="188"/>
-      <c r="AF28" s="188"/>
-      <c r="AG28" s="188"/>
-      <c r="AH28" s="188"/>
-      <c r="AI28" s="188"/>
-      <c r="AJ28" s="188"/>
-      <c r="AK28" s="188"/>
-      <c r="AL28" s="188"/>
-      <c r="AM28" s="188"/>
-      <c r="AN28" s="188"/>
-      <c r="AO28" s="188"/>
-      <c r="AP28" s="188"/>
-      <c r="AQ28" s="188"/>
-      <c r="AR28" s="188"/>
-      <c r="AS28" s="188"/>
-      <c r="AT28" s="188"/>
-      <c r="AU28" s="188"/>
-      <c r="AV28" s="188"/>
-      <c r="AW28" s="188"/>
-      <c r="AX28" s="188"/>
-      <c r="AY28" s="188"/>
-      <c r="AZ28" s="188"/>
-      <c r="BA28" s="188"/>
-      <c r="BB28" s="188"/>
-      <c r="BC28" s="188"/>
-      <c r="BD28" s="188"/>
-      <c r="BE28" s="188"/>
-      <c r="BF28" s="188"/>
-      <c r="BG28" s="188"/>
-      <c r="BH28" s="188"/>
-      <c r="BI28" s="188"/>
-      <c r="BJ28" s="188"/>
-      <c r="BK28" s="188"/>
-      <c r="BL28" s="188"/>
-      <c r="BM28" s="188"/>
-      <c r="BN28" s="188"/>
-      <c r="BO28" s="188"/>
-      <c r="BP28" s="188"/>
-      <c r="BQ28" s="188"/>
-      <c r="BR28" s="188"/>
-      <c r="BS28" s="188"/>
-      <c r="BT28" s="188"/>
-      <c r="BU28" s="188"/>
-      <c r="BV28" s="188"/>
-      <c r="BW28" s="188"/>
-      <c r="BX28" s="188"/>
-      <c r="BY28" s="188"/>
-      <c r="BZ28" s="188"/>
-      <c r="CA28" s="188"/>
-      <c r="CB28" s="188"/>
-      <c r="CC28" s="188"/>
-      <c r="CD28" s="188"/>
-      <c r="CE28" s="188"/>
-      <c r="CF28" s="188"/>
-      <c r="CG28" s="188"/>
-      <c r="CH28" s="188"/>
-      <c r="CI28" s="188"/>
-      <c r="CJ28" s="188"/>
-      <c r="CK28" s="188"/>
-      <c r="CL28" s="188"/>
-      <c r="CM28" s="188"/>
-      <c r="CN28" s="188"/>
-      <c r="CO28" s="188"/>
-      <c r="CP28" s="188"/>
-      <c r="CQ28" s="188"/>
-      <c r="CR28" s="188"/>
-      <c r="CS28" s="188"/>
-      <c r="CT28" s="188"/>
-      <c r="CU28" s="188"/>
-      <c r="CV28" s="188"/>
-      <c r="CW28" s="188"/>
-      <c r="CX28" s="188"/>
-      <c r="CY28" s="188"/>
-      <c r="CZ28" s="188"/>
-      <c r="DA28" s="188"/>
-      <c r="DB28" s="188"/>
-      <c r="DC28" s="188"/>
-      <c r="DD28" s="188"/>
-      <c r="DE28" s="188"/>
-      <c r="DF28" s="188"/>
-      <c r="DG28" s="188"/>
-      <c r="DH28" s="188"/>
-      <c r="DI28" s="188"/>
-      <c r="DJ28" s="188"/>
-      <c r="DK28" s="188"/>
-      <c r="DL28" s="188"/>
-      <c r="DM28" s="188"/>
-      <c r="DN28" s="188"/>
-      <c r="DO28" s="188"/>
-      <c r="DP28" s="188"/>
-      <c r="DQ28" s="188"/>
-      <c r="DR28" s="188"/>
-      <c r="DS28" s="188"/>
-      <c r="DT28" s="188"/>
-      <c r="DU28" s="188"/>
-      <c r="DV28" s="188"/>
-      <c r="DW28" s="188"/>
-      <c r="DX28" s="188"/>
-      <c r="DY28" s="188"/>
-      <c r="DZ28" s="188"/>
-      <c r="EA28" s="188"/>
-      <c r="EB28" s="188"/>
-      <c r="EC28" s="188"/>
-      <c r="ED28" s="188"/>
-      <c r="EE28" s="188"/>
-      <c r="EF28" s="188"/>
-      <c r="EG28" s="188"/>
-      <c r="EH28" s="188"/>
-      <c r="EI28" s="188"/>
-      <c r="EJ28" s="188"/>
-      <c r="EK28" s="188"/>
-      <c r="EL28" s="188"/>
-      <c r="EM28" s="188"/>
-      <c r="EN28" s="188"/>
-      <c r="EO28" s="188"/>
-      <c r="EP28" s="188"/>
-      <c r="EQ28" s="188"/>
-      <c r="ER28" s="188"/>
-      <c r="ES28" s="188"/>
-      <c r="ET28" s="188"/>
-      <c r="EU28" s="188"/>
-      <c r="EV28" s="188"/>
-      <c r="EW28" s="188"/>
-      <c r="EX28" s="188"/>
-      <c r="EY28" s="188"/>
-      <c r="EZ28" s="188"/>
-      <c r="FA28" s="188"/>
-      <c r="FB28" s="188"/>
-      <c r="FC28" s="188"/>
-      <c r="FD28" s="188"/>
-      <c r="FE28" s="188"/>
-      <c r="FF28" s="188"/>
-      <c r="FG28" s="188"/>
-      <c r="FH28" s="188"/>
-      <c r="FI28" s="188"/>
-      <c r="FJ28" s="188"/>
-      <c r="FK28" s="188"/>
-      <c r="FL28" s="188"/>
-      <c r="FM28" s="188"/>
-      <c r="FN28" s="188"/>
-      <c r="FO28" s="188"/>
-      <c r="FP28" s="188"/>
-      <c r="FQ28" s="188"/>
-      <c r="FR28" s="188"/>
-      <c r="FS28" s="188"/>
-      <c r="FT28" s="188"/>
-      <c r="FU28" s="188"/>
-      <c r="FV28" s="188"/>
-      <c r="FW28" s="188"/>
-      <c r="FX28" s="188"/>
-      <c r="FY28" s="188"/>
-      <c r="FZ28" s="188"/>
-      <c r="GA28" s="188"/>
-      <c r="GB28" s="188"/>
-      <c r="GC28" s="188"/>
-      <c r="GD28" s="188"/>
-      <c r="GE28" s="188"/>
-      <c r="GF28" s="188"/>
-      <c r="GG28" s="188"/>
-      <c r="GH28" s="188"/>
-      <c r="GI28" s="188"/>
-      <c r="GJ28" s="188"/>
-      <c r="GK28" s="188"/>
-      <c r="GL28" s="188"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="202"/>
+      <c r="P28" s="202"/>
+      <c r="Q28" s="202"/>
+      <c r="R28" s="202"/>
+      <c r="S28" s="200"/>
+      <c r="T28" s="200"/>
+      <c r="U28" s="200"/>
+      <c r="V28" s="200"/>
+      <c r="W28" s="200"/>
+      <c r="X28" s="200"/>
+      <c r="Y28" s="200"/>
+      <c r="Z28" s="200"/>
+      <c r="AA28" s="200"/>
+      <c r="AB28" s="200"/>
+      <c r="AC28" s="200"/>
+      <c r="AD28" s="200"/>
+      <c r="AE28" s="200"/>
+      <c r="AF28" s="200"/>
+      <c r="AG28" s="200"/>
+      <c r="AH28" s="200"/>
+      <c r="AI28" s="200"/>
+      <c r="AJ28" s="200"/>
+      <c r="AK28" s="200"/>
+      <c r="AL28" s="200"/>
+      <c r="AM28" s="200"/>
+      <c r="AN28" s="200"/>
+      <c r="AO28" s="200"/>
+      <c r="AP28" s="200"/>
+      <c r="AQ28" s="200"/>
+      <c r="AR28" s="200"/>
+      <c r="AS28" s="200"/>
+      <c r="AT28" s="200"/>
+      <c r="AU28" s="200"/>
+      <c r="AV28" s="200"/>
+      <c r="AW28" s="200"/>
+      <c r="AX28" s="200"/>
+      <c r="AY28" s="200"/>
+      <c r="AZ28" s="200"/>
+      <c r="BA28" s="200"/>
+      <c r="BB28" s="200"/>
+      <c r="BC28" s="200"/>
+      <c r="BD28" s="200"/>
+      <c r="BE28" s="200"/>
+      <c r="BF28" s="200"/>
+      <c r="BG28" s="200"/>
+      <c r="BH28" s="200"/>
+      <c r="BI28" s="200"/>
+      <c r="BJ28" s="200"/>
+      <c r="BK28" s="200"/>
+      <c r="BL28" s="200"/>
+      <c r="BM28" s="200"/>
+      <c r="BN28" s="200"/>
+      <c r="BO28" s="200"/>
+      <c r="BP28" s="200"/>
+      <c r="BQ28" s="200"/>
+      <c r="BR28" s="200"/>
+      <c r="BS28" s="200"/>
+      <c r="BT28" s="200"/>
+      <c r="BU28" s="200"/>
+      <c r="BV28" s="200"/>
+      <c r="BW28" s="200"/>
+      <c r="BX28" s="200"/>
+      <c r="BY28" s="200"/>
+      <c r="BZ28" s="200"/>
+      <c r="CA28" s="200"/>
+      <c r="CB28" s="200"/>
+      <c r="CC28" s="200"/>
+      <c r="CD28" s="200"/>
+      <c r="CE28" s="200"/>
+      <c r="CF28" s="200"/>
+      <c r="CG28" s="200"/>
+      <c r="CH28" s="200"/>
+      <c r="CI28" s="200"/>
+      <c r="CJ28" s="200"/>
+      <c r="CK28" s="200"/>
+      <c r="CL28" s="200"/>
+      <c r="CM28" s="200"/>
+      <c r="CN28" s="200"/>
+      <c r="CO28" s="200"/>
+      <c r="CP28" s="200"/>
+      <c r="CQ28" s="200"/>
+      <c r="CR28" s="200"/>
+      <c r="CS28" s="200"/>
+      <c r="CT28" s="200"/>
+      <c r="CU28" s="200"/>
+      <c r="CV28" s="200"/>
+      <c r="CW28" s="200"/>
+      <c r="CX28" s="200"/>
+      <c r="CY28" s="200"/>
+      <c r="CZ28" s="200"/>
+      <c r="DA28" s="200"/>
+      <c r="DB28" s="200"/>
+      <c r="DC28" s="200"/>
+      <c r="DD28" s="200"/>
+      <c r="DE28" s="200"/>
+      <c r="DF28" s="200"/>
+      <c r="DG28" s="200"/>
+      <c r="DH28" s="200"/>
+      <c r="DI28" s="200"/>
+      <c r="DJ28" s="200"/>
+      <c r="DK28" s="200"/>
+      <c r="DL28" s="200"/>
+      <c r="DM28" s="200"/>
+      <c r="DN28" s="200"/>
+      <c r="DO28" s="200"/>
+      <c r="DP28" s="200"/>
+      <c r="DQ28" s="200"/>
+      <c r="DR28" s="200"/>
+      <c r="DS28" s="200"/>
+      <c r="DT28" s="200"/>
+      <c r="DU28" s="200"/>
+      <c r="DV28" s="200"/>
+      <c r="DW28" s="200"/>
+      <c r="DX28" s="200"/>
+      <c r="DY28" s="200"/>
+      <c r="DZ28" s="200"/>
+      <c r="EA28" s="200"/>
+      <c r="EB28" s="200"/>
+      <c r="EC28" s="200"/>
+      <c r="ED28" s="200"/>
+      <c r="EE28" s="200"/>
+      <c r="EF28" s="200"/>
+      <c r="EG28" s="200"/>
+      <c r="EH28" s="200"/>
+      <c r="EI28" s="200"/>
+      <c r="EJ28" s="200"/>
+      <c r="EK28" s="200"/>
+      <c r="EL28" s="200"/>
+      <c r="EM28" s="200"/>
+      <c r="EN28" s="200"/>
+      <c r="EO28" s="200"/>
+      <c r="EP28" s="200"/>
+      <c r="EQ28" s="200"/>
+      <c r="ER28" s="200"/>
+      <c r="ES28" s="200"/>
+      <c r="ET28" s="200"/>
+      <c r="EU28" s="200"/>
+      <c r="EV28" s="200"/>
+      <c r="EW28" s="200"/>
+      <c r="EX28" s="200"/>
+      <c r="EY28" s="200"/>
+      <c r="EZ28" s="200"/>
+      <c r="FA28" s="200"/>
+      <c r="FB28" s="200"/>
+      <c r="FC28" s="200"/>
+      <c r="FD28" s="200"/>
+      <c r="FE28" s="200"/>
+      <c r="FF28" s="200"/>
+      <c r="FG28" s="200"/>
+      <c r="FH28" s="200"/>
+      <c r="FI28" s="200"/>
+      <c r="FJ28" s="200"/>
+      <c r="FK28" s="200"/>
+      <c r="FL28" s="200"/>
+      <c r="FM28" s="200"/>
+      <c r="FN28" s="200"/>
+      <c r="FO28" s="200"/>
+      <c r="FP28" s="200"/>
+      <c r="FQ28" s="200"/>
+      <c r="FR28" s="200"/>
+      <c r="FS28" s="200"/>
+      <c r="FT28" s="200"/>
+      <c r="FU28" s="200"/>
+      <c r="FV28" s="200"/>
+      <c r="FW28" s="200"/>
+      <c r="FX28" s="200"/>
+      <c r="FY28" s="200"/>
+      <c r="FZ28" s="200"/>
+      <c r="GA28" s="200"/>
+      <c r="GB28" s="200"/>
+      <c r="GC28" s="200"/>
+      <c r="GD28" s="200"/>
+      <c r="GE28" s="200"/>
+      <c r="GF28" s="200"/>
+      <c r="GG28" s="200"/>
+      <c r="GH28" s="200"/>
+      <c r="GI28" s="200"/>
+      <c r="GJ28" s="200"/>
+      <c r="GK28" s="200"/>
+      <c r="GL28" s="200"/>
       <c r="GM28" s="96"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="189"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="189"/>
-      <c r="K29" s="189"/>
-      <c r="L29" s="189"/>
-      <c r="M29" s="189"/>
-      <c r="N29" s="189"/>
-      <c r="O29" s="189"/>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="189"/>
-      <c r="R29" s="189"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="201"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="187"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
+      <c r="A30" s="199"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="199"/>
       <c r="K30" s="97"/>
       <c r="L30" s="97"/>
       <c r="M30" s="97"/>
@@ -14333,16 +14395,16 @@
       <c r="R30" s="97"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="187"/>
-      <c r="B31" s="187"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="199"/>
       <c r="K31" s="97"/>
       <c r="L31" s="97"/>
       <c r="M31" s="97"/>
@@ -14415,14 +14477,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="288" t="s">
+      <c r="B1" s="295" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -14615,11 +14677,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="289" t="s">
+      <c r="E27" s="296" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="290"/>
-      <c r="G27" s="291"/>
+      <c r="F27" s="297"/>
+      <c r="G27" s="298"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -14926,8 +14988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14943,10 +15005,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218"/>
+      <c r="B1" s="225"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -14973,8 +15035,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -14997,7 +15059,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
@@ -15013,14 +15075,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="219" t="s">
+      <c r="E4" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="103">
@@ -15035,100 +15097,100 @@
       <c r="D5" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="220" t="s">
+      <c r="E5" s="227" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="71">
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="12.75">
+      <c r="A6" s="307">
         <v>2</v>
       </c>
-      <c r="B6" s="142">
+      <c r="B6" s="308">
         <v>2</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="309" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="309">
         <v>42877</v>
       </c>
-      <c r="E6" s="221" t="s">
+      <c r="E6" s="310" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="223"/>
-    </row>
-    <row r="7" spans="1:10" ht="12" customHeight="1">
-      <c r="A7" s="72">
+      <c r="F6" s="311"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="311"/>
+      <c r="I6" s="311"/>
+      <c r="J6" s="312"/>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A7" s="313">
         <v>3</v>
       </c>
-      <c r="B7" s="150">
+      <c r="B7" s="314">
         <v>3</v>
       </c>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="315" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="151">
+      <c r="D7" s="315">
         <v>42881</v>
       </c>
-      <c r="E7" s="213" t="s">
+      <c r="E7" s="316" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="215"/>
-    </row>
-    <row r="8" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A8" s="73">
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="317"/>
+      <c r="J7" s="318"/>
+    </row>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A8" s="303">
         <v>4</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="304" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="303" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="303" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="216" t="s">
-        <v>356</v>
-      </c>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
-    </row>
-    <row r="9" spans="1:10" s="307" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A9" s="74">
+      <c r="E8" s="305" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="306"/>
+      <c r="G8" s="306"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+    </row>
+    <row r="9" spans="1:10" s="190" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A9" s="299">
         <v>5</v>
       </c>
-      <c r="B9" s="303">
+      <c r="B9" s="300">
         <v>5</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="299" t="s">
         <v>310</v>
       </c>
-      <c r="D9" s="304"/>
-      <c r="E9" s="308" t="s">
-        <v>358</v>
-      </c>
-      <c r="F9" s="305"/>
-      <c r="G9" s="305"/>
-      <c r="H9" s="305"/>
-      <c r="I9" s="305"/>
-      <c r="J9" s="306"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="288" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301"/>
+      <c r="I9" s="301"/>
+      <c r="J9" s="302"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="75">
@@ -15139,12 +15201,12 @@
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="212"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="224"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="76">
@@ -15155,12 +15217,12 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="224"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="77">
@@ -15171,12 +15233,12 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="212"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="224"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="78">
@@ -15187,12 +15249,12 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="212"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="224"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="79">
@@ -15203,12 +15265,12 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="212"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="224"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -15219,12 +15281,12 @@
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="71">
@@ -15235,12 +15297,12 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="209"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="72">
@@ -15251,12 +15313,12 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="209"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="73">
@@ -15267,12 +15329,12 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="221"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="74">
@@ -15283,12 +15345,12 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="209"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="221"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="75">
@@ -15299,12 +15361,12 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="209"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="221"/>
+      <c r="J20" s="221"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="76">
@@ -15315,12 +15377,12 @@
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="209"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="221"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="77">
@@ -15331,12 +15393,12 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="209"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="221"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="78">
@@ -15347,12 +15409,12 @@
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="209"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="79">
@@ -15363,12 +15425,12 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="209"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="209"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -15379,12 +15441,12 @@
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="209"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="71">
@@ -15395,12 +15457,12 @@
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="209"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="72">
@@ -15411,12 +15473,12 @@
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="209"/>
-      <c r="G27" s="209"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="209"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="73">
@@ -15427,12 +15489,12 @@
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="209"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="74">
@@ -15443,12 +15505,12 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="209"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="209"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="75">
@@ -15459,12 +15521,12 @@
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="209"/>
-      <c r="F30" s="209"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="209"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="221"/>
+      <c r="J30" s="221"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="76">
@@ -15475,12 +15537,12 @@
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="209"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="77">
@@ -15491,12 +15553,12 @@
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="209"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="209"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="78">
@@ -15507,12 +15569,12 @@
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="209"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="221"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="221"/>
+      <c r="J33" s="221"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="79">
@@ -15523,12 +15585,12 @@
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="209"/>
-      <c r="I34" s="209"/>
-      <c r="J34" s="209"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="221"/>
+      <c r="I34" s="221"/>
+      <c r="J34" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -15588,7 +15650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J46"/>
     </sheetView>
   </sheetViews>
@@ -15608,10 +15670,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218"/>
+      <c r="B1" s="225"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15642,8 +15704,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15674,20 +15736,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="228" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="224" t="s">
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="225"/>
+      <c r="J4" s="229"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -15698,10 +15760,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="231" t="s">
+      <c r="I5" s="235" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="232"/>
+      <c r="J5" s="236"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -15712,8 +15774,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="234"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="238"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -15724,8 +15786,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="234"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -15736,8 +15798,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="234"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -15748,8 +15810,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="238"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -15760,8 +15822,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="235"/>
-      <c r="J10" s="236"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="240"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -15772,10 +15834,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="224" t="s">
+      <c r="I11" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="225"/>
+      <c r="J11" s="229"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -15786,10 +15848,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="227" t="s">
+      <c r="I12" s="231" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="228"/>
+      <c r="J12" s="232"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -15800,8 +15862,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="230"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="234"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -15812,8 +15874,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="229"/>
-      <c r="J14" s="230"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="234"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -15824,8 +15886,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="229"/>
-      <c r="J15" s="230"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="234"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -15836,8 +15898,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="229"/>
-      <c r="J16" s="230"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="234"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -15848,8 +15910,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="229"/>
-      <c r="J17" s="230"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="234"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -15860,8 +15922,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="230"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="234"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -15872,8 +15934,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="229"/>
-      <c r="J19" s="230"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="234"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -15884,8 +15946,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="229"/>
-      <c r="J20" s="230"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="234"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -15896,8 +15958,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="229"/>
-      <c r="J21" s="230"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="234"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -15908,8 +15970,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="229"/>
-      <c r="J22" s="230"/>
+      <c r="I22" s="233"/>
+      <c r="J22" s="234"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -15920,8 +15982,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="229"/>
-      <c r="J23" s="230"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="234"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -15932,8 +15994,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="229"/>
-      <c r="J24" s="230"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="234"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -15944,8 +16006,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="229"/>
-      <c r="J25" s="230"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="234"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -15956,8 +16018,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="229"/>
-      <c r="J26" s="230"/>
+      <c r="I26" s="233"/>
+      <c r="J26" s="234"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -15968,8 +16030,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="230"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="234"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -15980,8 +16042,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="229"/>
-      <c r="J28" s="230"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="234"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -15992,8 +16054,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="229"/>
-      <c r="J29" s="230"/>
+      <c r="I29" s="233"/>
+      <c r="J29" s="234"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -16004,8 +16066,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="229"/>
-      <c r="J30" s="230"/>
+      <c r="I30" s="233"/>
+      <c r="J30" s="234"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -16016,8 +16078,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="229"/>
-      <c r="J31" s="230"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="234"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -16028,8 +16090,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="229"/>
-      <c r="J32" s="230"/>
+      <c r="I32" s="233"/>
+      <c r="J32" s="234"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -16040,8 +16102,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="229"/>
-      <c r="J33" s="230"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="234"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -16052,8 +16114,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="229"/>
-      <c r="J34" s="230"/>
+      <c r="I34" s="233"/>
+      <c r="J34" s="234"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -16064,8 +16126,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="229"/>
-      <c r="J35" s="230"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="234"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -16076,8 +16138,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="229"/>
-      <c r="J36" s="230"/>
+      <c r="I36" s="233"/>
+      <c r="J36" s="234"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -16088,8 +16150,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="229"/>
-      <c r="J37" s="230"/>
+      <c r="I37" s="233"/>
+      <c r="J37" s="234"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -16100,8 +16162,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="229"/>
-      <c r="J38" s="230"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="234"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -16112,8 +16174,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="229"/>
-      <c r="J39" s="230"/>
+      <c r="I39" s="233"/>
+      <c r="J39" s="234"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -16124,8 +16186,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="229"/>
-      <c r="J40" s="230"/>
+      <c r="I40" s="233"/>
+      <c r="J40" s="234"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -16136,8 +16198,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="229"/>
-      <c r="J41" s="230"/>
+      <c r="I41" s="233"/>
+      <c r="J41" s="234"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -16148,8 +16210,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="229"/>
-      <c r="J42" s="230"/>
+      <c r="I42" s="233"/>
+      <c r="J42" s="234"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -16160,8 +16222,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="229"/>
-      <c r="J43" s="230"/>
+      <c r="I43" s="233"/>
+      <c r="J43" s="234"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -16172,8 +16234,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="229"/>
-      <c r="J44" s="230"/>
+      <c r="I44" s="233"/>
+      <c r="J44" s="234"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -16184,8 +16246,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="229"/>
-      <c r="J45" s="230"/>
+      <c r="I45" s="233"/>
+      <c r="J45" s="234"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -16196,8 +16258,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="229"/>
-      <c r="J46" s="230"/>
+      <c r="I46" s="233"/>
+      <c r="J46" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16225,10 +16287,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -16252,12 +16314,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -16265,16 +16327,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="241" t="s">
+      <c r="G1" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="242"/>
-      <c r="I1" s="243" t="str">
+      <c r="H1" s="246"/>
+      <c r="I1" s="247" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="J1" s="244"/>
-      <c r="K1" s="245"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="249"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -16291,10 +16353,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -16302,16 +16364,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="241" t="s">
+      <c r="G2" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="242"/>
-      <c r="I2" s="243" t="str">
+      <c r="H2" s="246"/>
+      <c r="I2" s="247" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="J2" s="244"/>
-      <c r="K2" s="245"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="249"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -16408,7 +16470,7 @@
       <c r="B6" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="157">
         <v>4</v>
       </c>
       <c r="D6" s="117" t="s">
@@ -16445,7 +16507,7 @@
       <c r="B7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="246">
+      <c r="C7" s="250">
         <v>5</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -16484,7 +16546,7 @@
       <c r="B8" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="247"/>
+      <c r="C8" s="251"/>
       <c r="D8" s="129" t="s">
         <v>237</v>
       </c>
@@ -16511,7 +16573,7 @@
       <c r="B9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="248"/>
+      <c r="C9" s="252"/>
       <c r="D9" s="136" t="s">
         <v>238</v>
       </c>
@@ -16538,7 +16600,7 @@
       <c r="B10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="249">
+      <c r="C10" s="253">
         <v>7</v>
       </c>
       <c r="D10" s="118" t="s">
@@ -16577,7 +16639,7 @@
       <c r="B11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="250"/>
+      <c r="C11" s="254"/>
       <c r="D11" s="118" t="s">
         <v>248</v>
       </c>
@@ -16603,7 +16665,7 @@
       <c r="B12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="251"/>
+      <c r="C12" s="255"/>
       <c r="D12" s="118" t="s">
         <v>249</v>
       </c>
@@ -16690,40 +16752,42 @@
       <c r="N14" s="105"/>
       <c r="O14" s="134"/>
     </row>
-    <row r="15" spans="1:15" s="165" customFormat="1" ht="11.25">
-      <c r="A15" s="153">
+    <row r="15" spans="1:15" s="160" customFormat="1" ht="11.25">
+      <c r="A15" s="148">
         <v>14</v>
       </c>
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="158" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="177">
+      <c r="C15" s="172">
         <v>10</v>
       </c>
-      <c r="D15" s="159" t="s">
-        <v>320</v>
-      </c>
-      <c r="E15" s="160" t="s">
+      <c r="D15" s="154" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="155" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="160" t="s">
+      <c r="F15" s="155" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="160" t="s">
+      <c r="G15" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="160" t="s">
+      <c r="H15" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="156" t="s">
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
+      <c r="L15" s="155" t="s">
+        <v>351</v>
+      </c>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
     </row>
     <row r="16" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A16" s="102">
@@ -16806,7 +16870,7 @@
       <c r="B18" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="249">
+      <c r="C18" s="253">
         <v>18</v>
       </c>
       <c r="D18" s="118" t="s">
@@ -16824,7 +16888,7 @@
       <c r="L18" s="115"/>
       <c r="M18" s="115"/>
       <c r="N18" s="115"/>
-      <c r="O18" s="252" t="s">
+      <c r="O18" s="256" t="s">
         <v>260</v>
       </c>
     </row>
@@ -16835,7 +16899,7 @@
       <c r="B19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="250"/>
+      <c r="C19" s="254"/>
       <c r="D19" s="118" t="s">
         <v>251</v>
       </c>
@@ -16853,7 +16917,7 @@
       <c r="L19" s="133"/>
       <c r="M19" s="133"/>
       <c r="N19" s="133"/>
-      <c r="O19" s="253"/>
+      <c r="O19" s="257"/>
     </row>
     <row r="20" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A20" s="102">
@@ -16862,7 +16926,7 @@
       <c r="B20" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="251"/>
+      <c r="C20" s="255"/>
       <c r="D20" s="137" t="s">
         <v>252</v>
       </c>
@@ -16882,7 +16946,7 @@
       <c r="N20" s="105">
         <v>0</v>
       </c>
-      <c r="O20" s="254"/>
+      <c r="O20" s="258"/>
     </row>
     <row r="21" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A21" s="102">
@@ -16913,7 +16977,7 @@
       <c r="N21" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="O21" s="237" t="s">
+      <c r="O21" s="241" t="s">
         <v>194</v>
       </c>
     </row>
@@ -16946,7 +17010,7 @@
       <c r="N22" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O22" s="239"/>
+      <c r="O22" s="243"/>
     </row>
     <row r="23" spans="1:15" s="33" customFormat="1" ht="11.25">
       <c r="A23" s="102">
@@ -16977,7 +17041,7 @@
       <c r="N23" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O23" s="240"/>
+      <c r="O23" s="244"/>
     </row>
     <row r="24" spans="1:15" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="102">
@@ -16992,23 +17056,23 @@
       <c r="D24" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="144" t="s">
+      <c r="E24" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144" t="s">
+      <c r="F24" s="142"/>
+      <c r="G24" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="144"/>
+      <c r="H24" s="142"/>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
       <c r="K24" s="37"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144" t="s">
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="O24" s="237" t="s">
+      <c r="O24" s="241" t="s">
         <v>195</v>
       </c>
     </row>
@@ -17025,302 +17089,311 @@
       <c r="D25" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="144" t="s">
+      <c r="E25" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144" t="s">
+      <c r="F25" s="142"/>
+      <c r="G25" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="144"/>
+      <c r="H25" s="142"/>
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144" t="s">
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="O25" s="238"/>
-    </row>
-    <row r="26" spans="1:15" s="153" customFormat="1" ht="11.25">
-      <c r="A26" s="153">
+      <c r="O25" s="242"/>
+    </row>
+    <row r="26" spans="1:15" s="148" customFormat="1" ht="22.5">
+      <c r="A26" s="148">
         <v>2</v>
       </c>
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C26" s="154">
+      <c r="C26" s="149">
         <v>2</v>
       </c>
-      <c r="D26" s="159" t="s">
+      <c r="D26" s="154" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="159" t="s">
+      <c r="E26" s="154" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="159" t="s">
+      <c r="F26" s="154" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="159" t="s">
+      <c r="G26" s="154" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="159" t="s">
+      <c r="H26" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="159">
-        <v>50</v>
-      </c>
-      <c r="J26" s="159"/>
-      <c r="K26" s="156" t="s">
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L26" s="159"/>
-    </row>
-    <row r="27" spans="1:15" s="153" customFormat="1" ht="11.25">
-      <c r="A27" s="153">
+      <c r="L26" s="154"/>
+      <c r="N26" s="151" t="s">
+        <v>348</v>
+      </c>
+      <c r="O26" s="151" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="148" customFormat="1" ht="33.75">
+      <c r="A27" s="148">
         <v>3</v>
       </c>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="154">
+      <c r="C27" s="149">
         <v>3</v>
       </c>
-      <c r="D27" s="159" t="s">
+      <c r="D27" s="154" t="s">
         <v>315</v>
       </c>
-      <c r="E27" s="159" t="s">
+      <c r="E27" s="154" t="s">
         <v>316</v>
       </c>
-      <c r="F27" s="159" t="s">
+      <c r="F27" s="154" t="s">
         <v>316</v>
       </c>
-      <c r="G27" s="159" t="s">
-        <v>338</v>
-      </c>
-      <c r="H27" s="159" t="s">
+      <c r="G27" s="154" t="s">
+        <v>337</v>
+      </c>
+      <c r="H27" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="I27" s="159">
-        <v>50</v>
-      </c>
-      <c r="J27" s="159"/>
-      <c r="K27" s="156" t="s">
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="151" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" s="165" customFormat="1" ht="11.25">
-      <c r="A28" s="153">
+      <c r="O27" s="151" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="A28" s="148">
         <v>15</v>
       </c>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="164">
+      <c r="C28" s="159">
         <v>11</v>
       </c>
-      <c r="D28" s="159" t="s">
+      <c r="D28" s="154" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="150" t="s">
         <v>321</v>
       </c>
-      <c r="E28" s="160" t="s">
+      <c r="F28" s="150" t="s">
+        <v>321</v>
+      </c>
+      <c r="G28" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="319"/>
+      <c r="J28" s="319"/>
+      <c r="K28" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" s="150" t="s">
+        <v>351</v>
+      </c>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+    </row>
+    <row r="29" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="A29" s="148">
+        <v>16</v>
+      </c>
+      <c r="B29" s="148" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="159">
+        <v>12</v>
+      </c>
+      <c r="D29" s="154" t="s">
         <v>322</v>
       </c>
-      <c r="F28" s="160" t="s">
-        <v>322</v>
-      </c>
-      <c r="G28" s="160" t="s">
+      <c r="E29" s="150" t="s">
+        <v>323</v>
+      </c>
+      <c r="F29" s="150" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="160" t="s">
+      <c r="H29" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="156" t="s">
+      <c r="I29" s="319"/>
+      <c r="J29" s="319"/>
+      <c r="K29" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
-    </row>
-    <row r="29" spans="1:15" s="165" customFormat="1" ht="11.25">
-      <c r="A29" s="153">
-        <v>16</v>
-      </c>
-      <c r="B29" s="153" t="s">
+      <c r="L29" s="150" t="s">
+        <v>351</v>
+      </c>
+      <c r="M29" s="150"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+    </row>
+    <row r="30" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="A30" s="148">
+        <v>17</v>
+      </c>
+      <c r="B30" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C29" s="164">
-        <v>12</v>
-      </c>
-      <c r="D29" s="159" t="s">
-        <v>323</v>
-      </c>
-      <c r="E29" s="160" t="s">
+      <c r="C30" s="159">
+        <v>13</v>
+      </c>
+      <c r="D30" s="154" t="s">
         <v>324</v>
       </c>
-      <c r="F29" s="160" t="s">
-        <v>324</v>
-      </c>
-      <c r="G29" s="160" t="s">
+      <c r="E30" s="150" t="s">
+        <v>325</v>
+      </c>
+      <c r="F30" s="150" t="s">
+        <v>325</v>
+      </c>
+      <c r="G30" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="H29" s="160" t="s">
+      <c r="H30" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="156" t="s">
+      <c r="I30" s="319"/>
+      <c r="J30" s="319"/>
+      <c r="K30" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-    </row>
-    <row r="30" spans="1:15" s="165" customFormat="1" ht="11.25">
-      <c r="A30" s="153">
-        <v>17</v>
-      </c>
-      <c r="B30" s="153" t="s">
+      <c r="L30" s="150" t="s">
+        <v>351</v>
+      </c>
+      <c r="M30" s="150"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+    </row>
+    <row r="31" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="A31" s="148">
+        <v>18</v>
+      </c>
+      <c r="B31" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="164">
-        <v>13</v>
-      </c>
-      <c r="D30" s="159" t="s">
-        <v>325</v>
-      </c>
-      <c r="E30" s="160" t="s">
+      <c r="C31" s="159">
+        <v>14</v>
+      </c>
+      <c r="D31" s="154" t="s">
         <v>326</v>
       </c>
-      <c r="F30" s="160" t="s">
-        <v>326</v>
-      </c>
-      <c r="G30" s="160" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="160" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="156" t="s">
+      <c r="E31" s="150" t="s">
+        <v>327</v>
+      </c>
+      <c r="F31" s="150" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="150" t="s">
+        <v>336</v>
+      </c>
+      <c r="I31" s="319"/>
+      <c r="J31" s="319"/>
+      <c r="K31" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L30" s="160"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="160"/>
-    </row>
-    <row r="31" spans="1:15" s="165" customFormat="1" ht="11.25">
-      <c r="A31" s="153">
-        <v>18</v>
-      </c>
-      <c r="B31" s="153" t="s">
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+    </row>
+    <row r="32" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="A32" s="148">
+        <v>19</v>
+      </c>
+      <c r="B32" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C31" s="164">
-        <v>14</v>
-      </c>
-      <c r="D31" s="159" t="s">
+      <c r="C32" s="159">
+        <v>15</v>
+      </c>
+      <c r="D32" s="154" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" s="150" t="s">
+        <v>335</v>
+      </c>
+      <c r="F32" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="E31" s="160" t="s">
-        <v>328</v>
-      </c>
-      <c r="F31" s="160" t="s">
-        <v>328</v>
-      </c>
-      <c r="G31" s="160" t="s">
+      <c r="G32" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="H31" s="160" t="s">
-        <v>337</v>
-      </c>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="156" t="s">
+      <c r="H32" s="150" t="s">
+        <v>336</v>
+      </c>
+      <c r="I32" s="319"/>
+      <c r="J32" s="319"/>
+      <c r="K32" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L31" s="160"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-    </row>
-    <row r="32" spans="1:15" s="165" customFormat="1" ht="11.25">
-      <c r="A32" s="153">
-        <v>19</v>
-      </c>
-      <c r="B32" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C32" s="164">
-        <v>15</v>
-      </c>
-      <c r="D32" s="159" t="s">
-        <v>329</v>
-      </c>
-      <c r="E32" s="160" t="s">
-        <v>336</v>
-      </c>
-      <c r="F32" s="160" t="s">
-        <v>328</v>
-      </c>
-      <c r="G32" s="160" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="160" t="s">
-        <v>337</v>
-      </c>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="156" t="s">
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+    </row>
+    <row r="33" spans="1:15" s="190" customFormat="1" ht="11.25">
+      <c r="A33" s="180">
+        <v>8</v>
+      </c>
+      <c r="B33" s="180" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="181">
+        <v>6</v>
+      </c>
+      <c r="D33" s="182" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="183" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" s="183" t="s">
+        <v>319</v>
+      </c>
+      <c r="G33" s="184" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" s="183" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-    </row>
-    <row r="33" spans="1:15" s="302" customFormat="1" ht="11.25">
-      <c r="A33" s="292">
-        <v>8</v>
-      </c>
-      <c r="B33" s="292" t="s">
-        <v>357</v>
-      </c>
-      <c r="C33" s="293">
-        <v>6</v>
-      </c>
-      <c r="D33" s="294" t="s">
-        <v>318</v>
-      </c>
-      <c r="E33" s="295" t="s">
-        <v>319</v>
-      </c>
-      <c r="F33" s="295" t="s">
-        <v>319</v>
-      </c>
-      <c r="G33" s="296" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="297" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="298">
-        <v>250</v>
-      </c>
-      <c r="J33" s="299"/>
-      <c r="K33" s="300" t="s">
-        <v>147</v>
-      </c>
-      <c r="L33" s="295"/>
-      <c r="M33" s="295"/>
-      <c r="N33" s="295"/>
-      <c r="O33" s="301"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17340,10 +17413,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G5:G9 G21:G26 G33">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H13 H15:H27 H28:H33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H13 H15:H33">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K10 K12:K27 K28:K33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K10 K12:K33">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G12 G15:G20 G28:G32">
@@ -17361,10 +17434,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -17502,7 +17575,7 @@
       </c>
       <c r="E5" s="103"/>
       <c r="F5" s="104"/>
-      <c r="G5" s="255" t="s">
+      <c r="G5" s="259" t="s">
         <v>214</v>
       </c>
       <c r="H5" s="134" t="s">
@@ -17513,27 +17586,27 @@
       </c>
       <c r="J5" s="103"/>
     </row>
-    <row r="6" spans="1:16" s="176" customFormat="1" ht="11.25">
-      <c r="A6" s="166">
+    <row r="6" spans="1:16" s="171" customFormat="1" ht="11.25">
+      <c r="A6" s="161">
         <v>2</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="174" t="s">
+      <c r="B6" s="161"/>
+      <c r="C6" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="167"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="174" t="s">
+      <c r="E6" s="162"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="169" t="s">
         <v>215</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="J6" s="174"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="102">
@@ -17548,7 +17621,7 @@
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="256"/>
+      <c r="G7" s="260"/>
       <c r="H7" s="134" t="s">
         <v>215</v>
       </c>
@@ -17570,7 +17643,7 @@
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="256"/>
+      <c r="G8" s="260"/>
       <c r="H8" s="139" t="s">
         <v>215</v>
       </c>
@@ -17592,7 +17665,7 @@
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="256"/>
+      <c r="G9" s="260"/>
       <c r="H9" s="134" t="s">
         <v>215</v>
       </c>
@@ -17601,98 +17674,101 @@
       </c>
       <c r="J9" s="68"/>
     </row>
-    <row r="10" spans="1:16" s="165" customFormat="1" ht="11.25">
-      <c r="A10" s="153">
+    <row r="10" spans="1:16" s="160" customFormat="1" ht="11.25">
+      <c r="A10" s="148">
         <v>6</v>
       </c>
-      <c r="B10" s="163"/>
-      <c r="C10" s="160" t="s">
+      <c r="B10" s="158" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="155" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="155" t="s">
+      <c r="E10" s="163"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="159" t="s">
+      <c r="I10" s="154" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="160"/>
-    </row>
-    <row r="11" spans="1:16" s="165" customFormat="1" ht="11.25">
-      <c r="A11" s="153">
+      <c r="J10" s="155"/>
+    </row>
+    <row r="11" spans="1:16" s="160" customFormat="1" ht="11.25">
+      <c r="A11" s="148">
         <v>7</v>
       </c>
-      <c r="B11" s="163"/>
-      <c r="C11" s="160" t="s">
+      <c r="B11" s="158" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="155" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="168"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="155" t="s">
+      <c r="E11" s="163"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="159" t="s">
+      <c r="I11" s="154" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="160"/>
-    </row>
-    <row r="12" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="102">
+      <c r="J11" s="155"/>
+    </row>
+    <row r="12" spans="1:16" s="160" customFormat="1" ht="11.25">
+      <c r="A12" s="148">
         <v>8</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="134" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="133" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="134" t="s">
-        <v>217</v>
-      </c>
-      <c r="H12" s="134" t="s">
+      <c r="B12" s="158" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="155" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="155" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="163"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="I12" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="61"/>
-    </row>
-    <row r="13" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="102">
+      <c r="I12" s="154" t="s">
+        <v>353</v>
+      </c>
+      <c r="J12" s="155"/>
+    </row>
+    <row r="13" spans="1:16" s="193" customFormat="1" ht="11.25">
+      <c r="A13" s="180">
         <v>9</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="134" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="133" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="134" t="s">
-        <v>219</v>
-      </c>
-      <c r="H13" s="134" t="s">
+      <c r="B13" s="192" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="185" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="185" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="191"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="261"/>
+      <c r="H13" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="I13" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="89"/>
+      <c r="I13" s="184" t="s">
+        <v>353</v>
+      </c>
+      <c r="J13" s="185"/>
     </row>
     <row r="14" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="102">
@@ -17700,7 +17776,7 @@
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="134" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="D14" s="133" t="s">
         <v>213</v>
@@ -17708,51 +17784,100 @@
       <c r="E14" s="103"/>
       <c r="F14" s="104"/>
       <c r="G14" s="134" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H14" s="134" t="s">
         <v>215</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J14" s="61"/>
-      <c r="K14" s="89"/>
     </row>
     <row r="15" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="102">
         <v>11</v>
       </c>
       <c r="B15" s="32"/>
-      <c r="C15" s="133" t="s">
-        <v>224</v>
+      <c r="C15" s="134" t="s">
+        <v>169</v>
       </c>
       <c r="D15" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="133" t="s">
-        <v>222</v>
-      </c>
-      <c r="H15" s="133" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="134" t="s">
         <v>215</v>
       </c>
       <c r="I15" s="67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J15" s="61"/>
       <c r="K15" s="89"/>
     </row>
+    <row r="16" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="A16" s="102">
+        <v>12</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="134" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="61"/>
+      <c r="K16" s="89"/>
+    </row>
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="102">
+        <v>13</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="133" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="89"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="G5:G13"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:K15 H5:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:K17 H5:H17">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D17">
       <formula1>"Format,Require,Max Length,Range,Not In List"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17796,7 +17921,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="262" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="100"/>
@@ -17832,7 +17957,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="259"/>
+      <c r="A2" s="263"/>
       <c r="B2" s="101"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -17881,15 +18006,15 @@
       <c r="E4" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="218" t="s">
+      <c r="F4" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218" t="s">
+      <c r="G4" s="225"/>
+      <c r="H4" s="225" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A5" s="32">
@@ -17905,15 +18030,15 @@
       <c r="E5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="263" t="s">
+      <c r="F5" s="267" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="264"/>
-      <c r="H5" s="260" t="s">
+      <c r="G5" s="268"/>
+      <c r="H5" s="264" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="262"/>
+      <c r="I5" s="265"/>
+      <c r="J5" s="266"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="32">
@@ -17929,15 +18054,15 @@
       <c r="E6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="263" t="s">
+      <c r="F6" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="264"/>
-      <c r="H6" s="260" t="s">
+      <c r="G6" s="268"/>
+      <c r="H6" s="264" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="261"/>
-      <c r="J6" s="262"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="266"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="32">
@@ -17953,15 +18078,15 @@
       <c r="E7" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="263" t="s">
+      <c r="F7" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="264"/>
-      <c r="H7" s="260" t="s">
+      <c r="G7" s="268"/>
+      <c r="H7" s="264" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="261"/>
-      <c r="J7" s="262"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="266"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -17971,11 +18096,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="262"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="268"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="266"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -17985,11 +18110,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="260"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="262"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="266"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -17999,11 +18124,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
-      <c r="H10" s="260"/>
-      <c r="I10" s="261"/>
-      <c r="J10" s="262"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="268"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="265"/>
+      <c r="J10" s="266"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -18013,11 +18138,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
-      <c r="H11" s="260"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="262"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="265"/>
+      <c r="J11" s="266"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -18027,11 +18152,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="264"/>
-      <c r="H12" s="260"/>
-      <c r="I12" s="261"/>
-      <c r="J12" s="262"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="268"/>
+      <c r="H12" s="264"/>
+      <c r="I12" s="265"/>
+      <c r="J12" s="266"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -18041,11 +18166,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="260"/>
-      <c r="I13" s="261"/>
-      <c r="J13" s="262"/>
+      <c r="F13" s="267"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="264"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="266"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -18055,11 +18180,11 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="263"/>
-      <c r="G14" s="264"/>
-      <c r="H14" s="260"/>
-      <c r="I14" s="261"/>
-      <c r="J14" s="262"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="268"/>
+      <c r="H14" s="264"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="266"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -18104,8 +18229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048244"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -18131,20 +18256,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="271" t="str">
+      <c r="F1" s="275" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="271"/>
+      <c r="G1" s="275"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -18162,28 +18287,28 @@
       <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="265" t="str">
+      <c r="M1" s="269" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="266"/>
-      <c r="O1" s="267"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="271"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="271" t="str">
+      <c r="F2" s="275" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="271"/>
+      <c r="G2" s="275"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -18201,12 +18326,12 @@
       <c r="L2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="265" t="str">
+      <c r="M2" s="269" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
-      <c r="N2" s="266"/>
-      <c r="O2" s="267"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="271"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
     </row>
@@ -18229,12 +18354,12 @@
       <c r="F4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="224" t="s">
+      <c r="G4" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="225"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="229"/>
       <c r="K4" s="36" t="s">
         <v>56</v>
       </c>
@@ -18270,12 +18395,12 @@
       <c r="F5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="278" t="s">
+      <c r="G5" s="282" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="279"/>
-      <c r="I5" s="279"/>
-      <c r="J5" s="280"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="284"/>
       <c r="K5" s="122" t="s">
         <v>205</v>
       </c>
@@ -18313,16 +18438,16 @@
       <c r="F6" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="275" t="s">
-        <v>349</v>
-      </c>
-      <c r="H6" s="276"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="178" t="s">
+      <c r="G6" s="279" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="281"/>
+      <c r="K6" s="173" t="s">
         <v>286</v>
       </c>
-      <c r="L6" s="178" t="s">
+      <c r="L6" s="173" t="s">
         <v>286</v>
       </c>
       <c r="M6" s="67" t="s">
@@ -18354,12 +18479,12 @@
       <c r="F7" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="268" t="s">
+      <c r="G7" s="272" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="270"/>
+      <c r="H7" s="273"/>
+      <c r="I7" s="273"/>
+      <c r="J7" s="274"/>
       <c r="K7" s="124" t="s">
         <v>270</v>
       </c>
@@ -18393,12 +18518,12 @@
       <c r="F8" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="268" t="s">
+      <c r="G8" s="272" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="269"/>
-      <c r="I8" s="269"/>
-      <c r="J8" s="270"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="274"/>
       <c r="K8" s="124" t="s">
         <v>270</v>
       </c>
@@ -18432,17 +18557,17 @@
       <c r="F9" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="275" t="s">
-        <v>350</v>
-      </c>
-      <c r="H9" s="276"/>
-      <c r="I9" s="276"/>
-      <c r="J9" s="277"/>
-      <c r="K9" s="179" t="s">
-        <v>351</v>
-      </c>
-      <c r="L9" s="179" t="s">
-        <v>352</v>
+      <c r="G9" s="279" t="s">
+        <v>357</v>
+      </c>
+      <c r="H9" s="280"/>
+      <c r="I9" s="280"/>
+      <c r="J9" s="281"/>
+      <c r="K9" s="174" t="s">
+        <v>359</v>
+      </c>
+      <c r="L9" s="174" t="s">
+        <v>360</v>
       </c>
       <c r="M9" s="67"/>
       <c r="N9" s="112"/>
@@ -18469,12 +18594,12 @@
       <c r="F10" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="268" t="s">
+      <c r="G10" s="272" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="269"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="270"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="274"/>
       <c r="K10" s="124" t="s">
         <v>286</v>
       </c>
@@ -18510,12 +18635,12 @@
       <c r="F11" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="268" t="s">
+      <c r="G11" s="272" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="269"/>
-      <c r="I11" s="269"/>
-      <c r="J11" s="270"/>
+      <c r="H11" s="273"/>
+      <c r="I11" s="273"/>
+      <c r="J11" s="274"/>
       <c r="K11" s="124" t="s">
         <v>270</v>
       </c>
@@ -18549,12 +18674,12 @@
       <c r="F12" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="268" t="s">
+      <c r="G12" s="272" t="s">
         <v>302</v>
       </c>
-      <c r="H12" s="269"/>
-      <c r="I12" s="269"/>
-      <c r="J12" s="270"/>
+      <c r="H12" s="273"/>
+      <c r="I12" s="273"/>
+      <c r="J12" s="274"/>
       <c r="K12" s="113" t="s">
         <v>303</v>
       </c>
@@ -18586,12 +18711,12 @@
       <c r="F13" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="268" t="s">
+      <c r="G13" s="272" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="270"/>
+      <c r="H13" s="273"/>
+      <c r="I13" s="273"/>
+      <c r="J13" s="274"/>
       <c r="K13" s="124" t="s">
         <v>273</v>
       </c>
@@ -18625,12 +18750,12 @@
       <c r="F14" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="268" t="s">
+      <c r="G14" s="272" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="269"/>
-      <c r="I14" s="269"/>
-      <c r="J14" s="270"/>
+      <c r="H14" s="273"/>
+      <c r="I14" s="273"/>
+      <c r="J14" s="274"/>
       <c r="K14" s="113" t="s">
         <v>275</v>
       </c>
@@ -18643,7 +18768,7 @@
       <c r="P14" s="57"/>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" s="33" customFormat="1" ht="247.5">
+    <row r="15" spans="1:17" s="33" customFormat="1" ht="247.5" customHeight="1">
       <c r="A15" s="102">
         <v>11</v>
       </c>
@@ -18662,17 +18787,17 @@
       <c r="F15" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="272" t="s">
-        <v>353</v>
-      </c>
-      <c r="H15" s="273"/>
-      <c r="I15" s="273"/>
-      <c r="J15" s="274"/>
-      <c r="K15" s="179" t="s">
-        <v>354</v>
-      </c>
-      <c r="L15" s="179" t="s">
-        <v>355</v>
+      <c r="G15" s="276" t="s">
+        <v>358</v>
+      </c>
+      <c r="H15" s="277"/>
+      <c r="I15" s="277"/>
+      <c r="J15" s="278"/>
+      <c r="K15" s="174" t="s">
+        <v>361</v>
+      </c>
+      <c r="L15" s="174" t="s">
+        <v>362</v>
       </c>
       <c r="M15" s="56"/>
       <c r="N15" s="126"/>
@@ -18699,12 +18824,12 @@
       <c r="F16" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="268" t="s">
+      <c r="G16" s="272" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="269"/>
-      <c r="I16" s="269"/>
-      <c r="J16" s="270"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="273"/>
+      <c r="J16" s="274"/>
       <c r="K16" s="124" t="s">
         <v>199</v>
       </c>
@@ -18719,116 +18844,116 @@
       <c r="P16" s="47"/>
       <c r="Q16" s="47"/>
     </row>
-    <row r="17" spans="1:17" s="158" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="153" t="s">
+    <row r="17" spans="1:17" s="153" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A17" s="158"/>
+      <c r="B17" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="155" t="s">
-        <v>335</v>
-      </c>
-      <c r="D17" s="169" t="s">
+      <c r="C17" s="150" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="169" t="s">
+      <c r="E17" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="170" t="s">
+      <c r="F17" s="165" t="s">
+        <v>329</v>
+      </c>
+      <c r="G17" s="285" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="286"/>
+      <c r="I17" s="286"/>
+      <c r="J17" s="287"/>
+      <c r="K17" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="152" t="s">
+        <v>333</v>
+      </c>
+      <c r="M17" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="N17" s="167" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="166" t="s">
+        <v>331</v>
+      </c>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="168"/>
+    </row>
+    <row r="18" spans="1:17" s="153" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A18" s="158"/>
+      <c r="B18" s="148" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="150" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="164" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="164" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="G17" s="281" t="s">
+      <c r="G18" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="282"/>
-      <c r="I17" s="282"/>
-      <c r="J17" s="283"/>
-      <c r="K17" s="157" t="s">
+      <c r="H18" s="286"/>
+      <c r="I18" s="286"/>
+      <c r="J18" s="287"/>
+      <c r="K18" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="157" t="s">
-        <v>334</v>
-      </c>
-      <c r="M17" s="171" t="s">
+      <c r="L18" s="152" t="s">
+        <v>338</v>
+      </c>
+      <c r="M18" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="172" t="s">
+      <c r="N18" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="171" t="s">
+      <c r="O18" s="166" t="s">
+        <v>340</v>
+      </c>
+      <c r="P18" s="168"/>
+      <c r="Q18" s="168"/>
+    </row>
+    <row r="19" spans="1:17" s="190" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A19" s="192"/>
+      <c r="B19" s="180" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="183" t="s">
         <v>332</v>
       </c>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-    </row>
-    <row r="18" spans="1:17" s="158" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" s="155" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" s="169" t="s">
+      <c r="D19" s="194" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="169" t="s">
+      <c r="E19" s="194" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="170" t="s">
-        <v>331</v>
-      </c>
-      <c r="G18" s="281" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="282"/>
-      <c r="I18" s="282"/>
-      <c r="J18" s="283"/>
-      <c r="K18" s="157" t="s">
-        <v>205</v>
-      </c>
-      <c r="L18" s="157" t="s">
-        <v>339</v>
-      </c>
-      <c r="M18" s="171" t="s">
-        <v>197</v>
-      </c>
-      <c r="N18" s="172" t="s">
-        <v>196</v>
-      </c>
-      <c r="O18" s="171" t="s">
+      <c r="F19" s="195" t="s">
         <v>341</v>
       </c>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-    </row>
-    <row r="19" spans="1:17" s="158" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="155" t="s">
-        <v>333</v>
-      </c>
-      <c r="D19" s="169" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="170" t="s">
-        <v>342</v>
-      </c>
-      <c r="G19" s="281"/>
-      <c r="H19" s="282"/>
-      <c r="I19" s="282"/>
-      <c r="J19" s="283"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
+      <c r="G19" s="288"/>
+      <c r="H19" s="289"/>
+      <c r="I19" s="289"/>
+      <c r="J19" s="290"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="196"/>
+      <c r="P19" s="198"/>
+      <c r="Q19" s="198"/>
     </row>
     <row r="20" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="32"/>
@@ -18837,10 +18962,10 @@
       <c r="D20" s="111"/>
       <c r="E20" s="111"/>
       <c r="F20" s="110"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="269"/>
-      <c r="I20" s="269"/>
-      <c r="J20" s="270"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="273"/>
+      <c r="I20" s="273"/>
+      <c r="J20" s="274"/>
       <c r="K20" s="113"/>
       <c r="L20" s="113"/>
       <c r="M20" s="67"/>
@@ -18903,10 +19028,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T192"/>
+  <dimension ref="A1:T189"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A109" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -18922,10 +19047,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218"/>
+      <c r="B1" s="225"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -18956,8 +19081,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -19190,37 +19315,37 @@
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="1:13" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="B17" s="182"/>
-      <c r="C17" s="180" t="s">
+    <row r="17" spans="1:13" s="176" customFormat="1" ht="12" customHeight="1">
+      <c r="B17" s="177"/>
+      <c r="C17" s="175" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+    </row>
+    <row r="18" spans="1:13" s="176" customFormat="1" ht="12" customHeight="1">
+      <c r="B18" s="177"/>
+      <c r="C18" s="175" t="s">
         <v>343</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-    </row>
-    <row r="18" spans="1:13" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="B18" s="182"/>
-      <c r="C18" s="180" t="s">
-        <v>344</v>
-      </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
     </row>
     <row r="19" spans="1:13" ht="12" customHeight="1">
       <c r="B19" s="66" t="s">
@@ -20442,171 +20567,171 @@
     </row>
     <row r="100" spans="1:16" ht="12" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="284" t="s">
+      <c r="B100" s="291" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="285"/>
-      <c r="D100" s="285"/>
-      <c r="E100" s="285"/>
-      <c r="F100" s="285"/>
-      <c r="G100" s="285"/>
-      <c r="H100" s="285"/>
-      <c r="I100" s="285"/>
-      <c r="J100" s="285"/>
-      <c r="K100" s="285"/>
-      <c r="L100" s="285"/>
-      <c r="M100" s="285"/>
-      <c r="N100" s="285"/>
-      <c r="O100" s="285"/>
-      <c r="P100" s="285"/>
+      <c r="C100" s="292"/>
+      <c r="D100" s="292"/>
+      <c r="E100" s="292"/>
+      <c r="F100" s="292"/>
+      <c r="G100" s="292"/>
+      <c r="H100" s="292"/>
+      <c r="I100" s="292"/>
+      <c r="J100" s="292"/>
+      <c r="K100" s="292"/>
+      <c r="L100" s="292"/>
+      <c r="M100" s="292"/>
+      <c r="N100" s="292"/>
+      <c r="O100" s="292"/>
+      <c r="P100" s="292"/>
     </row>
     <row r="101" spans="1:16" ht="12" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="285"/>
-      <c r="C101" s="285"/>
-      <c r="D101" s="285"/>
-      <c r="E101" s="285"/>
-      <c r="F101" s="285"/>
-      <c r="G101" s="285"/>
-      <c r="H101" s="285"/>
-      <c r="I101" s="285"/>
-      <c r="J101" s="285"/>
-      <c r="K101" s="285"/>
-      <c r="L101" s="285"/>
-      <c r="M101" s="285"/>
-      <c r="N101" s="285"/>
-      <c r="O101" s="285"/>
-      <c r="P101" s="285"/>
+      <c r="B101" s="292"/>
+      <c r="C101" s="292"/>
+      <c r="D101" s="292"/>
+      <c r="E101" s="292"/>
+      <c r="F101" s="292"/>
+      <c r="G101" s="292"/>
+      <c r="H101" s="292"/>
+      <c r="I101" s="292"/>
+      <c r="J101" s="292"/>
+      <c r="K101" s="292"/>
+      <c r="L101" s="292"/>
+      <c r="M101" s="292"/>
+      <c r="N101" s="292"/>
+      <c r="O101" s="292"/>
+      <c r="P101" s="292"/>
     </row>
     <row r="102" spans="1:16" ht="12" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="285"/>
-      <c r="C102" s="285"/>
-      <c r="D102" s="285"/>
-      <c r="E102" s="285"/>
-      <c r="F102" s="285"/>
-      <c r="G102" s="285"/>
-      <c r="H102" s="285"/>
-      <c r="I102" s="285"/>
-      <c r="J102" s="285"/>
-      <c r="K102" s="285"/>
-      <c r="L102" s="285"/>
-      <c r="M102" s="285"/>
-      <c r="N102" s="285"/>
-      <c r="O102" s="285"/>
-      <c r="P102" s="285"/>
+      <c r="B102" s="292"/>
+      <c r="C102" s="292"/>
+      <c r="D102" s="292"/>
+      <c r="E102" s="292"/>
+      <c r="F102" s="292"/>
+      <c r="G102" s="292"/>
+      <c r="H102" s="292"/>
+      <c r="I102" s="292"/>
+      <c r="J102" s="292"/>
+      <c r="K102" s="292"/>
+      <c r="L102" s="292"/>
+      <c r="M102" s="292"/>
+      <c r="N102" s="292"/>
+      <c r="O102" s="292"/>
+      <c r="P102" s="292"/>
     </row>
     <row r="103" spans="1:16" ht="12" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="284" t="s">
+      <c r="B103" s="291" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="285"/>
-      <c r="D103" s="285"/>
-      <c r="E103" s="285"/>
-      <c r="F103" s="285"/>
-      <c r="G103" s="285"/>
-      <c r="H103" s="285"/>
-      <c r="I103" s="285"/>
-      <c r="J103" s="285"/>
-      <c r="K103" s="285"/>
-      <c r="L103" s="285"/>
-      <c r="M103" s="285"/>
-      <c r="N103" s="285"/>
-      <c r="O103" s="285"/>
-      <c r="P103" s="285"/>
+      <c r="C103" s="292"/>
+      <c r="D103" s="292"/>
+      <c r="E103" s="292"/>
+      <c r="F103" s="292"/>
+      <c r="G103" s="292"/>
+      <c r="H103" s="292"/>
+      <c r="I103" s="292"/>
+      <c r="J103" s="292"/>
+      <c r="K103" s="292"/>
+      <c r="L103" s="292"/>
+      <c r="M103" s="292"/>
+      <c r="N103" s="292"/>
+      <c r="O103" s="292"/>
+      <c r="P103" s="292"/>
     </row>
     <row r="104" spans="1:16" ht="12" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="285"/>
-      <c r="C104" s="285"/>
-      <c r="D104" s="285"/>
-      <c r="E104" s="285"/>
-      <c r="F104" s="285"/>
-      <c r="G104" s="285"/>
-      <c r="H104" s="285"/>
-      <c r="I104" s="285"/>
-      <c r="J104" s="285"/>
-      <c r="K104" s="285"/>
-      <c r="L104" s="285"/>
-      <c r="M104" s="285"/>
-      <c r="N104" s="285"/>
-      <c r="O104" s="285"/>
-      <c r="P104" s="285"/>
+      <c r="B104" s="292"/>
+      <c r="C104" s="292"/>
+      <c r="D104" s="292"/>
+      <c r="E104" s="292"/>
+      <c r="F104" s="292"/>
+      <c r="G104" s="292"/>
+      <c r="H104" s="292"/>
+      <c r="I104" s="292"/>
+      <c r="J104" s="292"/>
+      <c r="K104" s="292"/>
+      <c r="L104" s="292"/>
+      <c r="M104" s="292"/>
+      <c r="N104" s="292"/>
+      <c r="O104" s="292"/>
+      <c r="P104" s="292"/>
     </row>
     <row r="105" spans="1:16" ht="12" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="285"/>
-      <c r="C105" s="285"/>
-      <c r="D105" s="285"/>
-      <c r="E105" s="285"/>
-      <c r="F105" s="285"/>
-      <c r="G105" s="285"/>
-      <c r="H105" s="285"/>
-      <c r="I105" s="285"/>
-      <c r="J105" s="285"/>
-      <c r="K105" s="285"/>
-      <c r="L105" s="285"/>
-      <c r="M105" s="285"/>
-      <c r="N105" s="285"/>
-      <c r="O105" s="285"/>
-      <c r="P105" s="285"/>
+      <c r="B105" s="292"/>
+      <c r="C105" s="292"/>
+      <c r="D105" s="292"/>
+      <c r="E105" s="292"/>
+      <c r="F105" s="292"/>
+      <c r="G105" s="292"/>
+      <c r="H105" s="292"/>
+      <c r="I105" s="292"/>
+      <c r="J105" s="292"/>
+      <c r="K105" s="292"/>
+      <c r="L105" s="292"/>
+      <c r="M105" s="292"/>
+      <c r="N105" s="292"/>
+      <c r="O105" s="292"/>
+      <c r="P105" s="292"/>
     </row>
     <row r="106" spans="1:16" ht="12" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="284" t="s">
+      <c r="B106" s="291" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="285"/>
-      <c r="D106" s="285"/>
-      <c r="E106" s="285"/>
-      <c r="F106" s="285"/>
-      <c r="G106" s="285"/>
-      <c r="H106" s="285"/>
-      <c r="I106" s="285"/>
-      <c r="J106" s="285"/>
-      <c r="K106" s="285"/>
-      <c r="L106" s="285"/>
-      <c r="M106" s="285"/>
-      <c r="N106" s="285"/>
-      <c r="O106" s="285"/>
-      <c r="P106" s="285"/>
+      <c r="C106" s="292"/>
+      <c r="D106" s="292"/>
+      <c r="E106" s="292"/>
+      <c r="F106" s="292"/>
+      <c r="G106" s="292"/>
+      <c r="H106" s="292"/>
+      <c r="I106" s="292"/>
+      <c r="J106" s="292"/>
+      <c r="K106" s="292"/>
+      <c r="L106" s="292"/>
+      <c r="M106" s="292"/>
+      <c r="N106" s="292"/>
+      <c r="O106" s="292"/>
+      <c r="P106" s="292"/>
     </row>
     <row r="107" spans="1:16" ht="12" customHeight="1">
       <c r="A107" s="62"/>
-      <c r="B107" s="285"/>
-      <c r="C107" s="285"/>
-      <c r="D107" s="285"/>
-      <c r="E107" s="285"/>
-      <c r="F107" s="285"/>
-      <c r="G107" s="285"/>
-      <c r="H107" s="285"/>
-      <c r="I107" s="285"/>
-      <c r="J107" s="285"/>
-      <c r="K107" s="285"/>
-      <c r="L107" s="285"/>
-      <c r="M107" s="285"/>
-      <c r="N107" s="285"/>
-      <c r="O107" s="285"/>
-      <c r="P107" s="285"/>
+      <c r="B107" s="292"/>
+      <c r="C107" s="292"/>
+      <c r="D107" s="292"/>
+      <c r="E107" s="292"/>
+      <c r="F107" s="292"/>
+      <c r="G107" s="292"/>
+      <c r="H107" s="292"/>
+      <c r="I107" s="292"/>
+      <c r="J107" s="292"/>
+      <c r="K107" s="292"/>
+      <c r="L107" s="292"/>
+      <c r="M107" s="292"/>
+      <c r="N107" s="292"/>
+      <c r="O107" s="292"/>
+      <c r="P107" s="292"/>
     </row>
     <row r="108" spans="1:16" ht="12" customHeight="1">
       <c r="A108" s="62"/>
-      <c r="B108" s="285"/>
-      <c r="C108" s="285"/>
-      <c r="D108" s="285"/>
-      <c r="E108" s="285"/>
-      <c r="F108" s="285"/>
-      <c r="G108" s="285"/>
-      <c r="H108" s="285"/>
-      <c r="I108" s="285"/>
-      <c r="J108" s="285"/>
-      <c r="K108" s="285"/>
-      <c r="L108" s="285"/>
-      <c r="M108" s="285"/>
-      <c r="N108" s="285"/>
-      <c r="O108" s="285"/>
-      <c r="P108" s="285"/>
+      <c r="B108" s="292"/>
+      <c r="C108" s="292"/>
+      <c r="D108" s="292"/>
+      <c r="E108" s="292"/>
+      <c r="F108" s="292"/>
+      <c r="G108" s="292"/>
+      <c r="H108" s="292"/>
+      <c r="I108" s="292"/>
+      <c r="J108" s="292"/>
+      <c r="K108" s="292"/>
+      <c r="L108" s="292"/>
+      <c r="M108" s="292"/>
+      <c r="N108" s="292"/>
+      <c r="O108" s="292"/>
+      <c r="P108" s="292"/>
     </row>
     <row r="109" spans="1:16" ht="12" customHeight="1">
       <c r="A109" s="62"/>
@@ -20625,113 +20750,113 @@
     </row>
     <row r="110" spans="1:16" ht="12" customHeight="1">
       <c r="A110" s="62"/>
-      <c r="B110" s="284" t="s">
+      <c r="B110" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="C110" s="285"/>
-      <c r="D110" s="285"/>
-      <c r="E110" s="285"/>
-      <c r="F110" s="285"/>
-      <c r="G110" s="285"/>
-      <c r="H110" s="285"/>
-      <c r="I110" s="285"/>
-      <c r="J110" s="285"/>
-      <c r="K110" s="285"/>
-      <c r="L110" s="285"/>
-      <c r="M110" s="285"/>
-      <c r="N110" s="285"/>
-      <c r="O110" s="285"/>
-      <c r="P110" s="285"/>
+      <c r="C110" s="292"/>
+      <c r="D110" s="292"/>
+      <c r="E110" s="292"/>
+      <c r="F110" s="292"/>
+      <c r="G110" s="292"/>
+      <c r="H110" s="292"/>
+      <c r="I110" s="292"/>
+      <c r="J110" s="292"/>
+      <c r="K110" s="292"/>
+      <c r="L110" s="292"/>
+      <c r="M110" s="292"/>
+      <c r="N110" s="292"/>
+      <c r="O110" s="292"/>
+      <c r="P110" s="292"/>
     </row>
     <row r="111" spans="1:16" ht="12" customHeight="1">
       <c r="A111" s="62"/>
-      <c r="B111" s="284"/>
-      <c r="C111" s="285"/>
-      <c r="D111" s="285"/>
-      <c r="E111" s="285"/>
-      <c r="F111" s="285"/>
-      <c r="G111" s="285"/>
-      <c r="H111" s="285"/>
-      <c r="I111" s="285"/>
-      <c r="J111" s="285"/>
-      <c r="K111" s="285"/>
-      <c r="L111" s="285"/>
-      <c r="M111" s="285"/>
-      <c r="N111" s="285"/>
-      <c r="O111" s="285"/>
-      <c r="P111" s="285"/>
+      <c r="B111" s="291"/>
+      <c r="C111" s="292"/>
+      <c r="D111" s="292"/>
+      <c r="E111" s="292"/>
+      <c r="F111" s="292"/>
+      <c r="G111" s="292"/>
+      <c r="H111" s="292"/>
+      <c r="I111" s="292"/>
+      <c r="J111" s="292"/>
+      <c r="K111" s="292"/>
+      <c r="L111" s="292"/>
+      <c r="M111" s="292"/>
+      <c r="N111" s="292"/>
+      <c r="O111" s="292"/>
+      <c r="P111" s="292"/>
     </row>
     <row r="112" spans="1:16" ht="12" customHeight="1">
       <c r="A112" s="62"/>
-      <c r="B112" s="284"/>
-      <c r="C112" s="285"/>
-      <c r="D112" s="285"/>
-      <c r="E112" s="285"/>
-      <c r="F112" s="285"/>
-      <c r="G112" s="285"/>
-      <c r="H112" s="285"/>
-      <c r="I112" s="285"/>
-      <c r="J112" s="285"/>
-      <c r="K112" s="285"/>
-      <c r="L112" s="285"/>
-      <c r="M112" s="285"/>
-      <c r="N112" s="285"/>
-      <c r="O112" s="285"/>
-      <c r="P112" s="285"/>
+      <c r="B112" s="291"/>
+      <c r="C112" s="292"/>
+      <c r="D112" s="292"/>
+      <c r="E112" s="292"/>
+      <c r="F112" s="292"/>
+      <c r="G112" s="292"/>
+      <c r="H112" s="292"/>
+      <c r="I112" s="292"/>
+      <c r="J112" s="292"/>
+      <c r="K112" s="292"/>
+      <c r="L112" s="292"/>
+      <c r="M112" s="292"/>
+      <c r="N112" s="292"/>
+      <c r="O112" s="292"/>
+      <c r="P112" s="292"/>
     </row>
     <row r="113" spans="1:20" ht="12" customHeight="1">
       <c r="A113" s="62"/>
-      <c r="B113" s="284"/>
-      <c r="C113" s="285"/>
-      <c r="D113" s="285"/>
-      <c r="E113" s="285"/>
-      <c r="F113" s="285"/>
-      <c r="G113" s="285"/>
-      <c r="H113" s="285"/>
-      <c r="I113" s="285"/>
-      <c r="J113" s="285"/>
-      <c r="K113" s="285"/>
-      <c r="L113" s="285"/>
-      <c r="M113" s="285"/>
-      <c r="N113" s="285"/>
-      <c r="O113" s="285"/>
-      <c r="P113" s="285"/>
+      <c r="B113" s="291"/>
+      <c r="C113" s="292"/>
+      <c r="D113" s="292"/>
+      <c r="E113" s="292"/>
+      <c r="F113" s="292"/>
+      <c r="G113" s="292"/>
+      <c r="H113" s="292"/>
+      <c r="I113" s="292"/>
+      <c r="J113" s="292"/>
+      <c r="K113" s="292"/>
+      <c r="L113" s="292"/>
+      <c r="M113" s="292"/>
+      <c r="N113" s="292"/>
+      <c r="O113" s="292"/>
+      <c r="P113" s="292"/>
     </row>
     <row r="114" spans="1:20" ht="12" customHeight="1">
       <c r="A114" s="62"/>
-      <c r="B114" s="284"/>
-      <c r="C114" s="285"/>
-      <c r="D114" s="285"/>
-      <c r="E114" s="285"/>
-      <c r="F114" s="285"/>
-      <c r="G114" s="285"/>
-      <c r="H114" s="285"/>
-      <c r="I114" s="285"/>
-      <c r="J114" s="285"/>
-      <c r="K114" s="285"/>
-      <c r="L114" s="285"/>
-      <c r="M114" s="285"/>
-      <c r="N114" s="285"/>
-      <c r="O114" s="285"/>
-      <c r="P114" s="285"/>
+      <c r="B114" s="291"/>
+      <c r="C114" s="292"/>
+      <c r="D114" s="292"/>
+      <c r="E114" s="292"/>
+      <c r="F114" s="292"/>
+      <c r="G114" s="292"/>
+      <c r="H114" s="292"/>
+      <c r="I114" s="292"/>
+      <c r="J114" s="292"/>
+      <c r="K114" s="292"/>
+      <c r="L114" s="292"/>
+      <c r="M114" s="292"/>
+      <c r="N114" s="292"/>
+      <c r="O114" s="292"/>
+      <c r="P114" s="292"/>
     </row>
     <row r="115" spans="1:20" ht="12" customHeight="1">
       <c r="A115" s="62"/>
-      <c r="B115" s="284"/>
-      <c r="C115" s="285"/>
-      <c r="D115" s="285"/>
-      <c r="E115" s="285"/>
-      <c r="F115" s="285"/>
-      <c r="G115" s="285"/>
-      <c r="H115" s="285"/>
-      <c r="I115" s="285"/>
-      <c r="J115" s="285"/>
-      <c r="K115" s="285"/>
-      <c r="L115" s="285"/>
-      <c r="M115" s="285"/>
-      <c r="N115" s="285"/>
-      <c r="O115" s="285"/>
-      <c r="P115" s="285"/>
+      <c r="B115" s="291"/>
+      <c r="C115" s="292"/>
+      <c r="D115" s="292"/>
+      <c r="E115" s="292"/>
+      <c r="F115" s="292"/>
+      <c r="G115" s="292"/>
+      <c r="H115" s="292"/>
+      <c r="I115" s="292"/>
+      <c r="J115" s="292"/>
+      <c r="K115" s="292"/>
+      <c r="L115" s="292"/>
+      <c r="M115" s="292"/>
+      <c r="N115" s="292"/>
+      <c r="O115" s="292"/>
+      <c r="P115" s="292"/>
     </row>
     <row r="116" spans="1:20" ht="12" customHeight="1">
       <c r="A116" s="62"/>
@@ -20750,69 +20875,69 @@
     </row>
     <row r="117" spans="1:20" ht="12" customHeight="1">
       <c r="A117" s="62"/>
-      <c r="B117" s="284" t="s">
+      <c r="B117" s="291" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="285"/>
-      <c r="D117" s="285"/>
-      <c r="E117" s="285"/>
-      <c r="F117" s="285"/>
-      <c r="G117" s="285"/>
-      <c r="H117" s="285"/>
-      <c r="I117" s="285"/>
-      <c r="J117" s="285"/>
-      <c r="K117" s="285"/>
-      <c r="L117" s="285"/>
-      <c r="M117" s="285"/>
-      <c r="N117" s="285"/>
-      <c r="O117" s="285"/>
-      <c r="P117" s="285"/>
+      <c r="C117" s="292"/>
+      <c r="D117" s="292"/>
+      <c r="E117" s="292"/>
+      <c r="F117" s="292"/>
+      <c r="G117" s="292"/>
+      <c r="H117" s="292"/>
+      <c r="I117" s="292"/>
+      <c r="J117" s="292"/>
+      <c r="K117" s="292"/>
+      <c r="L117" s="292"/>
+      <c r="M117" s="292"/>
+      <c r="N117" s="292"/>
+      <c r="O117" s="292"/>
+      <c r="P117" s="292"/>
     </row>
     <row r="118" spans="1:20" ht="12" customHeight="1">
       <c r="A118" s="62"/>
-      <c r="B118" s="285"/>
-      <c r="C118" s="285"/>
-      <c r="D118" s="285"/>
-      <c r="E118" s="285"/>
-      <c r="F118" s="285"/>
-      <c r="G118" s="285"/>
-      <c r="H118" s="285"/>
-      <c r="I118" s="285"/>
-      <c r="J118" s="285"/>
-      <c r="K118" s="285"/>
-      <c r="L118" s="285"/>
-      <c r="M118" s="285"/>
-      <c r="N118" s="285"/>
-      <c r="O118" s="285"/>
-      <c r="P118" s="285"/>
+      <c r="B118" s="292"/>
+      <c r="C118" s="292"/>
+      <c r="D118" s="292"/>
+      <c r="E118" s="292"/>
+      <c r="F118" s="292"/>
+      <c r="G118" s="292"/>
+      <c r="H118" s="292"/>
+      <c r="I118" s="292"/>
+      <c r="J118" s="292"/>
+      <c r="K118" s="292"/>
+      <c r="L118" s="292"/>
+      <c r="M118" s="292"/>
+      <c r="N118" s="292"/>
+      <c r="O118" s="292"/>
+      <c r="P118" s="292"/>
     </row>
     <row r="119" spans="1:20" ht="12" customHeight="1">
       <c r="A119" s="62"/>
-      <c r="B119" s="285"/>
-      <c r="C119" s="285"/>
-      <c r="D119" s="285"/>
-      <c r="E119" s="285"/>
-      <c r="F119" s="285"/>
-      <c r="G119" s="285"/>
-      <c r="H119" s="285"/>
-      <c r="I119" s="285"/>
-      <c r="J119" s="285"/>
-      <c r="K119" s="285"/>
-      <c r="L119" s="285"/>
-      <c r="M119" s="285"/>
-      <c r="N119" s="285"/>
-      <c r="O119" s="285"/>
-      <c r="P119" s="285"/>
+      <c r="B119" s="292"/>
+      <c r="C119" s="292"/>
+      <c r="D119" s="292"/>
+      <c r="E119" s="292"/>
+      <c r="F119" s="292"/>
+      <c r="G119" s="292"/>
+      <c r="H119" s="292"/>
+      <c r="I119" s="292"/>
+      <c r="J119" s="292"/>
+      <c r="K119" s="292"/>
+      <c r="L119" s="292"/>
+      <c r="M119" s="292"/>
+      <c r="N119" s="292"/>
+      <c r="O119" s="292"/>
+      <c r="P119" s="292"/>
     </row>
     <row r="120" spans="1:20" ht="12" customHeight="1">
       <c r="A120" s="62"/>
-      <c r="B120" s="287" t="s">
+      <c r="B120" s="294" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="287"/>
-      <c r="D120" s="287"/>
-      <c r="E120" s="287"/>
-      <c r="F120" s="287"/>
+      <c r="C120" s="294"/>
+      <c r="D120" s="294"/>
+      <c r="E120" s="294"/>
+      <c r="F120" s="294"/>
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="40"/>
@@ -20855,13 +20980,13 @@
     </row>
     <row r="123" spans="1:20" ht="12" customHeight="1">
       <c r="A123" s="62"/>
-      <c r="B123" s="287" t="s">
+      <c r="B123" s="294" t="s">
         <v>298</v>
       </c>
-      <c r="C123" s="287"/>
-      <c r="D123" s="287"/>
-      <c r="E123" s="287"/>
-      <c r="F123" s="287"/>
+      <c r="C123" s="294"/>
+      <c r="D123" s="294"/>
+      <c r="E123" s="294"/>
+      <c r="F123" s="294"/>
       <c r="G123" s="40"/>
       <c r="H123" s="40"/>
       <c r="I123" s="40"/>
@@ -20887,70 +21012,70 @@
       <c r="L124" s="40"/>
       <c r="M124" s="40"/>
     </row>
-    <row r="125" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
-      <c r="A125" s="145"/>
-      <c r="B125" s="146"/>
-      <c r="C125" s="286" t="s">
+    <row r="125" spans="1:20" s="146" customFormat="1" ht="12" customHeight="1">
+      <c r="A125" s="143"/>
+      <c r="B125" s="144"/>
+      <c r="C125" s="293" t="s">
         <v>305</v>
       </c>
-      <c r="D125" s="286"/>
-      <c r="E125" s="286"/>
-      <c r="F125" s="286"/>
-      <c r="G125" s="286"/>
-      <c r="H125" s="147"/>
-      <c r="I125" s="147"/>
-      <c r="J125" s="147"/>
-      <c r="K125" s="147"/>
-      <c r="L125" s="147"/>
-    </row>
-    <row r="126" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
-      <c r="A126" s="145"/>
-      <c r="B126" s="146"/>
-      <c r="C126" s="149" t="s">
+      <c r="D125" s="293"/>
+      <c r="E125" s="293"/>
+      <c r="F125" s="293"/>
+      <c r="G125" s="293"/>
+      <c r="H125" s="145"/>
+      <c r="I125" s="145"/>
+      <c r="J125" s="145"/>
+      <c r="K125" s="145"/>
+      <c r="L125" s="145"/>
+    </row>
+    <row r="126" spans="1:20" s="146" customFormat="1" ht="12" customHeight="1">
+      <c r="A126" s="143"/>
+      <c r="B126" s="144"/>
+      <c r="C126" s="147" t="s">
         <v>309</v>
       </c>
-      <c r="D126" s="147"/>
-      <c r="E126" s="147"/>
-      <c r="F126" s="147"/>
-      <c r="G126" s="147"/>
-      <c r="H126" s="147"/>
-      <c r="I126" s="147"/>
-      <c r="J126" s="147"/>
-      <c r="K126" s="147"/>
-      <c r="L126" s="147"/>
-    </row>
-    <row r="127" spans="1:20" s="148" customFormat="1" ht="12" customHeight="1">
-      <c r="A127" s="145" t="s">
+      <c r="D126" s="145"/>
+      <c r="E126" s="145"/>
+      <c r="F126" s="145"/>
+      <c r="G126" s="145"/>
+      <c r="H126" s="145"/>
+      <c r="I126" s="145"/>
+      <c r="J126" s="145"/>
+      <c r="K126" s="145"/>
+      <c r="L126" s="145"/>
+    </row>
+    <row r="127" spans="1:20" s="146" customFormat="1" ht="12" customHeight="1">
+      <c r="A127" s="143" t="s">
         <v>306</v>
       </c>
-      <c r="B127" s="146"/>
-      <c r="C127" s="149" t="s">
+      <c r="B127" s="144"/>
+      <c r="C127" s="147" t="s">
         <v>307</v>
       </c>
-      <c r="D127" s="147"/>
-      <c r="E127" s="147"/>
-      <c r="F127" s="147"/>
-      <c r="G127" s="147"/>
-      <c r="H127" s="147"/>
-      <c r="I127" s="147"/>
-      <c r="J127" s="147"/>
-      <c r="K127" s="147"/>
-      <c r="L127" s="147"/>
-    </row>
-    <row r="128" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A128" s="186"/>
-      <c r="B128" s="186"/>
-      <c r="C128" s="186"/>
-      <c r="D128" s="186"/>
-      <c r="E128" s="186"/>
-      <c r="F128" s="186"/>
-      <c r="G128" s="186"/>
-      <c r="H128" s="186"/>
-      <c r="I128" s="186"/>
-      <c r="J128" s="186"/>
-      <c r="K128" s="186"/>
-      <c r="L128" s="186"/>
-      <c r="M128" s="186"/>
+      <c r="D127" s="145"/>
+      <c r="E127" s="145"/>
+      <c r="F127" s="145"/>
+      <c r="G127" s="145"/>
+      <c r="H127" s="145"/>
+      <c r="I127" s="145"/>
+      <c r="J127" s="145"/>
+      <c r="K127" s="145"/>
+      <c r="L127" s="145"/>
+    </row>
+    <row r="128" spans="1:20" s="178" customFormat="1" ht="12" customHeight="1">
+      <c r="A128" s="179"/>
+      <c r="B128" s="179"/>
+      <c r="C128" s="179"/>
+      <c r="D128" s="179"/>
+      <c r="E128" s="179"/>
+      <c r="F128" s="179"/>
+      <c r="G128" s="179"/>
+      <c r="H128" s="179"/>
+      <c r="I128" s="179"/>
+      <c r="J128" s="179"/>
+      <c r="K128" s="179"/>
+      <c r="L128" s="179"/>
+      <c r="M128" s="179"/>
       <c r="N128" s="22"/>
       <c r="O128" s="22"/>
       <c r="P128" s="22"/>
@@ -20959,20 +21084,20 @@
       <c r="S128" s="22"/>
       <c r="T128" s="22"/>
     </row>
-    <row r="129" spans="1:20" s="183" customFormat="1" ht="12" customHeight="1">
-      <c r="A129" s="186"/>
-      <c r="B129" s="186"/>
-      <c r="C129" s="186"/>
-      <c r="D129" s="186"/>
-      <c r="E129" s="186"/>
-      <c r="F129" s="186"/>
-      <c r="G129" s="186"/>
-      <c r="H129" s="186"/>
-      <c r="I129" s="186"/>
-      <c r="J129" s="186"/>
-      <c r="K129" s="186"/>
-      <c r="L129" s="186"/>
-      <c r="M129" s="186"/>
+    <row r="129" spans="1:20" s="178" customFormat="1" ht="12" customHeight="1">
+      <c r="A129" s="179"/>
+      <c r="B129" s="179"/>
+      <c r="C129" s="179"/>
+      <c r="D129" s="179"/>
+      <c r="E129" s="179"/>
+      <c r="F129" s="179"/>
+      <c r="G129" s="179"/>
+      <c r="H129" s="179"/>
+      <c r="I129" s="179"/>
+      <c r="J129" s="179"/>
+      <c r="K129" s="179"/>
+      <c r="L129" s="179"/>
+      <c r="M129" s="179"/>
       <c r="N129" s="22"/>
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
@@ -20981,60 +21106,56 @@
       <c r="S129" s="22"/>
       <c r="T129" s="22"/>
     </row>
-    <row r="130" spans="1:20" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A130" s="184"/>
-      <c r="B130" s="182" t="s">
-        <v>346</v>
-      </c>
-      <c r="C130" s="180"/>
-      <c r="D130" s="185"/>
-      <c r="E130" s="180"/>
-      <c r="F130" s="180"/>
-      <c r="G130" s="180"/>
-      <c r="H130" s="180"/>
-      <c r="I130" s="180"/>
-      <c r="J130" s="180"/>
-      <c r="K130" s="180"/>
-      <c r="L130" s="180"/>
-      <c r="M130" s="180"/>
-    </row>
-    <row r="131" spans="1:20" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A131" s="184"/>
-      <c r="C131" s="180" t="s">
-        <v>347</v>
-      </c>
-      <c r="D131" s="185"/>
-      <c r="E131" s="180"/>
-      <c r="F131" s="180"/>
-      <c r="G131" s="180"/>
-      <c r="H131" s="180"/>
-      <c r="I131" s="180"/>
-      <c r="J131" s="180"/>
-      <c r="K131" s="180"/>
-      <c r="L131" s="180"/>
-      <c r="M131" s="180"/>
-    </row>
-    <row r="132" spans="1:20" s="181" customFormat="1" ht="12" customHeight="1">
-      <c r="A132" s="184"/>
-      <c r="B132" s="180"/>
-      <c r="C132" s="180" t="s">
-        <v>348</v>
-      </c>
-      <c r="D132" s="180"/>
-      <c r="E132" s="180"/>
-      <c r="F132" s="180"/>
-      <c r="G132" s="180"/>
-      <c r="H132" s="180"/>
-      <c r="I132" s="180"/>
-      <c r="J132" s="180"/>
-      <c r="K132" s="180"/>
-      <c r="L132" s="180"/>
-      <c r="M132" s="180"/>
+    <row r="130" spans="1:20" ht="12" customHeight="1">
+      <c r="A130" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="40"/>
+      <c r="C130" s="69"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="40"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+    </row>
+    <row r="131" spans="1:20" ht="12" customHeight="1">
+      <c r="B131" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="69"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="40"/>
+      <c r="L131" s="40"/>
+      <c r="M131" s="40"/>
+    </row>
+    <row r="132" spans="1:20" ht="12" customHeight="1">
+      <c r="B132" s="40"/>
+      <c r="C132" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="40"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
     </row>
     <row r="133" spans="1:20" ht="12" customHeight="1">
-      <c r="A133" s="62" t="s">
-        <v>120</v>
-      </c>
       <c r="B133" s="40"/>
       <c r="C133" s="69"/>
       <c r="D133" s="40"/>
@@ -21050,9 +21171,9 @@
     </row>
     <row r="134" spans="1:20" ht="12" customHeight="1">
       <c r="B134" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="C134" s="69"/>
+        <v>119</v>
+      </c>
+      <c r="C134" s="40"/>
       <c r="D134" s="40"/>
       <c r="E134" s="40"/>
       <c r="F134" s="40"/>
@@ -21065,7 +21186,7 @@
       <c r="M134" s="40"/>
     </row>
     <row r="135" spans="1:20" ht="12" customHeight="1">
-      <c r="B135" s="40"/>
+      <c r="B135" s="66"/>
       <c r="C135" s="69" t="s">
         <v>191</v>
       </c>
@@ -21081,8 +21202,9 @@
       <c r="M135" s="40"/>
     </row>
     <row r="136" spans="1:20" ht="12" customHeight="1">
+      <c r="A136" s="39"/>
       <c r="B136" s="40"/>
-      <c r="C136" s="69"/>
+      <c r="C136" s="40"/>
       <c r="D136" s="40"/>
       <c r="E136" s="40"/>
       <c r="F136" s="40"/>
@@ -21095,10 +21217,11 @@
       <c r="M136" s="40"/>
     </row>
     <row r="137" spans="1:20" ht="12" customHeight="1">
-      <c r="B137" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C137" s="40"/>
+      <c r="A137" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" s="40"/>
+      <c r="C137" s="69"/>
       <c r="D137" s="40"/>
       <c r="E137" s="40"/>
       <c r="F137" s="40"/>
@@ -21111,10 +21234,10 @@
       <c r="M137" s="40"/>
     </row>
     <row r="138" spans="1:20" ht="12" customHeight="1">
-      <c r="B138" s="66"/>
-      <c r="C138" s="69" t="s">
-        <v>191</v>
-      </c>
+      <c r="B138" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" s="69"/>
       <c r="D138" s="40"/>
       <c r="E138" s="40"/>
       <c r="F138" s="40"/>
@@ -21127,9 +21250,10 @@
       <c r="M138" s="40"/>
     </row>
     <row r="139" spans="1:20" ht="12" customHeight="1">
-      <c r="A139" s="39"/>
       <c r="B139" s="40"/>
-      <c r="C139" s="40"/>
+      <c r="C139" s="69" t="s">
+        <v>192</v>
+      </c>
       <c r="D139" s="40"/>
       <c r="E139" s="40"/>
       <c r="F139" s="40"/>
@@ -21142,9 +21266,6 @@
       <c r="M139" s="40"/>
     </row>
     <row r="140" spans="1:20" ht="12" customHeight="1">
-      <c r="A140" s="62" t="s">
-        <v>121</v>
-      </c>
       <c r="B140" s="40"/>
       <c r="C140" s="69"/>
       <c r="D140" s="40"/>
@@ -21160,9 +21281,9 @@
     </row>
     <row r="141" spans="1:20" ht="12" customHeight="1">
       <c r="B141" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="C141" s="69"/>
+        <v>119</v>
+      </c>
+      <c r="C141" s="40"/>
       <c r="D141" s="40"/>
       <c r="E141" s="40"/>
       <c r="F141" s="40"/>
@@ -21175,7 +21296,7 @@
       <c r="M141" s="40"/>
     </row>
     <row r="142" spans="1:20" ht="12" customHeight="1">
-      <c r="B142" s="40"/>
+      <c r="B142" s="66"/>
       <c r="C142" s="69" t="s">
         <v>192</v>
       </c>
@@ -21191,8 +21312,9 @@
       <c r="M142" s="40"/>
     </row>
     <row r="143" spans="1:20" ht="12" customHeight="1">
-      <c r="B143" s="40"/>
-      <c r="C143" s="69"/>
+      <c r="A143" s="39"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="40"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="40"/>
@@ -21205,10 +21327,11 @@
       <c r="M143" s="40"/>
     </row>
     <row r="144" spans="1:20" ht="12" customHeight="1">
-      <c r="B144" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C144" s="40"/>
+      <c r="A144" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" s="40"/>
+      <c r="C144" s="69"/>
       <c r="D144" s="40"/>
       <c r="E144" s="40"/>
       <c r="F144" s="40"/>
@@ -21221,10 +21344,10 @@
       <c r="M144" s="40"/>
     </row>
     <row r="145" spans="1:13" ht="12" customHeight="1">
-      <c r="B145" s="66"/>
-      <c r="C145" s="69" t="s">
-        <v>192</v>
-      </c>
+      <c r="B145" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" s="69"/>
       <c r="D145" s="40"/>
       <c r="E145" s="40"/>
       <c r="F145" s="40"/>
@@ -21237,9 +21360,8 @@
       <c r="M145" s="40"/>
     </row>
     <row r="146" spans="1:13" ht="12" customHeight="1">
-      <c r="A146" s="39"/>
-      <c r="B146" s="69"/>
-      <c r="C146" s="40"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="69"/>
       <c r="D146" s="40"/>
       <c r="E146" s="40"/>
       <c r="F146" s="40"/>
@@ -21252,9 +21374,6 @@
       <c r="M146" s="40"/>
     </row>
     <row r="147" spans="1:13" ht="12" customHeight="1">
-      <c r="A147" s="62" t="s">
-        <v>122</v>
-      </c>
       <c r="B147" s="40"/>
       <c r="C147" s="69"/>
       <c r="D147" s="40"/>
@@ -21270,9 +21389,9 @@
     </row>
     <row r="148" spans="1:13" ht="12" customHeight="1">
       <c r="B148" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C148" s="69"/>
+        <v>124</v>
+      </c>
+      <c r="C148" s="40"/>
       <c r="D148" s="40"/>
       <c r="E148" s="40"/>
       <c r="F148" s="40"/>
@@ -21286,7 +21405,7 @@
     </row>
     <row r="149" spans="1:13" ht="12" customHeight="1">
       <c r="B149" s="66"/>
-      <c r="C149" s="69"/>
+      <c r="C149" s="40"/>
       <c r="D149" s="40"/>
       <c r="E149" s="40"/>
       <c r="F149" s="40"/>
@@ -21299,6 +21418,9 @@
       <c r="M149" s="40"/>
     </row>
     <row r="150" spans="1:13" ht="12" customHeight="1">
+      <c r="A150" s="62" t="s">
+        <v>125</v>
+      </c>
       <c r="B150" s="40"/>
       <c r="C150" s="69"/>
       <c r="D150" s="40"/>
@@ -21313,10 +21435,8 @@
       <c r="M150" s="40"/>
     </row>
     <row r="151" spans="1:13" ht="12" customHeight="1">
-      <c r="B151" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C151" s="40"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="69"/>
       <c r="D151" s="40"/>
       <c r="E151" s="40"/>
       <c r="F151" s="40"/>
@@ -21329,8 +21449,8 @@
       <c r="M151" s="40"/>
     </row>
     <row r="152" spans="1:13" ht="12" customHeight="1">
-      <c r="B152" s="66"/>
-      <c r="C152" s="40"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="69"/>
       <c r="D152" s="40"/>
       <c r="E152" s="40"/>
       <c r="F152" s="40"/>
@@ -21343,11 +21463,8 @@
       <c r="M152" s="40"/>
     </row>
     <row r="153" spans="1:13" ht="12" customHeight="1">
-      <c r="A153" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B153" s="40"/>
-      <c r="C153" s="69"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="40"/>
       <c r="D153" s="40"/>
       <c r="E153" s="40"/>
       <c r="F153" s="40"/>
@@ -21361,7 +21478,7 @@
     </row>
     <row r="154" spans="1:13" ht="12" customHeight="1">
       <c r="B154" s="66"/>
-      <c r="C154" s="69"/>
+      <c r="C154" s="40"/>
       <c r="D154" s="40"/>
       <c r="E154" s="40"/>
       <c r="F154" s="40"/>
@@ -21375,7 +21492,7 @@
     </row>
     <row r="155" spans="1:13" ht="12" customHeight="1">
       <c r="B155" s="40"/>
-      <c r="C155" s="69"/>
+      <c r="C155" s="40"/>
       <c r="D155" s="40"/>
       <c r="E155" s="40"/>
       <c r="F155" s="40"/>
@@ -21388,7 +21505,7 @@
       <c r="M155" s="40"/>
     </row>
     <row r="156" spans="1:13" ht="12" customHeight="1">
-      <c r="B156" s="66"/>
+      <c r="B156" s="40"/>
       <c r="C156" s="40"/>
       <c r="D156" s="40"/>
       <c r="E156" s="40"/>
@@ -21416,8 +21533,9 @@
       <c r="M157" s="40"/>
     </row>
     <row r="158" spans="1:13" ht="12" customHeight="1">
+      <c r="A158" s="39"/>
       <c r="B158" s="40"/>
-      <c r="C158" s="40"/>
+      <c r="C158" s="69"/>
       <c r="D158" s="40"/>
       <c r="E158" s="40"/>
       <c r="F158" s="40"/>
@@ -21430,8 +21548,9 @@
       <c r="M158" s="40"/>
     </row>
     <row r="159" spans="1:13" ht="12" customHeight="1">
+      <c r="A159" s="39"/>
       <c r="B159" s="40"/>
-      <c r="C159" s="40"/>
+      <c r="C159" s="69"/>
       <c r="D159" s="40"/>
       <c r="E159" s="40"/>
       <c r="F159" s="40"/>
@@ -21444,8 +21563,9 @@
       <c r="M159" s="40"/>
     </row>
     <row r="160" spans="1:13" ht="12" customHeight="1">
-      <c r="B160" s="66"/>
-      <c r="C160" s="40"/>
+      <c r="A160" s="39"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="69"/>
       <c r="D160" s="40"/>
       <c r="E160" s="40"/>
       <c r="F160" s="40"/>
@@ -21458,9 +21578,9 @@
       <c r="M160" s="40"/>
     </row>
     <row r="161" spans="1:13" ht="12" customHeight="1">
-      <c r="A161" s="39"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="40"/>
-      <c r="C161" s="69"/>
+      <c r="C161" s="40"/>
       <c r="D161" s="40"/>
       <c r="E161" s="40"/>
       <c r="F161" s="40"/>
@@ -21473,9 +21593,8 @@
       <c r="M161" s="40"/>
     </row>
     <row r="162" spans="1:13" ht="12" customHeight="1">
-      <c r="A162" s="39"/>
-      <c r="B162" s="40"/>
-      <c r="C162" s="69"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="40"/>
       <c r="D162" s="40"/>
       <c r="E162" s="40"/>
       <c r="F162" s="40"/>
@@ -21488,9 +21607,8 @@
       <c r="M162" s="40"/>
     </row>
     <row r="163" spans="1:13" ht="12" customHeight="1">
-      <c r="A163" s="39"/>
       <c r="B163" s="40"/>
-      <c r="C163" s="69"/>
+      <c r="C163" s="40"/>
       <c r="D163" s="40"/>
       <c r="E163" s="40"/>
       <c r="F163" s="40"/>
@@ -21503,8 +21621,7 @@
       <c r="M163" s="40"/>
     </row>
     <row r="164" spans="1:13" ht="12" customHeight="1">
-      <c r="A164" s="62"/>
-      <c r="B164" s="40"/>
+      <c r="B164" s="66"/>
       <c r="C164" s="40"/>
       <c r="D164" s="40"/>
       <c r="E164" s="40"/>
@@ -21518,7 +21635,8 @@
       <c r="M164" s="40"/>
     </row>
     <row r="165" spans="1:13" ht="12" customHeight="1">
-      <c r="B165" s="66"/>
+      <c r="A165" s="39"/>
+      <c r="B165" s="40"/>
       <c r="C165" s="40"/>
       <c r="D165" s="40"/>
       <c r="E165" s="40"/>
@@ -21532,6 +21650,7 @@
       <c r="M165" s="40"/>
     </row>
     <row r="166" spans="1:13" ht="12" customHeight="1">
+      <c r="A166" s="62"/>
       <c r="B166" s="40"/>
       <c r="C166" s="40"/>
       <c r="D166" s="40"/>
@@ -21546,7 +21665,8 @@
       <c r="M166" s="40"/>
     </row>
     <row r="167" spans="1:13" ht="12" customHeight="1">
-      <c r="B167" s="66"/>
+      <c r="A167" s="39"/>
+      <c r="B167" s="40"/>
       <c r="C167" s="40"/>
       <c r="D167" s="40"/>
       <c r="E167" s="40"/>
@@ -21575,7 +21695,7 @@
       <c r="M168" s="40"/>
     </row>
     <row r="169" spans="1:13" ht="12" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="39"/>
       <c r="B169" s="40"/>
       <c r="C169" s="40"/>
       <c r="D169" s="40"/>
@@ -21875,64 +21995,19 @@
       <c r="M188" s="40"/>
     </row>
     <row r="189" spans="1:13" ht="12" customHeight="1">
-      <c r="A189" s="39"/>
-      <c r="B189" s="40"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="40"/>
-      <c r="E189" s="40"/>
-      <c r="F189" s="40"/>
-      <c r="G189" s="40"/>
-      <c r="H189" s="40"/>
-      <c r="I189" s="40"/>
+      <c r="A189" s="44"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="45"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="45"/>
+      <c r="H189" s="45"/>
+      <c r="I189" s="45"/>
       <c r="J189" s="40"/>
       <c r="K189" s="40"/>
       <c r="L189" s="40"/>
       <c r="M189" s="40"/>
-    </row>
-    <row r="190" spans="1:13" ht="12" customHeight="1">
-      <c r="A190" s="39"/>
-      <c r="B190" s="40"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="40"/>
-      <c r="E190" s="40"/>
-      <c r="F190" s="40"/>
-      <c r="G190" s="40"/>
-      <c r="H190" s="40"/>
-      <c r="I190" s="40"/>
-      <c r="J190" s="40"/>
-      <c r="K190" s="40"/>
-      <c r="L190" s="40"/>
-      <c r="M190" s="40"/>
-    </row>
-    <row r="191" spans="1:13" ht="12" customHeight="1">
-      <c r="A191" s="39"/>
-      <c r="B191" s="40"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="40"/>
-      <c r="E191" s="40"/>
-      <c r="F191" s="40"/>
-      <c r="G191" s="40"/>
-      <c r="H191" s="40"/>
-      <c r="I191" s="40"/>
-      <c r="J191" s="40"/>
-      <c r="K191" s="40"/>
-      <c r="L191" s="40"/>
-      <c r="M191" s="40"/>
-    </row>
-    <row r="192" spans="1:13" ht="12" customHeight="1">
-      <c r="A192" s="44"/>
-      <c r="B192" s="45"/>
-      <c r="C192" s="45"/>
-      <c r="D192" s="45"/>
-      <c r="E192" s="45"/>
-      <c r="F192" s="45"/>
-      <c r="G192" s="45"/>
-      <c r="H192" s="45"/>
-      <c r="I192" s="45"/>
-      <c r="J192" s="40"/>
-      <c r="K192" s="40"/>
-      <c r="L192" s="40"/>
-      <c r="M192" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -21953,7 +22028,7 @@
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="170" max="9" man="1"/>
+    <brk id="167" max="9" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -21982,10 +22057,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218"/>
+      <c r="B1" s="225"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -22016,8 +22091,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
@@ -44,12 +44,12 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$O$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$154</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$P$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$155</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$O$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$J$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -451,7 +451,7 @@
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="G4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1" shapeId="0">
+    <comment ref="H4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="J4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -574,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="1" shapeId="0">
+    <comment ref="L4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -666,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="1" shapeId="0">
+    <comment ref="M4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -701,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -717,7 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="1" shapeId="0">
+    <comment ref="O4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -741,7 +741,7 @@
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -754,10 +754,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -770,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -882,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -897,7 +897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -915,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -957,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="1" shapeId="0">
+    <comment ref="O4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="1" shapeId="0">
+    <comment ref="B23" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="1" shapeId="0">
+    <comment ref="A26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1377,7 +1377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="371">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2598,55 +2598,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ver 5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select 
-M.APK, M.DivisionID, M.RequestID, M.RequestSubject, M.RelatedToTypeID
-, M.PriorityID,  M.RequestStatus, C01.Description as RequestStatusName
-, M.TimeRequest, M.DeadlineRequest, M.AssignedToUserID, A.FullName as AssignedToUserName
-, M.RequestDescription, M.FeedbackDescription
-, stuff(isnull((Select ', ' +  D.AccountID From CRMT10101 B WITH (NOLOCK) 
-      Left join CRMT20801_CRMT10101_REL D WITH (NOLOCK)  ON D.AccountID = B.APK 
-      where D.RequestID = M.RequestID
-      Group by D.AccountID
-      FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as APKAccountID
-, stuff(isnull((Select ', ' +  B.AccountID From CRMT10101 B WITH (NOLOCK) 
-      Left join CRMT20801_CRMT10101_REL D WITH (NOLOCK)  ON D.AccountID = B.APK 
-      where D.RequestID = M.RequestID
-      Group by B.AccountID
-      FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as AccountID
-, stuff(isnull((Select ', ' + B.AccountName From CRMT10101 B WITH (NOLOCK) 
- Left join CRMT20801_CRMT10101_REL D WITH (NOLOCK)  ON D.AccountID = B.APK 
- where D.RequestID = M.RequestID
- Group by B.AccountID, B.AccountName
- FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as AccountName
-, M.CreateDate, M.LastModifyDate, M.DeadlineExpect,M.DeadlineRequest,  M.CompleteDate, M.DurationTime, M.RealTime, M.ProjectID
-, M.RequestTypeID,C02.Description as RequestTypeName
-, M.BugTypeID
-, stuff(isnull((Select ', ' + B.Description From CRMT0099 B WITH (NOLOCK) 
- where B.CodeMaster ='CRMT00000026'and B.ID in (Replace(M.BugTypeID,',',''','''))
- Group by B.Description
- FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as BugTypeName
-From CRMT20801 M With (Nolock)
-Left join AT1103 A With (Nolock) On A.EmployeeID = M.AssignedToUserID
-Left join CRMT0099 C01 With (Nolock) On C01.ID = M.RequestStatus  and C01.CodeMaster ='CRMT00000003' 
-Left join CRMT0099 C02 With (Nolock) On C02.ID = M.RequestTypeID  and C02.CodeMaster ='CRMT00000025' 
-Where M.APK = @APK 
-</t>
-  </si>
-  <si>
-    <t>Insert Into CRMT20801 
-(APK, DivisionID, RequestSubject
-, PriorityID, RequestStatus, DeleteFlg
-, TimeRequest, DeadlineRequest, AssignedToUserID
-, RequestDescription, FeedbackDescription, RelatedToTypeID
-, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID, RequestTypeID, BugTypeID, DeadlineExpect, CompleteDate, DurationTime, RealTime, ProjectID, DeadlineRequest)
-Values 
-(@APK, @DivisionID, @RequestSubject
-, @PriorityID, @RequestStatus, @DeleteFlg
-, @TimeRequest, @DeadlineRequest, @AssignedToUserID
-, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
-, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @DeadlineRequest, @RealTime, @ProjectID)</t>
   </si>
   <si>
     <t>Update CRMT20801 
@@ -2737,6 +2688,82 @@
   </si>
   <si>
     <t>Thời gian ghi nhận</t>
+  </si>
+  <si>
+    <t>Biến môi trường</t>
+  </si>
+  <si>
+    <t>Load combo [Dự án]</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select A.AnaID as [ProjectID], A.AnaName as [ProjectName]
+from AT1015 A
+left join CRMT00000 C with(NOLOCK) ON A.AnaTypeID = C.ProjectID
+where C.DivisionID = @DivisionID
+</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL015 load combo [Dự án]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customizeindex  </t>
+  </si>
+  <si>
+    <t>Customizeindex : 92</t>
+  </si>
+  <si>
+    <t>Insert Into CRMT20801 
+(APK, DivisionID, RequestSubject
+, PriorityID, RequestStatus, DeleteFlg
+, TimeRequest, DeadlineRequest, AssignedToUserID
+, RequestDescription, FeedbackDescription, RelatedToTypeID
+, CreateDate, CreateUserID, LastModifyDate, LastModifyUserID, RequestTypeID, BugTypeID, DeadlineExpect, CompleteDate, DurationTime, RealTime, ProjectID, DeadlineRequest, ProjectID)
+Values 
+(@APK, @DivisionID, @RequestSubject
+, @PriorityID, @RequestStatus, @DeleteFlg
+, @TimeRequest, @DeadlineRequest, @AssignedToUserID
+, @RequestDescription, @FeedbackDescription, @RelatedToTypeID
+, @CreateDate, @CreateUserID, @LastModifyDate, @LastModifyUserID, @RequestTypeID, @BugTypeID, @DeadlineExpect, @CompleteDate, @DurationTime, @DeadlineRequest, @RealTime, @ProjectID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select 
+M.APK, M.DivisionID, M.RequestID, M.RequestSubject, M.RelatedToTypeID
+, M.PriorityID,  M.RequestStatus, C01.Description as RequestStatusName
+, M.TimeRequest, M.DeadlineRequest, M.AssignedToUserID, A.FullName as AssignedToUserName
+, M.RequestDescription, M.FeedbackDescription
+, stuff(isnull((Select ', ' +  D.AccountID From CRMT10101 B WITH (NOLOCK) 
+      Left join CRMT20801_CRMT10101_REL D WITH (NOLOCK)  ON D.AccountID = B.APK 
+      where D.RequestID = M.RequestID
+      Group by D.AccountID
+      FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as APKAccountID
+, stuff(isnull((Select ', ' +  B.AccountID From CRMT10101 B WITH (NOLOCK) 
+      Left join CRMT20801_CRMT10101_REL D WITH (NOLOCK)  ON D.AccountID = B.APK 
+      where D.RequestID = M.RequestID
+      Group by B.AccountID
+      FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as AccountID
+, stuff(isnull((Select ', ' + B.AccountName From CRMT10101 B WITH (NOLOCK) 
+ Left join CRMT20801_CRMT10101_REL D WITH (NOLOCK)  ON D.AccountID = B.APK 
+ where D.RequestID = M.RequestID
+ Group by B.AccountID, B.AccountName
+ FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as AccountName
+, M.CreateDate, M.LastModifyDate, M.DeadlineExpect,M.DeadlineRequest,  M.CompleteDate, M.DurationTime, M.RealTime
+, M.RequestTypeID,C02.Description as RequestTypeName
+, M.BugTypeID
+, stuff(isnull((Select ', ' + B.Description From CRMT0099 B WITH (NOLOCK) 
+ where B.CodeMaster ='CRMT00000026'and B.ID in (Replace(M.BugTypeID,',',''','''))
+ Group by B.Description
+ FOR XML PATH (''), TYPE).value('.','NVARCHAR(max)'), ''), 1, 2, '') as BugTypeName
+ , M.ProjectID, A1.AnaName
+From CRMT20801 M With (Nolock)
+Left join AT1103 A With (Nolock) On A.EmployeeID = M.AssignedToUserID
+Left join CRMT0099 C01 With (Nolock) On C01.ID = M.RequestStatus  and C01.CodeMaster ='CRMT00000003' 
+Left join CRMT0099 C02 With (Nolock) On C02.ID = M.RequestTypeID  and C02.CodeMaster ='CRMT00000025' 
+Left join AT1015 A1 With (Nolock) on M.ProjectID = A1.AnaID 
+Where M.APK = @APK 
+</t>
   </si>
 </sst>
 </file>
@@ -3260,7 +3287,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3702,12 +3729,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3770,75 +3791,168 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3848,15 +3962,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3959,26 +4064,80 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3989,63 +4148,6 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4058,6 +4160,15 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4069,69 +4180,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4258,18 +4306,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1044096</xdr:colOff>
+      <xdr:colOff>1206778</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4289,8 +4337,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="619125"/>
-          <a:ext cx="7921146" cy="4791075"/>
+          <a:off x="0" y="581025"/>
+          <a:ext cx="8083828" cy="4886325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4314,17 +4362,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1024694</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>1138475</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4344,8 +4392,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="5400676"/>
-          <a:ext cx="7901744" cy="4876800"/>
+          <a:off x="0" y="5467350"/>
+          <a:ext cx="8015525" cy="4914900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4373,13 +4421,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>179798</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>336394</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>43582</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4389,8 +4437,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="179798" y="4019370"/>
-          <a:ext cx="10822799" cy="1829070"/>
+          <a:off x="179798" y="4172130"/>
+          <a:ext cx="11038459" cy="1829070"/>
           <a:chOff x="438150" y="3962400"/>
           <a:chExt cx="10834112" cy="1824757"/>
         </a:xfrm>
@@ -5696,13 +5744,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>73532</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>63525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>377210</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>32106</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5712,8 +5760,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="73532" y="10451167"/>
-          <a:ext cx="10358843" cy="1648934"/>
+          <a:off x="73532" y="10603926"/>
+          <a:ext cx="10574503" cy="1648935"/>
           <a:chOff x="-1215917" y="11197103"/>
           <a:chExt cx="10393471" cy="1623444"/>
         </a:xfrm>
@@ -7496,13 +7544,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>771137</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>16970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>460335</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>107036</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7548,13 +7596,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>116897</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>146470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>273493</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>142426</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7564,8 +7612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="116897" y="5951328"/>
-          <a:ext cx="10822799" cy="1829070"/>
+          <a:off x="116897" y="6104088"/>
+          <a:ext cx="11038459" cy="1829069"/>
           <a:chOff x="438150" y="3962400"/>
           <a:chExt cx="10834112" cy="1824757"/>
         </a:xfrm>
@@ -8836,13 +8884,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>51663</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>92553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>246535</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>52567</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8852,8 +8900,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="51663" y="8036044"/>
-          <a:ext cx="12083150" cy="1793127"/>
+          <a:off x="51663" y="8188803"/>
+          <a:ext cx="12298811" cy="1793127"/>
           <a:chOff x="-823518" y="3953435"/>
           <a:chExt cx="12095780" cy="1788899"/>
         </a:xfrm>
@@ -10380,13 +10428,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>829815</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>70885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>370475</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>142980</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10432,13 +10480,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>889599</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>143772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>438943</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>14214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10497,13 +10545,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>530165</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>134788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>383553</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>144273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10618,13 +10666,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1045432</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>70885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>370476</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>144273</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10670,13 +10718,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66970</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>36568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>485040</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>59063</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10686,8 +10734,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="66970" y="13021120"/>
-          <a:ext cx="12917386" cy="1550089"/>
+          <a:off x="66970" y="13173879"/>
+          <a:ext cx="13133046" cy="1550090"/>
           <a:chOff x="-3783013" y="11294420"/>
           <a:chExt cx="12960567" cy="1526127"/>
         </a:xfrm>
@@ -12505,13 +12553,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>611038</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>98845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>686971</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>128550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12563,13 +12611,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>686971</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>113199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>929611</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>113698</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12613,13 +12661,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>629010</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>125803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>964009</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>140347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12676,13 +12724,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>929611</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>108456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>782999</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>117941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12797,13 +12845,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>709883</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>62901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1044882</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>77446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12860,13 +12908,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>267732</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>23540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>368313</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>117941</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12912,13 +12960,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190726</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>23540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>368313</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>128550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12964,13 +13012,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>317634</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>69514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>759170</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>124516</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13027,13 +13075,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>431320</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>69514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>872856</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>124516</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13878,65 +13926,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="210"/>
-      <c r="B1" s="210"/>
-      <c r="C1" s="212" t="s">
+      <c r="A1" s="221"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="223" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="211" t="s">
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="222" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211" t="s">
+      <c r="H1" s="222"/>
+      <c r="I1" s="222" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="211"/>
+      <c r="J1" s="222"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="210"/>
-      <c r="B2" s="210"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="211" t="s">
+      <c r="A2" s="221"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="222" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="210"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="207" t="s">
+      <c r="A3" s="221"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="218" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="208"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="208"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="219"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="93"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="209"/>
-      <c r="B13" s="209"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
+      <c r="A13" s="220"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
       <c r="M13" s="94"/>
@@ -13947,56 +13995,56 @@
       <c r="R13" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="203"/>
-      <c r="O14" s="203"/>
-      <c r="P14" s="203"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="203"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="216"/>
+      <c r="M14" s="216"/>
+      <c r="N14" s="216"/>
+      <c r="O14" s="216"/>
+      <c r="P14" s="216"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="216"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="203"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="203"/>
-      <c r="L15" s="203"/>
-      <c r="M15" s="203"/>
-      <c r="N15" s="203"/>
-      <c r="O15" s="203"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="203"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="216"/>
+      <c r="L15" s="216"/>
+      <c r="M15" s="216"/>
+      <c r="N15" s="216"/>
+      <c r="O15" s="216"/>
+      <c r="P15" s="216"/>
+      <c r="Q15" s="216"/>
+      <c r="R15" s="216"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="206" t="s">
+      <c r="A16" s="217" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="206"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="217"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="217"/>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
       <c r="M16" s="95"/>
@@ -14007,384 +14055,384 @@
       <c r="R16" s="95"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="203"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="203"/>
-      <c r="P17" s="203"/>
-      <c r="Q17" s="203"/>
-      <c r="R17" s="203"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="216"/>
+      <c r="M17" s="216"/>
+      <c r="N17" s="216"/>
+      <c r="O17" s="216"/>
+      <c r="P17" s="216"/>
+      <c r="Q17" s="216"/>
+      <c r="R17" s="216"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="203"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="203"/>
-      <c r="O18" s="203"/>
-      <c r="P18" s="203"/>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="203"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="216"/>
+      <c r="L18" s="216"/>
+      <c r="M18" s="216"/>
+      <c r="N18" s="216"/>
+      <c r="O18" s="216"/>
+      <c r="P18" s="216"/>
+      <c r="Q18" s="216"/>
+      <c r="R18" s="216"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="205"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="205"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="233"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="203"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="203"/>
-      <c r="O20" s="203"/>
-      <c r="P20" s="203"/>
-      <c r="Q20" s="203"/>
-      <c r="R20" s="203"/>
+      <c r="B20" s="216"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="216"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="216"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="216"/>
+      <c r="N20" s="216"/>
+      <c r="O20" s="216"/>
+      <c r="P20" s="216"/>
+      <c r="Q20" s="216"/>
+      <c r="R20" s="216"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="203"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="203"/>
-      <c r="O21" s="203"/>
-      <c r="P21" s="203"/>
-      <c r="Q21" s="203"/>
-      <c r="R21" s="203"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="216"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="216"/>
+      <c r="N21" s="216"/>
+      <c r="O21" s="216"/>
+      <c r="P21" s="216"/>
+      <c r="Q21" s="216"/>
+      <c r="R21" s="216"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="204"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="204"/>
-      <c r="P22" s="204"/>
-      <c r="Q22" s="204"/>
-      <c r="R22" s="204"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="232"/>
+      <c r="O22" s="232"/>
+      <c r="P22" s="232"/>
+      <c r="Q22" s="232"/>
+      <c r="R22" s="232"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="204"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="204"/>
-      <c r="Q23" s="204"/>
-      <c r="R23" s="204"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="232"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="232"/>
+      <c r="O23" s="232"/>
+      <c r="P23" s="232"/>
+      <c r="Q23" s="232"/>
+      <c r="R23" s="232"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="201"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="201"/>
-      <c r="O26" s="201"/>
-      <c r="P26" s="201"/>
-      <c r="Q26" s="201"/>
-      <c r="R26" s="201"/>
+      <c r="B26" s="234"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="234"/>
+      <c r="O26" s="234"/>
+      <c r="P26" s="234"/>
+      <c r="Q26" s="234"/>
+      <c r="R26" s="234"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="202"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="202"/>
-      <c r="P28" s="202"/>
-      <c r="Q28" s="202"/>
-      <c r="R28" s="202"/>
-      <c r="S28" s="200"/>
-      <c r="T28" s="200"/>
-      <c r="U28" s="200"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
-      <c r="X28" s="200"/>
-      <c r="Y28" s="200"/>
-      <c r="Z28" s="200"/>
-      <c r="AA28" s="200"/>
-      <c r="AB28" s="200"/>
-      <c r="AC28" s="200"/>
-      <c r="AD28" s="200"/>
-      <c r="AE28" s="200"/>
-      <c r="AF28" s="200"/>
-      <c r="AG28" s="200"/>
-      <c r="AH28" s="200"/>
-      <c r="AI28" s="200"/>
-      <c r="AJ28" s="200"/>
-      <c r="AK28" s="200"/>
-      <c r="AL28" s="200"/>
-      <c r="AM28" s="200"/>
-      <c r="AN28" s="200"/>
-      <c r="AO28" s="200"/>
-      <c r="AP28" s="200"/>
-      <c r="AQ28" s="200"/>
-      <c r="AR28" s="200"/>
-      <c r="AS28" s="200"/>
-      <c r="AT28" s="200"/>
-      <c r="AU28" s="200"/>
-      <c r="AV28" s="200"/>
-      <c r="AW28" s="200"/>
-      <c r="AX28" s="200"/>
-      <c r="AY28" s="200"/>
-      <c r="AZ28" s="200"/>
-      <c r="BA28" s="200"/>
-      <c r="BB28" s="200"/>
-      <c r="BC28" s="200"/>
-      <c r="BD28" s="200"/>
-      <c r="BE28" s="200"/>
-      <c r="BF28" s="200"/>
-      <c r="BG28" s="200"/>
-      <c r="BH28" s="200"/>
-      <c r="BI28" s="200"/>
-      <c r="BJ28" s="200"/>
-      <c r="BK28" s="200"/>
-      <c r="BL28" s="200"/>
-      <c r="BM28" s="200"/>
-      <c r="BN28" s="200"/>
-      <c r="BO28" s="200"/>
-      <c r="BP28" s="200"/>
-      <c r="BQ28" s="200"/>
-      <c r="BR28" s="200"/>
-      <c r="BS28" s="200"/>
-      <c r="BT28" s="200"/>
-      <c r="BU28" s="200"/>
-      <c r="BV28" s="200"/>
-      <c r="BW28" s="200"/>
-      <c r="BX28" s="200"/>
-      <c r="BY28" s="200"/>
-      <c r="BZ28" s="200"/>
-      <c r="CA28" s="200"/>
-      <c r="CB28" s="200"/>
-      <c r="CC28" s="200"/>
-      <c r="CD28" s="200"/>
-      <c r="CE28" s="200"/>
-      <c r="CF28" s="200"/>
-      <c r="CG28" s="200"/>
-      <c r="CH28" s="200"/>
-      <c r="CI28" s="200"/>
-      <c r="CJ28" s="200"/>
-      <c r="CK28" s="200"/>
-      <c r="CL28" s="200"/>
-      <c r="CM28" s="200"/>
-      <c r="CN28" s="200"/>
-      <c r="CO28" s="200"/>
-      <c r="CP28" s="200"/>
-      <c r="CQ28" s="200"/>
-      <c r="CR28" s="200"/>
-      <c r="CS28" s="200"/>
-      <c r="CT28" s="200"/>
-      <c r="CU28" s="200"/>
-      <c r="CV28" s="200"/>
-      <c r="CW28" s="200"/>
-      <c r="CX28" s="200"/>
-      <c r="CY28" s="200"/>
-      <c r="CZ28" s="200"/>
-      <c r="DA28" s="200"/>
-      <c r="DB28" s="200"/>
-      <c r="DC28" s="200"/>
-      <c r="DD28" s="200"/>
-      <c r="DE28" s="200"/>
-      <c r="DF28" s="200"/>
-      <c r="DG28" s="200"/>
-      <c r="DH28" s="200"/>
-      <c r="DI28" s="200"/>
-      <c r="DJ28" s="200"/>
-      <c r="DK28" s="200"/>
-      <c r="DL28" s="200"/>
-      <c r="DM28" s="200"/>
-      <c r="DN28" s="200"/>
-      <c r="DO28" s="200"/>
-      <c r="DP28" s="200"/>
-      <c r="DQ28" s="200"/>
-      <c r="DR28" s="200"/>
-      <c r="DS28" s="200"/>
-      <c r="DT28" s="200"/>
-      <c r="DU28" s="200"/>
-      <c r="DV28" s="200"/>
-      <c r="DW28" s="200"/>
-      <c r="DX28" s="200"/>
-      <c r="DY28" s="200"/>
-      <c r="DZ28" s="200"/>
-      <c r="EA28" s="200"/>
-      <c r="EB28" s="200"/>
-      <c r="EC28" s="200"/>
-      <c r="ED28" s="200"/>
-      <c r="EE28" s="200"/>
-      <c r="EF28" s="200"/>
-      <c r="EG28" s="200"/>
-      <c r="EH28" s="200"/>
-      <c r="EI28" s="200"/>
-      <c r="EJ28" s="200"/>
-      <c r="EK28" s="200"/>
-      <c r="EL28" s="200"/>
-      <c r="EM28" s="200"/>
-      <c r="EN28" s="200"/>
-      <c r="EO28" s="200"/>
-      <c r="EP28" s="200"/>
-      <c r="EQ28" s="200"/>
-      <c r="ER28" s="200"/>
-      <c r="ES28" s="200"/>
-      <c r="ET28" s="200"/>
-      <c r="EU28" s="200"/>
-      <c r="EV28" s="200"/>
-      <c r="EW28" s="200"/>
-      <c r="EX28" s="200"/>
-      <c r="EY28" s="200"/>
-      <c r="EZ28" s="200"/>
-      <c r="FA28" s="200"/>
-      <c r="FB28" s="200"/>
-      <c r="FC28" s="200"/>
-      <c r="FD28" s="200"/>
-      <c r="FE28" s="200"/>
-      <c r="FF28" s="200"/>
-      <c r="FG28" s="200"/>
-      <c r="FH28" s="200"/>
-      <c r="FI28" s="200"/>
-      <c r="FJ28" s="200"/>
-      <c r="FK28" s="200"/>
-      <c r="FL28" s="200"/>
-      <c r="FM28" s="200"/>
-      <c r="FN28" s="200"/>
-      <c r="FO28" s="200"/>
-      <c r="FP28" s="200"/>
-      <c r="FQ28" s="200"/>
-      <c r="FR28" s="200"/>
-      <c r="FS28" s="200"/>
-      <c r="FT28" s="200"/>
-      <c r="FU28" s="200"/>
-      <c r="FV28" s="200"/>
-      <c r="FW28" s="200"/>
-      <c r="FX28" s="200"/>
-      <c r="FY28" s="200"/>
-      <c r="FZ28" s="200"/>
-      <c r="GA28" s="200"/>
-      <c r="GB28" s="200"/>
-      <c r="GC28" s="200"/>
-      <c r="GD28" s="200"/>
-      <c r="GE28" s="200"/>
-      <c r="GF28" s="200"/>
-      <c r="GG28" s="200"/>
-      <c r="GH28" s="200"/>
-      <c r="GI28" s="200"/>
-      <c r="GJ28" s="200"/>
-      <c r="GK28" s="200"/>
-      <c r="GL28" s="200"/>
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="236"/>
+      <c r="F28" s="236"/>
+      <c r="G28" s="236"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="236"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="236"/>
+      <c r="L28" s="236"/>
+      <c r="M28" s="236"/>
+      <c r="N28" s="236"/>
+      <c r="O28" s="236"/>
+      <c r="P28" s="236"/>
+      <c r="Q28" s="236"/>
+      <c r="R28" s="236"/>
+      <c r="S28" s="235"/>
+      <c r="T28" s="235"/>
+      <c r="U28" s="235"/>
+      <c r="V28" s="235"/>
+      <c r="W28" s="235"/>
+      <c r="X28" s="235"/>
+      <c r="Y28" s="235"/>
+      <c r="Z28" s="235"/>
+      <c r="AA28" s="235"/>
+      <c r="AB28" s="235"/>
+      <c r="AC28" s="235"/>
+      <c r="AD28" s="235"/>
+      <c r="AE28" s="235"/>
+      <c r="AF28" s="235"/>
+      <c r="AG28" s="235"/>
+      <c r="AH28" s="235"/>
+      <c r="AI28" s="235"/>
+      <c r="AJ28" s="235"/>
+      <c r="AK28" s="235"/>
+      <c r="AL28" s="235"/>
+      <c r="AM28" s="235"/>
+      <c r="AN28" s="235"/>
+      <c r="AO28" s="235"/>
+      <c r="AP28" s="235"/>
+      <c r="AQ28" s="235"/>
+      <c r="AR28" s="235"/>
+      <c r="AS28" s="235"/>
+      <c r="AT28" s="235"/>
+      <c r="AU28" s="235"/>
+      <c r="AV28" s="235"/>
+      <c r="AW28" s="235"/>
+      <c r="AX28" s="235"/>
+      <c r="AY28" s="235"/>
+      <c r="AZ28" s="235"/>
+      <c r="BA28" s="235"/>
+      <c r="BB28" s="235"/>
+      <c r="BC28" s="235"/>
+      <c r="BD28" s="235"/>
+      <c r="BE28" s="235"/>
+      <c r="BF28" s="235"/>
+      <c r="BG28" s="235"/>
+      <c r="BH28" s="235"/>
+      <c r="BI28" s="235"/>
+      <c r="BJ28" s="235"/>
+      <c r="BK28" s="235"/>
+      <c r="BL28" s="235"/>
+      <c r="BM28" s="235"/>
+      <c r="BN28" s="235"/>
+      <c r="BO28" s="235"/>
+      <c r="BP28" s="235"/>
+      <c r="BQ28" s="235"/>
+      <c r="BR28" s="235"/>
+      <c r="BS28" s="235"/>
+      <c r="BT28" s="235"/>
+      <c r="BU28" s="235"/>
+      <c r="BV28" s="235"/>
+      <c r="BW28" s="235"/>
+      <c r="BX28" s="235"/>
+      <c r="BY28" s="235"/>
+      <c r="BZ28" s="235"/>
+      <c r="CA28" s="235"/>
+      <c r="CB28" s="235"/>
+      <c r="CC28" s="235"/>
+      <c r="CD28" s="235"/>
+      <c r="CE28" s="235"/>
+      <c r="CF28" s="235"/>
+      <c r="CG28" s="235"/>
+      <c r="CH28" s="235"/>
+      <c r="CI28" s="235"/>
+      <c r="CJ28" s="235"/>
+      <c r="CK28" s="235"/>
+      <c r="CL28" s="235"/>
+      <c r="CM28" s="235"/>
+      <c r="CN28" s="235"/>
+      <c r="CO28" s="235"/>
+      <c r="CP28" s="235"/>
+      <c r="CQ28" s="235"/>
+      <c r="CR28" s="235"/>
+      <c r="CS28" s="235"/>
+      <c r="CT28" s="235"/>
+      <c r="CU28" s="235"/>
+      <c r="CV28" s="235"/>
+      <c r="CW28" s="235"/>
+      <c r="CX28" s="235"/>
+      <c r="CY28" s="235"/>
+      <c r="CZ28" s="235"/>
+      <c r="DA28" s="235"/>
+      <c r="DB28" s="235"/>
+      <c r="DC28" s="235"/>
+      <c r="DD28" s="235"/>
+      <c r="DE28" s="235"/>
+      <c r="DF28" s="235"/>
+      <c r="DG28" s="235"/>
+      <c r="DH28" s="235"/>
+      <c r="DI28" s="235"/>
+      <c r="DJ28" s="235"/>
+      <c r="DK28" s="235"/>
+      <c r="DL28" s="235"/>
+      <c r="DM28" s="235"/>
+      <c r="DN28" s="235"/>
+      <c r="DO28" s="235"/>
+      <c r="DP28" s="235"/>
+      <c r="DQ28" s="235"/>
+      <c r="DR28" s="235"/>
+      <c r="DS28" s="235"/>
+      <c r="DT28" s="235"/>
+      <c r="DU28" s="235"/>
+      <c r="DV28" s="235"/>
+      <c r="DW28" s="235"/>
+      <c r="DX28" s="235"/>
+      <c r="DY28" s="235"/>
+      <c r="DZ28" s="235"/>
+      <c r="EA28" s="235"/>
+      <c r="EB28" s="235"/>
+      <c r="EC28" s="235"/>
+      <c r="ED28" s="235"/>
+      <c r="EE28" s="235"/>
+      <c r="EF28" s="235"/>
+      <c r="EG28" s="235"/>
+      <c r="EH28" s="235"/>
+      <c r="EI28" s="235"/>
+      <c r="EJ28" s="235"/>
+      <c r="EK28" s="235"/>
+      <c r="EL28" s="235"/>
+      <c r="EM28" s="235"/>
+      <c r="EN28" s="235"/>
+      <c r="EO28" s="235"/>
+      <c r="EP28" s="235"/>
+      <c r="EQ28" s="235"/>
+      <c r="ER28" s="235"/>
+      <c r="ES28" s="235"/>
+      <c r="ET28" s="235"/>
+      <c r="EU28" s="235"/>
+      <c r="EV28" s="235"/>
+      <c r="EW28" s="235"/>
+      <c r="EX28" s="235"/>
+      <c r="EY28" s="235"/>
+      <c r="EZ28" s="235"/>
+      <c r="FA28" s="235"/>
+      <c r="FB28" s="235"/>
+      <c r="FC28" s="235"/>
+      <c r="FD28" s="235"/>
+      <c r="FE28" s="235"/>
+      <c r="FF28" s="235"/>
+      <c r="FG28" s="235"/>
+      <c r="FH28" s="235"/>
+      <c r="FI28" s="235"/>
+      <c r="FJ28" s="235"/>
+      <c r="FK28" s="235"/>
+      <c r="FL28" s="235"/>
+      <c r="FM28" s="235"/>
+      <c r="FN28" s="235"/>
+      <c r="FO28" s="235"/>
+      <c r="FP28" s="235"/>
+      <c r="FQ28" s="235"/>
+      <c r="FR28" s="235"/>
+      <c r="FS28" s="235"/>
+      <c r="FT28" s="235"/>
+      <c r="FU28" s="235"/>
+      <c r="FV28" s="235"/>
+      <c r="FW28" s="235"/>
+      <c r="FX28" s="235"/>
+      <c r="FY28" s="235"/>
+      <c r="FZ28" s="235"/>
+      <c r="GA28" s="235"/>
+      <c r="GB28" s="235"/>
+      <c r="GC28" s="235"/>
+      <c r="GD28" s="235"/>
+      <c r="GE28" s="235"/>
+      <c r="GF28" s="235"/>
+      <c r="GG28" s="235"/>
+      <c r="GH28" s="235"/>
+      <c r="GI28" s="235"/>
+      <c r="GJ28" s="235"/>
+      <c r="GK28" s="235"/>
+      <c r="GL28" s="235"/>
       <c r="GM28" s="96"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="201"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="201"/>
-      <c r="M29" s="201"/>
-      <c r="N29" s="201"/>
-      <c r="O29" s="201"/>
-      <c r="P29" s="201"/>
-      <c r="Q29" s="201"/>
-      <c r="R29" s="201"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="234"/>
+      <c r="H29" s="234"/>
+      <c r="I29" s="234"/>
+      <c r="J29" s="234"/>
+      <c r="K29" s="234"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
+      <c r="N29" s="234"/>
+      <c r="O29" s="234"/>
+      <c r="P29" s="234"/>
+      <c r="Q29" s="234"/>
+      <c r="R29" s="234"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="199"/>
-      <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="199"/>
+      <c r="A30" s="237"/>
+      <c r="B30" s="237"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="237"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="237"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="97"/>
       <c r="L30" s="97"/>
       <c r="M30" s="97"/>
@@ -14395,16 +14443,16 @@
       <c r="R30" s="97"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="199"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="199"/>
+      <c r="A31" s="237"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="237"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="237"/>
+      <c r="I31" s="237"/>
+      <c r="J31" s="237"/>
       <c r="K31" s="97"/>
       <c r="L31" s="97"/>
       <c r="M31" s="97"/>
@@ -14416,6 +14464,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -14429,28 +14499,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -14477,14 +14525,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="295" t="s">
+      <c r="B1" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -14677,11 +14725,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="296" t="s">
+      <c r="E27" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="297"/>
-      <c r="G27" s="298"/>
+      <c r="F27" s="327"/>
+      <c r="G27" s="328"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -14989,7 +15037,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -15005,10 +15053,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="225"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15035,8 +15083,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="225"/>
-      <c r="B2" s="225"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15075,14 +15123,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="226" t="s">
+      <c r="E4" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="226"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="103">
@@ -15097,100 +15145,102 @@
       <c r="D5" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="227" t="s">
+      <c r="E5" s="240" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="240"/>
+      <c r="J5" s="240"/>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" ht="12.75">
-      <c r="A6" s="307">
+      <c r="A6" s="201">
         <v>2</v>
       </c>
-      <c r="B6" s="308">
+      <c r="B6" s="202">
         <v>2</v>
       </c>
-      <c r="C6" s="309" t="s">
+      <c r="C6" s="203" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="309">
+      <c r="D6" s="203">
         <v>42877</v>
       </c>
-      <c r="E6" s="310" t="s">
+      <c r="E6" s="241" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="311"/>
-      <c r="G6" s="311"/>
-      <c r="H6" s="311"/>
-      <c r="I6" s="311"/>
-      <c r="J6" s="312"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="243"/>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A7" s="313">
+      <c r="A7" s="204">
         <v>3</v>
       </c>
-      <c r="B7" s="314">
+      <c r="B7" s="205">
         <v>3</v>
       </c>
-      <c r="C7" s="315" t="s">
+      <c r="C7" s="206" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="315">
+      <c r="D7" s="206">
         <v>42881</v>
       </c>
-      <c r="E7" s="316" t="s">
+      <c r="E7" s="245" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="317"/>
-      <c r="G7" s="317"/>
-      <c r="H7" s="317"/>
-      <c r="I7" s="317"/>
-      <c r="J7" s="318"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="246"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="247"/>
     </row>
     <row r="8" spans="1:10" s="25" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A8" s="303">
+      <c r="A8" s="199">
         <v>4</v>
       </c>
-      <c r="B8" s="304" t="s">
+      <c r="B8" s="200" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="303" t="s">
+      <c r="C8" s="199" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="303" t="s">
+      <c r="D8" s="199" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="305" t="s">
+      <c r="E8" s="248" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="306"/>
-      <c r="G8" s="306"/>
-      <c r="H8" s="306"/>
-      <c r="I8" s="306"/>
-      <c r="J8" s="306"/>
-    </row>
-    <row r="9" spans="1:10" s="190" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A9" s="299">
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="249"/>
+    </row>
+    <row r="9" spans="1:10" s="188" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A9" s="197">
         <v>5</v>
       </c>
-      <c r="B9" s="300">
+      <c r="B9" s="198">
         <v>5</v>
       </c>
-      <c r="C9" s="299" t="s">
+      <c r="C9" s="197" t="s">
         <v>310</v>
       </c>
-      <c r="D9" s="188"/>
-      <c r="E9" s="288" t="s">
+      <c r="D9" s="208">
+        <v>43314</v>
+      </c>
+      <c r="E9" s="250" t="s">
         <v>347</v>
       </c>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="301"/>
-      <c r="J9" s="302"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="252"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="75">
@@ -15201,12 +15251,12 @@
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="255"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="76">
@@ -15217,12 +15267,12 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="254"/>
+      <c r="J11" s="255"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="77">
@@ -15233,12 +15283,12 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="224"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="255"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="78">
@@ -15249,12 +15299,12 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="224"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="255"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="79">
@@ -15265,12 +15315,12 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="224"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="255"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -15281,12 +15331,12 @@
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="71">
@@ -15297,12 +15347,12 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="244"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="72">
@@ -15313,12 +15363,12 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="221"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="244"/>
+      <c r="J17" s="244"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="73">
@@ -15329,12 +15379,12 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="244"/>
+      <c r="J18" s="244"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="74">
@@ -15345,12 +15395,12 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="221"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="244"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="75">
@@ -15361,12 +15411,12 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="244"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="76">
@@ -15377,12 +15427,12 @@
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
+      <c r="J21" s="244"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="77">
@@ -15393,12 +15443,12 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="221"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="221"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="244"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="244"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="78">
@@ -15409,12 +15459,12 @@
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="244"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="79">
@@ -15425,12 +15475,12 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="244"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -15441,12 +15491,12 @@
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="244"/>
+      <c r="J25" s="244"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="71">
@@ -15457,12 +15507,12 @@
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="244"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="72">
@@ -15473,12 +15523,12 @@
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="244"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="73">
@@ -15489,12 +15539,12 @@
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="244"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="74">
@@ -15505,12 +15555,12 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="221"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="221"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="221"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244"/>
+      <c r="J29" s="244"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="75">
@@ -15521,12 +15571,12 @@
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="221"/>
-      <c r="F30" s="221"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="221"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="244"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="76">
@@ -15537,12 +15587,12 @@
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="244"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="77">
@@ -15553,12 +15603,12 @@
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="221"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="244"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="78">
@@ -15569,12 +15619,12 @@
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="221"/>
-      <c r="F33" s="221"/>
-      <c r="G33" s="221"/>
-      <c r="H33" s="221"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="221"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="244"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="79">
@@ -15585,26 +15635,20 @@
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="244"/>
+      <c r="J34" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -15621,11 +15665,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -15650,8 +15700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -15670,10 +15720,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="225"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -15704,8 +15754,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="225"/>
-      <c r="B2" s="225"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -15736,20 +15786,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="228" t="s">
+      <c r="B4" s="258"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="229"/>
+      <c r="J4" s="257"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -15760,10 +15810,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="235" t="s">
+      <c r="I5" s="263" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="236"/>
+      <c r="J5" s="264"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -15774,8 +15824,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="238"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="266"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -15786,8 +15836,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="266"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -15798,8 +15848,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="237"/>
-      <c r="J8" s="238"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="266"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -15810,8 +15860,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="237"/>
-      <c r="J9" s="238"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="266"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -15822,8 +15872,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="240"/>
+      <c r="I10" s="267"/>
+      <c r="J10" s="268"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -15834,10 +15884,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="228" t="s">
+      <c r="I11" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="229"/>
+      <c r="J11" s="257"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -15848,10 +15898,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="231" t="s">
+      <c r="I12" s="259" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="232"/>
+      <c r="J12" s="260"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -15862,8 +15912,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="234"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="262"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -15874,8 +15924,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="233"/>
-      <c r="J14" s="234"/>
+      <c r="I14" s="261"/>
+      <c r="J14" s="262"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -15886,8 +15936,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="234"/>
+      <c r="I15" s="261"/>
+      <c r="J15" s="262"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -15898,8 +15948,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="234"/>
+      <c r="I16" s="261"/>
+      <c r="J16" s="262"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -15910,8 +15960,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="234"/>
+      <c r="I17" s="261"/>
+      <c r="J17" s="262"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -15922,8 +15972,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="234"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="262"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -15934,8 +15984,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="234"/>
+      <c r="I19" s="261"/>
+      <c r="J19" s="262"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -15946,8 +15996,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="234"/>
+      <c r="I20" s="261"/>
+      <c r="J20" s="262"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -15958,8 +16008,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="234"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="262"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -15970,8 +16020,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="234"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="262"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -15982,8 +16032,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="234"/>
+      <c r="I23" s="261"/>
+      <c r="J23" s="262"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -15994,8 +16044,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="234"/>
+      <c r="I24" s="261"/>
+      <c r="J24" s="262"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -16006,8 +16056,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="234"/>
+      <c r="I25" s="261"/>
+      <c r="J25" s="262"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -16018,8 +16068,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="234"/>
+      <c r="I26" s="261"/>
+      <c r="J26" s="262"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -16030,8 +16080,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="234"/>
+      <c r="I27" s="261"/>
+      <c r="J27" s="262"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -16042,8 +16092,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="233"/>
-      <c r="J28" s="234"/>
+      <c r="I28" s="261"/>
+      <c r="J28" s="262"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -16054,8 +16104,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="233"/>
-      <c r="J29" s="234"/>
+      <c r="I29" s="261"/>
+      <c r="J29" s="262"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -16066,8 +16116,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="233"/>
-      <c r="J30" s="234"/>
+      <c r="I30" s="261"/>
+      <c r="J30" s="262"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -16078,8 +16128,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="233"/>
-      <c r="J31" s="234"/>
+      <c r="I31" s="261"/>
+      <c r="J31" s="262"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -16090,8 +16140,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="233"/>
-      <c r="J32" s="234"/>
+      <c r="I32" s="261"/>
+      <c r="J32" s="262"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -16102,8 +16152,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="233"/>
-      <c r="J33" s="234"/>
+      <c r="I33" s="261"/>
+      <c r="J33" s="262"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -16114,8 +16164,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="233"/>
-      <c r="J34" s="234"/>
+      <c r="I34" s="261"/>
+      <c r="J34" s="262"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -16126,8 +16176,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="234"/>
+      <c r="I35" s="261"/>
+      <c r="J35" s="262"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -16138,8 +16188,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="233"/>
-      <c r="J36" s="234"/>
+      <c r="I36" s="261"/>
+      <c r="J36" s="262"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -16150,8 +16200,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="233"/>
-      <c r="J37" s="234"/>
+      <c r="I37" s="261"/>
+      <c r="J37" s="262"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -16162,8 +16212,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="234"/>
+      <c r="I38" s="261"/>
+      <c r="J38" s="262"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -16174,8 +16224,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="233"/>
-      <c r="J39" s="234"/>
+      <c r="I39" s="261"/>
+      <c r="J39" s="262"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -16186,8 +16236,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="233"/>
-      <c r="J40" s="234"/>
+      <c r="I40" s="261"/>
+      <c r="J40" s="262"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -16198,8 +16248,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="233"/>
-      <c r="J41" s="234"/>
+      <c r="I41" s="261"/>
+      <c r="J41" s="262"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -16210,8 +16260,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="233"/>
-      <c r="J42" s="234"/>
+      <c r="I42" s="261"/>
+      <c r="J42" s="262"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -16222,8 +16272,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="233"/>
-      <c r="J43" s="234"/>
+      <c r="I43" s="261"/>
+      <c r="J43" s="262"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -16234,8 +16284,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="233"/>
-      <c r="J44" s="234"/>
+      <c r="I44" s="261"/>
+      <c r="J44" s="262"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -16246,8 +16296,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="233"/>
-      <c r="J45" s="234"/>
+      <c r="I45" s="261"/>
+      <c r="J45" s="262"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -16258,8 +16308,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="233"/>
-      <c r="J46" s="234"/>
+      <c r="I46" s="261"/>
+      <c r="J46" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16284,1145 +16334,1198 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD33"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="109" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="109" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="109" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="23" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.5703125" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="2" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.5703125" style="22" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="225" t="s">
+    <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27" t="str">
+      <c r="G1" s="27" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="245" t="s">
+      <c r="H1" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="246"/>
-      <c r="I1" s="247" t="str">
+      <c r="I1" s="274"/>
+      <c r="J1" s="275" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="J1" s="248"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="30" t="s">
+      <c r="K1" s="276"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="28" t="str">
+      <c r="N1" s="28" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="59" t="str">
+      <c r="P1" s="59" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="225"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="29" t="s">
+    <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="str">
+      <c r="G2" s="27" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="245" t="s">
+      <c r="H2" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="246"/>
-      <c r="I2" s="247" t="str">
+      <c r="I2" s="274"/>
+      <c r="J2" s="275" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="J2" s="248"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="30" t="s">
+      <c r="K2" s="276"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="28" t="str">
+      <c r="N2" s="28" t="str">
         <f>'Update History'!H2</f>
         <v>25/03/2017</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="O2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="59" t="str">
+      <c r="P2" s="59" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:16" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="D4" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="H4" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="I4" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="L4" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="25" customFormat="1" ht="11.25">
+    <row r="5" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A5" s="102">
         <v>1</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="129">
+      <c r="D5" s="129">
         <v>1</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="E5" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="128"/>
       <c r="F5" s="128"/>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="128"/>
+      <c r="H5" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="104"/>
+      <c r="I5" s="128"/>
       <c r="J5" s="104"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="128"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="103"/>
       <c r="M5" s="128"/>
       <c r="N5" s="128"/>
-      <c r="O5" s="122"/>
-    </row>
-    <row r="6" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="O5" s="128"/>
+      <c r="P5" s="122"/>
+    </row>
+    <row r="6" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A6" s="102">
         <v>4</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="157">
+      <c r="D6" s="157">
         <v>4</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="E6" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="F6" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="G6" s="139" t="s">
         <v>239</v>
       </c>
-      <c r="G6" s="116" t="s">
+      <c r="H6" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="I6" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="104">
+      <c r="J6" s="104">
         <v>50</v>
       </c>
-      <c r="J6" s="104"/>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="104"/>
+      <c r="L6" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="L6" s="116"/>
       <c r="M6" s="116"/>
       <c r="N6" s="116"/>
-      <c r="O6" s="122"/>
-    </row>
-    <row r="7" spans="1:15" s="33" customFormat="1" ht="22.5">
+      <c r="O6" s="116"/>
+      <c r="P6" s="122"/>
+    </row>
+    <row r="7" spans="1:16" s="33" customFormat="1" ht="22.5">
       <c r="A7" s="102">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="250">
+      <c r="D7" s="278">
         <v>5</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="E7" s="135" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="F7" s="127" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="G7" s="138" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="127" t="s">
+      <c r="H7" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="I7" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="55">
+      <c r="J7" s="55">
         <v>250</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="103" t="s">
+      <c r="K7" s="55"/>
+      <c r="L7" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="127"/>
       <c r="M7" s="127"/>
       <c r="N7" s="127"/>
-      <c r="O7" s="139" t="s">
+      <c r="O7" s="127"/>
+      <c r="P7" s="139" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="25" customFormat="1" ht="11.25">
+    <row r="8" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A8" s="102">
         <v>6</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="251"/>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="279"/>
+      <c r="E8" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="F8" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128" t="s">
+      <c r="G8" s="128"/>
+      <c r="H8" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="104"/>
+      <c r="I8" s="128"/>
       <c r="J8" s="104"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="128"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="128"/>
       <c r="N8" s="128"/>
-      <c r="O8" s="122"/>
-    </row>
-    <row r="9" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="O8" s="128"/>
+      <c r="P8" s="122"/>
+    </row>
+    <row r="9" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A9" s="102">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="252"/>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="280"/>
+      <c r="E9" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="F9" s="134" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134" t="s">
+      <c r="G9" s="134"/>
+      <c r="H9" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="134"/>
-      <c r="I9" s="104"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="104"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="134"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="103"/>
       <c r="M9" s="134"/>
       <c r="N9" s="134"/>
-      <c r="O9" s="122"/>
-    </row>
-    <row r="10" spans="1:15" s="25" customFormat="1" ht="22.5">
+      <c r="O9" s="134"/>
+      <c r="P9" s="122"/>
+    </row>
+    <row r="10" spans="1:16" s="25" customFormat="1" ht="22.5">
       <c r="A10" s="102">
         <v>9</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="253">
+      <c r="D10" s="281">
         <v>7</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="E10" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="F10" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="139" t="s">
+      <c r="G10" s="139" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="138" t="s">
+      <c r="H10" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="I10" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="I10" s="55">
+      <c r="J10" s="55">
         <v>50</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="104"/>
+      <c r="L10" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="116"/>
       <c r="M10" s="116"/>
       <c r="N10" s="116"/>
-      <c r="O10" s="139" t="s">
+      <c r="O10" s="116"/>
+      <c r="P10" s="139" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="33" customFormat="1" ht="11.25">
+    <row r="11" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A11" s="102">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="254"/>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="282"/>
+      <c r="E11" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="F11" s="115" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="133"/>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="133"/>
+      <c r="H11" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="55"/>
+      <c r="I11" s="134"/>
       <c r="J11" s="55"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="115"/>
+      <c r="K11" s="55"/>
+      <c r="M11" s="130"/>
       <c r="N11" s="115"/>
       <c r="O11" s="115"/>
-    </row>
-    <row r="12" spans="1:15" s="33" customFormat="1" ht="11.25">
+      <c r="P11" s="115"/>
+    </row>
+    <row r="12" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A12" s="102">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="255"/>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="283"/>
+      <c r="E12" s="118" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="F12" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="133"/>
-      <c r="G12" s="138" t="s">
+      <c r="G12" s="133"/>
+      <c r="H12" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="134"/>
-      <c r="I12" s="55"/>
+      <c r="I12" s="134"/>
       <c r="J12" s="55"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="115"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="133"/>
       <c r="N12" s="115"/>
       <c r="O12" s="115"/>
-    </row>
-    <row r="13" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="P12" s="115"/>
+    </row>
+    <row r="13" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A13" s="102">
         <v>12</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="135">
+      <c r="D13" s="135">
         <v>8</v>
       </c>
-      <c r="D13" s="140" t="s">
+      <c r="E13" s="140" t="s">
         <v>235</v>
       </c>
-      <c r="E13" s="133" t="s">
+      <c r="F13" s="133" t="s">
         <v>243</v>
       </c>
-      <c r="F13" s="138" t="s">
+      <c r="G13" s="138" t="s">
         <v>243</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="H13" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="127" t="s">
+      <c r="I13" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="103" t="s">
+      <c r="J13" s="55"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="L13" s="114"/>
       <c r="M13" s="114"/>
       <c r="N13" s="114"/>
       <c r="O13" s="114"/>
-    </row>
-    <row r="14" spans="1:15" s="33" customFormat="1" ht="11.25">
+      <c r="P13" s="114"/>
+    </row>
+    <row r="14" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A14" s="102">
         <v>13</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="131">
+      <c r="D14" s="131">
         <v>9</v>
       </c>
-      <c r="D14" s="140" t="s">
+      <c r="E14" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="134" t="s">
+      <c r="F14" s="134" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="139" t="s">
+      <c r="G14" s="139" t="s">
         <v>244</v>
       </c>
-      <c r="G14" s="134" t="s">
+      <c r="H14" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="55"/>
       <c r="J14" s="55"/>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="55"/>
+      <c r="L14" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="L14" s="105"/>
       <c r="M14" s="105"/>
       <c r="N14" s="105"/>
-      <c r="O14" s="134"/>
-    </row>
-    <row r="15" spans="1:15" s="160" customFormat="1" ht="11.25">
+      <c r="O14" s="105"/>
+      <c r="P14" s="134"/>
+    </row>
+    <row r="15" spans="1:16" s="160" customFormat="1" ht="11.25">
       <c r="A15" s="148">
         <v>14</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="148">
+        <v>92</v>
+      </c>
+      <c r="C15" s="158" t="s">
         <v>317</v>
       </c>
-      <c r="C15" s="172">
+      <c r="D15" s="172">
         <v>10</v>
       </c>
-      <c r="D15" s="154" t="s">
-        <v>363</v>
-      </c>
-      <c r="E15" s="155" t="s">
-        <v>247</v>
+      <c r="E15" s="154" t="s">
+        <v>361</v>
       </c>
       <c r="F15" s="155" t="s">
         <v>247</v>
       </c>
       <c r="G15" s="155" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="155" t="s">
+      <c r="I15" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="156"/>
       <c r="J15" s="156"/>
-      <c r="K15" s="151" t="s">
+      <c r="K15" s="156"/>
+      <c r="L15" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L15" s="155" t="s">
+      <c r="M15" s="155" t="s">
         <v>351</v>
       </c>
-      <c r="M15" s="155"/>
       <c r="N15" s="155"/>
       <c r="O15" s="155"/>
-    </row>
-    <row r="16" spans="1:15" s="33" customFormat="1" ht="11.25">
+      <c r="P15" s="155"/>
+    </row>
+    <row r="16" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A16" s="102">
         <v>20</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="102"/>
+      <c r="C16" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="135">
+      <c r="D16" s="135">
         <v>16</v>
       </c>
-      <c r="D16" s="118" t="s">
+      <c r="E16" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="133" t="s">
+      <c r="F16" s="133" t="s">
         <v>246</v>
       </c>
-      <c r="F16" s="138" t="s">
+      <c r="G16" s="138" t="s">
         <v>246</v>
       </c>
-      <c r="G16" s="133" t="s">
+      <c r="H16" s="133" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="138" t="s">
+      <c r="I16" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="J16" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="115"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="103"/>
       <c r="M16" s="115"/>
       <c r="N16" s="115"/>
       <c r="O16" s="115"/>
-    </row>
-    <row r="17" spans="1:15" s="25" customFormat="1" ht="11.25">
+      <c r="P16" s="115"/>
+    </row>
+    <row r="17" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A17" s="102">
         <v>21</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="102"/>
+      <c r="C17" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="131">
+      <c r="D17" s="131">
         <v>17</v>
       </c>
-      <c r="D17" s="131" t="s">
+      <c r="E17" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="133" t="s">
+      <c r="F17" s="133" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="138" t="s">
+      <c r="G17" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="138" t="s">
+      <c r="H17" s="138" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="133" t="s">
+      <c r="I17" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="J17" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="J17" s="104"/>
-      <c r="K17" s="103" t="s">
+      <c r="K17" s="104"/>
+      <c r="L17" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="L17" s="116"/>
       <c r="M17" s="116"/>
-      <c r="N17" s="116">
+      <c r="N17" s="116"/>
+      <c r="O17" s="116">
         <v>1</v>
       </c>
-      <c r="O17" s="134"/>
-    </row>
-    <row r="18" spans="1:15" s="33" customFormat="1" ht="11.25">
+      <c r="P17" s="134"/>
+    </row>
+    <row r="18" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A18" s="102">
         <v>22</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="102"/>
+      <c r="C18" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="253">
+      <c r="D18" s="281">
         <v>18</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="E18" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="F18" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="F18" s="127"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="115"/>
       <c r="J18" s="55"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="115"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="103"/>
       <c r="M18" s="115"/>
       <c r="N18" s="115"/>
-      <c r="O18" s="256" t="s">
+      <c r="O18" s="115"/>
+      <c r="P18" s="284" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="33" customFormat="1" ht="11.25">
+    <row r="19" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A19" s="102">
         <v>23</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="102"/>
+      <c r="C19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="254"/>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="282"/>
+      <c r="E19" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="133" t="s">
+      <c r="F19" s="133" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="133"/>
+      <c r="H19" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="H19" s="133"/>
-      <c r="I19" s="55"/>
+      <c r="I19" s="133"/>
       <c r="J19" s="55"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="133"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="103"/>
       <c r="M19" s="133"/>
       <c r="N19" s="133"/>
-      <c r="O19" s="257"/>
-    </row>
-    <row r="20" spans="1:15" s="33" customFormat="1" ht="11.25">
+      <c r="O19" s="133"/>
+      <c r="P19" s="285"/>
+    </row>
+    <row r="20" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A20" s="102">
         <v>24</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="102"/>
+      <c r="C20" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="255"/>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="283"/>
+      <c r="E20" s="137" t="s">
         <v>252</v>
       </c>
-      <c r="E20" s="105" t="s">
+      <c r="F20" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="F20" s="127"/>
-      <c r="G20" s="138" t="s">
+      <c r="G20" s="127"/>
+      <c r="H20" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="55"/>
+      <c r="I20" s="115"/>
       <c r="J20" s="55"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="105"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="103"/>
       <c r="M20" s="105"/>
-      <c r="N20" s="105">
+      <c r="N20" s="105"/>
+      <c r="O20" s="105">
         <v>0</v>
       </c>
-      <c r="O20" s="258"/>
-    </row>
-    <row r="21" spans="1:15" s="33" customFormat="1" ht="11.25">
+      <c r="P20" s="286"/>
+    </row>
+    <row r="21" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A21" s="102">
         <v>25</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="102"/>
+      <c r="C21" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="131">
+      <c r="D21" s="131">
         <v>19</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="E21" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="115" t="s">
+      <c r="F21" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115" t="s">
+      <c r="G21" s="115"/>
+      <c r="H21" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="H21" s="115"/>
-      <c r="I21" s="55"/>
+      <c r="I21" s="115"/>
       <c r="J21" s="55"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="115"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="115"/>
-      <c r="N21" s="115" t="s">
+      <c r="N21" s="115"/>
+      <c r="O21" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="O21" s="241" t="s">
+      <c r="P21" s="269" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="33" customFormat="1" ht="11.25">
+    <row r="22" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A22" s="102">
         <v>26</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="131">
+      <c r="D22" s="131">
         <v>20</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="E22" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="115" t="s">
+      <c r="F22" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115" t="s">
+      <c r="G22" s="115"/>
+      <c r="H22" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="115"/>
-      <c r="I22" s="55"/>
+      <c r="I22" s="115"/>
       <c r="J22" s="55"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="115"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="115"/>
-      <c r="N22" s="120" t="s">
+      <c r="N22" s="115"/>
+      <c r="O22" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O22" s="243"/>
-    </row>
-    <row r="23" spans="1:15" s="33" customFormat="1" ht="11.25">
+      <c r="P22" s="271"/>
+    </row>
+    <row r="23" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A23" s="102">
         <v>27</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="102"/>
+      <c r="C23" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="131">
+      <c r="D23" s="131">
         <v>21</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="E23" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="115" t="s">
+      <c r="F23" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115" t="s">
+      <c r="G23" s="115"/>
+      <c r="H23" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="H23" s="115"/>
-      <c r="I23" s="55"/>
+      <c r="I23" s="115"/>
       <c r="J23" s="55"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="115"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="37"/>
       <c r="M23" s="115"/>
-      <c r="N23" s="120" t="s">
+      <c r="N23" s="115"/>
+      <c r="O23" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O23" s="244"/>
-    </row>
-    <row r="24" spans="1:15" s="33" customFormat="1" ht="11.25" customHeight="1">
+      <c r="P23" s="272"/>
+    </row>
+    <row r="24" spans="1:16" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="102">
         <v>28</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="102"/>
+      <c r="C24" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="131">
+      <c r="D24" s="131">
         <v>22</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="E24" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="142" t="s">
+      <c r="F24" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142" t="s">
+      <c r="G24" s="142"/>
+      <c r="H24" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="142"/>
-      <c r="I24" s="55"/>
+      <c r="I24" s="142"/>
       <c r="J24" s="55"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="142"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="37"/>
       <c r="M24" s="142"/>
-      <c r="N24" s="142" t="s">
+      <c r="N24" s="142"/>
+      <c r="O24" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="O24" s="241" t="s">
+      <c r="P24" s="269" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="33" customFormat="1" ht="11.25">
+    <row r="25" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A25" s="102">
         <v>29</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="102"/>
+      <c r="C25" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="131">
+      <c r="D25" s="131">
         <v>23</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="E25" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="142" t="s">
+      <c r="F25" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142" t="s">
+      <c r="G25" s="142"/>
+      <c r="H25" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="142"/>
-      <c r="I25" s="55"/>
+      <c r="I25" s="142"/>
       <c r="J25" s="55"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="142"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="142"/>
-      <c r="N25" s="142" t="s">
+      <c r="N25" s="142"/>
+      <c r="O25" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="O25" s="242"/>
-    </row>
-    <row r="26" spans="1:15" s="148" customFormat="1" ht="22.5">
+      <c r="P25" s="270"/>
+    </row>
+    <row r="26" spans="1:16" s="148" customFormat="1" ht="22.5">
       <c r="A26" s="148">
         <v>2</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="148">
+        <v>92</v>
+      </c>
+      <c r="C26" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C26" s="149">
+      <c r="D26" s="149">
         <v>2</v>
       </c>
-      <c r="D26" s="154" t="s">
+      <c r="E26" s="154" t="s">
         <v>313</v>
-      </c>
-      <c r="E26" s="154" t="s">
-        <v>314</v>
       </c>
       <c r="F26" s="154" t="s">
         <v>314</v>
       </c>
       <c r="G26" s="154" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="154" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="154" t="s">
+      <c r="I26" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="154"/>
       <c r="J26" s="154"/>
-      <c r="K26" s="151" t="s">
+      <c r="K26" s="154"/>
+      <c r="L26" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L26" s="154"/>
-      <c r="N26" s="151" t="s">
+      <c r="M26" s="154"/>
+      <c r="O26" s="151" t="s">
         <v>348</v>
       </c>
-      <c r="O26" s="151" t="s">
+      <c r="P26" s="151" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="148" customFormat="1" ht="33.75">
+    <row r="27" spans="1:16" s="148" customFormat="1" ht="33.75">
       <c r="A27" s="148">
         <v>3</v>
       </c>
-      <c r="B27" s="148" t="s">
+      <c r="B27" s="148">
+        <v>92</v>
+      </c>
+      <c r="C27" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="149">
+      <c r="D27" s="149">
         <v>3</v>
       </c>
-      <c r="D27" s="154" t="s">
+      <c r="E27" s="154" t="s">
         <v>315</v>
-      </c>
-      <c r="E27" s="154" t="s">
-        <v>316</v>
       </c>
       <c r="F27" s="154" t="s">
         <v>316</v>
       </c>
       <c r="G27" s="154" t="s">
+        <v>316</v>
+      </c>
+      <c r="H27" s="154" t="s">
         <v>337</v>
       </c>
-      <c r="H27" s="154" t="s">
+      <c r="I27" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="I27" s="154"/>
       <c r="J27" s="154"/>
-      <c r="K27" s="151" t="s">
+      <c r="K27" s="154"/>
+      <c r="L27" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="O27" s="151" t="s">
+      <c r="P27" s="151" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="153" customFormat="1" ht="11.25">
+    <row r="28" spans="1:16" s="153" customFormat="1" ht="11.25">
       <c r="A28" s="148">
         <v>15</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="148">
+        <v>92</v>
+      </c>
+      <c r="C28" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="159">
+      <c r="D28" s="159">
         <v>11</v>
       </c>
-      <c r="D28" s="154" t="s">
+      <c r="E28" s="154" t="s">
         <v>320</v>
-      </c>
-      <c r="E28" s="150" t="s">
-        <v>321</v>
       </c>
       <c r="F28" s="150" t="s">
         <v>321</v>
       </c>
       <c r="G28" s="150" t="s">
+        <v>321</v>
+      </c>
+      <c r="H28" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="150" t="s">
+      <c r="I28" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="319"/>
-      <c r="J28" s="319"/>
-      <c r="K28" s="151" t="s">
+      <c r="J28" s="207"/>
+      <c r="K28" s="207"/>
+      <c r="L28" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L28" s="150" t="s">
+      <c r="M28" s="150" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="150"/>
       <c r="N28" s="150"/>
       <c r="O28" s="150"/>
-    </row>
-    <row r="29" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="P28" s="150"/>
+    </row>
+    <row r="29" spans="1:16" s="153" customFormat="1" ht="11.25">
       <c r="A29" s="148">
         <v>16</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="148">
+        <v>92</v>
+      </c>
+      <c r="C29" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C29" s="159">
+      <c r="D29" s="159">
         <v>12</v>
       </c>
-      <c r="D29" s="154" t="s">
+      <c r="E29" s="154" t="s">
         <v>322</v>
-      </c>
-      <c r="E29" s="150" t="s">
-        <v>323</v>
       </c>
       <c r="F29" s="150" t="s">
         <v>323</v>
       </c>
       <c r="G29" s="150" t="s">
+        <v>323</v>
+      </c>
+      <c r="H29" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="H29" s="150" t="s">
+      <c r="I29" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="319"/>
-      <c r="J29" s="319"/>
-      <c r="K29" s="151" t="s">
+      <c r="J29" s="207"/>
+      <c r="K29" s="207"/>
+      <c r="L29" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L29" s="150" t="s">
+      <c r="M29" s="150" t="s">
         <v>351</v>
       </c>
-      <c r="M29" s="150"/>
       <c r="N29" s="150"/>
       <c r="O29" s="150"/>
-    </row>
-    <row r="30" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="P29" s="150"/>
+    </row>
+    <row r="30" spans="1:16" s="153" customFormat="1" ht="11.25">
       <c r="A30" s="148">
         <v>17</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="148">
+        <v>92</v>
+      </c>
+      <c r="C30" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="159">
+      <c r="D30" s="159">
         <v>13</v>
       </c>
-      <c r="D30" s="154" t="s">
+      <c r="E30" s="154" t="s">
         <v>324</v>
-      </c>
-      <c r="E30" s="150" t="s">
-        <v>325</v>
       </c>
       <c r="F30" s="150" t="s">
         <v>325</v>
       </c>
       <c r="G30" s="150" t="s">
+        <v>325</v>
+      </c>
+      <c r="H30" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="H30" s="150" t="s">
+      <c r="I30" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="I30" s="319"/>
-      <c r="J30" s="319"/>
-      <c r="K30" s="151" t="s">
+      <c r="J30" s="207"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L30" s="150" t="s">
+      <c r="M30" s="150" t="s">
         <v>351</v>
       </c>
-      <c r="M30" s="150"/>
       <c r="N30" s="150"/>
       <c r="O30" s="150"/>
-    </row>
-    <row r="31" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="P30" s="150"/>
+    </row>
+    <row r="31" spans="1:16" s="153" customFormat="1" ht="11.25">
       <c r="A31" s="148">
         <v>18</v>
       </c>
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="148">
+        <v>92</v>
+      </c>
+      <c r="C31" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C31" s="159">
+      <c r="D31" s="159">
         <v>14</v>
       </c>
-      <c r="D31" s="154" t="s">
+      <c r="E31" s="154" t="s">
         <v>326</v>
-      </c>
-      <c r="E31" s="150" t="s">
-        <v>327</v>
       </c>
       <c r="F31" s="150" t="s">
         <v>327</v>
       </c>
       <c r="G31" s="150" t="s">
+        <v>327</v>
+      </c>
+      <c r="H31" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="H31" s="150" t="s">
+      <c r="I31" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="I31" s="319"/>
-      <c r="J31" s="319"/>
-      <c r="K31" s="151" t="s">
+      <c r="J31" s="207"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L31" s="150"/>
       <c r="M31" s="150"/>
       <c r="N31" s="150"/>
       <c r="O31" s="150"/>
-    </row>
-    <row r="32" spans="1:15" s="153" customFormat="1" ht="11.25">
+      <c r="P31" s="150"/>
+    </row>
+    <row r="32" spans="1:16" s="153" customFormat="1" ht="11.25">
       <c r="A32" s="148">
         <v>19</v>
       </c>
-      <c r="B32" s="148" t="s">
+      <c r="B32" s="148">
+        <v>92</v>
+      </c>
+      <c r="C32" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C32" s="159">
+      <c r="D32" s="159">
         <v>15</v>
       </c>
-      <c r="D32" s="154" t="s">
+      <c r="E32" s="154" t="s">
         <v>328</v>
       </c>
-      <c r="E32" s="150" t="s">
+      <c r="F32" s="150" t="s">
         <v>335</v>
       </c>
-      <c r="F32" s="150" t="s">
+      <c r="G32" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="150" t="s">
+      <c r="H32" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="150" t="s">
+      <c r="I32" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="I32" s="319"/>
-      <c r="J32" s="319"/>
-      <c r="K32" s="151" t="s">
+      <c r="J32" s="207"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="L32" s="150"/>
       <c r="M32" s="150"/>
       <c r="N32" s="150"/>
       <c r="O32" s="150"/>
-    </row>
-    <row r="33" spans="1:15" s="190" customFormat="1" ht="11.25">
-      <c r="A33" s="180">
+      <c r="P32" s="150"/>
+    </row>
+    <row r="33" spans="1:16" s="188" customFormat="1" ht="11.25">
+      <c r="A33" s="178">
         <v>8</v>
       </c>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="178">
+        <v>92</v>
+      </c>
+      <c r="C33" s="178" t="s">
         <v>346</v>
       </c>
-      <c r="C33" s="181">
+      <c r="D33" s="179">
         <v>6</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="E33" s="180" t="s">
         <v>318</v>
       </c>
-      <c r="E33" s="183" t="s">
-        <v>319</v>
-      </c>
-      <c r="F33" s="183" t="s">
-        <v>319</v>
-      </c>
-      <c r="G33" s="184" t="s">
+      <c r="F33" s="181" t="s">
+        <v>364</v>
+      </c>
+      <c r="G33" s="181" t="s">
+        <v>364</v>
+      </c>
+      <c r="H33" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="H33" s="183" t="s">
+      <c r="I33" s="181" t="s">
         <v>166</v>
       </c>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="188" t="s">
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="186" t="s">
         <v>147</v>
       </c>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="189"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="P18:P20"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G5:G9 G21:G26 G33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H14 H5:H9 H21:H26 H33">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H13 H15:H33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I13 I15:I33">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K10 K12:K33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L10 L12:L33">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G12 G15:G20 G28:G32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H12 H15:H20 H28:H32">
       <formula1>"ArrayBox, Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27">
       <formula1>"Caption,Textbox,DropdowChecklist,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17434,450 +17537,476 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8" style="22" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="23" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="22" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="3" width="8" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="23" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="22" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="84" t="str">
+      <c r="C1" s="29"/>
+      <c r="D1" s="84" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="str">
+      <c r="F1" s="84" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="90" t="str">
+      <c r="H1" s="90" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="I1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="59" t="str">
+      <c r="J1" s="59" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="84" t="str">
+      <c r="C2" s="29"/>
+      <c r="D2" s="84" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="84" t="str">
+      <c r="F2" s="84" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="59" t="str">
+      <c r="H2" s="59" t="str">
         <f>'Update History'!H2</f>
         <v>25/03/2017</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="str">
+      <c r="J2" s="59" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="4" spans="1:16" s="21" customFormat="1" ht="24" customHeight="1">
+      <c r="K2" s="59"/>
+    </row>
+    <row r="4" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
       <c r="P4" s="33"/>
-    </row>
-    <row r="5" spans="1:16" s="47" customFormat="1" ht="11.25" customHeight="1">
+      <c r="Q4" s="33"/>
+    </row>
+    <row r="5" spans="1:17" s="47" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="102">
         <v>1</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="133" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="133" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="E5" s="134" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="259" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="287" t="s">
         <v>214</v>
       </c>
-      <c r="H5" s="134" t="s">
+      <c r="I5" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="J5" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="J5" s="103"/>
-    </row>
-    <row r="6" spans="1:16" s="171" customFormat="1" ht="11.25">
+      <c r="K5" s="103"/>
+    </row>
+    <row r="6" spans="1:17" s="171" customFormat="1" ht="11.25">
       <c r="A6" s="161">
         <v>2</v>
       </c>
       <c r="B6" s="161"/>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="161"/>
+      <c r="D6" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="169" t="s">
+      <c r="E6" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="169" t="s">
+      <c r="F6" s="162"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="288"/>
+      <c r="I6" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="J6" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="J6" s="169"/>
-    </row>
-    <row r="7" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="K6" s="169"/>
+    </row>
+    <row r="7" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="102">
         <v>3</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="134" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="E7" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="134" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="288"/>
+      <c r="I7" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="I7" s="118" t="s">
+      <c r="J7" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="J7" s="70"/>
-    </row>
-    <row r="8" spans="1:16" s="33" customFormat="1" ht="11.25">
+      <c r="K7" s="70"/>
+    </row>
+    <row r="8" spans="1:17" s="33" customFormat="1" ht="11.25">
       <c r="A8" s="102">
         <v>4</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="138" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="138" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="E8" s="138" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="139" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="288"/>
+      <c r="I8" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="J8" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="J8" s="138"/>
-    </row>
-    <row r="9" spans="1:16" s="33" customFormat="1" ht="22.5">
+      <c r="K8" s="138"/>
+    </row>
+    <row r="9" spans="1:17" s="33" customFormat="1" ht="22.5">
       <c r="A9" s="102">
         <v>5</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="133" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="133" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="E9" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="134" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="I9" s="118" t="s">
+      <c r="J9" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="J9" s="68"/>
-    </row>
-    <row r="10" spans="1:16" s="160" customFormat="1" ht="11.25">
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="1:17" s="160" customFormat="1" ht="11.25">
       <c r="A10" s="148">
         <v>6</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="148">
+        <v>92</v>
+      </c>
+      <c r="C10" s="158" t="s">
         <v>354</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="D10" s="155" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="E10" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="150" t="s">
+      <c r="F10" s="163"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="154" t="s">
+      <c r="J10" s="154" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="155"/>
-    </row>
-    <row r="11" spans="1:16" s="160" customFormat="1" ht="11.25">
+      <c r="K10" s="155"/>
+    </row>
+    <row r="11" spans="1:17" s="160" customFormat="1" ht="11.25">
       <c r="A11" s="148">
         <v>7</v>
       </c>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="148">
+        <v>92</v>
+      </c>
+      <c r="C11" s="158" t="s">
         <v>354</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="D11" s="155" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="E11" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="163"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="150" t="s">
+      <c r="F11" s="163"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="154" t="s">
+      <c r="J11" s="154" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="155"/>
-    </row>
-    <row r="12" spans="1:16" s="160" customFormat="1" ht="11.25">
+      <c r="K11" s="155"/>
+    </row>
+    <row r="12" spans="1:17" s="160" customFormat="1" ht="11.25">
       <c r="A12" s="148">
         <v>8</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="148">
+        <v>92</v>
+      </c>
+      <c r="C12" s="158" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="D12" s="155" t="s">
         <v>314</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="E12" s="155" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="163"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="150" t="s">
+      <c r="F12" s="163"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="I12" s="154" t="s">
+      <c r="J12" s="154" t="s">
         <v>353</v>
       </c>
-      <c r="J12" s="155"/>
-    </row>
-    <row r="13" spans="1:16" s="193" customFormat="1" ht="11.25">
-      <c r="A13" s="180">
+      <c r="K12" s="155"/>
+    </row>
+    <row r="13" spans="1:17" s="191" customFormat="1" ht="11.25">
+      <c r="A13" s="178">
         <v>9</v>
       </c>
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="178">
+        <v>92</v>
+      </c>
+      <c r="C13" s="190" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="185" t="s">
+      <c r="D13" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="185" t="s">
+      <c r="E13" s="183" t="s">
         <v>352</v>
       </c>
-      <c r="E13" s="191"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="183" t="s">
+      <c r="F13" s="189"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="289"/>
+      <c r="I13" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="I13" s="184" t="s">
+      <c r="J13" s="182" t="s">
         <v>353</v>
       </c>
-      <c r="J13" s="185"/>
-    </row>
-    <row r="14" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="K13" s="183"/>
+    </row>
+    <row r="14" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="102">
         <v>10</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="134" t="s">
+      <c r="B14" s="161"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="133" t="s">
+      <c r="E14" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="134" t="s">
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="134" t="s">
         <v>217</v>
       </c>
-      <c r="H14" s="134" t="s">
+      <c r="I14" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="J14" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="J14" s="61"/>
-    </row>
-    <row r="15" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="K14" s="61"/>
+    </row>
+    <row r="15" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="102">
         <v>11</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="134" t="s">
+      <c r="B15" s="161"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="E15" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="134" t="s">
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="134" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="134" t="s">
+      <c r="I15" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="J15" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="89"/>
-    </row>
-    <row r="16" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="K15" s="61"/>
+      <c r="L15" s="89"/>
+    </row>
+    <row r="16" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="102">
         <v>12</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="134" t="s">
+      <c r="B16" s="161"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="134" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="133" t="s">
+      <c r="E16" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="134" t="s">
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="H16" s="134" t="s">
+      <c r="I16" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="I16" s="67" t="s">
+      <c r="J16" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="89"/>
-    </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="K16" s="61"/>
+      <c r="L16" s="89"/>
+    </row>
+    <row r="17" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="102">
         <v>13</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="133" t="s">
+      <c r="B17" s="161"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="133" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="133" t="s">
+      <c r="E17" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="133" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="133" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="133" t="s">
+      <c r="I17" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="J17" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="89"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G5:G13"/>
+    <mergeCell ref="H5:H13"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:K17 H5:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:L17 I5:I17">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E17">
       <formula1>"Format,Require,Max Length,Range,Not In List"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17897,7 +18026,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -17921,7 +18050,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="295" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="100"/>
@@ -17957,7 +18086,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="263"/>
+      <c r="A2" s="296"/>
       <c r="B2" s="101"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -18006,15 +18135,15 @@
       <c r="E4" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="225" t="s">
+      <c r="F4" s="238" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225" t="s">
+      <c r="G4" s="238"/>
+      <c r="H4" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
     </row>
     <row r="5" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A5" s="32">
@@ -18030,15 +18159,15 @@
       <c r="E5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="267" t="s">
+      <c r="F5" s="290" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="268"/>
-      <c r="H5" s="264" t="s">
+      <c r="G5" s="291"/>
+      <c r="H5" s="292" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="265"/>
-      <c r="J5" s="266"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="294"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="32">
@@ -18054,15 +18183,15 @@
       <c r="E6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="267" t="s">
+      <c r="F6" s="290" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="268"/>
-      <c r="H6" s="264" t="s">
+      <c r="G6" s="291"/>
+      <c r="H6" s="292" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="265"/>
-      <c r="J6" s="266"/>
+      <c r="I6" s="293"/>
+      <c r="J6" s="294"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="32">
@@ -18078,15 +18207,15 @@
       <c r="E7" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="267" t="s">
+      <c r="F7" s="290" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="268"/>
-      <c r="H7" s="264" t="s">
+      <c r="G7" s="291"/>
+      <c r="H7" s="292" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="265"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="294"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -18096,11 +18225,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="267"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="266"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="291"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="294"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -18110,11 +18239,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="268"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="266"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="294"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -18124,11 +18253,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="265"/>
-      <c r="J10" s="266"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="291"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
+      <c r="J10" s="294"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -18138,11 +18267,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="267"/>
-      <c r="G11" s="268"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="265"/>
-      <c r="J11" s="266"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="291"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="293"/>
+      <c r="J11" s="294"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -18152,11 +18281,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="267"/>
-      <c r="G12" s="268"/>
-      <c r="H12" s="264"/>
-      <c r="I12" s="265"/>
-      <c r="J12" s="266"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="291"/>
+      <c r="H12" s="292"/>
+      <c r="I12" s="293"/>
+      <c r="J12" s="294"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -18166,11 +18295,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="267"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="264"/>
-      <c r="I13" s="265"/>
-      <c r="J13" s="266"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="291"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="294"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -18180,20 +18309,21 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="267"/>
-      <c r="G14" s="268"/>
-      <c r="H14" s="264"/>
-      <c r="I14" s="265"/>
-      <c r="J14" s="266"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="291"/>
+      <c r="H14" s="292"/>
+      <c r="I14" s="293"/>
+      <c r="J14" s="294"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F10:G10"/>
@@ -18206,12 +18336,11 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
@@ -18227,791 +18356,837 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1048244"/>
+  <dimension ref="A1:R1048244"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.85546875" style="23" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="23" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="22" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="2" width="12.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.85546875" style="23" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="23" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="22" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="225" t="s">
+    <row r="1" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="275" t="str">
+      <c r="G1" s="297" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="275"/>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="297"/>
+      <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="48" t="str">
+      <c r="J1" s="48" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="46" t="str">
+      <c r="L1" s="46" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="269" t="str">
+      <c r="N1" s="315" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="N1" s="270"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="47"/>
+      <c r="O1" s="316"/>
+      <c r="P1" s="317"/>
       <c r="Q1" s="47"/>
-    </row>
-    <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="225"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="30" t="s">
+      <c r="R1" s="47"/>
+    </row>
+    <row r="2" spans="1:18" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="275" t="str">
+      <c r="G2" s="297" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="275"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="297"/>
+      <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="48" t="str">
+      <c r="J2" s="48" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="46" t="str">
+      <c r="L2" s="46" t="str">
         <f>'Update History'!H2</f>
         <v>25/03/2017</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="269" t="str">
+      <c r="N2" s="315" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
-      <c r="N2" s="270"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="47"/>
+      <c r="O2" s="316"/>
+      <c r="P2" s="317"/>
       <c r="Q2" s="47"/>
-    </row>
-    <row r="4" spans="1:17" s="23" customFormat="1" ht="12" customHeight="1">
+      <c r="R2" s="47"/>
+    </row>
+    <row r="4" spans="1:18" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="E4" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="F4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="G4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="228" t="s">
+      <c r="H4" s="256" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="36" t="s">
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="M4" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="N4" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="O4" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="P4" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="25" customFormat="1" ht="32.25" customHeight="1">
+    <row r="5" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="102">
         <v>1</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="D5" s="134" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="E5" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="F5" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="G5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="282" t="s">
+      <c r="H5" s="307" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="122" t="s">
+      <c r="I5" s="308"/>
+      <c r="J5" s="308"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="L5" s="122" t="s">
+      <c r="M5" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="N5" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="N5" s="112" t="s">
+      <c r="O5" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="P5" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="P5" s="47"/>
       <c r="Q5" s="47"/>
-    </row>
-    <row r="6" spans="1:17" s="33" customFormat="1" ht="234.75" customHeight="1">
+      <c r="R5" s="47"/>
+    </row>
+    <row r="6" spans="1:18" s="33" customFormat="1" ht="234.75" customHeight="1">
       <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="213">
+        <v>92</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="D6" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="E6" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="F6" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="G6" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="279" t="s">
-        <v>356</v>
-      </c>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="173" t="s">
+      <c r="H6" s="304" t="s">
+        <v>370</v>
+      </c>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="306"/>
+      <c r="L6" s="215" t="s">
         <v>286</v>
       </c>
-      <c r="L6" s="173" t="s">
+      <c r="M6" s="215" t="s">
         <v>286</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="N6" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="N6" s="112" t="s">
+      <c r="O6" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
+      <c r="P6" s="56"/>
       <c r="Q6" s="57"/>
-    </row>
-    <row r="7" spans="1:17" s="33" customFormat="1" ht="32.25" customHeight="1">
+      <c r="R6" s="57"/>
+    </row>
+    <row r="7" spans="1:18" s="33" customFormat="1" ht="32.25" customHeight="1">
       <c r="A7" s="102">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="D7" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="E7" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="F7" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="G7" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="272" t="s">
+      <c r="H7" s="298" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="273"/>
-      <c r="I7" s="273"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="124" t="s">
-        <v>270</v>
-      </c>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="300"/>
       <c r="L7" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="112" t="s">
+      <c r="M7" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="N7" s="67"/>
+      <c r="O7" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
+      <c r="P7" s="56"/>
       <c r="Q7" s="57"/>
-    </row>
-    <row r="8" spans="1:17" s="33" customFormat="1" ht="32.25" customHeight="1">
+      <c r="R7" s="57"/>
+    </row>
+    <row r="8" spans="1:18" s="33" customFormat="1" ht="32.25" customHeight="1">
       <c r="A8" s="32">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="D8" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="E8" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="F8" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="G8" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="272" t="s">
+      <c r="H8" s="298" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="273"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="274"/>
-      <c r="K8" s="124" t="s">
-        <v>270</v>
-      </c>
+      <c r="I8" s="299"/>
+      <c r="J8" s="299"/>
+      <c r="K8" s="300"/>
       <c r="L8" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="M8" s="67"/>
-      <c r="N8" s="112" t="s">
+      <c r="M8" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" s="67"/>
+      <c r="O8" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
+      <c r="P8" s="56"/>
       <c r="Q8" s="57"/>
-    </row>
-    <row r="9" spans="1:17" s="33" customFormat="1" ht="267" customHeight="1">
+      <c r="R8" s="57"/>
+    </row>
+    <row r="9" spans="1:18" s="33" customFormat="1" ht="267" customHeight="1">
       <c r="A9" s="102">
         <v>5</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="213">
+        <v>92</v>
+      </c>
+      <c r="C9" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="D9" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="E9" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="F9" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="G9" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="279" t="s">
+      <c r="H9" s="304" t="s">
+        <v>369</v>
+      </c>
+      <c r="I9" s="305"/>
+      <c r="J9" s="305"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="214" t="s">
         <v>357</v>
       </c>
-      <c r="H9" s="280"/>
-      <c r="I9" s="280"/>
-      <c r="J9" s="281"/>
-      <c r="K9" s="174" t="s">
-        <v>359</v>
-      </c>
-      <c r="L9" s="174" t="s">
-        <v>360</v>
-      </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
+      <c r="M9" s="214" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" s="67"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="56"/>
       <c r="Q9" s="57"/>
-    </row>
-    <row r="10" spans="1:17" s="33" customFormat="1" ht="32.25" customHeight="1">
+      <c r="R9" s="57"/>
+    </row>
+    <row r="10" spans="1:18" s="33" customFormat="1" ht="32.25" customHeight="1">
       <c r="A10" s="32">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="D10" s="139" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="E10" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="F10" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="G10" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="272" t="s">
+      <c r="H10" s="298" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="274"/>
-      <c r="K10" s="124" t="s">
-        <v>286</v>
-      </c>
+      <c r="I10" s="299"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="300"/>
       <c r="L10" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="112" t="s">
+      <c r="M10" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="N10" s="67"/>
+      <c r="O10" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="O10" s="56" t="s">
+      <c r="P10" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="P10" s="57"/>
       <c r="Q10" s="57"/>
-    </row>
-    <row r="11" spans="1:17" s="33" customFormat="1" ht="32.25" customHeight="1">
+      <c r="R10" s="57"/>
+    </row>
+    <row r="11" spans="1:18" s="33" customFormat="1" ht="32.25" customHeight="1">
       <c r="A11" s="102">
         <v>7</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="D11" s="139" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="E11" s="111" t="s">
         <v>284</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="F11" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="G11" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="272" t="s">
+      <c r="H11" s="298" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="273"/>
-      <c r="I11" s="273"/>
-      <c r="J11" s="274"/>
-      <c r="K11" s="124" t="s">
-        <v>270</v>
-      </c>
+      <c r="I11" s="299"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="300"/>
       <c r="L11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="112" t="s">
+      <c r="M11" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" s="67"/>
+      <c r="O11" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
+      <c r="P11" s="56"/>
       <c r="Q11" s="57"/>
-    </row>
-    <row r="12" spans="1:17" s="33" customFormat="1" ht="75.75" customHeight="1">
+      <c r="R11" s="57"/>
+    </row>
+    <row r="12" spans="1:18" s="33" customFormat="1" ht="75.75" customHeight="1">
       <c r="A12" s="32">
         <v>8</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="D12" s="134" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="E12" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="F12" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="G12" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="272" t="s">
+      <c r="H12" s="298" t="s">
         <v>302</v>
       </c>
-      <c r="H12" s="273"/>
-      <c r="I12" s="273"/>
-      <c r="J12" s="274"/>
-      <c r="K12" s="113" t="s">
-        <v>303</v>
-      </c>
+      <c r="I12" s="299"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="300"/>
       <c r="L12" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
+      <c r="M12" s="113" t="s">
+        <v>303</v>
+      </c>
+      <c r="N12" s="67"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="56"/>
       <c r="Q12" s="57"/>
-    </row>
-    <row r="13" spans="1:17" s="33" customFormat="1" ht="64.5" customHeight="1">
+      <c r="R12" s="57"/>
+    </row>
+    <row r="13" spans="1:18" s="33" customFormat="1" ht="64.5" customHeight="1">
       <c r="A13" s="102">
         <v>9</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="D13" s="139" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="E13" s="111" t="s">
         <v>284</v>
       </c>
-      <c r="E13" s="111" t="s">
+      <c r="F13" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="110" t="s">
+      <c r="G13" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="272" t="s">
+      <c r="H13" s="298" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="274"/>
-      <c r="K13" s="124" t="s">
-        <v>273</v>
-      </c>
+      <c r="I13" s="299"/>
+      <c r="J13" s="299"/>
+      <c r="K13" s="300"/>
       <c r="L13" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="112" t="s">
+      <c r="M13" s="124" t="s">
+        <v>273</v>
+      </c>
+      <c r="N13" s="67"/>
+      <c r="O13" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
+      <c r="P13" s="56"/>
       <c r="Q13" s="57"/>
-    </row>
-    <row r="14" spans="1:17" s="33" customFormat="1" ht="75.75" customHeight="1">
+      <c r="R13" s="57"/>
+    </row>
+    <row r="14" spans="1:18" s="33" customFormat="1" ht="75.75" customHeight="1">
       <c r="A14" s="32">
         <v>10</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="D14" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="E14" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="F14" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="G14" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="272" t="s">
+      <c r="H14" s="298" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="273"/>
-      <c r="I14" s="273"/>
-      <c r="J14" s="274"/>
-      <c r="K14" s="113" t="s">
+      <c r="I14" s="299"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="300"/>
+      <c r="L14" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="L14" s="113" t="s">
+      <c r="M14" s="113" t="s">
         <v>290</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="56"/>
       <c r="Q14" s="57"/>
-    </row>
-    <row r="15" spans="1:17" s="33" customFormat="1" ht="247.5" customHeight="1">
+      <c r="R14" s="57"/>
+    </row>
+    <row r="15" spans="1:18" s="33" customFormat="1" ht="247.5" customHeight="1">
       <c r="A15" s="102">
         <v>11</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="213">
+        <v>92</v>
+      </c>
+      <c r="C15" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="D15" s="123" t="s">
         <v>282</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="E15" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="F15" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="G15" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="276" t="s">
-        <v>358</v>
-      </c>
-      <c r="H15" s="277"/>
-      <c r="I15" s="277"/>
-      <c r="J15" s="278"/>
-      <c r="K15" s="174" t="s">
-        <v>361</v>
-      </c>
-      <c r="L15" s="174" t="s">
-        <v>362</v>
-      </c>
-      <c r="M15" s="56"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
+      <c r="H15" s="301" t="s">
+        <v>356</v>
+      </c>
+      <c r="I15" s="302"/>
+      <c r="J15" s="302"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="214" t="s">
+        <v>359</v>
+      </c>
+      <c r="M15" s="214" t="s">
+        <v>360</v>
+      </c>
+      <c r="N15" s="56"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="56"/>
       <c r="Q15" s="57"/>
-    </row>
-    <row r="16" spans="1:17" s="25" customFormat="1" ht="32.25" customHeight="1">
+      <c r="R15" s="57"/>
+    </row>
+    <row r="16" spans="1:18" s="25" customFormat="1" ht="32.25" customHeight="1">
       <c r="A16" s="32">
         <v>12</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="D16" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="E16" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="F16" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="G16" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="272" t="s">
+      <c r="H16" s="298" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="273"/>
-      <c r="I16" s="273"/>
-      <c r="J16" s="274"/>
-      <c r="K16" s="124" t="s">
+      <c r="I16" s="299"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="300"/>
+      <c r="L16" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="124" t="s">
+      <c r="M16" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="112" t="s">
+      <c r="N16" s="67"/>
+      <c r="O16" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="47"/>
+      <c r="P16" s="67"/>
       <c r="Q16" s="47"/>
-    </row>
-    <row r="17" spans="1:17" s="153" customFormat="1" ht="32.25" customHeight="1">
+      <c r="R16" s="47"/>
+    </row>
+    <row r="17" spans="1:18" s="153" customFormat="1" ht="32.25" customHeight="1">
       <c r="A17" s="158"/>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="212">
+        <v>92</v>
+      </c>
+      <c r="C17" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="D17" s="150" t="s">
         <v>334</v>
       </c>
-      <c r="D17" s="164" t="s">
+      <c r="E17" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="F17" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="G17" s="165" t="s">
         <v>329</v>
       </c>
-      <c r="G17" s="285" t="s">
+      <c r="H17" s="310" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="286"/>
-      <c r="I17" s="286"/>
-      <c r="J17" s="287"/>
-      <c r="K17" s="152" t="s">
+      <c r="I17" s="311"/>
+      <c r="J17" s="311"/>
+      <c r="K17" s="312"/>
+      <c r="L17" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="152" t="s">
+      <c r="M17" s="152" t="s">
         <v>333</v>
       </c>
-      <c r="M17" s="166" t="s">
+      <c r="N17" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="N17" s="167" t="s">
+      <c r="O17" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="O17" s="166" t="s">
+      <c r="P17" s="166" t="s">
         <v>331</v>
       </c>
-      <c r="P17" s="168"/>
       <c r="Q17" s="168"/>
-    </row>
-    <row r="18" spans="1:17" s="153" customFormat="1" ht="32.25" customHeight="1">
+      <c r="R17" s="168"/>
+    </row>
+    <row r="18" spans="1:18" s="153" customFormat="1" ht="32.25" customHeight="1">
       <c r="A18" s="158"/>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="212">
+        <v>92</v>
+      </c>
+      <c r="C18" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="D18" s="150" t="s">
         <v>339</v>
       </c>
-      <c r="D18" s="164" t="s">
+      <c r="E18" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="164" t="s">
+      <c r="F18" s="164" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="165" t="s">
+      <c r="G18" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="G18" s="285" t="s">
+      <c r="H18" s="310" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="286"/>
-      <c r="I18" s="286"/>
-      <c r="J18" s="287"/>
-      <c r="K18" s="152" t="s">
+      <c r="I18" s="311"/>
+      <c r="J18" s="311"/>
+      <c r="K18" s="312"/>
+      <c r="L18" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="L18" s="152" t="s">
+      <c r="M18" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="M18" s="166" t="s">
+      <c r="N18" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="N18" s="167" t="s">
+      <c r="O18" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="166" t="s">
+      <c r="P18" s="166" t="s">
         <v>340</v>
       </c>
-      <c r="P18" s="168"/>
       <c r="Q18" s="168"/>
-    </row>
-    <row r="19" spans="1:17" s="190" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A19" s="192"/>
-      <c r="B19" s="180" t="s">
+      <c r="R18" s="168"/>
+    </row>
+    <row r="19" spans="1:18" s="188" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A19" s="190"/>
+      <c r="B19" s="213">
+        <v>92</v>
+      </c>
+      <c r="C19" s="178" t="s">
         <v>346</v>
       </c>
-      <c r="C19" s="183" t="s">
+      <c r="D19" s="181" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="194" t="s">
+      <c r="E19" s="192" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="194" t="s">
+      <c r="F19" s="192" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="195" t="s">
+      <c r="G19" s="193" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="288"/>
-      <c r="H19" s="289"/>
-      <c r="I19" s="289"/>
-      <c r="J19" s="290"/>
-      <c r="K19" s="189"/>
-      <c r="L19" s="189"/>
-      <c r="M19" s="196"/>
-      <c r="N19" s="197"/>
-      <c r="O19" s="196"/>
-      <c r="P19" s="198"/>
-      <c r="Q19" s="198"/>
-    </row>
-    <row r="20" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="H19" s="250" t="s">
+        <v>365</v>
+      </c>
+      <c r="I19" s="313"/>
+      <c r="J19" s="313"/>
+      <c r="K19" s="314"/>
+      <c r="L19" s="187" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="187" t="s">
+        <v>362</v>
+      </c>
+      <c r="N19" s="194" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" s="195" t="s">
+        <v>196</v>
+      </c>
+      <c r="P19" s="194" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="196"/>
+    </row>
+    <row r="20" spans="1:18" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="111"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="111"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="272"/>
-      <c r="H20" s="273"/>
-      <c r="I20" s="273"/>
-      <c r="J20" s="274"/>
-      <c r="K20" s="113"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="298"/>
+      <c r="I20" s="299"/>
+      <c r="J20" s="299"/>
+      <c r="K20" s="300"/>
       <c r="L20" s="113"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="56"/>
       <c r="Q20" s="57"/>
-    </row>
-    <row r="1048244" spans="13:13" ht="12" customHeight="1">
-      <c r="M1048244" s="63"/>
+      <c r="R20" s="57"/>
+    </row>
+    <row r="1048244" spans="14:14" ht="12" customHeight="1">
+      <c r="N1048244" s="63"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048244:M1048576 M5 M17:M19"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N20">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048244:N1048576 N5 N17:N19"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O20">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E20">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F20">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19028,15 +19203,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T189"/>
+  <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:XFD132"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="22" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="22" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="22" customWidth="1"/>
@@ -19047,10 +19222,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12" customHeight="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="225"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -19081,8 +19256,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="225"/>
-      <c r="B2" s="225"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -19315,59 +19490,64 @@
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="1:13" s="176" customFormat="1" ht="12" customHeight="1">
-      <c r="B17" s="177"/>
-      <c r="C17" s="175" t="s">
+    <row r="17" spans="1:13" s="174" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="322" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="175"/>
+      <c r="C17" s="173" t="s">
         <v>342</v>
       </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-    </row>
-    <row r="18" spans="1:13" s="176" customFormat="1" ht="12" customHeight="1">
-      <c r="B18" s="177"/>
-      <c r="C18" s="175" t="s">
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+    </row>
+    <row r="18" spans="1:13" s="174" customFormat="1" ht="12" customHeight="1">
+      <c r="A18" s="323"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="173" t="s">
         <v>343</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="175"/>
-      <c r="M18" s="175"/>
-    </row>
-    <row r="19" spans="1:13" ht="12" customHeight="1">
-      <c r="B19" s="66" t="s">
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+    </row>
+    <row r="19" spans="1:13" s="209" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="324"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="211" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="211"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="211"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="211"/>
+      <c r="M19" s="211"/>
+    </row>
+    <row r="20" spans="1:13" ht="12" customHeight="1">
+      <c r="B20" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="1:13" ht="12" customHeight="1">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
-        <v>292</v>
-      </c>
+      <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
@@ -19381,7 +19561,9 @@
     </row>
     <row r="21" spans="1:13" ht="12" customHeight="1">
       <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="C21" s="40" t="s">
+        <v>292</v>
+      </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
@@ -19394,9 +19576,7 @@
       <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" ht="12" customHeight="1">
-      <c r="B22" s="66" t="s">
-        <v>117</v>
-      </c>
+      <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -19410,7 +19590,9 @@
       <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13" ht="12" customHeight="1">
-      <c r="B23" s="66"/>
+      <c r="B23" s="66" t="s">
+        <v>117</v>
+      </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19424,8 +19606,7 @@
       <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" ht="12" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19439,9 +19620,7 @@
       <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="12" customHeight="1">
-      <c r="A25" s="62" t="s">
-        <v>110</v>
-      </c>
+      <c r="A25" s="39"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -19456,7 +19635,9 @@
       <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="12" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="62" t="s">
+        <v>110</v>
+      </c>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -20328,7 +20509,7 @@
     <row r="84" spans="1:13" ht="12" customHeight="1">
       <c r="A84" s="62"/>
       <c r="B84" s="40"/>
-      <c r="C84" s="69"/>
+      <c r="C84" s="40"/>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
       <c r="F84" s="40"/>
@@ -20343,7 +20524,7 @@
     <row r="85" spans="1:13" ht="12" customHeight="1">
       <c r="A85" s="62"/>
       <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
+      <c r="C85" s="69"/>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
       <c r="F85" s="40"/>
@@ -20358,7 +20539,7 @@
     <row r="86" spans="1:13" ht="12" customHeight="1">
       <c r="A86" s="62"/>
       <c r="B86" s="40"/>
-      <c r="C86" s="69"/>
+      <c r="C86" s="40"/>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
       <c r="F86" s="40"/>
@@ -20509,7 +20690,7 @@
       <c r="A96" s="62"/>
       <c r="B96" s="40"/>
       <c r="C96" s="69"/>
-      <c r="D96" s="66"/>
+      <c r="D96" s="40"/>
       <c r="E96" s="40"/>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
@@ -20524,7 +20705,7 @@
       <c r="A97" s="62"/>
       <c r="B97" s="40"/>
       <c r="C97" s="69"/>
-      <c r="D97" s="40"/>
+      <c r="D97" s="66"/>
       <c r="E97" s="40"/>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
@@ -20554,7 +20735,7 @@
       <c r="A99" s="62"/>
       <c r="B99" s="40"/>
       <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
+      <c r="D99" s="40"/>
       <c r="E99" s="40"/>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
@@ -20567,394 +20748,392 @@
     </row>
     <row r="100" spans="1:16" ht="12" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="291" t="s">
-        <v>293</v>
-      </c>
-      <c r="C100" s="292"/>
-      <c r="D100" s="292"/>
-      <c r="E100" s="292"/>
-      <c r="F100" s="292"/>
-      <c r="G100" s="292"/>
-      <c r="H100" s="292"/>
-      <c r="I100" s="292"/>
-      <c r="J100" s="292"/>
-      <c r="K100" s="292"/>
-      <c r="L100" s="292"/>
-      <c r="M100" s="292"/>
-      <c r="N100" s="292"/>
-      <c r="O100" s="292"/>
-      <c r="P100" s="292"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="40"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
     </row>
     <row r="101" spans="1:16" ht="12" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="292"/>
-      <c r="C101" s="292"/>
-      <c r="D101" s="292"/>
-      <c r="E101" s="292"/>
-      <c r="F101" s="292"/>
-      <c r="G101" s="292"/>
-      <c r="H101" s="292"/>
-      <c r="I101" s="292"/>
-      <c r="J101" s="292"/>
-      <c r="K101" s="292"/>
-      <c r="L101" s="292"/>
-      <c r="M101" s="292"/>
-      <c r="N101" s="292"/>
-      <c r="O101" s="292"/>
-      <c r="P101" s="292"/>
+      <c r="B101" s="318" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="319"/>
+      <c r="D101" s="319"/>
+      <c r="E101" s="319"/>
+      <c r="F101" s="319"/>
+      <c r="G101" s="319"/>
+      <c r="H101" s="319"/>
+      <c r="I101" s="319"/>
+      <c r="J101" s="319"/>
+      <c r="K101" s="319"/>
+      <c r="L101" s="319"/>
+      <c r="M101" s="319"/>
+      <c r="N101" s="319"/>
+      <c r="O101" s="319"/>
+      <c r="P101" s="319"/>
     </row>
     <row r="102" spans="1:16" ht="12" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="292"/>
-      <c r="C102" s="292"/>
-      <c r="D102" s="292"/>
-      <c r="E102" s="292"/>
-      <c r="F102" s="292"/>
-      <c r="G102" s="292"/>
-      <c r="H102" s="292"/>
-      <c r="I102" s="292"/>
-      <c r="J102" s="292"/>
-      <c r="K102" s="292"/>
-      <c r="L102" s="292"/>
-      <c r="M102" s="292"/>
-      <c r="N102" s="292"/>
-      <c r="O102" s="292"/>
-      <c r="P102" s="292"/>
+      <c r="B102" s="319"/>
+      <c r="C102" s="319"/>
+      <c r="D102" s="319"/>
+      <c r="E102" s="319"/>
+      <c r="F102" s="319"/>
+      <c r="G102" s="319"/>
+      <c r="H102" s="319"/>
+      <c r="I102" s="319"/>
+      <c r="J102" s="319"/>
+      <c r="K102" s="319"/>
+      <c r="L102" s="319"/>
+      <c r="M102" s="319"/>
+      <c r="N102" s="319"/>
+      <c r="O102" s="319"/>
+      <c r="P102" s="319"/>
     </row>
     <row r="103" spans="1:16" ht="12" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="291" t="s">
-        <v>294</v>
-      </c>
-      <c r="C103" s="292"/>
-      <c r="D103" s="292"/>
-      <c r="E103" s="292"/>
-      <c r="F103" s="292"/>
-      <c r="G103" s="292"/>
-      <c r="H103" s="292"/>
-      <c r="I103" s="292"/>
-      <c r="J103" s="292"/>
-      <c r="K103" s="292"/>
-      <c r="L103" s="292"/>
-      <c r="M103" s="292"/>
-      <c r="N103" s="292"/>
-      <c r="O103" s="292"/>
-      <c r="P103" s="292"/>
+      <c r="B103" s="319"/>
+      <c r="C103" s="319"/>
+      <c r="D103" s="319"/>
+      <c r="E103" s="319"/>
+      <c r="F103" s="319"/>
+      <c r="G103" s="319"/>
+      <c r="H103" s="319"/>
+      <c r="I103" s="319"/>
+      <c r="J103" s="319"/>
+      <c r="K103" s="319"/>
+      <c r="L103" s="319"/>
+      <c r="M103" s="319"/>
+      <c r="N103" s="319"/>
+      <c r="O103" s="319"/>
+      <c r="P103" s="319"/>
     </row>
     <row r="104" spans="1:16" ht="12" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="292"/>
-      <c r="C104" s="292"/>
-      <c r="D104" s="292"/>
-      <c r="E104" s="292"/>
-      <c r="F104" s="292"/>
-      <c r="G104" s="292"/>
-      <c r="H104" s="292"/>
-      <c r="I104" s="292"/>
-      <c r="J104" s="292"/>
-      <c r="K104" s="292"/>
-      <c r="L104" s="292"/>
-      <c r="M104" s="292"/>
-      <c r="N104" s="292"/>
-      <c r="O104" s="292"/>
-      <c r="P104" s="292"/>
+      <c r="B104" s="318" t="s">
+        <v>294</v>
+      </c>
+      <c r="C104" s="319"/>
+      <c r="D104" s="319"/>
+      <c r="E104" s="319"/>
+      <c r="F104" s="319"/>
+      <c r="G104" s="319"/>
+      <c r="H104" s="319"/>
+      <c r="I104" s="319"/>
+      <c r="J104" s="319"/>
+      <c r="K104" s="319"/>
+      <c r="L104" s="319"/>
+      <c r="M104" s="319"/>
+      <c r="N104" s="319"/>
+      <c r="O104" s="319"/>
+      <c r="P104" s="319"/>
     </row>
     <row r="105" spans="1:16" ht="12" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="292"/>
-      <c r="C105" s="292"/>
-      <c r="D105" s="292"/>
-      <c r="E105" s="292"/>
-      <c r="F105" s="292"/>
-      <c r="G105" s="292"/>
-      <c r="H105" s="292"/>
-      <c r="I105" s="292"/>
-      <c r="J105" s="292"/>
-      <c r="K105" s="292"/>
-      <c r="L105" s="292"/>
-      <c r="M105" s="292"/>
-      <c r="N105" s="292"/>
-      <c r="O105" s="292"/>
-      <c r="P105" s="292"/>
+      <c r="B105" s="319"/>
+      <c r="C105" s="319"/>
+      <c r="D105" s="319"/>
+      <c r="E105" s="319"/>
+      <c r="F105" s="319"/>
+      <c r="G105" s="319"/>
+      <c r="H105" s="319"/>
+      <c r="I105" s="319"/>
+      <c r="J105" s="319"/>
+      <c r="K105" s="319"/>
+      <c r="L105" s="319"/>
+      <c r="M105" s="319"/>
+      <c r="N105" s="319"/>
+      <c r="O105" s="319"/>
+      <c r="P105" s="319"/>
     </row>
     <row r="106" spans="1:16" ht="12" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="291" t="s">
-        <v>297</v>
-      </c>
-      <c r="C106" s="292"/>
-      <c r="D106" s="292"/>
-      <c r="E106" s="292"/>
-      <c r="F106" s="292"/>
-      <c r="G106" s="292"/>
-      <c r="H106" s="292"/>
-      <c r="I106" s="292"/>
-      <c r="J106" s="292"/>
-      <c r="K106" s="292"/>
-      <c r="L106" s="292"/>
-      <c r="M106" s="292"/>
-      <c r="N106" s="292"/>
-      <c r="O106" s="292"/>
-      <c r="P106" s="292"/>
+      <c r="B106" s="319"/>
+      <c r="C106" s="319"/>
+      <c r="D106" s="319"/>
+      <c r="E106" s="319"/>
+      <c r="F106" s="319"/>
+      <c r="G106" s="319"/>
+      <c r="H106" s="319"/>
+      <c r="I106" s="319"/>
+      <c r="J106" s="319"/>
+      <c r="K106" s="319"/>
+      <c r="L106" s="319"/>
+      <c r="M106" s="319"/>
+      <c r="N106" s="319"/>
+      <c r="O106" s="319"/>
+      <c r="P106" s="319"/>
     </row>
     <row r="107" spans="1:16" ht="12" customHeight="1">
       <c r="A107" s="62"/>
-      <c r="B107" s="292"/>
-      <c r="C107" s="292"/>
-      <c r="D107" s="292"/>
-      <c r="E107" s="292"/>
-      <c r="F107" s="292"/>
-      <c r="G107" s="292"/>
-      <c r="H107" s="292"/>
-      <c r="I107" s="292"/>
-      <c r="J107" s="292"/>
-      <c r="K107" s="292"/>
-      <c r="L107" s="292"/>
-      <c r="M107" s="292"/>
-      <c r="N107" s="292"/>
-      <c r="O107" s="292"/>
-      <c r="P107" s="292"/>
+      <c r="B107" s="318" t="s">
+        <v>297</v>
+      </c>
+      <c r="C107" s="319"/>
+      <c r="D107" s="319"/>
+      <c r="E107" s="319"/>
+      <c r="F107" s="319"/>
+      <c r="G107" s="319"/>
+      <c r="H107" s="319"/>
+      <c r="I107" s="319"/>
+      <c r="J107" s="319"/>
+      <c r="K107" s="319"/>
+      <c r="L107" s="319"/>
+      <c r="M107" s="319"/>
+      <c r="N107" s="319"/>
+      <c r="O107" s="319"/>
+      <c r="P107" s="319"/>
     </row>
     <row r="108" spans="1:16" ht="12" customHeight="1">
       <c r="A108" s="62"/>
-      <c r="B108" s="292"/>
-      <c r="C108" s="292"/>
-      <c r="D108" s="292"/>
-      <c r="E108" s="292"/>
-      <c r="F108" s="292"/>
-      <c r="G108" s="292"/>
-      <c r="H108" s="292"/>
-      <c r="I108" s="292"/>
-      <c r="J108" s="292"/>
-      <c r="K108" s="292"/>
-      <c r="L108" s="292"/>
-      <c r="M108" s="292"/>
-      <c r="N108" s="292"/>
-      <c r="O108" s="292"/>
-      <c r="P108" s="292"/>
+      <c r="B108" s="319"/>
+      <c r="C108" s="319"/>
+      <c r="D108" s="319"/>
+      <c r="E108" s="319"/>
+      <c r="F108" s="319"/>
+      <c r="G108" s="319"/>
+      <c r="H108" s="319"/>
+      <c r="I108" s="319"/>
+      <c r="J108" s="319"/>
+      <c r="K108" s="319"/>
+      <c r="L108" s="319"/>
+      <c r="M108" s="319"/>
+      <c r="N108" s="319"/>
+      <c r="O108" s="319"/>
+      <c r="P108" s="319"/>
     </row>
     <row r="109" spans="1:16" ht="12" customHeight="1">
       <c r="A109" s="62"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="40"/>
-      <c r="K109" s="40"/>
-      <c r="L109" s="40"/>
-      <c r="M109" s="40"/>
+      <c r="B109" s="319"/>
+      <c r="C109" s="319"/>
+      <c r="D109" s="319"/>
+      <c r="E109" s="319"/>
+      <c r="F109" s="319"/>
+      <c r="G109" s="319"/>
+      <c r="H109" s="319"/>
+      <c r="I109" s="319"/>
+      <c r="J109" s="319"/>
+      <c r="K109" s="319"/>
+      <c r="L109" s="319"/>
+      <c r="M109" s="319"/>
+      <c r="N109" s="319"/>
+      <c r="O109" s="319"/>
+      <c r="P109" s="319"/>
     </row>
     <row r="110" spans="1:16" ht="12" customHeight="1">
       <c r="A110" s="62"/>
-      <c r="B110" s="291" t="s">
-        <v>296</v>
-      </c>
-      <c r="C110" s="292"/>
-      <c r="D110" s="292"/>
-      <c r="E110" s="292"/>
-      <c r="F110" s="292"/>
-      <c r="G110" s="292"/>
-      <c r="H110" s="292"/>
-      <c r="I110" s="292"/>
-      <c r="J110" s="292"/>
-      <c r="K110" s="292"/>
-      <c r="L110" s="292"/>
-      <c r="M110" s="292"/>
-      <c r="N110" s="292"/>
-      <c r="O110" s="292"/>
-      <c r="P110" s="292"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
     </row>
     <row r="111" spans="1:16" ht="12" customHeight="1">
       <c r="A111" s="62"/>
-      <c r="B111" s="291"/>
-      <c r="C111" s="292"/>
-      <c r="D111" s="292"/>
-      <c r="E111" s="292"/>
-      <c r="F111" s="292"/>
-      <c r="G111" s="292"/>
-      <c r="H111" s="292"/>
-      <c r="I111" s="292"/>
-      <c r="J111" s="292"/>
-      <c r="K111" s="292"/>
-      <c r="L111" s="292"/>
-      <c r="M111" s="292"/>
-      <c r="N111" s="292"/>
-      <c r="O111" s="292"/>
-      <c r="P111" s="292"/>
+      <c r="B111" s="318" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" s="319"/>
+      <c r="D111" s="319"/>
+      <c r="E111" s="319"/>
+      <c r="F111" s="319"/>
+      <c r="G111" s="319"/>
+      <c r="H111" s="319"/>
+      <c r="I111" s="319"/>
+      <c r="J111" s="319"/>
+      <c r="K111" s="319"/>
+      <c r="L111" s="319"/>
+      <c r="M111" s="319"/>
+      <c r="N111" s="319"/>
+      <c r="O111" s="319"/>
+      <c r="P111" s="319"/>
     </row>
     <row r="112" spans="1:16" ht="12" customHeight="1">
       <c r="A112" s="62"/>
-      <c r="B112" s="291"/>
-      <c r="C112" s="292"/>
-      <c r="D112" s="292"/>
-      <c r="E112" s="292"/>
-      <c r="F112" s="292"/>
-      <c r="G112" s="292"/>
-      <c r="H112" s="292"/>
-      <c r="I112" s="292"/>
-      <c r="J112" s="292"/>
-      <c r="K112" s="292"/>
-      <c r="L112" s="292"/>
-      <c r="M112" s="292"/>
-      <c r="N112" s="292"/>
-      <c r="O112" s="292"/>
-      <c r="P112" s="292"/>
-    </row>
-    <row r="113" spans="1:20" ht="12" customHeight="1">
+      <c r="B112" s="318"/>
+      <c r="C112" s="319"/>
+      <c r="D112" s="319"/>
+      <c r="E112" s="319"/>
+      <c r="F112" s="319"/>
+      <c r="G112" s="319"/>
+      <c r="H112" s="319"/>
+      <c r="I112" s="319"/>
+      <c r="J112" s="319"/>
+      <c r="K112" s="319"/>
+      <c r="L112" s="319"/>
+      <c r="M112" s="319"/>
+      <c r="N112" s="319"/>
+      <c r="O112" s="319"/>
+      <c r="P112" s="319"/>
+    </row>
+    <row r="113" spans="1:16" ht="12" customHeight="1">
       <c r="A113" s="62"/>
-      <c r="B113" s="291"/>
-      <c r="C113" s="292"/>
-      <c r="D113" s="292"/>
-      <c r="E113" s="292"/>
-      <c r="F113" s="292"/>
-      <c r="G113" s="292"/>
-      <c r="H113" s="292"/>
-      <c r="I113" s="292"/>
-      <c r="J113" s="292"/>
-      <c r="K113" s="292"/>
-      <c r="L113" s="292"/>
-      <c r="M113" s="292"/>
-      <c r="N113" s="292"/>
-      <c r="O113" s="292"/>
-      <c r="P113" s="292"/>
-    </row>
-    <row r="114" spans="1:20" ht="12" customHeight="1">
+      <c r="B113" s="318"/>
+      <c r="C113" s="319"/>
+      <c r="D113" s="319"/>
+      <c r="E113" s="319"/>
+      <c r="F113" s="319"/>
+      <c r="G113" s="319"/>
+      <c r="H113" s="319"/>
+      <c r="I113" s="319"/>
+      <c r="J113" s="319"/>
+      <c r="K113" s="319"/>
+      <c r="L113" s="319"/>
+      <c r="M113" s="319"/>
+      <c r="N113" s="319"/>
+      <c r="O113" s="319"/>
+      <c r="P113" s="319"/>
+    </row>
+    <row r="114" spans="1:16" ht="12" customHeight="1">
       <c r="A114" s="62"/>
-      <c r="B114" s="291"/>
-      <c r="C114" s="292"/>
-      <c r="D114" s="292"/>
-      <c r="E114" s="292"/>
-      <c r="F114" s="292"/>
-      <c r="G114" s="292"/>
-      <c r="H114" s="292"/>
-      <c r="I114" s="292"/>
-      <c r="J114" s="292"/>
-      <c r="K114" s="292"/>
-      <c r="L114" s="292"/>
-      <c r="M114" s="292"/>
-      <c r="N114" s="292"/>
-      <c r="O114" s="292"/>
-      <c r="P114" s="292"/>
-    </row>
-    <row r="115" spans="1:20" ht="12" customHeight="1">
+      <c r="B114" s="318"/>
+      <c r="C114" s="319"/>
+      <c r="D114" s="319"/>
+      <c r="E114" s="319"/>
+      <c r="F114" s="319"/>
+      <c r="G114" s="319"/>
+      <c r="H114" s="319"/>
+      <c r="I114" s="319"/>
+      <c r="J114" s="319"/>
+      <c r="K114" s="319"/>
+      <c r="L114" s="319"/>
+      <c r="M114" s="319"/>
+      <c r="N114" s="319"/>
+      <c r="O114" s="319"/>
+      <c r="P114" s="319"/>
+    </row>
+    <row r="115" spans="1:16" ht="12" customHeight="1">
       <c r="A115" s="62"/>
-      <c r="B115" s="291"/>
-      <c r="C115" s="292"/>
-      <c r="D115" s="292"/>
-      <c r="E115" s="292"/>
-      <c r="F115" s="292"/>
-      <c r="G115" s="292"/>
-      <c r="H115" s="292"/>
-      <c r="I115" s="292"/>
-      <c r="J115" s="292"/>
-      <c r="K115" s="292"/>
-      <c r="L115" s="292"/>
-      <c r="M115" s="292"/>
-      <c r="N115" s="292"/>
-      <c r="O115" s="292"/>
-      <c r="P115" s="292"/>
-    </row>
-    <row r="116" spans="1:20" ht="12" customHeight="1">
+      <c r="B115" s="318"/>
+      <c r="C115" s="319"/>
+      <c r="D115" s="319"/>
+      <c r="E115" s="319"/>
+      <c r="F115" s="319"/>
+      <c r="G115" s="319"/>
+      <c r="H115" s="319"/>
+      <c r="I115" s="319"/>
+      <c r="J115" s="319"/>
+      <c r="K115" s="319"/>
+      <c r="L115" s="319"/>
+      <c r="M115" s="319"/>
+      <c r="N115" s="319"/>
+      <c r="O115" s="319"/>
+      <c r="P115" s="319"/>
+    </row>
+    <row r="116" spans="1:16" ht="12" customHeight="1">
       <c r="A116" s="62"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="40"/>
-      <c r="K116" s="40"/>
-      <c r="L116" s="40"/>
-      <c r="M116" s="40"/>
-    </row>
-    <row r="117" spans="1:20" ht="12" customHeight="1">
+      <c r="B116" s="318"/>
+      <c r="C116" s="319"/>
+      <c r="D116" s="319"/>
+      <c r="E116" s="319"/>
+      <c r="F116" s="319"/>
+      <c r="G116" s="319"/>
+      <c r="H116" s="319"/>
+      <c r="I116" s="319"/>
+      <c r="J116" s="319"/>
+      <c r="K116" s="319"/>
+      <c r="L116" s="319"/>
+      <c r="M116" s="319"/>
+      <c r="N116" s="319"/>
+      <c r="O116" s="319"/>
+      <c r="P116" s="319"/>
+    </row>
+    <row r="117" spans="1:16" ht="12" customHeight="1">
       <c r="A117" s="62"/>
-      <c r="B117" s="291" t="s">
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="40"/>
+      <c r="L117" s="40"/>
+      <c r="M117" s="40"/>
+    </row>
+    <row r="118" spans="1:16" ht="12" customHeight="1">
+      <c r="A118" s="62"/>
+      <c r="B118" s="318" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="292"/>
-      <c r="D117" s="292"/>
-      <c r="E117" s="292"/>
-      <c r="F117" s="292"/>
-      <c r="G117" s="292"/>
-      <c r="H117" s="292"/>
-      <c r="I117" s="292"/>
-      <c r="J117" s="292"/>
-      <c r="K117" s="292"/>
-      <c r="L117" s="292"/>
-      <c r="M117" s="292"/>
-      <c r="N117" s="292"/>
-      <c r="O117" s="292"/>
-      <c r="P117" s="292"/>
-    </row>
-    <row r="118" spans="1:20" ht="12" customHeight="1">
-      <c r="A118" s="62"/>
-      <c r="B118" s="292"/>
-      <c r="C118" s="292"/>
-      <c r="D118" s="292"/>
-      <c r="E118" s="292"/>
-      <c r="F118" s="292"/>
-      <c r="G118" s="292"/>
-      <c r="H118" s="292"/>
-      <c r="I118" s="292"/>
-      <c r="J118" s="292"/>
-      <c r="K118" s="292"/>
-      <c r="L118" s="292"/>
-      <c r="M118" s="292"/>
-      <c r="N118" s="292"/>
-      <c r="O118" s="292"/>
-      <c r="P118" s="292"/>
-    </row>
-    <row r="119" spans="1:20" ht="12" customHeight="1">
+      <c r="C118" s="319"/>
+      <c r="D118" s="319"/>
+      <c r="E118" s="319"/>
+      <c r="F118" s="319"/>
+      <c r="G118" s="319"/>
+      <c r="H118" s="319"/>
+      <c r="I118" s="319"/>
+      <c r="J118" s="319"/>
+      <c r="K118" s="319"/>
+      <c r="L118" s="319"/>
+      <c r="M118" s="319"/>
+      <c r="N118" s="319"/>
+      <c r="O118" s="319"/>
+      <c r="P118" s="319"/>
+    </row>
+    <row r="119" spans="1:16" ht="12" customHeight="1">
       <c r="A119" s="62"/>
-      <c r="B119" s="292"/>
-      <c r="C119" s="292"/>
-      <c r="D119" s="292"/>
-      <c r="E119" s="292"/>
-      <c r="F119" s="292"/>
-      <c r="G119" s="292"/>
-      <c r="H119" s="292"/>
-      <c r="I119" s="292"/>
-      <c r="J119" s="292"/>
-      <c r="K119" s="292"/>
-      <c r="L119" s="292"/>
-      <c r="M119" s="292"/>
-      <c r="N119" s="292"/>
-      <c r="O119" s="292"/>
-      <c r="P119" s="292"/>
-    </row>
-    <row r="120" spans="1:20" ht="12" customHeight="1">
+      <c r="B119" s="319"/>
+      <c r="C119" s="319"/>
+      <c r="D119" s="319"/>
+      <c r="E119" s="319"/>
+      <c r="F119" s="319"/>
+      <c r="G119" s="319"/>
+      <c r="H119" s="319"/>
+      <c r="I119" s="319"/>
+      <c r="J119" s="319"/>
+      <c r="K119" s="319"/>
+      <c r="L119" s="319"/>
+      <c r="M119" s="319"/>
+      <c r="N119" s="319"/>
+      <c r="O119" s="319"/>
+      <c r="P119" s="319"/>
+    </row>
+    <row r="120" spans="1:16" ht="12" customHeight="1">
       <c r="A120" s="62"/>
-      <c r="B120" s="294" t="s">
+      <c r="B120" s="319"/>
+      <c r="C120" s="319"/>
+      <c r="D120" s="319"/>
+      <c r="E120" s="319"/>
+      <c r="F120" s="319"/>
+      <c r="G120" s="319"/>
+      <c r="H120" s="319"/>
+      <c r="I120" s="319"/>
+      <c r="J120" s="319"/>
+      <c r="K120" s="319"/>
+      <c r="L120" s="319"/>
+      <c r="M120" s="319"/>
+      <c r="N120" s="319"/>
+      <c r="O120" s="319"/>
+      <c r="P120" s="319"/>
+    </row>
+    <row r="121" spans="1:16" ht="12" customHeight="1">
+      <c r="A121" s="62"/>
+      <c r="B121" s="321" t="s">
         <v>301</v>
       </c>
-      <c r="C120" s="294"/>
-      <c r="D120" s="294"/>
-      <c r="E120" s="294"/>
-      <c r="F120" s="294"/>
-      <c r="G120" s="40"/>
-      <c r="H120" s="40"/>
-      <c r="I120" s="40"/>
-      <c r="J120" s="40"/>
-      <c r="K120" s="40"/>
-      <c r="L120" s="40"/>
-      <c r="M120" s="40"/>
-    </row>
-    <row r="121" spans="1:20" ht="12" customHeight="1">
-      <c r="A121" s="62"/>
-      <c r="B121" s="141" t="s">
-        <v>299</v>
-      </c>
-      <c r="C121" s="40"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="40"/>
-      <c r="F121" s="40"/>
+      <c r="C121" s="321"/>
+      <c r="D121" s="321"/>
+      <c r="E121" s="321"/>
+      <c r="F121" s="321"/>
       <c r="G121" s="40"/>
       <c r="H121" s="40"/>
       <c r="I121" s="40"/>
@@ -20963,9 +21142,11 @@
       <c r="L121" s="40"/>
       <c r="M121" s="40"/>
     </row>
-    <row r="122" spans="1:20" ht="12" customHeight="1">
+    <row r="122" spans="1:16" ht="12" customHeight="1">
       <c r="A122" s="62"/>
-      <c r="B122" s="40"/>
+      <c r="B122" s="141" t="s">
+        <v>299</v>
+      </c>
       <c r="C122" s="40"/>
       <c r="D122" s="40"/>
       <c r="E122" s="40"/>
@@ -20978,15 +21159,13 @@
       <c r="L122" s="40"/>
       <c r="M122" s="40"/>
     </row>
-    <row r="123" spans="1:20" ht="12" customHeight="1">
+    <row r="123" spans="1:16" ht="12" customHeight="1">
       <c r="A123" s="62"/>
-      <c r="B123" s="294" t="s">
-        <v>298</v>
-      </c>
-      <c r="C123" s="294"/>
-      <c r="D123" s="294"/>
-      <c r="E123" s="294"/>
-      <c r="F123" s="294"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
       <c r="G123" s="40"/>
       <c r="H123" s="40"/>
       <c r="I123" s="40"/>
@@ -20995,15 +21174,15 @@
       <c r="L123" s="40"/>
       <c r="M123" s="40"/>
     </row>
-    <row r="124" spans="1:20" ht="12" customHeight="1">
+    <row r="124" spans="1:16" ht="12" customHeight="1">
       <c r="A124" s="62"/>
-      <c r="B124" s="141" t="s">
-        <v>300</v>
-      </c>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
+      <c r="B124" s="321" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" s="321"/>
+      <c r="D124" s="321"/>
+      <c r="E124" s="321"/>
+      <c r="F124" s="321"/>
       <c r="G124" s="40"/>
       <c r="H124" s="40"/>
       <c r="I124" s="40"/>
@@ -21012,45 +21191,44 @@
       <c r="L124" s="40"/>
       <c r="M124" s="40"/>
     </row>
-    <row r="125" spans="1:20" s="146" customFormat="1" ht="12" customHeight="1">
-      <c r="A125" s="143"/>
-      <c r="B125" s="144"/>
-      <c r="C125" s="293" t="s">
-        <v>305</v>
-      </c>
-      <c r="D125" s="293"/>
-      <c r="E125" s="293"/>
-      <c r="F125" s="293"/>
-      <c r="G125" s="293"/>
-      <c r="H125" s="145"/>
-      <c r="I125" s="145"/>
-      <c r="J125" s="145"/>
-      <c r="K125" s="145"/>
-      <c r="L125" s="145"/>
-    </row>
-    <row r="126" spans="1:20" s="146" customFormat="1" ht="12" customHeight="1">
+    <row r="125" spans="1:16" ht="12" customHeight="1">
+      <c r="A125" s="62"/>
+      <c r="B125" s="141" t="s">
+        <v>300</v>
+      </c>
+      <c r="C125" s="40"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="40"/>
+      <c r="M125" s="40"/>
+    </row>
+    <row r="126" spans="1:16" s="146" customFormat="1" ht="12" customHeight="1">
       <c r="A126" s="143"/>
       <c r="B126" s="144"/>
-      <c r="C126" s="147" t="s">
-        <v>309</v>
-      </c>
-      <c r="D126" s="145"/>
-      <c r="E126" s="145"/>
-      <c r="F126" s="145"/>
-      <c r="G126" s="145"/>
+      <c r="C126" s="320" t="s">
+        <v>305</v>
+      </c>
+      <c r="D126" s="320"/>
+      <c r="E126" s="320"/>
+      <c r="F126" s="320"/>
+      <c r="G126" s="320"/>
       <c r="H126" s="145"/>
       <c r="I126" s="145"/>
       <c r="J126" s="145"/>
       <c r="K126" s="145"/>
       <c r="L126" s="145"/>
     </row>
-    <row r="127" spans="1:20" s="146" customFormat="1" ht="12" customHeight="1">
-      <c r="A127" s="143" t="s">
-        <v>306</v>
-      </c>
+    <row r="127" spans="1:16" s="146" customFormat="1" ht="12" customHeight="1">
+      <c r="A127" s="143"/>
       <c r="B127" s="144"/>
       <c r="C127" s="147" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D127" s="145"/>
       <c r="E127" s="145"/>
@@ -21062,42 +21240,38 @@
       <c r="K127" s="145"/>
       <c r="L127" s="145"/>
     </row>
-    <row r="128" spans="1:20" s="178" customFormat="1" ht="12" customHeight="1">
-      <c r="A128" s="179"/>
-      <c r="B128" s="179"/>
-      <c r="C128" s="179"/>
-      <c r="D128" s="179"/>
-      <c r="E128" s="179"/>
-      <c r="F128" s="179"/>
-      <c r="G128" s="179"/>
-      <c r="H128" s="179"/>
-      <c r="I128" s="179"/>
-      <c r="J128" s="179"/>
-      <c r="K128" s="179"/>
-      <c r="L128" s="179"/>
-      <c r="M128" s="179"/>
-      <c r="N128" s="22"/>
-      <c r="O128" s="22"/>
-      <c r="P128" s="22"/>
-      <c r="Q128" s="22"/>
-      <c r="R128" s="22"/>
-      <c r="S128" s="22"/>
-      <c r="T128" s="22"/>
-    </row>
-    <row r="129" spans="1:20" s="178" customFormat="1" ht="12" customHeight="1">
-      <c r="A129" s="179"/>
-      <c r="B129" s="179"/>
-      <c r="C129" s="179"/>
-      <c r="D129" s="179"/>
-      <c r="E129" s="179"/>
-      <c r="F129" s="179"/>
-      <c r="G129" s="179"/>
-      <c r="H129" s="179"/>
-      <c r="I129" s="179"/>
-      <c r="J129" s="179"/>
-      <c r="K129" s="179"/>
-      <c r="L129" s="179"/>
-      <c r="M129" s="179"/>
+    <row r="128" spans="1:16" s="146" customFormat="1" ht="12" customHeight="1">
+      <c r="A128" s="143" t="s">
+        <v>306</v>
+      </c>
+      <c r="B128" s="144"/>
+      <c r="C128" s="147" t="s">
+        <v>307</v>
+      </c>
+      <c r="D128" s="145"/>
+      <c r="E128" s="145"/>
+      <c r="F128" s="145"/>
+      <c r="G128" s="145"/>
+      <c r="H128" s="145"/>
+      <c r="I128" s="145"/>
+      <c r="J128" s="145"/>
+      <c r="K128" s="145"/>
+      <c r="L128" s="145"/>
+    </row>
+    <row r="129" spans="1:20" s="176" customFormat="1" ht="12" customHeight="1">
+      <c r="A129" s="177"/>
+      <c r="B129" s="177"/>
+      <c r="C129" s="177"/>
+      <c r="D129" s="177"/>
+      <c r="E129" s="177"/>
+      <c r="F129" s="177"/>
+      <c r="G129" s="177"/>
+      <c r="H129" s="177"/>
+      <c r="I129" s="177"/>
+      <c r="J129" s="177"/>
+      <c r="K129" s="177"/>
+      <c r="L129" s="177"/>
+      <c r="M129" s="177"/>
       <c r="N129" s="22"/>
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
@@ -21106,27 +21280,33 @@
       <c r="S129" s="22"/>
       <c r="T129" s="22"/>
     </row>
-    <row r="130" spans="1:20" ht="12" customHeight="1">
-      <c r="A130" s="62" t="s">
+    <row r="130" spans="1:20" s="176" customFormat="1" ht="12" customHeight="1">
+      <c r="A130" s="177"/>
+      <c r="B130" s="177"/>
+      <c r="C130" s="177"/>
+      <c r="D130" s="177"/>
+      <c r="E130" s="177"/>
+      <c r="F130" s="177"/>
+      <c r="G130" s="177"/>
+      <c r="H130" s="177"/>
+      <c r="I130" s="177"/>
+      <c r="J130" s="177"/>
+      <c r="K130" s="177"/>
+      <c r="L130" s="177"/>
+      <c r="M130" s="177"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="22"/>
+      <c r="P130" s="22"/>
+      <c r="Q130" s="22"/>
+      <c r="R130" s="22"/>
+      <c r="S130" s="22"/>
+      <c r="T130" s="22"/>
+    </row>
+    <row r="131" spans="1:20" ht="12" customHeight="1">
+      <c r="A131" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B130" s="40"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="40"/>
-      <c r="K130" s="40"/>
-      <c r="L130" s="40"/>
-      <c r="M130" s="40"/>
-    </row>
-    <row r="131" spans="1:20" ht="12" customHeight="1">
-      <c r="B131" s="66" t="s">
-        <v>118</v>
-      </c>
+      <c r="B131" s="40"/>
       <c r="C131" s="69"/>
       <c r="D131" s="40"/>
       <c r="E131" s="40"/>
@@ -21140,10 +21320,10 @@
       <c r="M131" s="40"/>
     </row>
     <row r="132" spans="1:20" ht="12" customHeight="1">
-      <c r="B132" s="40"/>
-      <c r="C132" s="69" t="s">
-        <v>191</v>
-      </c>
+      <c r="B132" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="69"/>
       <c r="D132" s="40"/>
       <c r="E132" s="40"/>
       <c r="F132" s="40"/>
@@ -21157,7 +21337,9 @@
     </row>
     <row r="133" spans="1:20" ht="12" customHeight="1">
       <c r="B133" s="40"/>
-      <c r="C133" s="69"/>
+      <c r="C133" s="69" t="s">
+        <v>191</v>
+      </c>
       <c r="D133" s="40"/>
       <c r="E133" s="40"/>
       <c r="F133" s="40"/>
@@ -21170,10 +21352,8 @@
       <c r="M133" s="40"/>
     </row>
     <row r="134" spans="1:20" ht="12" customHeight="1">
-      <c r="B134" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C134" s="40"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="69"/>
       <c r="D134" s="40"/>
       <c r="E134" s="40"/>
       <c r="F134" s="40"/>
@@ -21186,10 +21366,10 @@
       <c r="M134" s="40"/>
     </row>
     <row r="135" spans="1:20" ht="12" customHeight="1">
-      <c r="B135" s="66"/>
-      <c r="C135" s="69" t="s">
-        <v>191</v>
-      </c>
+      <c r="B135" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" s="40"/>
       <c r="D135" s="40"/>
       <c r="E135" s="40"/>
       <c r="F135" s="40"/>
@@ -21202,9 +21382,10 @@
       <c r="M135" s="40"/>
     </row>
     <row r="136" spans="1:20" ht="12" customHeight="1">
-      <c r="A136" s="39"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="40"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="69" t="s">
+        <v>191</v>
+      </c>
       <c r="D136" s="40"/>
       <c r="E136" s="40"/>
       <c r="F136" s="40"/>
@@ -21217,11 +21398,9 @@
       <c r="M136" s="40"/>
     </row>
     <row r="137" spans="1:20" ht="12" customHeight="1">
-      <c r="A137" s="62" t="s">
-        <v>121</v>
-      </c>
+      <c r="A137" s="39"/>
       <c r="B137" s="40"/>
-      <c r="C137" s="69"/>
+      <c r="C137" s="40"/>
       <c r="D137" s="40"/>
       <c r="E137" s="40"/>
       <c r="F137" s="40"/>
@@ -21234,9 +21413,10 @@
       <c r="M137" s="40"/>
     </row>
     <row r="138" spans="1:20" ht="12" customHeight="1">
-      <c r="B138" s="66" t="s">
-        <v>118</v>
-      </c>
+      <c r="A138" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" s="40"/>
       <c r="C138" s="69"/>
       <c r="D138" s="40"/>
       <c r="E138" s="40"/>
@@ -21250,10 +21430,10 @@
       <c r="M138" s="40"/>
     </row>
     <row r="139" spans="1:20" ht="12" customHeight="1">
-      <c r="B139" s="40"/>
-      <c r="C139" s="69" t="s">
-        <v>192</v>
-      </c>
+      <c r="B139" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" s="69"/>
       <c r="D139" s="40"/>
       <c r="E139" s="40"/>
       <c r="F139" s="40"/>
@@ -21267,7 +21447,9 @@
     </row>
     <row r="140" spans="1:20" ht="12" customHeight="1">
       <c r="B140" s="40"/>
-      <c r="C140" s="69"/>
+      <c r="C140" s="69" t="s">
+        <v>192</v>
+      </c>
       <c r="D140" s="40"/>
       <c r="E140" s="40"/>
       <c r="F140" s="40"/>
@@ -21280,10 +21462,8 @@
       <c r="M140" s="40"/>
     </row>
     <row r="141" spans="1:20" ht="12" customHeight="1">
-      <c r="B141" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C141" s="40"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="69"/>
       <c r="D141" s="40"/>
       <c r="E141" s="40"/>
       <c r="F141" s="40"/>
@@ -21296,10 +21476,10 @@
       <c r="M141" s="40"/>
     </row>
     <row r="142" spans="1:20" ht="12" customHeight="1">
-      <c r="B142" s="66"/>
-      <c r="C142" s="69" t="s">
-        <v>192</v>
-      </c>
+      <c r="B142" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" s="40"/>
       <c r="D142" s="40"/>
       <c r="E142" s="40"/>
       <c r="F142" s="40"/>
@@ -21312,9 +21492,10 @@
       <c r="M142" s="40"/>
     </row>
     <row r="143" spans="1:20" ht="12" customHeight="1">
-      <c r="A143" s="39"/>
-      <c r="B143" s="69"/>
-      <c r="C143" s="40"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="69" t="s">
+        <v>192</v>
+      </c>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="40"/>
@@ -21327,11 +21508,9 @@
       <c r="M143" s="40"/>
     </row>
     <row r="144" spans="1:20" ht="12" customHeight="1">
-      <c r="A144" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B144" s="40"/>
-      <c r="C144" s="69"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="69"/>
+      <c r="C144" s="40"/>
       <c r="D144" s="40"/>
       <c r="E144" s="40"/>
       <c r="F144" s="40"/>
@@ -21344,9 +21523,10 @@
       <c r="M144" s="40"/>
     </row>
     <row r="145" spans="1:13" ht="12" customHeight="1">
-      <c r="B145" s="66" t="s">
-        <v>123</v>
-      </c>
+      <c r="A145" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" s="40"/>
       <c r="C145" s="69"/>
       <c r="D145" s="40"/>
       <c r="E145" s="40"/>
@@ -21360,7 +21540,9 @@
       <c r="M145" s="40"/>
     </row>
     <row r="146" spans="1:13" ht="12" customHeight="1">
-      <c r="B146" s="66"/>
+      <c r="B146" s="66" t="s">
+        <v>123</v>
+      </c>
       <c r="C146" s="69"/>
       <c r="D146" s="40"/>
       <c r="E146" s="40"/>
@@ -21374,7 +21556,7 @@
       <c r="M146" s="40"/>
     </row>
     <row r="147" spans="1:13" ht="12" customHeight="1">
-      <c r="B147" s="40"/>
+      <c r="B147" s="66"/>
       <c r="C147" s="69"/>
       <c r="D147" s="40"/>
       <c r="E147" s="40"/>
@@ -21388,10 +21570,8 @@
       <c r="M147" s="40"/>
     </row>
     <row r="148" spans="1:13" ht="12" customHeight="1">
-      <c r="B148" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C148" s="40"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="69"/>
       <c r="D148" s="40"/>
       <c r="E148" s="40"/>
       <c r="F148" s="40"/>
@@ -21404,7 +21584,9 @@
       <c r="M148" s="40"/>
     </row>
     <row r="149" spans="1:13" ht="12" customHeight="1">
-      <c r="B149" s="66"/>
+      <c r="B149" s="66" t="s">
+        <v>124</v>
+      </c>
       <c r="C149" s="40"/>
       <c r="D149" s="40"/>
       <c r="E149" s="40"/>
@@ -21418,11 +21600,8 @@
       <c r="M149" s="40"/>
     </row>
     <row r="150" spans="1:13" ht="12" customHeight="1">
-      <c r="A150" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B150" s="40"/>
-      <c r="C150" s="69"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="40"/>
       <c r="D150" s="40"/>
       <c r="E150" s="40"/>
       <c r="F150" s="40"/>
@@ -21435,7 +21614,10 @@
       <c r="M150" s="40"/>
     </row>
     <row r="151" spans="1:13" ht="12" customHeight="1">
-      <c r="B151" s="66"/>
+      <c r="A151" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" s="40"/>
       <c r="C151" s="69"/>
       <c r="D151" s="40"/>
       <c r="E151" s="40"/>
@@ -21449,7 +21631,7 @@
       <c r="M151" s="40"/>
     </row>
     <row r="152" spans="1:13" ht="12" customHeight="1">
-      <c r="B152" s="40"/>
+      <c r="B152" s="66"/>
       <c r="C152" s="69"/>
       <c r="D152" s="40"/>
       <c r="E152" s="40"/>
@@ -21463,8 +21645,8 @@
       <c r="M152" s="40"/>
     </row>
     <row r="153" spans="1:13" ht="12" customHeight="1">
-      <c r="B153" s="66"/>
-      <c r="C153" s="40"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="69"/>
       <c r="D153" s="40"/>
       <c r="E153" s="40"/>
       <c r="F153" s="40"/>
@@ -21491,7 +21673,7 @@
       <c r="M154" s="40"/>
     </row>
     <row r="155" spans="1:13" ht="12" customHeight="1">
-      <c r="B155" s="40"/>
+      <c r="B155" s="66"/>
       <c r="C155" s="40"/>
       <c r="D155" s="40"/>
       <c r="E155" s="40"/>
@@ -21519,7 +21701,7 @@
       <c r="M156" s="40"/>
     </row>
     <row r="157" spans="1:13" ht="12" customHeight="1">
-      <c r="B157" s="66"/>
+      <c r="B157" s="40"/>
       <c r="C157" s="40"/>
       <c r="D157" s="40"/>
       <c r="E157" s="40"/>
@@ -21533,9 +21715,8 @@
       <c r="M157" s="40"/>
     </row>
     <row r="158" spans="1:13" ht="12" customHeight="1">
-      <c r="A158" s="39"/>
-      <c r="B158" s="40"/>
-      <c r="C158" s="69"/>
+      <c r="B158" s="66"/>
+      <c r="C158" s="40"/>
       <c r="D158" s="40"/>
       <c r="E158" s="40"/>
       <c r="F158" s="40"/>
@@ -21578,9 +21759,9 @@
       <c r="M160" s="40"/>
     </row>
     <row r="161" spans="1:13" ht="12" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="39"/>
       <c r="B161" s="40"/>
-      <c r="C161" s="40"/>
+      <c r="C161" s="69"/>
       <c r="D161" s="40"/>
       <c r="E161" s="40"/>
       <c r="F161" s="40"/>
@@ -21593,7 +21774,8 @@
       <c r="M161" s="40"/>
     </row>
     <row r="162" spans="1:13" ht="12" customHeight="1">
-      <c r="B162" s="66"/>
+      <c r="A162" s="62"/>
+      <c r="B162" s="40"/>
       <c r="C162" s="40"/>
       <c r="D162" s="40"/>
       <c r="E162" s="40"/>
@@ -21607,7 +21789,7 @@
       <c r="M162" s="40"/>
     </row>
     <row r="163" spans="1:13" ht="12" customHeight="1">
-      <c r="B163" s="40"/>
+      <c r="B163" s="66"/>
       <c r="C163" s="40"/>
       <c r="D163" s="40"/>
       <c r="E163" s="40"/>
@@ -21621,7 +21803,7 @@
       <c r="M163" s="40"/>
     </row>
     <row r="164" spans="1:13" ht="12" customHeight="1">
-      <c r="B164" s="66"/>
+      <c r="B164" s="40"/>
       <c r="C164" s="40"/>
       <c r="D164" s="40"/>
       <c r="E164" s="40"/>
@@ -21635,8 +21817,7 @@
       <c r="M164" s="40"/>
     </row>
     <row r="165" spans="1:13" ht="12" customHeight="1">
-      <c r="A165" s="39"/>
-      <c r="B165" s="40"/>
+      <c r="B165" s="66"/>
       <c r="C165" s="40"/>
       <c r="D165" s="40"/>
       <c r="E165" s="40"/>
@@ -21650,7 +21831,7 @@
       <c r="M165" s="40"/>
     </row>
     <row r="166" spans="1:13" ht="12" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="39"/>
       <c r="B166" s="40"/>
       <c r="C166" s="40"/>
       <c r="D166" s="40"/>
@@ -21665,7 +21846,7 @@
       <c r="M166" s="40"/>
     </row>
     <row r="167" spans="1:13" ht="12" customHeight="1">
-      <c r="A167" s="39"/>
+      <c r="A167" s="62"/>
       <c r="B167" s="40"/>
       <c r="C167" s="40"/>
       <c r="D167" s="40"/>
@@ -21995,31 +22176,47 @@
       <c r="M188" s="40"/>
     </row>
     <row r="189" spans="1:13" ht="12" customHeight="1">
-      <c r="A189" s="44"/>
-      <c r="B189" s="45"/>
-      <c r="C189" s="45"/>
-      <c r="D189" s="45"/>
-      <c r="E189" s="45"/>
-      <c r="F189" s="45"/>
-      <c r="G189" s="45"/>
-      <c r="H189" s="45"/>
-      <c r="I189" s="45"/>
+      <c r="A189" s="39"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="40"/>
+      <c r="E189" s="40"/>
+      <c r="F189" s="40"/>
+      <c r="G189" s="40"/>
+      <c r="H189" s="40"/>
+      <c r="I189" s="40"/>
       <c r="J189" s="40"/>
       <c r="K189" s="40"/>
       <c r="L189" s="40"/>
       <c r="M189" s="40"/>
     </row>
+    <row r="190" spans="1:13" ht="12" customHeight="1">
+      <c r="A190" s="44"/>
+      <c r="B190" s="45"/>
+      <c r="C190" s="45"/>
+      <c r="D190" s="45"/>
+      <c r="E190" s="45"/>
+      <c r="F190" s="45"/>
+      <c r="G190" s="45"/>
+      <c r="H190" s="45"/>
+      <c r="I190" s="45"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="40"/>
+      <c r="L190" s="40"/>
+      <c r="M190" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B103:P105"/>
-    <mergeCell ref="B100:P102"/>
-    <mergeCell ref="B106:P108"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B117:P119"/>
-    <mergeCell ref="B110:P115"/>
+    <mergeCell ref="B104:P106"/>
+    <mergeCell ref="B101:P103"/>
+    <mergeCell ref="B107:P109"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B118:P120"/>
+    <mergeCell ref="B111:P116"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="27" orientation="landscape" r:id="rId1"/>
@@ -22028,7 +22225,7 @@
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="167" max="9" man="1"/>
+    <brk id="168" max="9" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -22057,10 +22254,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="225"/>
+      <c r="B1" s="238"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -22091,8 +22288,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="225"/>
-      <c r="B2" s="225"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF2081_Cap nhat yeu cau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -44,12 +44,12 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$P$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$P$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$T$155</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$J$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$J$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1377,7 +1377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="381">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2765,6 +2765,37 @@
 Where M.APK = @APK 
 </t>
   </si>
+  <si>
+    <t>21/2/2018</t>
+  </si>
+  <si>
+    <t>-STT yêu cầu là: 7 (bên file Tasklist)
+- Thêm chức năng danh sách theo dõi</t>
+  </si>
+  <si>
+    <t>Ver 6.0</t>
+  </si>
+  <si>
+    <t>Người theo dõi</t>
+  </si>
+  <si>
+    <t>Thêm</t>
+  </si>
+  <si>
+    <t>FollowID</t>
+  </si>
+  <si>
+    <t>Xoá</t>
+  </si>
+  <si>
+    <t>btnAddFollow</t>
+  </si>
+  <si>
+    <t>btnDeleteFollow</t>
+  </si>
+  <si>
+    <t>Xử lý theo dõi như xử lý theo tài liệu dùng chung</t>
+  </si>
 </sst>
 </file>
 
@@ -2776,7 +2807,7 @@
     <numFmt numFmtId="166" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="167" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2956,6 +2987,12 @@
       <sz val="15"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -3287,7 +3324,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3737,12 +3774,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3754,12 +3785,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3842,6 +3867,16 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="30" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3953,6 +3988,15 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="30" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4180,6 +4224,79 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4197,6 +4314,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
@@ -4305,19 +4423,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1206778</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4337,8 +4455,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="581025"/>
-          <a:ext cx="8083828" cy="4886325"/>
+          <a:off x="9525" y="609600"/>
+          <a:ext cx="7648575" cy="4876800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4362,17 +4480,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1138475</xdr:colOff>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4392,8 +4510,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="5467350"/>
-          <a:ext cx="8015525" cy="4914900"/>
+          <a:off x="0" y="5457825"/>
+          <a:ext cx="7658100" cy="4905375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14525,14 +14643,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="325" t="s">
+      <c r="B1" s="328" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -14725,11 +14843,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="326" t="s">
+      <c r="E27" s="329" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="327"/>
-      <c r="G27" s="328"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="331"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -15036,8 +15154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -15155,16 +15273,16 @@
       <c r="J5" s="240"/>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" ht="12.75">
-      <c r="A6" s="201">
+      <c r="A6" s="197">
         <v>2</v>
       </c>
-      <c r="B6" s="202">
+      <c r="B6" s="198">
         <v>2</v>
       </c>
-      <c r="C6" s="203" t="s">
+      <c r="C6" s="199" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="203">
+      <c r="D6" s="199">
         <v>42877</v>
       </c>
       <c r="E6" s="241" t="s">
@@ -15177,16 +15295,16 @@
       <c r="J6" s="243"/>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A7" s="204">
+      <c r="A7" s="200">
         <v>3</v>
       </c>
-      <c r="B7" s="205">
+      <c r="B7" s="201">
         <v>3</v>
       </c>
-      <c r="C7" s="206" t="s">
+      <c r="C7" s="202" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="206">
+      <c r="D7" s="202">
         <v>42881</v>
       </c>
       <c r="E7" s="245" t="s">
@@ -15199,16 +15317,16 @@
       <c r="J7" s="247"/>
     </row>
     <row r="8" spans="1:10" s="25" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A8" s="199">
+      <c r="A8" s="195">
         <v>4</v>
       </c>
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="196" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="195" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="195" t="s">
         <v>311</v>
       </c>
       <c r="E8" s="248" t="s">
@@ -15220,17 +15338,17 @@
       <c r="I8" s="249"/>
       <c r="J8" s="249"/>
     </row>
-    <row r="9" spans="1:10" s="188" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A9" s="197">
+    <row r="9" spans="1:10" s="184" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A9" s="193">
         <v>5</v>
       </c>
-      <c r="B9" s="198">
+      <c r="B9" s="194">
         <v>5</v>
       </c>
-      <c r="C9" s="197" t="s">
+      <c r="C9" s="193" t="s">
         <v>310</v>
       </c>
-      <c r="D9" s="208">
+      <c r="D9" s="204">
         <v>43314</v>
       </c>
       <c r="E9" s="250" t="s">
@@ -15242,16 +15360,22 @@
       <c r="I9" s="251"/>
       <c r="J9" s="252"/>
     </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1">
+    <row r="10" spans="1:10" s="215" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="75">
         <v>6</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="212">
         <v>6</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="253"/>
+      <c r="C10" s="213" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="214" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="253" t="s">
+        <v>372</v>
+      </c>
       <c r="F10" s="254"/>
       <c r="G10" s="254"/>
       <c r="H10" s="254"/>
@@ -15267,12 +15391,12 @@
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="254"/>
-      <c r="J11" s="255"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="257"/>
+      <c r="G11" s="257"/>
+      <c r="H11" s="257"/>
+      <c r="I11" s="257"/>
+      <c r="J11" s="258"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="77">
@@ -15283,12 +15407,12 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="253"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="254"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="255"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="257"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="257"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="258"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="78">
@@ -15299,12 +15423,12 @@
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="255"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="257"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="258"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="79">
@@ -15315,12 +15439,12 @@
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="255"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="257"/>
+      <c r="G14" s="257"/>
+      <c r="H14" s="257"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="258"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -15700,8 +15824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -15786,20 +15910,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="258"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="256" t="s">
+      <c r="B4" s="261"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="259" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="257"/>
+      <c r="J4" s="260"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5"/>
@@ -15810,10 +15934,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="263" t="s">
+      <c r="I5" s="266" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="264"/>
+      <c r="J5" s="267"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -15824,8 +15948,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="266"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="269"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -15836,8 +15960,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="266"/>
+      <c r="I7" s="268"/>
+      <c r="J7" s="269"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -15848,8 +15972,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="266"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="269"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -15860,8 +15984,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="266"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="269"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -15872,8 +15996,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="267"/>
-      <c r="J10" s="268"/>
+      <c r="I10" s="270"/>
+      <c r="J10" s="271"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -15884,10 +16008,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="256" t="s">
+      <c r="I11" s="259" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="257"/>
+      <c r="J11" s="260"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -15898,10 +16022,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="259" t="s">
+      <c r="I12" s="262" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="260"/>
+      <c r="J12" s="263"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -15912,8 +16036,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="261"/>
-      <c r="J13" s="262"/>
+      <c r="I13" s="264"/>
+      <c r="J13" s="265"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -15924,8 +16048,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="261"/>
-      <c r="J14" s="262"/>
+      <c r="I14" s="264"/>
+      <c r="J14" s="265"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -15936,8 +16060,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="261"/>
-      <c r="J15" s="262"/>
+      <c r="I15" s="264"/>
+      <c r="J15" s="265"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -15948,8 +16072,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="261"/>
-      <c r="J16" s="262"/>
+      <c r="I16" s="264"/>
+      <c r="J16" s="265"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -15960,8 +16084,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="261"/>
-      <c r="J17" s="262"/>
+      <c r="I17" s="264"/>
+      <c r="J17" s="265"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -15972,8 +16096,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="262"/>
+      <c r="I18" s="264"/>
+      <c r="J18" s="265"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -15984,8 +16108,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="262"/>
+      <c r="I19" s="264"/>
+      <c r="J19" s="265"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -15996,8 +16120,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="261"/>
-      <c r="J20" s="262"/>
+      <c r="I20" s="264"/>
+      <c r="J20" s="265"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -16008,8 +16132,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="261"/>
-      <c r="J21" s="262"/>
+      <c r="I21" s="264"/>
+      <c r="J21" s="265"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -16020,8 +16144,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="261"/>
-      <c r="J22" s="262"/>
+      <c r="I22" s="264"/>
+      <c r="J22" s="265"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -16032,8 +16156,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="261"/>
-      <c r="J23" s="262"/>
+      <c r="I23" s="264"/>
+      <c r="J23" s="265"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -16044,8 +16168,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="262"/>
+      <c r="I24" s="264"/>
+      <c r="J24" s="265"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -16056,8 +16180,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="261"/>
-      <c r="J25" s="262"/>
+      <c r="I25" s="264"/>
+      <c r="J25" s="265"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -16068,8 +16192,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="261"/>
-      <c r="J26" s="262"/>
+      <c r="I26" s="264"/>
+      <c r="J26" s="265"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -16080,8 +16204,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="262"/>
+      <c r="I27" s="264"/>
+      <c r="J27" s="265"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -16092,8 +16216,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="261"/>
-      <c r="J28" s="262"/>
+      <c r="I28" s="264"/>
+      <c r="J28" s="265"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -16104,8 +16228,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="261"/>
-      <c r="J29" s="262"/>
+      <c r="I29" s="264"/>
+      <c r="J29" s="265"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -16116,8 +16240,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="261"/>
-      <c r="J30" s="262"/>
+      <c r="I30" s="264"/>
+      <c r="J30" s="265"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -16128,8 +16252,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="261"/>
-      <c r="J31" s="262"/>
+      <c r="I31" s="264"/>
+      <c r="J31" s="265"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -16140,8 +16264,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="261"/>
-      <c r="J32" s="262"/>
+      <c r="I32" s="264"/>
+      <c r="J32" s="265"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -16152,8 +16276,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="261"/>
-      <c r="J33" s="262"/>
+      <c r="I33" s="264"/>
+      <c r="J33" s="265"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -16164,8 +16288,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="261"/>
-      <c r="J34" s="262"/>
+      <c r="I34" s="264"/>
+      <c r="J34" s="265"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -16176,8 +16300,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="262"/>
+      <c r="I35" s="264"/>
+      <c r="J35" s="265"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -16188,8 +16312,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="261"/>
-      <c r="J36" s="262"/>
+      <c r="I36" s="264"/>
+      <c r="J36" s="265"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -16200,8 +16324,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="261"/>
-      <c r="J37" s="262"/>
+      <c r="I37" s="264"/>
+      <c r="J37" s="265"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -16212,8 +16336,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="261"/>
-      <c r="J38" s="262"/>
+      <c r="I38" s="264"/>
+      <c r="J38" s="265"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -16224,8 +16348,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="261"/>
-      <c r="J39" s="262"/>
+      <c r="I39" s="264"/>
+      <c r="J39" s="265"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -16236,8 +16360,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="261"/>
-      <c r="J40" s="262"/>
+      <c r="I40" s="264"/>
+      <c r="J40" s="265"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -16248,8 +16372,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="261"/>
-      <c r="J41" s="262"/>
+      <c r="I41" s="264"/>
+      <c r="J41" s="265"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -16260,8 +16384,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="262"/>
+      <c r="I42" s="264"/>
+      <c r="J42" s="265"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="39"/>
@@ -16272,8 +16396,8 @@
       <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="42"/>
-      <c r="I43" s="261"/>
-      <c r="J43" s="262"/>
+      <c r="I43" s="264"/>
+      <c r="J43" s="265"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="39"/>
@@ -16284,8 +16408,8 @@
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="261"/>
-      <c r="J44" s="262"/>
+      <c r="I44" s="264"/>
+      <c r="J44" s="265"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="39"/>
@@ -16296,8 +16420,8 @@
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42"/>
-      <c r="I45" s="261"/>
-      <c r="J45" s="262"/>
+      <c r="I45" s="264"/>
+      <c r="J45" s="265"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
@@ -16308,8 +16432,8 @@
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="261"/>
-      <c r="J46" s="262"/>
+      <c r="I46" s="264"/>
+      <c r="J46" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16334,13 +16458,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="P34" sqref="P34:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -16379,16 +16503,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="273" t="s">
+      <c r="H1" s="276" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="274"/>
-      <c r="J1" s="275" t="str">
+      <c r="I1" s="277"/>
+      <c r="J1" s="278" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF2081</v>
       </c>
-      <c r="K1" s="276"/>
-      <c r="L1" s="277"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="280"/>
       <c r="M1" s="30" t="s">
         <v>5</v>
       </c>
@@ -16417,16 +16541,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="H2" s="273" t="s">
+      <c r="H2" s="276" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="274"/>
-      <c r="J2" s="275" t="str">
+      <c r="I2" s="277"/>
+      <c r="J2" s="278" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật yêu cầu</v>
       </c>
-      <c r="K2" s="276"/>
-      <c r="L2" s="277"/>
+      <c r="K2" s="279"/>
+      <c r="L2" s="280"/>
       <c r="M2" s="30" t="s">
         <v>6</v>
       </c>
@@ -16566,7 +16690,7 @@
       <c r="C7" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="278">
+      <c r="D7" s="281">
         <v>5</v>
       </c>
       <c r="E7" s="135" t="s">
@@ -16606,7 +16730,7 @@
       <c r="C8" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="279"/>
+      <c r="D8" s="282"/>
       <c r="E8" s="129" t="s">
         <v>237</v>
       </c>
@@ -16634,7 +16758,7 @@
       <c r="C9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="280"/>
+      <c r="D9" s="283"/>
       <c r="E9" s="136" t="s">
         <v>238</v>
       </c>
@@ -16662,7 +16786,7 @@
       <c r="C10" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="281">
+      <c r="D10" s="284">
         <v>7</v>
       </c>
       <c r="E10" s="118" t="s">
@@ -16702,7 +16826,7 @@
       <c r="C11" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="282"/>
+      <c r="D11" s="285"/>
       <c r="E11" s="118" t="s">
         <v>248</v>
       </c>
@@ -16729,7 +16853,7 @@
       <c r="C12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="283"/>
+      <c r="D12" s="286"/>
       <c r="E12" s="118" t="s">
         <v>249</v>
       </c>
@@ -16942,7 +17066,7 @@
       <c r="C18" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="281">
+      <c r="D18" s="284">
         <v>18</v>
       </c>
       <c r="E18" s="118" t="s">
@@ -16960,7 +17084,7 @@
       <c r="M18" s="115"/>
       <c r="N18" s="115"/>
       <c r="O18" s="115"/>
-      <c r="P18" s="284" t="s">
+      <c r="P18" s="287" t="s">
         <v>260</v>
       </c>
     </row>
@@ -16972,7 +17096,7 @@
       <c r="C19" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="282"/>
+      <c r="D19" s="285"/>
       <c r="E19" s="118" t="s">
         <v>251</v>
       </c>
@@ -16990,7 +17114,7 @@
       <c r="M19" s="133"/>
       <c r="N19" s="133"/>
       <c r="O19" s="133"/>
-      <c r="P19" s="285"/>
+      <c r="P19" s="288"/>
     </row>
     <row r="20" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A20" s="102">
@@ -17000,7 +17124,7 @@
       <c r="C20" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="283"/>
+      <c r="D20" s="286"/>
       <c r="E20" s="137" t="s">
         <v>252</v>
       </c>
@@ -17020,7 +17144,7 @@
       <c r="O20" s="105">
         <v>0</v>
       </c>
-      <c r="P20" s="286"/>
+      <c r="P20" s="289"/>
     </row>
     <row r="21" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A21" s="102">
@@ -17052,7 +17176,7 @@
       <c r="O21" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="P21" s="269" t="s">
+      <c r="P21" s="272" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17086,7 +17210,7 @@
       <c r="O22" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="P22" s="271"/>
+      <c r="P22" s="274"/>
     </row>
     <row r="23" spans="1:16" s="33" customFormat="1" ht="11.25">
       <c r="A23" s="102">
@@ -17118,7 +17242,7 @@
       <c r="O23" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="P23" s="272"/>
+      <c r="P23" s="275"/>
     </row>
     <row r="24" spans="1:16" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="102">
@@ -17150,7 +17274,7 @@
       <c r="O24" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="P24" s="269" t="s">
+      <c r="P24" s="272" t="s">
         <v>195</v>
       </c>
     </row>
@@ -17184,7 +17308,7 @@
       <c r="O25" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="P25" s="270"/>
+      <c r="P25" s="273"/>
     </row>
     <row r="26" spans="1:16" s="148" customFormat="1" ht="22.5">
       <c r="A26" s="148">
@@ -17292,8 +17416,8 @@
       <c r="I28" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="J28" s="207"/>
-      <c r="K28" s="207"/>
+      <c r="J28" s="203"/>
+      <c r="K28" s="203"/>
       <c r="L28" s="151" t="s">
         <v>147</v>
       </c>
@@ -17332,8 +17456,8 @@
       <c r="I29" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="207"/>
-      <c r="K29" s="207"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="203"/>
       <c r="L29" s="151" t="s">
         <v>147</v>
       </c>
@@ -17372,8 +17496,8 @@
       <c r="I30" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="J30" s="207"/>
-      <c r="K30" s="207"/>
+      <c r="J30" s="203"/>
+      <c r="K30" s="203"/>
       <c r="L30" s="151" t="s">
         <v>147</v>
       </c>
@@ -17412,8 +17536,8 @@
       <c r="I31" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="J31" s="207"/>
-      <c r="K31" s="207"/>
+      <c r="J31" s="203"/>
+      <c r="K31" s="203"/>
       <c r="L31" s="151" t="s">
         <v>147</v>
       </c>
@@ -17450,8 +17574,8 @@
       <c r="I32" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="J32" s="207"/>
-      <c r="K32" s="207"/>
+      <c r="J32" s="203"/>
+      <c r="K32" s="203"/>
       <c r="L32" s="151" t="s">
         <v>147</v>
       </c>
@@ -17460,46 +17584,136 @@
       <c r="O32" s="150"/>
       <c r="P32" s="150"/>
     </row>
-    <row r="33" spans="1:16" s="188" customFormat="1" ht="11.25">
-      <c r="A33" s="178">
+    <row r="33" spans="1:16" s="184" customFormat="1" ht="11.25">
+      <c r="A33" s="332">
         <v>8</v>
       </c>
-      <c r="B33" s="178">
+      <c r="B33" s="332">
         <v>92</v>
       </c>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="332" t="s">
         <v>346</v>
       </c>
-      <c r="D33" s="179">
+      <c r="D33" s="333">
         <v>6</v>
       </c>
-      <c r="E33" s="180" t="s">
+      <c r="E33" s="334" t="s">
         <v>318</v>
       </c>
-      <c r="F33" s="181" t="s">
+      <c r="F33" s="335" t="s">
         <v>364</v>
       </c>
-      <c r="G33" s="181" t="s">
+      <c r="G33" s="335" t="s">
         <v>364</v>
       </c>
-      <c r="H33" s="182" t="s">
+      <c r="H33" s="336" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="181" t="s">
+      <c r="I33" s="335" t="s">
         <v>166</v>
       </c>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="186" t="s">
+      <c r="J33" s="337"/>
+      <c r="K33" s="337"/>
+      <c r="L33" s="338" t="s">
         <v>147</v>
       </c>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="187"/>
+      <c r="M33" s="335"/>
+      <c r="N33" s="335"/>
+      <c r="O33" s="335"/>
+      <c r="P33" s="339"/>
+    </row>
+    <row r="34" spans="1:16" s="340" customFormat="1" ht="12" customHeight="1">
+      <c r="B34" s="342">
+        <v>92</v>
+      </c>
+      <c r="C34" s="340" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" s="341">
+        <v>24</v>
+      </c>
+      <c r="E34" s="340" t="s">
+        <v>374</v>
+      </c>
+      <c r="F34" s="340" t="s">
+        <v>376</v>
+      </c>
+      <c r="G34" s="342"/>
+      <c r="H34" s="341"/>
+      <c r="I34" s="341" t="s">
+        <v>166</v>
+      </c>
+      <c r="J34" s="342"/>
+      <c r="K34" s="342"/>
+      <c r="L34" s="342"/>
+      <c r="M34" s="342"/>
+      <c r="N34" s="342"/>
+      <c r="O34" s="342"/>
+      <c r="P34" s="343" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="340" customFormat="1" ht="12" customHeight="1">
+      <c r="B35" s="342">
+        <v>92</v>
+      </c>
+      <c r="C35" s="340" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" s="341">
+        <v>24.1</v>
+      </c>
+      <c r="E35" s="340" t="s">
+        <v>375</v>
+      </c>
+      <c r="F35" s="340" t="s">
+        <v>378</v>
+      </c>
+      <c r="G35" s="342"/>
+      <c r="H35" s="341" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="341"/>
+      <c r="J35" s="342"/>
+      <c r="K35" s="342"/>
+      <c r="L35" s="342"/>
+      <c r="M35" s="342"/>
+      <c r="N35" s="342"/>
+      <c r="O35" s="342"/>
+      <c r="P35" s="343"/>
+    </row>
+    <row r="36" spans="1:16" s="340" customFormat="1" ht="12" customHeight="1">
+      <c r="B36" s="342">
+        <v>92</v>
+      </c>
+      <c r="C36" s="340" t="s">
+        <v>373</v>
+      </c>
+      <c r="D36" s="341">
+        <v>24.2</v>
+      </c>
+      <c r="E36" s="340" t="s">
+        <v>377</v>
+      </c>
+      <c r="F36" s="340" t="s">
+        <v>379</v>
+      </c>
+      <c r="G36" s="342"/>
+      <c r="H36" s="341" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="341"/>
+      <c r="J36" s="342"/>
+      <c r="K36" s="342"/>
+      <c r="L36" s="342"/>
+      <c r="M36" s="342"/>
+      <c r="N36" s="342"/>
+      <c r="O36" s="342"/>
+      <c r="P36" s="343"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="P34:P36"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="P21:P23"/>
     <mergeCell ref="A1:E2"/>
@@ -17540,7 +17754,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -17684,7 +17898,7 @@
       </c>
       <c r="F5" s="103"/>
       <c r="G5" s="104"/>
-      <c r="H5" s="287" t="s">
+      <c r="H5" s="290" t="s">
         <v>214</v>
       </c>
       <c r="I5" s="134" t="s">
@@ -17709,7 +17923,7 @@
       </c>
       <c r="F6" s="162"/>
       <c r="G6" s="170"/>
-      <c r="H6" s="288"/>
+      <c r="H6" s="291"/>
       <c r="I6" s="169" t="s">
         <v>215</v>
       </c>
@@ -17732,7 +17946,7 @@
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="55"/>
-      <c r="H7" s="288"/>
+      <c r="H7" s="291"/>
       <c r="I7" s="134" t="s">
         <v>215</v>
       </c>
@@ -17755,7 +17969,7 @@
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="55"/>
-      <c r="H8" s="288"/>
+      <c r="H8" s="291"/>
       <c r="I8" s="139" t="s">
         <v>215</v>
       </c>
@@ -17778,7 +17992,7 @@
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="55"/>
-      <c r="H9" s="288"/>
+      <c r="H9" s="291"/>
       <c r="I9" s="134" t="s">
         <v>215</v>
       </c>
@@ -17805,7 +18019,7 @@
       </c>
       <c r="F10" s="163"/>
       <c r="G10" s="156"/>
-      <c r="H10" s="288"/>
+      <c r="H10" s="291"/>
       <c r="I10" s="150" t="s">
         <v>215</v>
       </c>
@@ -17832,7 +18046,7 @@
       </c>
       <c r="F11" s="163"/>
       <c r="G11" s="156"/>
-      <c r="H11" s="288"/>
+      <c r="H11" s="291"/>
       <c r="I11" s="150" t="s">
         <v>215</v>
       </c>
@@ -17859,7 +18073,7 @@
       </c>
       <c r="F12" s="163"/>
       <c r="G12" s="156"/>
-      <c r="H12" s="288"/>
+      <c r="H12" s="291"/>
       <c r="I12" s="150" t="s">
         <v>215</v>
       </c>
@@ -17868,32 +18082,32 @@
       </c>
       <c r="K12" s="155"/>
     </row>
-    <row r="13" spans="1:17" s="191" customFormat="1" ht="11.25">
+    <row r="13" spans="1:17" s="187" customFormat="1" ht="11.25">
       <c r="A13" s="178">
         <v>9</v>
       </c>
       <c r="B13" s="178">
         <v>92</v>
       </c>
-      <c r="C13" s="190" t="s">
+      <c r="C13" s="186" t="s">
         <v>355</v>
       </c>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="181" t="s">
         <v>319</v>
       </c>
-      <c r="E13" s="183" t="s">
+      <c r="E13" s="181" t="s">
         <v>352</v>
       </c>
-      <c r="F13" s="189"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="289"/>
-      <c r="I13" s="181" t="s">
+      <c r="F13" s="185"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="179" t="s">
         <v>215</v>
       </c>
-      <c r="J13" s="182" t="s">
+      <c r="J13" s="180" t="s">
         <v>353</v>
       </c>
-      <c r="K13" s="183"/>
+      <c r="K13" s="181"/>
     </row>
     <row r="14" spans="1:17" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="102">
@@ -18026,7 +18240,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F29"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -18050,7 +18264,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="298" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="100"/>
@@ -18086,7 +18300,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="296"/>
+      <c r="A2" s="299"/>
       <c r="B2" s="101"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -18159,15 +18373,15 @@
       <c r="E5" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="290" t="s">
+      <c r="F5" s="293" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="291"/>
-      <c r="H5" s="292" t="s">
+      <c r="G5" s="294"/>
+      <c r="H5" s="295" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="293"/>
-      <c r="J5" s="294"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="297"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="32">
@@ -18183,15 +18397,15 @@
       <c r="E6" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="290" t="s">
+      <c r="F6" s="293" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="291"/>
-      <c r="H6" s="292" t="s">
+      <c r="G6" s="294"/>
+      <c r="H6" s="295" t="s">
         <v>264</v>
       </c>
-      <c r="I6" s="293"/>
-      <c r="J6" s="294"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="297"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="32">
@@ -18207,15 +18421,15 @@
       <c r="E7" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="290" t="s">
+      <c r="F7" s="293" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="291"/>
-      <c r="H7" s="292" t="s">
+      <c r="G7" s="294"/>
+      <c r="H7" s="295" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="293"/>
-      <c r="J7" s="294"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="297"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -18225,11 +18439,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="293"/>
-      <c r="J8" s="294"/>
+      <c r="F8" s="293"/>
+      <c r="G8" s="294"/>
+      <c r="H8" s="295"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="297"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -18239,11 +18453,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="293"/>
-      <c r="J9" s="294"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="297"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -18253,11 +18467,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
-      <c r="J10" s="294"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="294"/>
+      <c r="H10" s="295"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="297"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -18267,11 +18481,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="291"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="294"/>
+      <c r="F11" s="293"/>
+      <c r="G11" s="294"/>
+      <c r="H11" s="295"/>
+      <c r="I11" s="296"/>
+      <c r="J11" s="297"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -18281,11 +18495,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="291"/>
-      <c r="H12" s="292"/>
-      <c r="I12" s="293"/>
-      <c r="J12" s="294"/>
+      <c r="F12" s="293"/>
+      <c r="G12" s="294"/>
+      <c r="H12" s="295"/>
+      <c r="I12" s="296"/>
+      <c r="J12" s="297"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -18295,11 +18509,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="292"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="294"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="295"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="297"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -18309,11 +18523,11 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="291"/>
-      <c r="H14" s="292"/>
-      <c r="I14" s="293"/>
-      <c r="J14" s="294"/>
+      <c r="F14" s="293"/>
+      <c r="G14" s="294"/>
+      <c r="H14" s="295"/>
+      <c r="I14" s="296"/>
+      <c r="J14" s="297"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -18356,10 +18570,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1048244"/>
+  <dimension ref="A1:R1048240"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:K19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -18396,11 +18610,11 @@
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="297" t="str">
+      <c r="G1" s="300" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="297"/>
+      <c r="H1" s="300"/>
       <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
@@ -18418,12 +18632,12 @@
       <c r="M1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="315" t="str">
+      <c r="N1" s="318" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="O1" s="316"/>
-      <c r="P1" s="317"/>
+      <c r="O1" s="319"/>
+      <c r="P1" s="320"/>
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
     </row>
@@ -18436,11 +18650,11 @@
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="297" t="str">
+      <c r="G2" s="300" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="H2" s="297"/>
+      <c r="H2" s="300"/>
       <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
@@ -18458,12 +18672,12 @@
       <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="315" t="str">
+      <c r="N2" s="318" t="str">
         <f>'Update History'!J2</f>
         <v>25/01/2018</v>
       </c>
-      <c r="O2" s="316"/>
-      <c r="P2" s="317"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="320"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
     </row>
@@ -18489,12 +18703,12 @@
       <c r="G4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="256" t="s">
+      <c r="H4" s="259" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="257"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="261"/>
+      <c r="K4" s="260"/>
       <c r="L4" s="36" t="s">
         <v>56</v>
       </c>
@@ -18531,12 +18745,12 @@
       <c r="G5" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="307" t="s">
+      <c r="H5" s="310" t="s">
         <v>206</v>
       </c>
-      <c r="I5" s="308"/>
-      <c r="J5" s="308"/>
-      <c r="K5" s="309"/>
+      <c r="I5" s="311"/>
+      <c r="J5" s="311"/>
+      <c r="K5" s="312"/>
       <c r="L5" s="122" t="s">
         <v>205</v>
       </c>
@@ -18559,7 +18773,7 @@
       <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="213">
+      <c r="B6" s="209">
         <v>92</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -18577,16 +18791,16 @@
       <c r="G6" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="304" t="s">
+      <c r="H6" s="307" t="s">
         <v>370</v>
       </c>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="306"/>
-      <c r="L6" s="215" t="s">
+      <c r="I6" s="308"/>
+      <c r="J6" s="308"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="211" t="s">
         <v>286</v>
       </c>
-      <c r="M6" s="215" t="s">
+      <c r="M6" s="211" t="s">
         <v>286</v>
       </c>
       <c r="N6" s="67" t="s">
@@ -18619,12 +18833,12 @@
       <c r="G7" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="298" t="s">
+      <c r="H7" s="301" t="s">
         <v>269</v>
       </c>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="300"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="302"/>
+      <c r="K7" s="303"/>
       <c r="L7" s="124" t="s">
         <v>270</v>
       </c>
@@ -18659,12 +18873,12 @@
       <c r="G8" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="298" t="s">
+      <c r="H8" s="301" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="299"/>
-      <c r="J8" s="299"/>
-      <c r="K8" s="300"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="303"/>
       <c r="L8" s="124" t="s">
         <v>270</v>
       </c>
@@ -18683,7 +18897,7 @@
       <c r="A9" s="102">
         <v>5</v>
       </c>
-      <c r="B9" s="213">
+      <c r="B9" s="209">
         <v>92</v>
       </c>
       <c r="C9" s="102" t="s">
@@ -18701,16 +18915,16 @@
       <c r="G9" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="304" t="s">
+      <c r="H9" s="307" t="s">
         <v>369</v>
       </c>
-      <c r="I9" s="305"/>
-      <c r="J9" s="305"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="214" t="s">
+      <c r="I9" s="308"/>
+      <c r="J9" s="308"/>
+      <c r="K9" s="309"/>
+      <c r="L9" s="210" t="s">
         <v>357</v>
       </c>
-      <c r="M9" s="214" t="s">
+      <c r="M9" s="210" t="s">
         <v>358</v>
       </c>
       <c r="N9" s="67"/>
@@ -18739,12 +18953,12 @@
       <c r="G10" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="298" t="s">
+      <c r="H10" s="301" t="s">
         <v>285</v>
       </c>
-      <c r="I10" s="299"/>
-      <c r="J10" s="299"/>
-      <c r="K10" s="300"/>
+      <c r="I10" s="302"/>
+      <c r="J10" s="302"/>
+      <c r="K10" s="303"/>
       <c r="L10" s="124" t="s">
         <v>286</v>
       </c>
@@ -18781,12 +18995,12 @@
       <c r="G11" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="298" t="s">
+      <c r="H11" s="301" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="299"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="300"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="303"/>
       <c r="L11" s="124" t="s">
         <v>270</v>
       </c>
@@ -18821,12 +19035,12 @@
       <c r="G12" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="298" t="s">
+      <c r="H12" s="301" t="s">
         <v>302</v>
       </c>
-      <c r="I12" s="299"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="300"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="302"/>
+      <c r="K12" s="303"/>
       <c r="L12" s="113" t="s">
         <v>303</v>
       </c>
@@ -18859,12 +19073,12 @@
       <c r="G13" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="H13" s="298" t="s">
+      <c r="H13" s="301" t="s">
         <v>274</v>
       </c>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="300"/>
+      <c r="I13" s="302"/>
+      <c r="J13" s="302"/>
+      <c r="K13" s="303"/>
       <c r="L13" s="124" t="s">
         <v>273</v>
       </c>
@@ -18899,12 +19113,12 @@
       <c r="G14" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="298" t="s">
+      <c r="H14" s="301" t="s">
         <v>276</v>
       </c>
-      <c r="I14" s="299"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="300"/>
+      <c r="I14" s="302"/>
+      <c r="J14" s="302"/>
+      <c r="K14" s="303"/>
       <c r="L14" s="113" t="s">
         <v>275</v>
       </c>
@@ -18921,7 +19135,7 @@
       <c r="A15" s="102">
         <v>11</v>
       </c>
-      <c r="B15" s="213">
+      <c r="B15" s="209">
         <v>92</v>
       </c>
       <c r="C15" s="102" t="s">
@@ -18939,16 +19153,16 @@
       <c r="G15" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="H15" s="301" t="s">
+      <c r="H15" s="304" t="s">
         <v>356</v>
       </c>
-      <c r="I15" s="302"/>
-      <c r="J15" s="302"/>
-      <c r="K15" s="303"/>
-      <c r="L15" s="214" t="s">
+      <c r="I15" s="305"/>
+      <c r="J15" s="305"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="210" t="s">
         <v>359</v>
       </c>
-      <c r="M15" s="214" t="s">
+      <c r="M15" s="210" t="s">
         <v>360</v>
       </c>
       <c r="N15" s="56"/>
@@ -18977,12 +19191,12 @@
       <c r="G16" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="H16" s="298" t="s">
+      <c r="H16" s="301" t="s">
         <v>198</v>
       </c>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="300"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="302"/>
+      <c r="K16" s="303"/>
       <c r="L16" s="124" t="s">
         <v>199</v>
       </c>
@@ -18999,7 +19213,7 @@
     </row>
     <row r="17" spans="1:18" s="153" customFormat="1" ht="32.25" customHeight="1">
       <c r="A17" s="158"/>
-      <c r="B17" s="212">
+      <c r="B17" s="208">
         <v>92</v>
       </c>
       <c r="C17" s="148" t="s">
@@ -19017,12 +19231,12 @@
       <c r="G17" s="165" t="s">
         <v>329</v>
       </c>
-      <c r="H17" s="310" t="s">
+      <c r="H17" s="313" t="s">
         <v>206</v>
       </c>
-      <c r="I17" s="311"/>
-      <c r="J17" s="311"/>
-      <c r="K17" s="312"/>
+      <c r="I17" s="314"/>
+      <c r="J17" s="314"/>
+      <c r="K17" s="315"/>
       <c r="L17" s="152" t="s">
         <v>205</v>
       </c>
@@ -19043,7 +19257,7 @@
     </row>
     <row r="18" spans="1:18" s="153" customFormat="1" ht="32.25" customHeight="1">
       <c r="A18" s="158"/>
-      <c r="B18" s="212">
+      <c r="B18" s="208">
         <v>92</v>
       </c>
       <c r="C18" s="148" t="s">
@@ -19061,12 +19275,12 @@
       <c r="G18" s="165" t="s">
         <v>330</v>
       </c>
-      <c r="H18" s="310" t="s">
+      <c r="H18" s="313" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="311"/>
-      <c r="J18" s="311"/>
-      <c r="K18" s="312"/>
+      <c r="I18" s="314"/>
+      <c r="J18" s="314"/>
+      <c r="K18" s="315"/>
       <c r="L18" s="152" t="s">
         <v>205</v>
       </c>
@@ -19085,76 +19299,106 @@
       <c r="Q18" s="168"/>
       <c r="R18" s="168"/>
     </row>
-    <row r="19" spans="1:18" s="188" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A19" s="190"/>
-      <c r="B19" s="213">
+    <row r="19" spans="1:18" s="184" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A19" s="186"/>
+      <c r="B19" s="209">
         <v>92</v>
       </c>
       <c r="C19" s="178" t="s">
         <v>346</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="179" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="192" t="s">
+      <c r="E19" s="188" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="192" t="s">
+      <c r="F19" s="188" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="193" t="s">
+      <c r="G19" s="189" t="s">
         <v>341</v>
       </c>
       <c r="H19" s="250" t="s">
         <v>365</v>
       </c>
-      <c r="I19" s="313"/>
-      <c r="J19" s="313"/>
-      <c r="K19" s="314"/>
-      <c r="L19" s="187" t="s">
+      <c r="I19" s="316"/>
+      <c r="J19" s="316"/>
+      <c r="K19" s="317"/>
+      <c r="L19" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="187" t="s">
+      <c r="M19" s="183" t="s">
         <v>362</v>
       </c>
-      <c r="N19" s="194" t="s">
+      <c r="N19" s="190" t="s">
         <v>197</v>
       </c>
-      <c r="O19" s="195" t="s">
+      <c r="O19" s="191" t="s">
         <v>196</v>
       </c>
-      <c r="P19" s="194" t="s">
+      <c r="P19" s="190" t="s">
         <v>363</v>
       </c>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="192"/>
     </row>
     <row r="20" spans="1:18" s="33" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="298"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
-      <c r="K20" s="300"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="67"/>
+      <c r="A20" s="344"/>
+      <c r="B20" s="344"/>
+      <c r="C20" s="344"/>
+      <c r="D20" s="345"/>
+      <c r="E20" s="346"/>
+      <c r="F20" s="346"/>
+      <c r="G20" s="347"/>
+      <c r="H20" s="348"/>
+      <c r="I20" s="349"/>
+      <c r="J20" s="349"/>
+      <c r="K20" s="350"/>
+      <c r="L20" s="351"/>
+      <c r="M20" s="351"/>
+      <c r="N20" s="352"/>
       <c r="O20" s="112"/>
-      <c r="P20" s="56"/>
+      <c r="P20" s="63"/>
       <c r="Q20" s="57"/>
       <c r="R20" s="57"/>
     </row>
-    <row r="1048244" spans="14:14" ht="12" customHeight="1">
-      <c r="N1048244" s="63"/>
+    <row r="21" spans="1:18" s="121" customFormat="1" ht="12" customHeight="1">
+      <c r="D21" s="67"/>
+      <c r="H21" s="354"/>
+      <c r="I21" s="355"/>
+      <c r="J21" s="355"/>
+      <c r="K21" s="356"/>
+      <c r="L21" s="353"/>
+      <c r="M21" s="353"/>
+      <c r="N21" s="353"/>
+      <c r="O21" s="353"/>
+      <c r="P21" s="353"/>
+      <c r="Q21" s="353"/>
+      <c r="R21" s="353"/>
+    </row>
+    <row r="22" spans="1:18" s="121" customFormat="1" ht="12" customHeight="1">
+      <c r="D22" s="67"/>
+      <c r="H22" s="354"/>
+      <c r="I22" s="355"/>
+      <c r="J22" s="355"/>
+      <c r="K22" s="356"/>
+      <c r="L22" s="353"/>
+      <c r="M22" s="353"/>
+      <c r="N22" s="353"/>
+      <c r="O22" s="353"/>
+      <c r="P22" s="353"/>
+      <c r="Q22" s="353"/>
+      <c r="R22" s="353"/>
+    </row>
+    <row r="1048240" spans="14:14" ht="12" customHeight="1">
+      <c r="N1048240" s="63"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="H14:K14"/>
@@ -19179,7 +19423,7 @@
     <mergeCell ref="H18:K18"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048244:N1048576 N5 N17:N19"/>
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="N1048240:N1048576 N5 N17:N19"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O20">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
@@ -19491,7 +19735,7 @@
       <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" s="174" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="322" t="s">
+      <c r="A17" s="325" t="s">
         <v>368</v>
       </c>
       <c r="B17" s="175"/>
@@ -19510,7 +19754,7 @@
       <c r="M17" s="173"/>
     </row>
     <row r="18" spans="1:13" s="174" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="323"/>
+      <c r="A18" s="326"/>
       <c r="B18" s="175"/>
       <c r="C18" s="173" t="s">
         <v>343</v>
@@ -19526,22 +19770,22 @@
       <c r="L18" s="173"/>
       <c r="M18" s="173"/>
     </row>
-    <row r="19" spans="1:13" s="209" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="324"/>
-      <c r="B19" s="210"/>
-      <c r="C19" s="211" t="s">
+    <row r="19" spans="1:13" s="205" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="327"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="207" t="s">
         <v>366</v>
       </c>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="211"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="207"/>
+      <c r="L19" s="207"/>
+      <c r="M19" s="207"/>
     </row>
     <row r="20" spans="1:13" ht="12" customHeight="1">
       <c r="B20" s="66" t="s">
@@ -20763,171 +21007,171 @@
     </row>
     <row r="101" spans="1:16" ht="12" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="318" t="s">
+      <c r="B101" s="321" t="s">
         <v>293</v>
       </c>
-      <c r="C101" s="319"/>
-      <c r="D101" s="319"/>
-      <c r="E101" s="319"/>
-      <c r="F101" s="319"/>
-      <c r="G101" s="319"/>
-      <c r="H101" s="319"/>
-      <c r="I101" s="319"/>
-      <c r="J101" s="319"/>
-      <c r="K101" s="319"/>
-      <c r="L101" s="319"/>
-      <c r="M101" s="319"/>
-      <c r="N101" s="319"/>
-      <c r="O101" s="319"/>
-      <c r="P101" s="319"/>
+      <c r="C101" s="322"/>
+      <c r="D101" s="322"/>
+      <c r="E101" s="322"/>
+      <c r="F101" s="322"/>
+      <c r="G101" s="322"/>
+      <c r="H101" s="322"/>
+      <c r="I101" s="322"/>
+      <c r="J101" s="322"/>
+      <c r="K101" s="322"/>
+      <c r="L101" s="322"/>
+      <c r="M101" s="322"/>
+      <c r="N101" s="322"/>
+      <c r="O101" s="322"/>
+      <c r="P101" s="322"/>
     </row>
     <row r="102" spans="1:16" ht="12" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="319"/>
-      <c r="C102" s="319"/>
-      <c r="D102" s="319"/>
-      <c r="E102" s="319"/>
-      <c r="F102" s="319"/>
-      <c r="G102" s="319"/>
-      <c r="H102" s="319"/>
-      <c r="I102" s="319"/>
-      <c r="J102" s="319"/>
-      <c r="K102" s="319"/>
-      <c r="L102" s="319"/>
-      <c r="M102" s="319"/>
-      <c r="N102" s="319"/>
-      <c r="O102" s="319"/>
-      <c r="P102" s="319"/>
+      <c r="B102" s="322"/>
+      <c r="C102" s="322"/>
+      <c r="D102" s="322"/>
+      <c r="E102" s="322"/>
+      <c r="F102" s="322"/>
+      <c r="G102" s="322"/>
+      <c r="H102" s="322"/>
+      <c r="I102" s="322"/>
+      <c r="J102" s="322"/>
+      <c r="K102" s="322"/>
+      <c r="L102" s="322"/>
+      <c r="M102" s="322"/>
+      <c r="N102" s="322"/>
+      <c r="O102" s="322"/>
+      <c r="P102" s="322"/>
     </row>
     <row r="103" spans="1:16" ht="12" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="319"/>
-      <c r="C103" s="319"/>
-      <c r="D103" s="319"/>
-      <c r="E103" s="319"/>
-      <c r="F103" s="319"/>
-      <c r="G103" s="319"/>
-      <c r="H103" s="319"/>
-      <c r="I103" s="319"/>
-      <c r="J103" s="319"/>
-      <c r="K103" s="319"/>
-      <c r="L103" s="319"/>
-      <c r="M103" s="319"/>
-      <c r="N103" s="319"/>
-      <c r="O103" s="319"/>
-      <c r="P103" s="319"/>
+      <c r="B103" s="322"/>
+      <c r="C103" s="322"/>
+      <c r="D103" s="322"/>
+      <c r="E103" s="322"/>
+      <c r="F103" s="322"/>
+      <c r="G103" s="322"/>
+      <c r="H103" s="322"/>
+      <c r="I103" s="322"/>
+      <c r="J103" s="322"/>
+      <c r="K103" s="322"/>
+      <c r="L103" s="322"/>
+      <c r="M103" s="322"/>
+      <c r="N103" s="322"/>
+      <c r="O103" s="322"/>
+      <c r="P103" s="322"/>
     </row>
     <row r="104" spans="1:16" ht="12" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="318" t="s">
+      <c r="B104" s="321" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="319"/>
-      <c r="D104" s="319"/>
-      <c r="E104" s="319"/>
-      <c r="F104" s="319"/>
-      <c r="G104" s="319"/>
-      <c r="H104" s="319"/>
-      <c r="I104" s="319"/>
-      <c r="J104" s="319"/>
-      <c r="K104" s="319"/>
-      <c r="L104" s="319"/>
-      <c r="M104" s="319"/>
-      <c r="N104" s="319"/>
-      <c r="O104" s="319"/>
-      <c r="P104" s="319"/>
+      <c r="C104" s="322"/>
+      <c r="D104" s="322"/>
+      <c r="E104" s="322"/>
+      <c r="F104" s="322"/>
+      <c r="G104" s="322"/>
+      <c r="H104" s="322"/>
+      <c r="I104" s="322"/>
+      <c r="J104" s="322"/>
+      <c r="K104" s="322"/>
+      <c r="L104" s="322"/>
+      <c r="M104" s="322"/>
+      <c r="N104" s="322"/>
+      <c r="O104" s="322"/>
+      <c r="P104" s="322"/>
     </row>
     <row r="105" spans="1:16" ht="12" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="319"/>
-      <c r="C105" s="319"/>
-      <c r="D105" s="319"/>
-      <c r="E105" s="319"/>
-      <c r="F105" s="319"/>
-      <c r="G105" s="319"/>
-      <c r="H105" s="319"/>
-      <c r="I105" s="319"/>
-      <c r="J105" s="319"/>
-      <c r="K105" s="319"/>
-      <c r="L105" s="319"/>
-      <c r="M105" s="319"/>
-      <c r="N105" s="319"/>
-      <c r="O105" s="319"/>
-      <c r="P105" s="319"/>
+      <c r="B105" s="322"/>
+      <c r="C105" s="322"/>
+      <c r="D105" s="322"/>
+      <c r="E105" s="322"/>
+      <c r="F105" s="322"/>
+      <c r="G105" s="322"/>
+      <c r="H105" s="322"/>
+      <c r="I105" s="322"/>
+      <c r="J105" s="322"/>
+      <c r="K105" s="322"/>
+      <c r="L105" s="322"/>
+      <c r="M105" s="322"/>
+      <c r="N105" s="322"/>
+      <c r="O105" s="322"/>
+      <c r="P105" s="322"/>
     </row>
     <row r="106" spans="1:16" ht="12" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="319"/>
-      <c r="C106" s="319"/>
-      <c r="D106" s="319"/>
-      <c r="E106" s="319"/>
-      <c r="F106" s="319"/>
-      <c r="G106" s="319"/>
-      <c r="H106" s="319"/>
-      <c r="I106" s="319"/>
-      <c r="J106" s="319"/>
-      <c r="K106" s="319"/>
-      <c r="L106" s="319"/>
-      <c r="M106" s="319"/>
-      <c r="N106" s="319"/>
-      <c r="O106" s="319"/>
-      <c r="P106" s="319"/>
+      <c r="B106" s="322"/>
+      <c r="C106" s="322"/>
+      <c r="D106" s="322"/>
+      <c r="E106" s="322"/>
+      <c r="F106" s="322"/>
+      <c r="G106" s="322"/>
+      <c r="H106" s="322"/>
+      <c r="I106" s="322"/>
+      <c r="J106" s="322"/>
+      <c r="K106" s="322"/>
+      <c r="L106" s="322"/>
+      <c r="M106" s="322"/>
+      <c r="N106" s="322"/>
+      <c r="O106" s="322"/>
+      <c r="P106" s="322"/>
     </row>
     <row r="107" spans="1:16" ht="12" customHeight="1">
       <c r="A107" s="62"/>
-      <c r="B107" s="318" t="s">
+      <c r="B107" s="321" t="s">
         <v>297</v>
       </c>
-      <c r="C107" s="319"/>
-      <c r="D107" s="319"/>
-      <c r="E107" s="319"/>
-      <c r="F107" s="319"/>
-      <c r="G107" s="319"/>
-      <c r="H107" s="319"/>
-      <c r="I107" s="319"/>
-      <c r="J107" s="319"/>
-      <c r="K107" s="319"/>
-      <c r="L107" s="319"/>
-      <c r="M107" s="319"/>
-      <c r="N107" s="319"/>
-      <c r="O107" s="319"/>
-      <c r="P107" s="319"/>
+      <c r="C107" s="322"/>
+      <c r="D107" s="322"/>
+      <c r="E107" s="322"/>
+      <c r="F107" s="322"/>
+      <c r="G107" s="322"/>
+      <c r="H107" s="322"/>
+      <c r="I107" s="322"/>
+      <c r="J107" s="322"/>
+      <c r="K107" s="322"/>
+      <c r="L107" s="322"/>
+      <c r="M107" s="322"/>
+      <c r="N107" s="322"/>
+      <c r="O107" s="322"/>
+      <c r="P107" s="322"/>
     </row>
     <row r="108" spans="1:16" ht="12" customHeight="1">
       <c r="A108" s="62"/>
-      <c r="B108" s="319"/>
-      <c r="C108" s="319"/>
-      <c r="D108" s="319"/>
-      <c r="E108" s="319"/>
-      <c r="F108" s="319"/>
-      <c r="G108" s="319"/>
-      <c r="H108" s="319"/>
-      <c r="I108" s="319"/>
-      <c r="J108" s="319"/>
-      <c r="K108" s="319"/>
-      <c r="L108" s="319"/>
-      <c r="M108" s="319"/>
-      <c r="N108" s="319"/>
-      <c r="O108" s="319"/>
-      <c r="P108" s="319"/>
+      <c r="B108" s="322"/>
+      <c r="C108" s="322"/>
+      <c r="D108" s="322"/>
+      <c r="E108" s="322"/>
+      <c r="F108" s="322"/>
+      <c r="G108" s="322"/>
+      <c r="H108" s="322"/>
+      <c r="I108" s="322"/>
+      <c r="J108" s="322"/>
+      <c r="K108" s="322"/>
+      <c r="L108" s="322"/>
+      <c r="M108" s="322"/>
+      <c r="N108" s="322"/>
+      <c r="O108" s="322"/>
+      <c r="P108" s="322"/>
     </row>
     <row r="109" spans="1:16" ht="12" customHeight="1">
       <c r="A109" s="62"/>
-      <c r="B109" s="319"/>
-      <c r="C109" s="319"/>
-      <c r="D109" s="319"/>
-      <c r="E109" s="319"/>
-      <c r="F109" s="319"/>
-      <c r="G109" s="319"/>
-      <c r="H109" s="319"/>
-      <c r="I109" s="319"/>
-      <c r="J109" s="319"/>
-      <c r="K109" s="319"/>
-      <c r="L109" s="319"/>
-      <c r="M109" s="319"/>
-      <c r="N109" s="319"/>
-      <c r="O109" s="319"/>
-      <c r="P109" s="319"/>
+      <c r="B109" s="322"/>
+      <c r="C109" s="322"/>
+      <c r="D109" s="322"/>
+      <c r="E109" s="322"/>
+      <c r="F109" s="322"/>
+      <c r="G109" s="322"/>
+      <c r="H109" s="322"/>
+      <c r="I109" s="322"/>
+      <c r="J109" s="322"/>
+      <c r="K109" s="322"/>
+      <c r="L109" s="322"/>
+      <c r="M109" s="322"/>
+      <c r="N109" s="322"/>
+      <c r="O109" s="322"/>
+      <c r="P109" s="322"/>
     </row>
     <row r="110" spans="1:16" ht="12" customHeight="1">
       <c r="A110" s="62"/>
@@ -20946,113 +21190,113 @@
     </row>
     <row r="111" spans="1:16" ht="12" customHeight="1">
       <c r="A111" s="62"/>
-      <c r="B111" s="318" t="s">
+      <c r="B111" s="321" t="s">
         <v>296</v>
       </c>
-      <c r="C111" s="319"/>
-      <c r="D111" s="319"/>
-      <c r="E111" s="319"/>
-      <c r="F111" s="319"/>
-      <c r="G111" s="319"/>
-      <c r="H111" s="319"/>
-      <c r="I111" s="319"/>
-      <c r="J111" s="319"/>
-      <c r="K111" s="319"/>
-      <c r="L111" s="319"/>
-      <c r="M111" s="319"/>
-      <c r="N111" s="319"/>
-      <c r="O111" s="319"/>
-      <c r="P111" s="319"/>
+      <c r="C111" s="322"/>
+      <c r="D111" s="322"/>
+      <c r="E111" s="322"/>
+      <c r="F111" s="322"/>
+      <c r="G111" s="322"/>
+      <c r="H111" s="322"/>
+      <c r="I111" s="322"/>
+      <c r="J111" s="322"/>
+      <c r="K111" s="322"/>
+      <c r="L111" s="322"/>
+      <c r="M111" s="322"/>
+      <c r="N111" s="322"/>
+      <c r="O111" s="322"/>
+      <c r="P111" s="322"/>
     </row>
     <row r="112" spans="1:16" ht="12" customHeight="1">
       <c r="A112" s="62"/>
-      <c r="B112" s="318"/>
-      <c r="C112" s="319"/>
-      <c r="D112" s="319"/>
-      <c r="E112" s="319"/>
-      <c r="F112" s="319"/>
-      <c r="G112" s="319"/>
-      <c r="H112" s="319"/>
-      <c r="I112" s="319"/>
-      <c r="J112" s="319"/>
-      <c r="K112" s="319"/>
-      <c r="L112" s="319"/>
-      <c r="M112" s="319"/>
-      <c r="N112" s="319"/>
-      <c r="O112" s="319"/>
-      <c r="P112" s="319"/>
+      <c r="B112" s="321"/>
+      <c r="C112" s="322"/>
+      <c r="D112" s="322"/>
+      <c r="E112" s="322"/>
+      <c r="F112" s="322"/>
+      <c r="G112" s="322"/>
+      <c r="H112" s="322"/>
+      <c r="I112" s="322"/>
+      <c r="J112" s="322"/>
+      <c r="K112" s="322"/>
+      <c r="L112" s="322"/>
+      <c r="M112" s="322"/>
+      <c r="N112" s="322"/>
+      <c r="O112" s="322"/>
+      <c r="P112" s="322"/>
     </row>
     <row r="113" spans="1:16" ht="12" customHeight="1">
       <c r="A113" s="62"/>
-      <c r="B113" s="318"/>
-      <c r="C113" s="319"/>
-      <c r="D113" s="319"/>
-      <c r="E113" s="319"/>
-      <c r="F113" s="319"/>
-      <c r="G113" s="319"/>
-      <c r="H113" s="319"/>
-      <c r="I113" s="319"/>
-      <c r="J113" s="319"/>
-      <c r="K113" s="319"/>
-      <c r="L113" s="319"/>
-      <c r="M113" s="319"/>
-      <c r="N113" s="319"/>
-      <c r="O113" s="319"/>
-      <c r="P113" s="319"/>
+      <c r="B113" s="321"/>
+      <c r="C113" s="322"/>
+      <c r="D113" s="322"/>
+      <c r="E113" s="322"/>
+      <c r="F113" s="322"/>
+      <c r="G113" s="322"/>
+      <c r="H113" s="322"/>
+      <c r="I113" s="322"/>
+      <c r="J113" s="322"/>
+      <c r="K113" s="322"/>
+      <c r="L113" s="322"/>
+      <c r="M113" s="322"/>
+      <c r="N113" s="322"/>
+      <c r="O113" s="322"/>
+      <c r="P113" s="322"/>
     </row>
     <row r="114" spans="1:16" ht="12" customHeight="1">
       <c r="A114" s="62"/>
-      <c r="B114" s="318"/>
-      <c r="C114" s="319"/>
-      <c r="D114" s="319"/>
-      <c r="E114" s="319"/>
-      <c r="F114" s="319"/>
-      <c r="G114" s="319"/>
-      <c r="H114" s="319"/>
-      <c r="I114" s="319"/>
-      <c r="J114" s="319"/>
-      <c r="K114" s="319"/>
-      <c r="L114" s="319"/>
-      <c r="M114" s="319"/>
-      <c r="N114" s="319"/>
-      <c r="O114" s="319"/>
-      <c r="P114" s="319"/>
+      <c r="B114" s="321"/>
+      <c r="C114" s="322"/>
+      <c r="D114" s="322"/>
+      <c r="E114" s="322"/>
+      <c r="F114" s="322"/>
+      <c r="G114" s="322"/>
+      <c r="H114" s="322"/>
+      <c r="I114" s="322"/>
+      <c r="J114" s="322"/>
+      <c r="K114" s="322"/>
+      <c r="L114" s="322"/>
+      <c r="M114" s="322"/>
+      <c r="N114" s="322"/>
+      <c r="O114" s="322"/>
+      <c r="P114" s="322"/>
     </row>
     <row r="115" spans="1:16" ht="12" customHeight="1">
       <c r="A115" s="62"/>
-      <c r="B115" s="318"/>
-      <c r="C115" s="319"/>
-      <c r="D115" s="319"/>
-      <c r="E115" s="319"/>
-      <c r="F115" s="319"/>
-      <c r="G115" s="319"/>
-      <c r="H115" s="319"/>
-      <c r="I115" s="319"/>
-      <c r="J115" s="319"/>
-      <c r="K115" s="319"/>
-      <c r="L115" s="319"/>
-      <c r="M115" s="319"/>
-      <c r="N115" s="319"/>
-      <c r="O115" s="319"/>
-      <c r="P115" s="319"/>
+      <c r="B115" s="321"/>
+      <c r="C115" s="322"/>
+      <c r="D115" s="322"/>
+      <c r="E115" s="322"/>
+      <c r="F115" s="322"/>
+      <c r="G115" s="322"/>
+      <c r="H115" s="322"/>
+      <c r="I115" s="322"/>
+      <c r="J115" s="322"/>
+      <c r="K115" s="322"/>
+      <c r="L115" s="322"/>
+      <c r="M115" s="322"/>
+      <c r="N115" s="322"/>
+      <c r="O115" s="322"/>
+      <c r="P115" s="322"/>
     </row>
     <row r="116" spans="1:16" ht="12" customHeight="1">
       <c r="A116" s="62"/>
-      <c r="B116" s="318"/>
-      <c r="C116" s="319"/>
-      <c r="D116" s="319"/>
-      <c r="E116" s="319"/>
-      <c r="F116" s="319"/>
-      <c r="G116" s="319"/>
-      <c r="H116" s="319"/>
-      <c r="I116" s="319"/>
-      <c r="J116" s="319"/>
-      <c r="K116" s="319"/>
-      <c r="L116" s="319"/>
-      <c r="M116" s="319"/>
-      <c r="N116" s="319"/>
-      <c r="O116" s="319"/>
-      <c r="P116" s="319"/>
+      <c r="B116" s="321"/>
+      <c r="C116" s="322"/>
+      <c r="D116" s="322"/>
+      <c r="E116" s="322"/>
+      <c r="F116" s="322"/>
+      <c r="G116" s="322"/>
+      <c r="H116" s="322"/>
+      <c r="I116" s="322"/>
+      <c r="J116" s="322"/>
+      <c r="K116" s="322"/>
+      <c r="L116" s="322"/>
+      <c r="M116" s="322"/>
+      <c r="N116" s="322"/>
+      <c r="O116" s="322"/>
+      <c r="P116" s="322"/>
     </row>
     <row r="117" spans="1:16" ht="12" customHeight="1">
       <c r="A117" s="62"/>
@@ -21071,69 +21315,69 @@
     </row>
     <row r="118" spans="1:16" ht="12" customHeight="1">
       <c r="A118" s="62"/>
-      <c r="B118" s="318" t="s">
+      <c r="B118" s="321" t="s">
         <v>295</v>
       </c>
-      <c r="C118" s="319"/>
-      <c r="D118" s="319"/>
-      <c r="E118" s="319"/>
-      <c r="F118" s="319"/>
-      <c r="G118" s="319"/>
-      <c r="H118" s="319"/>
-      <c r="I118" s="319"/>
-      <c r="J118" s="319"/>
-      <c r="K118" s="319"/>
-      <c r="L118" s="319"/>
-      <c r="M118" s="319"/>
-      <c r="N118" s="319"/>
-      <c r="O118" s="319"/>
-      <c r="P118" s="319"/>
+      <c r="C118" s="322"/>
+      <c r="D118" s="322"/>
+      <c r="E118" s="322"/>
+      <c r="F118" s="322"/>
+      <c r="G118" s="322"/>
+      <c r="H118" s="322"/>
+      <c r="I118" s="322"/>
+      <c r="J118" s="322"/>
+      <c r="K118" s="322"/>
+      <c r="L118" s="322"/>
+      <c r="M118" s="322"/>
+      <c r="N118" s="322"/>
+      <c r="O118" s="322"/>
+      <c r="P118" s="322"/>
     </row>
     <row r="119" spans="1:16" ht="12" customHeight="1">
       <c r="A119" s="62"/>
-      <c r="B119" s="319"/>
-      <c r="C119" s="319"/>
-      <c r="D119" s="319"/>
-      <c r="E119" s="319"/>
-      <c r="F119" s="319"/>
-      <c r="G119" s="319"/>
-      <c r="H119" s="319"/>
-      <c r="I119" s="319"/>
-      <c r="J119" s="319"/>
-      <c r="K119" s="319"/>
-      <c r="L119" s="319"/>
-      <c r="M119" s="319"/>
-      <c r="N119" s="319"/>
-      <c r="O119" s="319"/>
-      <c r="P119" s="319"/>
+      <c r="B119" s="322"/>
+      <c r="C119" s="322"/>
+      <c r="D119" s="322"/>
+      <c r="E119" s="322"/>
+      <c r="F119" s="322"/>
+      <c r="G119" s="322"/>
+      <c r="H119" s="322"/>
+      <c r="I119" s="322"/>
+      <c r="J119" s="322"/>
+      <c r="K119" s="322"/>
+      <c r="L119" s="322"/>
+      <c r="M119" s="322"/>
+      <c r="N119" s="322"/>
+      <c r="O119" s="322"/>
+      <c r="P119" s="322"/>
     </row>
     <row r="120" spans="1:16" ht="12" customHeight="1">
       <c r="A120" s="62"/>
-      <c r="B120" s="319"/>
-      <c r="C120" s="319"/>
-      <c r="D120" s="319"/>
-      <c r="E120" s="319"/>
-      <c r="F120" s="319"/>
-      <c r="G120" s="319"/>
-      <c r="H120" s="319"/>
-      <c r="I120" s="319"/>
-      <c r="J120" s="319"/>
-      <c r="K120" s="319"/>
-      <c r="L120" s="319"/>
-      <c r="M120" s="319"/>
-      <c r="N120" s="319"/>
-      <c r="O120" s="319"/>
-      <c r="P120" s="319"/>
+      <c r="B120" s="322"/>
+      <c r="C120" s="322"/>
+      <c r="D120" s="322"/>
+      <c r="E120" s="322"/>
+      <c r="F120" s="322"/>
+      <c r="G120" s="322"/>
+      <c r="H120" s="322"/>
+      <c r="I120" s="322"/>
+      <c r="J120" s="322"/>
+      <c r="K120" s="322"/>
+      <c r="L120" s="322"/>
+      <c r="M120" s="322"/>
+      <c r="N120" s="322"/>
+      <c r="O120" s="322"/>
+      <c r="P120" s="322"/>
     </row>
     <row r="121" spans="1:16" ht="12" customHeight="1">
       <c r="A121" s="62"/>
-      <c r="B121" s="321" t="s">
+      <c r="B121" s="324" t="s">
         <v>301</v>
       </c>
-      <c r="C121" s="321"/>
-      <c r="D121" s="321"/>
-      <c r="E121" s="321"/>
-      <c r="F121" s="321"/>
+      <c r="C121" s="324"/>
+      <c r="D121" s="324"/>
+      <c r="E121" s="324"/>
+      <c r="F121" s="324"/>
       <c r="G121" s="40"/>
       <c r="H121" s="40"/>
       <c r="I121" s="40"/>
@@ -21176,13 +21420,13 @@
     </row>
     <row r="124" spans="1:16" ht="12" customHeight="1">
       <c r="A124" s="62"/>
-      <c r="B124" s="321" t="s">
+      <c r="B124" s="324" t="s">
         <v>298</v>
       </c>
-      <c r="C124" s="321"/>
-      <c r="D124" s="321"/>
-      <c r="E124" s="321"/>
-      <c r="F124" s="321"/>
+      <c r="C124" s="324"/>
+      <c r="D124" s="324"/>
+      <c r="E124" s="324"/>
+      <c r="F124" s="324"/>
       <c r="G124" s="40"/>
       <c r="H124" s="40"/>
       <c r="I124" s="40"/>
@@ -21211,13 +21455,13 @@
     <row r="126" spans="1:16" s="146" customFormat="1" ht="12" customHeight="1">
       <c r="A126" s="143"/>
       <c r="B126" s="144"/>
-      <c r="C126" s="320" t="s">
+      <c r="C126" s="323" t="s">
         <v>305</v>
       </c>
-      <c r="D126" s="320"/>
-      <c r="E126" s="320"/>
-      <c r="F126" s="320"/>
-      <c r="G126" s="320"/>
+      <c r="D126" s="323"/>
+      <c r="E126" s="323"/>
+      <c r="F126" s="323"/>
+      <c r="G126" s="323"/>
       <c r="H126" s="145"/>
       <c r="I126" s="145"/>
       <c r="J126" s="145"/>
